--- a/nubus-to-ztex/signals.xlsx
+++ b/nubus-to-ztex/signals.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="661">
   <si>
     <t xml:space="preserve">Connector PIN</t>
   </si>
@@ -1868,6 +1868,78 @@
   </si>
   <si>
     <t xml:space="preserve">3V3+5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_b0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_b4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_b6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_b7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_clk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_g0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_g1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_g2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_g4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_g5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_g6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_g7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_r0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vga_r7</t>
   </si>
   <si>
     <t xml:space="preserve">Slave</t>
@@ -2824,8 +2896,8 @@
   </sheetPr>
   <dimension ref="A1:AG231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB92" activeCellId="0" sqref="AB92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF104" activeCellId="0" sqref="AF104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8289,7 +8361,7 @@
       </c>
       <c r="AA80" s="0" t="n">
         <f aca="false">MAX(P88,P90,P91:P95,P97)</f>
-        <v>160.930870259</v>
+        <v>162.045174464</v>
       </c>
       <c r="AG80" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K80,3)="LED",LEFT(K80,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D80,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K80),"")</f>
@@ -8580,6 +8652,9 @@
         <f aca="false">CONCATENATE(IF(OR(T84="IO",T84="I"),V84,""),IF(OR(T84="IO",T84="O"),W84,""))</f>
         <v/>
       </c>
+      <c r="AB84" s="0" t="n">
+        <v>121.47</v>
+      </c>
       <c r="AG84" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K84,3)="LED",LEFT(K84,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D84,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K84),"")</f>
         <v/>
@@ -8841,15 +8916,15 @@
       </c>
       <c r="N88" s="4" t="n">
         <f aca="false">VLOOKUP(K88,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>131.400870259</v>
+        <v>132.514004972</v>
       </c>
       <c r="P88" s="4" t="n">
         <f aca="false">IF(AND(M88&gt;0,N88&gt;0),M88+N88, "N/A")</f>
-        <v>160.930870259</v>
+        <v>162.044004972</v>
       </c>
       <c r="Q88" s="29" t="n">
         <f aca="false">IF(P88&gt;0,P88/25.4,)</f>
-        <v>6.3358610338189</v>
+        <v>6.37968523511811</v>
       </c>
       <c r="S88" s="4" t="e">
         <f aca="false">IF(P88&gt;0,P$135-P88,"")</f>
@@ -8877,11 +8952,14 @@
       </c>
       <c r="AB88" s="0" t="n">
         <f aca="false">$AA$80-P88</f>
-        <v>0</v>
+        <v>0.00116949199997407</v>
+      </c>
+      <c r="AC88" s="0" t="n">
+        <v>115.108</v>
       </c>
       <c r="AD88" s="0" t="n">
         <f aca="false">AC88+AB88</f>
-        <v>0</v>
+        <v>115.109169492</v>
       </c>
       <c r="AE88" s="0" t="str">
         <f aca="false">H88</f>
@@ -9003,15 +9081,15 @@
       </c>
       <c r="N90" s="4" t="n">
         <f aca="false">VLOOKUP(K90,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>132.080452068</v>
+        <v>133.193911428</v>
       </c>
       <c r="P90" s="4" t="n">
         <f aca="false">IF(AND(M90&gt;0,N90&gt;0),M90+N90, "N/A")</f>
-        <v>160.930452068</v>
+        <v>162.043911428</v>
       </c>
       <c r="Q90" s="29" t="n">
         <f aca="false">IF(P90&gt;0,P90/25.4,)</f>
-        <v>6.3358445696063</v>
+        <v>6.37968155228347</v>
       </c>
       <c r="S90" s="4" t="e">
         <f aca="false">IF(P90&gt;0,P$135-P90,"")</f>
@@ -9039,11 +9117,14 @@
       </c>
       <c r="AB90" s="0" t="n">
         <f aca="false">$AA$80-P90</f>
-        <v>0.000418191000022716</v>
+        <v>0.00126303599998323</v>
+      </c>
+      <c r="AC90" s="0" t="n">
+        <v>121.065</v>
       </c>
       <c r="AD90" s="0" t="n">
         <f aca="false">AC90+AB90</f>
-        <v>0.000418191000022716</v>
+        <v>121.066263036</v>
       </c>
       <c r="AE90" s="0" t="str">
         <f aca="false">H90</f>
@@ -9089,15 +9170,15 @@
       </c>
       <c r="N91" s="4" t="n">
         <f aca="false">VLOOKUP(K91,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>132.610063881</v>
+        <v>133.724176597</v>
       </c>
       <c r="P91" s="4" t="n">
         <f aca="false">IF(AND(M91&gt;0,N91&gt;0),M91+N91, "N/A")</f>
-        <v>160.930063881</v>
+        <v>162.044176597</v>
       </c>
       <c r="Q91" s="29" t="n">
         <f aca="false">IF(P91&gt;0,P91/25.4,)</f>
-        <v>6.33582928665354</v>
+        <v>6.37969199200787</v>
       </c>
       <c r="S91" s="4" t="e">
         <f aca="false">IF(P91&gt;0,P$135-P91,"")</f>
@@ -9125,11 +9206,14 @@
       </c>
       <c r="AB91" s="0" t="n">
         <f aca="false">$AA$80-P91</f>
-        <v>0.000806378000021368</v>
+        <v>0.000997866999995267</v>
+      </c>
+      <c r="AC91" s="0" t="n">
+        <v>115.136</v>
       </c>
       <c r="AD91" s="0" t="n">
         <f aca="false">AC91+AB91</f>
-        <v>0.000806378000021368</v>
+        <v>115.136997867</v>
       </c>
       <c r="AE91" s="0" t="str">
         <f aca="false">H91</f>
@@ -9175,20 +9259,17 @@
       </c>
       <c r="N92" s="4" t="n">
         <f aca="false">VLOOKUP(K92,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>137.670744879</v>
+        <v>138.78363642</v>
       </c>
       <c r="P92" s="4" t="n">
         <f aca="false">IF(AND(M92&gt;0,N92&gt;0),M92+N92, "N/A")</f>
-        <v>160.930744879</v>
+        <v>162.04363642</v>
       </c>
       <c r="Q92" s="29" t="n">
         <f aca="false">IF(P92&gt;0,P92/25.4,)</f>
-        <v>6.33585609759843</v>
-      </c>
-      <c r="S92" s="4" t="e">
-        <f aca="false">IF(P92&gt;0,P$135-P92,"")</f>
-        <v>#N/A</v>
-      </c>
+        <v>6.37967072519685</v>
+      </c>
+      <c r="S92" s="0"/>
       <c r="T92" s="0" t="s">
         <v>36</v>
       </c>
@@ -9197,9 +9278,11 @@
         <v>set_property PACKAGE_PIN V2 [get_ports {HDMI_D1-}]
 set_property IOSTANDARD LVTTL [get_ports {HDMI_D1-}]</v>
       </c>
-      <c r="V92" s="31" t="e">
+      <c r="V92" s="31" t="str">
         <f aca="false">IF(AND(K92&lt;&gt;"",K92&lt;&gt;"+3v3",K92&lt;&gt;"GND",NOT(ISNA(P92)),NOT(ISNA(N92))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S92/$V$7,"0.000")," [get_ports {",K92,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S92/$W$7,"0.000")," [get_ports {",K92,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {HDMI_D1-}]
+set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {HDMI_D1-}]
+</v>
       </c>
       <c r="W92" s="31" t="e">
         <f aca="false">IF(AND(K92&lt;&gt;"",K92&lt;&gt;"+3v3",K92&lt;&gt;"GND",NOT(ISNA(P92)),NOT(ISNA(N92))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P92/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K92,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P92/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K92,"}]",CHAR(10)),"")</f>
@@ -9211,11 +9294,14 @@
       </c>
       <c r="AB92" s="0" t="n">
         <f aca="false">$AA$80-P92</f>
-        <v>0.000125380000014275</v>
+        <v>0.00153804400000013</v>
+      </c>
+      <c r="AC92" s="0" t="n">
+        <v>108.75</v>
       </c>
       <c r="AD92" s="0" t="n">
         <f aca="false">AC92+AB92</f>
-        <v>0.000125380000014275</v>
+        <v>108.751538044</v>
       </c>
       <c r="AE92" s="0" t="str">
         <f aca="false">H92</f>
@@ -9261,28 +9347,27 @@
       </c>
       <c r="N93" s="4" t="n">
         <f aca="false">VLOOKUP(K93,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>133.830185396</v>
+        <v>134.945174464</v>
       </c>
       <c r="P93" s="4" t="n">
         <f aca="false">IF(AND(M93&gt;0,N93&gt;0),M93+N93, "N/A")</f>
-        <v>160.930185396</v>
+        <v>162.045174464</v>
       </c>
       <c r="Q93" s="29" t="n">
         <f aca="false">IF(P93&gt;0,P93/25.4,)</f>
-        <v>6.33583407070866</v>
-      </c>
-      <c r="S93" s="4" t="e">
-        <f aca="false">IF(P93&gt;0,P$135-P93,"")</f>
-        <v>#N/A</v>
-      </c>
+        <v>6.37973127811024</v>
+      </c>
+      <c r="S93" s="0"/>
       <c r="U93" s="30" t="str">
         <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D93," [get_ports {",K93,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K93,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U1 [get_ports {HDMI_D0+}]
 set_property IOSTANDARD LVTTL [get_ports {HDMI_D0+}]</v>
       </c>
-      <c r="V93" s="31" t="e">
+      <c r="V93" s="31" t="str">
         <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND",NOT(ISNA(P93)),NOT(ISNA(N93))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S93/$V$7,"0.000")," [get_ports {",K93,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S93/$W$7,"0.000")," [get_ports {",K93,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {HDMI_D0+}]
+set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {HDMI_D0+}]
+</v>
       </c>
       <c r="W93" s="31" t="e">
         <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND",NOT(ISNA(P93)),NOT(ISNA(N93))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P93/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K93,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P93/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K93,"}]",CHAR(10)),"")</f>
@@ -9294,11 +9379,14 @@
       </c>
       <c r="AB93" s="0" t="n">
         <f aca="false">$AA$80-P93</f>
-        <v>0.00068486300003201</v>
+        <v>0</v>
+      </c>
+      <c r="AC93" s="0" t="n">
+        <v>114.631</v>
       </c>
       <c r="AD93" s="0" t="n">
         <f aca="false">AC93+AB93</f>
-        <v>0.00068486300003201</v>
+        <v>114.631</v>
       </c>
       <c r="AE93" s="0" t="str">
         <f aca="false">H93</f>
@@ -9344,20 +9432,17 @@
       </c>
       <c r="N94" s="4" t="n">
         <f aca="false">VLOOKUP(K94,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>138.700669432</v>
+        <v>139.813702343</v>
       </c>
       <c r="P94" s="4" t="n">
         <f aca="false">IF(AND(M94&gt;0,N94&gt;0),M94+N94, "N/A")</f>
-        <v>160.930669432</v>
+        <v>162.043702343</v>
       </c>
       <c r="Q94" s="29" t="n">
         <f aca="false">IF(P94&gt;0,P94/25.4,)</f>
-        <v>6.33585312724409</v>
-      </c>
-      <c r="S94" s="4" t="e">
-        <f aca="false">IF(P94&gt;0,P$135-P94,"")</f>
-        <v>#N/A</v>
-      </c>
+        <v>6.37967332059055</v>
+      </c>
+      <c r="S94" s="0"/>
       <c r="T94" s="0" t="s">
         <v>183</v>
       </c>
@@ -9366,25 +9451,32 @@
         <v>set_property PACKAGE_PIN U2 [get_ports {HDMI_D1+}]
 set_property IOSTANDARD LVTTL [get_ports {HDMI_D1+}]</v>
       </c>
-      <c r="V94" s="31" t="e">
+      <c r="V94" s="31" t="str">
         <f aca="false">IF(AND(K94&lt;&gt;"",K94&lt;&gt;"+3v3",K94&lt;&gt;"GND",NOT(ISNA(P94)),NOT(ISNA(N94))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S94/$V$7,"0.000")," [get_ports {",K94,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S94/$W$7,"0.000")," [get_ports {",K94,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {HDMI_D1+}]
+set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {HDMI_D1+}]
+</v>
       </c>
       <c r="W94" s="31" t="e">
         <f aca="false">IF(AND(K94&lt;&gt;"",K94&lt;&gt;"+3v3",K94&lt;&gt;"GND",NOT(ISNA(P94)),NOT(ISNA(N94))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P94/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K94,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P94/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K94,"}]",CHAR(10)),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="Y94" s="7" t="e">
+      <c r="Y94" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T94="IO",T94="I"),V94,""),IF(OR(T94="IO",T94="O"),W94,""))</f>
-        <v>#N/A</v>
+        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {HDMI_D1+}]
+set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {HDMI_D1+}]
+</v>
       </c>
       <c r="AB94" s="0" t="n">
         <f aca="false">$AA$80-P94</f>
-        <v>0.000200827000014669</v>
+        <v>0.00147212100000615</v>
+      </c>
+      <c r="AC94" s="0" t="n">
+        <v>108.245</v>
       </c>
       <c r="AD94" s="0" t="n">
         <f aca="false">AC94+AB94</f>
-        <v>0.000200827000014669</v>
+        <v>108.246472121</v>
       </c>
       <c r="AE94" s="0" t="str">
         <f aca="false">H94</f>
@@ -9432,28 +9524,27 @@
       </c>
       <c r="N95" s="4" t="n">
         <f aca="false">VLOOKUP(K95,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>136.480608992</v>
+        <v>137.594798416</v>
       </c>
       <c r="P95" s="4" t="n">
         <f aca="false">IF(AND(M95&gt;0,N95&gt;0),M95+N95, "N/A")</f>
-        <v>160.930608992</v>
+        <v>162.044798416</v>
       </c>
       <c r="Q95" s="29" t="n">
         <f aca="false">IF(P95&gt;0,P95/25.4,)</f>
-        <v>6.33585074771654</v>
-      </c>
-      <c r="S95" s="4" t="e">
-        <f aca="false">IF(P95&gt;0,P$135-P95,"")</f>
-        <v>#N/A</v>
-      </c>
+        <v>6.37971647307087</v>
+      </c>
+      <c r="S95" s="0"/>
       <c r="U95" s="30" t="str">
         <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D95," [get_ports {",K95,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K95,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T3 [get_ports {HDMI_D2-}]
 set_property IOSTANDARD LVTTL [get_ports {HDMI_D2-}]</v>
       </c>
-      <c r="V95" s="31" t="e">
+      <c r="V95" s="31" t="str">
         <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND",NOT(ISNA(P95)),NOT(ISNA(N95))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S95/$V$7,"0.000")," [get_ports {",K95,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S95/$W$7,"0.000")," [get_ports {",K95,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {HDMI_D2-}]
+set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {HDMI_D2-}]
+</v>
       </c>
       <c r="W95" s="31" t="e">
         <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND",NOT(ISNA(P95)),NOT(ISNA(N95))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P95/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K95,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P95/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K95,"}]",CHAR(10)),"")</f>
@@ -9465,11 +9556,14 @@
       </c>
       <c r="AB95" s="0" t="n">
         <f aca="false">$AA$80-P95</f>
-        <v>0.000261267000013277</v>
+        <v>0.000376047999992579</v>
+      </c>
+      <c r="AC95" s="0" t="n">
+        <v>106.361</v>
       </c>
       <c r="AD95" s="0" t="n">
         <f aca="false">AC95+AB95</f>
-        <v>0.000261267000013277</v>
+        <v>106.361376048</v>
       </c>
       <c r="AE95" s="0" t="str">
         <f aca="false">H95</f>
@@ -9515,22 +9609,19 @@
         <f aca="false">VLOOKUP(A96,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>29.19</v>
       </c>
-      <c r="N96" s="4" t="e">
+      <c r="N96" s="4" t="n">
         <f aca="false">VLOOKUP(K96,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P96" s="4" t="e">
+        <v>89.9661541214</v>
+      </c>
+      <c r="P96" s="4" t="n">
         <f aca="false">IF(AND(M96&gt;0,N96&gt;0),M96+N96, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q96" s="29" t="e">
+        <v>119.1561541214</v>
+      </c>
+      <c r="Q96" s="29" t="n">
         <f aca="false">IF(P96&gt;0,P96/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S96" s="4" t="e">
-        <f aca="false">IF(P96&gt;0,P$135-P96,"")</f>
-        <v>#N/A</v>
-      </c>
+        <v>4.69118717013386</v>
+      </c>
+      <c r="S96" s="0"/>
       <c r="T96" s="0" t="s">
         <v>183</v>
       </c>
@@ -9541,15 +9632,19 @@
       </c>
       <c r="V96" s="31" t="str">
         <f aca="false">IF(AND(K96&lt;&gt;"",K96&lt;&gt;"+3v3",K96&lt;&gt;"GND",NOT(ISNA(P96)),NOT(ISNA(N96))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S96/$V$7,"0.000")," [get_ports {",K96,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S96/$W$7,"0.000")," [get_ports {",K96,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W96" s="31" t="str">
+        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {vga_clk}]
+set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {vga_clk}]
+</v>
+      </c>
+      <c r="W96" s="31" t="e">
         <f aca="false">IF(AND(K96&lt;&gt;"",K96&lt;&gt;"+3v3",K96&lt;&gt;"GND",NOT(ISNA(P96)),NOT(ISNA(N96))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P96/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K96,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P96/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K96,"}]",CHAR(10)),"")</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="Y96" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T96="IO",T96="I"),V96,""),IF(OR(T96="IO",T96="O"),W96,""))</f>
-        <v/>
+        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {vga_clk}]
+set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {vga_clk}]
+</v>
       </c>
       <c r="AG96" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K96,3)="LED",LEFT(K96,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D96,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K96),"")</f>
@@ -9591,20 +9686,17 @@
       </c>
       <c r="N97" s="4" t="n">
         <f aca="false">VLOOKUP(K97,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>137.170277447</v>
+        <v>138.284849978</v>
       </c>
       <c r="P97" s="4" t="n">
         <f aca="false">IF(AND(M97&gt;0,N97&gt;0),M97+N97, "N/A")</f>
-        <v>160.930277447</v>
+        <v>162.044849978</v>
       </c>
       <c r="Q97" s="29" t="n">
         <f aca="false">IF(P97&gt;0,P97/25.4,)</f>
-        <v>6.33583769476378</v>
-      </c>
-      <c r="S97" s="4" t="e">
-        <f aca="false">IF(P97&gt;0,P$135-P97,"")</f>
-        <v>#N/A</v>
-      </c>
+        <v>6.37971850307087</v>
+      </c>
+      <c r="S97" s="0"/>
       <c r="T97" s="0" t="s">
         <v>62</v>
       </c>
@@ -9613,9 +9705,11 @@
         <v>set_property PACKAGE_PIN R3 [get_ports {HDMI_D2+}]
 set_property IOSTANDARD LVTTL [get_ports {HDMI_D2+}]</v>
       </c>
-      <c r="V97" s="31" t="e">
+      <c r="V97" s="31" t="str">
         <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND",NOT(ISNA(P97)),NOT(ISNA(N97))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S97/$V$7,"0.000")," [get_ports {",K97,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S97/$W$7,"0.000")," [get_ports {",K97,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {HDMI_D2+}]
+set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {HDMI_D2+}]
+</v>
       </c>
       <c r="W97" s="31" t="e">
         <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND",NOT(ISNA(P97)),NOT(ISNA(N97))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P97/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K97,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P97/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K97,"}]",CHAR(10)),"")</f>
@@ -9627,11 +9721,14 @@
       </c>
       <c r="AB97" s="0" t="n">
         <f aca="false">$AA$80-P97</f>
-        <v>0.000592812000036247</v>
+        <v>0.000324486000010893</v>
+      </c>
+      <c r="AC97" s="0" t="n">
+        <v>105.856</v>
       </c>
       <c r="AD97" s="0" t="n">
         <f aca="false">AC97+AB97</f>
-        <v>0.000592812000036247</v>
+        <v>105.856324486</v>
       </c>
       <c r="AE97" s="0" t="str">
         <f aca="false">H97</f>
@@ -9675,10 +9772,7 @@
         <f aca="false">IF(P98&gt;0,P98/25.4,)</f>
         <v>0</v>
       </c>
-      <c r="S98" s="4" t="str">
-        <f aca="false">IF(P98&gt;0,P$135-P98,"")</f>
-        <v/>
-      </c>
+      <c r="S98" s="0"/>
       <c r="U98" s="30" t="str">
         <f aca="false">IF(AND(K98&lt;&gt;"",K98&lt;&gt;"+3v3",K98&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D98," [get_ports {",K98,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K98,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN  [get_ports {0}]
@@ -9737,10 +9831,7 @@
         <f aca="false">IF(P99&gt;0,P99/25.4,)</f>
         <v>0</v>
       </c>
-      <c r="S99" s="4" t="str">
-        <f aca="false">IF(P99&gt;0,P$135-P99,"")</f>
-        <v/>
-      </c>
+      <c r="S99" s="0"/>
       <c r="U99" s="30" t="e">
         <f aca="false">IF(AND(K99&lt;&gt;"",K99&lt;&gt;"+3v3",K99&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D99," [get_ports {",K99,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K99,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
@@ -9934,6 +10025,10 @@
         <f aca="false">CONCATENATE(IF(OR(T102="IO",T102="I"),V102,""),IF(OR(T102="IO",T102="O"),W102,""))</f>
         <v/>
       </c>
+      <c r="AA102" s="0" t="n">
+        <f aca="false">MIN(P104:P127,P96)</f>
+        <v>98.8235085154</v>
+      </c>
       <c r="AG102" s="8" t="e">
         <f aca="false">IF(OR(LEFT(K102,3)="LED",LEFT(K102,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D102,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K102),"")</f>
         <v>#VALUE!</v>
@@ -9993,6 +10088,10 @@
         <f aca="false">CONCATENATE(IF(OR(T103="IO",T103="I"),V103,""),IF(OR(T103="IO",T103="O"),W103,""))</f>
         <v/>
       </c>
+      <c r="AA103" s="0" t="n">
+        <f aca="false">MAX(P104:P127,P96)</f>
+        <v>119.1561541214</v>
+      </c>
       <c r="AG103" s="8" t="e">
         <f aca="false">IF(OR(LEFT(K103,3)="LED",LEFT(K103,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D103,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K103),"")</f>
         <v>#VALUE!</v>
@@ -10031,17 +10130,17 @@
         <f aca="false">VLOOKUP(A104,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>15.66</v>
       </c>
-      <c r="N104" s="4" t="e">
+      <c r="N104" s="4" t="n">
         <f aca="false">VLOOKUP(K104,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P104" s="4" t="e">
+        <v>89.9660621636</v>
+      </c>
+      <c r="P104" s="4" t="n">
         <f aca="false">IF(AND(M104&gt;0,N104&gt;0),M104+N104, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q104" s="29" t="e">
+        <v>105.6260621636</v>
+      </c>
+      <c r="Q104" s="29" t="n">
         <f aca="false">IF(P104&gt;0,P104/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.1585063843937</v>
       </c>
       <c r="S104" s="4" t="e">
         <f aca="false">IF(P104&gt;0,P$135-P104,"")</f>
@@ -10055,17 +10154,33 @@
         <v>set_property PACKAGE_PIN N6 [get_ports {vga_b7 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b7 }]</v>
       </c>
-      <c r="V104" s="31" t="str">
+      <c r="V104" s="31" t="e">
         <f aca="false">IF(AND(K104&lt;&gt;"",K104&lt;&gt;"+3v3",K104&lt;&gt;"GND",NOT(ISNA(P104)),NOT(ISNA(N104))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S104/$V$7,"0.000")," [get_ports {",K104,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S104/$W$7,"0.000")," [get_ports {",K104,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W104" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W104" s="31" t="e">
         <f aca="false">IF(AND(K104&lt;&gt;"",K104&lt;&gt;"+3v3",K104&lt;&gt;"GND",NOT(ISNA(P104)),NOT(ISNA(N104))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P104/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K104,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P104/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K104,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y104" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y104" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T104="IO",T104="I"),V104,""),IF(OR(T104="IO",T104="O"),W104,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB104" s="0" t="n">
+        <f aca="false">$AA$103-P104</f>
+        <v>13.5300919578</v>
+      </c>
+      <c r="AC104" s="4" t="n">
+        <f aca="false">N104</f>
+        <v>89.9660621636</v>
+      </c>
+      <c r="AD104" s="0" t="n">
+        <f aca="false">AC104+AB104</f>
+        <v>103.4961541214</v>
+      </c>
+      <c r="AE104" s="0" t="str">
+        <f aca="false">H104</f>
+        <v>vga_b7</v>
       </c>
       <c r="AG104" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K104,3)="LED",LEFT(K104,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D104,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K104),"")</f>
@@ -10107,17 +10222,17 @@
         <f aca="false">VLOOKUP(A105,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>19.51</v>
       </c>
-      <c r="N105" s="4" t="e">
+      <c r="N105" s="4" t="n">
         <f aca="false">VLOOKUP(K105,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P105" s="4" t="e">
+        <v>89.9660349391</v>
+      </c>
+      <c r="P105" s="4" t="n">
         <f aca="false">IF(AND(M105&gt;0,N105&gt;0),M105+N105, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q105" s="29" t="e">
+        <v>109.4760349391</v>
+      </c>
+      <c r="Q105" s="29" t="n">
         <f aca="false">IF(P105&gt;0,P105/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.3100801157126</v>
       </c>
       <c r="S105" s="4" t="e">
         <f aca="false">IF(P105&gt;0,P$135-P105,"")</f>
@@ -10128,17 +10243,33 @@
         <v>set_property PACKAGE_PIN P5 [get_ports {vga_r0 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r0 }]</v>
       </c>
-      <c r="V105" s="31" t="str">
+      <c r="V105" s="31" t="e">
         <f aca="false">IF(AND(K105&lt;&gt;"",K105&lt;&gt;"+3v3",K105&lt;&gt;"GND",NOT(ISNA(P105)),NOT(ISNA(N105))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S105/$V$7,"0.000")," [get_ports {",K105,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S105/$W$7,"0.000")," [get_ports {",K105,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W105" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W105" s="31" t="e">
         <f aca="false">IF(AND(K105&lt;&gt;"",K105&lt;&gt;"+3v3",K105&lt;&gt;"GND",NOT(ISNA(P105)),NOT(ISNA(N105))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P105/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K105,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P105/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K105,"}]",CHAR(10)),"")</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="Y105" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T105="IO",T105="I"),V105,""),IF(OR(T105="IO",T105="O"),W105,""))</f>
         <v/>
+      </c>
+      <c r="AB105" s="0" t="n">
+        <f aca="false">$AA$103-P105</f>
+        <v>9.68011918229999</v>
+      </c>
+      <c r="AC105" s="4" t="n">
+        <f aca="false">N105</f>
+        <v>89.9660349391</v>
+      </c>
+      <c r="AD105" s="0" t="n">
+        <f aca="false">AC105+AB105</f>
+        <v>99.6461541214</v>
+      </c>
+      <c r="AE105" s="0" t="str">
+        <f aca="false">H105</f>
+        <v>vga_r0</v>
       </c>
       <c r="AG105" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K105,3)="LED",LEFT(K105,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D105,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K105),"")</f>
@@ -10178,17 +10309,17 @@
         <f aca="false">VLOOKUP(A106,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>13.54</v>
       </c>
-      <c r="N106" s="4" t="e">
+      <c r="N106" s="4" t="n">
         <f aca="false">VLOOKUP(K106,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P106" s="4" t="e">
+        <v>89.9660684757</v>
+      </c>
+      <c r="P106" s="4" t="n">
         <f aca="false">IF(AND(M106&gt;0,N106&gt;0),M106+N106, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q106" s="29" t="e">
+        <v>103.5060684757</v>
+      </c>
+      <c r="Q106" s="29" t="n">
         <f aca="false">IF(P106&gt;0,P106/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.07504206597244</v>
       </c>
       <c r="S106" s="4" t="e">
         <f aca="false">IF(P106&gt;0,P$135-P106,"")</f>
@@ -10202,17 +10333,33 @@
         <v>set_property PACKAGE_PIN M6 [get_ports {vga_b6 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b6 }]</v>
       </c>
-      <c r="V106" s="31" t="str">
+      <c r="V106" s="31" t="e">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S106/$V$7,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S106/$W$7,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W106" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W106" s="31" t="e">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P106/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P106/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y106" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y106" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T106="IO",T106="I"),V106,""),IF(OR(T106="IO",T106="O"),W106,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB106" s="0" t="n">
+        <f aca="false">$AA$103-P106</f>
+        <v>15.6500856457</v>
+      </c>
+      <c r="AC106" s="4" t="n">
+        <f aca="false">N106</f>
+        <v>89.9660684757</v>
+      </c>
+      <c r="AD106" s="0" t="n">
+        <f aca="false">AC106+AB106</f>
+        <v>105.6161541214</v>
+      </c>
+      <c r="AE106" s="0" t="str">
+        <f aca="false">H106</f>
+        <v>vga_b6</v>
       </c>
       <c r="AG106" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K106,3)="LED",LEFT(K106,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D106,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K106),"")</f>
@@ -10254,17 +10401,17 @@
         <f aca="false">VLOOKUP(A107,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>17.59</v>
       </c>
-      <c r="N107" s="4" t="e">
+      <c r="N107" s="4" t="n">
         <f aca="false">VLOOKUP(K107,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P107" s="4" t="e">
+        <v>90.1710891011</v>
+      </c>
+      <c r="P107" s="4" t="n">
         <f aca="false">IF(AND(M107&gt;0,N107&gt;0),M107+N107, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q107" s="29" t="e">
+        <v>107.7610891011</v>
+      </c>
+      <c r="Q107" s="29" t="n">
         <f aca="false">IF(P107&gt;0,P107/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.24256256303543</v>
       </c>
       <c r="S107" s="4" t="e">
         <f aca="false">IF(P107&gt;0,P$135-P107,"")</f>
@@ -10278,17 +10425,33 @@
         <v>set_property PACKAGE_PIN N5 [get_ports {vga_r1 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r1 }]</v>
       </c>
-      <c r="V107" s="31" t="str">
+      <c r="V107" s="31" t="e">
         <f aca="false">IF(AND(K107&lt;&gt;"",K107&lt;&gt;"+3v3",K107&lt;&gt;"GND",NOT(ISNA(P107)),NOT(ISNA(N107))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S107/$V$7,"0.000")," [get_ports {",K107,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S107/$W$7,"0.000")," [get_ports {",K107,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W107" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W107" s="31" t="e">
         <f aca="false">IF(AND(K107&lt;&gt;"",K107&lt;&gt;"+3v3",K107&lt;&gt;"GND",NOT(ISNA(P107)),NOT(ISNA(N107))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P107/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K107,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P107/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K107,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y107" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y107" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T107="IO",T107="I"),V107,""),IF(OR(T107="IO",T107="O"),W107,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB107" s="0" t="n">
+        <f aca="false">$AA$103-P107</f>
+        <v>11.3950650203</v>
+      </c>
+      <c r="AC107" s="4" t="n">
+        <f aca="false">N107</f>
+        <v>90.1710891011</v>
+      </c>
+      <c r="AD107" s="0" t="n">
+        <f aca="false">AC107+AB107</f>
+        <v>101.5661541214</v>
+      </c>
+      <c r="AE107" s="0" t="str">
+        <f aca="false">H107</f>
+        <v>vga_r1</v>
       </c>
       <c r="AG107" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K107,3)="LED",LEFT(K107,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D107,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K107),"")</f>
@@ -10328,17 +10491,17 @@
         <f aca="false">VLOOKUP(A108,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>13.92</v>
       </c>
-      <c r="N108" s="4" t="e">
+      <c r="N108" s="4" t="n">
         <f aca="false">VLOOKUP(K108,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P108" s="4" t="e">
+        <v>89.9263480229</v>
+      </c>
+      <c r="P108" s="4" t="n">
         <f aca="false">IF(AND(M108&gt;0,N108&gt;0),M108+N108, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q108" s="29" t="e">
+        <v>103.8463480229</v>
+      </c>
+      <c r="Q108" s="29" t="n">
         <f aca="false">IF(P108&gt;0,P108/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.08843889853937</v>
       </c>
       <c r="S108" s="4" t="e">
         <f aca="false">IF(P108&gt;0,P$135-P108,"")</f>
@@ -10352,17 +10515,33 @@
         <v>set_property PACKAGE_PIN L6 [get_ports {vga_b5 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b5 }]</v>
       </c>
-      <c r="V108" s="31" t="str">
+      <c r="V108" s="31" t="e">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S108/$V$7,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S108/$W$7,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W108" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W108" s="31" t="e">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P108/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P108/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y108" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y108" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T108="IO",T108="I"),V108,""),IF(OR(T108="IO",T108="O"),W108,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB108" s="0" t="n">
+        <f aca="false">$AA$103-P108</f>
+        <v>15.3098060985</v>
+      </c>
+      <c r="AC108" s="4" t="n">
+        <f aca="false">N108</f>
+        <v>89.9263480229</v>
+      </c>
+      <c r="AD108" s="0" t="n">
+        <f aca="false">AC108+AB108</f>
+        <v>105.2361541214</v>
+      </c>
+      <c r="AE108" s="0" t="str">
+        <f aca="false">H108</f>
+        <v>vga_b5</v>
       </c>
       <c r="AG108" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K108,3)="LED",LEFT(K108,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D108,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K108),"")</f>
@@ -10404,17 +10583,17 @@
         <f aca="false">VLOOKUP(A109,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>14.73</v>
       </c>
-      <c r="N109" s="4" t="e">
+      <c r="N109" s="4" t="n">
         <f aca="false">VLOOKUP(K109,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P109" s="4" t="e">
+        <v>89.9660466871</v>
+      </c>
+      <c r="P109" s="4" t="n">
         <f aca="false">IF(AND(M109&gt;0,N109&gt;0),M109+N109, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q109" s="29" t="e">
+        <v>104.6960466871</v>
+      </c>
+      <c r="Q109" s="29" t="n">
         <f aca="false">IF(P109&gt;0,P109/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.12189160185433</v>
       </c>
       <c r="S109" s="4" t="e">
         <f aca="false">IF(P109&gt;0,P$135-P109,"")</f>
@@ -10425,17 +10604,33 @@
         <v>set_property PACKAGE_PIN P4 [get_ports {vga_r2 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r2 }]</v>
       </c>
-      <c r="V109" s="31" t="str">
+      <c r="V109" s="31" t="e">
         <f aca="false">IF(AND(K109&lt;&gt;"",K109&lt;&gt;"+3v3",K109&lt;&gt;"GND",NOT(ISNA(P109)),NOT(ISNA(N109))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S109/$V$7,"0.000")," [get_ports {",K109,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S109/$W$7,"0.000")," [get_ports {",K109,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W109" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W109" s="31" t="e">
         <f aca="false">IF(AND(K109&lt;&gt;"",K109&lt;&gt;"+3v3",K109&lt;&gt;"GND",NOT(ISNA(P109)),NOT(ISNA(N109))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P109/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K109,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P109/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K109,"}]",CHAR(10)),"")</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="Y109" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T109="IO",T109="I"),V109,""),IF(OR(T109="IO",T109="O"),W109,""))</f>
         <v/>
+      </c>
+      <c r="AB109" s="0" t="n">
+        <f aca="false">$AA$103-P109</f>
+        <v>14.4601074343</v>
+      </c>
+      <c r="AC109" s="4" t="n">
+        <f aca="false">N109</f>
+        <v>89.9660466871</v>
+      </c>
+      <c r="AD109" s="0" t="n">
+        <f aca="false">AC109+AB109</f>
+        <v>104.4261541214</v>
+      </c>
+      <c r="AE109" s="0" t="str">
+        <f aca="false">H109</f>
+        <v>vga_r2</v>
       </c>
       <c r="AG109" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K109,3)="LED",LEFT(K109,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D109,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K109),"")</f>
@@ -10477,17 +10672,17 @@
         <f aca="false">VLOOKUP(A110,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>10.82</v>
       </c>
-      <c r="N110" s="4" t="e">
+      <c r="N110" s="4" t="n">
         <f aca="false">VLOOKUP(K110,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P110" s="4" t="e">
+        <v>89.9920206344</v>
+      </c>
+      <c r="P110" s="4" t="n">
         <f aca="false">IF(AND(M110&gt;0,N110&gt;0),M110+N110, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q110" s="29" t="e">
+        <v>100.8120206344</v>
+      </c>
+      <c r="Q110" s="29" t="n">
         <f aca="false">IF(P110&gt;0,P110/25.4,)</f>
-        <v>#N/A</v>
+        <v>3.96897719033071</v>
       </c>
       <c r="S110" s="4" t="e">
         <f aca="false">IF(P110&gt;0,P$135-P110,"")</f>
@@ -10501,17 +10696,33 @@
         <v>set_property PACKAGE_PIN L5 [get_ports {vga_b4 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b4 }]</v>
       </c>
-      <c r="V110" s="31" t="str">
+      <c r="V110" s="31" t="e">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S110/$V$7,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S110/$W$7,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W110" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W110" s="31" t="e">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P110/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P110/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y110" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y110" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T110="IO",T110="I"),V110,""),IF(OR(T110="IO",T110="O"),W110,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB110" s="0" t="n">
+        <f aca="false">$AA$103-P110</f>
+        <v>18.344133487</v>
+      </c>
+      <c r="AC110" s="4" t="n">
+        <f aca="false">N110</f>
+        <v>89.9920206344</v>
+      </c>
+      <c r="AD110" s="0" t="n">
+        <f aca="false">AC110+AB110</f>
+        <v>108.3361541214</v>
+      </c>
+      <c r="AE110" s="0" t="str">
+        <f aca="false">H110</f>
+        <v>vga_b4</v>
       </c>
       <c r="AG110" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K110,3)="LED",LEFT(K110,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D110,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K110),"")</f>
@@ -10553,17 +10764,17 @@
         <f aca="false">VLOOKUP(A111,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>13.62</v>
       </c>
-      <c r="N111" s="4" t="e">
+      <c r="N111" s="4" t="n">
         <f aca="false">VLOOKUP(K111,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P111" s="4" t="e">
+        <v>89.9846914763</v>
+      </c>
+      <c r="P111" s="4" t="n">
         <f aca="false">IF(AND(M111&gt;0,N111&gt;0),M111+N111, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q111" s="29" t="e">
+        <v>103.6046914763</v>
+      </c>
+      <c r="Q111" s="29" t="n">
         <f aca="false">IF(P111&gt;0,P111/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.07892486127165</v>
       </c>
       <c r="S111" s="4" t="e">
         <f aca="false">IF(P111&gt;0,P$135-P111,"")</f>
@@ -10574,17 +10785,33 @@
         <v>set_property PACKAGE_PIN P3 [get_ports {vga_r3 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r3 }]</v>
       </c>
-      <c r="V111" s="31" t="str">
+      <c r="V111" s="31" t="e">
         <f aca="false">IF(AND(K111&lt;&gt;"",K111&lt;&gt;"+3v3",K111&lt;&gt;"GND",NOT(ISNA(P111)),NOT(ISNA(N111))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S111/$V$7,"0.000")," [get_ports {",K111,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S111/$W$7,"0.000")," [get_ports {",K111,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W111" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W111" s="31" t="e">
         <f aca="false">IF(AND(K111&lt;&gt;"",K111&lt;&gt;"+3v3",K111&lt;&gt;"GND",NOT(ISNA(P111)),NOT(ISNA(N111))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P111/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K111,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P111/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K111,"}]",CHAR(10)),"")</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="Y111" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T111="IO",T111="I"),V111,""),IF(OR(T111="IO",T111="O"),W111,""))</f>
         <v/>
+      </c>
+      <c r="AB111" s="0" t="n">
+        <f aca="false">$AA$103-P111</f>
+        <v>15.5514626451</v>
+      </c>
+      <c r="AC111" s="4" t="n">
+        <f aca="false">N111</f>
+        <v>89.9846914763</v>
+      </c>
+      <c r="AD111" s="0" t="n">
+        <f aca="false">AC111+AB111</f>
+        <v>105.5361541214</v>
+      </c>
+      <c r="AE111" s="0" t="str">
+        <f aca="false">H111</f>
+        <v>vga_r3</v>
       </c>
       <c r="AG111" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K111,3)="LED",LEFT(K111,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D111,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K111),"")</f>
@@ -10624,17 +10851,17 @@
         <f aca="false">VLOOKUP(A112,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>8.85</v>
       </c>
-      <c r="N112" s="4" t="e">
+      <c r="N112" s="4" t="n">
         <f aca="false">VLOOKUP(K112,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P112" s="4" t="e">
+        <v>89.9735085154</v>
+      </c>
+      <c r="P112" s="4" t="n">
         <f aca="false">IF(AND(M112&gt;0,N112&gt;0),M112+N112, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q112" s="29" t="e">
+        <v>98.8235085154</v>
+      </c>
+      <c r="Q112" s="29" t="n">
         <f aca="false">IF(P112&gt;0,P112/25.4,)</f>
-        <v>#N/A</v>
+        <v>3.89068931162992</v>
       </c>
       <c r="S112" s="4" t="e">
         <f aca="false">IF(P112&gt;0,P$135-P112,"")</f>
@@ -10648,17 +10875,33 @@
         <v>set_property PACKAGE_PIN N4 [get_ports {vga_b3 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b3 }]</v>
       </c>
-      <c r="V112" s="31" t="str">
+      <c r="V112" s="31" t="e">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S112/$V$7,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S112/$W$7,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W112" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W112" s="31" t="e">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P112/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P112/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y112" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y112" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T112="IO",T112="I"),V112,""),IF(OR(T112="IO",T112="O"),W112,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB112" s="0" t="n">
+        <f aca="false">$AA$103-P112</f>
+        <v>20.332645606</v>
+      </c>
+      <c r="AC112" s="4" t="n">
+        <f aca="false">N112</f>
+        <v>89.9735085154</v>
+      </c>
+      <c r="AD112" s="0" t="n">
+        <f aca="false">AC112+AB112</f>
+        <v>110.3061541214</v>
+      </c>
+      <c r="AE112" s="0" t="str">
+        <f aca="false">H112</f>
+        <v>vga_b3</v>
       </c>
       <c r="AG112" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K112,3)="LED",LEFT(K112,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D112,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K112),"")</f>
@@ -10698,17 +10941,17 @@
         <f aca="false">VLOOKUP(A113,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>11.52</v>
       </c>
-      <c r="N113" s="4" t="e">
+      <c r="N113" s="4" t="n">
         <f aca="false">VLOOKUP(K113,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P113" s="4" t="e">
+        <v>90.0014674683</v>
+      </c>
+      <c r="P113" s="4" t="n">
         <f aca="false">IF(AND(M113&gt;0,N113&gt;0),M113+N113, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q113" s="29" t="e">
+        <v>101.5214674683</v>
+      </c>
+      <c r="Q113" s="29" t="n">
         <f aca="false">IF(P113&gt;0,P113/25.4,)</f>
-        <v>#N/A</v>
+        <v>3.99690816804331</v>
       </c>
       <c r="S113" s="4" t="e">
         <f aca="false">IF(P113&gt;0,P$135-P113,"")</f>
@@ -10719,17 +10962,33 @@
         <v>set_property PACKAGE_PIN T1 [get_ports {vga_r4 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r4 }]</v>
       </c>
-      <c r="V113" s="31" t="str">
+      <c r="V113" s="31" t="e">
         <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND",NOT(ISNA(P113)),NOT(ISNA(N113))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S113/$V$7,"0.000")," [get_ports {",K113,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S113/$W$7,"0.000")," [get_ports {",K113,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W113" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W113" s="31" t="e">
         <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND",NOT(ISNA(P113)),NOT(ISNA(N113))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P113/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K113,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P113/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K113,"}]",CHAR(10)),"")</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="Y113" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T113="IO",T113="I"),V113,""),IF(OR(T113="IO",T113="O"),W113,""))</f>
         <v/>
+      </c>
+      <c r="AB113" s="0" t="n">
+        <f aca="false">$AA$103-P113</f>
+        <v>17.6346866531</v>
+      </c>
+      <c r="AC113" s="4" t="n">
+        <f aca="false">N113</f>
+        <v>90.0014674683</v>
+      </c>
+      <c r="AD113" s="0" t="n">
+        <f aca="false">AC113+AB113</f>
+        <v>107.6361541214</v>
+      </c>
+      <c r="AE113" s="0" t="str">
+        <f aca="false">H113</f>
+        <v>vga_r4</v>
       </c>
       <c r="AG113" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K113,3)="LED",LEFT(K113,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D113,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K113),"")</f>
@@ -10769,17 +11028,17 @@
         <f aca="false">VLOOKUP(A114,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>10.26</v>
       </c>
-      <c r="N114" s="4" t="e">
+      <c r="N114" s="4" t="n">
         <f aca="false">VLOOKUP(K114,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P114" s="4" t="e">
+        <v>90.0634455697</v>
+      </c>
+      <c r="P114" s="4" t="n">
         <f aca="false">IF(AND(M114&gt;0,N114&gt;0),M114+N114, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q114" s="29" t="e">
+        <v>100.3234455697</v>
+      </c>
+      <c r="Q114" s="29" t="n">
         <f aca="false">IF(P114&gt;0,P114/25.4,)</f>
-        <v>#N/A</v>
+        <v>3.94974195156299</v>
       </c>
       <c r="S114" s="4" t="e">
         <f aca="false">IF(P114&gt;0,P$135-P114,"")</f>
@@ -10793,17 +11052,33 @@
         <v>set_property PACKAGE_PIN M4 [get_ports {vga_b2 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b2 }]</v>
       </c>
-      <c r="V114" s="31" t="str">
+      <c r="V114" s="31" t="e">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S114/$V$7,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S114/$W$7,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W114" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W114" s="31" t="e">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P114/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P114/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y114" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y114" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T114="IO",T114="I"),V114,""),IF(OR(T114="IO",T114="O"),W114,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB114" s="0" t="n">
+        <f aca="false">$AA$103-P114</f>
+        <v>18.8327085517</v>
+      </c>
+      <c r="AC114" s="4" t="n">
+        <f aca="false">N114</f>
+        <v>90.0634455697</v>
+      </c>
+      <c r="AD114" s="0" t="n">
+        <f aca="false">AC114+AB114</f>
+        <v>108.8961541214</v>
+      </c>
+      <c r="AE114" s="0" t="str">
+        <f aca="false">H114</f>
+        <v>vga_b2</v>
       </c>
       <c r="AG114" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K114,3)="LED",LEFT(K114,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D114,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K114),"")</f>
@@ -10843,17 +11118,17 @@
         <f aca="false">VLOOKUP(A115,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>12.91</v>
       </c>
-      <c r="N115" s="4" t="e">
+      <c r="N115" s="4" t="n">
         <f aca="false">VLOOKUP(K115,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P115" s="4" t="e">
+        <v>89.9877136591</v>
+      </c>
+      <c r="P115" s="4" t="n">
         <f aca="false">IF(AND(M115&gt;0,N115&gt;0),M115+N115, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q115" s="29" t="e">
+        <v>102.8977136591</v>
+      </c>
+      <c r="Q115" s="29" t="n">
         <f aca="false">IF(P115&gt;0,P115/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.05109108894095</v>
       </c>
       <c r="S115" s="4" t="e">
         <f aca="false">IF(P115&gt;0,P$135-P115,"")</f>
@@ -10864,17 +11139,33 @@
         <v>set_property PACKAGE_PIN R1 [get_ports {vga_r5 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r5 }]</v>
       </c>
-      <c r="V115" s="31" t="str">
+      <c r="V115" s="31" t="e">
         <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND",NOT(ISNA(P115)),NOT(ISNA(N115))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S115/$V$7,"0.000")," [get_ports {",K115,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S115/$W$7,"0.000")," [get_ports {",K115,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W115" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W115" s="31" t="e">
         <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND",NOT(ISNA(P115)),NOT(ISNA(N115))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P115/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K115,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P115/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K115,"}]",CHAR(10)),"")</f>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="Y115" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T115="IO",T115="I"),V115,""),IF(OR(T115="IO",T115="O"),W115,""))</f>
         <v/>
+      </c>
+      <c r="AB115" s="0" t="n">
+        <f aca="false">$AA$103-P115</f>
+        <v>16.2584404623</v>
+      </c>
+      <c r="AC115" s="4" t="n">
+        <f aca="false">N115</f>
+        <v>89.9877136591</v>
+      </c>
+      <c r="AD115" s="0" t="n">
+        <f aca="false">AC115+AB115</f>
+        <v>106.2461541214</v>
+      </c>
+      <c r="AE115" s="0" t="str">
+        <f aca="false">H115</f>
+        <v>vga_r5</v>
       </c>
       <c r="AG115" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K115,3)="LED",LEFT(K115,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D115,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K115),"")</f>
@@ -10914,17 +11205,17 @@
         <f aca="false">VLOOKUP(A116,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>10.34</v>
       </c>
-      <c r="N116" s="4" t="e">
+      <c r="N116" s="4" t="n">
         <f aca="false">VLOOKUP(K116,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P116" s="4" t="e">
+        <v>89.9663012758</v>
+      </c>
+      <c r="P116" s="4" t="n">
         <f aca="false">IF(AND(M116&gt;0,N116&gt;0),M116+N116, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q116" s="29" t="e">
+        <v>100.3063012758</v>
+      </c>
+      <c r="Q116" s="29" t="n">
         <f aca="false">IF(P116&gt;0,P116/25.4,)</f>
-        <v>#N/A</v>
+        <v>3.94906697936221</v>
       </c>
       <c r="S116" s="4" t="e">
         <f aca="false">IF(P116&gt;0,P$135-P116,"")</f>
@@ -10938,17 +11229,33 @@
         <v>set_property PACKAGE_PIN M3 [get_ports {vga_b1 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b1 }]</v>
       </c>
-      <c r="V116" s="31" t="str">
+      <c r="V116" s="31" t="e">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S116/$V$7,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S116/$W$7,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W116" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W116" s="31" t="e">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P116/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P116/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y116" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y116" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T116="IO",T116="I"),V116,""),IF(OR(T116="IO",T116="O"),W116,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB116" s="0" t="n">
+        <f aca="false">$AA$103-P116</f>
+        <v>18.8498528456</v>
+      </c>
+      <c r="AC116" s="4" t="n">
+        <f aca="false">N116</f>
+        <v>89.9663012758</v>
+      </c>
+      <c r="AD116" s="0" t="n">
+        <f aca="false">AC116+AB116</f>
+        <v>108.8161541214</v>
+      </c>
+      <c r="AE116" s="0" t="str">
+        <f aca="false">H116</f>
+        <v>vga_b1</v>
       </c>
       <c r="AG116" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K116,3)="LED",LEFT(K116,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D116,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K116),"")</f>
@@ -10988,17 +11295,17 @@
         <f aca="false">VLOOKUP(A117,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>14.18</v>
       </c>
-      <c r="N117" s="4" t="e">
+      <c r="N117" s="4" t="n">
         <f aca="false">VLOOKUP(K117,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P117" s="4" t="e">
+        <v>89.966189643</v>
+      </c>
+      <c r="P117" s="4" t="n">
         <f aca="false">IF(AND(M117&gt;0,N117&gt;0),M117+N117, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q117" s="29" t="e">
+        <v>104.146189643</v>
+      </c>
+      <c r="Q117" s="29" t="n">
         <f aca="false">IF(P117&gt;0,P117/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.10024368673228</v>
       </c>
       <c r="S117" s="4" t="e">
         <f aca="false">IF(P117&gt;0,P$135-P117,"")</f>
@@ -11012,17 +11319,33 @@
         <v>set_property PACKAGE_PIN R2 [get_ports {vga_r6 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r6 }]</v>
       </c>
-      <c r="V117" s="31" t="str">
+      <c r="V117" s="31" t="e">
         <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND",NOT(ISNA(P117)),NOT(ISNA(N117))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S117/$V$7,"0.000")," [get_ports {",K117,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S117/$W$7,"0.000")," [get_ports {",K117,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W117" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W117" s="31" t="e">
         <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND",NOT(ISNA(P117)),NOT(ISNA(N117))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P117/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K117,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P117/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K117,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y117" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y117" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T117="IO",T117="I"),V117,""),IF(OR(T117="IO",T117="O"),W117,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB117" s="0" t="n">
+        <f aca="false">$AA$103-P117</f>
+        <v>15.0099644784</v>
+      </c>
+      <c r="AC117" s="4" t="n">
+        <f aca="false">N117</f>
+        <v>89.966189643</v>
+      </c>
+      <c r="AD117" s="0" t="n">
+        <f aca="false">AC117+AB117</f>
+        <v>104.9761541214</v>
+      </c>
+      <c r="AE117" s="0" t="str">
+        <f aca="false">H117</f>
+        <v>vga_r6</v>
       </c>
       <c r="AG117" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K117,3)="LED",LEFT(K117,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D117,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K117),"")</f>
@@ -11062,17 +11385,17 @@
         <f aca="false">VLOOKUP(A118,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>10.91</v>
       </c>
-      <c r="N118" s="4" t="e">
+      <c r="N118" s="4" t="n">
         <f aca="false">VLOOKUP(K118,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P118" s="4" t="e">
+        <v>89.9663338606</v>
+      </c>
+      <c r="P118" s="4" t="n">
         <f aca="false">IF(AND(M118&gt;0,N118&gt;0),M118+N118, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q118" s="29" t="e">
+        <v>100.8763338606</v>
+      </c>
+      <c r="Q118" s="29" t="n">
         <f aca="false">IF(P118&gt;0,P118/25.4,)</f>
-        <v>#N/A</v>
+        <v>3.97150920711024</v>
       </c>
       <c r="S118" s="4" t="e">
         <f aca="false">IF(P118&gt;0,P$135-P118,"")</f>
@@ -11086,17 +11409,33 @@
         <v>set_property PACKAGE_PIN M2 [get_ports {vga_b0 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b0 }]</v>
       </c>
-      <c r="V118" s="31" t="str">
+      <c r="V118" s="31" t="e">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S118/$V$7,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S118/$W$7,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W118" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W118" s="31" t="e">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P118/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P118/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y118" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y118" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T118="IO",T118="I"),V118,""),IF(OR(T118="IO",T118="O"),W118,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB118" s="0" t="n">
+        <f aca="false">$AA$103-P118</f>
+        <v>18.2798202608</v>
+      </c>
+      <c r="AC118" s="4" t="n">
+        <f aca="false">N118</f>
+        <v>89.9663338606</v>
+      </c>
+      <c r="AD118" s="0" t="n">
+        <f aca="false">AC118+AB118</f>
+        <v>108.2461541214</v>
+      </c>
+      <c r="AE118" s="0" t="str">
+        <f aca="false">H118</f>
+        <v>vga_b0</v>
       </c>
       <c r="AG118" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K118,3)="LED",LEFT(K118,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D118,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K118),"")</f>
@@ -11136,17 +11475,17 @@
         <f aca="false">VLOOKUP(A119,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>15.93</v>
       </c>
-      <c r="N119" s="4" t="e">
+      <c r="N119" s="4" t="n">
         <f aca="false">VLOOKUP(K119,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P119" s="4" t="e">
+        <v>89.9662895757</v>
+      </c>
+      <c r="P119" s="4" t="n">
         <f aca="false">IF(AND(M119&gt;0,N119&gt;0),M119+N119, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q119" s="29" t="e">
+        <v>105.8962895757</v>
+      </c>
+      <c r="Q119" s="29" t="n">
         <f aca="false">IF(P119&gt;0,P119/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.16914525888583</v>
       </c>
       <c r="S119" s="4" t="e">
         <f aca="false">IF(P119&gt;0,P$135-P119,"")</f>
@@ -11160,17 +11499,33 @@
         <v>set_property PACKAGE_PIN P2 [get_ports {vga_r7 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r7 }]</v>
       </c>
-      <c r="V119" s="31" t="str">
+      <c r="V119" s="31" t="e">
         <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND",NOT(ISNA(P119)),NOT(ISNA(N119))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S119/$V$7,"0.000")," [get_ports {",K119,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S119/$W$7,"0.000")," [get_ports {",K119,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W119" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W119" s="31" t="e">
         <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND",NOT(ISNA(P119)),NOT(ISNA(N119))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P119/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K119,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P119/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K119,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y119" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y119" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T119="IO",T119="I"),V119,""),IF(OR(T119="IO",T119="O"),W119,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB119" s="0" t="n">
+        <f aca="false">$AA$103-P119</f>
+        <v>13.2598645457</v>
+      </c>
+      <c r="AC119" s="4" t="n">
+        <f aca="false">N119</f>
+        <v>89.9662895757</v>
+      </c>
+      <c r="AD119" s="0" t="n">
+        <f aca="false">AC119+AB119</f>
+        <v>103.2261541214</v>
+      </c>
+      <c r="AE119" s="0" t="str">
+        <f aca="false">H119</f>
+        <v>vga_r7</v>
       </c>
       <c r="AG119" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K119,3)="LED",LEFT(K119,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D119,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K119),"")</f>
@@ -11210,17 +11565,17 @@
         <f aca="false">VLOOKUP(A120,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>15.81</v>
       </c>
-      <c r="N120" s="4" t="e">
+      <c r="N120" s="4" t="n">
         <f aca="false">VLOOKUP(K120,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P120" s="4" t="e">
+        <v>89.9664346582</v>
+      </c>
+      <c r="P120" s="4" t="n">
         <f aca="false">IF(AND(M120&gt;0,N120&gt;0),M120+N120, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q120" s="29" t="e">
+        <v>105.7764346582</v>
+      </c>
+      <c r="Q120" s="29" t="n">
         <f aca="false">IF(P120&gt;0,P120/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.16442656134646</v>
       </c>
       <c r="S120" s="4" t="e">
         <f aca="false">IF(P120&gt;0,P$135-P120,"")</f>
@@ -11234,17 +11589,33 @@
         <v>set_property PACKAGE_PIN K5 [get_ports {vga_g7 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g7 }]</v>
       </c>
-      <c r="V120" s="31" t="str">
+      <c r="V120" s="31" t="e">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S120/$V$7,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S120/$W$7,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W120" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W120" s="31" t="e">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P120/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P120/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y120" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y120" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T120="IO",T120="I"),V120,""),IF(OR(T120="IO",T120="O"),W120,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB120" s="0" t="n">
+        <f aca="false">$AA$103-P120</f>
+        <v>13.3797194632</v>
+      </c>
+      <c r="AC120" s="4" t="n">
+        <f aca="false">N120</f>
+        <v>89.9664346582</v>
+      </c>
+      <c r="AD120" s="0" t="n">
+        <f aca="false">AC120+AB120</f>
+        <v>103.3461541214</v>
+      </c>
+      <c r="AE120" s="0" t="str">
+        <f aca="false">H120</f>
+        <v>vga_g7</v>
       </c>
       <c r="AG120" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K120,3)="LED",LEFT(K120,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D120,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K120),"")</f>
@@ -11284,17 +11655,17 @@
         <f aca="false">VLOOKUP(A121,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>17.29</v>
       </c>
-      <c r="N121" s="4" t="e">
+      <c r="N121" s="4" t="n">
         <f aca="false">VLOOKUP(K121,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P121" s="4" t="e">
+        <v>89.9663802188</v>
+      </c>
+      <c r="P121" s="4" t="n">
         <f aca="false">IF(AND(M121&gt;0,N121&gt;0),M121+N121, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q121" s="29" t="e">
+        <v>107.2563802188</v>
+      </c>
+      <c r="Q121" s="29" t="n">
         <f aca="false">IF(P121&gt;0,P121/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.22269213459843</v>
       </c>
       <c r="S121" s="4" t="e">
         <f aca="false">IF(P121&gt;0,P$135-P121,"")</f>
@@ -11308,17 +11679,33 @@
         <v>set_property PACKAGE_PIN N2 [get_ports {vga_g0 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g0 }]</v>
       </c>
-      <c r="V121" s="31" t="str">
+      <c r="V121" s="31" t="e">
         <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND",NOT(ISNA(P121)),NOT(ISNA(N121))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S121/$V$7,"0.000")," [get_ports {",K121,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S121/$W$7,"0.000")," [get_ports {",K121,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W121" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W121" s="31" t="e">
         <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND",NOT(ISNA(P121)),NOT(ISNA(N121))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P121/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K121,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P121/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K121,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y121" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y121" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T121="IO",T121="I"),V121,""),IF(OR(T121="IO",T121="O"),W121,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB121" s="0" t="n">
+        <f aca="false">$AA$103-P121</f>
+        <v>11.8997739026</v>
+      </c>
+      <c r="AC121" s="4" t="n">
+        <f aca="false">N121</f>
+        <v>89.9663802188</v>
+      </c>
+      <c r="AD121" s="0" t="n">
+        <f aca="false">AC121+AB121</f>
+        <v>101.8661541214</v>
+      </c>
+      <c r="AE121" s="0" t="str">
+        <f aca="false">H121</f>
+        <v>vga_g0</v>
       </c>
       <c r="AG121" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K121,3)="LED",LEFT(K121,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D121,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K121),"")</f>
@@ -11358,17 +11745,17 @@
         <f aca="false">VLOOKUP(A122,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>16.75</v>
       </c>
-      <c r="N122" s="4" t="e">
+      <c r="N122" s="4" t="n">
         <f aca="false">VLOOKUP(K122,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P122" s="4" t="e">
+        <v>89.96639308</v>
+      </c>
+      <c r="P122" s="4" t="n">
         <f aca="false">IF(AND(M122&gt;0,N122&gt;0),M122+N122, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q122" s="29" t="e">
+        <v>106.71639308</v>
+      </c>
+      <c r="Q122" s="29" t="n">
         <f aca="false">IF(P122&gt;0,P122/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.2014327984252</v>
       </c>
       <c r="S122" s="4" t="e">
         <f aca="false">IF(P122&gt;0,P$135-P122,"")</f>
@@ -11382,17 +11769,33 @@
         <v>set_property PACKAGE_PIN L4 [get_ports {vga_g6 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g6 }]</v>
       </c>
-      <c r="V122" s="31" t="str">
+      <c r="V122" s="31" t="e">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S122/$V$7,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S122/$W$7,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W122" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W122" s="31" t="e">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P122/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P122/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y122" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y122" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T122="IO",T122="I"),V122,""),IF(OR(T122="IO",T122="O"),W122,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB122" s="0" t="n">
+        <f aca="false">$AA$103-P122</f>
+        <v>12.4397610414</v>
+      </c>
+      <c r="AC122" s="4" t="n">
+        <f aca="false">N122</f>
+        <v>89.96639308</v>
+      </c>
+      <c r="AD122" s="0" t="n">
+        <f aca="false">AC122+AB122</f>
+        <v>102.4061541214</v>
+      </c>
+      <c r="AE122" s="0" t="str">
+        <f aca="false">H122</f>
+        <v>vga_g6</v>
       </c>
       <c r="AG122" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K122,3)="LED",LEFT(K122,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D122,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K122),"")</f>
@@ -11432,17 +11835,17 @@
         <f aca="false">VLOOKUP(A123,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>18.35</v>
       </c>
-      <c r="N123" s="4" t="e">
+      <c r="N123" s="4" t="n">
         <f aca="false">VLOOKUP(K123,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P123" s="4" t="e">
+        <v>89.9663146182</v>
+      </c>
+      <c r="P123" s="4" t="n">
         <f aca="false">IF(AND(M123&gt;0,N123&gt;0),M123+N123, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q123" s="29" t="e">
+        <v>108.3163146182</v>
+      </c>
+      <c r="Q123" s="29" t="n">
         <f aca="false">IF(P123&gt;0,P123/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.26442183536221</v>
       </c>
       <c r="S123" s="4" t="e">
         <f aca="false">IF(P123&gt;0,P$135-P123,"")</f>
@@ -11456,17 +11859,33 @@
         <v>set_property PACKAGE_PIN N1 [get_ports {vga_g1 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g1 }]</v>
       </c>
-      <c r="V123" s="31" t="str">
+      <c r="V123" s="31" t="e">
         <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND",NOT(ISNA(P123)),NOT(ISNA(N123))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S123/$V$7,"0.000")," [get_ports {",K123,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S123/$W$7,"0.000")," [get_ports {",K123,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W123" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W123" s="31" t="e">
         <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND",NOT(ISNA(P123)),NOT(ISNA(N123))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P123/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K123,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P123/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K123,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y123" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y123" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T123="IO",T123="I"),V123,""),IF(OR(T123="IO",T123="O"),W123,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB123" s="0" t="n">
+        <f aca="false">$AA$103-P123</f>
+        <v>10.8398395032</v>
+      </c>
+      <c r="AC123" s="4" t="n">
+        <f aca="false">N123</f>
+        <v>89.9663146182</v>
+      </c>
+      <c r="AD123" s="0" t="n">
+        <f aca="false">AC123+AB123</f>
+        <v>100.8061541214</v>
+      </c>
+      <c r="AE123" s="0" t="str">
+        <f aca="false">H123</f>
+        <v>vga_g1</v>
       </c>
       <c r="AG123" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K123,3)="LED",LEFT(K123,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D123,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K123),"")</f>
@@ -11506,17 +11925,17 @@
         <f aca="false">VLOOKUP(A124,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>18.52</v>
       </c>
-      <c r="N124" s="4" t="e">
+      <c r="N124" s="4" t="n">
         <f aca="false">VLOOKUP(K124,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P124" s="4" t="e">
+        <v>89.9908174743</v>
+      </c>
+      <c r="P124" s="4" t="n">
         <f aca="false">IF(AND(M124&gt;0,N124&gt;0),M124+N124, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q124" s="29" t="e">
+        <v>108.5108174743</v>
+      </c>
+      <c r="Q124" s="29" t="n">
         <f aca="false">IF(P124&gt;0,P124/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.27207942812205</v>
       </c>
       <c r="S124" s="4" t="e">
         <f aca="false">IF(P124&gt;0,P$135-P124,"")</f>
@@ -11530,17 +11949,33 @@
         <v>set_property PACKAGE_PIN L3 [get_ports {vga_g4 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g4 }]</v>
       </c>
-      <c r="V124" s="31" t="str">
+      <c r="V124" s="31" t="e">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S124/$V$7,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S124/$W$7,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W124" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W124" s="31" t="e">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P124/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P124/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y124" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y124" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T124="IO",T124="I"),V124,""),IF(OR(T124="IO",T124="O"),W124,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB124" s="0" t="n">
+        <f aca="false">$AA$103-P124</f>
+        <v>10.6453366471</v>
+      </c>
+      <c r="AC124" s="4" t="n">
+        <f aca="false">N124</f>
+        <v>89.9908174743</v>
+      </c>
+      <c r="AD124" s="0" t="n">
+        <f aca="false">AC124+AB124</f>
+        <v>100.6361541214</v>
+      </c>
+      <c r="AE124" s="0" t="str">
+        <f aca="false">H124</f>
+        <v>vga_g4</v>
       </c>
       <c r="AG124" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K124,3)="LED",LEFT(K124,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D124,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K124),"")</f>
@@ -11580,17 +12015,17 @@
         <f aca="false">VLOOKUP(A125,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>20.28</v>
       </c>
-      <c r="N125" s="4" t="e">
+      <c r="N125" s="4" t="n">
         <f aca="false">VLOOKUP(K125,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P125" s="4" t="e">
+        <v>89.9663319905</v>
+      </c>
+      <c r="P125" s="4" t="n">
         <f aca="false">IF(AND(M125&gt;0,N125&gt;0),M125+N125, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q125" s="29" t="e">
+        <v>110.2463319905</v>
+      </c>
+      <c r="Q125" s="29" t="n">
         <f aca="false">IF(P125&gt;0,P125/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.34040677127953</v>
       </c>
       <c r="S125" s="4" t="e">
         <f aca="false">IF(P125&gt;0,P$135-P125,"")</f>
@@ -11604,17 +12039,33 @@
         <v>set_property PACKAGE_PIN M1 [get_ports {vga_g2 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g2 }]</v>
       </c>
-      <c r="V125" s="31" t="str">
+      <c r="V125" s="31" t="e">
         <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND",NOT(ISNA(P125)),NOT(ISNA(N125))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S125/$V$7,"0.000")," [get_ports {",K125,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S125/$W$7,"0.000")," [get_ports {",K125,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W125" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W125" s="31" t="e">
         <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND",NOT(ISNA(P125)),NOT(ISNA(N125))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P125/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K125,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P125/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K125,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y125" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y125" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T125="IO",T125="I"),V125,""),IF(OR(T125="IO",T125="O"),W125,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB125" s="0" t="n">
+        <f aca="false">$AA$103-P125</f>
+        <v>8.90982213089998</v>
+      </c>
+      <c r="AC125" s="4" t="n">
+        <f aca="false">N125</f>
+        <v>89.9663319905</v>
+      </c>
+      <c r="AD125" s="0" t="n">
+        <f aca="false">AC125+AB125</f>
+        <v>98.8761541214</v>
+      </c>
+      <c r="AE125" s="0" t="str">
+        <f aca="false">H125</f>
+        <v>vga_g2</v>
       </c>
       <c r="AG125" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K125,3)="LED",LEFT(K125,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D125,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K125),"")</f>
@@ -11654,17 +12105,17 @@
         <f aca="false">VLOOKUP(A126,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>20.19</v>
       </c>
-      <c r="N126" s="4" t="e">
+      <c r="N126" s="4" t="n">
         <f aca="false">VLOOKUP(K126,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P126" s="4" t="e">
+        <v>89.9663686488</v>
+      </c>
+      <c r="P126" s="4" t="n">
         <f aca="false">IF(AND(M126&gt;0,N126&gt;0),M126+N126, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q126" s="29" t="e">
+        <v>110.1563686488</v>
+      </c>
+      <c r="Q126" s="29" t="n">
         <f aca="false">IF(P126&gt;0,P126/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.33686490743307</v>
       </c>
       <c r="S126" s="4" t="e">
         <f aca="false">IF(P126&gt;0,P$135-P126,"")</f>
@@ -11678,17 +12129,33 @@
         <v>set_property PACKAGE_PIN K3 [get_ports {vga_g5 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g5 }]</v>
       </c>
-      <c r="V126" s="31" t="str">
+      <c r="V126" s="31" t="e">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S126/$V$7,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S126/$W$7,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W126" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W126" s="31" t="e">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P126/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P126/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y126" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y126" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T126="IO",T126="I"),V126,""),IF(OR(T126="IO",T126="O"),W126,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB126" s="0" t="n">
+        <f aca="false">$AA$103-P126</f>
+        <v>8.9997854726</v>
+      </c>
+      <c r="AC126" s="4" t="n">
+        <f aca="false">N126</f>
+        <v>89.9663686488</v>
+      </c>
+      <c r="AD126" s="0" t="n">
+        <f aca="false">AC126+AB126</f>
+        <v>98.9661541214</v>
+      </c>
+      <c r="AE126" s="0" t="str">
+        <f aca="false">H126</f>
+        <v>vga_g5</v>
       </c>
       <c r="AG126" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K126,3)="LED",LEFT(K126,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D126,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K126),"")</f>
@@ -11728,17 +12195,17 @@
         <f aca="false">VLOOKUP(A127,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>22.14</v>
       </c>
-      <c r="N127" s="4" t="e">
+      <c r="N127" s="4" t="n">
         <f aca="false">VLOOKUP(K127,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P127" s="4" t="e">
+        <v>89.9662862823</v>
+      </c>
+      <c r="P127" s="4" t="n">
         <f aca="false">IF(AND(M127&gt;0,N127&gt;0),M127+N127, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q127" s="29" t="e">
+        <v>112.1062862823</v>
+      </c>
+      <c r="Q127" s="29" t="n">
         <f aca="false">IF(P127&gt;0,P127/25.4,)</f>
-        <v>#N/A</v>
+        <v>4.41363331820079</v>
       </c>
       <c r="S127" s="4" t="e">
         <f aca="false">IF(P127&gt;0,P$135-P127,"")</f>
@@ -11752,17 +12219,33 @@
         <v>set_property PACKAGE_PIN L1 [get_ports {vga_g3}]
 set_property IOSTANDARD LVTTL [get_ports {vga_g3}]</v>
       </c>
-      <c r="V127" s="31" t="str">
+      <c r="V127" s="31" t="e">
         <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND",NOT(ISNA(P127)),NOT(ISNA(N127))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S127/$V$7,"0.000")," [get_ports {",K127,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S127/$W$7,"0.000")," [get_ports {",K127,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="W127" s="31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="W127" s="31" t="e">
         <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND",NOT(ISNA(P127)),NOT(ISNA(N127))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P127/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K127,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P127/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K127,"}]",CHAR(10)),"")</f>
-        <v/>
-      </c>
-      <c r="Y127" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Y127" s="7" t="e">
         <f aca="false">CONCATENATE(IF(OR(T127="IO",T127="I"),V127,""),IF(OR(T127="IO",T127="O"),W127,""))</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB127" s="0" t="n">
+        <f aca="false">$AA$103-P127</f>
+        <v>7.0498678391</v>
+      </c>
+      <c r="AC127" s="4" t="n">
+        <f aca="false">N127</f>
+        <v>89.9662862823</v>
+      </c>
+      <c r="AD127" s="0" t="n">
+        <f aca="false">AC127+AB127</f>
+        <v>97.0161541214</v>
+      </c>
+      <c r="AE127" s="0" t="str">
+        <f aca="false">H127</f>
+        <v>vga_g3</v>
       </c>
       <c r="AG127" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K127,3)="LED",LEFT(K127,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D127,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K127),"")</f>
@@ -13330,7 +13813,7 @@
       <formula>Summary!$T$129</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S8:S127">
+  <conditionalFormatting sqref="S100:S127 S8:S91">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -14205,7 +14688,7 @@
   <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14236,7 +14719,7 @@
         <v>327</v>
       </c>
       <c r="B2" s="109" t="n">
-        <v>132080452.068</v>
+        <v>133193911.428</v>
       </c>
       <c r="C2" s="109" t="n">
         <f aca="false">B84</f>
@@ -14244,7 +14727,7 @@
       </c>
       <c r="D2" s="109" t="n">
         <f aca="false">B2+C2</f>
-        <v>132080452.068</v>
+        <v>133193911.428</v>
       </c>
       <c r="H2" s="109" t="n">
         <v>133630609.264</v>
@@ -14255,7 +14738,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="109" t="n">
-        <v>131400870.259</v>
+        <v>132514004.972</v>
       </c>
       <c r="C3" s="109" t="n">
         <f aca="false">B85</f>
@@ -14263,7 +14746,7 @@
       </c>
       <c r="D3" s="109" t="n">
         <f aca="false">B3+C3</f>
-        <v>131400870.259</v>
+        <v>132514004.972</v>
       </c>
       <c r="H3" s="109" t="n">
         <v>133420140.604</v>
@@ -14274,7 +14757,7 @@
         <v>330</v>
       </c>
       <c r="B4" s="109" t="n">
-        <v>132610063.881</v>
+        <v>133724176.597</v>
       </c>
       <c r="C4" s="109" t="n">
         <f aca="false">B86</f>
@@ -14282,7 +14765,7 @@
       </c>
       <c r="D4" s="109" t="n">
         <f aca="false">B4+C4</f>
-        <v>132610063.881</v>
+        <v>133724176.597</v>
       </c>
       <c r="H4" s="109" t="n">
         <v>124799957.758</v>
@@ -14293,7 +14776,7 @@
         <v>337</v>
       </c>
       <c r="B5" s="109" t="n">
-        <v>133830185.396</v>
+        <v>134945174.464</v>
       </c>
       <c r="C5" s="109" t="n">
         <f aca="false">B87</f>
@@ -14301,7 +14784,7 @@
       </c>
       <c r="D5" s="109" t="n">
         <f aca="false">B5+C5</f>
-        <v>133830185.396</v>
+        <v>134945174.464</v>
       </c>
       <c r="H5" s="109" t="n">
         <v>124589489.098</v>
@@ -14312,7 +14795,7 @@
         <v>334</v>
       </c>
       <c r="B6" s="109" t="n">
-        <v>137670744.879</v>
+        <v>138783636.42</v>
       </c>
       <c r="C6" s="109" t="n">
         <f aca="false">B88</f>
@@ -14320,7 +14803,7 @@
       </c>
       <c r="D6" s="109" t="n">
         <f aca="false">B6+C6</f>
-        <v>137670744.879</v>
+        <v>138783636.42</v>
       </c>
       <c r="H6" s="109" t="n">
         <v>118126231.928</v>
@@ -14331,7 +14814,7 @@
         <v>340</v>
       </c>
       <c r="B7" s="109" t="n">
-        <v>138700669.432</v>
+        <v>139813702.343</v>
       </c>
       <c r="C7" s="109" t="n">
         <f aca="false">B89</f>
@@ -14339,7 +14822,7 @@
       </c>
       <c r="D7" s="109" t="n">
         <f aca="false">B7+C7</f>
-        <v>138700669.432</v>
+        <v>139813702.343</v>
       </c>
       <c r="H7" s="109" t="n">
         <v>117915763.268</v>
@@ -14350,7 +14833,7 @@
         <v>343</v>
       </c>
       <c r="B8" s="109" t="n">
-        <v>136480608.992</v>
+        <v>137594798.416</v>
       </c>
       <c r="C8" s="109" t="n">
         <f aca="false">B90</f>
@@ -14358,7 +14841,7 @@
       </c>
       <c r="D8" s="109" t="n">
         <f aca="false">B8+C8</f>
-        <v>136480608.992</v>
+        <v>137594798.416</v>
       </c>
       <c r="H8" s="109" t="n">
         <v>117537526.656</v>
@@ -14369,7 +14852,7 @@
         <v>349</v>
       </c>
       <c r="B9" s="109" t="n">
-        <v>137170277.447</v>
+        <v>138284849.978</v>
       </c>
       <c r="C9" s="109" t="n">
         <f aca="false">B91</f>
@@ -14377,16 +14860,18 @@
       </c>
       <c r="D9" s="109" t="n">
         <f aca="false">B9+C9</f>
-        <v>137170277.447</v>
+        <v>138284849.978</v>
       </c>
       <c r="H9" s="109" t="n">
         <v>117243760.817</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38"/>
+    <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
+        <v>615</v>
+      </c>
       <c r="B10" s="109" t="n">
-        <v>0</v>
+        <v>89966333.8606</v>
       </c>
       <c r="C10" s="109" t="n">
         <f aca="false">B92</f>
@@ -14394,12 +14879,15 @@
       </c>
       <c r="D10" s="109" t="n">
         <f aca="false">B10+C10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966333.8606</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
+        <v>616</v>
+      </c>
       <c r="B11" s="109" t="n">
-        <v>0</v>
+        <v>89966301.2758</v>
       </c>
       <c r="C11" s="109" t="n">
         <f aca="false">B93</f>
@@ -14407,12 +14895,15 @@
       </c>
       <c r="D11" s="109" t="n">
         <f aca="false">B11+C11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966301.2758</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
+        <v>617</v>
+      </c>
       <c r="B12" s="109" t="n">
-        <v>0</v>
+        <v>90063445.5697</v>
       </c>
       <c r="C12" s="109" t="n">
         <f aca="false">B94</f>
@@ -14420,12 +14911,15 @@
       </c>
       <c r="D12" s="109" t="n">
         <f aca="false">B12+C12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90063445.5697</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
+        <v>618</v>
+      </c>
       <c r="B13" s="109" t="n">
-        <v>0</v>
+        <v>89973508.5154</v>
       </c>
       <c r="C13" s="109" t="n">
         <f aca="false">B95</f>
@@ -14433,12 +14927,15 @@
       </c>
       <c r="D13" s="109" t="n">
         <f aca="false">B13+C13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89973508.5154</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>619</v>
+      </c>
       <c r="B14" s="109" t="n">
-        <v>0</v>
+        <v>89992020.6344</v>
       </c>
       <c r="C14" s="109" t="n">
         <f aca="false">B96</f>
@@ -14446,12 +14943,15 @@
       </c>
       <c r="D14" s="109" t="n">
         <f aca="false">B14+C14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89992020.6344</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>620</v>
+      </c>
       <c r="B15" s="109" t="n">
-        <v>0</v>
+        <v>89926348.0229</v>
       </c>
       <c r="C15" s="109" t="n">
         <f aca="false">B97</f>
@@ -14459,12 +14959,15 @@
       </c>
       <c r="D15" s="109" t="n">
         <f aca="false">B15+C15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89926348.0229</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28" t="s">
+        <v>621</v>
+      </c>
       <c r="B16" s="109" t="n">
-        <v>0</v>
+        <v>89966068.4757</v>
       </c>
       <c r="C16" s="109" t="n">
         <f aca="false">B98</f>
@@ -14472,12 +14975,15 @@
       </c>
       <c r="D16" s="109" t="n">
         <f aca="false">B16+C16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966068.4757</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="s">
+        <v>622</v>
+      </c>
       <c r="B17" s="109" t="n">
-        <v>0</v>
+        <v>89966062.1636</v>
       </c>
       <c r="C17" s="109" t="n">
         <f aca="false">B99</f>
@@ -14485,12 +14991,15 @@
       </c>
       <c r="D17" s="109" t="n">
         <f aca="false">B17+C17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966062.1636</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28" t="s">
+        <v>623</v>
+      </c>
       <c r="B18" s="109" t="n">
-        <v>0</v>
+        <v>89966154.1214</v>
       </c>
       <c r="C18" s="109" t="n">
         <f aca="false">B100</f>
@@ -14498,12 +15007,15 @@
       </c>
       <c r="D18" s="109" t="n">
         <f aca="false">B18+C18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966154.1214</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="s">
+        <v>624</v>
+      </c>
       <c r="B19" s="109" t="n">
-        <v>0</v>
+        <v>89966380.2188</v>
       </c>
       <c r="C19" s="109" t="n">
         <f aca="false">B101</f>
@@ -14511,12 +15023,15 @@
       </c>
       <c r="D19" s="109" t="n">
         <f aca="false">B19+C19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966380.2188</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="28" t="s">
+        <v>625</v>
+      </c>
       <c r="B20" s="109" t="n">
-        <v>0</v>
+        <v>89966314.6182</v>
       </c>
       <c r="C20" s="109" t="n">
         <f aca="false">B102</f>
@@ -14524,12 +15039,15 @@
       </c>
       <c r="D20" s="109" t="n">
         <f aca="false">B20+C20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966314.6182</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
+        <v>626</v>
+      </c>
       <c r="B21" s="109" t="n">
-        <v>0</v>
+        <v>89966331.9905</v>
       </c>
       <c r="C21" s="109" t="n">
         <f aca="false">B103</f>
@@ -14537,12 +15055,15 @@
       </c>
       <c r="D21" s="109" t="n">
         <f aca="false">B21+C21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966331.9905</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="s">
+        <v>448</v>
+      </c>
       <c r="B22" s="109" t="n">
-        <v>0</v>
+        <v>89966286.2823</v>
       </c>
       <c r="C22" s="109" t="n">
         <f aca="false">B104</f>
@@ -14550,12 +15071,15 @@
       </c>
       <c r="D22" s="109" t="n">
         <f aca="false">B22+C22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966286.2823</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
+        <v>627</v>
+      </c>
       <c r="B23" s="109" t="n">
-        <v>0</v>
+        <v>89990817.4743</v>
       </c>
       <c r="C23" s="109" t="n">
         <f aca="false">B105</f>
@@ -14563,12 +15087,15 @@
       </c>
       <c r="D23" s="109" t="n">
         <f aca="false">B23+C23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89990817.4743</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28" t="s">
+        <v>628</v>
+      </c>
       <c r="B24" s="109" t="n">
-        <v>0</v>
+        <v>89966368.6488</v>
       </c>
       <c r="C24" s="109" t="n">
         <f aca="false">B106</f>
@@ -14576,12 +15103,15 @@
       </c>
       <c r="D24" s="109" t="n">
         <f aca="false">B24+C24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966368.6488</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28" t="s">
+        <v>629</v>
+      </c>
       <c r="B25" s="109" t="n">
-        <v>0</v>
+        <v>89966393.08</v>
       </c>
       <c r="C25" s="109" t="n">
         <f aca="false">B107</f>
@@ -14589,12 +15119,15 @@
       </c>
       <c r="D25" s="109" t="n">
         <f aca="false">B25+C25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966393.08</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="28" t="s">
+        <v>630</v>
+      </c>
       <c r="B26" s="109" t="n">
-        <v>0</v>
+        <v>89966434.6582</v>
       </c>
       <c r="C26" s="109" t="n">
         <f aca="false">B108</f>
@@ -14602,12 +15135,15 @@
       </c>
       <c r="D26" s="109" t="n">
         <f aca="false">B26+C26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966434.6582</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28" t="s">
+        <v>631</v>
+      </c>
       <c r="B27" s="109" t="n">
-        <v>0</v>
+        <v>89966034.9391</v>
       </c>
       <c r="C27" s="109" t="n">
         <f aca="false">B109</f>
@@ -14615,12 +15151,15 @@
       </c>
       <c r="D27" s="109" t="n">
         <f aca="false">B27+C27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966034.9391</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="s">
+        <v>632</v>
+      </c>
       <c r="B28" s="109" t="n">
-        <v>0</v>
+        <v>90171089.1011</v>
       </c>
       <c r="C28" s="109" t="n">
         <f aca="false">B110</f>
@@ -14628,12 +15167,15 @@
       </c>
       <c r="D28" s="109" t="n">
         <f aca="false">B28+C28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90171089.1011</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="28" t="s">
+        <v>633</v>
+      </c>
       <c r="B29" s="109" t="n">
-        <v>0</v>
+        <v>89966046.6871</v>
       </c>
       <c r="C29" s="109" t="n">
         <f aca="false">B111</f>
@@ -14641,12 +15183,15 @@
       </c>
       <c r="D29" s="109" t="n">
         <f aca="false">B29+C29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966046.6871</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="28" t="s">
+        <v>634</v>
+      </c>
       <c r="B30" s="109" t="n">
-        <v>0</v>
+        <v>89984691.4763</v>
       </c>
       <c r="C30" s="109" t="n">
         <f aca="false">B112</f>
@@ -14654,12 +15199,15 @@
       </c>
       <c r="D30" s="109" t="n">
         <f aca="false">B30+C30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89984691.4763</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="28" t="s">
+        <v>635</v>
+      </c>
       <c r="B31" s="109" t="n">
-        <v>0</v>
+        <v>90001467.4683</v>
       </c>
       <c r="C31" s="109" t="n">
         <f aca="false">B113</f>
@@ -14667,12 +15215,15 @@
       </c>
       <c r="D31" s="109" t="n">
         <f aca="false">B31+C31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90001467.4683</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="28" t="s">
+        <v>636</v>
+      </c>
       <c r="B32" s="109" t="n">
-        <v>0</v>
+        <v>89987713.6591</v>
       </c>
       <c r="C32" s="109" t="n">
         <f aca="false">B114</f>
@@ -14680,12 +15231,15 @@
       </c>
       <c r="D32" s="109" t="n">
         <f aca="false">B32+C32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89987713.6591</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="28" t="s">
+        <v>637</v>
+      </c>
       <c r="B33" s="109" t="n">
-        <v>0</v>
+        <v>89966189.643</v>
       </c>
       <c r="C33" s="109" t="n">
         <f aca="false">B115</f>
@@ -14693,12 +15247,15 @@
       </c>
       <c r="D33" s="109" t="n">
         <f aca="false">B33+C33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89966189.643</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="28" t="s">
+        <v>638</v>
+      </c>
       <c r="B34" s="109" t="n">
-        <v>0</v>
+        <v>89966289.5757</v>
       </c>
       <c r="C34" s="109" t="n">
         <f aca="false">B116</f>
@@ -14706,10 +15263,11 @@
       </c>
       <c r="D34" s="109" t="n">
         <f aca="false">B34+C34</f>
-        <v>0</v>
+        <v>89966289.5757</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="38"/>
       <c r="B35" s="109" t="n">
         <v>0</v>
       </c>
@@ -15798,10 +16356,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" s="113" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15809,7 +16367,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="113" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="C2" s="113" t="s">
         <v>183</v>
@@ -15818,12 +16376,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" s="113" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="113" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="113" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="C3" s="113" t="s">
         <v>183</v>
@@ -15832,7 +16390,7 @@
         <v>183</v>
       </c>
       <c r="E3" s="113" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15840,7 +16398,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="113" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="C4" s="113" t="s">
         <v>183</v>
@@ -15854,7 +16412,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="113" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="C5" s="113" t="s">
         <v>183</v>
@@ -15868,13 +16426,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15882,13 +16440,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15896,7 +16454,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>183</v>
@@ -15910,16 +16468,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15927,7 +16485,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>183</v>
@@ -15941,10 +16499,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>62</v>
@@ -15955,7 +16513,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>62</v>
@@ -15969,13 +16527,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15983,13 +16541,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/nubus-to-ztex/signals.xlsx
+++ b/nubus-to-ztex/signals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="724">
   <si>
     <t xml:space="preserve">Connector PIN</t>
   </si>
@@ -85,10 +85,10 @@
     <t xml:space="preserve">B1</t>
   </si>
   <si>
-    <t xml:space="preserve">TIS (min)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOD (max)</t>
+    <t xml:space="preserve">TIS (min) → ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOD (max) → Ton+Tpd</t>
   </si>
   <si>
     <t xml:space="preserve">22.5 in B0</t>
@@ -103,10 +103,10 @@
     <t xml:space="preserve">0 in B0</t>
   </si>
   <si>
-    <t xml:space="preserve">TIH (min)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOH (min)</t>
+    <t xml:space="preserve">TIH (min) → ???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOH (min) → ???</t>
   </si>
   <si>
     <t xml:space="preserve">B2</t>
@@ -1870,76 +1870,265 @@
     <t xml:space="preserve">3V3+5V</t>
   </si>
   <si>
-    <t xml:space="preserve">vga_b0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_b1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_b2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_b3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_b4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_b6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_b7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_clk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_g0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_g1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_g2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_g4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_g5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_g6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_g7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_r0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_r1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_r2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_r3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_r4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_r5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_r6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vga_r7</t>
+    <t xml:space="preserve">ad_n0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad_n9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARB0_3V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARB1_3V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARB2_3V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARB3_3V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ack_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk2x_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rqst_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm_n0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm_n1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm_n2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD0_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD1_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD10_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD11_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD12_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD13_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD14_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD15_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD16_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD17_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD18_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD19_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD2_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD20_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD21_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD22_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD23_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD24_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD25_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD26_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD27_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD28_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD29_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD3_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD30_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD31_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD4_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD5_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD6_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD7_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD8_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~AD9_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARB0_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARB1_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARB2_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARB3_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~ACK_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~CLK_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~CLK2X_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~RQST_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~START_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~TM0_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~TM1_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~TM2_5V</t>
   </si>
   <si>
     <t xml:space="preserve">Slave</t>
@@ -2350,7 +2539,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2795,10 +2984,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2816,16 +3001,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2896,8 +3071,8 @@
   </sheetPr>
   <dimension ref="A1:AG231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF104" activeCellId="0" sqref="AF104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N53" activeCellId="0" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3051,10 +3226,10 @@
         <v>20</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="X4" s="0" t="s">
         <v>21</v>
@@ -3096,10 +3271,10 @@
         <v>26</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="X5" s="0" t="s">
         <v>27</v>
@@ -3141,9 +3316,9 @@
       <c r="W6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="0" t="e">
+      <c r="AA6" s="0" t="n">
         <f aca="false">P47/V7</f>
-        <v>#N/A</v>
+        <v>0.412206060273</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3222,11 +3397,11 @@
 set_property IOSTANDARD LVTTL [get_ports {nmrq_n }]</v>
       </c>
       <c r="V8" s="31" t="str">
-        <f aca="false">IF(AND(K8&lt;&gt;"",K8&lt;&gt;"+3v3",K8&lt;&gt;"GND",NOT(ISNA(P8)),NOT(ISNA(N8))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S8/$V$7,"0.000")," [get_ports {",K8,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S8/$W$7,"0.000")," [get_ports {",K8,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K8&lt;&gt;"",K8&lt;&gt;"+3v3",K8&lt;&gt;"GND",NOT(ISNA(P8)),NOT(ISNA(N8))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S8/$V$7,"0.000")," [get_ports {",K8,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S8/$W$7,"0.000")," [get_ports {",K8,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W8" s="31" t="str">
-        <f aca="false">IF(AND(K8&lt;&gt;"",K8&lt;&gt;"+3v3",K8&lt;&gt;"GND",NOT(ISNA(P8)),NOT(ISNA(N8))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P8/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K8,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P8/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K8,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K8&lt;&gt;"",K8&lt;&gt;"+3v3",K8&lt;&gt;"GND",NOT(ISNA(P8)),NOT(ISNA(N8))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P8/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K8,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P8/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K8,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y8" s="7" t="str">
@@ -3271,21 +3446,21 @@
         <f aca="false">VLOOKUP(A9,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>47.46</v>
       </c>
-      <c r="N9" s="4" t="e">
+      <c r="N9" s="4" t="n">
         <f aca="false">VLOOKUP(K9,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P9" s="4" t="e">
+        <v>52.47389671764</v>
+      </c>
+      <c r="P9" s="4" t="n">
         <f aca="false">IF(AND(M9&gt;0,N9&gt;0),M9+N9, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q9" s="29" t="e">
+        <v>99.93389671764</v>
+      </c>
+      <c r="Q9" s="29" t="n">
         <f aca="false">IF(P9&gt;0,P9/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S9" s="4" t="e">
+        <v>3.93440538258425</v>
+      </c>
+      <c r="S9" s="4" t="n">
         <f aca="false">IF(P9&gt;0,P$135-P9,"")</f>
-        <v>#N/A</v>
+        <v>-30.83592056054</v>
       </c>
       <c r="T9" s="0" t="s">
         <v>36</v>
@@ -3296,16 +3471,24 @@
 set_property IOSTANDARD LVTTL [get_ports {rqst_n }]</v>
       </c>
       <c r="V9" s="31" t="str">
-        <f aca="false">IF(AND(K9&lt;&gt;"",K9&lt;&gt;"+3v3",K9&lt;&gt;"GND",NOT(ISNA(P9)),NOT(ISNA(N9))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S9/$V$7,"0.000")," [get_ports {",K9,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S9/$W$7,"0.000")," [get_ports {",K9,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K9&lt;&gt;"",K9&lt;&gt;"+3v3",K9&lt;&gt;"GND",NOT(ISNA(P9)),NOT(ISNA(N9))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S9/$V$7,"0.000")," [get_ports {",K9,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S9/$W$7,"0.000")," [get_ports {",K9,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.404 [get_ports {rqst_n}]
+set_input_delay -clock clk_3v3_n -max 52.456 [get_ports {rqst_n}]
+</v>
       </c>
       <c r="W9" s="31" t="str">
-        <f aca="false">IF(AND(K9&lt;&gt;"",K9&lt;&gt;"+3v3",K9&lt;&gt;"GND",NOT(ISNA(P9)),NOT(ISNA(N9))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P9/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K9,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P9/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K9,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K9&lt;&gt;"",K9&lt;&gt;"+3v3",K9&lt;&gt;"GND",NOT(ISNA(P9)),NOT(ISNA(N9))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P9/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K9,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P9/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K9,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.155 [get_ports {rqst_n}]
+set_output_delay -clock clk_3v3_n -max 53.627 [get_ports {rqst_n}]
+</v>
       </c>
       <c r="Y9" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T9="IO",T9="I"),V9,""),IF(OR(T9="IO",T9="O"),W9,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.404 [get_ports {rqst_n}]
+set_input_delay -clock clk_3v3_n -max 52.456 [get_ports {rqst_n}]
+set_output_delay -clock clk_3v3_n -min -6.155 [get_ports {rqst_n}]
+set_output_delay -clock clk_3v3_n -max 53.627 [get_ports {rqst_n}]
+</v>
       </c>
       <c r="AG9" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K9,3)="LED",LEFT(K9,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D9,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K9),"")</f>
@@ -3345,21 +3528,21 @@
         <f aca="false">VLOOKUP(A10,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>50.82</v>
       </c>
-      <c r="N10" s="4" t="e">
+      <c r="N10" s="4" t="n">
         <f aca="false">VLOOKUP(K10,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P10" s="4" t="e">
+        <v>59.6790584277</v>
+      </c>
+      <c r="P10" s="4" t="n">
         <f aca="false">IF(AND(M10&gt;0,N10&gt;0),M10+N10, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q10" s="29" t="e">
+        <v>110.4990584277</v>
+      </c>
+      <c r="Q10" s="29" t="n">
         <f aca="false">IF(P10&gt;0,P10/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S10" s="4" t="e">
+        <v>4.35035663101181</v>
+      </c>
+      <c r="S10" s="4" t="n">
         <f aca="false">IF(P10&gt;0,P$135-P10,"")</f>
-        <v>#N/A</v>
+        <v>-41.4010822706</v>
       </c>
       <c r="T10" s="0" t="s">
         <v>36</v>
@@ -3370,16 +3553,24 @@
 set_property IOSTANDARD LVTTL [get_ports {start_n }]</v>
       </c>
       <c r="V10" s="31" t="str">
-        <f aca="false">IF(AND(K10&lt;&gt;"",K10&lt;&gt;"+3v3",K10&lt;&gt;"GND",NOT(ISNA(P10)),NOT(ISNA(N10))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S10/$V$7,"0.000")," [get_ports {",K10,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S10/$W$7,"0.000")," [get_ports {",K10,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K10&lt;&gt;"",K10&lt;&gt;"+3v3",K10&lt;&gt;"GND",NOT(ISNA(P10)),NOT(ISNA(N10))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S10/$V$7,"0.000")," [get_ports {",K10,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S10/$W$7,"0.000")," [get_ports {",K10,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.457 [get_ports {start_n}]
+set_input_delay -clock clk_3v3_n -max 52.526 [get_ports {start_n}]
+</v>
       </c>
       <c r="W10" s="31" t="str">
-        <f aca="false">IF(AND(K10&lt;&gt;"",K10&lt;&gt;"+3v3",K10&lt;&gt;"GND",NOT(ISNA(P10)),NOT(ISNA(N10))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P10/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K10,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P10/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K10,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K10&lt;&gt;"",K10&lt;&gt;"+3v3",K10&lt;&gt;"GND",NOT(ISNA(P10)),NOT(ISNA(N10))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P10/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K10,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P10/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K10,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.102 [get_ports {start_n}]
+set_output_delay -clock clk_3v3_n -max 53.697 [get_ports {start_n}]
+</v>
       </c>
       <c r="Y10" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T10="IO",T10="I"),V10,""),IF(OR(T10="IO",T10="O"),W10,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.457 [get_ports {start_n}]
+set_input_delay -clock clk_3v3_n -max 52.526 [get_ports {start_n}]
+set_output_delay -clock clk_3v3_n -min -6.102 [get_ports {start_n}]
+set_output_delay -clock clk_3v3_n -max 53.697 [get_ports {start_n}]
+</v>
       </c>
       <c r="AG10" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K10,3)="LED",LEFT(K10,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D10,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K10),"")</f>
@@ -3419,21 +3610,21 @@
         <f aca="false">VLOOKUP(A11,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>43.6</v>
       </c>
-      <c r="N11" s="4" t="e">
+      <c r="N11" s="4" t="n">
         <f aca="false">VLOOKUP(K11,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P11" s="4" t="e">
+        <v>80.517568405</v>
+      </c>
+      <c r="P11" s="4" t="n">
         <f aca="false">IF(AND(M11&gt;0,N11&gt;0),M11+N11, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q11" s="29" t="e">
+        <v>124.117568405</v>
+      </c>
+      <c r="Q11" s="29" t="n">
         <f aca="false">IF(P11&gt;0,P11/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S11" s="4" t="e">
+        <v>4.88651844114173</v>
+      </c>
+      <c r="S11" s="4" t="n">
         <f aca="false">IF(P11&gt;0,P$135-P11,"")</f>
-        <v>#N/A</v>
+        <v>-55.0195922479</v>
       </c>
       <c r="T11" s="0" t="s">
         <v>36</v>
@@ -3444,16 +3635,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ack_n }]</v>
       </c>
       <c r="V11" s="31" t="str">
-        <f aca="false">IF(AND(K11&lt;&gt;"",K11&lt;&gt;"+3v3",K11&lt;&gt;"GND",NOT(ISNA(P11)),NOT(ISNA(N11))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S11/$V$7,"0.000")," [get_ports {",K11,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S11/$W$7,"0.000")," [get_ports {",K11,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K11&lt;&gt;"",K11&lt;&gt;"+3v3",K11&lt;&gt;"GND",NOT(ISNA(P11)),NOT(ISNA(N11))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S11/$V$7,"0.000")," [get_ports {",K11,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S11/$W$7,"0.000")," [get_ports {",K11,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.525 [get_ports {ack_n}]
+set_input_delay -clock clk_3v3_n -max 52.617 [get_ports {ack_n}]
+</v>
       </c>
       <c r="W11" s="31" t="str">
-        <f aca="false">IF(AND(K11&lt;&gt;"",K11&lt;&gt;"+3v3",K11&lt;&gt;"GND",NOT(ISNA(P11)),NOT(ISNA(N11))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P11/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K11,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P11/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K11,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K11&lt;&gt;"",K11&lt;&gt;"+3v3",K11&lt;&gt;"GND",NOT(ISNA(P11)),NOT(ISNA(N11))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P11/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K11,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P11/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K11,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.034 [get_ports {ack_n}]
+set_output_delay -clock clk_3v3_n -max 53.788 [get_ports {ack_n}]
+</v>
       </c>
       <c r="Y11" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T11="IO",T11="I"),V11,""),IF(OR(T11="IO",T11="O"),W11,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.525 [get_ports {ack_n}]
+set_input_delay -clock clk_3v3_n -max 52.617 [get_ports {ack_n}]
+set_output_delay -clock clk_3v3_n -min -6.034 [get_ports {ack_n}]
+set_output_delay -clock clk_3v3_n -max 53.788 [get_ports {ack_n}]
+</v>
       </c>
       <c r="AG11" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K11,3)="LED",LEFT(K11,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D11,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K11),"")</f>
@@ -3518,11 +3717,11 @@
 set_property IOSTANDARD LVTTL [get_ports {arb_n2 }]</v>
       </c>
       <c r="V12" s="31" t="str">
-        <f aca="false">IF(AND(K12&lt;&gt;"",K12&lt;&gt;"+3v3",K12&lt;&gt;"GND",NOT(ISNA(P12)),NOT(ISNA(N12))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S12/$V$7,"0.000")," [get_ports {",K12,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S12/$W$7,"0.000")," [get_ports {",K12,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K12&lt;&gt;"",K12&lt;&gt;"+3v3",K12&lt;&gt;"GND",NOT(ISNA(P12)),NOT(ISNA(N12))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S12/$V$7,"0.000")," [get_ports {",K12,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S12/$W$7,"0.000")," [get_ports {",K12,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W12" s="31" t="str">
-        <f aca="false">IF(AND(K12&lt;&gt;"",K12&lt;&gt;"+3v3",K12&lt;&gt;"GND",NOT(ISNA(P12)),NOT(ISNA(N12))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P12/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K12,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P12/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K12,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K12&lt;&gt;"",K12&lt;&gt;"+3v3",K12&lt;&gt;"GND",NOT(ISNA(P12)),NOT(ISNA(N12))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P12/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K12,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P12/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K12,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y12" s="7" t="str">
@@ -3592,11 +3791,11 @@
 set_property IOSTANDARD LVTTL [get_ports {arb_n3 }]</v>
       </c>
       <c r="V13" s="31" t="str">
-        <f aca="false">IF(AND(K13&lt;&gt;"",K13&lt;&gt;"+3v3",K13&lt;&gt;"GND",NOT(ISNA(P13)),NOT(ISNA(N13))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S13/$V$7,"0.000")," [get_ports {",K13,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S13/$W$7,"0.000")," [get_ports {",K13,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K13&lt;&gt;"",K13&lt;&gt;"+3v3",K13&lt;&gt;"GND",NOT(ISNA(P13)),NOT(ISNA(N13))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S13/$V$7,"0.000")," [get_ports {",K13,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S13/$W$7,"0.000")," [get_ports {",K13,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W13" s="31" t="str">
-        <f aca="false">IF(AND(K13&lt;&gt;"",K13&lt;&gt;"+3v3",K13&lt;&gt;"GND",NOT(ISNA(P13)),NOT(ISNA(N13))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P13/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K13,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P13/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K13,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K13&lt;&gt;"",K13&lt;&gt;"+3v3",K13&lt;&gt;"GND",NOT(ISNA(P13)),NOT(ISNA(N13))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P13/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K13,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P13/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K13,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y13" s="7" t="str">
@@ -3668,11 +3867,11 @@
 set_property IOSTANDARD LVTTL [get_ports {arb_n0 }]</v>
       </c>
       <c r="V14" s="31" t="str">
-        <f aca="false">IF(AND(K14&lt;&gt;"",K14&lt;&gt;"+3v3",K14&lt;&gt;"GND",NOT(ISNA(P14)),NOT(ISNA(N14))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S14/$V$7,"0.000")," [get_ports {",K14,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S14/$W$7,"0.000")," [get_ports {",K14,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K14&lt;&gt;"",K14&lt;&gt;"+3v3",K14&lt;&gt;"GND",NOT(ISNA(P14)),NOT(ISNA(N14))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S14/$V$7,"0.000")," [get_ports {",K14,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S14/$W$7,"0.000")," [get_ports {",K14,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W14" s="31" t="str">
-        <f aca="false">IF(AND(K14&lt;&gt;"",K14&lt;&gt;"+3v3",K14&lt;&gt;"GND",NOT(ISNA(P14)),NOT(ISNA(N14))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P14/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K14,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P14/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K14,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K14&lt;&gt;"",K14&lt;&gt;"+3v3",K14&lt;&gt;"GND",NOT(ISNA(P14)),NOT(ISNA(N14))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P14/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K14,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P14/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K14,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y14" s="7" t="str">
@@ -3742,11 +3941,11 @@
 set_property IOSTANDARD LVTTL [get_ports {arb_n1 }]</v>
       </c>
       <c r="V15" s="31" t="str">
-        <f aca="false">IF(AND(K15&lt;&gt;"",K15&lt;&gt;"+3v3",K15&lt;&gt;"GND",NOT(ISNA(P15)),NOT(ISNA(N15))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S15/$V$7,"0.000")," [get_ports {",K15,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S15/$W$7,"0.000")," [get_ports {",K15,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K15&lt;&gt;"",K15&lt;&gt;"+3v3",K15&lt;&gt;"GND",NOT(ISNA(P15)),NOT(ISNA(N15))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S15/$V$7,"0.000")," [get_ports {",K15,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S15/$W$7,"0.000")," [get_ports {",K15,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W15" s="31" t="str">
-        <f aca="false">IF(AND(K15&lt;&gt;"",K15&lt;&gt;"+3v3",K15&lt;&gt;"GND",NOT(ISNA(P15)),NOT(ISNA(N15))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P15/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K15,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P15/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K15,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K15&lt;&gt;"",K15&lt;&gt;"+3v3",K15&lt;&gt;"GND",NOT(ISNA(P15)),NOT(ISNA(N15))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P15/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K15,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P15/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K15,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y15" s="7" t="str">
@@ -3791,21 +3990,21 @@
         <f aca="false">VLOOKUP(A16,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>41.01</v>
       </c>
-      <c r="N16" s="4" t="e">
+      <c r="N16" s="4" t="n">
         <f aca="false">VLOOKUP(K16,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P16" s="4" t="e">
+        <v>35.025806317</v>
+      </c>
+      <c r="P16" s="4" t="n">
         <f aca="false">IF(AND(M16&gt;0,N16&gt;0),M16+N16, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q16" s="29" t="e">
+        <v>76.035806317</v>
+      </c>
+      <c r="Q16" s="29" t="n">
         <f aca="false">IF(P16&gt;0,P16/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S16" s="4" t="e">
+        <v>2.99353568177165</v>
+      </c>
+      <c r="S16" s="4" t="n">
         <f aca="false">IF(P16&gt;0,P$135-P16,"")</f>
-        <v>#N/A</v>
+        <v>-6.93783015990002</v>
       </c>
       <c r="T16" s="0" t="s">
         <v>36</v>
@@ -3816,16 +4015,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n31 }]</v>
       </c>
       <c r="V16" s="31" t="str">
-        <f aca="false">IF(AND(K16&lt;&gt;"",K16&lt;&gt;"+3v3",K16&lt;&gt;"GND",NOT(ISNA(P16)),NOT(ISNA(N16))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S16/$V$7,"0.000")," [get_ports {",K16,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S16/$W$7,"0.000")," [get_ports {",K16,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K16&lt;&gt;"",K16&lt;&gt;"+3v3",K16&lt;&gt;"GND",NOT(ISNA(P16)),NOT(ISNA(N16))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S16/$V$7,"0.000")," [get_ports {",K16,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S16/$W$7,"0.000")," [get_ports {",K16,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.285 [get_ports {ad_n31}]
+set_input_delay -clock clk_3v3_n -max 52.296 [get_ports {ad_n31}]
+</v>
       </c>
       <c r="W16" s="31" t="str">
-        <f aca="false">IF(AND(K16&lt;&gt;"",K16&lt;&gt;"+3v3",K16&lt;&gt;"GND",NOT(ISNA(P16)),NOT(ISNA(N16))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P16/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K16,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P16/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K16,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K16&lt;&gt;"",K16&lt;&gt;"+3v3",K16&lt;&gt;"GND",NOT(ISNA(P16)),NOT(ISNA(N16))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P16/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K16,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P16/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K16,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.274 [get_ports {ad_n31}]
+set_output_delay -clock clk_3v3_n -max 53.468 [get_ports {ad_n31}]
+</v>
       </c>
       <c r="Y16" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T16="IO",T16="I"),V16,""),IF(OR(T16="IO",T16="O"),W16,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.285 [get_ports {ad_n31}]
+set_input_delay -clock clk_3v3_n -max 52.296 [get_ports {ad_n31}]
+set_output_delay -clock clk_3v3_n -min -6.274 [get_ports {ad_n31}]
+set_output_delay -clock clk_3v3_n -max 53.468 [get_ports {ad_n31}]
+</v>
       </c>
       <c r="AG16" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K16,3)="LED",LEFT(K16,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D16,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K16),"")</f>
@@ -3865,21 +4072,21 @@
         <f aca="false">VLOOKUP(A17,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>41.18</v>
       </c>
-      <c r="N17" s="4" t="e">
+      <c r="N17" s="4" t="n">
         <f aca="false">VLOOKUP(K17,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P17" s="4" t="e">
+        <v>32.7064984746</v>
+      </c>
+      <c r="P17" s="4" t="n">
         <f aca="false">IF(AND(M17&gt;0,N17&gt;0),M17+N17, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q17" s="29" t="e">
+        <v>73.8864984746</v>
+      </c>
+      <c r="Q17" s="29" t="n">
         <f aca="false">IF(P17&gt;0,P17/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S17" s="4" t="e">
+        <v>2.90891726277953</v>
+      </c>
+      <c r="S17" s="4" t="n">
         <f aca="false">IF(P17&gt;0,P$135-P17,"")</f>
-        <v>#N/A</v>
+        <v>-4.78852231750001</v>
       </c>
       <c r="T17" s="0" t="s">
         <v>36</v>
@@ -3890,16 +4097,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n30 }]</v>
       </c>
       <c r="V17" s="31" t="str">
-        <f aca="false">IF(AND(K17&lt;&gt;"",K17&lt;&gt;"+3v3",K17&lt;&gt;"GND",NOT(ISNA(P17)),NOT(ISNA(N17))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S17/$V$7,"0.000")," [get_ports {",K17,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S17/$W$7,"0.000")," [get_ports {",K17,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K17&lt;&gt;"",K17&lt;&gt;"+3v3",K17&lt;&gt;"GND",NOT(ISNA(P17)),NOT(ISNA(N17))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S17/$V$7,"0.000")," [get_ports {",K17,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S17/$W$7,"0.000")," [get_ports {",K17,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.274 [get_ports {ad_n30}]
+set_input_delay -clock clk_3v3_n -max 52.282 [get_ports {ad_n30}]
+</v>
       </c>
       <c r="W17" s="31" t="str">
-        <f aca="false">IF(AND(K17&lt;&gt;"",K17&lt;&gt;"+3v3",K17&lt;&gt;"GND",NOT(ISNA(P17)),NOT(ISNA(N17))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P17/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K17,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P17/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K17,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K17&lt;&gt;"",K17&lt;&gt;"+3v3",K17&lt;&gt;"GND",NOT(ISNA(P17)),NOT(ISNA(N17))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P17/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K17,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P17/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K17,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.285 [get_ports {ad_n30}]
+set_output_delay -clock clk_3v3_n -max 53.453 [get_ports {ad_n30}]
+</v>
       </c>
       <c r="Y17" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T17="IO",T17="I"),V17,""),IF(OR(T17="IO",T17="O"),W17,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.274 [get_ports {ad_n30}]
+set_input_delay -clock clk_3v3_n -max 52.282 [get_ports {ad_n30}]
+set_output_delay -clock clk_3v3_n -min -6.285 [get_ports {ad_n30}]
+set_output_delay -clock clk_3v3_n -max 53.453 [get_ports {ad_n30}]
+</v>
       </c>
       <c r="AG17" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K17,3)="LED",LEFT(K17,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D17,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K17),"")</f>
@@ -3939,21 +4154,21 @@
         <f aca="false">VLOOKUP(A18,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>36.34</v>
       </c>
-      <c r="N18" s="4" t="e">
+      <c r="N18" s="4" t="n">
         <f aca="false">VLOOKUP(K18,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="4" t="e">
+        <v>35.025806317</v>
+      </c>
+      <c r="P18" s="4" t="n">
         <f aca="false">IF(AND(M18&gt;0,N18&gt;0),M18+N18, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" s="29" t="e">
+        <v>71.365806317</v>
+      </c>
+      <c r="Q18" s="29" t="n">
         <f aca="false">IF(P18&gt;0,P18/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S18" s="4" t="e">
+        <v>2.80967741405512</v>
+      </c>
+      <c r="S18" s="4" t="n">
         <f aca="false">IF(P18&gt;0,P$135-P18,"")</f>
-        <v>#N/A</v>
+        <v>-2.26783015990001</v>
       </c>
       <c r="T18" s="0" t="s">
         <v>36</v>
@@ -3964,16 +4179,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n29 }]</v>
       </c>
       <c r="V18" s="31" t="str">
-        <f aca="false">IF(AND(K18&lt;&gt;"",K18&lt;&gt;"+3v3",K18&lt;&gt;"GND",NOT(ISNA(P18)),NOT(ISNA(N18))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S18/$V$7,"0.000")," [get_ports {",K18,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S18/$W$7,"0.000")," [get_ports {",K18,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K18&lt;&gt;"",K18&lt;&gt;"+3v3",K18&lt;&gt;"GND",NOT(ISNA(P18)),NOT(ISNA(N18))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S18/$V$7,"0.000")," [get_ports {",K18,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S18/$W$7,"0.000")," [get_ports {",K18,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.261 [get_ports {ad_n29}]
+set_input_delay -clock clk_3v3_n -max 52.265 [get_ports {ad_n29}]
+</v>
       </c>
       <c r="W18" s="31" t="str">
-        <f aca="false">IF(AND(K18&lt;&gt;"",K18&lt;&gt;"+3v3",K18&lt;&gt;"GND",NOT(ISNA(P18)),NOT(ISNA(N18))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P18/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K18,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P18/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K18,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K18&lt;&gt;"",K18&lt;&gt;"+3v3",K18&lt;&gt;"GND",NOT(ISNA(P18)),NOT(ISNA(N18))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P18/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K18,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P18/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K18,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.298 [get_ports {ad_n29}]
+set_output_delay -clock clk_3v3_n -max 53.436 [get_ports {ad_n29}]
+</v>
       </c>
       <c r="Y18" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T18="IO",T18="I"),V18,""),IF(OR(T18="IO",T18="O"),W18,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.261 [get_ports {ad_n29}]
+set_input_delay -clock clk_3v3_n -max 52.265 [get_ports {ad_n29}]
+set_output_delay -clock clk_3v3_n -min -6.298 [get_ports {ad_n29}]
+set_output_delay -clock clk_3v3_n -max 53.436 [get_ports {ad_n29}]
+</v>
       </c>
       <c r="AG18" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K18,3)="LED",LEFT(K18,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D18,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K18),"")</f>
@@ -4013,21 +4236,21 @@
         <f aca="false">VLOOKUP(A19,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>38.13</v>
       </c>
-      <c r="N19" s="4" t="e">
+      <c r="N19" s="4" t="n">
         <f aca="false">VLOOKUP(K19,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="4" t="e">
+        <v>32.7064984747</v>
+      </c>
+      <c r="P19" s="4" t="n">
         <f aca="false">IF(AND(M19&gt;0,N19&gt;0),M19+N19, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" s="29" t="e">
+        <v>70.8364984747</v>
+      </c>
+      <c r="Q19" s="29" t="n">
         <f aca="false">IF(P19&gt;0,P19/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S19" s="4" t="e">
+        <v>2.78883852262598</v>
+      </c>
+      <c r="S19" s="4" t="n">
         <f aca="false">IF(P19&gt;0,P$135-P19,"")</f>
-        <v>#N/A</v>
+        <v>-1.7385223176</v>
       </c>
       <c r="T19" s="0" t="s">
         <v>36</v>
@@ -4038,16 +4261,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n28 }]</v>
       </c>
       <c r="V19" s="31" t="str">
-        <f aca="false">IF(AND(K19&lt;&gt;"",K19&lt;&gt;"+3v3",K19&lt;&gt;"GND",NOT(ISNA(P19)),NOT(ISNA(N19))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S19/$V$7,"0.000")," [get_ports {",K19,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S19/$W$7,"0.000")," [get_ports {",K19,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K19&lt;&gt;"",K19&lt;&gt;"+3v3",K19&lt;&gt;"GND",NOT(ISNA(P19)),NOT(ISNA(N19))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S19/$V$7,"0.000")," [get_ports {",K19,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S19/$W$7,"0.000")," [get_ports {",K19,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.259 [get_ports {ad_n28}]
+set_input_delay -clock clk_3v3_n -max 52.262 [get_ports {ad_n28}]
+</v>
       </c>
       <c r="W19" s="31" t="str">
-        <f aca="false">IF(AND(K19&lt;&gt;"",K19&lt;&gt;"+3v3",K19&lt;&gt;"GND",NOT(ISNA(P19)),NOT(ISNA(N19))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P19/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K19,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P19/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K19,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K19&lt;&gt;"",K19&lt;&gt;"+3v3",K19&lt;&gt;"GND",NOT(ISNA(P19)),NOT(ISNA(N19))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P19/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K19,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P19/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K19,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.300 [get_ports {ad_n28}]
+set_output_delay -clock clk_3v3_n -max 53.433 [get_ports {ad_n28}]
+</v>
       </c>
       <c r="Y19" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T19="IO",T19="I"),V19,""),IF(OR(T19="IO",T19="O"),W19,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.259 [get_ports {ad_n28}]
+set_input_delay -clock clk_3v3_n -max 52.262 [get_ports {ad_n28}]
+set_output_delay -clock clk_3v3_n -min -6.300 [get_ports {ad_n28}]
+set_output_delay -clock clk_3v3_n -max 53.433 [get_ports {ad_n28}]
+</v>
       </c>
       <c r="AG19" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K19,3)="LED",LEFT(K19,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D19,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K19),"")</f>
@@ -4087,21 +4318,21 @@
         <f aca="false">VLOOKUP(A20,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>35.18</v>
       </c>
-      <c r="N20" s="4" t="e">
+      <c r="N20" s="4" t="n">
         <f aca="false">VLOOKUP(K20,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="4" t="e">
+        <v>35.4059706961</v>
+      </c>
+      <c r="P20" s="4" t="n">
         <f aca="false">IF(AND(M20&gt;0,N20&gt;0),M20+N20, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" s="29" t="e">
+        <v>70.5859706961</v>
+      </c>
+      <c r="Q20" s="29" t="n">
         <f aca="false">IF(P20&gt;0,P20/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S20" s="4" t="e">
+        <v>2.77897522425591</v>
+      </c>
+      <c r="S20" s="4" t="n">
         <f aca="false">IF(P20&gt;0,P$135-P20,"")</f>
-        <v>#N/A</v>
+        <v>-1.487994539</v>
       </c>
       <c r="T20" s="0" t="s">
         <v>36</v>
@@ -4112,16 +4343,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n27 }]</v>
       </c>
       <c r="V20" s="31" t="str">
-        <f aca="false">IF(AND(K20&lt;&gt;"",K20&lt;&gt;"+3v3",K20&lt;&gt;"GND",NOT(ISNA(P20)),NOT(ISNA(N20))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S20/$V$7,"0.000")," [get_ports {",K20,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S20/$W$7,"0.000")," [get_ports {",K20,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K20&lt;&gt;"",K20&lt;&gt;"+3v3",K20&lt;&gt;"GND",NOT(ISNA(P20)),NOT(ISNA(N20))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S20/$V$7,"0.000")," [get_ports {",K20,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S20/$W$7,"0.000")," [get_ports {",K20,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.257 [get_ports {ad_n27}]
+set_input_delay -clock clk_3v3_n -max 52.260 [get_ports {ad_n27}]
+</v>
       </c>
       <c r="W20" s="31" t="str">
-        <f aca="false">IF(AND(K20&lt;&gt;"",K20&lt;&gt;"+3v3",K20&lt;&gt;"GND",NOT(ISNA(P20)),NOT(ISNA(N20))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P20/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K20,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P20/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K20,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K20&lt;&gt;"",K20&lt;&gt;"+3v3",K20&lt;&gt;"GND",NOT(ISNA(P20)),NOT(ISNA(N20))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P20/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K20,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P20/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K20,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.302 [get_ports {ad_n27}]
+set_output_delay -clock clk_3v3_n -max 53.431 [get_ports {ad_n27}]
+</v>
       </c>
       <c r="Y20" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T20="IO",T20="I"),V20,""),IF(OR(T20="IO",T20="O"),W20,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.257 [get_ports {ad_n27}]
+set_input_delay -clock clk_3v3_n -max 52.260 [get_ports {ad_n27}]
+set_output_delay -clock clk_3v3_n -min -6.302 [get_ports {ad_n27}]
+set_output_delay -clock clk_3v3_n -max 53.431 [get_ports {ad_n27}]
+</v>
       </c>
       <c r="AG20" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K20,3)="LED",LEFT(K20,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D20,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K20),"")</f>
@@ -4163,21 +4402,21 @@
         <f aca="false">VLOOKUP(A21,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>33.55</v>
       </c>
-      <c r="N21" s="4" t="e">
+      <c r="N21" s="4" t="n">
         <f aca="false">VLOOKUP(K21,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P21" s="4" t="e">
+        <v>33.3920219204</v>
+      </c>
+      <c r="P21" s="4" t="n">
         <f aca="false">IF(AND(M21&gt;0,N21&gt;0),M21+N21, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q21" s="29" t="e">
+        <v>66.9420219204</v>
+      </c>
+      <c r="Q21" s="29" t="n">
         <f aca="false">IF(P21&gt;0,P21/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S21" s="4" t="e">
+        <v>2.6355126740315</v>
+      </c>
+      <c r="S21" s="4" t="n">
         <f aca="false">IF(P21&gt;0,P$135-P21,"")</f>
-        <v>#N/A</v>
+        <v>2.1559542367</v>
       </c>
       <c r="T21" s="0" t="s">
         <v>36</v>
@@ -4188,16 +4427,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n26 }]</v>
       </c>
       <c r="V21" s="31" t="str">
-        <f aca="false">IF(AND(K21&lt;&gt;"",K21&lt;&gt;"+3v3",K21&lt;&gt;"GND",NOT(ISNA(P21)),NOT(ISNA(N21))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S21/$V$7,"0.000")," [get_ports {",K21,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S21/$W$7,"0.000")," [get_ports {",K21,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K21&lt;&gt;"",K21&lt;&gt;"+3v3",K21&lt;&gt;"GND",NOT(ISNA(P21)),NOT(ISNA(N21))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S21/$V$7,"0.000")," [get_ports {",K21,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S21/$W$7,"0.000")," [get_ports {",K21,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.239 [get_ports {ad_n26}]
+set_input_delay -clock clk_3v3_n -max 52.236 [get_ports {ad_n26}]
+</v>
       </c>
       <c r="W21" s="31" t="str">
-        <f aca="false">IF(AND(K21&lt;&gt;"",K21&lt;&gt;"+3v3",K21&lt;&gt;"GND",NOT(ISNA(P21)),NOT(ISNA(N21))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P21/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K21,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P21/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K21,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K21&lt;&gt;"",K21&lt;&gt;"+3v3",K21&lt;&gt;"GND",NOT(ISNA(P21)),NOT(ISNA(N21))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P21/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K21,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P21/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K21,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.320 [get_ports {ad_n26}]
+set_output_delay -clock clk_3v3_n -max 53.407 [get_ports {ad_n26}]
+</v>
       </c>
       <c r="Y21" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T21="IO",T21="I"),V21,""),IF(OR(T21="IO",T21="O"),W21,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.239 [get_ports {ad_n26}]
+set_input_delay -clock clk_3v3_n -max 52.236 [get_ports {ad_n26}]
+set_output_delay -clock clk_3v3_n -min -6.320 [get_ports {ad_n26}]
+set_output_delay -clock clk_3v3_n -max 53.407 [get_ports {ad_n26}]
+</v>
       </c>
       <c r="AG21" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K21,3)="LED",LEFT(K21,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D21,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K21),"")</f>
@@ -4237,21 +4484,21 @@
         <f aca="false">VLOOKUP(A22,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>31.47</v>
       </c>
-      <c r="N22" s="4" t="e">
+      <c r="N22" s="4" t="n">
         <f aca="false">VLOOKUP(K22,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" s="4" t="e">
+        <v>36.4580731446</v>
+      </c>
+      <c r="P22" s="4" t="n">
         <f aca="false">IF(AND(M22&gt;0,N22&gt;0),M22+N22, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q22" s="29" t="e">
+        <v>67.9280731446</v>
+      </c>
+      <c r="Q22" s="29" t="n">
         <f aca="false">IF(P22&gt;0,P22/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S22" s="4" t="e">
+        <v>2.67433358837008</v>
+      </c>
+      <c r="S22" s="4" t="n">
         <f aca="false">IF(P22&gt;0,P$135-P22,"")</f>
-        <v>#N/A</v>
+        <v>1.16990301249999</v>
       </c>
       <c r="T22" s="0" t="s">
         <v>36</v>
@@ -4262,16 +4509,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n25 }]</v>
       </c>
       <c r="V22" s="31" t="str">
-        <f aca="false">IF(AND(K22&lt;&gt;"",K22&lt;&gt;"+3v3",K22&lt;&gt;"GND",NOT(ISNA(P22)),NOT(ISNA(N22))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S22/$V$7,"0.000")," [get_ports {",K22,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S22/$W$7,"0.000")," [get_ports {",K22,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K22&lt;&gt;"",K22&lt;&gt;"+3v3",K22&lt;&gt;"GND",NOT(ISNA(P22)),NOT(ISNA(N22))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S22/$V$7,"0.000")," [get_ports {",K22,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S22/$W$7,"0.000")," [get_ports {",K22,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.244 [get_ports {ad_n25}]
+set_input_delay -clock clk_3v3_n -max 52.242 [get_ports {ad_n25}]
+</v>
       </c>
       <c r="W22" s="31" t="str">
-        <f aca="false">IF(AND(K22&lt;&gt;"",K22&lt;&gt;"+3v3",K22&lt;&gt;"GND",NOT(ISNA(P22)),NOT(ISNA(N22))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P22/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K22,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P22/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K22,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K22&lt;&gt;"",K22&lt;&gt;"+3v3",K22&lt;&gt;"GND",NOT(ISNA(P22)),NOT(ISNA(N22))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P22/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K22,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P22/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K22,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.315 [get_ports {ad_n25}]
+set_output_delay -clock clk_3v3_n -max 53.414 [get_ports {ad_n25}]
+</v>
       </c>
       <c r="Y22" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T22="IO",T22="I"),V22,""),IF(OR(T22="IO",T22="O"),W22,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.244 [get_ports {ad_n25}]
+set_input_delay -clock clk_3v3_n -max 52.242 [get_ports {ad_n25}]
+set_output_delay -clock clk_3v3_n -min -6.315 [get_ports {ad_n25}]
+set_output_delay -clock clk_3v3_n -max 53.414 [get_ports {ad_n25}]
+</v>
       </c>
       <c r="AG22" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K22,3)="LED",LEFT(K22,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D22,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K22),"")</f>
@@ -4313,21 +4568,21 @@
         <f aca="false">VLOOKUP(A23,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>30.82</v>
       </c>
-      <c r="N23" s="4" t="e">
+      <c r="N23" s="4" t="n">
         <f aca="false">VLOOKUP(K23,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" s="33" t="e">
+        <v>38.2779761571</v>
+      </c>
+      <c r="P23" s="33" t="n">
         <f aca="false">IF(AND(M23&gt;0,N23&gt;0),M23+N23, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q23" s="29" t="e">
+        <v>69.0979761571</v>
+      </c>
+      <c r="Q23" s="29" t="n">
         <f aca="false">IF(P23&gt;0,P23/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S23" s="4" t="e">
+        <v>2.72039276209055</v>
+      </c>
+      <c r="S23" s="4" t="n">
         <f aca="false">IF(P23&gt;0,P$135-P23,"")</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="T23" s="0" t="s">
         <v>36</v>
@@ -4338,16 +4593,24 @@
 set_property IOSTANDARD LVTTL [get_ports {clk_n }]</v>
       </c>
       <c r="V23" s="31" t="str">
-        <f aca="false">IF(AND(K23&lt;&gt;"",K23&lt;&gt;"+3v3",K23&lt;&gt;"GND",NOT(ISNA(P23)),NOT(ISNA(N23))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S23/$V$7,"0.000")," [get_ports {",K23,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S23/$W$7,"0.000")," [get_ports {",K23,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K23&lt;&gt;"",K23&lt;&gt;"+3v3",K23&lt;&gt;"GND",NOT(ISNA(P23)),NOT(ISNA(N23))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S23/$V$7,"0.000")," [get_ports {",K23,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S23/$W$7,"0.000")," [get_ports {",K23,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.250 [get_ports {clk_n}]
+set_input_delay -clock clk_3v3_n -max 52.250 [get_ports {clk_n}]
+</v>
       </c>
       <c r="W23" s="31" t="str">
-        <f aca="false">IF(AND(K23&lt;&gt;"",K23&lt;&gt;"+3v3",K23&lt;&gt;"GND",NOT(ISNA(P23)),NOT(ISNA(N23))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P23/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K23,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P23/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K23,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K23&lt;&gt;"",K23&lt;&gt;"+3v3",K23&lt;&gt;"GND",NOT(ISNA(P23)),NOT(ISNA(N23))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P23/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K23,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P23/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K23,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.309 [get_ports {clk_n}]
+set_output_delay -clock clk_3v3_n -max 53.421 [get_ports {clk_n}]
+</v>
       </c>
       <c r="Y23" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T23="IO",T23="I"),V23,""),IF(OR(T23="IO",T23="O"),W23,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.250 [get_ports {clk_n}]
+set_input_delay -clock clk_3v3_n -max 52.250 [get_ports {clk_n}]
+set_output_delay -clock clk_3v3_n -min -6.309 [get_ports {clk_n}]
+set_output_delay -clock clk_3v3_n -max 53.421 [get_ports {clk_n}]
+</v>
       </c>
       <c r="AG23" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K23,3)="LED",LEFT(K23,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D23,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K23),"")</f>
@@ -4387,21 +4650,21 @@
         <f aca="false">VLOOKUP(A24,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>29.79</v>
       </c>
-      <c r="N24" s="4" t="e">
+      <c r="N24" s="4" t="n">
         <f aca="false">VLOOKUP(K24,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P24" s="4" t="e">
+        <v>38.4487677607</v>
+      </c>
+      <c r="P24" s="4" t="n">
         <f aca="false">IF(AND(M24&gt;0,N24&gt;0),M24+N24, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q24" s="29" t="e">
+        <v>68.2387677607</v>
+      </c>
+      <c r="Q24" s="29" t="n">
         <f aca="false">IF(P24&gt;0,P24/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S24" s="4" t="e">
+        <v>2.68656565987008</v>
+      </c>
+      <c r="S24" s="4" t="n">
         <f aca="false">IF(P24&gt;0,P$135-P24,"")</f>
-        <v>#N/A</v>
+        <v>0.859208396399993</v>
       </c>
       <c r="T24" s="0" t="s">
         <v>36</v>
@@ -4412,16 +4675,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n23 }]</v>
       </c>
       <c r="V24" s="31" t="str">
-        <f aca="false">IF(AND(K24&lt;&gt;"",K24&lt;&gt;"+3v3",K24&lt;&gt;"GND",NOT(ISNA(P24)),NOT(ISNA(N24))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S24/$V$7,"0.000")," [get_ports {",K24,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S24/$W$7,"0.000")," [get_ports {",K24,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K24&lt;&gt;"",K24&lt;&gt;"+3v3",K24&lt;&gt;"GND",NOT(ISNA(P24)),NOT(ISNA(N24))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S24/$V$7,"0.000")," [get_ports {",K24,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S24/$W$7,"0.000")," [get_ports {",K24,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.246 [get_ports {ad_n23}]
+set_input_delay -clock clk_3v3_n -max 52.244 [get_ports {ad_n23}]
+</v>
       </c>
       <c r="W24" s="31" t="str">
-        <f aca="false">IF(AND(K24&lt;&gt;"",K24&lt;&gt;"+3v3",K24&lt;&gt;"GND",NOT(ISNA(P24)),NOT(ISNA(N24))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P24/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K24,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P24/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K24,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K24&lt;&gt;"",K24&lt;&gt;"+3v3",K24&lt;&gt;"GND",NOT(ISNA(P24)),NOT(ISNA(N24))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P24/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K24,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P24/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K24,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.313 [get_ports {ad_n23}]
+set_output_delay -clock clk_3v3_n -max 53.416 [get_ports {ad_n23}]
+</v>
       </c>
       <c r="Y24" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T24="IO",T24="I"),V24,""),IF(OR(T24="IO",T24="O"),W24,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.246 [get_ports {ad_n23}]
+set_input_delay -clock clk_3v3_n -max 52.244 [get_ports {ad_n23}]
+set_output_delay -clock clk_3v3_n -min -6.313 [get_ports {ad_n23}]
+set_output_delay -clock clk_3v3_n -max 53.416 [get_ports {ad_n23}]
+</v>
       </c>
       <c r="AG24" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K24,3)="LED",LEFT(K24,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D24,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K24),"")</f>
@@ -4463,21 +4734,21 @@
         <f aca="false">VLOOKUP(A25,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>42.85</v>
       </c>
-      <c r="N25" s="4" t="e">
+      <c r="N25" s="4" t="n">
         <f aca="false">VLOOKUP(K25,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P25" s="4" t="e">
+        <v>34.4441243688</v>
+      </c>
+      <c r="P25" s="4" t="n">
         <f aca="false">IF(AND(M25&gt;0,N25&gt;0),M25+N25, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q25" s="29" t="e">
+        <v>77.2941243688</v>
+      </c>
+      <c r="Q25" s="29" t="n">
         <f aca="false">IF(P25&gt;0,P25/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S25" s="4" t="e">
+        <v>3.04307576255118</v>
+      </c>
+      <c r="S25" s="4" t="n">
         <f aca="false">IF(P25&gt;0,P$135-P25,"")</f>
-        <v>#N/A</v>
+        <v>-8.19614821170001</v>
       </c>
       <c r="T25" s="0" t="s">
         <v>36</v>
@@ -4488,16 +4759,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n24 }]</v>
       </c>
       <c r="V25" s="31" t="str">
-        <f aca="false">IF(AND(K25&lt;&gt;"",K25&lt;&gt;"+3v3",K25&lt;&gt;"GND",NOT(ISNA(P25)),NOT(ISNA(N25))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S25/$V$7,"0.000")," [get_ports {",K25,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S25/$W$7,"0.000")," [get_ports {",K25,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K25&lt;&gt;"",K25&lt;&gt;"+3v3",K25&lt;&gt;"GND",NOT(ISNA(P25)),NOT(ISNA(N25))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S25/$V$7,"0.000")," [get_ports {",K25,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S25/$W$7,"0.000")," [get_ports {",K25,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.291 [get_ports {ad_n24}]
+set_input_delay -clock clk_3v3_n -max 52.305 [get_ports {ad_n24}]
+</v>
       </c>
       <c r="W25" s="31" t="str">
-        <f aca="false">IF(AND(K25&lt;&gt;"",K25&lt;&gt;"+3v3",K25&lt;&gt;"GND",NOT(ISNA(P25)),NOT(ISNA(N25))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P25/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K25,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P25/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K25,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K25&lt;&gt;"",K25&lt;&gt;"+3v3",K25&lt;&gt;"GND",NOT(ISNA(P25)),NOT(ISNA(N25))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P25/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K25,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P25/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K25,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.268 [get_ports {ad_n24}]
+set_output_delay -clock clk_3v3_n -max 53.476 [get_ports {ad_n24}]
+</v>
       </c>
       <c r="Y25" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T25="IO",T25="I"),V25,""),IF(OR(T25="IO",T25="O"),W25,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.291 [get_ports {ad_n24}]
+set_input_delay -clock clk_3v3_n -max 52.305 [get_ports {ad_n24}]
+set_output_delay -clock clk_3v3_n -min -6.268 [get_ports {ad_n24}]
+set_output_delay -clock clk_3v3_n -max 53.476 [get_ports {ad_n24}]
+</v>
       </c>
       <c r="AG25" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K25,3)="LED",LEFT(K25,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D25,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K25),"")</f>
@@ -4537,21 +4816,21 @@
         <f aca="false">VLOOKUP(A26,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>28.44</v>
       </c>
-      <c r="N26" s="4" t="e">
+      <c r="N26" s="4" t="n">
         <f aca="false">VLOOKUP(K26,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P26" s="4" t="e">
+        <v>38.3628058199</v>
+      </c>
+      <c r="P26" s="4" t="n">
         <f aca="false">IF(AND(M26&gt;0,N26&gt;0),M26+N26, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q26" s="29" t="e">
+        <v>66.8028058199</v>
+      </c>
+      <c r="Q26" s="29" t="n">
         <f aca="false">IF(P26&gt;0,P26/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S26" s="4" t="e">
+        <v>2.63003172519291</v>
+      </c>
+      <c r="S26" s="4" t="n">
         <f aca="false">IF(P26&gt;0,P$135-P26,"")</f>
-        <v>#N/A</v>
+        <v>2.29517033719999</v>
       </c>
       <c r="T26" s="0" t="s">
         <v>36</v>
@@ -4562,16 +4841,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n21 }]</v>
       </c>
       <c r="V26" s="31" t="str">
-        <f aca="false">IF(AND(K26&lt;&gt;"",K26&lt;&gt;"+3v3",K26&lt;&gt;"GND",NOT(ISNA(P26)),NOT(ISNA(N26))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S26/$V$7,"0.000")," [get_ports {",K26,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S26/$W$7,"0.000")," [get_ports {",K26,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K26&lt;&gt;"",K26&lt;&gt;"+3v3",K26&lt;&gt;"GND",NOT(ISNA(P26)),NOT(ISNA(N26))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S26/$V$7,"0.000")," [get_ports {",K26,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S26/$W$7,"0.000")," [get_ports {",K26,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.239 [get_ports {ad_n21}]
+set_input_delay -clock clk_3v3_n -max 52.235 [get_ports {ad_n21}]
+</v>
       </c>
       <c r="W26" s="31" t="str">
-        <f aca="false">IF(AND(K26&lt;&gt;"",K26&lt;&gt;"+3v3",K26&lt;&gt;"GND",NOT(ISNA(P26)),NOT(ISNA(N26))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P26/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K26,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P26/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K26,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K26&lt;&gt;"",K26&lt;&gt;"+3v3",K26&lt;&gt;"GND",NOT(ISNA(P26)),NOT(ISNA(N26))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P26/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K26,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P26/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K26,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.320 [get_ports {ad_n21}]
+set_output_delay -clock clk_3v3_n -max 53.406 [get_ports {ad_n21}]
+</v>
       </c>
       <c r="Y26" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T26="IO",T26="I"),V26,""),IF(OR(T26="IO",T26="O"),W26,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.239 [get_ports {ad_n21}]
+set_input_delay -clock clk_3v3_n -max 52.235 [get_ports {ad_n21}]
+set_output_delay -clock clk_3v3_n -min -6.320 [get_ports {ad_n21}]
+set_output_delay -clock clk_3v3_n -max 53.406 [get_ports {ad_n21}]
+</v>
       </c>
       <c r="AG26" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K26,3)="LED",LEFT(K26,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D26,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K26),"")</f>
@@ -4613,21 +4900,21 @@
         <f aca="false">VLOOKUP(A27,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>26.76</v>
       </c>
-      <c r="N27" s="4" t="e">
+      <c r="N27" s="4" t="n">
         <f aca="false">VLOOKUP(K27,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P27" s="4" t="e">
+        <v>35.8628058199</v>
+      </c>
+      <c r="P27" s="4" t="n">
         <f aca="false">IF(AND(M27&gt;0,N27&gt;0),M27+N27, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q27" s="29" t="e">
+        <v>62.6228058199</v>
+      </c>
+      <c r="Q27" s="29" t="n">
         <f aca="false">IF(P27&gt;0,P27/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S27" s="4" t="e">
+        <v>2.46546479605905</v>
+      </c>
+      <c r="S27" s="4" t="n">
         <f aca="false">IF(P27&gt;0,P$135-P27,"")</f>
-        <v>#N/A</v>
+        <v>6.4751703372</v>
       </c>
       <c r="T27" s="0" t="s">
         <v>36</v>
@@ -4638,16 +4925,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n22 }]</v>
       </c>
       <c r="V27" s="31" t="str">
-        <f aca="false">IF(AND(K27&lt;&gt;"",K27&lt;&gt;"+3v3",K27&lt;&gt;"GND",NOT(ISNA(P27)),NOT(ISNA(N27))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S27/$V$7,"0.000")," [get_ports {",K27,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S27/$W$7,"0.000")," [get_ports {",K27,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K27&lt;&gt;"",K27&lt;&gt;"+3v3",K27&lt;&gt;"GND",NOT(ISNA(P27)),NOT(ISNA(N27))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S27/$V$7,"0.000")," [get_ports {",K27,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S27/$W$7,"0.000")," [get_ports {",K27,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.218 [get_ports {ad_n22}]
+set_input_delay -clock clk_3v3_n -max 52.207 [get_ports {ad_n22}]
+</v>
       </c>
       <c r="W27" s="31" t="str">
-        <f aca="false">IF(AND(K27&lt;&gt;"",K27&lt;&gt;"+3v3",K27&lt;&gt;"GND",NOT(ISNA(P27)),NOT(ISNA(N27))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P27/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K27,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P27/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K27,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K27&lt;&gt;"",K27&lt;&gt;"+3v3",K27&lt;&gt;"GND",NOT(ISNA(P27)),NOT(ISNA(N27))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P27/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K27,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P27/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K27,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.341 [get_ports {ad_n22}]
+set_output_delay -clock clk_3v3_n -max 53.378 [get_ports {ad_n22}]
+</v>
       </c>
       <c r="Y27" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T27="IO",T27="I"),V27,""),IF(OR(T27="IO",T27="O"),W27,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.218 [get_ports {ad_n22}]
+set_input_delay -clock clk_3v3_n -max 52.207 [get_ports {ad_n22}]
+set_output_delay -clock clk_3v3_n -min -6.341 [get_ports {ad_n22}]
+set_output_delay -clock clk_3v3_n -max 53.378 [get_ports {ad_n22}]
+</v>
       </c>
       <c r="AG27" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K27,3)="LED",LEFT(K27,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D27,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K27),"")</f>
@@ -4687,21 +4982,21 @@
         <f aca="false">VLOOKUP(A28,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>25.47</v>
       </c>
-      <c r="N28" s="4" t="e">
+      <c r="N28" s="4" t="n">
         <f aca="false">VLOOKUP(K28,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P28" s="4" t="e">
+        <v>35.8628058199</v>
+      </c>
+      <c r="P28" s="4" t="n">
         <f aca="false">IF(AND(M28&gt;0,N28&gt;0),M28+N28, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" s="29" t="e">
+        <v>61.3328058199</v>
+      </c>
+      <c r="Q28" s="29" t="n">
         <f aca="false">IF(P28&gt;0,P28/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S28" s="4" t="e">
+        <v>2.41467739448425</v>
+      </c>
+      <c r="S28" s="4" t="n">
         <f aca="false">IF(P28&gt;0,P$135-P28,"")</f>
-        <v>#N/A</v>
+        <v>7.7651703372</v>
       </c>
       <c r="T28" s="0" t="s">
         <v>36</v>
@@ -4712,16 +5007,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n18 }]</v>
       </c>
       <c r="V28" s="31" t="str">
-        <f aca="false">IF(AND(K28&lt;&gt;"",K28&lt;&gt;"+3v3",K28&lt;&gt;"GND",NOT(ISNA(P28)),NOT(ISNA(N28))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S28/$V$7,"0.000")," [get_ports {",K28,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S28/$W$7,"0.000")," [get_ports {",K28,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K28&lt;&gt;"",K28&lt;&gt;"+3v3",K28&lt;&gt;"GND",NOT(ISNA(P28)),NOT(ISNA(N28))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S28/$V$7,"0.000")," [get_ports {",K28,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S28/$W$7,"0.000")," [get_ports {",K28,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.211 [get_ports {ad_n18}]
+set_input_delay -clock clk_3v3_n -max 52.198 [get_ports {ad_n18}]
+</v>
       </c>
       <c r="W28" s="31" t="str">
-        <f aca="false">IF(AND(K28&lt;&gt;"",K28&lt;&gt;"+3v3",K28&lt;&gt;"GND",NOT(ISNA(P28)),NOT(ISNA(N28))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P28/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K28,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P28/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K28,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K28&lt;&gt;"",K28&lt;&gt;"+3v3",K28&lt;&gt;"GND",NOT(ISNA(P28)),NOT(ISNA(N28))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P28/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K28,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P28/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K28,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.348 [get_ports {ad_n18}]
+set_output_delay -clock clk_3v3_n -max 53.370 [get_ports {ad_n18}]
+</v>
       </c>
       <c r="Y28" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T28="IO",T28="I"),V28,""),IF(OR(T28="IO",T28="O"),W28,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.211 [get_ports {ad_n18}]
+set_input_delay -clock clk_3v3_n -max 52.198 [get_ports {ad_n18}]
+set_output_delay -clock clk_3v3_n -min -6.348 [get_ports {ad_n18}]
+set_output_delay -clock clk_3v3_n -max 53.370 [get_ports {ad_n18}]
+</v>
       </c>
       <c r="AG28" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K28,3)="LED",LEFT(K28,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D28,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K28),"")</f>
@@ -4761,21 +5064,21 @@
         <f aca="false">VLOOKUP(A29,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>23.54</v>
       </c>
-      <c r="N29" s="4" t="e">
+      <c r="N29" s="4" t="n">
         <f aca="false">VLOOKUP(K29,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P29" s="4" t="e">
+        <v>35.8628058199</v>
+      </c>
+      <c r="P29" s="4" t="n">
         <f aca="false">IF(AND(M29&gt;0,N29&gt;0),M29+N29, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q29" s="29" t="e">
+        <v>59.4028058199</v>
+      </c>
+      <c r="Q29" s="29" t="n">
         <f aca="false">IF(P29&gt;0,P29/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S29" s="4" t="e">
+        <v>2.33869314251575</v>
+      </c>
+      <c r="S29" s="4" t="n">
         <f aca="false">IF(P29&gt;0,P$135-P29,"")</f>
-        <v>#N/A</v>
+        <v>9.6951703372</v>
       </c>
       <c r="T29" s="0" t="s">
         <v>36</v>
@@ -4786,16 +5089,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n20 }]</v>
       </c>
       <c r="V29" s="31" t="str">
-        <f aca="false">IF(AND(K29&lt;&gt;"",K29&lt;&gt;"+3v3",K29&lt;&gt;"GND",NOT(ISNA(P29)),NOT(ISNA(N29))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S29/$V$7,"0.000")," [get_ports {",K29,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S29/$W$7,"0.000")," [get_ports {",K29,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K29&lt;&gt;"",K29&lt;&gt;"+3v3",K29&lt;&gt;"GND",NOT(ISNA(P29)),NOT(ISNA(N29))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S29/$V$7,"0.000")," [get_ports {",K29,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S29/$W$7,"0.000")," [get_ports {",K29,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.202 [get_ports {ad_n20}]
+set_input_delay -clock clk_3v3_n -max 52.185 [get_ports {ad_n20}]
+</v>
       </c>
       <c r="W29" s="31" t="str">
-        <f aca="false">IF(AND(K29&lt;&gt;"",K29&lt;&gt;"+3v3",K29&lt;&gt;"GND",NOT(ISNA(P29)),NOT(ISNA(N29))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P29/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K29,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P29/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K29,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K29&lt;&gt;"",K29&lt;&gt;"+3v3",K29&lt;&gt;"GND",NOT(ISNA(P29)),NOT(ISNA(N29))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P29/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K29,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P29/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K29,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.357 [get_ports {ad_n20}]
+set_output_delay -clock clk_3v3_n -max 53.357 [get_ports {ad_n20}]
+</v>
       </c>
       <c r="Y29" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T29="IO",T29="I"),V29,""),IF(OR(T29="IO",T29="O"),W29,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.202 [get_ports {ad_n20}]
+set_input_delay -clock clk_3v3_n -max 52.185 [get_ports {ad_n20}]
+set_output_delay -clock clk_3v3_n -min -6.357 [get_ports {ad_n20}]
+set_output_delay -clock clk_3v3_n -max 53.357 [get_ports {ad_n20}]
+</v>
       </c>
       <c r="AG29" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K29,3)="LED",LEFT(K29,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D29,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K29),"")</f>
@@ -4835,21 +5146,21 @@
         <f aca="false">VLOOKUP(A30,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>33.51</v>
       </c>
-      <c r="N30" s="4" t="e">
+      <c r="N30" s="4" t="n">
         <f aca="false">VLOOKUP(K30,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P30" s="4" t="e">
+        <v>35.8628058199</v>
+      </c>
+      <c r="P30" s="4" t="n">
         <f aca="false">IF(AND(M30&gt;0,N30&gt;0),M30+N30, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" s="29" t="e">
+        <v>69.3728058199</v>
+      </c>
+      <c r="Q30" s="29" t="n">
         <f aca="false">IF(P30&gt;0,P30/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S30" s="4" t="e">
+        <v>2.73121282755512</v>
+      </c>
+      <c r="S30" s="4" t="n">
         <f aca="false">IF(P30&gt;0,P$135-P30,"")</f>
-        <v>#N/A</v>
+        <v>-0.274829662800016</v>
       </c>
       <c r="T30" s="0" t="s">
         <v>36</v>
@@ -4860,16 +5171,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n16 }]</v>
       </c>
       <c r="V30" s="31" t="str">
-        <f aca="false">IF(AND(K30&lt;&gt;"",K30&lt;&gt;"+3v3",K30&lt;&gt;"GND",NOT(ISNA(P30)),NOT(ISNA(N30))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S30/$V$7,"0.000")," [get_ports {",K30,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S30/$W$7,"0.000")," [get_ports {",K30,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K30&lt;&gt;"",K30&lt;&gt;"+3v3",K30&lt;&gt;"GND",NOT(ISNA(P30)),NOT(ISNA(N30))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S30/$V$7,"0.000")," [get_ports {",K30,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S30/$W$7,"0.000")," [get_ports {",K30,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.251 [get_ports {ad_n16}]
+set_input_delay -clock clk_3v3_n -max 52.252 [get_ports {ad_n16}]
+</v>
       </c>
       <c r="W30" s="31" t="str">
-        <f aca="false">IF(AND(K30&lt;&gt;"",K30&lt;&gt;"+3v3",K30&lt;&gt;"GND",NOT(ISNA(P30)),NOT(ISNA(N30))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P30/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K30,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P30/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K30,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K30&lt;&gt;"",K30&lt;&gt;"+3v3",K30&lt;&gt;"GND",NOT(ISNA(P30)),NOT(ISNA(N30))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P30/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K30,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P30/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K30,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.308 [get_ports {ad_n16}]
+set_output_delay -clock clk_3v3_n -max 53.423 [get_ports {ad_n16}]
+</v>
       </c>
       <c r="Y30" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T30="IO",T30="I"),V30,""),IF(OR(T30="IO",T30="O"),W30,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.251 [get_ports {ad_n16}]
+set_input_delay -clock clk_3v3_n -max 52.252 [get_ports {ad_n16}]
+set_output_delay -clock clk_3v3_n -min -6.308 [get_ports {ad_n16}]
+set_output_delay -clock clk_3v3_n -max 53.423 [get_ports {ad_n16}]
+</v>
       </c>
       <c r="AG30" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K30,3)="LED",LEFT(K30,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D30,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K30),"")</f>
@@ -4909,21 +5228,21 @@
         <f aca="false">VLOOKUP(A31,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>21.66</v>
       </c>
-      <c r="N31" s="4" t="e">
+      <c r="N31" s="4" t="n">
         <f aca="false">VLOOKUP(K31,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P31" s="4" t="e">
+        <v>38.4028058199</v>
+      </c>
+      <c r="P31" s="4" t="n">
         <f aca="false">IF(AND(M31&gt;0,N31&gt;0),M31+N31, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q31" s="29" t="e">
+        <v>60.0628058199</v>
+      </c>
+      <c r="Q31" s="29" t="n">
         <f aca="false">IF(P31&gt;0,P31/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S31" s="4" t="e">
+        <v>2.36467739448425</v>
+      </c>
+      <c r="S31" s="4" t="n">
         <f aca="false">IF(P31&gt;0,P$135-P31,"")</f>
-        <v>#N/A</v>
+        <v>9.03517033719999</v>
       </c>
       <c r="T31" s="0" t="s">
         <v>36</v>
@@ -4934,16 +5253,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n19}]</v>
       </c>
       <c r="V31" s="31" t="str">
-        <f aca="false">IF(AND(K31&lt;&gt;"",K31&lt;&gt;"+3v3",K31&lt;&gt;"GND",NOT(ISNA(P31)),NOT(ISNA(N31))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S31/$V$7,"0.000")," [get_ports {",K31,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S31/$W$7,"0.000")," [get_ports {",K31,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K31&lt;&gt;"",K31&lt;&gt;"+3v3",K31&lt;&gt;"GND",NOT(ISNA(P31)),NOT(ISNA(N31))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S31/$V$7,"0.000")," [get_ports {",K31,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S31/$W$7,"0.000")," [get_ports {",K31,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.205 [get_ports {ad_n19}]
+set_input_delay -clock clk_3v3_n -max 52.190 [get_ports {ad_n19}]
+</v>
       </c>
       <c r="W31" s="31" t="str">
-        <f aca="false">IF(AND(K31&lt;&gt;"",K31&lt;&gt;"+3v3",K31&lt;&gt;"GND",NOT(ISNA(P31)),NOT(ISNA(N31))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P31/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K31,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P31/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K31,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K31&lt;&gt;"",K31&lt;&gt;"+3v3",K31&lt;&gt;"GND",NOT(ISNA(P31)),NOT(ISNA(N31))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P31/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K31,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P31/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K31,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.354 [get_ports {ad_n19}]
+set_output_delay -clock clk_3v3_n -max 53.361 [get_ports {ad_n19}]
+</v>
       </c>
       <c r="Y31" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T31="IO",T31="I"),V31,""),IF(OR(T31="IO",T31="O"),W31,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.205 [get_ports {ad_n19}]
+set_input_delay -clock clk_3v3_n -max 52.190 [get_ports {ad_n19}]
+set_output_delay -clock clk_3v3_n -min -6.354 [get_ports {ad_n19}]
+set_output_delay -clock clk_3v3_n -max 53.361 [get_ports {ad_n19}]
+</v>
       </c>
       <c r="AG31" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K31,3)="LED",LEFT(K31,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D31,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K31),"")</f>
@@ -4991,11 +5318,11 @@
 set_property IOSTANDARD LVTTL [get_ports {0}]</v>
       </c>
       <c r="V32" s="31" t="str">
-        <f aca="false">IF(AND(K32&lt;&gt;"",K32&lt;&gt;"+3v3",K32&lt;&gt;"GND",NOT(ISNA(P32)),NOT(ISNA(N32))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S32/$V$7,"0.000")," [get_ports {",K32,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S32/$W$7,"0.000")," [get_ports {",K32,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K32&lt;&gt;"",K32&lt;&gt;"+3v3",K32&lt;&gt;"GND",NOT(ISNA(P32)),NOT(ISNA(N32))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S32/$V$7,"0.000")," [get_ports {",K32,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S32/$W$7,"0.000")," [get_ports {",K32,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W32" s="31" t="str">
-        <f aca="false">IF(AND(K32&lt;&gt;"",K32&lt;&gt;"+3v3",K32&lt;&gt;"GND",NOT(ISNA(P32)),NOT(ISNA(N32))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P32/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K32,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P32/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K32,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K32&lt;&gt;"",K32&lt;&gt;"+3v3",K32&lt;&gt;"GND",NOT(ISNA(P32)),NOT(ISNA(N32))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P32/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K32,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P32/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K32,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y32" s="7" t="str">
@@ -5050,11 +5377,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V33" s="31" t="e">
-        <f aca="false">IF(AND(K33&lt;&gt;"",K33&lt;&gt;"+3v3",K33&lt;&gt;"GND",NOT(ISNA(P33)),NOT(ISNA(N33))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S33/$V$7,"0.000")," [get_ports {",K33,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S33/$W$7,"0.000")," [get_ports {",K33,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K33&lt;&gt;"",K33&lt;&gt;"+3v3",K33&lt;&gt;"GND",NOT(ISNA(P33)),NOT(ISNA(N33))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S33/$V$7,"0.000")," [get_ports {",K33,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S33/$W$7,"0.000")," [get_ports {",K33,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W33" s="31" t="e">
-        <f aca="false">IF(AND(K33&lt;&gt;"",K33&lt;&gt;"+3v3",K33&lt;&gt;"GND",NOT(ISNA(P33)),NOT(ISNA(N33))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P33/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K33,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P33/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K33,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K33&lt;&gt;"",K33&lt;&gt;"+3v3",K33&lt;&gt;"GND",NOT(ISNA(P33)),NOT(ISNA(N33))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P33/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K33,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P33/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K33,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y33" s="7" t="str">
@@ -5109,11 +5436,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V34" s="31" t="e">
-        <f aca="false">IF(AND(K34&lt;&gt;"",K34&lt;&gt;"+3v3",K34&lt;&gt;"GND",NOT(ISNA(P34)),NOT(ISNA(N34))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S34/$V$7,"0.000")," [get_ports {",K34,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S34/$W$7,"0.000")," [get_ports {",K34,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K34&lt;&gt;"",K34&lt;&gt;"+3v3",K34&lt;&gt;"GND",NOT(ISNA(P34)),NOT(ISNA(N34))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S34/$V$7,"0.000")," [get_ports {",K34,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S34/$W$7,"0.000")," [get_ports {",K34,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W34" s="31" t="e">
-        <f aca="false">IF(AND(K34&lt;&gt;"",K34&lt;&gt;"+3v3",K34&lt;&gt;"GND",NOT(ISNA(P34)),NOT(ISNA(N34))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P34/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K34,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P34/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K34,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K34&lt;&gt;"",K34&lt;&gt;"+3v3",K34&lt;&gt;"GND",NOT(ISNA(P34)),NOT(ISNA(N34))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P34/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K34,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P34/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K34,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y34" s="7" t="str">
@@ -5168,11 +5495,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V35" s="31" t="e">
-        <f aca="false">IF(AND(K35&lt;&gt;"",K35&lt;&gt;"+3v3",K35&lt;&gt;"GND",NOT(ISNA(P35)),NOT(ISNA(N35))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S35/$V$7,"0.000")," [get_ports {",K35,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S35/$W$7,"0.000")," [get_ports {",K35,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K35&lt;&gt;"",K35&lt;&gt;"+3v3",K35&lt;&gt;"GND",NOT(ISNA(P35)),NOT(ISNA(N35))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S35/$V$7,"0.000")," [get_ports {",K35,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S35/$W$7,"0.000")," [get_ports {",K35,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W35" s="31" t="e">
-        <f aca="false">IF(AND(K35&lt;&gt;"",K35&lt;&gt;"+3v3",K35&lt;&gt;"GND",NOT(ISNA(P35)),NOT(ISNA(N35))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P35/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K35,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P35/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K35,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K35&lt;&gt;"",K35&lt;&gt;"+3v3",K35&lt;&gt;"GND",NOT(ISNA(P35)),NOT(ISNA(N35))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P35/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K35,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P35/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K35,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y35" s="7" t="str">
@@ -5229,11 +5556,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V36" s="31" t="e">
-        <f aca="false">IF(AND(K36&lt;&gt;"",K36&lt;&gt;"+3v3",K36&lt;&gt;"GND",NOT(ISNA(P36)),NOT(ISNA(N36))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S36/$V$7,"0.000")," [get_ports {",K36,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S36/$W$7,"0.000")," [get_ports {",K36,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K36&lt;&gt;"",K36&lt;&gt;"+3v3",K36&lt;&gt;"GND",NOT(ISNA(P36)),NOT(ISNA(N36))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S36/$V$7,"0.000")," [get_ports {",K36,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S36/$W$7,"0.000")," [get_ports {",K36,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W36" s="31" t="e">
-        <f aca="false">IF(AND(K36&lt;&gt;"",K36&lt;&gt;"+3v3",K36&lt;&gt;"GND",NOT(ISNA(P36)),NOT(ISNA(N36))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P36/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K36,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P36/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K36,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K36&lt;&gt;"",K36&lt;&gt;"+3v3",K36&lt;&gt;"GND",NOT(ISNA(P36)),NOT(ISNA(N36))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P36/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K36,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P36/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K36,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y36" s="7" t="str">
@@ -5290,11 +5617,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V37" s="31" t="e">
-        <f aca="false">IF(AND(K37&lt;&gt;"",K37&lt;&gt;"+3v3",K37&lt;&gt;"GND",NOT(ISNA(P37)),NOT(ISNA(N37))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S37/$V$7,"0.000")," [get_ports {",K37,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S37/$W$7,"0.000")," [get_ports {",K37,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K37&lt;&gt;"",K37&lt;&gt;"+3v3",K37&lt;&gt;"GND",NOT(ISNA(P37)),NOT(ISNA(N37))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S37/$V$7,"0.000")," [get_ports {",K37,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S37/$W$7,"0.000")," [get_ports {",K37,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W37" s="31" t="e">
-        <f aca="false">IF(AND(K37&lt;&gt;"",K37&lt;&gt;"+3v3",K37&lt;&gt;"GND",NOT(ISNA(P37)),NOT(ISNA(N37))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P37/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K37,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P37/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K37,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K37&lt;&gt;"",K37&lt;&gt;"+3v3",K37&lt;&gt;"GND",NOT(ISNA(P37)),NOT(ISNA(N37))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P37/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K37,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P37/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K37,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y37" s="7" t="str">
@@ -5364,11 +5691,11 @@
 set_property IOSTANDARD LVTTL [get_ports {nubus_oe }]</v>
       </c>
       <c r="V38" s="31" t="str">
-        <f aca="false">IF(AND(K38&lt;&gt;"",K38&lt;&gt;"+3v3",K38&lt;&gt;"GND",NOT(ISNA(P38)),NOT(ISNA(N38))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S38/$V$7,"0.000")," [get_ports {",K38,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S38/$W$7,"0.000")," [get_ports {",K38,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K38&lt;&gt;"",K38&lt;&gt;"+3v3",K38&lt;&gt;"GND",NOT(ISNA(P38)),NOT(ISNA(N38))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S38/$V$7,"0.000")," [get_ports {",K38,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S38/$W$7,"0.000")," [get_ports {",K38,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W38" s="31" t="str">
-        <f aca="false">IF(AND(K38&lt;&gt;"",K38&lt;&gt;"+3v3",K38&lt;&gt;"GND",NOT(ISNA(P38)),NOT(ISNA(N38))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P38/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K38,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P38/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K38,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K38&lt;&gt;"",K38&lt;&gt;"+3v3",K38&lt;&gt;"GND",NOT(ISNA(P38)),NOT(ISNA(N38))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P38/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K38,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P38/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K38,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y38" s="7" t="str">
@@ -5413,21 +5740,21 @@
         <f aca="false">VLOOKUP(A39,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>12.94</v>
       </c>
-      <c r="N39" s="4" t="e">
+      <c r="N39" s="4" t="n">
         <f aca="false">VLOOKUP(K39,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P39" s="4" t="e">
+        <v>35.5651926165</v>
+      </c>
+      <c r="P39" s="4" t="n">
         <f aca="false">IF(AND(M39&gt;0,N39&gt;0),M39+N39, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q39" s="29" t="e">
+        <v>48.5051926165</v>
+      </c>
+      <c r="Q39" s="29" t="n">
         <f aca="false">IF(P39&gt;0,P39/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S39" s="4" t="e">
+        <v>1.90965325261811</v>
+      </c>
+      <c r="S39" s="4" t="n">
         <f aca="false">IF(P39&gt;0,P$135-P39,"")</f>
-        <v>#N/A</v>
+        <v>20.5927835406</v>
       </c>
       <c r="T39" s="0" t="s">
         <v>36</v>
@@ -5438,16 +5765,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n14 }]</v>
       </c>
       <c r="V39" s="31" t="str">
-        <f aca="false">IF(AND(K39&lt;&gt;"",K39&lt;&gt;"+3v3",K39&lt;&gt;"GND",NOT(ISNA(P39)),NOT(ISNA(N39))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S39/$V$7,"0.000")," [get_ports {",K39,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S39/$W$7,"0.000")," [get_ports {",K39,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K39&lt;&gt;"",K39&lt;&gt;"+3v3",K39&lt;&gt;"GND",NOT(ISNA(P39)),NOT(ISNA(N39))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S39/$V$7,"0.000")," [get_ports {",K39,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S39/$W$7,"0.000")," [get_ports {",K39,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.147 [get_ports {ad_n14}]
+set_input_delay -clock clk_3v3_n -max 52.113 [get_ports {ad_n14}]
+</v>
       </c>
       <c r="W39" s="31" t="str">
-        <f aca="false">IF(AND(K39&lt;&gt;"",K39&lt;&gt;"+3v3",K39&lt;&gt;"GND",NOT(ISNA(P39)),NOT(ISNA(N39))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P39/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K39,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P39/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K39,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K39&lt;&gt;"",K39&lt;&gt;"+3v3",K39&lt;&gt;"GND",NOT(ISNA(P39)),NOT(ISNA(N39))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P39/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K39,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P39/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K39,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.412 [get_ports {ad_n14}]
+set_output_delay -clock clk_3v3_n -max 53.284 [get_ports {ad_n14}]
+</v>
       </c>
       <c r="Y39" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T39="IO",T39="I"),V39,""),IF(OR(T39="IO",T39="O"),W39,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.147 [get_ports {ad_n14}]
+set_input_delay -clock clk_3v3_n -max 52.113 [get_ports {ad_n14}]
+set_output_delay -clock clk_3v3_n -min -6.412 [get_ports {ad_n14}]
+set_output_delay -clock clk_3v3_n -max 53.284 [get_ports {ad_n14}]
+</v>
       </c>
       <c r="AG39" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K39,3)="LED",LEFT(K39,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D39,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K39),"")</f>
@@ -5489,21 +5824,21 @@
         <f aca="false">VLOOKUP(A40,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>16.11</v>
       </c>
-      <c r="N40" s="4" t="e">
+      <c r="N40" s="4" t="n">
         <f aca="false">VLOOKUP(K40,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P40" s="4" t="e">
+        <v>38.6191089706</v>
+      </c>
+      <c r="P40" s="4" t="n">
         <f aca="false">IF(AND(M40&gt;0,N40&gt;0),M40+N40, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q40" s="29" t="e">
+        <v>54.7291089706</v>
+      </c>
+      <c r="Q40" s="29" t="n">
         <f aca="false">IF(P40&gt;0,P40/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S40" s="4" t="e">
+        <v>2.15468932955118</v>
+      </c>
+      <c r="S40" s="4" t="n">
         <f aca="false">IF(P40&gt;0,P$135-P40,"")</f>
-        <v>#N/A</v>
+        <v>14.3688671865</v>
       </c>
       <c r="T40" s="0" t="s">
         <v>36</v>
@@ -5514,16 +5849,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n17 }]</v>
       </c>
       <c r="V40" s="31" t="str">
-        <f aca="false">IF(AND(K40&lt;&gt;"",K40&lt;&gt;"+3v3",K40&lt;&gt;"GND",NOT(ISNA(P40)),NOT(ISNA(N40))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S40/$V$7,"0.000")," [get_ports {",K40,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S40/$W$7,"0.000")," [get_ports {",K40,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K40&lt;&gt;"",K40&lt;&gt;"+3v3",K40&lt;&gt;"GND",NOT(ISNA(P40)),NOT(ISNA(N40))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S40/$V$7,"0.000")," [get_ports {",K40,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S40/$W$7,"0.000")," [get_ports {",K40,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.178 [get_ports {ad_n17}]
+set_input_delay -clock clk_3v3_n -max 52.154 [get_ports {ad_n17}]
+</v>
       </c>
       <c r="W40" s="31" t="str">
-        <f aca="false">IF(AND(K40&lt;&gt;"",K40&lt;&gt;"+3v3",K40&lt;&gt;"GND",NOT(ISNA(P40)),NOT(ISNA(N40))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P40/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K40,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P40/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K40,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K40&lt;&gt;"",K40&lt;&gt;"+3v3",K40&lt;&gt;"GND",NOT(ISNA(P40)),NOT(ISNA(N40))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P40/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K40,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P40/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K40,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.381 [get_ports {ad_n17}]
+set_output_delay -clock clk_3v3_n -max 53.326 [get_ports {ad_n17}]
+</v>
       </c>
       <c r="Y40" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T40="IO",T40="I"),V40,""),IF(OR(T40="IO",T40="O"),W40,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.178 [get_ports {ad_n17}]
+set_input_delay -clock clk_3v3_n -max 52.154 [get_ports {ad_n17}]
+set_output_delay -clock clk_3v3_n -min -6.381 [get_ports {ad_n17}]
+set_output_delay -clock clk_3v3_n -max 53.326 [get_ports {ad_n17}]
+</v>
       </c>
       <c r="AG40" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K40,3)="LED",LEFT(K40,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D40,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K40),"")</f>
@@ -5565,21 +5908,21 @@
         <f aca="false">VLOOKUP(A41,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>10.5</v>
       </c>
-      <c r="N41" s="4" t="e">
+      <c r="N41" s="4" t="n">
         <f aca="false">VLOOKUP(K41,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P41" s="4" t="e">
+        <v>38.1051926165</v>
+      </c>
+      <c r="P41" s="4" t="n">
         <f aca="false">IF(AND(M41&gt;0,N41&gt;0),M41+N41, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q41" s="29" t="e">
+        <v>48.6051926165</v>
+      </c>
+      <c r="Q41" s="29" t="n">
         <f aca="false">IF(P41&gt;0,P41/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S41" s="4" t="e">
+        <v>1.91359026049213</v>
+      </c>
+      <c r="S41" s="4" t="n">
         <f aca="false">IF(P41&gt;0,P$135-P41,"")</f>
-        <v>#N/A</v>
+        <v>20.4927835406</v>
       </c>
       <c r="T41" s="0" t="s">
         <v>36</v>
@@ -5590,16 +5933,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n15 }]</v>
       </c>
       <c r="V41" s="31" t="str">
-        <f aca="false">IF(AND(K41&lt;&gt;"",K41&lt;&gt;"+3v3",K41&lt;&gt;"GND",NOT(ISNA(P41)),NOT(ISNA(N41))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S41/$V$7,"0.000")," [get_ports {",K41,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S41/$W$7,"0.000")," [get_ports {",K41,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K41&lt;&gt;"",K41&lt;&gt;"+3v3",K41&lt;&gt;"GND",NOT(ISNA(P41)),NOT(ISNA(N41))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S41/$V$7,"0.000")," [get_ports {",K41,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S41/$W$7,"0.000")," [get_ports {",K41,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.148 [get_ports {ad_n15}]
+set_input_delay -clock clk_3v3_n -max 52.113 [get_ports {ad_n15}]
+</v>
       </c>
       <c r="W41" s="31" t="str">
-        <f aca="false">IF(AND(K41&lt;&gt;"",K41&lt;&gt;"+3v3",K41&lt;&gt;"GND",NOT(ISNA(P41)),NOT(ISNA(N41))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P41/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K41,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P41/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K41,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K41&lt;&gt;"",K41&lt;&gt;"+3v3",K41&lt;&gt;"GND",NOT(ISNA(P41)),NOT(ISNA(N41))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P41/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K41,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P41/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K41,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.411 [get_ports {ad_n15}]
+set_output_delay -clock clk_3v3_n -max 53.285 [get_ports {ad_n15}]
+</v>
       </c>
       <c r="Y41" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T41="IO",T41="I"),V41,""),IF(OR(T41="IO",T41="O"),W41,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.148 [get_ports {ad_n15}]
+set_input_delay -clock clk_3v3_n -max 52.113 [get_ports {ad_n15}]
+set_output_delay -clock clk_3v3_n -min -6.411 [get_ports {ad_n15}]
+set_output_delay -clock clk_3v3_n -max 53.285 [get_ports {ad_n15}]
+</v>
       </c>
       <c r="AG41" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K41,3)="LED",LEFT(K41,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D41,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K41),"")</f>
@@ -5639,21 +5990,21 @@
         <f aca="false">VLOOKUP(A42,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>12.52</v>
       </c>
-      <c r="N42" s="4" t="e">
+      <c r="N42" s="4" t="n">
         <f aca="false">VLOOKUP(K42,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P42" s="4" t="e">
+        <v>35.5651926164</v>
+      </c>
+      <c r="P42" s="4" t="n">
         <f aca="false">IF(AND(M42&gt;0,N42&gt;0),M42+N42, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q42" s="29" t="e">
+        <v>48.0851926164</v>
+      </c>
+      <c r="Q42" s="29" t="n">
         <f aca="false">IF(P42&gt;0,P42/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S42" s="4" t="e">
+        <v>1.89311781954331</v>
+      </c>
+      <c r="S42" s="4" t="n">
         <f aca="false">IF(P42&gt;0,P$135-P42,"")</f>
-        <v>#N/A</v>
+        <v>21.0127835407</v>
       </c>
       <c r="T42" s="0" t="s">
         <v>36</v>
@@ -5664,16 +6015,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n12 }]</v>
       </c>
       <c r="V42" s="31" t="str">
-        <f aca="false">IF(AND(K42&lt;&gt;"",K42&lt;&gt;"+3v3",K42&lt;&gt;"GND",NOT(ISNA(P42)),NOT(ISNA(N42))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S42/$V$7,"0.000")," [get_ports {",K42,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S42/$W$7,"0.000")," [get_ports {",K42,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K42&lt;&gt;"",K42&lt;&gt;"+3v3",K42&lt;&gt;"GND",NOT(ISNA(P42)),NOT(ISNA(N42))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S42/$V$7,"0.000")," [get_ports {",K42,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S42/$W$7,"0.000")," [get_ports {",K42,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.145 [get_ports {ad_n12}]
+set_input_delay -clock clk_3v3_n -max 52.110 [get_ports {ad_n12}]
+</v>
       </c>
       <c r="W42" s="31" t="str">
-        <f aca="false">IF(AND(K42&lt;&gt;"",K42&lt;&gt;"+3v3",K42&lt;&gt;"GND",NOT(ISNA(P42)),NOT(ISNA(N42))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P42/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K42,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P42/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K42,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K42&lt;&gt;"",K42&lt;&gt;"+3v3",K42&lt;&gt;"GND",NOT(ISNA(P42)),NOT(ISNA(N42))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P42/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K42,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P42/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K42,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.414 [get_ports {ad_n12}]
+set_output_delay -clock clk_3v3_n -max 53.281 [get_ports {ad_n12}]
+</v>
       </c>
       <c r="Y42" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T42="IO",T42="I"),V42,""),IF(OR(T42="IO",T42="O"),W42,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.145 [get_ports {ad_n12}]
+set_input_delay -clock clk_3v3_n -max 52.110 [get_ports {ad_n12}]
+set_output_delay -clock clk_3v3_n -min -6.414 [get_ports {ad_n12}]
+set_output_delay -clock clk_3v3_n -max 53.281 [get_ports {ad_n12}]
+</v>
       </c>
       <c r="AG42" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K42,3)="LED",LEFT(K42,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D42,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K42),"")</f>
@@ -5713,21 +6072,21 @@
         <f aca="false">VLOOKUP(A43,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>7.79</v>
       </c>
-      <c r="N43" s="4" t="e">
+      <c r="N43" s="4" t="n">
         <f aca="false">VLOOKUP(K43,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P43" s="4" t="e">
+        <v>38.1051926165</v>
+      </c>
+      <c r="P43" s="4" t="n">
         <f aca="false">IF(AND(M43&gt;0,N43&gt;0),M43+N43, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q43" s="29" t="e">
+        <v>45.8951926165</v>
+      </c>
+      <c r="Q43" s="29" t="n">
         <f aca="false">IF(P43&gt;0,P43/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S43" s="4" t="e">
+        <v>1.8068973471063</v>
+      </c>
+      <c r="S43" s="4" t="n">
         <f aca="false">IF(P43&gt;0,P$135-P43,"")</f>
-        <v>#N/A</v>
+        <v>23.2027835406</v>
       </c>
       <c r="T43" s="0" t="s">
         <v>36</v>
@@ -5738,16 +6097,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n13 }]</v>
       </c>
       <c r="V43" s="31" t="str">
-        <f aca="false">IF(AND(K43&lt;&gt;"",K43&lt;&gt;"+3v3",K43&lt;&gt;"GND",NOT(ISNA(P43)),NOT(ISNA(N43))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S43/$V$7,"0.000")," [get_ports {",K43,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S43/$W$7,"0.000")," [get_ports {",K43,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K43&lt;&gt;"",K43&lt;&gt;"+3v3",K43&lt;&gt;"GND",NOT(ISNA(P43)),NOT(ISNA(N43))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S43/$V$7,"0.000")," [get_ports {",K43,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S43/$W$7,"0.000")," [get_ports {",K43,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.134 [get_ports {ad_n13}]
+set_input_delay -clock clk_3v3_n -max 52.095 [get_ports {ad_n13}]
+</v>
       </c>
       <c r="W43" s="31" t="str">
-        <f aca="false">IF(AND(K43&lt;&gt;"",K43&lt;&gt;"+3v3",K43&lt;&gt;"GND",NOT(ISNA(P43)),NOT(ISNA(N43))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P43/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K43,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P43/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K43,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K43&lt;&gt;"",K43&lt;&gt;"+3v3",K43&lt;&gt;"GND",NOT(ISNA(P43)),NOT(ISNA(N43))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P43/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K43,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P43/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K43,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.425 [get_ports {ad_n13}]
+set_output_delay -clock clk_3v3_n -max 53.267 [get_ports {ad_n13}]
+</v>
       </c>
       <c r="Y43" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T43="IO",T43="I"),V43,""),IF(OR(T43="IO",T43="O"),W43,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.134 [get_ports {ad_n13}]
+set_input_delay -clock clk_3v3_n -max 52.095 [get_ports {ad_n13}]
+set_output_delay -clock clk_3v3_n -min -6.425 [get_ports {ad_n13}]
+set_output_delay -clock clk_3v3_n -max 53.267 [get_ports {ad_n13}]
+</v>
       </c>
       <c r="AG43" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K43,3)="LED",LEFT(K43,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D43,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K43),"")</f>
@@ -5789,21 +6156,21 @@
         <f aca="false">VLOOKUP(A44,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>11.42</v>
       </c>
-      <c r="N44" s="4" t="e">
+      <c r="N44" s="4" t="n">
         <f aca="false">VLOOKUP(K44,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P44" s="4" t="e">
+        <v>35.5651926165</v>
+      </c>
+      <c r="P44" s="4" t="n">
         <f aca="false">IF(AND(M44&gt;0,N44&gt;0),M44+N44, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q44" s="29" t="e">
+        <v>46.9851926165</v>
+      </c>
+      <c r="Q44" s="29" t="n">
         <f aca="false">IF(P44&gt;0,P44/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S44" s="4" t="e">
+        <v>1.84981073293307</v>
+      </c>
+      <c r="S44" s="4" t="n">
         <f aca="false">IF(P44&gt;0,P$135-P44,"")</f>
-        <v>#N/A</v>
+        <v>22.1127835406</v>
       </c>
       <c r="T44" s="0" t="s">
         <v>36</v>
@@ -5814,16 +6181,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n10 }]</v>
       </c>
       <c r="V44" s="31" t="str">
-        <f aca="false">IF(AND(K44&lt;&gt;"",K44&lt;&gt;"+3v3",K44&lt;&gt;"GND",NOT(ISNA(P44)),NOT(ISNA(N44))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S44/$V$7,"0.000")," [get_ports {",K44,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S44/$W$7,"0.000")," [get_ports {",K44,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K44&lt;&gt;"",K44&lt;&gt;"+3v3",K44&lt;&gt;"GND",NOT(ISNA(P44)),NOT(ISNA(N44))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S44/$V$7,"0.000")," [get_ports {",K44,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S44/$W$7,"0.000")," [get_ports {",K44,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.139 [get_ports {ad_n10}]
+set_input_delay -clock clk_3v3_n -max 52.103 [get_ports {ad_n10}]
+</v>
       </c>
       <c r="W44" s="31" t="str">
-        <f aca="false">IF(AND(K44&lt;&gt;"",K44&lt;&gt;"+3v3",K44&lt;&gt;"GND",NOT(ISNA(P44)),NOT(ISNA(N44))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P44/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K44,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P44/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K44,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K44&lt;&gt;"",K44&lt;&gt;"+3v3",K44&lt;&gt;"GND",NOT(ISNA(P44)),NOT(ISNA(N44))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P44/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K44,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P44/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K44,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.420 [get_ports {ad_n10}]
+set_output_delay -clock clk_3v3_n -max 53.274 [get_ports {ad_n10}]
+</v>
       </c>
       <c r="Y44" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T44="IO",T44="I"),V44,""),IF(OR(T44="IO",T44="O"),W44,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.139 [get_ports {ad_n10}]
+set_input_delay -clock clk_3v3_n -max 52.103 [get_ports {ad_n10}]
+set_output_delay -clock clk_3v3_n -min -6.420 [get_ports {ad_n10}]
+set_output_delay -clock clk_3v3_n -max 53.274 [get_ports {ad_n10}]
+</v>
       </c>
       <c r="AG44" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K44,3)="LED",LEFT(K44,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D44,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K44),"")</f>
@@ -5863,21 +6238,21 @@
         <f aca="false">VLOOKUP(A45,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>4.99</v>
       </c>
-      <c r="N45" s="4" t="e">
+      <c r="N45" s="4" t="n">
         <f aca="false">VLOOKUP(K45,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P45" s="4" t="e">
+        <v>38.1051926164</v>
+      </c>
+      <c r="P45" s="4" t="n">
         <f aca="false">IF(AND(M45&gt;0,N45&gt;0),M45+N45, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q45" s="29" t="e">
+        <v>43.0951926164</v>
+      </c>
+      <c r="Q45" s="29" t="n">
         <f aca="false">IF(P45&gt;0,P45/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S45" s="4" t="e">
+        <v>1.69666112662992</v>
+      </c>
+      <c r="S45" s="4" t="n">
         <f aca="false">IF(P45&gt;0,P$135-P45,"")</f>
-        <v>#N/A</v>
+        <v>26.0027835407</v>
       </c>
       <c r="T45" s="0" t="s">
         <v>36</v>
@@ -5888,16 +6263,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n11 }]</v>
       </c>
       <c r="V45" s="31" t="str">
-        <f aca="false">IF(AND(K45&lt;&gt;"",K45&lt;&gt;"+3v3",K45&lt;&gt;"GND",NOT(ISNA(P45)),NOT(ISNA(N45))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S45/$V$7,"0.000")," [get_ports {",K45,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S45/$W$7,"0.000")," [get_ports {",K45,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K45&lt;&gt;"",K45&lt;&gt;"+3v3",K45&lt;&gt;"GND",NOT(ISNA(P45)),NOT(ISNA(N45))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S45/$V$7,"0.000")," [get_ports {",K45,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S45/$W$7,"0.000")," [get_ports {",K45,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.120 [get_ports {ad_n11}]
+set_input_delay -clock clk_3v3_n -max 52.077 [get_ports {ad_n11}]
+</v>
       </c>
       <c r="W45" s="31" t="str">
-        <f aca="false">IF(AND(K45&lt;&gt;"",K45&lt;&gt;"+3v3",K45&lt;&gt;"GND",NOT(ISNA(P45)),NOT(ISNA(N45))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P45/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K45,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P45/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K45,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K45&lt;&gt;"",K45&lt;&gt;"+3v3",K45&lt;&gt;"GND",NOT(ISNA(P45)),NOT(ISNA(N45))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P45/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K45,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P45/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K45,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.439 [get_ports {ad_n11}]
+set_output_delay -clock clk_3v3_n -max 53.248 [get_ports {ad_n11}]
+</v>
       </c>
       <c r="Y45" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T45="IO",T45="I"),V45,""),IF(OR(T45="IO",T45="O"),W45,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.120 [get_ports {ad_n11}]
+set_input_delay -clock clk_3v3_n -max 52.077 [get_ports {ad_n11}]
+set_output_delay -clock clk_3v3_n -min -6.439 [get_ports {ad_n11}]
+set_output_delay -clock clk_3v3_n -max 53.248 [get_ports {ad_n11}]
+</v>
       </c>
       <c r="AG45" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K45,3)="LED",LEFT(K45,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D45,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K45),"")</f>
@@ -5939,21 +6322,21 @@
         <f aca="false">VLOOKUP(A46,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>16.17</v>
       </c>
-      <c r="N46" s="4" t="e">
+      <c r="N46" s="4" t="n">
         <f aca="false">VLOOKUP(K46,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P46" s="4" t="e">
+        <v>35.5651926164</v>
+      </c>
+      <c r="P46" s="4" t="n">
         <f aca="false">IF(AND(M46&gt;0,N46&gt;0),M46+N46, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q46" s="29" t="e">
+        <v>51.7351926164</v>
+      </c>
+      <c r="Q46" s="29" t="n">
         <f aca="false">IF(P46&gt;0,P46/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S46" s="4" t="e">
+        <v>2.03681860694488</v>
+      </c>
+      <c r="S46" s="4" t="n">
         <f aca="false">IF(P46&gt;0,P$135-P46,"")</f>
-        <v>#N/A</v>
+        <v>17.3627835407</v>
       </c>
       <c r="T46" s="0" t="s">
         <v>36</v>
@@ -5964,16 +6347,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n8 }]</v>
       </c>
       <c r="V46" s="31" t="str">
-        <f aca="false">IF(AND(K46&lt;&gt;"",K46&lt;&gt;"+3v3",K46&lt;&gt;"GND",NOT(ISNA(P46)),NOT(ISNA(N46))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S46/$V$7,"0.000")," [get_ports {",K46,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S46/$W$7,"0.000")," [get_ports {",K46,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K46&lt;&gt;"",K46&lt;&gt;"+3v3",K46&lt;&gt;"GND",NOT(ISNA(P46)),NOT(ISNA(N46))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S46/$V$7,"0.000")," [get_ports {",K46,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S46/$W$7,"0.000")," [get_ports {",K46,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.163 [get_ports {ad_n8}]
+set_input_delay -clock clk_3v3_n -max 52.134 [get_ports {ad_n8}]
+</v>
       </c>
       <c r="W46" s="31" t="str">
-        <f aca="false">IF(AND(K46&lt;&gt;"",K46&lt;&gt;"+3v3",K46&lt;&gt;"GND",NOT(ISNA(P46)),NOT(ISNA(N46))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P46/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K46,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P46/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K46,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K46&lt;&gt;"",K46&lt;&gt;"+3v3",K46&lt;&gt;"GND",NOT(ISNA(P46)),NOT(ISNA(N46))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P46/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K46,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P46/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K46,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.396 [get_ports {ad_n8}]
+set_output_delay -clock clk_3v3_n -max 53.306 [get_ports {ad_n8}]
+</v>
       </c>
       <c r="Y46" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T46="IO",T46="I"),V46,""),IF(OR(T46="IO",T46="O"),W46,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.163 [get_ports {ad_n8}]
+set_input_delay -clock clk_3v3_n -max 52.134 [get_ports {ad_n8}]
+set_output_delay -clock clk_3v3_n -min -6.396 [get_ports {ad_n8}]
+set_output_delay -clock clk_3v3_n -max 53.306 [get_ports {ad_n8}]
+</v>
       </c>
       <c r="AG46" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K46,3)="LED",LEFT(K46,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D46,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K46),"")</f>
@@ -6015,21 +6406,21 @@
         <f aca="false">VLOOKUP(A47,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>7.67</v>
       </c>
-      <c r="N47" s="4" t="e">
+      <c r="N47" s="4" t="n">
         <f aca="false">VLOOKUP(K47,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P47" s="33" t="e">
+        <v>74.7712120546</v>
+      </c>
+      <c r="P47" s="33" t="n">
         <f aca="false">IF(AND(M47&gt;0,N47&gt;0),M47+N47, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q47" s="29" t="e">
+        <v>82.4412120546</v>
+      </c>
+      <c r="Q47" s="29" t="n">
         <f aca="false">IF(P47&gt;0,P47/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S47" s="4" t="e">
+        <v>3.24571701002362</v>
+      </c>
+      <c r="S47" s="4" t="n">
         <f aca="false">IF(P47&gt;0,P$135-P47,"")</f>
-        <v>#N/A</v>
+        <v>-13.3432358975</v>
       </c>
       <c r="U47" s="30" t="str">
         <f aca="false">IF(AND(K47&lt;&gt;"",K47&lt;&gt;"+3v3",K47&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D47," [get_ports {",K47,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K47,"}]",CHAR(10)),"")</f>
@@ -6037,12 +6428,16 @@
 set_property IOSTANDARD LVTTL [get_ports {clk2x_n }]</v>
       </c>
       <c r="V47" s="31" t="str">
-        <f aca="false">IF(AND(K47&lt;&gt;"",K47&lt;&gt;"+3v3",K47&lt;&gt;"GND",NOT(ISNA(P47)),NOT(ISNA(N47))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S47/$V$7,"0.000")," [get_ports {",K47,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S47/$W$7,"0.000")," [get_ports {",K47,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K47&lt;&gt;"",K47&lt;&gt;"+3v3",K47&lt;&gt;"GND",NOT(ISNA(P47)),NOT(ISNA(N47))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S47/$V$7,"0.000")," [get_ports {",K47,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S47/$W$7,"0.000")," [get_ports {",K47,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.317 [get_ports {clk2x_n}]
+set_input_delay -clock clk_3v3_n -max 52.339 [get_ports {clk2x_n}]
+</v>
       </c>
       <c r="W47" s="31" t="str">
-        <f aca="false">IF(AND(K47&lt;&gt;"",K47&lt;&gt;"+3v3",K47&lt;&gt;"GND",NOT(ISNA(P47)),NOT(ISNA(N47))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P47/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K47,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P47/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K47,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K47&lt;&gt;"",K47&lt;&gt;"+3v3",K47&lt;&gt;"GND",NOT(ISNA(P47)),NOT(ISNA(N47))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P47/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K47,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P47/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K47,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.242 [get_ports {clk2x_n}]
+set_output_delay -clock clk_3v3_n -max 53.510 [get_ports {clk2x_n}]
+</v>
       </c>
       <c r="Y47" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T47="IO",T47="I"),V47,""),IF(OR(T47="IO",T47="O"),W47,""))</f>
@@ -6086,21 +6481,21 @@
         <f aca="false">VLOOKUP(A48,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>12.65</v>
       </c>
-      <c r="N48" s="4" t="e">
+      <c r="N48" s="4" t="n">
         <f aca="false">VLOOKUP(K48,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P48" s="4" t="e">
+        <v>35.5651926164</v>
+      </c>
+      <c r="P48" s="4" t="n">
         <f aca="false">IF(AND(M48&gt;0,N48&gt;0),M48+N48, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q48" s="29" t="e">
+        <v>48.2151926164</v>
+      </c>
+      <c r="Q48" s="29" t="n">
         <f aca="false">IF(P48&gt;0,P48/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S48" s="4" t="e">
+        <v>1.89823592977953</v>
+      </c>
+      <c r="S48" s="4" t="n">
         <f aca="false">IF(P48&gt;0,P$135-P48,"")</f>
-        <v>#N/A</v>
+        <v>20.8827835407</v>
       </c>
       <c r="T48" s="0" t="s">
         <v>183</v>
@@ -6111,16 +6506,22 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n6 }]</v>
       </c>
       <c r="V48" s="31" t="str">
-        <f aca="false">IF(AND(K48&lt;&gt;"",K48&lt;&gt;"+3v3",K48&lt;&gt;"GND",NOT(ISNA(P48)),NOT(ISNA(N48))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S48/$V$7,"0.000")," [get_ports {",K48,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S48/$W$7,"0.000")," [get_ports {",K48,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K48&lt;&gt;"",K48&lt;&gt;"+3v3",K48&lt;&gt;"GND",NOT(ISNA(P48)),NOT(ISNA(N48))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S48/$V$7,"0.000")," [get_ports {",K48,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S48/$W$7,"0.000")," [get_ports {",K48,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.146 [get_ports {ad_n6}]
+set_input_delay -clock clk_3v3_n -max 52.111 [get_ports {ad_n6}]
+</v>
       </c>
       <c r="W48" s="31" t="str">
-        <f aca="false">IF(AND(K48&lt;&gt;"",K48&lt;&gt;"+3v3",K48&lt;&gt;"GND",NOT(ISNA(P48)),NOT(ISNA(N48))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P48/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K48,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P48/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K48,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K48&lt;&gt;"",K48&lt;&gt;"+3v3",K48&lt;&gt;"GND",NOT(ISNA(P48)),NOT(ISNA(N48))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P48/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K48,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P48/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K48,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.413 [get_ports {ad_n6}]
+set_output_delay -clock clk_3v3_n -max 53.282 [get_ports {ad_n6}]
+</v>
       </c>
       <c r="Y48" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T48="IO",T48="I"),V48,""),IF(OR(T48="IO",T48="O"),W48,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.146 [get_ports {ad_n6}]
+set_input_delay -clock clk_3v3_n -max 52.111 [get_ports {ad_n6}]
+</v>
       </c>
       <c r="AG48" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K48,3)="LED",LEFT(K48,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D48,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K48),"")</f>
@@ -6160,21 +6561,21 @@
         <f aca="false">VLOOKUP(A49,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>6.56</v>
       </c>
-      <c r="N49" s="4" t="e">
+      <c r="N49" s="4" t="n">
         <f aca="false">VLOOKUP(K49,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P49" s="4" t="e">
+        <v>38.1051926165</v>
+      </c>
+      <c r="P49" s="4" t="n">
         <f aca="false">IF(AND(M49&gt;0,N49&gt;0),M49+N49, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q49" s="29" t="e">
+        <v>44.6651926165</v>
+      </c>
+      <c r="Q49" s="29" t="n">
         <f aca="false">IF(P49&gt;0,P49/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S49" s="4" t="e">
+        <v>1.75847215025591</v>
+      </c>
+      <c r="S49" s="4" t="n">
         <f aca="false">IF(P49&gt;0,P$135-P49,"")</f>
-        <v>#N/A</v>
+        <v>24.4327835406</v>
       </c>
       <c r="T49" s="0" t="s">
         <v>183</v>
@@ -6185,16 +6586,22 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n9 }]</v>
       </c>
       <c r="V49" s="31" t="str">
-        <f aca="false">IF(AND(K49&lt;&gt;"",K49&lt;&gt;"+3v3",K49&lt;&gt;"GND",NOT(ISNA(P49)),NOT(ISNA(N49))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S49/$V$7,"0.000")," [get_ports {",K49,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S49/$W$7,"0.000")," [get_ports {",K49,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K49&lt;&gt;"",K49&lt;&gt;"+3v3",K49&lt;&gt;"GND",NOT(ISNA(P49)),NOT(ISNA(N49))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S49/$V$7,"0.000")," [get_ports {",K49,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S49/$W$7,"0.000")," [get_ports {",K49,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.128 [get_ports {ad_n9}]
+set_input_delay -clock clk_3v3_n -max 52.087 [get_ports {ad_n9}]
+</v>
       </c>
       <c r="W49" s="31" t="str">
-        <f aca="false">IF(AND(K49&lt;&gt;"",K49&lt;&gt;"+3v3",K49&lt;&gt;"GND",NOT(ISNA(P49)),NOT(ISNA(N49))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P49/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K49,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P49/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K49,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K49&lt;&gt;"",K49&lt;&gt;"+3v3",K49&lt;&gt;"GND",NOT(ISNA(P49)),NOT(ISNA(N49))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P49/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K49,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P49/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K49,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.431 [get_ports {ad_n9}]
+set_output_delay -clock clk_3v3_n -max 53.258 [get_ports {ad_n9}]
+</v>
       </c>
       <c r="Y49" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T49="IO",T49="I"),V49,""),IF(OR(T49="IO",T49="O"),W49,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.128 [get_ports {ad_n9}]
+set_input_delay -clock clk_3v3_n -max 52.087 [get_ports {ad_n9}]
+</v>
       </c>
       <c r="AG49" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K49,3)="LED",LEFT(K49,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D49,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K49),"")</f>
@@ -6234,21 +6641,21 @@
         <f aca="false">VLOOKUP(A50,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>16.68</v>
       </c>
-      <c r="N50" s="4" t="e">
+      <c r="N50" s="4" t="n">
         <f aca="false">VLOOKUP(K50,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P50" s="4" t="e">
+        <v>35.5651926165</v>
+      </c>
+      <c r="P50" s="4" t="n">
         <f aca="false">IF(AND(M50&gt;0,N50&gt;0),M50+N50, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q50" s="29" t="e">
+        <v>52.2451926165</v>
+      </c>
+      <c r="Q50" s="29" t="n">
         <f aca="false">IF(P50&gt;0,P50/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S50" s="4" t="e">
+        <v>2.0568973471063</v>
+      </c>
+      <c r="S50" s="4" t="n">
         <f aca="false">IF(P50&gt;0,P$135-P50,"")</f>
-        <v>#N/A</v>
+        <v>16.8527835406</v>
       </c>
       <c r="T50" s="0" t="s">
         <v>183</v>
@@ -6259,16 +6666,22 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n4 }]</v>
       </c>
       <c r="V50" s="31" t="str">
-        <f aca="false">IF(AND(K50&lt;&gt;"",K50&lt;&gt;"+3v3",K50&lt;&gt;"GND",NOT(ISNA(P50)),NOT(ISNA(N50))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S50/$V$7,"0.000")," [get_ports {",K50,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S50/$W$7,"0.000")," [get_ports {",K50,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K50&lt;&gt;"",K50&lt;&gt;"+3v3",K50&lt;&gt;"GND",NOT(ISNA(P50)),NOT(ISNA(N50))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S50/$V$7,"0.000")," [get_ports {",K50,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S50/$W$7,"0.000")," [get_ports {",K50,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.166 [get_ports {ad_n4}]
+set_input_delay -clock clk_3v3_n -max 52.138 [get_ports {ad_n4}]
+</v>
       </c>
       <c r="W50" s="31" t="str">
-        <f aca="false">IF(AND(K50&lt;&gt;"",K50&lt;&gt;"+3v3",K50&lt;&gt;"GND",NOT(ISNA(P50)),NOT(ISNA(N50))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P50/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K50,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P50/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K50,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K50&lt;&gt;"",K50&lt;&gt;"+3v3",K50&lt;&gt;"GND",NOT(ISNA(P50)),NOT(ISNA(N50))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P50/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K50,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P50/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K50,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.393 [get_ports {ad_n4}]
+set_output_delay -clock clk_3v3_n -max 53.309 [get_ports {ad_n4}]
+</v>
       </c>
       <c r="Y50" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T50="IO",T50="I"),V50,""),IF(OR(T50="IO",T50="O"),W50,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.166 [get_ports {ad_n4}]
+set_input_delay -clock clk_3v3_n -max 52.138 [get_ports {ad_n4}]
+</v>
       </c>
       <c r="AG50" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K50,3)="LED",LEFT(K50,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D50,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K50),"")</f>
@@ -6308,21 +6721,21 @@
         <f aca="false">VLOOKUP(A51,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>9.37</v>
       </c>
-      <c r="N51" s="4" t="e">
+      <c r="N51" s="4" t="n">
         <f aca="false">VLOOKUP(K51,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P51" s="4" t="e">
+        <v>38.1051926165</v>
+      </c>
+      <c r="P51" s="4" t="n">
         <f aca="false">IF(AND(M51&gt;0,N51&gt;0),M51+N51, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q51" s="29" t="e">
+        <v>47.4751926165</v>
+      </c>
+      <c r="Q51" s="29" t="n">
         <f aca="false">IF(P51&gt;0,P51/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S51" s="4" t="e">
+        <v>1.86910207151575</v>
+      </c>
+      <c r="S51" s="4" t="n">
         <f aca="false">IF(P51&gt;0,P$135-P51,"")</f>
-        <v>#N/A</v>
+        <v>21.6227835406</v>
       </c>
       <c r="T51" s="0" t="s">
         <v>183</v>
@@ -6333,16 +6746,22 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n7 }]</v>
       </c>
       <c r="V51" s="31" t="str">
-        <f aca="false">IF(AND(K51&lt;&gt;"",K51&lt;&gt;"+3v3",K51&lt;&gt;"GND",NOT(ISNA(P51)),NOT(ISNA(N51))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S51/$V$7,"0.000")," [get_ports {",K51,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S51/$W$7,"0.000")," [get_ports {",K51,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K51&lt;&gt;"",K51&lt;&gt;"+3v3",K51&lt;&gt;"GND",NOT(ISNA(P51)),NOT(ISNA(N51))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S51/$V$7,"0.000")," [get_ports {",K51,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S51/$W$7,"0.000")," [get_ports {",K51,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.142 [get_ports {ad_n7}]
+set_input_delay -clock clk_3v3_n -max 52.106 [get_ports {ad_n7}]
+</v>
       </c>
       <c r="W51" s="31" t="str">
-        <f aca="false">IF(AND(K51&lt;&gt;"",K51&lt;&gt;"+3v3",K51&lt;&gt;"GND",NOT(ISNA(P51)),NOT(ISNA(N51))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P51/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K51,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P51/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K51,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K51&lt;&gt;"",K51&lt;&gt;"+3v3",K51&lt;&gt;"GND",NOT(ISNA(P51)),NOT(ISNA(N51))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P51/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K51,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P51/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K51,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.417 [get_ports {ad_n7}]
+set_output_delay -clock clk_3v3_n -max 53.277 [get_ports {ad_n7}]
+</v>
       </c>
       <c r="Y51" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T51="IO",T51="I"),V51,""),IF(OR(T51="IO",T51="O"),W51,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.142 [get_ports {ad_n7}]
+set_input_delay -clock clk_3v3_n -max 52.106 [get_ports {ad_n7}]
+</v>
       </c>
       <c r="AG51" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K51,3)="LED",LEFT(K51,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D51,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K51),"")</f>
@@ -6384,21 +6803,21 @@
         <f aca="false">VLOOKUP(A52,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>18.84</v>
       </c>
-      <c r="N52" s="4" t="e">
+      <c r="N52" s="4" t="n">
         <f aca="false">VLOOKUP(K52,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P52" s="4" t="e">
+        <v>38.1051926164</v>
+      </c>
+      <c r="P52" s="4" t="n">
         <f aca="false">IF(AND(M52&gt;0,N52&gt;0),M52+N52, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q52" s="29" t="e">
+        <v>56.9451926164</v>
+      </c>
+      <c r="Q52" s="29" t="n">
         <f aca="false">IF(P52&gt;0,P52/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S52" s="4" t="e">
+        <v>2.2419367171811</v>
+      </c>
+      <c r="S52" s="4" t="n">
         <f aca="false">IF(P52&gt;0,P$135-P52,"")</f>
-        <v>#N/A</v>
+        <v>12.1527835407</v>
       </c>
       <c r="T52" s="0" t="s">
         <v>36</v>
@@ -6409,16 +6828,24 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n5 }]</v>
       </c>
       <c r="V52" s="31" t="str">
-        <f aca="false">IF(AND(K52&lt;&gt;"",K52&lt;&gt;"+3v3",K52&lt;&gt;"GND",NOT(ISNA(P52)),NOT(ISNA(N52))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S52/$V$7,"0.000")," [get_ports {",K52,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S52/$W$7,"0.000")," [get_ports {",K52,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K52&lt;&gt;"",K52&lt;&gt;"+3v3",K52&lt;&gt;"GND",NOT(ISNA(P52)),NOT(ISNA(N52))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S52/$V$7,"0.000")," [get_ports {",K52,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S52/$W$7,"0.000")," [get_ports {",K52,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.189 [get_ports {ad_n5}]
+set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n5}]
+</v>
       </c>
       <c r="W52" s="31" t="str">
-        <f aca="false">IF(AND(K52&lt;&gt;"",K52&lt;&gt;"+3v3",K52&lt;&gt;"GND",NOT(ISNA(P52)),NOT(ISNA(N52))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P52/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K52,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P52/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K52,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K52&lt;&gt;"",K52&lt;&gt;"+3v3",K52&lt;&gt;"GND",NOT(ISNA(P52)),NOT(ISNA(N52))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P52/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K52,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P52/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K52,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.370 [get_ports {ad_n5}]
+set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n5}]
+</v>
       </c>
       <c r="Y52" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T52="IO",T52="I"),V52,""),IF(OR(T52="IO",T52="O"),W52,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.189 [get_ports {ad_n5}]
+set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n5}]
+set_output_delay -clock clk_3v3_n -min -6.370 [get_ports {ad_n5}]
+set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n5}]
+</v>
       </c>
       <c r="AG52" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K52,3)="LED",LEFT(K52,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D52,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K52),"")</f>
@@ -6458,21 +6885,21 @@
         <f aca="false">VLOOKUP(A53,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>11.32</v>
       </c>
-      <c r="N53" s="4" t="e">
+      <c r="N53" s="4" t="n">
         <f aca="false">VLOOKUP(K53,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P53" s="4" t="e">
+        <v>130.6609112167</v>
+      </c>
+      <c r="P53" s="4" t="n">
         <f aca="false">IF(AND(M53&gt;0,N53&gt;0),M53+N53, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q53" s="29" t="e">
+        <v>141.9809112167</v>
+      </c>
+      <c r="Q53" s="29" t="n">
         <f aca="false">IF(P53&gt;0,P53/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S53" s="4" t="e">
+        <v>5.58979965420079</v>
+      </c>
+      <c r="S53" s="4" t="n">
         <f aca="false">IF(P53&gt;0,P$135-P53,"")</f>
-        <v>#N/A</v>
+        <v>-72.8829350596</v>
       </c>
       <c r="T53" s="0" t="s">
         <v>183</v>
@@ -6483,16 +6910,22 @@
 set_property IOSTANDARD LVTTL [get_ports {tm_n2 }]</v>
       </c>
       <c r="V53" s="31" t="str">
-        <f aca="false">IF(AND(K53&lt;&gt;"",K53&lt;&gt;"+3v3",K53&lt;&gt;"GND",NOT(ISNA(P53)),NOT(ISNA(N53))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S53/$V$7,"0.000")," [get_ports {",K53,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S53/$W$7,"0.000")," [get_ports {",K53,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K53&lt;&gt;"",K53&lt;&gt;"+3v3",K53&lt;&gt;"GND",NOT(ISNA(P53)),NOT(ISNA(N53))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S53/$V$7,"0.000")," [get_ports {",K53,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S53/$W$7,"0.000")," [get_ports {",K53,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.614 [get_ports {tm_n2}]
+set_input_delay -clock clk_3v3_n -max 52.736 [get_ports {tm_n2}]
+</v>
       </c>
       <c r="W53" s="31" t="str">
-        <f aca="false">IF(AND(K53&lt;&gt;"",K53&lt;&gt;"+3v3",K53&lt;&gt;"GND",NOT(ISNA(P53)),NOT(ISNA(N53))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P53/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K53,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P53/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K53,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K53&lt;&gt;"",K53&lt;&gt;"+3v3",K53&lt;&gt;"GND",NOT(ISNA(P53)),NOT(ISNA(N53))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P53/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K53,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P53/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K53,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -5.945 [get_ports {tm_n2}]
+set_output_delay -clock clk_3v3_n -max 53.907 [get_ports {tm_n2}]
+</v>
       </c>
       <c r="Y53" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T53="IO",T53="I"),V53,""),IF(OR(T53="IO",T53="O"),W53,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.614 [get_ports {tm_n2}]
+set_input_delay -clock clk_3v3_n -max 52.736 [get_ports {tm_n2}]
+</v>
       </c>
       <c r="AG53" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K53,3)="LED",LEFT(K53,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D53,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K53),"")</f>
@@ -6532,21 +6965,21 @@
         <f aca="false">VLOOKUP(A54,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>14.67</v>
       </c>
-      <c r="N54" s="4" t="e">
+      <c r="N54" s="4" t="n">
         <f aca="false">VLOOKUP(K54,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P54" s="4" t="e">
+        <v>38.1051926165</v>
+      </c>
+      <c r="P54" s="4" t="n">
         <f aca="false">IF(AND(M54&gt;0,N54&gt;0),M54+N54, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q54" s="29" t="e">
+        <v>52.7751926165</v>
+      </c>
+      <c r="Q54" s="29" t="n">
         <f aca="false">IF(P54&gt;0,P54/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S54" s="4" t="e">
+        <v>2.07776348883858</v>
+      </c>
+      <c r="S54" s="4" t="n">
         <f aca="false">IF(P54&gt;0,P$135-P54,"")</f>
-        <v>#N/A</v>
+        <v>16.3227835406</v>
       </c>
       <c r="T54" s="0" t="s">
         <v>183</v>
@@ -6557,16 +6990,22 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n3 }]</v>
       </c>
       <c r="V54" s="31" t="str">
-        <f aca="false">IF(AND(K54&lt;&gt;"",K54&lt;&gt;"+3v3",K54&lt;&gt;"GND",NOT(ISNA(P54)),NOT(ISNA(N54))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S54/$V$7,"0.000")," [get_ports {",K54,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S54/$W$7,"0.000")," [get_ports {",K54,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K54&lt;&gt;"",K54&lt;&gt;"+3v3",K54&lt;&gt;"GND",NOT(ISNA(P54)),NOT(ISNA(N54))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S54/$V$7,"0.000")," [get_ports {",K54,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S54/$W$7,"0.000")," [get_ports {",K54,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.168 [get_ports {ad_n3}]
+set_input_delay -clock clk_3v3_n -max 52.141 [get_ports {ad_n3}]
+</v>
       </c>
       <c r="W54" s="31" t="str">
-        <f aca="false">IF(AND(K54&lt;&gt;"",K54&lt;&gt;"+3v3",K54&lt;&gt;"GND",NOT(ISNA(P54)),NOT(ISNA(N54))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P54/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K54,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P54/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K54,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K54&lt;&gt;"",K54&lt;&gt;"+3v3",K54&lt;&gt;"GND",NOT(ISNA(P54)),NOT(ISNA(N54))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P54/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K54,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P54/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K54,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.391 [get_ports {ad_n3}]
+set_output_delay -clock clk_3v3_n -max 53.312 [get_ports {ad_n3}]
+</v>
       </c>
       <c r="Y54" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T54="IO",T54="I"),V54,""),IF(OR(T54="IO",T54="O"),W54,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.168 [get_ports {ad_n3}]
+set_input_delay -clock clk_3v3_n -max 52.141 [get_ports {ad_n3}]
+</v>
       </c>
       <c r="AG54" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K54,3)="LED",LEFT(K54,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D54,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K54),"")</f>
@@ -6606,21 +7045,21 @@
         <f aca="false">VLOOKUP(A55,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>10.64</v>
       </c>
-      <c r="N55" s="4" t="e">
+      <c r="N55" s="4" t="n">
         <f aca="false">VLOOKUP(K55,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P55" s="4" t="e">
+        <v>35.5651926165</v>
+      </c>
+      <c r="P55" s="4" t="n">
         <f aca="false">IF(AND(M55&gt;0,N55&gt;0),M55+N55, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q55" s="29" t="e">
+        <v>46.2051926165</v>
+      </c>
+      <c r="Q55" s="29" t="n">
         <f aca="false">IF(P55&gt;0,P55/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S55" s="4" t="e">
+        <v>1.81910207151575</v>
+      </c>
+      <c r="S55" s="4" t="n">
         <f aca="false">IF(P55&gt;0,P$135-P55,"")</f>
-        <v>#N/A</v>
+        <v>22.8927835406</v>
       </c>
       <c r="T55" s="0" t="s">
         <v>183</v>
@@ -6631,16 +7070,22 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n2 }]</v>
       </c>
       <c r="V55" s="31" t="str">
-        <f aca="false">IF(AND(K55&lt;&gt;"",K55&lt;&gt;"+3v3",K55&lt;&gt;"GND",NOT(ISNA(P55)),NOT(ISNA(N55))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S55/$V$7,"0.000")," [get_ports {",K55,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S55/$W$7,"0.000")," [get_ports {",K55,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K55&lt;&gt;"",K55&lt;&gt;"+3v3",K55&lt;&gt;"GND",NOT(ISNA(P55)),NOT(ISNA(N55))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S55/$V$7,"0.000")," [get_ports {",K55,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S55/$W$7,"0.000")," [get_ports {",K55,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.136 [get_ports {ad_n2}]
+set_input_delay -clock clk_3v3_n -max 52.097 [get_ports {ad_n2}]
+</v>
       </c>
       <c r="W55" s="31" t="str">
-        <f aca="false">IF(AND(K55&lt;&gt;"",K55&lt;&gt;"+3v3",K55&lt;&gt;"GND",NOT(ISNA(P55)),NOT(ISNA(N55))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P55/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K55,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P55/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K55,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K55&lt;&gt;"",K55&lt;&gt;"+3v3",K55&lt;&gt;"GND",NOT(ISNA(P55)),NOT(ISNA(N55))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P55/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K55,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P55/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K55,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.423 [get_ports {ad_n2}]
+set_output_delay -clock clk_3v3_n -max 53.269 [get_ports {ad_n2}]
+</v>
       </c>
       <c r="Y55" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T55="IO",T55="I"),V55,""),IF(OR(T55="IO",T55="O"),W55,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.136 [get_ports {ad_n2}]
+set_input_delay -clock clk_3v3_n -max 52.097 [get_ports {ad_n2}]
+</v>
       </c>
       <c r="AG55" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K55,3)="LED",LEFT(K55,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D55,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K55),"")</f>
@@ -6680,21 +7125,21 @@
         <f aca="false">VLOOKUP(A56,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>17.14</v>
       </c>
-      <c r="N56" s="4" t="e">
+      <c r="N56" s="4" t="n">
         <f aca="false">VLOOKUP(K56,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P56" s="4" t="e">
+        <v>51.9659978081</v>
+      </c>
+      <c r="P56" s="4" t="n">
         <f aca="false">IF(AND(M56&gt;0,N56&gt;0),M56+N56, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q56" s="29" t="e">
+        <v>69.1059978081</v>
+      </c>
+      <c r="Q56" s="29" t="n">
         <f aca="false">IF(P56&gt;0,P56/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S56" s="4" t="e">
+        <v>2.72070857512205</v>
+      </c>
+      <c r="S56" s="4" t="n">
         <f aca="false">IF(P56&gt;0,P$135-P56,"")</f>
-        <v>#N/A</v>
+        <v>-0.00802165100000707</v>
       </c>
       <c r="T56" s="0" t="s">
         <v>183</v>
@@ -6705,16 +7150,22 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n0 }]</v>
       </c>
       <c r="V56" s="31" t="str">
-        <f aca="false">IF(AND(K56&lt;&gt;"",K56&lt;&gt;"+3v3",K56&lt;&gt;"GND",NOT(ISNA(P56)),NOT(ISNA(N56))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S56/$V$7,"0.000")," [get_ports {",K56,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S56/$W$7,"0.000")," [get_ports {",K56,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K56&lt;&gt;"",K56&lt;&gt;"+3v3",K56&lt;&gt;"GND",NOT(ISNA(P56)),NOT(ISNA(N56))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S56/$V$7,"0.000")," [get_ports {",K56,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S56/$W$7,"0.000")," [get_ports {",K56,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.250 [get_ports {ad_n0}]
+set_input_delay -clock clk_3v3_n -max 52.250 [get_ports {ad_n0}]
+</v>
       </c>
       <c r="W56" s="31" t="str">
-        <f aca="false">IF(AND(K56&lt;&gt;"",K56&lt;&gt;"+3v3",K56&lt;&gt;"GND",NOT(ISNA(P56)),NOT(ISNA(N56))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P56/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K56,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P56/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K56,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K56&lt;&gt;"",K56&lt;&gt;"+3v3",K56&lt;&gt;"GND",NOT(ISNA(P56)),NOT(ISNA(N56))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P56/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K56,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P56/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K56,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.309 [get_ports {ad_n0}]
+set_output_delay -clock clk_3v3_n -max 53.421 [get_ports {ad_n0}]
+</v>
       </c>
       <c r="Y56" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T56="IO",T56="I"),V56,""),IF(OR(T56="IO",T56="O"),W56,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.250 [get_ports {ad_n0}]
+set_input_delay -clock clk_3v3_n -max 52.250 [get_ports {ad_n0}]
+</v>
       </c>
       <c r="AG56" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K56,3)="LED",LEFT(K56,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D56,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K56),"")</f>
@@ -6754,21 +7205,21 @@
         <f aca="false">VLOOKUP(A57,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>14.66</v>
       </c>
-      <c r="N57" s="4" t="e">
+      <c r="N57" s="4" t="n">
         <f aca="false">VLOOKUP(K57,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P57" s="4" t="e">
+        <v>57.3163347401</v>
+      </c>
+      <c r="P57" s="4" t="n">
         <f aca="false">IF(AND(M57&gt;0,N57&gt;0),M57+N57, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q57" s="29" t="e">
+        <v>71.9763347401</v>
+      </c>
+      <c r="Q57" s="29" t="n">
         <f aca="false">IF(P57&gt;0,P57/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S57" s="4" t="e">
+        <v>2.83371396614567</v>
+      </c>
+      <c r="S57" s="4" t="n">
         <f aca="false">IF(P57&gt;0,P$135-P57,"")</f>
-        <v>#N/A</v>
+        <v>-2.87835858300001</v>
       </c>
       <c r="T57" s="0" t="s">
         <v>183</v>
@@ -6779,16 +7230,22 @@
 set_property IOSTANDARD LVTTL [get_ports {ad_n1 }]</v>
       </c>
       <c r="V57" s="31" t="str">
-        <f aca="false">IF(AND(K57&lt;&gt;"",K57&lt;&gt;"+3v3",K57&lt;&gt;"GND",NOT(ISNA(P57)),NOT(ISNA(N57))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S57/$V$7,"0.000")," [get_ports {",K57,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S57/$W$7,"0.000")," [get_ports {",K57,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K57&lt;&gt;"",K57&lt;&gt;"+3v3",K57&lt;&gt;"GND",NOT(ISNA(P57)),NOT(ISNA(N57))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S57/$V$7,"0.000")," [get_ports {",K57,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S57/$W$7,"0.000")," [get_ports {",K57,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.264 [get_ports {ad_n1}]
+set_input_delay -clock clk_3v3_n -max 52.269 [get_ports {ad_n1}]
+</v>
       </c>
       <c r="W57" s="31" t="str">
-        <f aca="false">IF(AND(K57&lt;&gt;"",K57&lt;&gt;"+3v3",K57&lt;&gt;"GND",NOT(ISNA(P57)),NOT(ISNA(N57))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P57/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K57,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P57/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K57,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K57&lt;&gt;"",K57&lt;&gt;"+3v3",K57&lt;&gt;"GND",NOT(ISNA(P57)),NOT(ISNA(N57))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P57/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K57,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P57/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K57,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.295 [get_ports {ad_n1}]
+set_output_delay -clock clk_3v3_n -max 53.440 [get_ports {ad_n1}]
+</v>
       </c>
       <c r="Y57" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T57="IO",T57="I"),V57,""),IF(OR(T57="IO",T57="O"),W57,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.264 [get_ports {ad_n1}]
+set_input_delay -clock clk_3v3_n -max 52.269 [get_ports {ad_n1}]
+</v>
       </c>
       <c r="AG57" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K57,3)="LED",LEFT(K57,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D57,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K57),"")</f>
@@ -6828,21 +7285,21 @@
         <f aca="false">VLOOKUP(A58,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>22.76</v>
       </c>
-      <c r="N58" s="4" t="e">
+      <c r="N58" s="4" t="n">
         <f aca="false">VLOOKUP(K58,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P58" s="4" t="e">
+        <v>97.9313317192</v>
+      </c>
+      <c r="P58" s="4" t="n">
         <f aca="false">IF(AND(M58&gt;0,N58&gt;0),M58+N58, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q58" s="29" t="e">
+        <v>120.6913317192</v>
+      </c>
+      <c r="Q58" s="29" t="n">
         <f aca="false">IF(P58&gt;0,P58/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S58" s="4" t="e">
+        <v>4.75162723303937</v>
+      </c>
+      <c r="S58" s="4" t="n">
         <f aca="false">IF(P58&gt;0,P$135-P58,"")</f>
-        <v>#N/A</v>
+        <v>-51.5933555621</v>
       </c>
       <c r="T58" s="0" t="s">
         <v>183</v>
@@ -6853,16 +7310,22 @@
 set_property IOSTANDARD LVTTL [get_ports {tm_n1 }]</v>
       </c>
       <c r="V58" s="31" t="str">
-        <f aca="false">IF(AND(K58&lt;&gt;"",K58&lt;&gt;"+3v3",K58&lt;&gt;"GND",NOT(ISNA(P58)),NOT(ISNA(N58))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S58/$V$7,"0.000")," [get_ports {",K58,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S58/$W$7,"0.000")," [get_ports {",K58,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K58&lt;&gt;"",K58&lt;&gt;"+3v3",K58&lt;&gt;"GND",NOT(ISNA(P58)),NOT(ISNA(N58))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S58/$V$7,"0.000")," [get_ports {",K58,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S58/$W$7,"0.000")," [get_ports {",K58,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.508 [get_ports {tm_n1}]
+set_input_delay -clock clk_3v3_n -max 52.594 [get_ports {tm_n1}]
+</v>
       </c>
       <c r="W58" s="31" t="str">
-        <f aca="false">IF(AND(K58&lt;&gt;"",K58&lt;&gt;"+3v3",K58&lt;&gt;"GND",NOT(ISNA(P58)),NOT(ISNA(N58))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P58/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K58,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P58/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K58,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K58&lt;&gt;"",K58&lt;&gt;"+3v3",K58&lt;&gt;"GND",NOT(ISNA(P58)),NOT(ISNA(N58))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P58/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K58,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P58/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K58,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.051 [get_ports {tm_n1}]
+set_output_delay -clock clk_3v3_n -max 53.765 [get_ports {tm_n1}]
+</v>
       </c>
       <c r="Y58" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T58="IO",T58="I"),V58,""),IF(OR(T58="IO",T58="O"),W58,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.508 [get_ports {tm_n1}]
+set_input_delay -clock clk_3v3_n -max 52.594 [get_ports {tm_n1}]
+</v>
       </c>
       <c r="AG58" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K58,3)="LED",LEFT(K58,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D58,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K58),"")</f>
@@ -6927,11 +7390,11 @@
 set_property IOSTANDARD LVTTL [get_ports {usbh0_p }]</v>
       </c>
       <c r="V59" s="31" t="str">
-        <f aca="false">IF(AND(K59&lt;&gt;"",K59&lt;&gt;"+3v3",K59&lt;&gt;"GND",NOT(ISNA(P59)),NOT(ISNA(N59))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S59/$V$7,"0.000")," [get_ports {",K59,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S59/$W$7,"0.000")," [get_ports {",K59,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K59&lt;&gt;"",K59&lt;&gt;"+3v3",K59&lt;&gt;"GND",NOT(ISNA(P59)),NOT(ISNA(N59))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S59/$V$7,"0.000")," [get_ports {",K59,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S59/$W$7,"0.000")," [get_ports {",K59,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W59" s="31" t="str">
-        <f aca="false">IF(AND(K59&lt;&gt;"",K59&lt;&gt;"+3v3",K59&lt;&gt;"GND",NOT(ISNA(P59)),NOT(ISNA(N59))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P59/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K59,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P59/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K59,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K59&lt;&gt;"",K59&lt;&gt;"+3v3",K59&lt;&gt;"GND",NOT(ISNA(P59)),NOT(ISNA(N59))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P59/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K59,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P59/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K59,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y59" s="7" t="str">
@@ -6976,21 +7439,21 @@
         <f aca="false">VLOOKUP(A60,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>23.12</v>
       </c>
-      <c r="N60" s="4" t="e">
+      <c r="N60" s="4" t="n">
         <f aca="false">VLOOKUP(K60,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P60" s="4" t="e">
+        <v>95.6599082226</v>
+      </c>
+      <c r="P60" s="4" t="n">
         <f aca="false">IF(AND(M60&gt;0,N60&gt;0),M60+N60, "N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q60" s="29" t="e">
+        <v>118.7799082226</v>
+      </c>
+      <c r="Q60" s="29" t="n">
         <f aca="false">IF(P60&gt;0,P60/25.4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S60" s="4" t="e">
+        <v>4.67637433947244</v>
+      </c>
+      <c r="S60" s="4" t="n">
         <f aca="false">IF(P60&gt;0,P$135-P60,"")</f>
-        <v>#N/A</v>
+        <v>-49.6819320655</v>
       </c>
       <c r="T60" s="0" t="s">
         <v>183</v>
@@ -7001,16 +7464,22 @@
 set_property IOSTANDARD LVTTL [get_ports {tm_n0 }]</v>
       </c>
       <c r="V60" s="31" t="str">
-        <f aca="false">IF(AND(K60&lt;&gt;"",K60&lt;&gt;"+3v3",K60&lt;&gt;"GND",NOT(ISNA(P60)),NOT(ISNA(N60))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S60/$V$7,"0.000")," [get_ports {",K60,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S60/$W$7,"0.000")," [get_ports {",K60,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K60&lt;&gt;"",K60&lt;&gt;"+3v3",K60&lt;&gt;"GND",NOT(ISNA(P60)),NOT(ISNA(N60))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S60/$V$7,"0.000")," [get_ports {",K60,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S60/$W$7,"0.000")," [get_ports {",K60,"}]",CHAR(10)),"")</f>
+        <v>set_input_delay -clock clk_3v3_n -min 2.498 [get_ports {tm_n0}]
+set_input_delay -clock clk_3v3_n -max 52.581 [get_ports {tm_n0}]
+</v>
       </c>
       <c r="W60" s="31" t="str">
-        <f aca="false">IF(AND(K60&lt;&gt;"",K60&lt;&gt;"+3v3",K60&lt;&gt;"GND",NOT(ISNA(P60)),NOT(ISNA(N60))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P60/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K60,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P60/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K60,"}]",CHAR(10)),"")</f>
-        <v/>
+        <f aca="false">IF(AND(K60&lt;&gt;"",K60&lt;&gt;"+3v3",K60&lt;&gt;"GND",NOT(ISNA(P60)),NOT(ISNA(N60))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P60/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K60,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P60/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K60,"}]",CHAR(10)),"")</f>
+        <v>set_output_delay -clock clk_3v3_n -min -6.061 [get_ports {tm_n0}]
+set_output_delay -clock clk_3v3_n -max 53.753 [get_ports {tm_n0}]
+</v>
       </c>
       <c r="Y60" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T60="IO",T60="I"),V60,""),IF(OR(T60="IO",T60="O"),W60,""))</f>
-        <v/>
+        <v>set_input_delay -clock clk_3v3_n -min 2.498 [get_ports {tm_n0}]
+set_input_delay -clock clk_3v3_n -max 52.581 [get_ports {tm_n0}]
+</v>
       </c>
       <c r="AG60" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K60,3)="LED",LEFT(K60,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D60,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K60),"")</f>
@@ -7075,11 +7544,11 @@
 set_property IOSTANDARD LVTTL [get_ports {usbh0_n }]</v>
       </c>
       <c r="V61" s="31" t="str">
-        <f aca="false">IF(AND(K61&lt;&gt;"",K61&lt;&gt;"+3v3",K61&lt;&gt;"GND",NOT(ISNA(P61)),NOT(ISNA(N61))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S61/$V$7,"0.000")," [get_ports {",K61,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S61/$W$7,"0.000")," [get_ports {",K61,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K61&lt;&gt;"",K61&lt;&gt;"+3v3",K61&lt;&gt;"GND",NOT(ISNA(P61)),NOT(ISNA(N61))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S61/$V$7,"0.000")," [get_ports {",K61,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S61/$W$7,"0.000")," [get_ports {",K61,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W61" s="31" t="str">
-        <f aca="false">IF(AND(K61&lt;&gt;"",K61&lt;&gt;"+3v3",K61&lt;&gt;"GND",NOT(ISNA(P61)),NOT(ISNA(N61))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P61/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K61,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P61/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K61,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K61&lt;&gt;"",K61&lt;&gt;"+3v3",K61&lt;&gt;"GND",NOT(ISNA(P61)),NOT(ISNA(N61))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P61/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K61,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P61/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K61,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y61" s="7" t="str">
@@ -7149,11 +7618,11 @@
 set_property IOSTANDARD LVTTL [get_ports {reset_n }]</v>
       </c>
       <c r="V62" s="31" t="str">
-        <f aca="false">IF(AND(K62&lt;&gt;"",K62&lt;&gt;"+3v3",K62&lt;&gt;"GND",NOT(ISNA(P62)),NOT(ISNA(N62))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S62/$V$7,"0.000")," [get_ports {",K62,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S62/$W$7,"0.000")," [get_ports {",K62,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K62&lt;&gt;"",K62&lt;&gt;"+3v3",K62&lt;&gt;"GND",NOT(ISNA(P62)),NOT(ISNA(N62))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S62/$V$7,"0.000")," [get_ports {",K62,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S62/$W$7,"0.000")," [get_ports {",K62,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W62" s="31" t="str">
-        <f aca="false">IF(AND(K62&lt;&gt;"",K62&lt;&gt;"+3v3",K62&lt;&gt;"GND",NOT(ISNA(P62)),NOT(ISNA(N62))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P62/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K62,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P62/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K62,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K62&lt;&gt;"",K62&lt;&gt;"+3v3",K62&lt;&gt;"GND",NOT(ISNA(P62)),NOT(ISNA(N62))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P62/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K62,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P62/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K62,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y62" s="7" t="str">
@@ -7223,11 +7692,11 @@
 set_property IOSTANDARD LVTTL [get_ports {led8}]</v>
       </c>
       <c r="V63" s="31" t="str">
-        <f aca="false">IF(AND(K63&lt;&gt;"",K63&lt;&gt;"+3v3",K63&lt;&gt;"GND",NOT(ISNA(P63)),NOT(ISNA(N63))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S63/$V$7,"0.000")," [get_ports {",K63,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S63/$W$7,"0.000")," [get_ports {",K63,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K63&lt;&gt;"",K63&lt;&gt;"+3v3",K63&lt;&gt;"GND",NOT(ISNA(P63)),NOT(ISNA(N63))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S63/$V$7,"0.000")," [get_ports {",K63,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S63/$W$7,"0.000")," [get_ports {",K63,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W63" s="31" t="str">
-        <f aca="false">IF(AND(K63&lt;&gt;"",K63&lt;&gt;"+3v3",K63&lt;&gt;"GND",NOT(ISNA(P63)),NOT(ISNA(N63))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P63/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K63,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P63/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K63,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K63&lt;&gt;"",K63&lt;&gt;"+3v3",K63&lt;&gt;"GND",NOT(ISNA(P63)),NOT(ISNA(N63))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P63/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K63,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P63/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K63,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y63" s="7" t="str">
@@ -7284,11 +7753,11 @@
 set_property IOSTANDARD LVTTL [get_ports {0}]</v>
       </c>
       <c r="V64" s="31" t="str">
-        <f aca="false">IF(AND(K64&lt;&gt;"",K64&lt;&gt;"+3v3",K64&lt;&gt;"GND",NOT(ISNA(P64)),NOT(ISNA(N64))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S64/$V$7,"0.000")," [get_ports {",K64,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S64/$W$7,"0.000")," [get_ports {",K64,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K64&lt;&gt;"",K64&lt;&gt;"+3v3",K64&lt;&gt;"GND",NOT(ISNA(P64)),NOT(ISNA(N64))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S64/$V$7,"0.000")," [get_ports {",K64,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S64/$W$7,"0.000")," [get_ports {",K64,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W64" s="31" t="str">
-        <f aca="false">IF(AND(K64&lt;&gt;"",K64&lt;&gt;"+3v3",K64&lt;&gt;"GND",NOT(ISNA(P64)),NOT(ISNA(N64))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P64/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K64,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P64/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K64,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K64&lt;&gt;"",K64&lt;&gt;"+3v3",K64&lt;&gt;"GND",NOT(ISNA(P64)),NOT(ISNA(N64))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P64/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K64,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P64/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K64,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y64" s="7" t="str">
@@ -7349,11 +7818,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V65" s="31" t="e">
-        <f aca="false">IF(AND(K65&lt;&gt;"",K65&lt;&gt;"+3v3",K65&lt;&gt;"GND",NOT(ISNA(P65)),NOT(ISNA(N65))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S65/$V$7,"0.000")," [get_ports {",K65,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S65/$W$7,"0.000")," [get_ports {",K65,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K65&lt;&gt;"",K65&lt;&gt;"+3v3",K65&lt;&gt;"GND",NOT(ISNA(P65)),NOT(ISNA(N65))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S65/$V$7,"0.000")," [get_ports {",K65,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S65/$W$7,"0.000")," [get_ports {",K65,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W65" s="31" t="e">
-        <f aca="false">IF(AND(K65&lt;&gt;"",K65&lt;&gt;"+3v3",K65&lt;&gt;"GND",NOT(ISNA(P65)),NOT(ISNA(N65))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P65/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K65,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P65/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K65,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K65&lt;&gt;"",K65&lt;&gt;"+3v3",K65&lt;&gt;"GND",NOT(ISNA(P65)),NOT(ISNA(N65))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P65/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K65,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P65/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K65,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y65" s="7" t="str">
@@ -7410,11 +7879,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V66" s="31" t="e">
-        <f aca="false">IF(AND(K66&lt;&gt;"",K66&lt;&gt;"+3v3",K66&lt;&gt;"GND",NOT(ISNA(P66)),NOT(ISNA(N66))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S66/$V$7,"0.000")," [get_ports {",K66,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S66/$W$7,"0.000")," [get_ports {",K66,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K66&lt;&gt;"",K66&lt;&gt;"+3v3",K66&lt;&gt;"GND",NOT(ISNA(P66)),NOT(ISNA(N66))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S66/$V$7,"0.000")," [get_ports {",K66,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S66/$W$7,"0.000")," [get_ports {",K66,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W66" s="31" t="e">
-        <f aca="false">IF(AND(K66&lt;&gt;"",K66&lt;&gt;"+3v3",K66&lt;&gt;"GND",NOT(ISNA(P66)),NOT(ISNA(N66))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P66/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K66,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P66/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K66,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K66&lt;&gt;"",K66&lt;&gt;"+3v3",K66&lt;&gt;"GND",NOT(ISNA(P66)),NOT(ISNA(N66))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P66/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K66,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P66/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K66,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y66" s="7" t="str">
@@ -7469,11 +7938,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V67" s="31" t="e">
-        <f aca="false">IF(AND(K67&lt;&gt;"",K67&lt;&gt;"+3v3",K67&lt;&gt;"GND",NOT(ISNA(P67)),NOT(ISNA(N67))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S67/$V$7,"0.000")," [get_ports {",K67,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S67/$W$7,"0.000")," [get_ports {",K67,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K67&lt;&gt;"",K67&lt;&gt;"+3v3",K67&lt;&gt;"GND",NOT(ISNA(P67)),NOT(ISNA(N67))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S67/$V$7,"0.000")," [get_ports {",K67,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S67/$W$7,"0.000")," [get_ports {",K67,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W67" s="31" t="e">
-        <f aca="false">IF(AND(K67&lt;&gt;"",K67&lt;&gt;"+3v3",K67&lt;&gt;"GND",NOT(ISNA(P67)),NOT(ISNA(N67))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P67/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K67,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P67/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K67,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K67&lt;&gt;"",K67&lt;&gt;"+3v3",K67&lt;&gt;"GND",NOT(ISNA(P67)),NOT(ISNA(N67))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P67/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K67,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P67/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K67,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y67" s="7" t="str">
@@ -7530,11 +7999,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V68" s="31" t="e">
-        <f aca="false">IF(AND(K68&lt;&gt;"",K68&lt;&gt;"+3v3",K68&lt;&gt;"GND",NOT(ISNA(P68)),NOT(ISNA(N68))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S68/$V$7,"0.000")," [get_ports {",K68,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S68/$W$7,"0.000")," [get_ports {",K68,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K68&lt;&gt;"",K68&lt;&gt;"+3v3",K68&lt;&gt;"GND",NOT(ISNA(P68)),NOT(ISNA(N68))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S68/$V$7,"0.000")," [get_ports {",K68,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S68/$W$7,"0.000")," [get_ports {",K68,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W68" s="31" t="e">
-        <f aca="false">IF(AND(K68&lt;&gt;"",K68&lt;&gt;"+3v3",K68&lt;&gt;"GND",NOT(ISNA(P68)),NOT(ISNA(N68))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P68/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K68,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P68/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K68,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K68&lt;&gt;"",K68&lt;&gt;"+3v3",K68&lt;&gt;"GND",NOT(ISNA(P68)),NOT(ISNA(N68))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P68/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K68,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P68/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K68,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y68" s="7" t="str">
@@ -7593,11 +8062,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V69" s="31" t="e">
-        <f aca="false">IF(AND(K69&lt;&gt;"",K69&lt;&gt;"+3v3",K69&lt;&gt;"GND",NOT(ISNA(P69)),NOT(ISNA(N69))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S69/$V$7,"0.000")," [get_ports {",K69,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S69/$W$7,"0.000")," [get_ports {",K69,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K69&lt;&gt;"",K69&lt;&gt;"+3v3",K69&lt;&gt;"GND",NOT(ISNA(P69)),NOT(ISNA(N69))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S69/$V$7,"0.000")," [get_ports {",K69,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S69/$W$7,"0.000")," [get_ports {",K69,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W69" s="31" t="e">
-        <f aca="false">IF(AND(K69&lt;&gt;"",K69&lt;&gt;"+3v3",K69&lt;&gt;"GND",NOT(ISNA(P69)),NOT(ISNA(N69))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P69/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K69,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P69/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K69,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K69&lt;&gt;"",K69&lt;&gt;"+3v3",K69&lt;&gt;"GND",NOT(ISNA(P69)),NOT(ISNA(N69))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P69/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K69,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P69/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K69,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y69" s="7" t="str">
@@ -7652,11 +8121,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V70" s="31" t="e">
-        <f aca="false">IF(AND(K70&lt;&gt;"",K70&lt;&gt;"+3v3",K70&lt;&gt;"GND",NOT(ISNA(P70)),NOT(ISNA(N70))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S70/$V$7,"0.000")," [get_ports {",K70,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S70/$W$7,"0.000")," [get_ports {",K70,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K70&lt;&gt;"",K70&lt;&gt;"+3v3",K70&lt;&gt;"GND",NOT(ISNA(P70)),NOT(ISNA(N70))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S70/$V$7,"0.000")," [get_ports {",K70,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S70/$W$7,"0.000")," [get_ports {",K70,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W70" s="31" t="e">
-        <f aca="false">IF(AND(K70&lt;&gt;"",K70&lt;&gt;"+3v3",K70&lt;&gt;"GND",NOT(ISNA(P70)),NOT(ISNA(N70))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P70/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K70,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P70/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K70,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K70&lt;&gt;"",K70&lt;&gt;"+3v3",K70&lt;&gt;"GND",NOT(ISNA(P70)),NOT(ISNA(N70))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P70/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K70,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P70/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K70,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y70" s="7" t="str">
@@ -7711,11 +8180,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V71" s="31" t="e">
-        <f aca="false">IF(AND(K71&lt;&gt;"",K71&lt;&gt;"+3v3",K71&lt;&gt;"GND",NOT(ISNA(P71)),NOT(ISNA(N71))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S71/$V$7,"0.000")," [get_ports {",K71,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S71/$W$7,"0.000")," [get_ports {",K71,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K71&lt;&gt;"",K71&lt;&gt;"+3v3",K71&lt;&gt;"GND",NOT(ISNA(P71)),NOT(ISNA(N71))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S71/$V$7,"0.000")," [get_ports {",K71,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S71/$W$7,"0.000")," [get_ports {",K71,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W71" s="31" t="e">
-        <f aca="false">IF(AND(K71&lt;&gt;"",K71&lt;&gt;"+3v3",K71&lt;&gt;"GND",NOT(ISNA(P71)),NOT(ISNA(N71))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P71/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K71,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P71/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K71,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K71&lt;&gt;"",K71&lt;&gt;"+3v3",K71&lt;&gt;"GND",NOT(ISNA(P71)),NOT(ISNA(N71))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P71/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K71,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P71/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K71,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y71" s="7" t="str">
@@ -7782,11 +8251,11 @@
 set_property IOSTANDARD LVTTL [get_ports {RX }]</v>
       </c>
       <c r="V72" s="31" t="str">
-        <f aca="false">IF(AND(K72&lt;&gt;"",K72&lt;&gt;"+3v3",K72&lt;&gt;"GND",NOT(ISNA(P72)),NOT(ISNA(N72))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S72/$V$7,"0.000")," [get_ports {",K72,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S72/$W$7,"0.000")," [get_ports {",K72,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K72&lt;&gt;"",K72&lt;&gt;"+3v3",K72&lt;&gt;"GND",NOT(ISNA(P72)),NOT(ISNA(N72))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S72/$V$7,"0.000")," [get_ports {",K72,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S72/$W$7,"0.000")," [get_ports {",K72,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W72" s="31" t="str">
-        <f aca="false">IF(AND(K72&lt;&gt;"",K72&lt;&gt;"+3v3",K72&lt;&gt;"GND",NOT(ISNA(P72)),NOT(ISNA(N72))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P72/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K72,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P72/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K72,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K72&lt;&gt;"",K72&lt;&gt;"+3v3",K72&lt;&gt;"GND",NOT(ISNA(P72)),NOT(ISNA(N72))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P72/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K72,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P72/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K72,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y72" s="7" t="str">
@@ -7853,11 +8322,11 @@
 set_property IOSTANDARD LVTTL [get_ports {TX }]</v>
       </c>
       <c r="V73" s="31" t="str">
-        <f aca="false">IF(AND(K73&lt;&gt;"",K73&lt;&gt;"+3v3",K73&lt;&gt;"GND",NOT(ISNA(P73)),NOT(ISNA(N73))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S73/$V$7,"0.000")," [get_ports {",K73,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S73/$W$7,"0.000")," [get_ports {",K73,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K73&lt;&gt;"",K73&lt;&gt;"+3v3",K73&lt;&gt;"GND",NOT(ISNA(P73)),NOT(ISNA(N73))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S73/$V$7,"0.000")," [get_ports {",K73,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S73/$W$7,"0.000")," [get_ports {",K73,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W73" s="31" t="str">
-        <f aca="false">IF(AND(K73&lt;&gt;"",K73&lt;&gt;"+3v3",K73&lt;&gt;"GND",NOT(ISNA(P73)),NOT(ISNA(N73))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P73/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K73,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P73/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K73,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K73&lt;&gt;"",K73&lt;&gt;"+3v3",K73&lt;&gt;"GND",NOT(ISNA(P73)),NOT(ISNA(N73))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P73/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K73,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P73/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K73,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y73" s="7" t="str">
@@ -7924,11 +8393,11 @@
 set_property IOSTANDARD LVTTL [get_ports {id_n3 }]</v>
       </c>
       <c r="V74" s="31" t="str">
-        <f aca="false">IF(AND(K74&lt;&gt;"",K74&lt;&gt;"+3v3",K74&lt;&gt;"GND",NOT(ISNA(P74)),NOT(ISNA(N74))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S74/$V$7,"0.000")," [get_ports {",K74,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S74/$W$7,"0.000")," [get_ports {",K74,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K74&lt;&gt;"",K74&lt;&gt;"+3v3",K74&lt;&gt;"GND",NOT(ISNA(P74)),NOT(ISNA(N74))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S74/$V$7,"0.000")," [get_ports {",K74,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S74/$W$7,"0.000")," [get_ports {",K74,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W74" s="31" t="str">
-        <f aca="false">IF(AND(K74&lt;&gt;"",K74&lt;&gt;"+3v3",K74&lt;&gt;"GND",NOT(ISNA(P74)),NOT(ISNA(N74))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P74/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K74,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P74/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K74,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K74&lt;&gt;"",K74&lt;&gt;"+3v3",K74&lt;&gt;"GND",NOT(ISNA(P74)),NOT(ISNA(N74))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P74/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K74,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P74/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K74,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y74" s="7" t="str">
@@ -7995,11 +8464,11 @@
 set_property IOSTANDARD LVTTL [get_ports {id_n1}]</v>
       </c>
       <c r="V75" s="31" t="str">
-        <f aca="false">IF(AND(K75&lt;&gt;"",K75&lt;&gt;"+3v3",K75&lt;&gt;"GND",NOT(ISNA(P75)),NOT(ISNA(N75))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S75/$V$7,"0.000")," [get_ports {",K75,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S75/$W$7,"0.000")," [get_ports {",K75,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K75&lt;&gt;"",K75&lt;&gt;"+3v3",K75&lt;&gt;"GND",NOT(ISNA(P75)),NOT(ISNA(N75))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S75/$V$7,"0.000")," [get_ports {",K75,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S75/$W$7,"0.000")," [get_ports {",K75,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W75" s="31" t="str">
-        <f aca="false">IF(AND(K75&lt;&gt;"",K75&lt;&gt;"+3v3",K75&lt;&gt;"GND",NOT(ISNA(P75)),NOT(ISNA(N75))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P75/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K75,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P75/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K75,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K75&lt;&gt;"",K75&lt;&gt;"+3v3",K75&lt;&gt;"GND",NOT(ISNA(P75)),NOT(ISNA(N75))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P75/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K75,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P75/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K75,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y75" s="7" t="str">
@@ -8066,11 +8535,11 @@
 set_property IOSTANDARD LVTTL [get_ports {id_n0 }]</v>
       </c>
       <c r="V76" s="31" t="str">
-        <f aca="false">IF(AND(K76&lt;&gt;"",K76&lt;&gt;"+3v3",K76&lt;&gt;"GND",NOT(ISNA(P76)),NOT(ISNA(N76))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S76/$V$7,"0.000")," [get_ports {",K76,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S76/$W$7,"0.000")," [get_ports {",K76,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K76&lt;&gt;"",K76&lt;&gt;"+3v3",K76&lt;&gt;"GND",NOT(ISNA(P76)),NOT(ISNA(N76))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S76/$V$7,"0.000")," [get_ports {",K76,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S76/$W$7,"0.000")," [get_ports {",K76,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W76" s="31" t="str">
-        <f aca="false">IF(AND(K76&lt;&gt;"",K76&lt;&gt;"+3v3",K76&lt;&gt;"GND",NOT(ISNA(P76)),NOT(ISNA(N76))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P76/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K76,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P76/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K76,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K76&lt;&gt;"",K76&lt;&gt;"+3v3",K76&lt;&gt;"GND",NOT(ISNA(P76)),NOT(ISNA(N76))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P76/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K76,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P76/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K76,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y76" s="7" t="str">
@@ -8137,11 +8606,11 @@
 set_property IOSTANDARD LVTTL [get_ports {id_n2 }]</v>
       </c>
       <c r="V77" s="31" t="str">
-        <f aca="false">IF(AND(K77&lt;&gt;"",K77&lt;&gt;"+3v3",K77&lt;&gt;"GND",NOT(ISNA(P77)),NOT(ISNA(N77))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S77/$V$7,"0.000")," [get_ports {",K77,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S77/$W$7,"0.000")," [get_ports {",K77,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K77&lt;&gt;"",K77&lt;&gt;"+3v3",K77&lt;&gt;"GND",NOT(ISNA(P77)),NOT(ISNA(N77))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S77/$V$7,"0.000")," [get_ports {",K77,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S77/$W$7,"0.000")," [get_ports {",K77,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W77" s="31" t="str">
-        <f aca="false">IF(AND(K77&lt;&gt;"",K77&lt;&gt;"+3v3",K77&lt;&gt;"GND",NOT(ISNA(P77)),NOT(ISNA(N77))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P77/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K77,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P77/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K77,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K77&lt;&gt;"",K77&lt;&gt;"+3v3",K77&lt;&gt;"GND",NOT(ISNA(P77)),NOT(ISNA(N77))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P77/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K77,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P77/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K77,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y77" s="7" t="str">
@@ -8206,11 +8675,11 @@
 set_property IOSTANDARD LVTTL [get_ports {0}]</v>
       </c>
       <c r="V78" s="31" t="str">
-        <f aca="false">IF(AND(K78&lt;&gt;"",K78&lt;&gt;"+3v3",K78&lt;&gt;"GND",NOT(ISNA(P78)),NOT(ISNA(N78))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S78/$V$7,"0.000")," [get_ports {",K78,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S78/$W$7,"0.000")," [get_ports {",K78,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K78&lt;&gt;"",K78&lt;&gt;"+3v3",K78&lt;&gt;"GND",NOT(ISNA(P78)),NOT(ISNA(N78))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S78/$V$7,"0.000")," [get_ports {",K78,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S78/$W$7,"0.000")," [get_ports {",K78,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W78" s="31" t="str">
-        <f aca="false">IF(AND(K78&lt;&gt;"",K78&lt;&gt;"+3v3",K78&lt;&gt;"GND",NOT(ISNA(P78)),NOT(ISNA(N78))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P78/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K78,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P78/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K78,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K78&lt;&gt;"",K78&lt;&gt;"+3v3",K78&lt;&gt;"GND",NOT(ISNA(P78)),NOT(ISNA(N78))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P78/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K78,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P78/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K78,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y78" s="7" t="str">
@@ -8277,11 +8746,11 @@
 set_property IOSTANDARD LVTTL [get_ports {led0}]</v>
       </c>
       <c r="V79" s="31" t="str">
-        <f aca="false">IF(AND(K79&lt;&gt;"",K79&lt;&gt;"+3v3",K79&lt;&gt;"GND",NOT(ISNA(P79)),NOT(ISNA(N79))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S79/$V$7,"0.000")," [get_ports {",K79,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S79/$W$7,"0.000")," [get_ports {",K79,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K79&lt;&gt;"",K79&lt;&gt;"+3v3",K79&lt;&gt;"GND",NOT(ISNA(P79)),NOT(ISNA(N79))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S79/$V$7,"0.000")," [get_ports {",K79,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S79/$W$7,"0.000")," [get_ports {",K79,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W79" s="31" t="str">
-        <f aca="false">IF(AND(K79&lt;&gt;"",K79&lt;&gt;"+3v3",K79&lt;&gt;"GND",NOT(ISNA(P79)),NOT(ISNA(N79))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P79/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K79,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P79/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K79,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K79&lt;&gt;"",K79&lt;&gt;"+3v3",K79&lt;&gt;"GND",NOT(ISNA(P79)),NOT(ISNA(N79))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P79/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K79,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P79/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K79,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y79" s="7" t="str">
@@ -8348,20 +8817,20 @@
 set_property IOSTANDARD LVTTL [get_ports {HDMI_HPD_A}]</v>
       </c>
       <c r="V80" s="31" t="str">
-        <f aca="false">IF(AND(K80&lt;&gt;"",K80&lt;&gt;"+3v3",K80&lt;&gt;"GND",NOT(ISNA(P80)),NOT(ISNA(N80))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S80/$V$7,"0.000")," [get_ports {",K80,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S80/$W$7,"0.000")," [get_ports {",K80,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K80&lt;&gt;"",K80&lt;&gt;"+3v3",K80&lt;&gt;"GND",NOT(ISNA(P80)),NOT(ISNA(N80))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S80/$V$7,"0.000")," [get_ports {",K80,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S80/$W$7,"0.000")," [get_ports {",K80,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W80" s="31" t="str">
-        <f aca="false">IF(AND(K80&lt;&gt;"",K80&lt;&gt;"+3v3",K80&lt;&gt;"GND",NOT(ISNA(P80)),NOT(ISNA(N80))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P80/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K80,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P80/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K80,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K80&lt;&gt;"",K80&lt;&gt;"+3v3",K80&lt;&gt;"GND",NOT(ISNA(P80)),NOT(ISNA(N80))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P80/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K80,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P80/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K80,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y80" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T80="IO",T80="I"),V80,""),IF(OR(T80="IO",T80="O"),W80,""))</f>
         <v/>
       </c>
-      <c r="AA80" s="0" t="n">
+      <c r="AA80" s="0" t="e">
         <f aca="false">MAX(P88,P90,P91:P95,P97)</f>
-        <v>162.045174464</v>
+        <v>#N/A</v>
       </c>
       <c r="AG80" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K80,3)="LED",LEFT(K80,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D80,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K80),"")</f>
@@ -8423,11 +8892,11 @@
 set_property IOSTANDARD LVTTL [get_ports {led1}]</v>
       </c>
       <c r="V81" s="31" t="str">
-        <f aca="false">IF(AND(K81&lt;&gt;"",K81&lt;&gt;"+3v3",K81&lt;&gt;"GND",NOT(ISNA(P81)),NOT(ISNA(N81))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S81/$V$7,"0.000")," [get_ports {",K81,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S81/$W$7,"0.000")," [get_ports {",K81,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K81&lt;&gt;"",K81&lt;&gt;"+3v3",K81&lt;&gt;"GND",NOT(ISNA(P81)),NOT(ISNA(N81))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S81/$V$7,"0.000")," [get_ports {",K81,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S81/$W$7,"0.000")," [get_ports {",K81,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W81" s="31" t="str">
-        <f aca="false">IF(AND(K81&lt;&gt;"",K81&lt;&gt;"+3v3",K81&lt;&gt;"GND",NOT(ISNA(P81)),NOT(ISNA(N81))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P81/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K81,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P81/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K81,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K81&lt;&gt;"",K81&lt;&gt;"+3v3",K81&lt;&gt;"GND",NOT(ISNA(P81)),NOT(ISNA(N81))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P81/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K81,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P81/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K81,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y81" s="7" t="str">
@@ -8494,11 +8963,11 @@
 set_property IOSTANDARD LVTTL [get_ports {HDMI_SDA_A}]</v>
       </c>
       <c r="V82" s="31" t="str">
-        <f aca="false">IF(AND(K82&lt;&gt;"",K82&lt;&gt;"+3v3",K82&lt;&gt;"GND",NOT(ISNA(P82)),NOT(ISNA(N82))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S82/$V$7,"0.000")," [get_ports {",K82,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S82/$W$7,"0.000")," [get_ports {",K82,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K82&lt;&gt;"",K82&lt;&gt;"+3v3",K82&lt;&gt;"GND",NOT(ISNA(P82)),NOT(ISNA(N82))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S82/$V$7,"0.000")," [get_ports {",K82,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S82/$W$7,"0.000")," [get_ports {",K82,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W82" s="31" t="str">
-        <f aca="false">IF(AND(K82&lt;&gt;"",K82&lt;&gt;"+3v3",K82&lt;&gt;"GND",NOT(ISNA(P82)),NOT(ISNA(N82))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P82/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K82,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P82/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K82,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K82&lt;&gt;"",K82&lt;&gt;"+3v3",K82&lt;&gt;"GND",NOT(ISNA(P82)),NOT(ISNA(N82))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P82/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K82,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P82/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K82,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y82" s="7" t="str">
@@ -8567,11 +9036,11 @@
 set_property IOSTANDARD LVTTL [get_ports {led2}]</v>
       </c>
       <c r="V83" s="31" t="str">
-        <f aca="false">IF(AND(K83&lt;&gt;"",K83&lt;&gt;"+3v3",K83&lt;&gt;"GND",NOT(ISNA(P83)),NOT(ISNA(N83))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S83/$V$7,"0.000")," [get_ports {",K83,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S83/$W$7,"0.000")," [get_ports {",K83,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K83&lt;&gt;"",K83&lt;&gt;"+3v3",K83&lt;&gt;"GND",NOT(ISNA(P83)),NOT(ISNA(N83))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S83/$V$7,"0.000")," [get_ports {",K83,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S83/$W$7,"0.000")," [get_ports {",K83,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W83" s="31" t="str">
-        <f aca="false">IF(AND(K83&lt;&gt;"",K83&lt;&gt;"+3v3",K83&lt;&gt;"GND",NOT(ISNA(P83)),NOT(ISNA(N83))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P83/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K83,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P83/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K83,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K83&lt;&gt;"",K83&lt;&gt;"+3v3",K83&lt;&gt;"GND",NOT(ISNA(P83)),NOT(ISNA(N83))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P83/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K83,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P83/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K83,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y83" s="7" t="str">
@@ -8641,11 +9110,11 @@
 set_property IOSTANDARD LVTTL [get_ports {HDMI_SCL_A}]</v>
       </c>
       <c r="V84" s="31" t="str">
-        <f aca="false">IF(AND(K84&lt;&gt;"",K84&lt;&gt;"+3v3",K84&lt;&gt;"GND",NOT(ISNA(P84)),NOT(ISNA(N84))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S84/$V$7,"0.000")," [get_ports {",K84,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S84/$W$7,"0.000")," [get_ports {",K84,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K84&lt;&gt;"",K84&lt;&gt;"+3v3",K84&lt;&gt;"GND",NOT(ISNA(P84)),NOT(ISNA(N84))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S84/$V$7,"0.000")," [get_ports {",K84,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S84/$W$7,"0.000")," [get_ports {",K84,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W84" s="31" t="str">
-        <f aca="false">IF(AND(K84&lt;&gt;"",K84&lt;&gt;"+3v3",K84&lt;&gt;"GND",NOT(ISNA(P84)),NOT(ISNA(N84))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P84/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K84,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P84/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K84,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K84&lt;&gt;"",K84&lt;&gt;"+3v3",K84&lt;&gt;"GND",NOT(ISNA(P84)),NOT(ISNA(N84))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P84/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K84,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P84/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K84,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y84" s="7" t="str">
@@ -8720,11 +9189,11 @@
 set_property IOSTANDARD LVTTL [get_ports {led3}]</v>
       </c>
       <c r="V85" s="31" t="str">
-        <f aca="false">IF(AND(K85&lt;&gt;"",K85&lt;&gt;"+3v3",K85&lt;&gt;"GND",NOT(ISNA(P85)),NOT(ISNA(N85))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S85/$V$7,"0.000")," [get_ports {",K85,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S85/$W$7,"0.000")," [get_ports {",K85,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K85&lt;&gt;"",K85&lt;&gt;"+3v3",K85&lt;&gt;"GND",NOT(ISNA(P85)),NOT(ISNA(N85))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S85/$V$7,"0.000")," [get_ports {",K85,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S85/$W$7,"0.000")," [get_ports {",K85,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W85" s="31" t="str">
-        <f aca="false">IF(AND(K85&lt;&gt;"",K85&lt;&gt;"+3v3",K85&lt;&gt;"GND",NOT(ISNA(P85)),NOT(ISNA(N85))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P85/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K85,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P85/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K85,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K85&lt;&gt;"",K85&lt;&gt;"+3v3",K85&lt;&gt;"GND",NOT(ISNA(P85)),NOT(ISNA(N85))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P85/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K85,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P85/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K85,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y85" s="7" t="str">
@@ -8794,11 +9263,11 @@
 set_property IOSTANDARD LVTTL [get_ports {HDMI_CEC_A}]</v>
       </c>
       <c r="V86" s="31" t="str">
-        <f aca="false">IF(AND(K86&lt;&gt;"",K86&lt;&gt;"+3v3",K86&lt;&gt;"GND",NOT(ISNA(P86)),NOT(ISNA(N86))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S86/$V$7,"0.000")," [get_ports {",K86,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S86/$W$7,"0.000")," [get_ports {",K86,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K86&lt;&gt;"",K86&lt;&gt;"+3v3",K86&lt;&gt;"GND",NOT(ISNA(P86)),NOT(ISNA(N86))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S86/$V$7,"0.000")," [get_ports {",K86,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S86/$W$7,"0.000")," [get_ports {",K86,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W86" s="31" t="str">
-        <f aca="false">IF(AND(K86&lt;&gt;"",K86&lt;&gt;"+3v3",K86&lt;&gt;"GND",NOT(ISNA(P86)),NOT(ISNA(N86))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P86/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K86,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P86/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K86,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K86&lt;&gt;"",K86&lt;&gt;"+3v3",K86&lt;&gt;"GND",NOT(ISNA(P86)),NOT(ISNA(N86))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P86/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K86,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P86/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K86,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y86" s="7" t="str">
@@ -8865,11 +9334,11 @@
 set_property IOSTANDARD LVTTL [get_ports {vga_hs }]</v>
       </c>
       <c r="V87" s="31" t="str">
-        <f aca="false">IF(AND(K87&lt;&gt;"",K87&lt;&gt;"+3v3",K87&lt;&gt;"GND",NOT(ISNA(P87)),NOT(ISNA(N87))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S87/$V$7,"0.000")," [get_ports {",K87,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S87/$W$7,"0.000")," [get_ports {",K87,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K87&lt;&gt;"",K87&lt;&gt;"+3v3",K87&lt;&gt;"GND",NOT(ISNA(P87)),NOT(ISNA(N87))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S87/$V$7,"0.000")," [get_ports {",K87,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S87/$W$7,"0.000")," [get_ports {",K87,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W87" s="31" t="str">
-        <f aca="false">IF(AND(K87&lt;&gt;"",K87&lt;&gt;"+3v3",K87&lt;&gt;"GND",NOT(ISNA(P87)),NOT(ISNA(N87))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P87/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K87,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P87/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K87,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K87&lt;&gt;"",K87&lt;&gt;"+3v3",K87&lt;&gt;"GND",NOT(ISNA(P87)),NOT(ISNA(N87))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P87/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K87,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P87/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K87,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y87" s="7" t="str">
@@ -8914,17 +9383,17 @@
         <f aca="false">VLOOKUP(A88,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>29.53</v>
       </c>
-      <c r="N88" s="4" t="n">
+      <c r="N88" s="4" t="e">
         <f aca="false">VLOOKUP(K88,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>132.514004972</v>
-      </c>
-      <c r="P88" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P88" s="4" t="e">
         <f aca="false">IF(AND(M88&gt;0,N88&gt;0),M88+N88, "N/A")</f>
-        <v>162.044004972</v>
-      </c>
-      <c r="Q88" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q88" s="29" t="e">
         <f aca="false">IF(P88&gt;0,P88/25.4,)</f>
-        <v>6.37968523511811</v>
+        <v>#N/A</v>
       </c>
       <c r="S88" s="4" t="e">
         <f aca="false">IF(P88&gt;0,P$135-P88,"")</f>
@@ -8938,28 +9407,28 @@
         <v>set_property PACKAGE_PIN R6 [get_ports {HDMI_CLK+}]
 set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK+}]</v>
       </c>
-      <c r="V88" s="31" t="e">
-        <f aca="false">IF(AND(K88&lt;&gt;"",K88&lt;&gt;"+3v3",K88&lt;&gt;"GND",NOT(ISNA(P88)),NOT(ISNA(N88))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S88/$V$7,"0.000")," [get_ports {",K88,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S88/$W$7,"0.000")," [get_ports {",K88,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W88" s="31" t="e">
-        <f aca="false">IF(AND(K88&lt;&gt;"",K88&lt;&gt;"+3v3",K88&lt;&gt;"GND",NOT(ISNA(P88)),NOT(ISNA(N88))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P88/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K88,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P88/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K88,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y88" s="7" t="e">
+      <c r="V88" s="31" t="str">
+        <f aca="false">IF(AND(K88&lt;&gt;"",K88&lt;&gt;"+3v3",K88&lt;&gt;"GND",NOT(ISNA(P88)),NOT(ISNA(N88))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S88/$V$7,"0.000")," [get_ports {",K88,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S88/$W$7,"0.000")," [get_ports {",K88,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W88" s="31" t="str">
+        <f aca="false">IF(AND(K88&lt;&gt;"",K88&lt;&gt;"+3v3",K88&lt;&gt;"GND",NOT(ISNA(P88)),NOT(ISNA(N88))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P88/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K88,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P88/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K88,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y88" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T88="IO",T88="I"),V88,""),IF(OR(T88="IO",T88="O"),W88,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB88" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB88" s="0" t="e">
         <f aca="false">$AA$80-P88</f>
-        <v>0.00116949199997407</v>
+        <v>#N/A</v>
       </c>
       <c r="AC88" s="0" t="n">
         <v>115.108</v>
       </c>
-      <c r="AD88" s="0" t="n">
+      <c r="AD88" s="0" t="e">
         <f aca="false">AC88+AB88</f>
-        <v>115.109169492</v>
+        <v>#N/A</v>
       </c>
       <c r="AE88" s="0" t="str">
         <f aca="false">H88</f>
@@ -9028,11 +9497,11 @@
 set_property IOSTANDARD LVTTL [get_ports {vga_vs}]</v>
       </c>
       <c r="V89" s="31" t="str">
-        <f aca="false">IF(AND(K89&lt;&gt;"",K89&lt;&gt;"+3v3",K89&lt;&gt;"GND",NOT(ISNA(P89)),NOT(ISNA(N89))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S89/$V$7,"0.000")," [get_ports {",K89,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S89/$W$7,"0.000")," [get_ports {",K89,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K89&lt;&gt;"",K89&lt;&gt;"+3v3",K89&lt;&gt;"GND",NOT(ISNA(P89)),NOT(ISNA(N89))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S89/$V$7,"0.000")," [get_ports {",K89,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S89/$W$7,"0.000")," [get_ports {",K89,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W89" s="31" t="str">
-        <f aca="false">IF(AND(K89&lt;&gt;"",K89&lt;&gt;"+3v3",K89&lt;&gt;"GND",NOT(ISNA(P89)),NOT(ISNA(N89))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P89/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K89,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P89/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K89,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K89&lt;&gt;"",K89&lt;&gt;"+3v3",K89&lt;&gt;"GND",NOT(ISNA(P89)),NOT(ISNA(N89))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P89/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K89,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P89/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K89,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y89" s="7" t="str">
@@ -9079,17 +9548,17 @@
         <f aca="false">VLOOKUP(A90,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>28.85</v>
       </c>
-      <c r="N90" s="4" t="n">
+      <c r="N90" s="4" t="e">
         <f aca="false">VLOOKUP(K90,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>133.193911428</v>
-      </c>
-      <c r="P90" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P90" s="4" t="e">
         <f aca="false">IF(AND(M90&gt;0,N90&gt;0),M90+N90, "N/A")</f>
-        <v>162.043911428</v>
-      </c>
-      <c r="Q90" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q90" s="29" t="e">
         <f aca="false">IF(P90&gt;0,P90/25.4,)</f>
-        <v>6.37968155228347</v>
+        <v>#N/A</v>
       </c>
       <c r="S90" s="4" t="e">
         <f aca="false">IF(P90&gt;0,P$135-P90,"")</f>
@@ -9103,28 +9572,28 @@
         <v>set_property PACKAGE_PIN R5 [get_ports {HDMI_CLK-}]
 set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK-}]</v>
       </c>
-      <c r="V90" s="31" t="e">
-        <f aca="false">IF(AND(K90&lt;&gt;"",K90&lt;&gt;"+3v3",K90&lt;&gt;"GND",NOT(ISNA(P90)),NOT(ISNA(N90))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S90/$V$7,"0.000")," [get_ports {",K90,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S90/$W$7,"0.000")," [get_ports {",K90,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W90" s="31" t="e">
-        <f aca="false">IF(AND(K90&lt;&gt;"",K90&lt;&gt;"+3v3",K90&lt;&gt;"GND",NOT(ISNA(P90)),NOT(ISNA(N90))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P90/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K90,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P90/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K90,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y90" s="7" t="e">
+      <c r="V90" s="31" t="str">
+        <f aca="false">IF(AND(K90&lt;&gt;"",K90&lt;&gt;"+3v3",K90&lt;&gt;"GND",NOT(ISNA(P90)),NOT(ISNA(N90))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S90/$V$7,"0.000")," [get_ports {",K90,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S90/$W$7,"0.000")," [get_ports {",K90,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W90" s="31" t="str">
+        <f aca="false">IF(AND(K90&lt;&gt;"",K90&lt;&gt;"+3v3",K90&lt;&gt;"GND",NOT(ISNA(P90)),NOT(ISNA(N90))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P90/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K90,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P90/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K90,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y90" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T90="IO",T90="I"),V90,""),IF(OR(T90="IO",T90="O"),W90,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB90" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB90" s="0" t="e">
         <f aca="false">$AA$80-P90</f>
-        <v>0.00126303599998323</v>
+        <v>#N/A</v>
       </c>
       <c r="AC90" s="0" t="n">
         <v>121.065</v>
       </c>
-      <c r="AD90" s="0" t="n">
+      <c r="AD90" s="0" t="e">
         <f aca="false">AC90+AB90</f>
-        <v>121.066263036</v>
+        <v>#N/A</v>
       </c>
       <c r="AE90" s="0" t="str">
         <f aca="false">H90</f>
@@ -9168,17 +9637,17 @@
         <f aca="false">VLOOKUP(A91,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>28.32</v>
       </c>
-      <c r="N91" s="4" t="n">
+      <c r="N91" s="4" t="e">
         <f aca="false">VLOOKUP(K91,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>133.724176597</v>
-      </c>
-      <c r="P91" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P91" s="4" t="e">
         <f aca="false">IF(AND(M91&gt;0,N91&gt;0),M91+N91, "N/A")</f>
-        <v>162.044176597</v>
-      </c>
-      <c r="Q91" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q91" s="29" t="e">
         <f aca="false">IF(P91&gt;0,P91/25.4,)</f>
-        <v>6.37969199200787</v>
+        <v>#N/A</v>
       </c>
       <c r="S91" s="4" t="e">
         <f aca="false">IF(P91&gt;0,P$135-P91,"")</f>
@@ -9192,28 +9661,28 @@
         <v>set_property PACKAGE_PIN V1 [get_ports {HDMI_D0-}]
 set_property IOSTANDARD LVTTL [get_ports {HDMI_D0-}]</v>
       </c>
-      <c r="V91" s="31" t="e">
-        <f aca="false">IF(AND(K91&lt;&gt;"",K91&lt;&gt;"+3v3",K91&lt;&gt;"GND",NOT(ISNA(P91)),NOT(ISNA(N91))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S91/$V$7,"0.000")," [get_ports {",K91,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S91/$W$7,"0.000")," [get_ports {",K91,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W91" s="31" t="e">
-        <f aca="false">IF(AND(K91&lt;&gt;"",K91&lt;&gt;"+3v3",K91&lt;&gt;"GND",NOT(ISNA(P91)),NOT(ISNA(N91))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P91/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K91,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P91/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K91,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y91" s="7" t="e">
+      <c r="V91" s="31" t="str">
+        <f aca="false">IF(AND(K91&lt;&gt;"",K91&lt;&gt;"+3v3",K91&lt;&gt;"GND",NOT(ISNA(P91)),NOT(ISNA(N91))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S91/$V$7,"0.000")," [get_ports {",K91,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S91/$W$7,"0.000")," [get_ports {",K91,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W91" s="31" t="str">
+        <f aca="false">IF(AND(K91&lt;&gt;"",K91&lt;&gt;"+3v3",K91&lt;&gt;"GND",NOT(ISNA(P91)),NOT(ISNA(N91))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P91/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K91,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P91/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K91,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y91" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T91="IO",T91="I"),V91,""),IF(OR(T91="IO",T91="O"),W91,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB91" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB91" s="0" t="e">
         <f aca="false">$AA$80-P91</f>
-        <v>0.000997866999995267</v>
+        <v>#N/A</v>
       </c>
       <c r="AC91" s="0" t="n">
         <v>115.136</v>
       </c>
-      <c r="AD91" s="0" t="n">
+      <c r="AD91" s="0" t="e">
         <f aca="false">AC91+AB91</f>
-        <v>115.136997867</v>
+        <v>#N/A</v>
       </c>
       <c r="AE91" s="0" t="str">
         <f aca="false">H91</f>
@@ -9257,19 +9726,22 @@
         <f aca="false">VLOOKUP(A92,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>23.26</v>
       </c>
-      <c r="N92" s="4" t="n">
+      <c r="N92" s="4" t="e">
         <f aca="false">VLOOKUP(K92,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>138.78363642</v>
-      </c>
-      <c r="P92" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P92" s="4" t="e">
         <f aca="false">IF(AND(M92&gt;0,N92&gt;0),M92+N92, "N/A")</f>
-        <v>162.04363642</v>
-      </c>
-      <c r="Q92" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q92" s="29" t="e">
         <f aca="false">IF(P92&gt;0,P92/25.4,)</f>
-        <v>6.37967072519685</v>
-      </c>
-      <c r="S92" s="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S92" s="4" t="e">
+        <f aca="false">IF(P92&gt;0,P$135-P92,"")</f>
+        <v>#N/A</v>
+      </c>
       <c r="T92" s="0" t="s">
         <v>36</v>
       </c>
@@ -9279,29 +9751,27 @@
 set_property IOSTANDARD LVTTL [get_ports {HDMI_D1-}]</v>
       </c>
       <c r="V92" s="31" t="str">
-        <f aca="false">IF(AND(K92&lt;&gt;"",K92&lt;&gt;"+3v3",K92&lt;&gt;"GND",NOT(ISNA(P92)),NOT(ISNA(N92))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S92/$V$7,"0.000")," [get_ports {",K92,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S92/$W$7,"0.000")," [get_ports {",K92,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {HDMI_D1-}]
-set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {HDMI_D1-}]
-</v>
-      </c>
-      <c r="W92" s="31" t="e">
-        <f aca="false">IF(AND(K92&lt;&gt;"",K92&lt;&gt;"+3v3",K92&lt;&gt;"GND",NOT(ISNA(P92)),NOT(ISNA(N92))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P92/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K92,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P92/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K92,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y92" s="7" t="e">
+        <f aca="false">IF(AND(K92&lt;&gt;"",K92&lt;&gt;"+3v3",K92&lt;&gt;"GND",NOT(ISNA(P92)),NOT(ISNA(N92))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S92/$V$7,"0.000")," [get_ports {",K92,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S92/$W$7,"0.000")," [get_ports {",K92,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W92" s="31" t="str">
+        <f aca="false">IF(AND(K92&lt;&gt;"",K92&lt;&gt;"+3v3",K92&lt;&gt;"GND",NOT(ISNA(P92)),NOT(ISNA(N92))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P92/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K92,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P92/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K92,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y92" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T92="IO",T92="I"),V92,""),IF(OR(T92="IO",T92="O"),W92,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB92" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB92" s="0" t="e">
         <f aca="false">$AA$80-P92</f>
-        <v>0.00153804400000013</v>
+        <v>#N/A</v>
       </c>
       <c r="AC92" s="0" t="n">
         <v>108.75</v>
       </c>
-      <c r="AD92" s="0" t="n">
+      <c r="AD92" s="0" t="e">
         <f aca="false">AC92+AB92</f>
-        <v>108.751538044</v>
+        <v>#N/A</v>
       </c>
       <c r="AE92" s="0" t="str">
         <f aca="false">H92</f>
@@ -9345,48 +9815,49 @@
         <f aca="false">VLOOKUP(A93,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>27.1</v>
       </c>
-      <c r="N93" s="4" t="n">
+      <c r="N93" s="4" t="e">
         <f aca="false">VLOOKUP(K93,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>134.945174464</v>
-      </c>
-      <c r="P93" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P93" s="4" t="e">
         <f aca="false">IF(AND(M93&gt;0,N93&gt;0),M93+N93, "N/A")</f>
-        <v>162.045174464</v>
-      </c>
-      <c r="Q93" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q93" s="29" t="e">
         <f aca="false">IF(P93&gt;0,P93/25.4,)</f>
-        <v>6.37973127811024</v>
-      </c>
-      <c r="S93" s="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S93" s="4" t="e">
+        <f aca="false">IF(P93&gt;0,P$135-P93,"")</f>
+        <v>#N/A</v>
+      </c>
       <c r="U93" s="30" t="str">
         <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D93," [get_ports {",K93,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K93,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U1 [get_ports {HDMI_D0+}]
 set_property IOSTANDARD LVTTL [get_ports {HDMI_D0+}]</v>
       </c>
       <c r="V93" s="31" t="str">
-        <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND",NOT(ISNA(P93)),NOT(ISNA(N93))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S93/$V$7,"0.000")," [get_ports {",K93,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S93/$W$7,"0.000")," [get_ports {",K93,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {HDMI_D0+}]
-set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {HDMI_D0+}]
-</v>
-      </c>
-      <c r="W93" s="31" t="e">
-        <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND",NOT(ISNA(P93)),NOT(ISNA(N93))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P93/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K93,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P93/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K93,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+        <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND",NOT(ISNA(P93)),NOT(ISNA(N93))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S93/$V$7,"0.000")," [get_ports {",K93,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S93/$W$7,"0.000")," [get_ports {",K93,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W93" s="31" t="str">
+        <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND",NOT(ISNA(P93)),NOT(ISNA(N93))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P93/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K93,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P93/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K93,"}]",CHAR(10)),"")</f>
+        <v/>
       </c>
       <c r="Y93" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T93="IO",T93="I"),V93,""),IF(OR(T93="IO",T93="O"),W93,""))</f>
         <v/>
       </c>
-      <c r="AB93" s="0" t="n">
+      <c r="AB93" s="0" t="e">
         <f aca="false">$AA$80-P93</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC93" s="0" t="n">
         <v>114.631</v>
       </c>
-      <c r="AD93" s="0" t="n">
+      <c r="AD93" s="0" t="e">
         <f aca="false">AC93+AB93</f>
-        <v>114.631</v>
+        <v>#N/A</v>
       </c>
       <c r="AE93" s="0" t="str">
         <f aca="false">H93</f>
@@ -9430,19 +9901,22 @@
         <f aca="false">VLOOKUP(A94,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>22.23</v>
       </c>
-      <c r="N94" s="4" t="n">
+      <c r="N94" s="4" t="e">
         <f aca="false">VLOOKUP(K94,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>139.813702343</v>
-      </c>
-      <c r="P94" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P94" s="4" t="e">
         <f aca="false">IF(AND(M94&gt;0,N94&gt;0),M94+N94, "N/A")</f>
-        <v>162.043702343</v>
-      </c>
-      <c r="Q94" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q94" s="29" t="e">
         <f aca="false">IF(P94&gt;0,P94/25.4,)</f>
-        <v>6.37967332059055</v>
-      </c>
-      <c r="S94" s="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S94" s="4" t="e">
+        <f aca="false">IF(P94&gt;0,P$135-P94,"")</f>
+        <v>#N/A</v>
+      </c>
       <c r="T94" s="0" t="s">
         <v>183</v>
       </c>
@@ -9452,31 +9926,27 @@
 set_property IOSTANDARD LVTTL [get_ports {HDMI_D1+}]</v>
       </c>
       <c r="V94" s="31" t="str">
-        <f aca="false">IF(AND(K94&lt;&gt;"",K94&lt;&gt;"+3v3",K94&lt;&gt;"GND",NOT(ISNA(P94)),NOT(ISNA(N94))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S94/$V$7,"0.000")," [get_ports {",K94,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S94/$W$7,"0.000")," [get_ports {",K94,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {HDMI_D1+}]
-set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {HDMI_D1+}]
-</v>
-      </c>
-      <c r="W94" s="31" t="e">
-        <f aca="false">IF(AND(K94&lt;&gt;"",K94&lt;&gt;"+3v3",K94&lt;&gt;"GND",NOT(ISNA(P94)),NOT(ISNA(N94))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P94/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K94,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P94/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K94,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+        <f aca="false">IF(AND(K94&lt;&gt;"",K94&lt;&gt;"+3v3",K94&lt;&gt;"GND",NOT(ISNA(P94)),NOT(ISNA(N94))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S94/$V$7,"0.000")," [get_ports {",K94,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S94/$W$7,"0.000")," [get_ports {",K94,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W94" s="31" t="str">
+        <f aca="false">IF(AND(K94&lt;&gt;"",K94&lt;&gt;"+3v3",K94&lt;&gt;"GND",NOT(ISNA(P94)),NOT(ISNA(N94))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P94/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K94,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P94/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K94,"}]",CHAR(10)),"")</f>
+        <v/>
       </c>
       <c r="Y94" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T94="IO",T94="I"),V94,""),IF(OR(T94="IO",T94="O"),W94,""))</f>
-        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {HDMI_D1+}]
-set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {HDMI_D1+}]
-</v>
-      </c>
-      <c r="AB94" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB94" s="0" t="e">
         <f aca="false">$AA$80-P94</f>
-        <v>0.00147212100000615</v>
+        <v>#N/A</v>
       </c>
       <c r="AC94" s="0" t="n">
         <v>108.245</v>
       </c>
-      <c r="AD94" s="0" t="n">
+      <c r="AD94" s="0" t="e">
         <f aca="false">AC94+AB94</f>
-        <v>108.246472121</v>
+        <v>#N/A</v>
       </c>
       <c r="AE94" s="0" t="str">
         <f aca="false">H94</f>
@@ -9522,48 +9992,49 @@
         <f aca="false">VLOOKUP(A95,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>24.45</v>
       </c>
-      <c r="N95" s="4" t="n">
+      <c r="N95" s="4" t="e">
         <f aca="false">VLOOKUP(K95,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>137.594798416</v>
-      </c>
-      <c r="P95" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P95" s="4" t="e">
         <f aca="false">IF(AND(M95&gt;0,N95&gt;0),M95+N95, "N/A")</f>
-        <v>162.044798416</v>
-      </c>
-      <c r="Q95" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q95" s="29" t="e">
         <f aca="false">IF(P95&gt;0,P95/25.4,)</f>
-        <v>6.37971647307087</v>
-      </c>
-      <c r="S95" s="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S95" s="4" t="e">
+        <f aca="false">IF(P95&gt;0,P$135-P95,"")</f>
+        <v>#N/A</v>
+      </c>
       <c r="U95" s="30" t="str">
         <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D95," [get_ports {",K95,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K95,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T3 [get_ports {HDMI_D2-}]
 set_property IOSTANDARD LVTTL [get_ports {HDMI_D2-}]</v>
       </c>
       <c r="V95" s="31" t="str">
-        <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND",NOT(ISNA(P95)),NOT(ISNA(N95))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S95/$V$7,"0.000")," [get_ports {",K95,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S95/$W$7,"0.000")," [get_ports {",K95,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {HDMI_D2-}]
-set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {HDMI_D2-}]
-</v>
-      </c>
-      <c r="W95" s="31" t="e">
-        <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND",NOT(ISNA(P95)),NOT(ISNA(N95))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P95/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K95,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P95/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K95,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+        <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND",NOT(ISNA(P95)),NOT(ISNA(N95))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S95/$V$7,"0.000")," [get_ports {",K95,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S95/$W$7,"0.000")," [get_ports {",K95,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W95" s="31" t="str">
+        <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND",NOT(ISNA(P95)),NOT(ISNA(N95))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P95/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K95,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P95/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K95,"}]",CHAR(10)),"")</f>
+        <v/>
       </c>
       <c r="Y95" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T95="IO",T95="I"),V95,""),IF(OR(T95="IO",T95="O"),W95,""))</f>
         <v/>
       </c>
-      <c r="AB95" s="0" t="n">
+      <c r="AB95" s="0" t="e">
         <f aca="false">$AA$80-P95</f>
-        <v>0.000376047999992579</v>
+        <v>#N/A</v>
       </c>
       <c r="AC95" s="0" t="n">
         <v>106.361</v>
       </c>
-      <c r="AD95" s="0" t="n">
+      <c r="AD95" s="0" t="e">
         <f aca="false">AC95+AB95</f>
-        <v>106.361376048</v>
+        <v>#N/A</v>
       </c>
       <c r="AE95" s="0" t="str">
         <f aca="false">H95</f>
@@ -9609,19 +10080,22 @@
         <f aca="false">VLOOKUP(A96,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>29.19</v>
       </c>
-      <c r="N96" s="4" t="n">
+      <c r="N96" s="4" t="e">
         <f aca="false">VLOOKUP(K96,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9661541214</v>
-      </c>
-      <c r="P96" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P96" s="4" t="e">
         <f aca="false">IF(AND(M96&gt;0,N96&gt;0),M96+N96, "N/A")</f>
-        <v>119.1561541214</v>
-      </c>
-      <c r="Q96" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q96" s="29" t="e">
         <f aca="false">IF(P96&gt;0,P96/25.4,)</f>
-        <v>4.69118717013386</v>
-      </c>
-      <c r="S96" s="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S96" s="4" t="e">
+        <f aca="false">IF(P96&gt;0,P$135-P96,"")</f>
+        <v>#N/A</v>
+      </c>
       <c r="T96" s="0" t="s">
         <v>183</v>
       </c>
@@ -9631,20 +10105,16 @@
 set_property IOSTANDARD LVTTL [get_ports {vga_clk }]</v>
       </c>
       <c r="V96" s="31" t="str">
-        <f aca="false">IF(AND(K96&lt;&gt;"",K96&lt;&gt;"+3v3",K96&lt;&gt;"GND",NOT(ISNA(P96)),NOT(ISNA(N96))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S96/$V$7,"0.000")," [get_ports {",K96,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S96/$W$7,"0.000")," [get_ports {",K96,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {vga_clk}]
-set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {vga_clk}]
-</v>
-      </c>
-      <c r="W96" s="31" t="e">
-        <f aca="false">IF(AND(K96&lt;&gt;"",K96&lt;&gt;"+3v3",K96&lt;&gt;"GND",NOT(ISNA(P96)),NOT(ISNA(N96))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P96/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K96,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P96/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K96,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+        <f aca="false">IF(AND(K96&lt;&gt;"",K96&lt;&gt;"+3v3",K96&lt;&gt;"GND",NOT(ISNA(P96)),NOT(ISNA(N96))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S96/$V$7,"0.000")," [get_ports {",K96,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S96/$W$7,"0.000")," [get_ports {",K96,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W96" s="31" t="str">
+        <f aca="false">IF(AND(K96&lt;&gt;"",K96&lt;&gt;"+3v3",K96&lt;&gt;"GND",NOT(ISNA(P96)),NOT(ISNA(N96))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P96/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K96,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P96/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K96,"}]",CHAR(10)),"")</f>
+        <v/>
       </c>
       <c r="Y96" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T96="IO",T96="I"),V96,""),IF(OR(T96="IO",T96="O"),W96,""))</f>
-        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {vga_clk}]
-set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {vga_clk}]
-</v>
+        <v/>
       </c>
       <c r="AG96" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K96,3)="LED",LEFT(K96,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D96,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K96),"")</f>
@@ -9684,19 +10154,22 @@
         <f aca="false">VLOOKUP(A97,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>23.76</v>
       </c>
-      <c r="N97" s="4" t="n">
+      <c r="N97" s="4" t="e">
         <f aca="false">VLOOKUP(K97,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>138.284849978</v>
-      </c>
-      <c r="P97" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P97" s="4" t="e">
         <f aca="false">IF(AND(M97&gt;0,N97&gt;0),M97+N97, "N/A")</f>
-        <v>162.044849978</v>
-      </c>
-      <c r="Q97" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q97" s="29" t="e">
         <f aca="false">IF(P97&gt;0,P97/25.4,)</f>
-        <v>6.37971850307087</v>
-      </c>
-      <c r="S97" s="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S97" s="4" t="e">
+        <f aca="false">IF(P97&gt;0,P$135-P97,"")</f>
+        <v>#N/A</v>
+      </c>
       <c r="T97" s="0" t="s">
         <v>62</v>
       </c>
@@ -9706,29 +10179,27 @@
 set_property IOSTANDARD LVTTL [get_ports {HDMI_D2+}]</v>
       </c>
       <c r="V97" s="31" t="str">
-        <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND",NOT(ISNA(P97)),NOT(ISNA(N97))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S97/$V$7,"0.000")," [get_ports {",K97,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S97/$W$7,"0.000")," [get_ports {",K97,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock SBUS_3V3_CLK -min 0.750 [get_ports {HDMI_D2+}]
-set_input_delay -clock SBUS_3V3_CLK -max 25.250 [get_ports {HDMI_D2+}]
-</v>
-      </c>
-      <c r="W97" s="31" t="e">
-        <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND",NOT(ISNA(P97)),NOT(ISNA(N97))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P97/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K97,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P97/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K97,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y97" s="7" t="e">
+        <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND",NOT(ISNA(P97)),NOT(ISNA(N97))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S97/$V$7,"0.000")," [get_ports {",K97,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S97/$W$7,"0.000")," [get_ports {",K97,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W97" s="31" t="str">
+        <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND",NOT(ISNA(P97)),NOT(ISNA(N97))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P97/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K97,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P97/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K97,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y97" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T97="IO",T97="I"),V97,""),IF(OR(T97="IO",T97="O"),W97,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB97" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB97" s="0" t="e">
         <f aca="false">$AA$80-P97</f>
-        <v>0.000324486000010893</v>
+        <v>#N/A</v>
       </c>
       <c r="AC97" s="0" t="n">
         <v>105.856</v>
       </c>
-      <c r="AD97" s="0" t="n">
+      <c r="AD97" s="0" t="e">
         <f aca="false">AC97+AB97</f>
-        <v>105.856324486</v>
+        <v>#N/A</v>
       </c>
       <c r="AE97" s="0" t="str">
         <f aca="false">H97</f>
@@ -9772,18 +10243,21 @@
         <f aca="false">IF(P98&gt;0,P98/25.4,)</f>
         <v>0</v>
       </c>
-      <c r="S98" s="0"/>
+      <c r="S98" s="4" t="str">
+        <f aca="false">IF(P98&gt;0,P$135-P98,"")</f>
+        <v/>
+      </c>
       <c r="U98" s="30" t="str">
         <f aca="false">IF(AND(K98&lt;&gt;"",K98&lt;&gt;"+3v3",K98&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D98," [get_ports {",K98,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K98,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN  [get_ports {0}]
 set_property IOSTANDARD LVTTL [get_ports {0}]</v>
       </c>
       <c r="V98" s="31" t="str">
-        <f aca="false">IF(AND(K98&lt;&gt;"",K98&lt;&gt;"+3v3",K98&lt;&gt;"GND",NOT(ISNA(P98)),NOT(ISNA(N98))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S98/$V$7,"0.000")," [get_ports {",K98,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S98/$W$7,"0.000")," [get_ports {",K98,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K98&lt;&gt;"",K98&lt;&gt;"+3v3",K98&lt;&gt;"GND",NOT(ISNA(P98)),NOT(ISNA(N98))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S98/$V$7,"0.000")," [get_ports {",K98,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S98/$W$7,"0.000")," [get_ports {",K98,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="W98" s="31" t="str">
-        <f aca="false">IF(AND(K98&lt;&gt;"",K98&lt;&gt;"+3v3",K98&lt;&gt;"GND",NOT(ISNA(P98)),NOT(ISNA(N98))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P98/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K98,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P98/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K98,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K98&lt;&gt;"",K98&lt;&gt;"+3v3",K98&lt;&gt;"GND",NOT(ISNA(P98)),NOT(ISNA(N98))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P98/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K98,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P98/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K98,"}]",CHAR(10)),"")</f>
         <v/>
       </c>
       <c r="Y98" s="7" t="str">
@@ -9831,17 +10305,20 @@
         <f aca="false">IF(P99&gt;0,P99/25.4,)</f>
         <v>0</v>
       </c>
-      <c r="S99" s="0"/>
+      <c r="S99" s="4" t="str">
+        <f aca="false">IF(P99&gt;0,P$135-P99,"")</f>
+        <v/>
+      </c>
       <c r="U99" s="30" t="e">
         <f aca="false">IF(AND(K99&lt;&gt;"",K99&lt;&gt;"+3v3",K99&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D99," [get_ports {",K99,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K99,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="V99" s="31" t="e">
-        <f aca="false">IF(AND(K99&lt;&gt;"",K99&lt;&gt;"+3v3",K99&lt;&gt;"GND",NOT(ISNA(P99)),NOT(ISNA(N99))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S99/$V$7,"0.000")," [get_ports {",K99,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S99/$W$7,"0.000")," [get_ports {",K99,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K99&lt;&gt;"",K99&lt;&gt;"+3v3",K99&lt;&gt;"GND",NOT(ISNA(P99)),NOT(ISNA(N99))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S99/$V$7,"0.000")," [get_ports {",K99,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S99/$W$7,"0.000")," [get_ports {",K99,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W99" s="31" t="e">
-        <f aca="false">IF(AND(K99&lt;&gt;"",K99&lt;&gt;"+3v3",K99&lt;&gt;"GND",NOT(ISNA(P99)),NOT(ISNA(N99))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P99/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K99,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P99/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K99,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K99&lt;&gt;"",K99&lt;&gt;"+3v3",K99&lt;&gt;"GND",NOT(ISNA(P99)),NOT(ISNA(N99))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P99/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K99,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P99/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K99,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y99" s="7" t="str">
@@ -9896,11 +10373,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V100" s="31" t="e">
-        <f aca="false">IF(AND(K100&lt;&gt;"",K100&lt;&gt;"+3v3",K100&lt;&gt;"GND",NOT(ISNA(P100)),NOT(ISNA(N100))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S100/$V$7,"0.000")," [get_ports {",K100,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S100/$W$7,"0.000")," [get_ports {",K100,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K100&lt;&gt;"",K100&lt;&gt;"+3v3",K100&lt;&gt;"GND",NOT(ISNA(P100)),NOT(ISNA(N100))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S100/$V$7,"0.000")," [get_ports {",K100,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S100/$W$7,"0.000")," [get_ports {",K100,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W100" s="31" t="e">
-        <f aca="false">IF(AND(K100&lt;&gt;"",K100&lt;&gt;"+3v3",K100&lt;&gt;"GND",NOT(ISNA(P100)),NOT(ISNA(N100))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P100/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K100,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P100/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K100,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K100&lt;&gt;"",K100&lt;&gt;"+3v3",K100&lt;&gt;"GND",NOT(ISNA(P100)),NOT(ISNA(N100))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P100/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K100,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P100/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K100,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y100" s="7" t="str">
@@ -9955,11 +10432,11 @@
         <v>#VALUE!</v>
       </c>
       <c r="V101" s="31" t="e">
-        <f aca="false">IF(AND(K101&lt;&gt;"",K101&lt;&gt;"+3v3",K101&lt;&gt;"GND",NOT(ISNA(P101)),NOT(ISNA(N101))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S101/$V$7,"0.000")," [get_ports {",K101,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S101/$W$7,"0.000")," [get_ports {",K101,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K101&lt;&gt;"",K101&lt;&gt;"+3v3",K101&lt;&gt;"GND",NOT(ISNA(P101)),NOT(ISNA(N101))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S101/$V$7,"0.000")," [get_ports {",K101,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S101/$W$7,"0.000")," [get_ports {",K101,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W101" s="31" t="e">
-        <f aca="false">IF(AND(K101&lt;&gt;"",K101&lt;&gt;"+3v3",K101&lt;&gt;"GND",NOT(ISNA(P101)),NOT(ISNA(N101))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P101/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K101,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P101/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K101,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K101&lt;&gt;"",K101&lt;&gt;"+3v3",K101&lt;&gt;"GND",NOT(ISNA(P101)),NOT(ISNA(N101))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P101/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K101,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P101/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K101,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y101" s="7" t="str">
@@ -10014,20 +10491,20 @@
         <v>#VALUE!</v>
       </c>
       <c r="V102" s="31" t="e">
-        <f aca="false">IF(AND(K102&lt;&gt;"",K102&lt;&gt;"+3v3",K102&lt;&gt;"GND",NOT(ISNA(P102)),NOT(ISNA(N102))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S102/$V$7,"0.000")," [get_ports {",K102,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S102/$W$7,"0.000")," [get_ports {",K102,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K102&lt;&gt;"",K102&lt;&gt;"+3v3",K102&lt;&gt;"GND",NOT(ISNA(P102)),NOT(ISNA(N102))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S102/$V$7,"0.000")," [get_ports {",K102,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S102/$W$7,"0.000")," [get_ports {",K102,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W102" s="31" t="e">
-        <f aca="false">IF(AND(K102&lt;&gt;"",K102&lt;&gt;"+3v3",K102&lt;&gt;"GND",NOT(ISNA(P102)),NOT(ISNA(N102))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P102/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K102,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P102/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K102,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K102&lt;&gt;"",K102&lt;&gt;"+3v3",K102&lt;&gt;"GND",NOT(ISNA(P102)),NOT(ISNA(N102))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P102/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K102,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P102/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K102,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y102" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T102="IO",T102="I"),V102,""),IF(OR(T102="IO",T102="O"),W102,""))</f>
         <v/>
       </c>
-      <c r="AA102" s="0" t="n">
+      <c r="AA102" s="0" t="e">
         <f aca="false">MIN(P104:P127,P96)</f>
-        <v>98.8235085154</v>
+        <v>#N/A</v>
       </c>
       <c r="AG102" s="8" t="e">
         <f aca="false">IF(OR(LEFT(K102,3)="LED",LEFT(K102,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D102,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K102),"")</f>
@@ -10077,20 +10554,20 @@
         <v>#VALUE!</v>
       </c>
       <c r="V103" s="31" t="e">
-        <f aca="false">IF(AND(K103&lt;&gt;"",K103&lt;&gt;"+3v3",K103&lt;&gt;"GND",NOT(ISNA(P103)),NOT(ISNA(N103))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S103/$V$7,"0.000")," [get_ports {",K103,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S103/$W$7,"0.000")," [get_ports {",K103,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K103&lt;&gt;"",K103&lt;&gt;"+3v3",K103&lt;&gt;"GND",NOT(ISNA(P103)),NOT(ISNA(N103))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S103/$V$7,"0.000")," [get_ports {",K103,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S103/$W$7,"0.000")," [get_ports {",K103,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="W103" s="31" t="e">
-        <f aca="false">IF(AND(K103&lt;&gt;"",K103&lt;&gt;"+3v3",K103&lt;&gt;"GND",NOT(ISNA(P103)),NOT(ISNA(N103))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P103/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K103,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P103/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K103,"}]",CHAR(10)),"")</f>
+        <f aca="false">IF(AND(K103&lt;&gt;"",K103&lt;&gt;"+3v3",K103&lt;&gt;"GND",NOT(ISNA(P103)),NOT(ISNA(N103))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P103/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K103,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P103/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K103,"}]",CHAR(10)),"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="Y103" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T103="IO",T103="I"),V103,""),IF(OR(T103="IO",T103="O"),W103,""))</f>
         <v/>
       </c>
-      <c r="AA103" s="0" t="n">
+      <c r="AA103" s="0" t="e">
         <f aca="false">MAX(P104:P127,P96)</f>
-        <v>119.1561541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AG103" s="8" t="e">
         <f aca="false">IF(OR(LEFT(K103,3)="LED",LEFT(K103,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D103,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K103),"")</f>
@@ -10130,17 +10607,17 @@
         <f aca="false">VLOOKUP(A104,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>15.66</v>
       </c>
-      <c r="N104" s="4" t="n">
+      <c r="N104" s="4" t="e">
         <f aca="false">VLOOKUP(K104,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9660621636</v>
-      </c>
-      <c r="P104" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P104" s="4" t="e">
         <f aca="false">IF(AND(M104&gt;0,N104&gt;0),M104+N104, "N/A")</f>
-        <v>105.6260621636</v>
-      </c>
-      <c r="Q104" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q104" s="29" t="e">
         <f aca="false">IF(P104&gt;0,P104/25.4,)</f>
-        <v>4.1585063843937</v>
+        <v>#N/A</v>
       </c>
       <c r="S104" s="4" t="e">
         <f aca="false">IF(P104&gt;0,P$135-P104,"")</f>
@@ -10154,29 +10631,29 @@
         <v>set_property PACKAGE_PIN N6 [get_ports {vga_b7 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b7 }]</v>
       </c>
-      <c r="V104" s="31" t="e">
-        <f aca="false">IF(AND(K104&lt;&gt;"",K104&lt;&gt;"+3v3",K104&lt;&gt;"GND",NOT(ISNA(P104)),NOT(ISNA(N104))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S104/$V$7,"0.000")," [get_ports {",K104,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S104/$W$7,"0.000")," [get_ports {",K104,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W104" s="31" t="e">
-        <f aca="false">IF(AND(K104&lt;&gt;"",K104&lt;&gt;"+3v3",K104&lt;&gt;"GND",NOT(ISNA(P104)),NOT(ISNA(N104))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P104/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K104,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P104/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K104,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y104" s="7" t="e">
+      <c r="V104" s="31" t="str">
+        <f aca="false">IF(AND(K104&lt;&gt;"",K104&lt;&gt;"+3v3",K104&lt;&gt;"GND",NOT(ISNA(P104)),NOT(ISNA(N104))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S104/$V$7,"0.000")," [get_ports {",K104,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S104/$W$7,"0.000")," [get_ports {",K104,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W104" s="31" t="str">
+        <f aca="false">IF(AND(K104&lt;&gt;"",K104&lt;&gt;"+3v3",K104&lt;&gt;"GND",NOT(ISNA(P104)),NOT(ISNA(N104))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P104/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K104,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P104/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K104,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y104" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T104="IO",T104="I"),V104,""),IF(OR(T104="IO",T104="O"),W104,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB104" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB104" s="0" t="e">
         <f aca="false">$AA$103-P104</f>
-        <v>13.5300919578</v>
-      </c>
-      <c r="AC104" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC104" s="4" t="e">
         <f aca="false">N104</f>
-        <v>89.9660621636</v>
-      </c>
-      <c r="AD104" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD104" s="0" t="e">
         <f aca="false">AC104+AB104</f>
-        <v>103.4961541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE104" s="0" t="str">
         <f aca="false">H104</f>
@@ -10222,17 +10699,17 @@
         <f aca="false">VLOOKUP(A105,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>19.51</v>
       </c>
-      <c r="N105" s="4" t="n">
+      <c r="N105" s="4" t="e">
         <f aca="false">VLOOKUP(K105,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9660349391</v>
-      </c>
-      <c r="P105" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P105" s="4" t="e">
         <f aca="false">IF(AND(M105&gt;0,N105&gt;0),M105+N105, "N/A")</f>
-        <v>109.4760349391</v>
-      </c>
-      <c r="Q105" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q105" s="29" t="e">
         <f aca="false">IF(P105&gt;0,P105/25.4,)</f>
-        <v>4.3100801157126</v>
+        <v>#N/A</v>
       </c>
       <c r="S105" s="4" t="e">
         <f aca="false">IF(P105&gt;0,P$135-P105,"")</f>
@@ -10243,29 +10720,29 @@
         <v>set_property PACKAGE_PIN P5 [get_ports {vga_r0 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r0 }]</v>
       </c>
-      <c r="V105" s="31" t="e">
-        <f aca="false">IF(AND(K105&lt;&gt;"",K105&lt;&gt;"+3v3",K105&lt;&gt;"GND",NOT(ISNA(P105)),NOT(ISNA(N105))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S105/$V$7,"0.000")," [get_ports {",K105,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S105/$W$7,"0.000")," [get_ports {",K105,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W105" s="31" t="e">
-        <f aca="false">IF(AND(K105&lt;&gt;"",K105&lt;&gt;"+3v3",K105&lt;&gt;"GND",NOT(ISNA(P105)),NOT(ISNA(N105))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P105/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K105,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P105/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K105,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+      <c r="V105" s="31" t="str">
+        <f aca="false">IF(AND(K105&lt;&gt;"",K105&lt;&gt;"+3v3",K105&lt;&gt;"GND",NOT(ISNA(P105)),NOT(ISNA(N105))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S105/$V$7,"0.000")," [get_ports {",K105,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S105/$W$7,"0.000")," [get_ports {",K105,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W105" s="31" t="str">
+        <f aca="false">IF(AND(K105&lt;&gt;"",K105&lt;&gt;"+3v3",K105&lt;&gt;"GND",NOT(ISNA(P105)),NOT(ISNA(N105))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P105/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K105,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P105/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K105,"}]",CHAR(10)),"")</f>
+        <v/>
       </c>
       <c r="Y105" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T105="IO",T105="I"),V105,""),IF(OR(T105="IO",T105="O"),W105,""))</f>
         <v/>
       </c>
-      <c r="AB105" s="0" t="n">
+      <c r="AB105" s="0" t="e">
         <f aca="false">$AA$103-P105</f>
-        <v>9.68011918229999</v>
-      </c>
-      <c r="AC105" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC105" s="4" t="e">
         <f aca="false">N105</f>
-        <v>89.9660349391</v>
-      </c>
-      <c r="AD105" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD105" s="0" t="e">
         <f aca="false">AC105+AB105</f>
-        <v>99.6461541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE105" s="0" t="str">
         <f aca="false">H105</f>
@@ -10309,17 +10786,17 @@
         <f aca="false">VLOOKUP(A106,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>13.54</v>
       </c>
-      <c r="N106" s="4" t="n">
+      <c r="N106" s="4" t="e">
         <f aca="false">VLOOKUP(K106,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9660684757</v>
-      </c>
-      <c r="P106" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P106" s="4" t="e">
         <f aca="false">IF(AND(M106&gt;0,N106&gt;0),M106+N106, "N/A")</f>
-        <v>103.5060684757</v>
-      </c>
-      <c r="Q106" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q106" s="29" t="e">
         <f aca="false">IF(P106&gt;0,P106/25.4,)</f>
-        <v>4.07504206597244</v>
+        <v>#N/A</v>
       </c>
       <c r="S106" s="4" t="e">
         <f aca="false">IF(P106&gt;0,P$135-P106,"")</f>
@@ -10333,29 +10810,29 @@
         <v>set_property PACKAGE_PIN M6 [get_ports {vga_b6 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b6 }]</v>
       </c>
-      <c r="V106" s="31" t="e">
-        <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S106/$V$7,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S106/$W$7,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W106" s="31" t="e">
-        <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P106/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P106/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y106" s="7" t="e">
+      <c r="V106" s="31" t="str">
+        <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S106/$V$7,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S106/$W$7,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W106" s="31" t="str">
+        <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P106/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P106/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y106" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T106="IO",T106="I"),V106,""),IF(OR(T106="IO",T106="O"),W106,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB106" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB106" s="0" t="e">
         <f aca="false">$AA$103-P106</f>
-        <v>15.6500856457</v>
-      </c>
-      <c r="AC106" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC106" s="4" t="e">
         <f aca="false">N106</f>
-        <v>89.9660684757</v>
-      </c>
-      <c r="AD106" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD106" s="0" t="e">
         <f aca="false">AC106+AB106</f>
-        <v>105.6161541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE106" s="0" t="str">
         <f aca="false">H106</f>
@@ -10401,17 +10878,17 @@
         <f aca="false">VLOOKUP(A107,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>17.59</v>
       </c>
-      <c r="N107" s="4" t="n">
+      <c r="N107" s="4" t="e">
         <f aca="false">VLOOKUP(K107,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>90.1710891011</v>
-      </c>
-      <c r="P107" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P107" s="4" t="e">
         <f aca="false">IF(AND(M107&gt;0,N107&gt;0),M107+N107, "N/A")</f>
-        <v>107.7610891011</v>
-      </c>
-      <c r="Q107" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q107" s="29" t="e">
         <f aca="false">IF(P107&gt;0,P107/25.4,)</f>
-        <v>4.24256256303543</v>
+        <v>#N/A</v>
       </c>
       <c r="S107" s="4" t="e">
         <f aca="false">IF(P107&gt;0,P$135-P107,"")</f>
@@ -10425,29 +10902,29 @@
         <v>set_property PACKAGE_PIN N5 [get_ports {vga_r1 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r1 }]</v>
       </c>
-      <c r="V107" s="31" t="e">
-        <f aca="false">IF(AND(K107&lt;&gt;"",K107&lt;&gt;"+3v3",K107&lt;&gt;"GND",NOT(ISNA(P107)),NOT(ISNA(N107))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S107/$V$7,"0.000")," [get_ports {",K107,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S107/$W$7,"0.000")," [get_ports {",K107,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W107" s="31" t="e">
-        <f aca="false">IF(AND(K107&lt;&gt;"",K107&lt;&gt;"+3v3",K107&lt;&gt;"GND",NOT(ISNA(P107)),NOT(ISNA(N107))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P107/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K107,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P107/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K107,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y107" s="7" t="e">
+      <c r="V107" s="31" t="str">
+        <f aca="false">IF(AND(K107&lt;&gt;"",K107&lt;&gt;"+3v3",K107&lt;&gt;"GND",NOT(ISNA(P107)),NOT(ISNA(N107))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S107/$V$7,"0.000")," [get_ports {",K107,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S107/$W$7,"0.000")," [get_ports {",K107,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W107" s="31" t="str">
+        <f aca="false">IF(AND(K107&lt;&gt;"",K107&lt;&gt;"+3v3",K107&lt;&gt;"GND",NOT(ISNA(P107)),NOT(ISNA(N107))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P107/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K107,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P107/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K107,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y107" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T107="IO",T107="I"),V107,""),IF(OR(T107="IO",T107="O"),W107,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB107" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB107" s="0" t="e">
         <f aca="false">$AA$103-P107</f>
-        <v>11.3950650203</v>
-      </c>
-      <c r="AC107" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC107" s="4" t="e">
         <f aca="false">N107</f>
-        <v>90.1710891011</v>
-      </c>
-      <c r="AD107" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD107" s="0" t="e">
         <f aca="false">AC107+AB107</f>
-        <v>101.5661541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE107" s="0" t="str">
         <f aca="false">H107</f>
@@ -10491,17 +10968,17 @@
         <f aca="false">VLOOKUP(A108,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>13.92</v>
       </c>
-      <c r="N108" s="4" t="n">
+      <c r="N108" s="4" t="e">
         <f aca="false">VLOOKUP(K108,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9263480229</v>
-      </c>
-      <c r="P108" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P108" s="4" t="e">
         <f aca="false">IF(AND(M108&gt;0,N108&gt;0),M108+N108, "N/A")</f>
-        <v>103.8463480229</v>
-      </c>
-      <c r="Q108" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q108" s="29" t="e">
         <f aca="false">IF(P108&gt;0,P108/25.4,)</f>
-        <v>4.08843889853937</v>
+        <v>#N/A</v>
       </c>
       <c r="S108" s="4" t="e">
         <f aca="false">IF(P108&gt;0,P$135-P108,"")</f>
@@ -10515,29 +10992,29 @@
         <v>set_property PACKAGE_PIN L6 [get_ports {vga_b5 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b5 }]</v>
       </c>
-      <c r="V108" s="31" t="e">
-        <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S108/$V$7,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S108/$W$7,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W108" s="31" t="e">
-        <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P108/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P108/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y108" s="7" t="e">
+      <c r="V108" s="31" t="str">
+        <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S108/$V$7,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S108/$W$7,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W108" s="31" t="str">
+        <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P108/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P108/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y108" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T108="IO",T108="I"),V108,""),IF(OR(T108="IO",T108="O"),W108,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB108" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB108" s="0" t="e">
         <f aca="false">$AA$103-P108</f>
-        <v>15.3098060985</v>
-      </c>
-      <c r="AC108" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC108" s="4" t="e">
         <f aca="false">N108</f>
-        <v>89.9263480229</v>
-      </c>
-      <c r="AD108" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD108" s="0" t="e">
         <f aca="false">AC108+AB108</f>
-        <v>105.2361541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE108" s="0" t="str">
         <f aca="false">H108</f>
@@ -10583,17 +11060,17 @@
         <f aca="false">VLOOKUP(A109,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>14.73</v>
       </c>
-      <c r="N109" s="4" t="n">
+      <c r="N109" s="4" t="e">
         <f aca="false">VLOOKUP(K109,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9660466871</v>
-      </c>
-      <c r="P109" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P109" s="4" t="e">
         <f aca="false">IF(AND(M109&gt;0,N109&gt;0),M109+N109, "N/A")</f>
-        <v>104.6960466871</v>
-      </c>
-      <c r="Q109" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q109" s="29" t="e">
         <f aca="false">IF(P109&gt;0,P109/25.4,)</f>
-        <v>4.12189160185433</v>
+        <v>#N/A</v>
       </c>
       <c r="S109" s="4" t="e">
         <f aca="false">IF(P109&gt;0,P$135-P109,"")</f>
@@ -10604,29 +11081,29 @@
         <v>set_property PACKAGE_PIN P4 [get_ports {vga_r2 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r2 }]</v>
       </c>
-      <c r="V109" s="31" t="e">
-        <f aca="false">IF(AND(K109&lt;&gt;"",K109&lt;&gt;"+3v3",K109&lt;&gt;"GND",NOT(ISNA(P109)),NOT(ISNA(N109))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S109/$V$7,"0.000")," [get_ports {",K109,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S109/$W$7,"0.000")," [get_ports {",K109,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W109" s="31" t="e">
-        <f aca="false">IF(AND(K109&lt;&gt;"",K109&lt;&gt;"+3v3",K109&lt;&gt;"GND",NOT(ISNA(P109)),NOT(ISNA(N109))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P109/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K109,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P109/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K109,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+      <c r="V109" s="31" t="str">
+        <f aca="false">IF(AND(K109&lt;&gt;"",K109&lt;&gt;"+3v3",K109&lt;&gt;"GND",NOT(ISNA(P109)),NOT(ISNA(N109))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S109/$V$7,"0.000")," [get_ports {",K109,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S109/$W$7,"0.000")," [get_ports {",K109,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W109" s="31" t="str">
+        <f aca="false">IF(AND(K109&lt;&gt;"",K109&lt;&gt;"+3v3",K109&lt;&gt;"GND",NOT(ISNA(P109)),NOT(ISNA(N109))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P109/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K109,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P109/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K109,"}]",CHAR(10)),"")</f>
+        <v/>
       </c>
       <c r="Y109" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T109="IO",T109="I"),V109,""),IF(OR(T109="IO",T109="O"),W109,""))</f>
         <v/>
       </c>
-      <c r="AB109" s="0" t="n">
+      <c r="AB109" s="0" t="e">
         <f aca="false">$AA$103-P109</f>
-        <v>14.4601074343</v>
-      </c>
-      <c r="AC109" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC109" s="4" t="e">
         <f aca="false">N109</f>
-        <v>89.9660466871</v>
-      </c>
-      <c r="AD109" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD109" s="0" t="e">
         <f aca="false">AC109+AB109</f>
-        <v>104.4261541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE109" s="0" t="str">
         <f aca="false">H109</f>
@@ -10672,17 +11149,17 @@
         <f aca="false">VLOOKUP(A110,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>10.82</v>
       </c>
-      <c r="N110" s="4" t="n">
+      <c r="N110" s="4" t="e">
         <f aca="false">VLOOKUP(K110,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9920206344</v>
-      </c>
-      <c r="P110" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P110" s="4" t="e">
         <f aca="false">IF(AND(M110&gt;0,N110&gt;0),M110+N110, "N/A")</f>
-        <v>100.8120206344</v>
-      </c>
-      <c r="Q110" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q110" s="29" t="e">
         <f aca="false">IF(P110&gt;0,P110/25.4,)</f>
-        <v>3.96897719033071</v>
+        <v>#N/A</v>
       </c>
       <c r="S110" s="4" t="e">
         <f aca="false">IF(P110&gt;0,P$135-P110,"")</f>
@@ -10696,29 +11173,29 @@
         <v>set_property PACKAGE_PIN L5 [get_ports {vga_b4 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b4 }]</v>
       </c>
-      <c r="V110" s="31" t="e">
-        <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S110/$V$7,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S110/$W$7,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W110" s="31" t="e">
-        <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P110/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P110/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y110" s="7" t="e">
+      <c r="V110" s="31" t="str">
+        <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S110/$V$7,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S110/$W$7,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W110" s="31" t="str">
+        <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P110/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P110/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y110" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T110="IO",T110="I"),V110,""),IF(OR(T110="IO",T110="O"),W110,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB110" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB110" s="0" t="e">
         <f aca="false">$AA$103-P110</f>
-        <v>18.344133487</v>
-      </c>
-      <c r="AC110" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC110" s="4" t="e">
         <f aca="false">N110</f>
-        <v>89.9920206344</v>
-      </c>
-      <c r="AD110" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD110" s="0" t="e">
         <f aca="false">AC110+AB110</f>
-        <v>108.3361541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE110" s="0" t="str">
         <f aca="false">H110</f>
@@ -10764,17 +11241,17 @@
         <f aca="false">VLOOKUP(A111,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>13.62</v>
       </c>
-      <c r="N111" s="4" t="n">
+      <c r="N111" s="4" t="e">
         <f aca="false">VLOOKUP(K111,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9846914763</v>
-      </c>
-      <c r="P111" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P111" s="4" t="e">
         <f aca="false">IF(AND(M111&gt;0,N111&gt;0),M111+N111, "N/A")</f>
-        <v>103.6046914763</v>
-      </c>
-      <c r="Q111" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q111" s="29" t="e">
         <f aca="false">IF(P111&gt;0,P111/25.4,)</f>
-        <v>4.07892486127165</v>
+        <v>#N/A</v>
       </c>
       <c r="S111" s="4" t="e">
         <f aca="false">IF(P111&gt;0,P$135-P111,"")</f>
@@ -10785,29 +11262,29 @@
         <v>set_property PACKAGE_PIN P3 [get_ports {vga_r3 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r3 }]</v>
       </c>
-      <c r="V111" s="31" t="e">
-        <f aca="false">IF(AND(K111&lt;&gt;"",K111&lt;&gt;"+3v3",K111&lt;&gt;"GND",NOT(ISNA(P111)),NOT(ISNA(N111))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S111/$V$7,"0.000")," [get_ports {",K111,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S111/$W$7,"0.000")," [get_ports {",K111,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W111" s="31" t="e">
-        <f aca="false">IF(AND(K111&lt;&gt;"",K111&lt;&gt;"+3v3",K111&lt;&gt;"GND",NOT(ISNA(P111)),NOT(ISNA(N111))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P111/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K111,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P111/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K111,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+      <c r="V111" s="31" t="str">
+        <f aca="false">IF(AND(K111&lt;&gt;"",K111&lt;&gt;"+3v3",K111&lt;&gt;"GND",NOT(ISNA(P111)),NOT(ISNA(N111))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S111/$V$7,"0.000")," [get_ports {",K111,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S111/$W$7,"0.000")," [get_ports {",K111,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W111" s="31" t="str">
+        <f aca="false">IF(AND(K111&lt;&gt;"",K111&lt;&gt;"+3v3",K111&lt;&gt;"GND",NOT(ISNA(P111)),NOT(ISNA(N111))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P111/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K111,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P111/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K111,"}]",CHAR(10)),"")</f>
+        <v/>
       </c>
       <c r="Y111" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T111="IO",T111="I"),V111,""),IF(OR(T111="IO",T111="O"),W111,""))</f>
         <v/>
       </c>
-      <c r="AB111" s="0" t="n">
+      <c r="AB111" s="0" t="e">
         <f aca="false">$AA$103-P111</f>
-        <v>15.5514626451</v>
-      </c>
-      <c r="AC111" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC111" s="4" t="e">
         <f aca="false">N111</f>
-        <v>89.9846914763</v>
-      </c>
-      <c r="AD111" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD111" s="0" t="e">
         <f aca="false">AC111+AB111</f>
-        <v>105.5361541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE111" s="0" t="str">
         <f aca="false">H111</f>
@@ -10851,17 +11328,17 @@
         <f aca="false">VLOOKUP(A112,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>8.85</v>
       </c>
-      <c r="N112" s="4" t="n">
+      <c r="N112" s="4" t="e">
         <f aca="false">VLOOKUP(K112,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9735085154</v>
-      </c>
-      <c r="P112" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P112" s="4" t="e">
         <f aca="false">IF(AND(M112&gt;0,N112&gt;0),M112+N112, "N/A")</f>
-        <v>98.8235085154</v>
-      </c>
-      <c r="Q112" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q112" s="29" t="e">
         <f aca="false">IF(P112&gt;0,P112/25.4,)</f>
-        <v>3.89068931162992</v>
+        <v>#N/A</v>
       </c>
       <c r="S112" s="4" t="e">
         <f aca="false">IF(P112&gt;0,P$135-P112,"")</f>
@@ -10875,29 +11352,29 @@
         <v>set_property PACKAGE_PIN N4 [get_ports {vga_b3 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b3 }]</v>
       </c>
-      <c r="V112" s="31" t="e">
-        <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S112/$V$7,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S112/$W$7,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W112" s="31" t="e">
-        <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P112/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P112/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y112" s="7" t="e">
+      <c r="V112" s="31" t="str">
+        <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S112/$V$7,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S112/$W$7,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W112" s="31" t="str">
+        <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P112/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P112/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y112" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T112="IO",T112="I"),V112,""),IF(OR(T112="IO",T112="O"),W112,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB112" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB112" s="0" t="e">
         <f aca="false">$AA$103-P112</f>
-        <v>20.332645606</v>
-      </c>
-      <c r="AC112" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC112" s="4" t="e">
         <f aca="false">N112</f>
-        <v>89.9735085154</v>
-      </c>
-      <c r="AD112" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD112" s="0" t="e">
         <f aca="false">AC112+AB112</f>
-        <v>110.3061541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE112" s="0" t="str">
         <f aca="false">H112</f>
@@ -10941,17 +11418,17 @@
         <f aca="false">VLOOKUP(A113,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>11.52</v>
       </c>
-      <c r="N113" s="4" t="n">
+      <c r="N113" s="4" t="e">
         <f aca="false">VLOOKUP(K113,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>90.0014674683</v>
-      </c>
-      <c r="P113" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P113" s="4" t="e">
         <f aca="false">IF(AND(M113&gt;0,N113&gt;0),M113+N113, "N/A")</f>
-        <v>101.5214674683</v>
-      </c>
-      <c r="Q113" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q113" s="29" t="e">
         <f aca="false">IF(P113&gt;0,P113/25.4,)</f>
-        <v>3.99690816804331</v>
+        <v>#N/A</v>
       </c>
       <c r="S113" s="4" t="e">
         <f aca="false">IF(P113&gt;0,P$135-P113,"")</f>
@@ -10962,29 +11439,29 @@
         <v>set_property PACKAGE_PIN T1 [get_ports {vga_r4 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r4 }]</v>
       </c>
-      <c r="V113" s="31" t="e">
-        <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND",NOT(ISNA(P113)),NOT(ISNA(N113))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S113/$V$7,"0.000")," [get_ports {",K113,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S113/$W$7,"0.000")," [get_ports {",K113,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W113" s="31" t="e">
-        <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND",NOT(ISNA(P113)),NOT(ISNA(N113))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P113/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K113,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P113/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K113,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+      <c r="V113" s="31" t="str">
+        <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND",NOT(ISNA(P113)),NOT(ISNA(N113))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S113/$V$7,"0.000")," [get_ports {",K113,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S113/$W$7,"0.000")," [get_ports {",K113,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W113" s="31" t="str">
+        <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND",NOT(ISNA(P113)),NOT(ISNA(N113))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P113/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K113,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P113/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K113,"}]",CHAR(10)),"")</f>
+        <v/>
       </c>
       <c r="Y113" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T113="IO",T113="I"),V113,""),IF(OR(T113="IO",T113="O"),W113,""))</f>
         <v/>
       </c>
-      <c r="AB113" s="0" t="n">
+      <c r="AB113" s="0" t="e">
         <f aca="false">$AA$103-P113</f>
-        <v>17.6346866531</v>
-      </c>
-      <c r="AC113" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC113" s="4" t="e">
         <f aca="false">N113</f>
-        <v>90.0014674683</v>
-      </c>
-      <c r="AD113" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD113" s="0" t="e">
         <f aca="false">AC113+AB113</f>
-        <v>107.6361541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE113" s="0" t="str">
         <f aca="false">H113</f>
@@ -11028,17 +11505,17 @@
         <f aca="false">VLOOKUP(A114,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>10.26</v>
       </c>
-      <c r="N114" s="4" t="n">
+      <c r="N114" s="4" t="e">
         <f aca="false">VLOOKUP(K114,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>90.0634455697</v>
-      </c>
-      <c r="P114" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P114" s="4" t="e">
         <f aca="false">IF(AND(M114&gt;0,N114&gt;0),M114+N114, "N/A")</f>
-        <v>100.3234455697</v>
-      </c>
-      <c r="Q114" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q114" s="29" t="e">
         <f aca="false">IF(P114&gt;0,P114/25.4,)</f>
-        <v>3.94974195156299</v>
+        <v>#N/A</v>
       </c>
       <c r="S114" s="4" t="e">
         <f aca="false">IF(P114&gt;0,P$135-P114,"")</f>
@@ -11052,29 +11529,29 @@
         <v>set_property PACKAGE_PIN M4 [get_ports {vga_b2 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b2 }]</v>
       </c>
-      <c r="V114" s="31" t="e">
-        <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S114/$V$7,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S114/$W$7,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W114" s="31" t="e">
-        <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P114/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P114/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y114" s="7" t="e">
+      <c r="V114" s="31" t="str">
+        <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S114/$V$7,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S114/$W$7,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W114" s="31" t="str">
+        <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P114/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P114/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y114" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T114="IO",T114="I"),V114,""),IF(OR(T114="IO",T114="O"),W114,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB114" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB114" s="0" t="e">
         <f aca="false">$AA$103-P114</f>
-        <v>18.8327085517</v>
-      </c>
-      <c r="AC114" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC114" s="4" t="e">
         <f aca="false">N114</f>
-        <v>90.0634455697</v>
-      </c>
-      <c r="AD114" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD114" s="0" t="e">
         <f aca="false">AC114+AB114</f>
-        <v>108.8961541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE114" s="0" t="str">
         <f aca="false">H114</f>
@@ -11118,17 +11595,17 @@
         <f aca="false">VLOOKUP(A115,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>12.91</v>
       </c>
-      <c r="N115" s="4" t="n">
+      <c r="N115" s="4" t="e">
         <f aca="false">VLOOKUP(K115,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9877136591</v>
-      </c>
-      <c r="P115" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P115" s="4" t="e">
         <f aca="false">IF(AND(M115&gt;0,N115&gt;0),M115+N115, "N/A")</f>
-        <v>102.8977136591</v>
-      </c>
-      <c r="Q115" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q115" s="29" t="e">
         <f aca="false">IF(P115&gt;0,P115/25.4,)</f>
-        <v>4.05109108894095</v>
+        <v>#N/A</v>
       </c>
       <c r="S115" s="4" t="e">
         <f aca="false">IF(P115&gt;0,P$135-P115,"")</f>
@@ -11139,29 +11616,29 @@
         <v>set_property PACKAGE_PIN R1 [get_ports {vga_r5 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r5 }]</v>
       </c>
-      <c r="V115" s="31" t="e">
-        <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND",NOT(ISNA(P115)),NOT(ISNA(N115))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S115/$V$7,"0.000")," [get_ports {",K115,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S115/$W$7,"0.000")," [get_ports {",K115,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W115" s="31" t="e">
-        <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND",NOT(ISNA(P115)),NOT(ISNA(N115))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P115/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K115,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P115/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K115,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
+      <c r="V115" s="31" t="str">
+        <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND",NOT(ISNA(P115)),NOT(ISNA(N115))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S115/$V$7,"0.000")," [get_ports {",K115,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S115/$W$7,"0.000")," [get_ports {",K115,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W115" s="31" t="str">
+        <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND",NOT(ISNA(P115)),NOT(ISNA(N115))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P115/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K115,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P115/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K115,"}]",CHAR(10)),"")</f>
+        <v/>
       </c>
       <c r="Y115" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T115="IO",T115="I"),V115,""),IF(OR(T115="IO",T115="O"),W115,""))</f>
         <v/>
       </c>
-      <c r="AB115" s="0" t="n">
+      <c r="AB115" s="0" t="e">
         <f aca="false">$AA$103-P115</f>
-        <v>16.2584404623</v>
-      </c>
-      <c r="AC115" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC115" s="4" t="e">
         <f aca="false">N115</f>
-        <v>89.9877136591</v>
-      </c>
-      <c r="AD115" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD115" s="0" t="e">
         <f aca="false">AC115+AB115</f>
-        <v>106.2461541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE115" s="0" t="str">
         <f aca="false">H115</f>
@@ -11205,17 +11682,17 @@
         <f aca="false">VLOOKUP(A116,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>10.34</v>
       </c>
-      <c r="N116" s="4" t="n">
+      <c r="N116" s="4" t="e">
         <f aca="false">VLOOKUP(K116,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9663012758</v>
-      </c>
-      <c r="P116" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P116" s="4" t="e">
         <f aca="false">IF(AND(M116&gt;0,N116&gt;0),M116+N116, "N/A")</f>
-        <v>100.3063012758</v>
-      </c>
-      <c r="Q116" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q116" s="29" t="e">
         <f aca="false">IF(P116&gt;0,P116/25.4,)</f>
-        <v>3.94906697936221</v>
+        <v>#N/A</v>
       </c>
       <c r="S116" s="4" t="e">
         <f aca="false">IF(P116&gt;0,P$135-P116,"")</f>
@@ -11229,29 +11706,29 @@
         <v>set_property PACKAGE_PIN M3 [get_ports {vga_b1 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b1 }]</v>
       </c>
-      <c r="V116" s="31" t="e">
-        <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S116/$V$7,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S116/$W$7,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W116" s="31" t="e">
-        <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P116/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P116/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y116" s="7" t="e">
+      <c r="V116" s="31" t="str">
+        <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S116/$V$7,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S116/$W$7,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W116" s="31" t="str">
+        <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P116/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P116/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y116" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T116="IO",T116="I"),V116,""),IF(OR(T116="IO",T116="O"),W116,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB116" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB116" s="0" t="e">
         <f aca="false">$AA$103-P116</f>
-        <v>18.8498528456</v>
-      </c>
-      <c r="AC116" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC116" s="4" t="e">
         <f aca="false">N116</f>
-        <v>89.9663012758</v>
-      </c>
-      <c r="AD116" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD116" s="0" t="e">
         <f aca="false">AC116+AB116</f>
-        <v>108.8161541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE116" s="0" t="str">
         <f aca="false">H116</f>
@@ -11295,17 +11772,17 @@
         <f aca="false">VLOOKUP(A117,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>14.18</v>
       </c>
-      <c r="N117" s="4" t="n">
+      <c r="N117" s="4" t="e">
         <f aca="false">VLOOKUP(K117,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.966189643</v>
-      </c>
-      <c r="P117" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P117" s="4" t="e">
         <f aca="false">IF(AND(M117&gt;0,N117&gt;0),M117+N117, "N/A")</f>
-        <v>104.146189643</v>
-      </c>
-      <c r="Q117" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q117" s="29" t="e">
         <f aca="false">IF(P117&gt;0,P117/25.4,)</f>
-        <v>4.10024368673228</v>
+        <v>#N/A</v>
       </c>
       <c r="S117" s="4" t="e">
         <f aca="false">IF(P117&gt;0,P$135-P117,"")</f>
@@ -11319,29 +11796,29 @@
         <v>set_property PACKAGE_PIN R2 [get_ports {vga_r6 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r6 }]</v>
       </c>
-      <c r="V117" s="31" t="e">
-        <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND",NOT(ISNA(P117)),NOT(ISNA(N117))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S117/$V$7,"0.000")," [get_ports {",K117,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S117/$W$7,"0.000")," [get_ports {",K117,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W117" s="31" t="e">
-        <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND",NOT(ISNA(P117)),NOT(ISNA(N117))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P117/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K117,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P117/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K117,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y117" s="7" t="e">
+      <c r="V117" s="31" t="str">
+        <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND",NOT(ISNA(P117)),NOT(ISNA(N117))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S117/$V$7,"0.000")," [get_ports {",K117,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S117/$W$7,"0.000")," [get_ports {",K117,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W117" s="31" t="str">
+        <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND",NOT(ISNA(P117)),NOT(ISNA(N117))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P117/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K117,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P117/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K117,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y117" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T117="IO",T117="I"),V117,""),IF(OR(T117="IO",T117="O"),W117,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB117" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB117" s="0" t="e">
         <f aca="false">$AA$103-P117</f>
-        <v>15.0099644784</v>
-      </c>
-      <c r="AC117" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC117" s="4" t="e">
         <f aca="false">N117</f>
-        <v>89.966189643</v>
-      </c>
-      <c r="AD117" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD117" s="0" t="e">
         <f aca="false">AC117+AB117</f>
-        <v>104.9761541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE117" s="0" t="str">
         <f aca="false">H117</f>
@@ -11385,17 +11862,17 @@
         <f aca="false">VLOOKUP(A118,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>10.91</v>
       </c>
-      <c r="N118" s="4" t="n">
+      <c r="N118" s="4" t="e">
         <f aca="false">VLOOKUP(K118,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9663338606</v>
-      </c>
-      <c r="P118" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P118" s="4" t="e">
         <f aca="false">IF(AND(M118&gt;0,N118&gt;0),M118+N118, "N/A")</f>
-        <v>100.8763338606</v>
-      </c>
-      <c r="Q118" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q118" s="29" t="e">
         <f aca="false">IF(P118&gt;0,P118/25.4,)</f>
-        <v>3.97150920711024</v>
+        <v>#N/A</v>
       </c>
       <c r="S118" s="4" t="e">
         <f aca="false">IF(P118&gt;0,P$135-P118,"")</f>
@@ -11409,29 +11886,29 @@
         <v>set_property PACKAGE_PIN M2 [get_ports {vga_b0 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_b0 }]</v>
       </c>
-      <c r="V118" s="31" t="e">
-        <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S118/$V$7,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S118/$W$7,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W118" s="31" t="e">
-        <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P118/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P118/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y118" s="7" t="e">
+      <c r="V118" s="31" t="str">
+        <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S118/$V$7,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S118/$W$7,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W118" s="31" t="str">
+        <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P118/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P118/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y118" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T118="IO",T118="I"),V118,""),IF(OR(T118="IO",T118="O"),W118,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB118" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB118" s="0" t="e">
         <f aca="false">$AA$103-P118</f>
-        <v>18.2798202608</v>
-      </c>
-      <c r="AC118" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC118" s="4" t="e">
         <f aca="false">N118</f>
-        <v>89.9663338606</v>
-      </c>
-      <c r="AD118" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD118" s="0" t="e">
         <f aca="false">AC118+AB118</f>
-        <v>108.2461541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE118" s="0" t="str">
         <f aca="false">H118</f>
@@ -11475,17 +11952,17 @@
         <f aca="false">VLOOKUP(A119,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>15.93</v>
       </c>
-      <c r="N119" s="4" t="n">
+      <c r="N119" s="4" t="e">
         <f aca="false">VLOOKUP(K119,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9662895757</v>
-      </c>
-      <c r="P119" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P119" s="4" t="e">
         <f aca="false">IF(AND(M119&gt;0,N119&gt;0),M119+N119, "N/A")</f>
-        <v>105.8962895757</v>
-      </c>
-      <c r="Q119" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q119" s="29" t="e">
         <f aca="false">IF(P119&gt;0,P119/25.4,)</f>
-        <v>4.16914525888583</v>
+        <v>#N/A</v>
       </c>
       <c r="S119" s="4" t="e">
         <f aca="false">IF(P119&gt;0,P$135-P119,"")</f>
@@ -11499,29 +11976,29 @@
         <v>set_property PACKAGE_PIN P2 [get_ports {vga_r7 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_r7 }]</v>
       </c>
-      <c r="V119" s="31" t="e">
-        <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND",NOT(ISNA(P119)),NOT(ISNA(N119))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S119/$V$7,"0.000")," [get_ports {",K119,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S119/$W$7,"0.000")," [get_ports {",K119,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W119" s="31" t="e">
-        <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND",NOT(ISNA(P119)),NOT(ISNA(N119))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P119/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K119,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P119/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K119,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y119" s="7" t="e">
+      <c r="V119" s="31" t="str">
+        <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND",NOT(ISNA(P119)),NOT(ISNA(N119))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S119/$V$7,"0.000")," [get_ports {",K119,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S119/$W$7,"0.000")," [get_ports {",K119,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W119" s="31" t="str">
+        <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND",NOT(ISNA(P119)),NOT(ISNA(N119))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P119/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K119,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P119/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K119,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y119" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T119="IO",T119="I"),V119,""),IF(OR(T119="IO",T119="O"),W119,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB119" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB119" s="0" t="e">
         <f aca="false">$AA$103-P119</f>
-        <v>13.2598645457</v>
-      </c>
-      <c r="AC119" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC119" s="4" t="e">
         <f aca="false">N119</f>
-        <v>89.9662895757</v>
-      </c>
-      <c r="AD119" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD119" s="0" t="e">
         <f aca="false">AC119+AB119</f>
-        <v>103.2261541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE119" s="0" t="str">
         <f aca="false">H119</f>
@@ -11565,17 +12042,17 @@
         <f aca="false">VLOOKUP(A120,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>15.81</v>
       </c>
-      <c r="N120" s="4" t="n">
+      <c r="N120" s="4" t="e">
         <f aca="false">VLOOKUP(K120,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9664346582</v>
-      </c>
-      <c r="P120" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P120" s="4" t="e">
         <f aca="false">IF(AND(M120&gt;0,N120&gt;0),M120+N120, "N/A")</f>
-        <v>105.7764346582</v>
-      </c>
-      <c r="Q120" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q120" s="29" t="e">
         <f aca="false">IF(P120&gt;0,P120/25.4,)</f>
-        <v>4.16442656134646</v>
+        <v>#N/A</v>
       </c>
       <c r="S120" s="4" t="e">
         <f aca="false">IF(P120&gt;0,P$135-P120,"")</f>
@@ -11589,29 +12066,29 @@
         <v>set_property PACKAGE_PIN K5 [get_ports {vga_g7 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g7 }]</v>
       </c>
-      <c r="V120" s="31" t="e">
-        <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S120/$V$7,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S120/$W$7,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W120" s="31" t="e">
-        <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P120/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P120/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y120" s="7" t="e">
+      <c r="V120" s="31" t="str">
+        <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S120/$V$7,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S120/$W$7,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W120" s="31" t="str">
+        <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P120/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P120/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y120" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T120="IO",T120="I"),V120,""),IF(OR(T120="IO",T120="O"),W120,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB120" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB120" s="0" t="e">
         <f aca="false">$AA$103-P120</f>
-        <v>13.3797194632</v>
-      </c>
-      <c r="AC120" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC120" s="4" t="e">
         <f aca="false">N120</f>
-        <v>89.9664346582</v>
-      </c>
-      <c r="AD120" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD120" s="0" t="e">
         <f aca="false">AC120+AB120</f>
-        <v>103.3461541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE120" s="0" t="str">
         <f aca="false">H120</f>
@@ -11655,17 +12132,17 @@
         <f aca="false">VLOOKUP(A121,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>17.29</v>
       </c>
-      <c r="N121" s="4" t="n">
+      <c r="N121" s="4" t="e">
         <f aca="false">VLOOKUP(K121,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9663802188</v>
-      </c>
-      <c r="P121" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P121" s="4" t="e">
         <f aca="false">IF(AND(M121&gt;0,N121&gt;0),M121+N121, "N/A")</f>
-        <v>107.2563802188</v>
-      </c>
-      <c r="Q121" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q121" s="29" t="e">
         <f aca="false">IF(P121&gt;0,P121/25.4,)</f>
-        <v>4.22269213459843</v>
+        <v>#N/A</v>
       </c>
       <c r="S121" s="4" t="e">
         <f aca="false">IF(P121&gt;0,P$135-P121,"")</f>
@@ -11679,29 +12156,29 @@
         <v>set_property PACKAGE_PIN N2 [get_ports {vga_g0 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g0 }]</v>
       </c>
-      <c r="V121" s="31" t="e">
-        <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND",NOT(ISNA(P121)),NOT(ISNA(N121))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S121/$V$7,"0.000")," [get_ports {",K121,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S121/$W$7,"0.000")," [get_ports {",K121,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W121" s="31" t="e">
-        <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND",NOT(ISNA(P121)),NOT(ISNA(N121))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P121/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K121,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P121/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K121,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y121" s="7" t="e">
+      <c r="V121" s="31" t="str">
+        <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND",NOT(ISNA(P121)),NOT(ISNA(N121))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S121/$V$7,"0.000")," [get_ports {",K121,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S121/$W$7,"0.000")," [get_ports {",K121,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W121" s="31" t="str">
+        <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND",NOT(ISNA(P121)),NOT(ISNA(N121))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P121/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K121,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P121/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K121,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y121" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T121="IO",T121="I"),V121,""),IF(OR(T121="IO",T121="O"),W121,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB121" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB121" s="0" t="e">
         <f aca="false">$AA$103-P121</f>
-        <v>11.8997739026</v>
-      </c>
-      <c r="AC121" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC121" s="4" t="e">
         <f aca="false">N121</f>
-        <v>89.9663802188</v>
-      </c>
-      <c r="AD121" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD121" s="0" t="e">
         <f aca="false">AC121+AB121</f>
-        <v>101.8661541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE121" s="0" t="str">
         <f aca="false">H121</f>
@@ -11745,17 +12222,17 @@
         <f aca="false">VLOOKUP(A122,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>16.75</v>
       </c>
-      <c r="N122" s="4" t="n">
+      <c r="N122" s="4" t="e">
         <f aca="false">VLOOKUP(K122,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.96639308</v>
-      </c>
-      <c r="P122" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P122" s="4" t="e">
         <f aca="false">IF(AND(M122&gt;0,N122&gt;0),M122+N122, "N/A")</f>
-        <v>106.71639308</v>
-      </c>
-      <c r="Q122" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q122" s="29" t="e">
         <f aca="false">IF(P122&gt;0,P122/25.4,)</f>
-        <v>4.2014327984252</v>
+        <v>#N/A</v>
       </c>
       <c r="S122" s="4" t="e">
         <f aca="false">IF(P122&gt;0,P$135-P122,"")</f>
@@ -11769,29 +12246,29 @@
         <v>set_property PACKAGE_PIN L4 [get_ports {vga_g6 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g6 }]</v>
       </c>
-      <c r="V122" s="31" t="e">
-        <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S122/$V$7,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S122/$W$7,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W122" s="31" t="e">
-        <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P122/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P122/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y122" s="7" t="e">
+      <c r="V122" s="31" t="str">
+        <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S122/$V$7,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S122/$W$7,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W122" s="31" t="str">
+        <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P122/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P122/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y122" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T122="IO",T122="I"),V122,""),IF(OR(T122="IO",T122="O"),W122,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB122" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB122" s="0" t="e">
         <f aca="false">$AA$103-P122</f>
-        <v>12.4397610414</v>
-      </c>
-      <c r="AC122" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC122" s="4" t="e">
         <f aca="false">N122</f>
-        <v>89.96639308</v>
-      </c>
-      <c r="AD122" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD122" s="0" t="e">
         <f aca="false">AC122+AB122</f>
-        <v>102.4061541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE122" s="0" t="str">
         <f aca="false">H122</f>
@@ -11835,17 +12312,17 @@
         <f aca="false">VLOOKUP(A123,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>18.35</v>
       </c>
-      <c r="N123" s="4" t="n">
+      <c r="N123" s="4" t="e">
         <f aca="false">VLOOKUP(K123,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9663146182</v>
-      </c>
-      <c r="P123" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P123" s="4" t="e">
         <f aca="false">IF(AND(M123&gt;0,N123&gt;0),M123+N123, "N/A")</f>
-        <v>108.3163146182</v>
-      </c>
-      <c r="Q123" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q123" s="29" t="e">
         <f aca="false">IF(P123&gt;0,P123/25.4,)</f>
-        <v>4.26442183536221</v>
+        <v>#N/A</v>
       </c>
       <c r="S123" s="4" t="e">
         <f aca="false">IF(P123&gt;0,P$135-P123,"")</f>
@@ -11859,29 +12336,29 @@
         <v>set_property PACKAGE_PIN N1 [get_ports {vga_g1 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g1 }]</v>
       </c>
-      <c r="V123" s="31" t="e">
-        <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND",NOT(ISNA(P123)),NOT(ISNA(N123))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S123/$V$7,"0.000")," [get_ports {",K123,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S123/$W$7,"0.000")," [get_ports {",K123,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W123" s="31" t="e">
-        <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND",NOT(ISNA(P123)),NOT(ISNA(N123))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P123/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K123,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P123/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K123,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y123" s="7" t="e">
+      <c r="V123" s="31" t="str">
+        <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND",NOT(ISNA(P123)),NOT(ISNA(N123))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S123/$V$7,"0.000")," [get_ports {",K123,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S123/$W$7,"0.000")," [get_ports {",K123,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W123" s="31" t="str">
+        <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND",NOT(ISNA(P123)),NOT(ISNA(N123))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P123/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K123,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P123/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K123,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y123" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T123="IO",T123="I"),V123,""),IF(OR(T123="IO",T123="O"),W123,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB123" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB123" s="0" t="e">
         <f aca="false">$AA$103-P123</f>
-        <v>10.8398395032</v>
-      </c>
-      <c r="AC123" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC123" s="4" t="e">
         <f aca="false">N123</f>
-        <v>89.9663146182</v>
-      </c>
-      <c r="AD123" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD123" s="0" t="e">
         <f aca="false">AC123+AB123</f>
-        <v>100.8061541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE123" s="0" t="str">
         <f aca="false">H123</f>
@@ -11925,17 +12402,17 @@
         <f aca="false">VLOOKUP(A124,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>18.52</v>
       </c>
-      <c r="N124" s="4" t="n">
+      <c r="N124" s="4" t="e">
         <f aca="false">VLOOKUP(K124,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9908174743</v>
-      </c>
-      <c r="P124" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P124" s="4" t="e">
         <f aca="false">IF(AND(M124&gt;0,N124&gt;0),M124+N124, "N/A")</f>
-        <v>108.5108174743</v>
-      </c>
-      <c r="Q124" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q124" s="29" t="e">
         <f aca="false">IF(P124&gt;0,P124/25.4,)</f>
-        <v>4.27207942812205</v>
+        <v>#N/A</v>
       </c>
       <c r="S124" s="4" t="e">
         <f aca="false">IF(P124&gt;0,P$135-P124,"")</f>
@@ -11949,29 +12426,29 @@
         <v>set_property PACKAGE_PIN L3 [get_ports {vga_g4 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g4 }]</v>
       </c>
-      <c r="V124" s="31" t="e">
-        <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S124/$V$7,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S124/$W$7,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W124" s="31" t="e">
-        <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P124/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P124/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y124" s="7" t="e">
+      <c r="V124" s="31" t="str">
+        <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S124/$V$7,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S124/$W$7,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W124" s="31" t="str">
+        <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P124/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P124/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y124" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T124="IO",T124="I"),V124,""),IF(OR(T124="IO",T124="O"),W124,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB124" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB124" s="0" t="e">
         <f aca="false">$AA$103-P124</f>
-        <v>10.6453366471</v>
-      </c>
-      <c r="AC124" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC124" s="4" t="e">
         <f aca="false">N124</f>
-        <v>89.9908174743</v>
-      </c>
-      <c r="AD124" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD124" s="0" t="e">
         <f aca="false">AC124+AB124</f>
-        <v>100.6361541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE124" s="0" t="str">
         <f aca="false">H124</f>
@@ -12015,17 +12492,17 @@
         <f aca="false">VLOOKUP(A125,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>20.28</v>
       </c>
-      <c r="N125" s="4" t="n">
+      <c r="N125" s="4" t="e">
         <f aca="false">VLOOKUP(K125,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9663319905</v>
-      </c>
-      <c r="P125" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P125" s="4" t="e">
         <f aca="false">IF(AND(M125&gt;0,N125&gt;0),M125+N125, "N/A")</f>
-        <v>110.2463319905</v>
-      </c>
-      <c r="Q125" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q125" s="29" t="e">
         <f aca="false">IF(P125&gt;0,P125/25.4,)</f>
-        <v>4.34040677127953</v>
+        <v>#N/A</v>
       </c>
       <c r="S125" s="4" t="e">
         <f aca="false">IF(P125&gt;0,P$135-P125,"")</f>
@@ -12039,29 +12516,29 @@
         <v>set_property PACKAGE_PIN M1 [get_ports {vga_g2 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g2 }]</v>
       </c>
-      <c r="V125" s="31" t="e">
-        <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND",NOT(ISNA(P125)),NOT(ISNA(N125))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S125/$V$7,"0.000")," [get_ports {",K125,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S125/$W$7,"0.000")," [get_ports {",K125,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W125" s="31" t="e">
-        <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND",NOT(ISNA(P125)),NOT(ISNA(N125))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P125/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K125,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P125/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K125,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y125" s="7" t="e">
+      <c r="V125" s="31" t="str">
+        <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND",NOT(ISNA(P125)),NOT(ISNA(N125))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S125/$V$7,"0.000")," [get_ports {",K125,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S125/$W$7,"0.000")," [get_ports {",K125,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W125" s="31" t="str">
+        <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND",NOT(ISNA(P125)),NOT(ISNA(N125))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P125/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K125,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P125/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K125,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y125" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T125="IO",T125="I"),V125,""),IF(OR(T125="IO",T125="O"),W125,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB125" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB125" s="0" t="e">
         <f aca="false">$AA$103-P125</f>
-        <v>8.90982213089998</v>
-      </c>
-      <c r="AC125" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC125" s="4" t="e">
         <f aca="false">N125</f>
-        <v>89.9663319905</v>
-      </c>
-      <c r="AD125" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD125" s="0" t="e">
         <f aca="false">AC125+AB125</f>
-        <v>98.8761541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE125" s="0" t="str">
         <f aca="false">H125</f>
@@ -12105,17 +12582,17 @@
         <f aca="false">VLOOKUP(A126,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>20.19</v>
       </c>
-      <c r="N126" s="4" t="n">
+      <c r="N126" s="4" t="e">
         <f aca="false">VLOOKUP(K126,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9663686488</v>
-      </c>
-      <c r="P126" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P126" s="4" t="e">
         <f aca="false">IF(AND(M126&gt;0,N126&gt;0),M126+N126, "N/A")</f>
-        <v>110.1563686488</v>
-      </c>
-      <c r="Q126" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q126" s="29" t="e">
         <f aca="false">IF(P126&gt;0,P126/25.4,)</f>
-        <v>4.33686490743307</v>
+        <v>#N/A</v>
       </c>
       <c r="S126" s="4" t="e">
         <f aca="false">IF(P126&gt;0,P$135-P126,"")</f>
@@ -12129,29 +12606,29 @@
         <v>set_property PACKAGE_PIN K3 [get_ports {vga_g5 }]
 set_property IOSTANDARD LVTTL [get_ports {vga_g5 }]</v>
       </c>
-      <c r="V126" s="31" t="e">
-        <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S126/$V$7,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S126/$W$7,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W126" s="31" t="e">
-        <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P126/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P126/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y126" s="7" t="e">
+      <c r="V126" s="31" t="str">
+        <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S126/$V$7,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S126/$W$7,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W126" s="31" t="str">
+        <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P126/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P126/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y126" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T126="IO",T126="I"),V126,""),IF(OR(T126="IO",T126="O"),W126,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB126" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB126" s="0" t="e">
         <f aca="false">$AA$103-P126</f>
-        <v>8.9997854726</v>
-      </c>
-      <c r="AC126" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC126" s="4" t="e">
         <f aca="false">N126</f>
-        <v>89.9663686488</v>
-      </c>
-      <c r="AD126" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD126" s="0" t="e">
         <f aca="false">AC126+AB126</f>
-        <v>98.9661541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE126" s="0" t="str">
         <f aca="false">H126</f>
@@ -12195,17 +12672,17 @@
         <f aca="false">VLOOKUP(A127,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
         <v>22.14</v>
       </c>
-      <c r="N127" s="4" t="n">
+      <c r="N127" s="4" t="e">
         <f aca="false">VLOOKUP(K127,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.9662862823</v>
-      </c>
-      <c r="P127" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="P127" s="4" t="e">
         <f aca="false">IF(AND(M127&gt;0,N127&gt;0),M127+N127, "N/A")</f>
-        <v>112.1062862823</v>
-      </c>
-      <c r="Q127" s="29" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="Q127" s="29" t="e">
         <f aca="false">IF(P127&gt;0,P127/25.4,)</f>
-        <v>4.41363331820079</v>
+        <v>#N/A</v>
       </c>
       <c r="S127" s="4" t="e">
         <f aca="false">IF(P127&gt;0,P$135-P127,"")</f>
@@ -12219,29 +12696,29 @@
         <v>set_property PACKAGE_PIN L1 [get_ports {vga_g3}]
 set_property IOSTANDARD LVTTL [get_ports {vga_g3}]</v>
       </c>
-      <c r="V127" s="31" t="e">
-        <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND",NOT(ISNA(P127)),NOT(ISNA(N127))),CONCATENATE("set_input_delay -clock SBUS_3V3_CLK -min ",TEXT(-0.25+$V$5-S127/$V$7,"0.000")," [get_ports {",K127,"}]",CHAR(10),"set_input_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+(40-$V$4)-S127/$W$7,"0.000")," [get_ports {",K127,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W127" s="31" t="e">
-        <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND",NOT(ISNA(P127)),NOT(ISNA(N127))),CONCATENATE("set_output_delay -clock SBUS_3V3_CLK -min ",TEXT(-$W$5+P127/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K127,"}]",CHAR(10),"set_output_delay -clock SBUS_3V3_CLK -max ",TEXT(0.25+0.25+$W$4+P127/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K127,"}]",CHAR(10)),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y127" s="7" t="e">
+      <c r="V127" s="31" t="str">
+        <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND",NOT(ISNA(P127)),NOT(ISNA(N127))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$5-S127/$V$7,"0.000")," [get_ports {",K127,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$4)-S127/$W$7,"0.000")," [get_ports {",K127,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="W127" s="31" t="str">
+        <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND",NOT(ISNA(P127)),NOT(ISNA(N127))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$5+P127/$V$7+$P$135/$V$7,"0.000")," [get_ports {",K127,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$4+P127/$W$7+$P$135/$W$7,"0.000")," [get_ports {",K127,"}]",CHAR(10)),"")</f>
+        <v/>
+      </c>
+      <c r="Y127" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T127="IO",T127="I"),V127,""),IF(OR(T127="IO",T127="O"),W127,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB127" s="0" t="n">
+        <v/>
+      </c>
+      <c r="AB127" s="0" t="e">
         <f aca="false">$AA$103-P127</f>
-        <v>7.0498678391</v>
-      </c>
-      <c r="AC127" s="4" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AC127" s="4" t="e">
         <f aca="false">N127</f>
-        <v>89.9662862823</v>
-      </c>
-      <c r="AD127" s="0" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="AD127" s="0" t="e">
         <f aca="false">AC127+AB127</f>
-        <v>97.0161541214</v>
+        <v>#N/A</v>
       </c>
       <c r="AE127" s="0" t="str">
         <f aca="false">H127</f>
@@ -12510,20 +12987,20 @@
       <c r="O135" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="P135" s="33" t="e">
-        <f aca="false">P47</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q135" s="62" t="e">
+      <c r="P135" s="33" t="n">
+        <f aca="false">P23</f>
+        <v>69.0979761571</v>
+      </c>
+      <c r="Q135" s="62" t="n">
         <f aca="false">P135/$V$7</f>
-        <v>#N/A</v>
+        <v>0.3454898807855</v>
       </c>
       <c r="R135" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="S135" s="4" t="e">
+      <c r="S135" s="4" t="n">
         <f aca="false">P135/$W$7</f>
-        <v>#N/A</v>
+        <v>0.460653174380667</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13813,7 +14290,7 @@
       <formula>Summary!$T$129</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S100:S127 S8:S91">
+  <conditionalFormatting sqref="S8:S127">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -13860,8 +14337,8 @@
   </sheetPr>
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14687,8 +15164,8 @@
   </sheetPr>
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14714,565 +15191,533 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>327</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>615</v>
       </c>
       <c r="B2" s="109" t="n">
-        <v>133193911.428</v>
+        <v>35726097.0261</v>
       </c>
       <c r="C2" s="109" t="n">
-        <f aca="false">B84</f>
-        <v>0</v>
+        <v>16239900.782</v>
       </c>
       <c r="D2" s="109" t="n">
         <f aca="false">B2+C2</f>
-        <v>133193911.428</v>
+        <v>51965997.8081</v>
       </c>
       <c r="H2" s="109" t="n">
         <v>133630609.264</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>319</v>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>616</v>
       </c>
       <c r="B3" s="109" t="n">
-        <v>132514004.972</v>
+        <v>35727195.1425</v>
       </c>
       <c r="C3" s="109" t="n">
-        <f aca="false">B85</f>
-        <v>0</v>
+        <v>21589139.5976</v>
       </c>
       <c r="D3" s="109" t="n">
         <f aca="false">B3+C3</f>
-        <v>132514004.972</v>
+        <v>57316334.7401</v>
       </c>
       <c r="H3" s="109" t="n">
         <v>133420140.604</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>330</v>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>617</v>
       </c>
       <c r="B4" s="109" t="n">
-        <v>133724176.597</v>
+        <v>20816460.659</v>
       </c>
       <c r="C4" s="109" t="n">
-        <f aca="false">B86</f>
-        <v>0</v>
+        <v>14748731.9575</v>
       </c>
       <c r="D4" s="109" t="n">
         <f aca="false">B4+C4</f>
-        <v>133724176.597</v>
+        <v>35565192.6165</v>
       </c>
       <c r="H4" s="109" t="n">
         <v>124799957.758</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>337</v>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>618</v>
       </c>
       <c r="B5" s="109" t="n">
-        <v>134945174.464</v>
+        <v>18007221.8434</v>
       </c>
       <c r="C5" s="109" t="n">
-        <f aca="false">B87</f>
-        <v>0</v>
+        <v>20097970.773</v>
       </c>
       <c r="D5" s="109" t="n">
         <f aca="false">B5+C5</f>
-        <v>134945174.464</v>
+        <v>38105192.6164</v>
       </c>
       <c r="H5" s="109" t="n">
         <v>124589489.098</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>334</v>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>619</v>
       </c>
       <c r="B6" s="109" t="n">
-        <v>138783636.42</v>
+        <v>20302835.8416</v>
       </c>
       <c r="C6" s="109" t="n">
-        <f aca="false">B88</f>
-        <v>0</v>
+        <v>15262356.7748</v>
       </c>
       <c r="D6" s="109" t="n">
         <f aca="false">B6+C6</f>
-        <v>138783636.42</v>
+        <v>35565192.6164</v>
       </c>
       <c r="H6" s="109" t="n">
         <v>118126231.928</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>340</v>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>620</v>
       </c>
       <c r="B7" s="109" t="n">
-        <v>139813702.343</v>
+        <v>17493597.0261</v>
       </c>
       <c r="C7" s="109" t="n">
-        <f aca="false">B89</f>
-        <v>0</v>
+        <v>20611595.5904</v>
       </c>
       <c r="D7" s="109" t="n">
         <f aca="false">B7+C7</f>
-        <v>139813702.343</v>
+        <v>38105192.6165</v>
       </c>
       <c r="H7" s="109" t="n">
         <v>117915763.268</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>343</v>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>621</v>
       </c>
       <c r="B8" s="109" t="n">
-        <v>137594798.416</v>
+        <v>19789211.0243</v>
       </c>
       <c r="C8" s="109" t="n">
-        <f aca="false">B90</f>
-        <v>0</v>
+        <v>15775981.5922</v>
       </c>
       <c r="D8" s="109" t="n">
         <f aca="false">B8+C8</f>
-        <v>137594798.416</v>
+        <v>35565192.6165</v>
       </c>
       <c r="H8" s="109" t="n">
         <v>117537526.656</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
-        <v>349</v>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>622</v>
       </c>
       <c r="B9" s="109" t="n">
-        <v>138284849.978</v>
+        <v>16979972.2088</v>
       </c>
       <c r="C9" s="109" t="n">
-        <f aca="false">B91</f>
-        <v>0</v>
+        <v>21125220.4077</v>
       </c>
       <c r="D9" s="109" t="n">
         <f aca="false">B9+C9</f>
-        <v>138284849.978</v>
+        <v>38105192.6165</v>
       </c>
       <c r="H9" s="109" t="n">
         <v>117243760.817</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
-        <v>615</v>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>623</v>
       </c>
       <c r="B10" s="109" t="n">
-        <v>89966333.8606</v>
+        <v>22052577.8619</v>
       </c>
       <c r="C10" s="109" t="n">
-        <f aca="false">B92</f>
-        <v>0</v>
+        <v>13810227.958</v>
       </c>
       <c r="D10" s="109" t="n">
         <f aca="false">B10+C10</f>
-        <v>89966333.8606</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
-        <v>616</v>
+        <v>35862805.8199</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>624</v>
       </c>
       <c r="B11" s="109" t="n">
-        <v>89966301.2758</v>
+        <v>19249552.2498</v>
       </c>
       <c r="C11" s="109" t="n">
-        <f aca="false">B93</f>
-        <v>0</v>
+        <v>19369556.7208</v>
       </c>
       <c r="D11" s="109" t="n">
         <f aca="false">B11+C11</f>
-        <v>89966301.2758</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
-        <v>617</v>
+        <v>38619108.9706</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>625</v>
       </c>
       <c r="B12" s="109" t="n">
-        <v>90063445.5697</v>
+        <v>21526526.6377</v>
       </c>
       <c r="C12" s="109" t="n">
-        <f aca="false">B94</f>
-        <v>0</v>
+        <v>14336279.1822</v>
       </c>
       <c r="D12" s="109" t="n">
         <f aca="false">B12+C12</f>
-        <v>90063445.5697</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
-        <v>618</v>
+        <v>35862805.8199</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>132</v>
       </c>
       <c r="B13" s="109" t="n">
-        <v>89973508.5154</v>
+        <v>18723501.0256</v>
       </c>
       <c r="C13" s="109" t="n">
-        <f aca="false">B95</f>
-        <v>0</v>
+        <v>19679304.7943</v>
       </c>
       <c r="D13" s="109" t="n">
         <f aca="false">B13+C13</f>
-        <v>89973508.5154</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="s">
-        <v>619</v>
+        <v>38402805.8199</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>626</v>
       </c>
       <c r="B14" s="109" t="n">
-        <v>89992020.6344</v>
+        <v>18811667.0171</v>
       </c>
       <c r="C14" s="109" t="n">
-        <f aca="false">B96</f>
-        <v>0</v>
+        <v>16753525.5994</v>
       </c>
       <c r="D14" s="109" t="n">
         <f aca="false">B14+C14</f>
-        <v>89992020.6344</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>620</v>
+        <v>35565192.6165</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>627</v>
       </c>
       <c r="B15" s="109" t="n">
-        <v>89926348.0229</v>
+        <v>21000475.4135</v>
       </c>
       <c r="C15" s="109" t="n">
-        <f aca="false">B97</f>
-        <v>0</v>
+        <v>14862330.4064</v>
       </c>
       <c r="D15" s="109" t="n">
         <f aca="false">B15+C15</f>
-        <v>89926348.0229</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="s">
-        <v>621</v>
+        <v>35862805.8199</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>628</v>
       </c>
       <c r="B16" s="109" t="n">
-        <v>89966068.4757</v>
+        <v>18157449.8014</v>
       </c>
       <c r="C16" s="109" t="n">
-        <f aca="false">B98</f>
-        <v>0</v>
+        <v>20205356.0185</v>
       </c>
       <c r="D16" s="109" t="n">
         <f aca="false">B16+C16</f>
-        <v>89966068.4757</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
-        <v>622</v>
+        <v>38362805.8199</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>629</v>
       </c>
       <c r="B17" s="109" t="n">
-        <v>89966062.1636</v>
+        <v>20474424.1893</v>
       </c>
       <c r="C17" s="109" t="n">
-        <f aca="false">B99</f>
-        <v>0</v>
+        <v>15388381.6306</v>
       </c>
       <c r="D17" s="109" t="n">
         <f aca="false">B17+C17</f>
-        <v>89966062.1636</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="s">
-        <v>623</v>
+        <v>35862805.8199</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>630</v>
       </c>
       <c r="B18" s="109" t="n">
-        <v>89966154.1214</v>
+        <v>17717360.518</v>
       </c>
       <c r="C18" s="109" t="n">
-        <f aca="false">B100</f>
-        <v>0</v>
+        <v>20731407.2427</v>
       </c>
       <c r="D18" s="109" t="n">
         <f aca="false">B18+C18</f>
-        <v>89966154.1214</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
-        <v>624</v>
+        <v>38448767.7607</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>631</v>
       </c>
       <c r="B19" s="109" t="n">
-        <v>89966380.2188</v>
+        <v>19809611.4217</v>
       </c>
       <c r="C19" s="109" t="n">
-        <f aca="false">B101</f>
-        <v>0</v>
+        <v>14634512.9471</v>
       </c>
       <c r="D19" s="109" t="n">
         <f aca="false">B19+C19</f>
-        <v>89966380.2188</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
-        <v>625</v>
+        <v>34444124.3688</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>632</v>
       </c>
       <c r="B20" s="109" t="n">
-        <v>89966314.6182</v>
+        <v>16480534.5854</v>
       </c>
       <c r="C20" s="109" t="n">
-        <f aca="false">B102</f>
-        <v>0</v>
+        <v>19977538.5592</v>
       </c>
       <c r="D20" s="109" t="n">
         <f aca="false">B20+C20</f>
-        <v>89966314.6182</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
-        <v>626</v>
+        <v>36458073.1446</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>633</v>
       </c>
       <c r="B21" s="109" t="n">
-        <v>89966331.9905</v>
+        <v>19283560.1975</v>
       </c>
       <c r="C21" s="109" t="n">
-        <f aca="false">B103</f>
-        <v>0</v>
+        <v>14108461.7229</v>
       </c>
       <c r="D21" s="109" t="n">
         <f aca="false">B21+C21</f>
-        <v>89966331.9905</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="s">
-        <v>448</v>
+        <v>33392021.9204</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>634</v>
       </c>
       <c r="B22" s="109" t="n">
-        <v>89966286.2823</v>
+        <v>15954483.3611</v>
       </c>
       <c r="C22" s="109" t="n">
-        <f aca="false">B104</f>
-        <v>0</v>
+        <v>19451487.335</v>
       </c>
       <c r="D22" s="109" t="n">
         <f aca="false">B22+C22</f>
-        <v>89966286.2823</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
-        <v>627</v>
+        <v>35405970.6961</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>635</v>
       </c>
       <c r="B23" s="109" t="n">
-        <v>89990817.4743</v>
+        <v>18757508.9733</v>
       </c>
       <c r="C23" s="109" t="n">
-        <f aca="false">B105</f>
-        <v>0</v>
+        <v>13948989.5014</v>
       </c>
       <c r="D23" s="109" t="n">
         <f aca="false">B23+C23</f>
-        <v>89990817.4743</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28" t="s">
-        <v>628</v>
+        <v>32706498.4747</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>636</v>
       </c>
       <c r="B24" s="109" t="n">
-        <v>89966368.6488</v>
+        <v>15428432.1369</v>
       </c>
       <c r="C24" s="109" t="n">
-        <f aca="false">B106</f>
-        <v>0</v>
+        <v>19597374.1801</v>
       </c>
       <c r="D24" s="109" t="n">
         <f aca="false">B24+C24</f>
-        <v>89966368.6488</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28" t="s">
-        <v>629</v>
+        <v>35025806.317</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>637</v>
       </c>
       <c r="B25" s="109" t="n">
-        <v>89966393.08</v>
+        <v>16002428.2016</v>
       </c>
       <c r="C25" s="109" t="n">
-        <f aca="false">B107</f>
-        <v>0</v>
+        <v>22102764.4149</v>
       </c>
       <c r="D25" s="109" t="n">
         <f aca="false">B25+C25</f>
-        <v>89966393.08</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
-        <v>630</v>
+        <v>38105192.6165</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>638</v>
       </c>
       <c r="B26" s="109" t="n">
-        <v>89966434.6582</v>
+        <v>18231457.749</v>
       </c>
       <c r="C26" s="109" t="n">
-        <f aca="false">B108</f>
-        <v>0</v>
+        <v>14475040.7256</v>
       </c>
       <c r="D26" s="109" t="n">
         <f aca="false">B26+C26</f>
-        <v>89966434.6582</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
-        <v>631</v>
+        <v>32706498.4746</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>639</v>
       </c>
       <c r="B27" s="109" t="n">
-        <v>89966034.9391</v>
+        <v>14902380.9127</v>
       </c>
       <c r="C27" s="109" t="n">
-        <f aca="false">B109</f>
-        <v>0</v>
+        <v>20123425.4043</v>
       </c>
       <c r="D27" s="109" t="n">
         <f aca="false">B27+C27</f>
-        <v>89966034.9391</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28" t="s">
-        <v>632</v>
+        <v>35025806.317</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>640</v>
       </c>
       <c r="B28" s="109" t="n">
-        <v>90171089.1011</v>
+        <v>18298042.1998</v>
       </c>
       <c r="C28" s="109" t="n">
-        <f aca="false">B110</f>
-        <v>0</v>
+        <v>17267150.4167</v>
       </c>
       <c r="D28" s="109" t="n">
         <f aca="false">B28+C28</f>
-        <v>90171089.1011</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28" t="s">
-        <v>633</v>
+        <v>35565192.6165</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>641</v>
       </c>
       <c r="B29" s="109" t="n">
-        <v>89966046.6871</v>
+        <v>15488803.3842</v>
       </c>
       <c r="C29" s="109" t="n">
-        <f aca="false">B111</f>
-        <v>0</v>
+        <v>22616389.2322</v>
       </c>
       <c r="D29" s="109" t="n">
         <f aca="false">B29+C29</f>
-        <v>89966046.6871</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="s">
-        <v>634</v>
+        <v>38105192.6164</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>642</v>
       </c>
       <c r="B30" s="109" t="n">
-        <v>89984691.4763</v>
+        <v>17784417.3824</v>
       </c>
       <c r="C30" s="109" t="n">
-        <f aca="false">B112</f>
-        <v>0</v>
+        <v>17780775.234</v>
       </c>
       <c r="D30" s="109" t="n">
         <f aca="false">B30+C30</f>
-        <v>89984691.4763</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28" t="s">
-        <v>635</v>
+        <v>35565192.6164</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>643</v>
       </c>
       <c r="B31" s="109" t="n">
-        <v>90001467.4683</v>
+        <v>14975178.5669</v>
       </c>
       <c r="C31" s="109" t="n">
-        <f aca="false">B113</f>
-        <v>0</v>
+        <v>23130014.0496</v>
       </c>
       <c r="D31" s="109" t="n">
         <f aca="false">B31+C31</f>
-        <v>90001467.4683</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="s">
-        <v>636</v>
+        <v>38105192.6165</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>644</v>
       </c>
       <c r="B32" s="109" t="n">
-        <v>89987713.6591</v>
+        <v>21330085.4763</v>
       </c>
       <c r="C32" s="109" t="n">
-        <f aca="false">B114</f>
-        <v>0</v>
+        <v>14235107.1401</v>
       </c>
       <c r="D32" s="109" t="n">
         <f aca="false">B32+C32</f>
-        <v>89987713.6591</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28" t="s">
-        <v>637</v>
+        <v>35565192.6164</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>645</v>
       </c>
       <c r="B33" s="109" t="n">
-        <v>89966189.643</v>
+        <v>18520846.6608</v>
       </c>
       <c r="C33" s="109" t="n">
-        <f aca="false">B115</f>
-        <v>0</v>
+        <v>19584345.9557</v>
       </c>
       <c r="D33" s="109" t="n">
         <f aca="false">B33+C33</f>
-        <v>89966189.643</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28" t="s">
-        <v>638</v>
+        <v>38105192.6165</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>646</v>
       </c>
       <c r="B34" s="109" t="n">
-        <v>89966289.5757</v>
+        <v>0</v>
       </c>
       <c r="C34" s="109" t="n">
-        <f aca="false">B116</f>
         <v>0</v>
       </c>
       <c r="D34" s="109" t="n">
         <f aca="false">B34+C34</f>
-        <v>89966289.5757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38"/>
+      <c r="A35" s="0" t="s">
+        <v>647</v>
+      </c>
       <c r="B35" s="109" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="109" t="n">
-        <f aca="false">B117</f>
         <v>0</v>
       </c>
       <c r="D35" s="109" t="n">
@@ -15281,11 +15726,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>648</v>
+      </c>
       <c r="B36" s="109" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="109" t="n">
-        <f aca="false">B118</f>
         <v>0</v>
       </c>
       <c r="D36" s="109" t="n">
@@ -15294,11 +15741,13 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>649</v>
+      </c>
       <c r="B37" s="109" t="n">
         <v>0</v>
       </c>
       <c r="C37" s="109" t="n">
-        <f aca="false">B119</f>
         <v>0</v>
       </c>
       <c r="D37" s="109" t="n">
@@ -15307,112 +15756,131 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>650</v>
+      </c>
       <c r="B38" s="109" t="n">
-        <v>0</v>
+        <v>38870750.398</v>
       </c>
       <c r="C38" s="109" t="n">
-        <f aca="false">B120</f>
-        <v>0</v>
+        <v>41646818.007</v>
       </c>
       <c r="D38" s="109" t="n">
         <f aca="false">B38+C38</f>
-        <v>0</v>
+        <v>80517568.405</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>651</v>
+      </c>
       <c r="B39" s="109" t="n">
-        <v>0</v>
+        <v>18806988.4375</v>
       </c>
       <c r="C39" s="109" t="n">
-        <f aca="false">B121</f>
-        <v>0</v>
+        <v>19470987.7196</v>
       </c>
       <c r="D39" s="109" t="n">
         <f aca="false">B39+C39</f>
-        <v>0</v>
+        <v>38277976.1571</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>652</v>
+      </c>
       <c r="B40" s="109" t="n">
-        <v>0</v>
+        <v>51479046.8449</v>
       </c>
       <c r="C40" s="109" t="n">
-        <f aca="false">B122</f>
-        <v>0</v>
+        <v>23292165.2097</v>
       </c>
       <c r="D40" s="109" t="n">
         <f aca="false">B40+C40</f>
-        <v>0</v>
+        <v>74771212.0546</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>653</v>
+      </c>
       <c r="B41" s="109" t="n">
-        <v>0</v>
+        <v>9839381.66904</v>
       </c>
       <c r="C41" s="109" t="n">
-        <f aca="false">B123</f>
-        <v>0</v>
+        <v>42634515.0486</v>
       </c>
       <c r="D41" s="109" t="n">
         <f aca="false">B41+C41</f>
-        <v>0</v>
+        <v>52473896.71764</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>654</v>
+      </c>
       <c r="B42" s="109" t="n">
-        <v>0</v>
+        <v>22853142.8407</v>
       </c>
       <c r="C42" s="109" t="n">
-        <f aca="false">B124</f>
-        <v>0</v>
+        <v>36825915.587</v>
       </c>
       <c r="D42" s="109" t="n">
         <f aca="false">B42+C42</f>
-        <v>0</v>
+        <v>59679058.4277</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>655</v>
+      </c>
       <c r="B43" s="109" t="n">
-        <v>0</v>
+        <v>28340036.0603</v>
       </c>
       <c r="C43" s="109" t="n">
-        <f aca="false">B125</f>
-        <v>0</v>
+        <v>67319872.1623</v>
       </c>
       <c r="D43" s="109" t="n">
         <f aca="false">B43+C43</f>
-        <v>0</v>
+        <v>95659908.2226</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>656</v>
+      </c>
       <c r="B44" s="109" t="n">
-        <v>0</v>
+        <v>28993590.7628</v>
       </c>
       <c r="C44" s="109" t="n">
-        <f aca="false">B126</f>
-        <v>0</v>
+        <v>68937740.9564</v>
       </c>
       <c r="D44" s="109" t="n">
         <f aca="false">B44+C44</f>
-        <v>0</v>
+        <v>97931331.7192</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>657</v>
+      </c>
       <c r="B45" s="109" t="n">
-        <v>0</v>
+        <v>53174764.056</v>
       </c>
       <c r="C45" s="109" t="n">
-        <f aca="false">B127</f>
-        <v>0</v>
+        <v>77486147.1607</v>
       </c>
       <c r="D45" s="109" t="n">
         <f aca="false">B45+C45</f>
-        <v>0</v>
+        <v>130660911.2167</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>658</v>
+      </c>
       <c r="B46" s="109" t="n">
-        <v>0</v>
+        <v>16239900.782</v>
       </c>
       <c r="C46" s="109" t="n">
         <f aca="false">B128</f>
@@ -15420,12 +15888,15 @@
       </c>
       <c r="D46" s="109" t="n">
         <f aca="false">B46+C46</f>
-        <v>0</v>
+        <v>16239900.782</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>659</v>
+      </c>
       <c r="B47" s="109" t="n">
-        <v>0</v>
+        <v>21589139.5976</v>
       </c>
       <c r="C47" s="109" t="n">
         <f aca="false">B129</f>
@@ -15433,12 +15904,15 @@
       </c>
       <c r="D47" s="109" t="n">
         <f aca="false">B47+C47</f>
-        <v>0</v>
+        <v>21589139.5976</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>660</v>
+      </c>
       <c r="B48" s="109" t="n">
-        <v>0</v>
+        <v>14748731.9575</v>
       </c>
       <c r="C48" s="109" t="n">
         <f aca="false">B130</f>
@@ -15446,12 +15920,15 @@
       </c>
       <c r="D48" s="109" t="n">
         <f aca="false">B48+C48</f>
-        <v>0</v>
+        <v>14748731.9575</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>661</v>
+      </c>
       <c r="B49" s="109" t="n">
-        <v>0</v>
+        <v>20097970.773</v>
       </c>
       <c r="C49" s="109" t="n">
         <f aca="false">B131</f>
@@ -15459,12 +15936,15 @@
       </c>
       <c r="D49" s="109" t="n">
         <f aca="false">B49+C49</f>
-        <v>0</v>
+        <v>20097970.773</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>662</v>
+      </c>
       <c r="B50" s="109" t="n">
-        <v>0</v>
+        <v>15262356.7748</v>
       </c>
       <c r="C50" s="109" t="n">
         <f aca="false">B132</f>
@@ -15472,12 +15952,15 @@
       </c>
       <c r="D50" s="109" t="n">
         <f aca="false">B50+C50</f>
-        <v>0</v>
+        <v>15262356.7748</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>663</v>
+      </c>
       <c r="B51" s="109" t="n">
-        <v>0</v>
+        <v>20611595.5904</v>
       </c>
       <c r="C51" s="109" t="n">
         <f aca="false">B133</f>
@@ -15485,12 +15968,15 @@
       </c>
       <c r="D51" s="109" t="n">
         <f aca="false">B51+C51</f>
-        <v>0</v>
+        <v>20611595.5904</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>664</v>
+      </c>
       <c r="B52" s="109" t="n">
-        <v>0</v>
+        <v>15775981.5922</v>
       </c>
       <c r="C52" s="109" t="n">
         <f aca="false">B134</f>
@@ -15498,12 +15984,15 @@
       </c>
       <c r="D52" s="109" t="n">
         <f aca="false">B52+C52</f>
-        <v>0</v>
+        <v>15775981.5922</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>665</v>
+      </c>
       <c r="B53" s="109" t="n">
-        <v>0</v>
+        <v>21125220.4077</v>
       </c>
       <c r="C53" s="109" t="n">
         <f aca="false">B135</f>
@@ -15511,12 +16000,15 @@
       </c>
       <c r="D53" s="109" t="n">
         <f aca="false">B53+C53</f>
-        <v>0</v>
+        <v>21125220.4077</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>666</v>
+      </c>
       <c r="B54" s="109" t="n">
-        <v>0</v>
+        <v>13810227.958</v>
       </c>
       <c r="C54" s="109" t="n">
         <f aca="false">B136</f>
@@ -15524,12 +16016,15 @@
       </c>
       <c r="D54" s="109" t="n">
         <f aca="false">B54+C54</f>
-        <v>0</v>
+        <v>13810227.958</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>667</v>
+      </c>
       <c r="B55" s="109" t="n">
-        <v>0</v>
+        <v>19369556.7208</v>
       </c>
       <c r="C55" s="109" t="n">
         <f aca="false">B137</f>
@@ -15537,12 +16032,15 @@
       </c>
       <c r="D55" s="109" t="n">
         <f aca="false">B55+C55</f>
-        <v>0</v>
+        <v>19369556.7208</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>668</v>
+      </c>
       <c r="B56" s="109" t="n">
-        <v>0</v>
+        <v>14336279.1822</v>
       </c>
       <c r="C56" s="109" t="n">
         <f aca="false">B138</f>
@@ -15550,12 +16048,15 @@
       </c>
       <c r="D56" s="109" t="n">
         <f aca="false">B56+C56</f>
-        <v>0</v>
+        <v>14336279.1822</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>669</v>
+      </c>
       <c r="B57" s="109" t="n">
-        <v>0</v>
+        <v>19679304.7943</v>
       </c>
       <c r="C57" s="109" t="n">
         <f aca="false">B139</f>
@@ -15563,12 +16064,15 @@
       </c>
       <c r="D57" s="109" t="n">
         <f aca="false">B57+C57</f>
-        <v>0</v>
+        <v>19679304.7943</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>670</v>
+      </c>
       <c r="B58" s="109" t="n">
-        <v>0</v>
+        <v>16753525.5994</v>
       </c>
       <c r="C58" s="109" t="n">
         <f aca="false">B140</f>
@@ -15576,12 +16080,15 @@
       </c>
       <c r="D58" s="109" t="n">
         <f aca="false">B58+C58</f>
-        <v>0</v>
+        <v>16753525.5994</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>671</v>
+      </c>
       <c r="B59" s="109" t="n">
-        <v>0</v>
+        <v>14862330.4064</v>
       </c>
       <c r="C59" s="109" t="n">
         <f aca="false">B141</f>
@@ -15589,12 +16096,15 @@
       </c>
       <c r="D59" s="109" t="n">
         <f aca="false">B59+C59</f>
-        <v>0</v>
+        <v>14862330.4064</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>672</v>
+      </c>
       <c r="B60" s="109" t="n">
-        <v>0</v>
+        <v>20205356.0185</v>
       </c>
       <c r="C60" s="109" t="n">
         <f aca="false">B142</f>
@@ -15602,12 +16112,15 @@
       </c>
       <c r="D60" s="109" t="n">
         <f aca="false">B60+C60</f>
-        <v>0</v>
+        <v>20205356.0185</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>673</v>
+      </c>
       <c r="B61" s="109" t="n">
-        <v>0</v>
+        <v>15388381.6306</v>
       </c>
       <c r="C61" s="109" t="n">
         <f aca="false">B143</f>
@@ -15615,12 +16128,15 @@
       </c>
       <c r="D61" s="109" t="n">
         <f aca="false">B61+C61</f>
-        <v>0</v>
+        <v>15388381.6306</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>674</v>
+      </c>
       <c r="B62" s="109" t="n">
-        <v>0</v>
+        <v>20731407.2427</v>
       </c>
       <c r="C62" s="109" t="n">
         <f aca="false">B144</f>
@@ -15628,12 +16144,15 @@
       </c>
       <c r="D62" s="109" t="n">
         <f aca="false">B62+C62</f>
-        <v>0</v>
+        <v>20731407.2427</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>675</v>
+      </c>
       <c r="B63" s="109" t="n">
-        <v>0</v>
+        <v>14634512.9471</v>
       </c>
       <c r="C63" s="109" t="n">
         <f aca="false">B145</f>
@@ -15641,12 +16160,15 @@
       </c>
       <c r="D63" s="109" t="n">
         <f aca="false">B63+C63</f>
-        <v>0</v>
+        <v>14634512.9471</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>676</v>
+      </c>
       <c r="B64" s="109" t="n">
-        <v>0</v>
+        <v>19977538.5592</v>
       </c>
       <c r="C64" s="109" t="n">
         <f aca="false">B146</f>
@@ -15654,12 +16176,15 @@
       </c>
       <c r="D64" s="109" t="n">
         <f aca="false">B64+C64</f>
-        <v>0</v>
+        <v>19977538.5592</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>677</v>
+      </c>
       <c r="B65" s="109" t="n">
-        <v>0</v>
+        <v>14108461.7229</v>
       </c>
       <c r="C65" s="109" t="n">
         <f aca="false">B147</f>
@@ -15667,12 +16192,15 @@
       </c>
       <c r="D65" s="109" t="n">
         <f aca="false">B65+C65</f>
-        <v>0</v>
+        <v>14108461.7229</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>678</v>
+      </c>
       <c r="B66" s="109" t="n">
-        <v>0</v>
+        <v>19451487.335</v>
       </c>
       <c r="C66" s="109" t="n">
         <f aca="false">B148</f>
@@ -15680,12 +16208,15 @@
       </c>
       <c r="D66" s="109" t="n">
         <f aca="false">B66+C66</f>
-        <v>0</v>
+        <v>19451487.335</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>679</v>
+      </c>
       <c r="B67" s="109" t="n">
-        <v>0</v>
+        <v>13948989.5014</v>
       </c>
       <c r="C67" s="109" t="n">
         <f aca="false">B149</f>
@@ -15693,12 +16224,15 @@
       </c>
       <c r="D67" s="109" t="n">
         <f aca="false">B67+C67</f>
-        <v>0</v>
+        <v>13948989.5014</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>680</v>
+      </c>
       <c r="B68" s="109" t="n">
-        <v>0</v>
+        <v>19597374.1801</v>
       </c>
       <c r="C68" s="109" t="n">
         <f aca="false">B150</f>
@@ -15706,12 +16240,15 @@
       </c>
       <c r="D68" s="109" t="n">
         <f aca="false">B68+C68</f>
-        <v>0</v>
+        <v>19597374.1801</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>681</v>
+      </c>
       <c r="B69" s="109" t="n">
-        <v>0</v>
+        <v>22102764.4149</v>
       </c>
       <c r="C69" s="109" t="n">
         <f aca="false">B151</f>
@@ -15719,12 +16256,15 @@
       </c>
       <c r="D69" s="109" t="n">
         <f aca="false">B69+C69</f>
-        <v>0</v>
+        <v>22102764.4149</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>682</v>
+      </c>
       <c r="B70" s="109" t="n">
-        <v>0</v>
+        <v>14475040.7256</v>
       </c>
       <c r="C70" s="109" t="n">
         <f aca="false">B152</f>
@@ -15732,12 +16272,15 @@
       </c>
       <c r="D70" s="109" t="n">
         <f aca="false">B70+C70</f>
-        <v>0</v>
+        <v>14475040.7256</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>683</v>
+      </c>
       <c r="B71" s="109" t="n">
-        <v>0</v>
+        <v>20123425.4043</v>
       </c>
       <c r="C71" s="109" t="n">
         <f aca="false">B153</f>
@@ -15745,12 +16288,15 @@
       </c>
       <c r="D71" s="109" t="n">
         <f aca="false">B71+C71</f>
-        <v>0</v>
+        <v>20123425.4043</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>684</v>
+      </c>
       <c r="B72" s="109" t="n">
-        <v>0</v>
+        <v>17267150.4167</v>
       </c>
       <c r="C72" s="109" t="n">
         <f aca="false">B154</f>
@@ -15758,12 +16304,15 @@
       </c>
       <c r="D72" s="109" t="n">
         <f aca="false">B72+C72</f>
-        <v>0</v>
+        <v>17267150.4167</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>685</v>
+      </c>
       <c r="B73" s="109" t="n">
-        <v>0</v>
+        <v>22616389.2322</v>
       </c>
       <c r="C73" s="109" t="n">
         <f aca="false">B155</f>
@@ -15771,12 +16320,15 @@
       </c>
       <c r="D73" s="109" t="n">
         <f aca="false">B73+C73</f>
-        <v>0</v>
+        <v>22616389.2322</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>686</v>
+      </c>
       <c r="B74" s="109" t="n">
-        <v>0</v>
+        <v>17780775.234</v>
       </c>
       <c r="C74" s="109" t="n">
         <f aca="false">B156</f>
@@ -15784,12 +16336,15 @@
       </c>
       <c r="D74" s="109" t="n">
         <f aca="false">B74+C74</f>
-        <v>0</v>
+        <v>17780775.234</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>687</v>
+      </c>
       <c r="B75" s="109" t="n">
-        <v>0</v>
+        <v>23130014.0496</v>
       </c>
       <c r="C75" s="109" t="n">
         <f aca="false">B157</f>
@@ -15797,12 +16352,15 @@
       </c>
       <c r="D75" s="109" t="n">
         <f aca="false">B75+C75</f>
-        <v>0</v>
+        <v>23130014.0496</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>688</v>
+      </c>
       <c r="B76" s="109" t="n">
-        <v>0</v>
+        <v>14235107.1401</v>
       </c>
       <c r="C76" s="109" t="n">
         <f aca="false">B158</f>
@@ -15810,12 +16368,15 @@
       </c>
       <c r="D76" s="109" t="n">
         <f aca="false">B76+C76</f>
-        <v>0</v>
+        <v>14235107.1401</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>689</v>
+      </c>
       <c r="B77" s="109" t="n">
-        <v>0</v>
+        <v>19584345.9557</v>
       </c>
       <c r="C77" s="109" t="n">
         <f aca="false">B159</f>
@@ -15823,10 +16384,13 @@
       </c>
       <c r="D77" s="109" t="n">
         <f aca="false">B77+C77</f>
-        <v>0</v>
+        <v>19584345.9557</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>690</v>
+      </c>
       <c r="B78" s="109" t="n">
         <v>0</v>
       </c>
@@ -15840,6 +16404,9 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>691</v>
+      </c>
       <c r="B79" s="109" t="n">
         <v>0</v>
       </c>
@@ -15853,6 +16420,9 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>692</v>
+      </c>
       <c r="B80" s="109" t="n">
         <v>0</v>
       </c>
@@ -15866,6 +16436,9 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>693</v>
+      </c>
       <c r="B81" s="109" t="n">
         <v>0</v>
       </c>
@@ -15879,8 +16452,11 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>694</v>
+      </c>
       <c r="B82" s="109" t="n">
-        <v>0</v>
+        <v>41646818.007</v>
       </c>
       <c r="C82" s="109" t="n">
         <f aca="false">B164</f>
@@ -15888,12 +16464,15 @@
       </c>
       <c r="D82" s="109" t="n">
         <f aca="false">B82+C82</f>
-        <v>0</v>
+        <v>41646818.007</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>695</v>
+      </c>
       <c r="B83" s="109" t="n">
-        <v>0</v>
+        <v>19470987.7196</v>
       </c>
       <c r="C83" s="109" t="n">
         <f aca="false">B165</f>
@@ -15901,49 +16480,130 @@
       </c>
       <c r="D83" s="109" t="n">
         <f aca="false">B83+C83</f>
+        <v>19470987.7196</v>
+      </c>
+    </row>
+    <row r="84" s="111" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="B84" s="109" t="n">
+        <v>23292165.2097</v>
+      </c>
+      <c r="C84" s="109" t="n">
+        <f aca="false">B166</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" s="112" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="111"/>
-      <c r="B84" s="109" t="n">
-        <v>0</v>
+      <c r="D84" s="109" t="n">
+        <f aca="false">B84+C84</f>
+        <v>23292165.2097</v>
       </c>
       <c r="G84" s="0"/>
       <c r="H84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>697</v>
+      </c>
       <c r="B85" s="109" t="n">
+        <v>42634515.0486</v>
+      </c>
+      <c r="C85" s="109" t="n">
+        <f aca="false">B167</f>
         <v>0</v>
       </c>
+      <c r="D85" s="109" t="n">
+        <f aca="false">B85+C85</f>
+        <v>42634515.0486</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>698</v>
+      </c>
       <c r="B86" s="109" t="n">
+        <v>36825915.587</v>
+      </c>
+      <c r="C86" s="109" t="n">
+        <f aca="false">B168</f>
         <v>0</v>
       </c>
+      <c r="D86" s="109" t="n">
+        <f aca="false">B86+C86</f>
+        <v>36825915.587</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>699</v>
+      </c>
       <c r="B87" s="109" t="n">
+        <v>67319872.1623</v>
+      </c>
+      <c r="C87" s="109" t="n">
+        <f aca="false">B169</f>
         <v>0</v>
       </c>
+      <c r="D87" s="109" t="n">
+        <f aca="false">B87+C87</f>
+        <v>67319872.1623</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>700</v>
+      </c>
       <c r="B88" s="109" t="n">
+        <v>68937740.9564</v>
+      </c>
+      <c r="C88" s="109" t="n">
+        <f aca="false">B170</f>
         <v>0</v>
       </c>
+      <c r="D88" s="109" t="n">
+        <f aca="false">B88+C88</f>
+        <v>68937740.9564</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>701</v>
+      </c>
       <c r="B89" s="109" t="n">
+        <v>77486147.1607</v>
+      </c>
+      <c r="C89" s="109" t="n">
+        <f aca="false">B171</f>
         <v>0</v>
+      </c>
+      <c r="D89" s="109" t="n">
+        <f aca="false">B89+C89</f>
+        <v>77486147.1607</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="109" t="n">
         <v>0</v>
       </c>
+      <c r="C90" s="109" t="n">
+        <f aca="false">B172</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="109" t="n">
+        <f aca="false">B90+C90</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="109" t="n">
+        <f aca="false">B173</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="109" t="n">
+        <f aca="false">B91+C91</f>
         <v>0</v>
       </c>
     </row>
@@ -16356,68 +17016,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>639</v>
+        <v>702</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="2" s="113" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="113" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2" s="112" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="112" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="113" t="s">
-        <v>641</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="112" t="s">
+        <v>704</v>
+      </c>
+      <c r="C2" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="112" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="113" t="n">
+      <c r="A3" s="112" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="113" t="s">
-        <v>642</v>
-      </c>
-      <c r="C3" s="113" t="s">
+      <c r="B3" s="112" t="s">
+        <v>705</v>
+      </c>
+      <c r="C3" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="113" t="s">
-        <v>643</v>
+      <c r="E3" s="112" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="113" t="n">
+      <c r="A4" s="112" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="113" t="s">
-        <v>644</v>
-      </c>
-      <c r="C4" s="113" t="s">
+      <c r="B4" s="112" t="s">
+        <v>707</v>
+      </c>
+      <c r="C4" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="112" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="113" t="n">
+      <c r="A5" s="112" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="113" t="s">
-        <v>645</v>
-      </c>
-      <c r="C5" s="113" t="s">
+      <c r="B5" s="112" t="s">
+        <v>708</v>
+      </c>
+      <c r="C5" s="112" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="112" t="s">
         <v>183</v>
       </c>
     </row>
@@ -16426,13 +17086,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>646</v>
+        <v>709</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>647</v>
+        <v>710</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>647</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16440,13 +17100,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>648</v>
+        <v>711</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>649</v>
+        <v>712</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>650</v>
+        <v>713</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16454,7 +17114,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>651</v>
+        <v>714</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>183</v>
@@ -16468,16 +17128,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>652</v>
+        <v>715</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>653</v>
+        <v>716</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>654</v>
+        <v>717</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>643</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16485,7 +17145,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>655</v>
+        <v>718</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>183</v>
@@ -16499,10 +17159,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>656</v>
+        <v>719</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>657</v>
+        <v>720</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>62</v>
@@ -16513,7 +17173,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>658</v>
+        <v>721</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>62</v>
@@ -16527,13 +17187,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>659</v>
+        <v>722</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>657</v>
+        <v>720</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>647</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16541,13 +17201,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>660</v>
+        <v>723</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>657</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/nubus-to-ztex/signals.xlsx
+++ b/nubus-to-ztex/signals.xlsx
@@ -949,115 +949,115 @@
     <t xml:space="preserve">T4</t>
   </si>
   <si>
+    <t xml:space="preserve">SD_D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T6~IO_L23N_T3_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm_n_o0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4~IO_L8P_T1_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD_D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6~IO_L19P_T3_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm_oe_n2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3~IO_L8N_T1_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD_CMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5~IO_L19N_T3_VREF_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VREF Bank 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm_o_n2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1~IO_L7N_T1_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD_CLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2~IO_L9N_T1_DQS_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm_n1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1~IO_L7P_T1_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD_D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2~IO_L9P_T1_DQS_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tm_n0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3~IO_L11N_T1_SRCC_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3</t>
+  </si>
+  <si>
     <t xml:space="preserve">SD_D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T6~IO_L23N_T3_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tm_n_o0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4~IO_L8P_T1_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD_D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6~IO_L19P_T3_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tm_oe_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3~IO_L8N_T1_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD_CLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5~IO_L19N_T3_VREF_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VREF Bank 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tm_o_n2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1~IO_L7N_T1_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD_CMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V2~IO_L9N_T1_DQS_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tm_n0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1~IO_L7P_T1_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD_D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2~IO_L9P_T1_DQS_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tm_n1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3~IO_L11N_T1_SRCC_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD_D2</t>
   </si>
   <si>
     <t xml:space="preserve">K6~IO_0_34</t>
@@ -2923,16 +2923,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -3003,8 +2993,8 @@
   </sheetPr>
   <dimension ref="A1:AG232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC99" activeCellId="0" sqref="AC99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J89" activeCellId="0" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3343,8 +3333,7 @@
       <c r="U9" s="30" t="str">
         <f aca="false">IF(AND(K9&lt;&gt;"",K9&lt;&gt;"+3v3",K9&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D9," [get_ports {",K9,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K9,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K16 [get_ports {nmrq_n}]
-set_property IOSTANDARD LVTTL [get_ports {nmrq_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {nmrq_n}]</v>
       </c>
       <c r="V9" s="31" t="str">
         <f aca="false">IF(AND(K9&lt;&gt;"",K9&lt;&gt;"+3v3",K9&lt;&gt;"GND",NOT(ISNA(P9)),NOT(ISNA(N9))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S9/$V$8,"0.000")," [get_ports {",K9,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S9/$W$8,"0.000")," [get_ports {",K9,"}]",CHAR(10)),"")</f>
@@ -3418,26 +3407,22 @@
       <c r="U10" s="30" t="str">
         <f aca="false">IF(AND(K10&lt;&gt;"",K10&lt;&gt;"+3v3",K10&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D10," [get_ports {",K10,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K10,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J18 [get_ports {rqst_n}]
-set_property IOSTANDARD LVTTL [get_ports {rqst_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {rqst_n}]</v>
       </c>
       <c r="V10" s="31" t="str">
         <f aca="false">IF(AND(K10&lt;&gt;"",K10&lt;&gt;"+3v3",K10&lt;&gt;"GND",NOT(ISNA(P10)),NOT(ISNA(N10))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S10/$V$8,"0.000")," [get_ports {",K10,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S10/$W$8,"0.000")," [get_ports {",K10,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.404 [get_ports {rqst_n}]
-set_input_delay -clock clk_3v3_n -max 52.456 [get_ports {rqst_n}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.456 [get_ports {rqst_n}]</v>
       </c>
       <c r="W10" s="31" t="str">
         <f aca="false">IF(AND(K10&lt;&gt;"",K10&lt;&gt;"+3v3",K10&lt;&gt;"GND",NOT(ISNA(P10)),NOT(ISNA(N10))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P10/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K10,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P10/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K10,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.155 [get_ports {rqst_n}]
-set_output_delay -clock clk_3v3_n -max 53.627 [get_ports {rqst_n}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.627 [get_ports {rqst_n}]</v>
       </c>
       <c r="Y10" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T10="IO",T10="I"),V10,""),IF(OR(T10="IO",T10="O"),W10,""))</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.155 [get_ports {rqst_n}]
-set_output_delay -clock clk_3v3_n -max 53.627 [get_ports {rqst_n}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.627 [get_ports {rqst_n}]</v>
       </c>
       <c r="AG10" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K10,3)="LED",LEFT(K10,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D10,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K10),"")</f>
@@ -3499,28 +3484,24 @@
       <c r="U11" s="30" t="str">
         <f aca="false">IF(AND(K11&lt;&gt;"",K11&lt;&gt;"+3v3",K11&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D11," [get_ports {",K11,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K11,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K15 [get_ports {start_n}]
-set_property IOSTANDARD LVTTL [get_ports {start_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {start_n}]</v>
       </c>
       <c r="V11" s="31" t="str">
         <f aca="false">IF(AND(K11&lt;&gt;"",K11&lt;&gt;"+3v3",K11&lt;&gt;"GND",NOT(ISNA(P11)),NOT(ISNA(N11))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S11/$V$8,"0.000")," [get_ports {",K11,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S11/$W$8,"0.000")," [get_ports {",K11,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.457 [get_ports {start_n}]
-set_input_delay -clock clk_3v3_n -max 52.526 [get_ports {start_n}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.526 [get_ports {start_n}]</v>
       </c>
       <c r="W11" s="31" t="str">
         <f aca="false">IF(AND(K11&lt;&gt;"",K11&lt;&gt;"+3v3",K11&lt;&gt;"GND",NOT(ISNA(P11)),NOT(ISNA(N11))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P11/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K11,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P11/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K11,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.102 [get_ports {start_n}]
-set_output_delay -clock clk_3v3_n -max 53.697 [get_ports {start_n}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.697 [get_ports {start_n}]</v>
       </c>
       <c r="Y11" s="32" t="str">
         <f aca="false">CONCATENATE(IF(OR(T11="IO",T11="I"),V11,""),IF(OR(T11="IO",T11="O"),W11,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.457 [get_ports {start_n}]
 set_input_delay -clock clk_3v3_n -max 52.526 [get_ports {start_n}]
 set_output_delay -clock clk_3v3_n -min -6.102 [get_ports {start_n}]
-set_output_delay -clock clk_3v3_n -max 53.697 [get_ports {start_n}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.697 [get_ports {start_n}]</v>
       </c>
       <c r="AG11" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K11,3)="LED",LEFT(K11,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D11,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K11),"")</f>
@@ -3582,28 +3563,24 @@
       <c r="U12" s="30" t="str">
         <f aca="false">IF(AND(K12&lt;&gt;"",K12&lt;&gt;"+3v3",K12&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D12," [get_ports {",K12,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K12,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J17 [get_ports {ack_n}]
-set_property IOSTANDARD LVTTL [get_ports {ack_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ack_n}]</v>
       </c>
       <c r="V12" s="31" t="str">
         <f aca="false">IF(AND(K12&lt;&gt;"",K12&lt;&gt;"+3v3",K12&lt;&gt;"GND",NOT(ISNA(P12)),NOT(ISNA(N12))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S12/$V$8,"0.000")," [get_ports {",K12,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S12/$W$8,"0.000")," [get_ports {",K12,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.525 [get_ports {ack_n}]
-set_input_delay -clock clk_3v3_n -max 52.617 [get_ports {ack_n}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.617 [get_ports {ack_n}]</v>
       </c>
       <c r="W12" s="31" t="str">
         <f aca="false">IF(AND(K12&lt;&gt;"",K12&lt;&gt;"+3v3",K12&lt;&gt;"GND",NOT(ISNA(P12)),NOT(ISNA(N12))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P12/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K12,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P12/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K12,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.034 [get_ports {ack_n}]
-set_output_delay -clock clk_3v3_n -max 53.788 [get_ports {ack_n}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.788 [get_ports {ack_n}]</v>
       </c>
       <c r="Y12" s="32" t="str">
         <f aca="false">CONCATENATE(IF(OR(T12="IO",T12="I"),V12,""),IF(OR(T12="IO",T12="O"),W12,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.525 [get_ports {ack_n}]
 set_input_delay -clock clk_3v3_n -max 52.617 [get_ports {ack_n}]
 set_output_delay -clock clk_3v3_n -min -6.034 [get_ports {ack_n}]
-set_output_delay -clock clk_3v3_n -max 53.788 [get_ports {ack_n}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.788 [get_ports {ack_n}]</v>
       </c>
       <c r="AG12" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K12,3)="LED",LEFT(K12,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D12,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K12),"")</f>
@@ -3665,8 +3642,7 @@
       <c r="U13" s="30" t="str">
         <f aca="false">IF(AND(K13&lt;&gt;"",K13&lt;&gt;"+3v3",K13&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D13," [get_ports {",K13,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K13,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J15 [get_ports {start_oe_n}]
-set_property IOSTANDARD LVTTL [get_ports {start_oe_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {start_oe_n}]</v>
       </c>
       <c r="V13" s="31" t="str">
         <f aca="false">IF(AND(K13&lt;&gt;"",K13&lt;&gt;"+3v3",K13&lt;&gt;"GND",NOT(ISNA(P13)),NOT(ISNA(N13))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S13/$V$8,"0.000")," [get_ports {",K13,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S13/$W$8,"0.000")," [get_ports {",K13,"}]",CHAR(10)),"")</f>
@@ -3740,8 +3716,7 @@
       <c r="U14" s="30" t="str">
         <f aca="false">IF(AND(K14&lt;&gt;"",K14&lt;&gt;"+3v3",K14&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D14," [get_ports {",K14,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K14,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K13 [get_ports {rqst_o_n}]
-set_property IOSTANDARD LVTTL [get_ports {rqst_o_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {rqst_o_n}]</v>
       </c>
       <c r="V14" s="31" t="str">
         <f aca="false">IF(AND(K14&lt;&gt;"",K14&lt;&gt;"+3v3",K14&lt;&gt;"GND",NOT(ISNA(P14)),NOT(ISNA(N14))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S14/$V$8,"0.000")," [get_ports {",K14,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S14/$W$8,"0.000")," [get_ports {",K14,"}]",CHAR(10)),"")</f>
@@ -3817,8 +3792,7 @@
       <c r="U15" s="30" t="str">
         <f aca="false">IF(AND(K15&lt;&gt;"",K15&lt;&gt;"+3v3",K15&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D15," [get_ports {",K15,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K15,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN H15 [get_ports {start_o_n}]
-set_property IOSTANDARD LVTTL [get_ports {start_o_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {start_o_n}]</v>
       </c>
       <c r="V15" s="31" t="str">
         <f aca="false">IF(AND(K15&lt;&gt;"",K15&lt;&gt;"+3v3",K15&lt;&gt;"GND",NOT(ISNA(P15)),NOT(ISNA(N15))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S15/$V$8,"0.000")," [get_ports {",K15,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S15/$W$8,"0.000")," [get_ports {",K15,"}]",CHAR(10)),"")</f>
@@ -3892,8 +3866,7 @@
       <c r="U16" s="30" t="str">
         <f aca="false">IF(AND(K16&lt;&gt;"",K16&lt;&gt;"+3v3",K16&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D16," [get_ports {",K16,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K16,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J13 [get_ports {ack_oe_n}]
-set_property IOSTANDARD LVTTL [get_ports {ack_oe_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ack_oe_n}]</v>
       </c>
       <c r="V16" s="31" t="str">
         <f aca="false">IF(AND(K16&lt;&gt;"",K16&lt;&gt;"+3v3",K16&lt;&gt;"GND",NOT(ISNA(P16)),NOT(ISNA(N16))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S16/$V$8,"0.000")," [get_ports {",K16,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S16/$W$8,"0.000")," [get_ports {",K16,"}]",CHAR(10)),"")</f>
@@ -3967,8 +3940,7 @@
       <c r="U17" s="30" t="str">
         <f aca="false">IF(AND(K17&lt;&gt;"",K17&lt;&gt;"+3v3",K17&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D17," [get_ports {",K17,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K17,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J14 [get_ports {arb_o_n0}]
-set_property IOSTANDARD LVTTL [get_ports {arb_o_n0}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_o_n0}]</v>
       </c>
       <c r="V17" s="31" t="str">
         <f aca="false">IF(AND(K17&lt;&gt;"",K17&lt;&gt;"+3v3",K17&lt;&gt;"GND",NOT(ISNA(P17)),NOT(ISNA(N17))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S17/$V$8,"0.000")," [get_ports {",K17,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S17/$W$8,"0.000")," [get_ports {",K17,"}]",CHAR(10)),"")</f>
@@ -4042,8 +4014,7 @@
       <c r="U18" s="30" t="str">
         <f aca="false">IF(AND(K18&lt;&gt;"",K18&lt;&gt;"+3v3",K18&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D18," [get_ports {",K18,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K18,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN H14 [get_ports {ack_o_n}]
-set_property IOSTANDARD LVTTL [get_ports {ack_o_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ack_o_n}]</v>
       </c>
       <c r="V18" s="31" t="str">
         <f aca="false">IF(AND(K18&lt;&gt;"",K18&lt;&gt;"+3v3",K18&lt;&gt;"GND",NOT(ISNA(P18)),NOT(ISNA(N18))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S18/$V$8,"0.000")," [get_ports {",K18,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S18/$W$8,"0.000")," [get_ports {",K18,"}]",CHAR(10)),"")</f>
@@ -4117,8 +4088,7 @@
       <c r="U19" s="30" t="str">
         <f aca="false">IF(AND(K19&lt;&gt;"",K19&lt;&gt;"+3v3",K19&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D19," [get_ports {",K19,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K19,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN H17 [get_ports {arb_o_n3}]
-set_property IOSTANDARD LVTTL [get_ports {arb_o_n3}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_o_n3}]</v>
       </c>
       <c r="V19" s="31" t="str">
         <f aca="false">IF(AND(K19&lt;&gt;"",K19&lt;&gt;"+3v3",K19&lt;&gt;"GND",NOT(ISNA(P19)),NOT(ISNA(N19))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S19/$V$8,"0.000")," [get_ports {",K19,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S19/$W$8,"0.000")," [get_ports {",K19,"}]",CHAR(10)),"")</f>
@@ -4192,8 +4162,7 @@
       <c r="U20" s="30" t="str">
         <f aca="false">IF(AND(K20&lt;&gt;"",K20&lt;&gt;"+3v3",K20&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D20," [get_ports {",K20,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K20,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G14 [get_ports {arb_o_n2}]
-set_property IOSTANDARD LVTTL [get_ports {arb_o_n2}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_o_n2}]</v>
       </c>
       <c r="V20" s="31" t="str">
         <f aca="false">IF(AND(K20&lt;&gt;"",K20&lt;&gt;"+3v3",K20&lt;&gt;"GND",NOT(ISNA(P20)),NOT(ISNA(N20))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S20/$V$8,"0.000")," [get_ports {",K20,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S20/$W$8,"0.000")," [get_ports {",K20,"}]",CHAR(10)),"")</f>
@@ -4267,8 +4236,7 @@
       <c r="U21" s="30" t="str">
         <f aca="false">IF(AND(K21&lt;&gt;"",K21&lt;&gt;"+3v3",K21&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D21," [get_ports {",K21,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K21,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G17 [get_ports {NUBUS_AD_DIR}]
-set_property IOSTANDARD LVTTL [get_ports {NUBUS_AD_DIR}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {NUBUS_AD_DIR}]</v>
       </c>
       <c r="V21" s="31" t="str">
         <f aca="false">IF(AND(K21&lt;&gt;"",K21&lt;&gt;"+3v3",K21&lt;&gt;"GND",NOT(ISNA(P21)),NOT(ISNA(N21))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S21/$V$8,"0.000")," [get_ports {",K21,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S21/$W$8,"0.000")," [get_ports {",K21,"}]",CHAR(10)),"")</f>
@@ -4344,8 +4312,7 @@
       <c r="U22" s="30" t="str">
         <f aca="false">IF(AND(K22&lt;&gt;"",K22&lt;&gt;"+3v3",K22&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D22," [get_ports {",K22,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K22,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G16 [get_ports {arb_o_n1}]
-set_property IOSTANDARD LVTTL [get_ports {arb_o_n1}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_o_n1}]</v>
       </c>
       <c r="V22" s="31" t="str">
         <f aca="false">IF(AND(K22&lt;&gt;"",K22&lt;&gt;"+3v3",K22&lt;&gt;"GND",NOT(ISNA(P22)),NOT(ISNA(N22))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S22/$V$8,"0.000")," [get_ports {",K22,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S22/$W$8,"0.000")," [get_ports {",K22,"}]",CHAR(10)),"")</f>
@@ -4419,28 +4386,24 @@
       <c r="U23" s="30" t="str">
         <f aca="false">IF(AND(K23&lt;&gt;"",K23&lt;&gt;"+3v3",K23&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D23," [get_ports {",K23,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K23,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G18 [get_ports {ad_n31}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n31}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n31}]</v>
       </c>
       <c r="V23" s="31" t="str">
         <f aca="false">IF(AND(K23&lt;&gt;"",K23&lt;&gt;"+3v3",K23&lt;&gt;"GND",NOT(ISNA(P23)),NOT(ISNA(N23))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S23/$V$8,"0.000")," [get_ports {",K23,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S23/$W$8,"0.000")," [get_ports {",K23,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.237 [get_ports {ad_n31}]
-set_input_delay -clock clk_3v3_n -max 52.233 [get_ports {ad_n31}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.233 [get_ports {ad_n31}]</v>
       </c>
       <c r="W23" s="31" t="str">
         <f aca="false">IF(AND(K23&lt;&gt;"",K23&lt;&gt;"+3v3",K23&lt;&gt;"GND",NOT(ISNA(P23)),NOT(ISNA(N23))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P23/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K23,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P23/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K23,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.322 [get_ports {ad_n31}]
-set_output_delay -clock clk_3v3_n -max 53.404 [get_ports {ad_n31}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.404 [get_ports {ad_n31}]</v>
       </c>
       <c r="Y23" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T23="IO",T23="I"),V23,""),IF(OR(T23="IO",T23="O"),W23,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.237 [get_ports {ad_n31}]
 set_input_delay -clock clk_3v3_n -max 52.233 [get_ports {ad_n31}]
 set_output_delay -clock clk_3v3_n -min -6.322 [get_ports {ad_n31}]
-set_output_delay -clock clk_3v3_n -max 53.404 [get_ports {ad_n31}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.404 [get_ports {ad_n31}]</v>
       </c>
       <c r="AG23" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K23,3)="LED",LEFT(K23,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D23,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K23),"")</f>
@@ -4509,20 +4472,17 @@
       <c r="V24" s="31" t="str">
         <f aca="false">IF(AND(K24&lt;&gt;"",K24&lt;&gt;"+3v3",K24&lt;&gt;"GND",NOT(ISNA(P24)),NOT(ISNA(N24))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S24/$V$8,"0.000")," [get_ports {",K24,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S24/$W$8,"0.000")," [get_ports {",K24,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.250 [get_ports {clk_n}]
-set_input_delay -clock clk_3v3_n -max 52.250 [get_ports {clk_n}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.250 [get_ports {clk_n}]</v>
       </c>
       <c r="W24" s="31" t="str">
         <f aca="false">IF(AND(K24&lt;&gt;"",K24&lt;&gt;"+3v3",K24&lt;&gt;"GND",NOT(ISNA(P24)),NOT(ISNA(N24))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P24/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K24,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P24/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K24,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.309 [get_ports {clk_n}]
-set_output_delay -clock clk_3v3_n -max 53.421 [get_ports {clk_n}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.421 [get_ports {clk_n}]</v>
       </c>
       <c r="Y24" s="32" t="str">
         <f aca="false">CONCATENATE(IF(OR(T24="IO",T24="I"),V24,""),IF(OR(T24="IO",T24="O"),W24,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.250 [get_ports {clk_n}]
-set_input_delay -clock clk_3v3_n -max 52.250 [get_ports {clk_n}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.250 [get_ports {clk_n}]</v>
       </c>
       <c r="AG24" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K24,3)="LED",LEFT(K24,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D24,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K24),"")</f>
@@ -4589,22 +4549,19 @@
       <c r="V25" s="31" t="str">
         <f aca="false">IF(AND(K25&lt;&gt;"",K25&lt;&gt;"+3v3",K25&lt;&gt;"GND",NOT(ISNA(P25)),NOT(ISNA(N25))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S25/$V$8,"0.000")," [get_ports {",K25,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S25/$W$8,"0.000")," [get_ports {",K25,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.229 [get_ports {ad_n29}]
-set_input_delay -clock clk_3v3_n -max 52.221 [get_ports {ad_n29}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.221 [get_ports {ad_n29}]</v>
       </c>
       <c r="W25" s="31" t="str">
         <f aca="false">IF(AND(K25&lt;&gt;"",K25&lt;&gt;"+3v3",K25&lt;&gt;"GND",NOT(ISNA(P25)),NOT(ISNA(N25))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P25/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K25,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P25/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K25,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.330 [get_ports {ad_n29}]
-set_output_delay -clock clk_3v3_n -max 53.393 [get_ports {ad_n29}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.393 [get_ports {ad_n29}]</v>
       </c>
       <c r="Y25" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T25="IO",T25="I"),V25,""),IF(OR(T25="IO",T25="O"),W25,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.229 [get_ports {ad_n29}]
 set_input_delay -clock clk_3v3_n -max 52.221 [get_ports {ad_n29}]
 set_output_delay -clock clk_3v3_n -min -6.330 [get_ports {ad_n29}]
-set_output_delay -clock clk_3v3_n -max 53.393 [get_ports {ad_n29}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.393 [get_ports {ad_n29}]</v>
       </c>
       <c r="AG25" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K25,3)="LED",LEFT(K25,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D25,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K25),"")</f>
@@ -4673,22 +4630,19 @@
       <c r="V26" s="31" t="str">
         <f aca="false">IF(AND(K26&lt;&gt;"",K26&lt;&gt;"+3v3",K26&lt;&gt;"GND",NOT(ISNA(P26)),NOT(ISNA(N26))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S26/$V$8,"0.000")," [get_ports {",K26,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S26/$W$8,"0.000")," [get_ports {",K26,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.282 [get_ports {ad_n30}]
-set_input_delay -clock clk_3v3_n -max 52.293 [get_ports {ad_n30}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.293 [get_ports {ad_n30}]</v>
       </c>
       <c r="W26" s="31" t="str">
         <f aca="false">IF(AND(K26&lt;&gt;"",K26&lt;&gt;"+3v3",K26&lt;&gt;"GND",NOT(ISNA(P26)),NOT(ISNA(N26))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P26/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K26,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P26/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K26,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.277 [get_ports {ad_n30}]
-set_output_delay -clock clk_3v3_n -max 53.464 [get_ports {ad_n30}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.464 [get_ports {ad_n30}]</v>
       </c>
       <c r="Y26" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T26="IO",T26="I"),V26,""),IF(OR(T26="IO",T26="O"),W26,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.282 [get_ports {ad_n30}]
 set_input_delay -clock clk_3v3_n -max 52.293 [get_ports {ad_n30}]
 set_output_delay -clock clk_3v3_n -min -6.277 [get_ports {ad_n30}]
-set_output_delay -clock clk_3v3_n -max 53.464 [get_ports {ad_n30}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.464 [get_ports {ad_n30}]</v>
       </c>
       <c r="AG26" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K26,3)="LED",LEFT(K26,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D26,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K26),"")</f>
@@ -4755,22 +4709,19 @@
       <c r="V27" s="31" t="str">
         <f aca="false">IF(AND(K27&lt;&gt;"",K27&lt;&gt;"+3v3",K27&lt;&gt;"GND",NOT(ISNA(P27)),NOT(ISNA(N27))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S27/$V$8,"0.000")," [get_ports {",K27,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S27/$W$8,"0.000")," [get_ports {",K27,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.224 [get_ports {ad_n27}]
-set_input_delay -clock clk_3v3_n -max 52.215 [get_ports {ad_n27}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.215 [get_ports {ad_n27}]</v>
       </c>
       <c r="W27" s="31" t="str">
         <f aca="false">IF(AND(K27&lt;&gt;"",K27&lt;&gt;"+3v3",K27&lt;&gt;"GND",NOT(ISNA(P27)),NOT(ISNA(N27))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P27/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K27,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P27/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K27,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.335 [get_ports {ad_n27}]
-set_output_delay -clock clk_3v3_n -max 53.386 [get_ports {ad_n27}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.386 [get_ports {ad_n27}]</v>
       </c>
       <c r="Y27" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T27="IO",T27="I"),V27,""),IF(OR(T27="IO",T27="O"),W27,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.224 [get_ports {ad_n27}]
 set_input_delay -clock clk_3v3_n -max 52.215 [get_ports {ad_n27}]
 set_output_delay -clock clk_3v3_n -min -6.335 [get_ports {ad_n27}]
-set_output_delay -clock clk_3v3_n -max 53.386 [get_ports {ad_n27}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.386 [get_ports {ad_n27}]</v>
       </c>
       <c r="AG27" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K27,3)="LED",LEFT(K27,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D27,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K27),"")</f>
@@ -4839,22 +4790,19 @@
       <c r="V28" s="31" t="str">
         <f aca="false">IF(AND(K28&lt;&gt;"",K28&lt;&gt;"+3v3",K28&lt;&gt;"GND",NOT(ISNA(P28)),NOT(ISNA(N28))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S28/$V$8,"0.000")," [get_ports {",K28,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S28/$W$8,"0.000")," [get_ports {",K28,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.202 [get_ports {ad_n28}]
-set_input_delay -clock clk_3v3_n -max 52.186 [get_ports {ad_n28}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.186 [get_ports {ad_n28}]</v>
       </c>
       <c r="W28" s="31" t="str">
         <f aca="false">IF(AND(K28&lt;&gt;"",K28&lt;&gt;"+3v3",K28&lt;&gt;"GND",NOT(ISNA(P28)),NOT(ISNA(N28))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P28/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K28,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P28/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K28,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.357 [get_ports {ad_n28}]
-set_output_delay -clock clk_3v3_n -max 53.357 [get_ports {ad_n28}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.357 [get_ports {ad_n28}]</v>
       </c>
       <c r="Y28" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T28="IO",T28="I"),V28,""),IF(OR(T28="IO",T28="O"),W28,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.202 [get_ports {ad_n28}]
 set_input_delay -clock clk_3v3_n -max 52.186 [get_ports {ad_n28}]
 set_output_delay -clock clk_3v3_n -min -6.357 [get_ports {ad_n28}]
-set_output_delay -clock clk_3v3_n -max 53.357 [get_ports {ad_n28}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.357 [get_ports {ad_n28}]</v>
       </c>
       <c r="AG28" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K28,3)="LED",LEFT(K28,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D28,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K28),"")</f>
@@ -4921,22 +4869,19 @@
       <c r="V29" s="31" t="str">
         <f aca="false">IF(AND(K29&lt;&gt;"",K29&lt;&gt;"+3v3",K29&lt;&gt;"GND",NOT(ISNA(P29)),NOT(ISNA(N29))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S29/$V$8,"0.000")," [get_ports {",K29,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S29/$W$8,"0.000")," [get_ports {",K29,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.214 [get_ports {ad_n25}]
-set_input_delay -clock clk_3v3_n -max 52.202 [get_ports {ad_n25}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.202 [get_ports {ad_n25}]</v>
       </c>
       <c r="W29" s="31" t="str">
         <f aca="false">IF(AND(K29&lt;&gt;"",K29&lt;&gt;"+3v3",K29&lt;&gt;"GND",NOT(ISNA(P29)),NOT(ISNA(N29))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P29/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K29,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P29/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K29,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.345 [get_ports {ad_n25}]
-set_output_delay -clock clk_3v3_n -max 53.374 [get_ports {ad_n25}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.374 [get_ports {ad_n25}]</v>
       </c>
       <c r="Y29" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T29="IO",T29="I"),V29,""),IF(OR(T29="IO",T29="O"),W29,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.214 [get_ports {ad_n25}]
 set_input_delay -clock clk_3v3_n -max 52.202 [get_ports {ad_n25}]
 set_output_delay -clock clk_3v3_n -min -6.345 [get_ports {ad_n25}]
-set_output_delay -clock clk_3v3_n -max 53.374 [get_ports {ad_n25}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.374 [get_ports {ad_n25}]</v>
       </c>
       <c r="AG29" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K29,3)="LED",LEFT(K29,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D29,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K29),"")</f>
@@ -5003,22 +4948,19 @@
       <c r="V30" s="31" t="str">
         <f aca="false">IF(AND(K30&lt;&gt;"",K30&lt;&gt;"+3v3",K30&lt;&gt;"GND",NOT(ISNA(P30)),NOT(ISNA(N30))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S30/$V$8,"0.000")," [get_ports {",K30,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S30/$W$8,"0.000")," [get_ports {",K30,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.189 [get_ports {ad_n26}]
-set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n26}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n26}]</v>
       </c>
       <c r="W30" s="31" t="str">
         <f aca="false">IF(AND(K30&lt;&gt;"",K30&lt;&gt;"+3v3",K30&lt;&gt;"GND",NOT(ISNA(P30)),NOT(ISNA(N30))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P30/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K30,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P30/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K30,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.370 [get_ports {ad_n26}]
-set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n26}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n26}]</v>
       </c>
       <c r="Y30" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T30="IO",T30="I"),V30,""),IF(OR(T30="IO",T30="O"),W30,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.189 [get_ports {ad_n26}]
 set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n26}]
 set_output_delay -clock clk_3v3_n -min -6.370 [get_ports {ad_n26}]
-set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n26}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n26}]</v>
       </c>
       <c r="AG30" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K30,3)="LED",LEFT(K30,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D30,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K30),"")</f>
@@ -5159,22 +5101,19 @@
       <c r="V32" s="31" t="str">
         <f aca="false">IF(AND(K32&lt;&gt;"",K32&lt;&gt;"+3v3",K32&lt;&gt;"GND",NOT(ISNA(P32)),NOT(ISNA(N32))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S32/$V$8,"0.000")," [get_ports {",K32,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S32/$W$8,"0.000")," [get_ports {",K32,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.185 [get_ports {ad_n24}]
-set_input_delay -clock clk_3v3_n -max 52.163 [get_ports {ad_n24}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.163 [get_ports {ad_n24}]</v>
       </c>
       <c r="W32" s="31" t="str">
         <f aca="false">IF(AND(K32&lt;&gt;"",K32&lt;&gt;"+3v3",K32&lt;&gt;"GND",NOT(ISNA(P32)),NOT(ISNA(N32))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P32/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K32,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P32/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K32,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.374 [get_ports {ad_n24}]
-set_output_delay -clock clk_3v3_n -max 53.335 [get_ports {ad_n24}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.335 [get_ports {ad_n24}]</v>
       </c>
       <c r="Y32" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T32="IO",T32="I"),V32,""),IF(OR(T32="IO",T32="O"),W32,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.185 [get_ports {ad_n24}]
 set_input_delay -clock clk_3v3_n -max 52.163 [get_ports {ad_n24}]
 set_output_delay -clock clk_3v3_n -min -6.374 [get_ports {ad_n24}]
-set_output_delay -clock clk_3v3_n -max 53.335 [get_ports {ad_n24}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.335 [get_ports {ad_n24}]</v>
       </c>
       <c r="AG32" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K32,3)="LED",LEFT(K32,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D32,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K32),"")</f>
@@ -5597,22 +5536,19 @@
       <c r="V39" s="31" t="str">
         <f aca="false">IF(AND(K39&lt;&gt;"",K39&lt;&gt;"+3v3",K39&lt;&gt;"GND",NOT(ISNA(P39)),NOT(ISNA(N39))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S39/$V$8,"0.000")," [get_ports {",K39,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S39/$W$8,"0.000")," [get_ports {",K39,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.192 [get_ports {ad_n23}]
-set_input_delay -clock clk_3v3_n -max 52.173 [get_ports {ad_n23}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.173 [get_ports {ad_n23}]</v>
       </c>
       <c r="W39" s="31" t="str">
         <f aca="false">IF(AND(K39&lt;&gt;"",K39&lt;&gt;"+3v3",K39&lt;&gt;"GND",NOT(ISNA(P39)),NOT(ISNA(N39))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P39/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K39,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P39/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K39,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.367 [get_ports {ad_n23}]
-set_output_delay -clock clk_3v3_n -max 53.344 [get_ports {ad_n23}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.344 [get_ports {ad_n23}]</v>
       </c>
       <c r="Y39" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T39="IO",T39="I"),V39,""),IF(OR(T39="IO",T39="O"),W39,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.192 [get_ports {ad_n23}]
 set_input_delay -clock clk_3v3_n -max 52.173 [get_ports {ad_n23}]
 set_output_delay -clock clk_3v3_n -min -6.367 [get_ports {ad_n23}]
-set_output_delay -clock clk_3v3_n -max 53.344 [get_ports {ad_n23}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.344 [get_ports {ad_n23}]</v>
       </c>
       <c r="AG39" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K39,3)="LED",LEFT(K39,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D39,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K39),"")</f>
@@ -5679,22 +5615,19 @@
       <c r="V40" s="31" t="str">
         <f aca="false">IF(AND(K40&lt;&gt;"",K40&lt;&gt;"+3v3",K40&lt;&gt;"GND",NOT(ISNA(P40)),NOT(ISNA(N40))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S40/$V$8,"0.000")," [get_ports {",K40,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S40/$W$8,"0.000")," [get_ports {",K40,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.149 [get_ports {ad_n22}]
-set_input_delay -clock clk_3v3_n -max 52.115 [get_ports {ad_n22}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.115 [get_ports {ad_n22}]</v>
       </c>
       <c r="W40" s="31" t="str">
         <f aca="false">IF(AND(K40&lt;&gt;"",K40&lt;&gt;"+3v3",K40&lt;&gt;"GND",NOT(ISNA(P40)),NOT(ISNA(N40))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P40/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K40,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P40/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K40,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.410 [get_ports {ad_n22}]
-set_output_delay -clock clk_3v3_n -max 53.286 [get_ports {ad_n22}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.286 [get_ports {ad_n22}]</v>
       </c>
       <c r="Y40" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T40="IO",T40="I"),V40,""),IF(OR(T40="IO",T40="O"),W40,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.149 [get_ports {ad_n22}]
 set_input_delay -clock clk_3v3_n -max 52.115 [get_ports {ad_n22}]
 set_output_delay -clock clk_3v3_n -min -6.410 [get_ports {ad_n22}]
-set_output_delay -clock clk_3v3_n -max 53.286 [get_ports {ad_n22}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.286 [get_ports {ad_n22}]</v>
       </c>
       <c r="AG40" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K40,3)="LED",LEFT(K40,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D40,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K40),"")</f>
@@ -5763,22 +5696,19 @@
       <c r="V41" s="31" t="str">
         <f aca="false">IF(AND(K41&lt;&gt;"",K41&lt;&gt;"+3v3",K41&lt;&gt;"GND",NOT(ISNA(P41)),NOT(ISNA(N41))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S41/$V$8,"0.000")," [get_ports {",K41,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S41/$W$8,"0.000")," [get_ports {",K41,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.177 [get_ports {ad_n21}]
-set_input_delay -clock clk_3v3_n -max 52.152 [get_ports {ad_n21}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.152 [get_ports {ad_n21}]</v>
       </c>
       <c r="W41" s="31" t="str">
         <f aca="false">IF(AND(K41&lt;&gt;"",K41&lt;&gt;"+3v3",K41&lt;&gt;"GND",NOT(ISNA(P41)),NOT(ISNA(N41))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P41/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K41,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P41/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K41,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.382 [get_ports {ad_n21}]
-set_output_delay -clock clk_3v3_n -max 53.324 [get_ports {ad_n21}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.324 [get_ports {ad_n21}]</v>
       </c>
       <c r="Y41" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T41="IO",T41="I"),V41,""),IF(OR(T41="IO",T41="O"),W41,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.177 [get_ports {ad_n21}]
 set_input_delay -clock clk_3v3_n -max 52.152 [get_ports {ad_n21}]
 set_output_delay -clock clk_3v3_n -min -6.382 [get_ports {ad_n21}]
-set_output_delay -clock clk_3v3_n -max 53.324 [get_ports {ad_n21}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.324 [get_ports {ad_n21}]</v>
       </c>
       <c r="AG41" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K41,3)="LED",LEFT(K41,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D41,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K41),"")</f>
@@ -5847,22 +5777,19 @@
       <c r="V42" s="31" t="str">
         <f aca="false">IF(AND(K42&lt;&gt;"",K42&lt;&gt;"+3v3",K42&lt;&gt;"GND",NOT(ISNA(P42)),NOT(ISNA(N42))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S42/$V$8,"0.000")," [get_ports {",K42,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S42/$W$8,"0.000")," [get_ports {",K42,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.136 [get_ports {ad_n20}]
-set_input_delay -clock clk_3v3_n -max 52.098 [get_ports {ad_n20}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.098 [get_ports {ad_n20}]</v>
       </c>
       <c r="W42" s="31" t="str">
         <f aca="false">IF(AND(K42&lt;&gt;"",K42&lt;&gt;"+3v3",K42&lt;&gt;"GND",NOT(ISNA(P42)),NOT(ISNA(N42))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P42/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K42,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P42/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K42,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.423 [get_ports {ad_n20}]
-set_output_delay -clock clk_3v3_n -max 53.270 [get_ports {ad_n20}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.270 [get_ports {ad_n20}]</v>
       </c>
       <c r="Y42" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T42="IO",T42="I"),V42,""),IF(OR(T42="IO",T42="O"),W42,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.136 [get_ports {ad_n20}]
 set_input_delay -clock clk_3v3_n -max 52.098 [get_ports {ad_n20}]
 set_output_delay -clock clk_3v3_n -min -6.423 [get_ports {ad_n20}]
-set_output_delay -clock clk_3v3_n -max 53.270 [get_ports {ad_n20}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.270 [get_ports {ad_n20}]</v>
       </c>
       <c r="AG42" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K42,3)="LED",LEFT(K42,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D42,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K42),"")</f>
@@ -5929,22 +5856,19 @@
       <c r="V43" s="31" t="str">
         <f aca="false">IF(AND(K43&lt;&gt;"",K43&lt;&gt;"+3v3",K43&lt;&gt;"GND",NOT(ISNA(P43)),NOT(ISNA(N43))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S43/$V$8,"0.000")," [get_ports {",K43,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S43/$W$8,"0.000")," [get_ports {",K43,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.159 [get_ports {ad_n19}]
-set_input_delay -clock clk_3v3_n -max 52.129 [get_ports {ad_n19}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.129 [get_ports {ad_n19}]</v>
       </c>
       <c r="W43" s="31" t="str">
         <f aca="false">IF(AND(K43&lt;&gt;"",K43&lt;&gt;"+3v3",K43&lt;&gt;"GND",NOT(ISNA(P43)),NOT(ISNA(N43))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P43/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K43,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P43/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K43,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.400 [get_ports {ad_n19}]
-set_output_delay -clock clk_3v3_n -max 53.300 [get_ports {ad_n19}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.300 [get_ports {ad_n19}]</v>
       </c>
       <c r="Y43" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T43="IO",T43="I"),V43,""),IF(OR(T43="IO",T43="O"),W43,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.159 [get_ports {ad_n19}]
 set_input_delay -clock clk_3v3_n -max 52.129 [get_ports {ad_n19}]
 set_output_delay -clock clk_3v3_n -min -6.400 [get_ports {ad_n19}]
-set_output_delay -clock clk_3v3_n -max 53.300 [get_ports {ad_n19}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.300 [get_ports {ad_n19}]</v>
       </c>
       <c r="AG43" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K43,3)="LED",LEFT(K43,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D43,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K43),"")</f>
@@ -6011,22 +5935,19 @@
       <c r="V44" s="31" t="str">
         <f aca="false">IF(AND(K44&lt;&gt;"",K44&lt;&gt;"+3v3",K44&lt;&gt;"GND",NOT(ISNA(P44)),NOT(ISNA(N44))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S44/$V$8,"0.000")," [get_ports {",K44,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S44/$W$8,"0.000")," [get_ports {",K44,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.123 [get_ports {ad_n18}]
-set_input_delay -clock clk_3v3_n -max 52.080 [get_ports {ad_n18}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.080 [get_ports {ad_n18}]</v>
       </c>
       <c r="W44" s="31" t="str">
         <f aca="false">IF(AND(K44&lt;&gt;"",K44&lt;&gt;"+3v3",K44&lt;&gt;"GND",NOT(ISNA(P44)),NOT(ISNA(N44))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P44/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K44,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P44/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K44,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.436 [get_ports {ad_n18}]
-set_output_delay -clock clk_3v3_n -max 53.252 [get_ports {ad_n18}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.252 [get_ports {ad_n18}]</v>
       </c>
       <c r="Y44" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T44="IO",T44="I"),V44,""),IF(OR(T44="IO",T44="O"),W44,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.123 [get_ports {ad_n18}]
 set_input_delay -clock clk_3v3_n -max 52.080 [get_ports {ad_n18}]
 set_output_delay -clock clk_3v3_n -min -6.436 [get_ports {ad_n18}]
-set_output_delay -clock clk_3v3_n -max 53.252 [get_ports {ad_n18}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.252 [get_ports {ad_n18}]</v>
       </c>
       <c r="AG44" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K44,3)="LED",LEFT(K44,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D44,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K44),"")</f>
@@ -6095,22 +6016,19 @@
       <c r="V45" s="31" t="str">
         <f aca="false">IF(AND(K45&lt;&gt;"",K45&lt;&gt;"+3v3",K45&lt;&gt;"GND",NOT(ISNA(P45)),NOT(ISNA(N45))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S45/$V$8,"0.000")," [get_ports {",K45,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S45/$W$8,"0.000")," [get_ports {",K45,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.155 [get_ports {ad_n17}]
-set_input_delay -clock clk_3v3_n -max 52.123 [get_ports {ad_n17}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.123 [get_ports {ad_n17}]</v>
       </c>
       <c r="W45" s="31" t="str">
         <f aca="false">IF(AND(K45&lt;&gt;"",K45&lt;&gt;"+3v3",K45&lt;&gt;"GND",NOT(ISNA(P45)),NOT(ISNA(N45))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P45/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K45,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P45/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K45,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.404 [get_ports {ad_n17}]
-set_output_delay -clock clk_3v3_n -max 53.294 [get_ports {ad_n17}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.294 [get_ports {ad_n17}]</v>
       </c>
       <c r="Y45" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T45="IO",T45="I"),V45,""),IF(OR(T45="IO",T45="O"),W45,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.155 [get_ports {ad_n17}]
 set_input_delay -clock clk_3v3_n -max 52.123 [get_ports {ad_n17}]
 set_output_delay -clock clk_3v3_n -min -6.404 [get_ports {ad_n17}]
-set_output_delay -clock clk_3v3_n -max 53.294 [get_ports {ad_n17}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.294 [get_ports {ad_n17}]</v>
       </c>
       <c r="AG45" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K45,3)="LED",LEFT(K45,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D45,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K45),"")</f>
@@ -6177,22 +6095,19 @@
       <c r="V46" s="31" t="str">
         <f aca="false">IF(AND(K46&lt;&gt;"",K46&lt;&gt;"+3v3",K46&lt;&gt;"GND",NOT(ISNA(P46)),NOT(ISNA(N46))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S46/$V$8,"0.000")," [get_ports {",K46,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S46/$W$8,"0.000")," [get_ports {",K46,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.109 [get_ports {ad_n16}]
-set_input_delay -clock clk_3v3_n -max 52.062 [get_ports {ad_n16}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.062 [get_ports {ad_n16}]</v>
       </c>
       <c r="W46" s="31" t="str">
         <f aca="false">IF(AND(K46&lt;&gt;"",K46&lt;&gt;"+3v3",K46&lt;&gt;"GND",NOT(ISNA(P46)),NOT(ISNA(N46))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P46/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K46,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P46/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K46,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.450 [get_ports {ad_n16}]
-set_output_delay -clock clk_3v3_n -max 53.233 [get_ports {ad_n16}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.233 [get_ports {ad_n16}]</v>
       </c>
       <c r="Y46" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T46="IO",T46="I"),V46,""),IF(OR(T46="IO",T46="O"),W46,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.109 [get_ports {ad_n16}]
 set_input_delay -clock clk_3v3_n -max 52.062 [get_ports {ad_n16}]
 set_output_delay -clock clk_3v3_n -min -6.450 [get_ports {ad_n16}]
-set_output_delay -clock clk_3v3_n -max 53.233 [get_ports {ad_n16}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.233 [get_ports {ad_n16}]</v>
       </c>
       <c r="AG46" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K46,3)="LED",LEFT(K46,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D46,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K46),"")</f>
@@ -6261,22 +6176,19 @@
       <c r="V47" s="31" t="str">
         <f aca="false">IF(AND(K47&lt;&gt;"",K47&lt;&gt;"+3v3",K47&lt;&gt;"GND",NOT(ISNA(P47)),NOT(ISNA(N47))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S47/$V$8,"0.000")," [get_ports {",K47,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S47/$W$8,"0.000")," [get_ports {",K47,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.176 [get_ports {ad_n15}]
-set_input_delay -clock clk_3v3_n -max 52.151 [get_ports {ad_n15}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.151 [get_ports {ad_n15}]</v>
       </c>
       <c r="W47" s="31" t="str">
         <f aca="false">IF(AND(K47&lt;&gt;"",K47&lt;&gt;"+3v3",K47&lt;&gt;"GND",NOT(ISNA(P47)),NOT(ISNA(N47))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P47/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K47,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P47/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K47,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.383 [get_ports {ad_n15}]
-set_output_delay -clock clk_3v3_n -max 53.322 [get_ports {ad_n15}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.322 [get_ports {ad_n15}]</v>
       </c>
       <c r="Y47" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T47="IO",T47="I"),V47,""),IF(OR(T47="IO",T47="O"),W47,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.176 [get_ports {ad_n15}]
 set_input_delay -clock clk_3v3_n -max 52.151 [get_ports {ad_n15}]
 set_output_delay -clock clk_3v3_n -min -6.383 [get_ports {ad_n15}]
-set_output_delay -clock clk_3v3_n -max 53.322 [get_ports {ad_n15}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.322 [get_ports {ad_n15}]</v>
       </c>
       <c r="AG47" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K47,3)="LED",LEFT(K47,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D47,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K47),"")</f>
@@ -6345,22 +6257,19 @@
       <c r="V48" s="31" t="str">
         <f aca="false">IF(AND(K48&lt;&gt;"",K48&lt;&gt;"+3v3",K48&lt;&gt;"GND",NOT(ISNA(P48)),NOT(ISNA(N48))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S48/$V$8,"0.000")," [get_ports {",K48,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S48/$W$8,"0.000")," [get_ports {",K48,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.121 [get_ports {ad_n14}]
-set_input_delay -clock clk_3v3_n -max 52.078 [get_ports {ad_n14}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.078 [get_ports {ad_n14}]</v>
       </c>
       <c r="W48" s="31" t="str">
         <f aca="false">IF(AND(K48&lt;&gt;"",K48&lt;&gt;"+3v3",K48&lt;&gt;"GND",NOT(ISNA(P48)),NOT(ISNA(N48))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P48/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K48,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P48/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K48,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.438 [get_ports {ad_n14}]
-set_output_delay -clock clk_3v3_n -max 53.249 [get_ports {ad_n14}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.249 [get_ports {ad_n14}]</v>
       </c>
       <c r="Y48" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T48="IO",T48="I"),V48,""),IF(OR(T48="IO",T48="O"),W48,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.121 [get_ports {ad_n14}]
 set_input_delay -clock clk_3v3_n -max 52.078 [get_ports {ad_n14}]
 set_output_delay -clock clk_3v3_n -min -6.438 [get_ports {ad_n14}]
-set_output_delay -clock clk_3v3_n -max 53.249 [get_ports {ad_n14}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.249 [get_ports {ad_n14}]</v>
       </c>
       <c r="AG48" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K48,3)="LED",LEFT(K48,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D48,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K48),"")</f>
@@ -6427,22 +6336,19 @@
       <c r="V49" s="31" t="str">
         <f aca="false">IF(AND(K49&lt;&gt;"",K49&lt;&gt;"+3v3",K49&lt;&gt;"GND",NOT(ISNA(P49)),NOT(ISNA(N49))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S49/$V$8,"0.000")," [get_ports {",K49,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S49/$W$8,"0.000")," [get_ports {",K49,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.158 [get_ports {ad_n13}]
-set_input_delay -clock clk_3v3_n -max 52.128 [get_ports {ad_n13}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.128 [get_ports {ad_n13}]</v>
       </c>
       <c r="W49" s="31" t="str">
         <f aca="false">IF(AND(K49&lt;&gt;"",K49&lt;&gt;"+3v3",K49&lt;&gt;"GND",NOT(ISNA(P49)),NOT(ISNA(N49))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P49/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K49,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P49/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K49,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.401 [get_ports {ad_n13}]
-set_output_delay -clock clk_3v3_n -max 53.299 [get_ports {ad_n13}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.299 [get_ports {ad_n13}]</v>
       </c>
       <c r="Y49" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T49="IO",T49="I"),V49,""),IF(OR(T49="IO",T49="O"),W49,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.158 [get_ports {ad_n13}]
 set_input_delay -clock clk_3v3_n -max 52.128 [get_ports {ad_n13}]
 set_output_delay -clock clk_3v3_n -min -6.401 [get_ports {ad_n13}]
-set_output_delay -clock clk_3v3_n -max 53.299 [get_ports {ad_n13}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.299 [get_ports {ad_n13}]</v>
       </c>
       <c r="AG49" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K49,3)="LED",LEFT(K49,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D49,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K49),"")</f>
@@ -6509,22 +6415,19 @@
       <c r="V50" s="31" t="str">
         <f aca="false">IF(AND(K50&lt;&gt;"",K50&lt;&gt;"+3v3",K50&lt;&gt;"GND",NOT(ISNA(P50)),NOT(ISNA(N50))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S50/$V$8,"0.000")," [get_ports {",K50,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S50/$W$8,"0.000")," [get_ports {",K50,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.115 [get_ports {ad_n12}]
-set_input_delay -clock clk_3v3_n -max 52.070 [get_ports {ad_n12}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.070 [get_ports {ad_n12}]</v>
       </c>
       <c r="W50" s="31" t="str">
         <f aca="false">IF(AND(K50&lt;&gt;"",K50&lt;&gt;"+3v3",K50&lt;&gt;"GND",NOT(ISNA(P50)),NOT(ISNA(N50))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P50/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K50,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P50/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K50,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.444 [get_ports {ad_n12}]
-set_output_delay -clock clk_3v3_n -max 53.241 [get_ports {ad_n12}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.241 [get_ports {ad_n12}]</v>
       </c>
       <c r="Y50" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T50="IO",T50="I"),V50,""),IF(OR(T50="IO",T50="O"),W50,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.115 [get_ports {ad_n12}]
 set_input_delay -clock clk_3v3_n -max 52.070 [get_ports {ad_n12}]
 set_output_delay -clock clk_3v3_n -min -6.444 [get_ports {ad_n12}]
-set_output_delay -clock clk_3v3_n -max 53.241 [get_ports {ad_n12}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.241 [get_ports {ad_n12}]</v>
       </c>
       <c r="AG50" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K50,3)="LED",LEFT(K50,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D50,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K50),"")</f>
@@ -6591,22 +6494,19 @@
       <c r="V51" s="31" t="str">
         <f aca="false">IF(AND(K51&lt;&gt;"",K51&lt;&gt;"+3v3",K51&lt;&gt;"GND",NOT(ISNA(P51)),NOT(ISNA(N51))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S51/$V$8,"0.000")," [get_ports {",K51,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S51/$W$8,"0.000")," [get_ports {",K51,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.178 [get_ports {ad_n11}]
-set_input_delay -clock clk_3v3_n -max 52.155 [get_ports {ad_n11}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.155 [get_ports {ad_n11}]</v>
       </c>
       <c r="W51" s="31" t="str">
         <f aca="false">IF(AND(K51&lt;&gt;"",K51&lt;&gt;"+3v3",K51&lt;&gt;"GND",NOT(ISNA(P51)),NOT(ISNA(N51))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P51/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K51,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P51/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K51,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.381 [get_ports {ad_n11}]
-set_output_delay -clock clk_3v3_n -max 53.326 [get_ports {ad_n11}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.326 [get_ports {ad_n11}]</v>
       </c>
       <c r="Y51" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T51="IO",T51="I"),V51,""),IF(OR(T51="IO",T51="O"),W51,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.178 [get_ports {ad_n11}]
 set_input_delay -clock clk_3v3_n -max 52.155 [get_ports {ad_n11}]
 set_output_delay -clock clk_3v3_n -min -6.381 [get_ports {ad_n11}]
-set_output_delay -clock clk_3v3_n -max 53.326 [get_ports {ad_n11}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.326 [get_ports {ad_n11}]</v>
       </c>
       <c r="AG51" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K51,3)="LED",LEFT(K51,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D51,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K51),"")</f>
@@ -6673,22 +6573,19 @@
       <c r="V52" s="31" t="str">
         <f aca="false">IF(AND(K52&lt;&gt;"",K52&lt;&gt;"+3v3",K52&lt;&gt;"GND",NOT(ISNA(P52)),NOT(ISNA(N52))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S52/$V$8,"0.000")," [get_ports {",K52,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S52/$W$8,"0.000")," [get_ports {",K52,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.129 [get_ports {ad_n10}]
-set_input_delay -clock clk_3v3_n -max 52.089 [get_ports {ad_n10}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.089 [get_ports {ad_n10}]</v>
       </c>
       <c r="W52" s="31" t="str">
         <f aca="false">IF(AND(K52&lt;&gt;"",K52&lt;&gt;"+3v3",K52&lt;&gt;"GND",NOT(ISNA(P52)),NOT(ISNA(N52))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P52/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K52,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P52/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K52,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.430 [get_ports {ad_n10}]
-set_output_delay -clock clk_3v3_n -max 53.260 [get_ports {ad_n10}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.260 [get_ports {ad_n10}]</v>
       </c>
       <c r="Y52" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T52="IO",T52="I"),V52,""),IF(OR(T52="IO",T52="O"),W52,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.129 [get_ports {ad_n10}]
 set_input_delay -clock clk_3v3_n -max 52.089 [get_ports {ad_n10}]
 set_output_delay -clock clk_3v3_n -min -6.430 [get_ports {ad_n10}]
-set_output_delay -clock clk_3v3_n -max 53.260 [get_ports {ad_n10}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.260 [get_ports {ad_n10}]</v>
       </c>
       <c r="AG52" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K52,3)="LED",LEFT(K52,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D52,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K52),"")</f>
@@ -6757,22 +6654,19 @@
       <c r="V53" s="31" t="str">
         <f aca="false">IF(AND(K53&lt;&gt;"",K53&lt;&gt;"+3v3",K53&lt;&gt;"GND",NOT(ISNA(P53)),NOT(ISNA(N53))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S53/$V$8,"0.000")," [get_ports {",K53,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S53/$W$8,"0.000")," [get_ports {",K53,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.189 [get_ports {ad_n9}]
-set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n9}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n9}]</v>
       </c>
       <c r="W53" s="31" t="str">
         <f aca="false">IF(AND(K53&lt;&gt;"",K53&lt;&gt;"+3v3",K53&lt;&gt;"GND",NOT(ISNA(P53)),NOT(ISNA(N53))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P53/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K53,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P53/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K53,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.370 [get_ports {ad_n9}]
-set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n9}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n9}]</v>
       </c>
       <c r="Y53" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T53="IO",T53="I"),V53,""),IF(OR(T53="IO",T53="O"),W53,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.189 [get_ports {ad_n9}]
 set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n9}]
 set_output_delay -clock clk_3v3_n -min -6.370 [get_ports {ad_n9}]
-set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n9}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n9}]</v>
       </c>
       <c r="AG53" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K53,3)="LED",LEFT(K53,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D53,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K53),"")</f>
@@ -6839,22 +6733,19 @@
       <c r="V54" s="31" t="str">
         <f aca="false">IF(AND(K54&lt;&gt;"",K54&lt;&gt;"+3v3",K54&lt;&gt;"GND",NOT(ISNA(P54)),NOT(ISNA(N54))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S54/$V$8,"0.000")," [get_ports {",K54,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S54/$W$8,"0.000")," [get_ports {",K54,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.139 [get_ports {ad_n8}]
-set_input_delay -clock clk_3v3_n -max 52.102 [get_ports {ad_n8}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.102 [get_ports {ad_n8}]</v>
       </c>
       <c r="W54" s="31" t="str">
         <f aca="false">IF(AND(K54&lt;&gt;"",K54&lt;&gt;"+3v3",K54&lt;&gt;"GND",NOT(ISNA(P54)),NOT(ISNA(N54))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P54/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K54,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P54/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K54,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.420 [get_ports {ad_n8}]
-set_output_delay -clock clk_3v3_n -max 53.273 [get_ports {ad_n8}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.273 [get_ports {ad_n8}]</v>
       </c>
       <c r="Y54" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T54="IO",T54="I"),V54,""),IF(OR(T54="IO",T54="O"),W54,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.139 [get_ports {ad_n8}]
 set_input_delay -clock clk_3v3_n -max 52.102 [get_ports {ad_n8}]
 set_output_delay -clock clk_3v3_n -min -6.420 [get_ports {ad_n8}]
-set_output_delay -clock clk_3v3_n -max 53.273 [get_ports {ad_n8}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.273 [get_ports {ad_n8}]</v>
       </c>
       <c r="AG54" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K54,3)="LED",LEFT(K54,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D54,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K54),"")</f>
@@ -6921,22 +6812,19 @@
       <c r="V55" s="31" t="str">
         <f aca="false">IF(AND(K55&lt;&gt;"",K55&lt;&gt;"+3v3",K55&lt;&gt;"GND",NOT(ISNA(P55)),NOT(ISNA(N55))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S55/$V$8,"0.000")," [get_ports {",K55,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S55/$W$8,"0.000")," [get_ports {",K55,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.168 [get_ports {ad_n7}]
-set_input_delay -clock clk_3v3_n -max 52.141 [get_ports {ad_n7}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.141 [get_ports {ad_n7}]</v>
       </c>
       <c r="W55" s="31" t="str">
         <f aca="false">IF(AND(K55&lt;&gt;"",K55&lt;&gt;"+3v3",K55&lt;&gt;"GND",NOT(ISNA(P55)),NOT(ISNA(N55))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P55/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K55,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P55/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K55,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.391 [get_ports {ad_n7}]
-set_output_delay -clock clk_3v3_n -max 53.312 [get_ports {ad_n7}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.312 [get_ports {ad_n7}]</v>
       </c>
       <c r="Y55" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T55="IO",T55="I"),V55,""),IF(OR(T55="IO",T55="O"),W55,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.168 [get_ports {ad_n7}]
 set_input_delay -clock clk_3v3_n -max 52.141 [get_ports {ad_n7}]
 set_output_delay -clock clk_3v3_n -min -6.391 [get_ports {ad_n7}]
-set_output_delay -clock clk_3v3_n -max 53.312 [get_ports {ad_n7}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.312 [get_ports {ad_n7}]</v>
       </c>
       <c r="AG55" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K55,3)="LED",LEFT(K55,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D55,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K55),"")</f>
@@ -7003,22 +6891,19 @@
       <c r="V56" s="31" t="str">
         <f aca="false">IF(AND(K56&lt;&gt;"",K56&lt;&gt;"+3v3",K56&lt;&gt;"GND",NOT(ISNA(P56)),NOT(ISNA(N56))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S56/$V$8,"0.000")," [get_ports {",K56,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S56/$W$8,"0.000")," [get_ports {",K56,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.136 [get_ports {ad_n6}]
-set_input_delay -clock clk_3v3_n -max 52.097 [get_ports {ad_n6}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.097 [get_ports {ad_n6}]</v>
       </c>
       <c r="W56" s="31" t="str">
         <f aca="false">IF(AND(K56&lt;&gt;"",K56&lt;&gt;"+3v3",K56&lt;&gt;"GND",NOT(ISNA(P56)),NOT(ISNA(N56))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P56/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K56,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P56/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K56,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.423 [get_ports {ad_n6}]
-set_output_delay -clock clk_3v3_n -max 53.269 [get_ports {ad_n6}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.269 [get_ports {ad_n6}]</v>
       </c>
       <c r="Y56" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T56="IO",T56="I"),V56,""),IF(OR(T56="IO",T56="O"),W56,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.136 [get_ports {ad_n6}]
 set_input_delay -clock clk_3v3_n -max 52.097 [get_ports {ad_n6}]
 set_output_delay -clock clk_3v3_n -min -6.423 [get_ports {ad_n6}]
-set_output_delay -clock clk_3v3_n -max 53.269 [get_ports {ad_n6}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.269 [get_ports {ad_n6}]</v>
       </c>
       <c r="AG56" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K56,3)="LED",LEFT(K56,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D56,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K56),"")</f>
@@ -7085,22 +6970,19 @@
       <c r="V57" s="31" t="str">
         <f aca="false">IF(AND(K57&lt;&gt;"",K57&lt;&gt;"+3v3",K57&lt;&gt;"GND",NOT(ISNA(P57)),NOT(ISNA(N57))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S57/$V$8,"0.000")," [get_ports {",K57,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S57/$W$8,"0.000")," [get_ports {",K57,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.181 [get_ports {ad_n5}]
-set_input_delay -clock clk_3v3_n -max 52.158 [get_ports {ad_n5}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.158 [get_ports {ad_n5}]</v>
       </c>
       <c r="W57" s="31" t="str">
         <f aca="false">IF(AND(K57&lt;&gt;"",K57&lt;&gt;"+3v3",K57&lt;&gt;"GND",NOT(ISNA(P57)),NOT(ISNA(N57))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P57/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K57,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P57/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K57,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.378 [get_ports {ad_n5}]
-set_output_delay -clock clk_3v3_n -max 53.329 [get_ports {ad_n5}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.329 [get_ports {ad_n5}]</v>
       </c>
       <c r="Y57" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T57="IO",T57="I"),V57,""),IF(OR(T57="IO",T57="O"),W57,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.181 [get_ports {ad_n5}]
 set_input_delay -clock clk_3v3_n -max 52.158 [get_ports {ad_n5}]
 set_output_delay -clock clk_3v3_n -min -6.378 [get_ports {ad_n5}]
-set_output_delay -clock clk_3v3_n -max 53.329 [get_ports {ad_n5}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.329 [get_ports {ad_n5}]</v>
       </c>
       <c r="AG57" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K57,3)="LED",LEFT(K57,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D57,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K57),"")</f>
@@ -7167,22 +7049,19 @@
       <c r="V58" s="31" t="str">
         <f aca="false">IF(AND(K58&lt;&gt;"",K58&lt;&gt;"+3v3",K58&lt;&gt;"GND",NOT(ISNA(P58)),NOT(ISNA(N58))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S58/$V$8,"0.000")," [get_ports {",K58,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S58/$W$8,"0.000")," [get_ports {",K58,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.156 [get_ports {ad_n4}]
-set_input_delay -clock clk_3v3_n -max 52.124 [get_ports {ad_n4}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.124 [get_ports {ad_n4}]</v>
       </c>
       <c r="W58" s="31" t="str">
         <f aca="false">IF(AND(K58&lt;&gt;"",K58&lt;&gt;"+3v3",K58&lt;&gt;"GND",NOT(ISNA(P58)),NOT(ISNA(N58))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P58/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K58,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P58/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K58,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.403 [get_ports {ad_n4}]
-set_output_delay -clock clk_3v3_n -max 53.295 [get_ports {ad_n4}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.295 [get_ports {ad_n4}]</v>
       </c>
       <c r="Y58" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T58="IO",T58="I"),V58,""),IF(OR(T58="IO",T58="O"),W58,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.156 [get_ports {ad_n4}]
 set_input_delay -clock clk_3v3_n -max 52.124 [get_ports {ad_n4}]
 set_output_delay -clock clk_3v3_n -min -6.403 [get_ports {ad_n4}]
-set_output_delay -clock clk_3v3_n -max 53.295 [get_ports {ad_n4}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.295 [get_ports {ad_n4}]</v>
       </c>
       <c r="AG58" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K58,3)="LED",LEFT(K58,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D58,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K58),"")</f>
@@ -7249,22 +7128,19 @@
       <c r="V59" s="31" t="str">
         <f aca="false">IF(AND(K59&lt;&gt;"",K59&lt;&gt;"+3v3",K59&lt;&gt;"GND",NOT(ISNA(P59)),NOT(ISNA(N59))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S59/$V$8,"0.000")," [get_ports {",K59,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S59/$W$8,"0.000")," [get_ports {",K59,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.209 [get_ports {ad_n3}]
-set_input_delay -clock clk_3v3_n -max 52.195 [get_ports {ad_n3}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.195 [get_ports {ad_n3}]</v>
       </c>
       <c r="W59" s="31" t="str">
         <f aca="false">IF(AND(K59&lt;&gt;"",K59&lt;&gt;"+3v3",K59&lt;&gt;"GND",NOT(ISNA(P59)),NOT(ISNA(N59))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P59/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K59,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P59/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K59,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.350 [get_ports {ad_n3}]
-set_output_delay -clock clk_3v3_n -max 53.366 [get_ports {ad_n3}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.366 [get_ports {ad_n3}]</v>
       </c>
       <c r="Y59" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T59="IO",T59="I"),V59,""),IF(OR(T59="IO",T59="O"),W59,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.209 [get_ports {ad_n3}]
 set_input_delay -clock clk_3v3_n -max 52.195 [get_ports {ad_n3}]
 set_output_delay -clock clk_3v3_n -min -6.350 [get_ports {ad_n3}]
-set_output_delay -clock clk_3v3_n -max 53.366 [get_ports {ad_n3}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.366 [get_ports {ad_n3}]</v>
       </c>
       <c r="AG59" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K59,3)="LED",LEFT(K59,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D59,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K59),"")</f>
@@ -7495,22 +7371,19 @@
       <c r="V62" s="31" t="str">
         <f aca="false">IF(AND(K62&lt;&gt;"",K62&lt;&gt;"+3v3",K62&lt;&gt;"GND",NOT(ISNA(P62)),NOT(ISNA(N62))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S62/$V$8,"0.000")," [get_ports {",K62,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S62/$W$8,"0.000")," [get_ports {",K62,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.257 [get_ports {ad_n0}]
-set_input_delay -clock clk_3v3_n -max 52.259 [get_ports {ad_n0}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.259 [get_ports {ad_n0}]</v>
       </c>
       <c r="W62" s="31" t="str">
         <f aca="false">IF(AND(K62&lt;&gt;"",K62&lt;&gt;"+3v3",K62&lt;&gt;"GND",NOT(ISNA(P62)),NOT(ISNA(N62))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P62/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K62,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P62/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K62,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.302 [get_ports {ad_n0}]
-set_output_delay -clock clk_3v3_n -max 53.430 [get_ports {ad_n0}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.430 [get_ports {ad_n0}]</v>
       </c>
       <c r="Y62" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T62="IO",T62="I"),V62,""),IF(OR(T62="IO",T62="O"),W62,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.257 [get_ports {ad_n0}]
 set_input_delay -clock clk_3v3_n -max 52.259 [get_ports {ad_n0}]
 set_output_delay -clock clk_3v3_n -min -6.302 [get_ports {ad_n0}]
-set_output_delay -clock clk_3v3_n -max 53.430 [get_ports {ad_n0}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.430 [get_ports {ad_n0}]</v>
       </c>
       <c r="AG62" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K62,3)="LED",LEFT(K62,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D62,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K62),"")</f>
@@ -8643,8 +8516,7 @@
       <c r="U79" s="30" t="str">
         <f aca="false">IF(AND(K79&lt;&gt;"",K79&lt;&gt;"+3v3",K79&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D79," [get_ports {",K79,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K79,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U6 [get_ports {arb_n3}]
-set_property IOSTANDARD LVTTL [get_ports {arb_n3}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_n3}]</v>
       </c>
       <c r="V79" s="31" t="str">
         <f aca="false">IF(AND(K79&lt;&gt;"",K79&lt;&gt;"+3v3",K79&lt;&gt;"GND",NOT(ISNA(P79)),NOT(ISNA(N79))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S79/$V$8,"0.000")," [get_ports {",K79,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S79/$W$8,"0.000")," [get_ports {",K79,"}]",CHAR(10)),"")</f>
@@ -8715,8 +8587,7 @@
       <c r="U80" s="30" t="str">
         <f aca="false">IF(AND(K80&lt;&gt;"",K80&lt;&gt;"+3v3",K80&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D80," [get_ports {",K80,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K80,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V5 [get_ports {arb_n2}]
-set_property IOSTANDARD LVTTL [get_ports {arb_n2}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_n2}]</v>
       </c>
       <c r="V80" s="31" t="str">
         <f aca="false">IF(AND(K80&lt;&gt;"",K80&lt;&gt;"+3v3",K80&lt;&gt;"GND",NOT(ISNA(P80)),NOT(ISNA(N80))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S80/$V$8,"0.000")," [get_ports {",K80,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S80/$W$8,"0.000")," [get_ports {",K80,"}]",CHAR(10)),"")</f>
@@ -8787,8 +8658,7 @@
       <c r="U81" s="30" t="str">
         <f aca="false">IF(AND(K81&lt;&gt;"",K81&lt;&gt;"+3v3",K81&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D81," [get_ports {",K81,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K81,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T8 [get_ports {arb_n0}]
-set_property IOSTANDARD LVTTL [get_ports {arb_n0}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_n0}]</v>
       </c>
       <c r="V81" s="31" t="str">
         <f aca="false">IF(AND(K81&lt;&gt;"",K81&lt;&gt;"+3v3",K81&lt;&gt;"GND",NOT(ISNA(P81)),NOT(ISNA(N81))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S81/$V$8,"0.000")," [get_ports {",K81,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S81/$W$8,"0.000")," [get_ports {",K81,"}]",CHAR(10)),"")</f>
@@ -8863,8 +8733,7 @@
       <c r="U82" s="30" t="str">
         <f aca="false">IF(AND(K82&lt;&gt;"",K82&lt;&gt;"+3v3",K82&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D82," [get_ports {",K82,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K82,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V4 [get_ports {arb_n1}]
-set_property IOSTANDARD LVTTL [get_ports {arb_n1}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_n1}]</v>
       </c>
       <c r="V82" s="31" t="str">
         <f aca="false">IF(AND(K82&lt;&gt;"",K82&lt;&gt;"+3v3",K82&lt;&gt;"GND",NOT(ISNA(P82)),NOT(ISNA(N82))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S82/$V$8,"0.000")," [get_ports {",K82,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S82/$W$8,"0.000")," [get_ports {",K82,"}]",CHAR(10)),"")</f>
@@ -8935,8 +8804,7 @@
       <c r="U83" s="30" t="str">
         <f aca="false">IF(AND(K83&lt;&gt;"",K83&lt;&gt;"+3v3",K83&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D83," [get_ports {",K83,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K83,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R8 [get_ports {tmx_oe_n}]
-set_property IOSTANDARD LVTTL [get_ports {tmx_oe_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {tmx_oe_n}]</v>
       </c>
       <c r="V83" s="31" t="str">
         <f aca="false">IF(AND(K83&lt;&gt;"",K83&lt;&gt;"+3v3",K83&lt;&gt;"GND",NOT(ISNA(P83)),NOT(ISNA(N83))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S83/$V$8,"0.000")," [get_ports {",K83,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S83/$W$8,"0.000")," [get_ports {",K83,"}]",CHAR(10)),"")</f>
@@ -9009,20 +8877,17 @@
       <c r="U84" s="30" t="str">
         <f aca="false">IF(AND(K84&lt;&gt;"",K84&lt;&gt;"+3v3",K84&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D84," [get_ports {",K84,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K84,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T5 [get_ports {clk2x_n}]
-set_property IOSTANDARD LVTTL [get_ports {clk2x_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {clk2x_n}]</v>
       </c>
       <c r="V84" s="31" t="str">
         <f aca="false">IF(AND(K84&lt;&gt;"",K84&lt;&gt;"+3v3",K84&lt;&gt;"GND",NOT(ISNA(P84)),NOT(ISNA(N84))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S84/$V$8,"0.000")," [get_ports {",K84,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S84/$W$8,"0.000")," [get_ports {",K84,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.495 [get_ports {clk2x_n}]
-set_input_delay -clock clk_3v3_n -max 52.576 [get_ports {clk2x_n}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.576 [get_ports {clk2x_n}]</v>
       </c>
       <c r="W84" s="31" t="str">
         <f aca="false">IF(AND(K84&lt;&gt;"",K84&lt;&gt;"+3v3",K84&lt;&gt;"GND",NOT(ISNA(P84)),NOT(ISNA(N84))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P84/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K84,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P84/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K84,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.064 [get_ports {clk2x_n}]
-set_output_delay -clock clk_3v3_n -max 53.747 [get_ports {clk2x_n}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.747 [get_ports {clk2x_n}]</v>
       </c>
       <c r="Y84" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T84="IO",T84="I"),V84,""),IF(OR(T84="IO",T84="O"),W84,""))</f>
@@ -9085,8 +8950,7 @@
       <c r="U85" s="30" t="str">
         <f aca="false">IF(AND(K85&lt;&gt;"",K85&lt;&gt;"+3v3",K85&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D85," [get_ports {",K85,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K85,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R7 [get_ports {tm_n_o1}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n_o1}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n_o1}]</v>
       </c>
       <c r="V85" s="31" t="str">
         <f aca="false">IF(AND(K85&lt;&gt;"",K85&lt;&gt;"+3v3",K85&lt;&gt;"GND",NOT(ISNA(P85)),NOT(ISNA(N85))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S85/$V$8,"0.000")," [get_ports {",K85,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S85/$W$8,"0.000")," [get_ports {",K85,"}]",CHAR(10)),"")</f>
@@ -9137,7 +9001,7 @@
       </c>
       <c r="K86" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H86)),$H86,"")</f>
-        <v>SD_D1</v>
+        <v>SD_D2</v>
       </c>
       <c r="M86" s="0" t="n">
         <f aca="false">VLOOKUP(A86,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -9164,9 +9028,8 @@
       </c>
       <c r="U86" s="30" t="str">
         <f aca="false">IF(AND(K86&lt;&gt;"",K86&lt;&gt;"+3v3",K86&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D86," [get_ports {",K86,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K86,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN T4 [get_ports {SD_D1}]
-set_property IOSTANDARD LVTTL [get_ports {SD_D1}]
-</v>
+        <v>set_property PACKAGE_PIN T4 [get_ports {SD_D2}]
+set_property IOSTANDARD LVTTL [get_ports {SD_D2}]</v>
       </c>
       <c r="V86" s="31" t="str">
         <f aca="false">IF(AND(K86&lt;&gt;"",K86&lt;&gt;"+3v3",K86&lt;&gt;"GND",NOT(ISNA(P86)),NOT(ISNA(N86))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S86/$V$8,"0.000")," [get_ports {",K86,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S86/$W$8,"0.000")," [get_ports {",K86,"}]",CHAR(10)),"")</f>
@@ -9237,8 +9100,7 @@
       <c r="U87" s="30" t="str">
         <f aca="false">IF(AND(K87&lt;&gt;"",K87&lt;&gt;"+3v3",K87&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D87," [get_ports {",K87,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K87,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T6 [get_ports {tm_n_o0}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n_o0}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n_o0}]</v>
       </c>
       <c r="V87" s="31" t="str">
         <f aca="false">IF(AND(K87&lt;&gt;"",K87&lt;&gt;"+3v3",K87&lt;&gt;"GND",NOT(ISNA(P87)),NOT(ISNA(N87))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S87/$V$8,"0.000")," [get_ports {",K87,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S87/$W$8,"0.000")," [get_ports {",K87,"}]",CHAR(10)),"")</f>
@@ -9284,7 +9146,7 @@
       </c>
       <c r="K88" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H88)),$H88,"")</f>
-        <v>SD_D0</v>
+        <v>SD_D3</v>
       </c>
       <c r="M88" s="0" t="n">
         <f aca="false">VLOOKUP(A88,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -9308,9 +9170,8 @@
       </c>
       <c r="U88" s="30" t="str">
         <f aca="false">IF(AND(K88&lt;&gt;"",K88&lt;&gt;"+3v3",K88&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D88," [get_ports {",K88,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K88,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN U4 [get_ports {SD_D0}]
-set_property IOSTANDARD LVTTL [get_ports {SD_D0}]
-</v>
+        <v>set_property PACKAGE_PIN U4 [get_ports {SD_D3}]
+set_property IOSTANDARD LVTTL [get_ports {SD_D3}]</v>
       </c>
       <c r="V88" s="31" t="str">
         <f aca="false">IF(AND(K88&lt;&gt;"",K88&lt;&gt;"+3v3",K88&lt;&gt;"GND",NOT(ISNA(P88)),NOT(ISNA(N88))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S88/$V$8,"0.000")," [get_ports {",K88,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S88/$W$8,"0.000")," [get_ports {",K88,"}]",CHAR(10)),"")</f>
@@ -9443,7 +9304,7 @@
       </c>
       <c r="K90" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H90)),$H90,"")</f>
-        <v>SD_CLK</v>
+        <v>SD_CMD</v>
       </c>
       <c r="M90" s="0" t="n">
         <f aca="false">VLOOKUP(A90,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -9467,9 +9328,8 @@
       </c>
       <c r="U90" s="30" t="str">
         <f aca="false">IF(AND(K90&lt;&gt;"",K90&lt;&gt;"+3v3",K90&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D90," [get_ports {",K90,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K90,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN U3 [get_ports {SD_CLK}]
-set_property IOSTANDARD LVTTL [get_ports {SD_CLK}]
-</v>
+        <v>set_property PACKAGE_PIN U3 [get_ports {SD_CMD}]
+set_property IOSTANDARD LVTTL [get_ports {SD_CMD}]</v>
       </c>
       <c r="V90" s="31" t="str">
         <f aca="false">IF(AND(K90&lt;&gt;"",K90&lt;&gt;"+3v3",K90&lt;&gt;"GND",NOT(ISNA(P90)),NOT(ISNA(N90))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S90/$V$8,"0.000")," [get_ports {",K90,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S90/$W$8,"0.000")," [get_ports {",K90,"}]",CHAR(10)),"")</f>
@@ -9604,7 +9464,7 @@
       </c>
       <c r="K92" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H92)),$H92,"")</f>
-        <v>SD_CMD</v>
+        <v>SD_CLK</v>
       </c>
       <c r="M92" s="0" t="n">
         <f aca="false">VLOOKUP(A92,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -9628,9 +9488,8 @@
       </c>
       <c r="U92" s="30" t="str">
         <f aca="false">IF(AND(K92&lt;&gt;"",K92&lt;&gt;"+3v3",K92&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D92," [get_ports {",K92,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K92,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN V1 [get_ports {SD_CMD}]
-set_property IOSTANDARD LVTTL [get_ports {SD_CMD}]
-</v>
+        <v>set_property PACKAGE_PIN V1 [get_ports {SD_CLK}]
+set_property IOSTANDARD LVTTL [get_ports {SD_CLK}]</v>
       </c>
       <c r="V92" s="31" t="str">
         <f aca="false">IF(AND(K92&lt;&gt;"",K92&lt;&gt;"+3v3",K92&lt;&gt;"GND",NOT(ISNA(P92)),NOT(ISNA(N92))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S92/$V$8,"0.000")," [get_ports {",K92,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S92/$W$8,"0.000")," [get_ports {",K92,"}]",CHAR(10)),"")</f>
@@ -9657,7 +9516,7 @@
       </c>
       <c r="AE92" s="0" t="str">
         <f aca="false">H92</f>
-        <v>SD_CMD</v>
+        <v>SD_CLK</v>
       </c>
       <c r="AG92" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K92,3)="LED",LEFT(K92,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D92,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K92),"")</f>
@@ -9691,7 +9550,7 @@
       </c>
       <c r="K93" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H93)),$H93,"")</f>
-        <v>tm_n0</v>
+        <v>tm_n1</v>
       </c>
       <c r="M93" s="0" t="n">
         <f aca="false">VLOOKUP(A93,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -9715,9 +9574,8 @@
       </c>
       <c r="U93" s="30" t="str">
         <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D93," [get_ports {",K93,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K93,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN V2 [get_ports {tm_n0}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n0}]
-</v>
+        <v>set_property PACKAGE_PIN V2 [get_ports {tm_n1}]
+set_property IOSTANDARD LVTTL [get_ports {tm_n1}]</v>
       </c>
       <c r="V93" s="31" t="str">
         <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND",NOT(ISNA(P93)),NOT(ISNA(N93))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S93/$V$8,"0.000")," [get_ports {",K93,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S93/$W$8,"0.000")," [get_ports {",K93,"}]",CHAR(10)),"")</f>
@@ -9744,7 +9602,7 @@
       </c>
       <c r="AE93" s="0" t="str">
         <f aca="false">H93</f>
-        <v>tm_n0</v>
+        <v>tm_n1</v>
       </c>
       <c r="AG93" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K93,3)="LED",LEFT(K93,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D93,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K93),"")</f>
@@ -9778,7 +9636,7 @@
       </c>
       <c r="K94" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H94)),$H94,"")</f>
-        <v>SD_D3</v>
+        <v>SD_D0</v>
       </c>
       <c r="M94" s="0" t="n">
         <f aca="false">VLOOKUP(A94,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -9802,9 +9660,8 @@
       </c>
       <c r="U94" s="30" t="str">
         <f aca="false">IF(AND(K94&lt;&gt;"",K94&lt;&gt;"+3v3",K94&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D94," [get_ports {",K94,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K94,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN U1 [get_ports {SD_D3}]
-set_property IOSTANDARD LVTTL [get_ports {SD_D3}]
-</v>
+        <v>set_property PACKAGE_PIN U1 [get_ports {SD_D0}]
+set_property IOSTANDARD LVTTL [get_ports {SD_D0}]</v>
       </c>
       <c r="V94" s="31" t="str">
         <f aca="false">IF(AND(K94&lt;&gt;"",K94&lt;&gt;"+3v3",K94&lt;&gt;"GND",NOT(ISNA(P94)),NOT(ISNA(N94))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S94/$V$8,"0.000")," [get_ports {",K94,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S94/$W$8,"0.000")," [get_ports {",K94,"}]",CHAR(10)),"")</f>
@@ -9831,7 +9688,7 @@
       </c>
       <c r="AE94" s="0" t="str">
         <f aca="false">H94</f>
-        <v>SD_D3</v>
+        <v>SD_D0</v>
       </c>
       <c r="AG94" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K94,3)="LED",LEFT(K94,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D94,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K94),"")</f>
@@ -9865,7 +9722,7 @@
       </c>
       <c r="K95" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H95)),$H95,"")</f>
-        <v>tm_n1</v>
+        <v>tm_n0</v>
       </c>
       <c r="M95" s="0" t="n">
         <f aca="false">VLOOKUP(A95,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -9889,9 +9746,8 @@
       </c>
       <c r="U95" s="30" t="str">
         <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D95," [get_ports {",K95,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K95,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN U2 [get_ports {tm_n1}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n1}]
-</v>
+        <v>set_property PACKAGE_PIN U2 [get_ports {tm_n0}]
+set_property IOSTANDARD LVTTL [get_ports {tm_n0}]</v>
       </c>
       <c r="V95" s="31" t="str">
         <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND",NOT(ISNA(P95)),NOT(ISNA(N95))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S95/$V$8,"0.000")," [get_ports {",K95,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S95/$W$8,"0.000")," [get_ports {",K95,"}]",CHAR(10)),"")</f>
@@ -9918,7 +9774,7 @@
       </c>
       <c r="AE95" s="0" t="str">
         <f aca="false">H95</f>
-        <v>tm_n1</v>
+        <v>tm_n0</v>
       </c>
       <c r="AG95" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K95,3)="LED",LEFT(K95,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D95,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K95),"")</f>
@@ -9954,7 +9810,7 @@
       </c>
       <c r="K96" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H96)),$H96,"")</f>
-        <v>SD_D2</v>
+        <v>SD_D1</v>
       </c>
       <c r="M96" s="0" t="n">
         <f aca="false">VLOOKUP(A96,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -9978,9 +9834,8 @@
       </c>
       <c r="U96" s="30" t="str">
         <f aca="false">IF(AND(K96&lt;&gt;"",K96&lt;&gt;"+3v3",K96&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D96," [get_ports {",K96,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K96,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN T3 [get_ports {SD_D2}]
-set_property IOSTANDARD LVTTL [get_ports {SD_D2}]
-</v>
+        <v>set_property PACKAGE_PIN T3 [get_ports {SD_D1}]
+set_property IOSTANDARD LVTTL [get_ports {SD_D1}]</v>
       </c>
       <c r="V96" s="31" t="str">
         <f aca="false">IF(AND(K96&lt;&gt;"",K96&lt;&gt;"+3v3",K96&lt;&gt;"GND",NOT(ISNA(P96)),NOT(ISNA(N96))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S96/$V$8,"0.000")," [get_ports {",K96,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S96/$W$8,"0.000")," [get_ports {",K96,"}]",CHAR(10)),"")</f>
@@ -10007,7 +9862,7 @@
       </c>
       <c r="AE96" s="0" t="str">
         <f aca="false">H96</f>
-        <v>SD_D2</v>
+        <v>SD_D1</v>
       </c>
       <c r="AG96" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K96,3)="LED",LEFT(K96,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D96,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K96),"")</f>
@@ -10068,20 +9923,17 @@
       <c r="U97" s="30" t="str">
         <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D97," [get_ports {",K97,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K97,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K6 [get_ports {tm_n2}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n2}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n2}]</v>
       </c>
       <c r="V97" s="31" t="str">
         <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND",NOT(ISNA(P97)),NOT(ISNA(N97))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S97/$V$8,"0.000")," [get_ports {",K97,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S97/$W$8,"0.000")," [get_ports {",K97,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.704 [get_ports {tm_n2}]
-set_input_delay -clock clk_3v3_n -max 52.855 [get_ports {tm_n2}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.855 [get_ports {tm_n2}]</v>
       </c>
       <c r="W97" s="31" t="str">
         <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND",NOT(ISNA(P97)),NOT(ISNA(N97))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P97/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K97,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P97/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K97,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -5.855 [get_ports {tm_n2}]
-set_output_delay -clock clk_3v3_n -max 54.026 [get_ports {tm_n2}]
-</v>
+set_output_delay -clock clk_3v3_n -max 54.026 [get_ports {tm_n2}]</v>
       </c>
       <c r="Y97" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T97="IO",T97="I"),V97,""),IF(OR(T97="IO",T97="O"),W97,""))</f>
@@ -10144,8 +9996,7 @@
       <c r="U98" s="30" t="str">
         <f aca="false">IF(AND(K98&lt;&gt;"",K98&lt;&gt;"+3v3",K98&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D98," [get_ports {",K98,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K98,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R3 [get_ports {reset_n}]
-set_property IOSTANDARD LVTTL [get_ports {reset_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {reset_n}]</v>
       </c>
       <c r="V98" s="31" t="str">
         <f aca="false">IF(AND(K98&lt;&gt;"",K98&lt;&gt;"+3v3",K98&lt;&gt;"GND",NOT(ISNA(P98)),NOT(ISNA(N98))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S98/$V$8,"0.000")," [get_ports {",K98,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S98/$W$8,"0.000")," [get_ports {",K98,"}]",CHAR(10)),"")</f>
@@ -10605,8 +10456,7 @@
       <c r="U105" s="30" t="str">
         <f aca="false">IF(AND(K105&lt;&gt;"",K105&lt;&gt;"+3v3",K105&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D105," [get_ports {",K105,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K105,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N6 [get_ports {HDMI_HPD}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_HPD}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_HPD}]</v>
       </c>
       <c r="V105" s="31" t="str">
         <f aca="false">IF(AND(K105&lt;&gt;"",K105&lt;&gt;"+3v3",K105&lt;&gt;"GND",NOT(ISNA(P105)),NOT(ISNA(N105))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S105/$V$8,"0.000")," [get_ports {",K105,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S105/$W$8,"0.000")," [get_ports {",K105,"}]",CHAR(10)),"")</f>
@@ -10695,20 +10545,17 @@
       <c r="U106" s="30" t="str">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D106," [get_ports {",K106,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K106,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN P5 [get_ports {PMOD-15}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-15}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-15}]</v>
       </c>
       <c r="V106" s="31" t="str">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S106/$V$8,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S106/$W$8,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-15}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-15}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-15}]</v>
       </c>
       <c r="W106" s="31" t="str">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P106/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P106/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-15}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-15}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-15}]</v>
       </c>
       <c r="Y106" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T106="IO",T106="I"),V106,""),IF(OR(T106="IO",T106="O"),W106,""))</f>
@@ -10787,8 +10634,7 @@
       <c r="U107" s="30" t="str">
         <f aca="false">IF(AND(K107&lt;&gt;"",K107&lt;&gt;"+3v3",K107&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D107," [get_ports {",K107,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K107,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M6 [get_ports {HDMI_SDA}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_SDA}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_SDA}]</v>
       </c>
       <c r="V107" s="31" t="str">
         <f aca="false">IF(AND(K107&lt;&gt;"",K107&lt;&gt;"+3v3",K107&lt;&gt;"GND",NOT(ISNA(P107)),NOT(ISNA(N107))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S107/$V$8,"0.000")," [get_ports {",K107,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S107/$W$8,"0.000")," [get_ports {",K107,"}]",CHAR(10)),"")</f>
@@ -10877,20 +10723,17 @@
       <c r="U108" s="30" t="str">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D108," [get_ports {",K108,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K108,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N5 [get_ports {PMOD-16}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-16}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-16}]</v>
       </c>
       <c r="V108" s="31" t="str">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S108/$V$8,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S108/$W$8,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-16}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-16}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-16}]</v>
       </c>
       <c r="W108" s="31" t="str">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P108/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P108/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-16}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-16}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-16}]</v>
       </c>
       <c r="Y108" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T108="IO",T108="I"),V108,""),IF(OR(T108="IO",T108="O"),W108,""))</f>
@@ -10969,8 +10812,7 @@
       <c r="U109" s="30" t="str">
         <f aca="false">IF(AND(K109&lt;&gt;"",K109&lt;&gt;"+3v3",K109&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D109," [get_ports {",K109,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K109,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L6 [get_ports {HDMI_SCL}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_SCL}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_SCL}]</v>
       </c>
       <c r="V109" s="31" t="str">
         <f aca="false">IF(AND(K109&lt;&gt;"",K109&lt;&gt;"+3v3",K109&lt;&gt;"GND",NOT(ISNA(P109)),NOT(ISNA(N109))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S109/$V$8,"0.000")," [get_ports {",K109,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S109/$W$8,"0.000")," [get_ports {",K109,"}]",CHAR(10)),"")</f>
@@ -11059,20 +10901,17 @@
       <c r="U110" s="30" t="str">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D110," [get_ports {",K110,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K110,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN P4 [get_ports {PMOD-13}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-13}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-13}]</v>
       </c>
       <c r="V110" s="31" t="str">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S110/$V$8,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S110/$W$8,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-13}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-13}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-13}]</v>
       </c>
       <c r="W110" s="31" t="str">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P110/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P110/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-13}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-13}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-13}]</v>
       </c>
       <c r="Y110" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T110="IO",T110="I"),V110,""),IF(OR(T110="IO",T110="O"),W110,""))</f>
@@ -11153,8 +10992,7 @@
       <c r="U111" s="30" t="str">
         <f aca="false">IF(AND(K111&lt;&gt;"",K111&lt;&gt;"+3v3",K111&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D111," [get_ports {",K111,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K111,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L5 [get_ports {HDMI_CEC}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_CEC}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_CEC}]</v>
       </c>
       <c r="V111" s="31" t="str">
         <f aca="false">IF(AND(K111&lt;&gt;"",K111&lt;&gt;"+3v3",K111&lt;&gt;"GND",NOT(ISNA(P111)),NOT(ISNA(N111))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S111/$V$8,"0.000")," [get_ports {",K111,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S111/$W$8,"0.000")," [get_ports {",K111,"}]",CHAR(10)),"")</f>
@@ -11243,20 +11081,17 @@
       <c r="U112" s="30" t="str">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D112," [get_ports {",K112,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K112,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN P3 [get_ports {PMOD-14}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-14}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-14}]</v>
       </c>
       <c r="V112" s="31" t="str">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S112/$V$8,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S112/$W$8,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-14}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-14}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-14}]</v>
       </c>
       <c r="W112" s="31" t="str">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P112/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P112/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-14}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-14}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-14}]</v>
       </c>
       <c r="Y112" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T112="IO",T112="I"),V112,""),IF(OR(T112="IO",T112="O"),W112,""))</f>
@@ -11335,20 +11170,17 @@
       <c r="U113" s="30" t="str">
         <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D113," [get_ports {",K113,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K113,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N4 [get_ports {HDMI_CLK-}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK-}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK-}]</v>
       </c>
       <c r="V113" s="31" t="str">
         <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND",NOT(ISNA(P113)),NOT(ISNA(N113))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S113/$V$8,"0.000")," [get_ports {",K113,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S113/$W$8,"0.000")," [get_ports {",K113,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_CLK-}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_CLK-}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_CLK-}]</v>
       </c>
       <c r="W113" s="31" t="str">
         <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND",NOT(ISNA(P113)),NOT(ISNA(N113))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P113/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K113,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P113/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K113,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_CLK-}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_CLK-}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_CLK-}]</v>
       </c>
       <c r="Y113" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T113="IO",T113="I"),V113,""),IF(OR(T113="IO",T113="O"),W113,""))</f>
@@ -11427,20 +11259,17 @@
       <c r="U114" s="30" t="str">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D114," [get_ports {",K114,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K114,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T1 [get_ports {PMOD-11}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-11}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-11}]</v>
       </c>
       <c r="V114" s="31" t="str">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S114/$V$8,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S114/$W$8,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-11}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-11}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-11}]</v>
       </c>
       <c r="W114" s="31" t="str">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P114/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P114/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-11}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-11}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-11}]</v>
       </c>
       <c r="Y114" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T114="IO",T114="I"),V114,""),IF(OR(T114="IO",T114="O"),W114,""))</f>
@@ -11519,20 +11348,17 @@
       <c r="U115" s="30" t="str">
         <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D115," [get_ports {",K115,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K115,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M4 [get_ports {HDMI_CLK+}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK+}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK+}]</v>
       </c>
       <c r="V115" s="31" t="str">
         <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND",NOT(ISNA(P115)),NOT(ISNA(N115))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S115/$V$8,"0.000")," [get_ports {",K115,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S115/$W$8,"0.000")," [get_ports {",K115,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_CLK+}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_CLK+}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_CLK+}]</v>
       </c>
       <c r="W115" s="31" t="str">
         <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND",NOT(ISNA(P115)),NOT(ISNA(N115))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P115/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K115,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P115/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K115,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_CLK+}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_CLK+}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_CLK+}]</v>
       </c>
       <c r="Y115" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T115="IO",T115="I"),V115,""),IF(OR(T115="IO",T115="O"),W115,""))</f>
@@ -11611,20 +11437,17 @@
       <c r="U116" s="30" t="str">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D116," [get_ports {",K116,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K116,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R1 [get_ports {PMOD-12}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-12}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-12}]</v>
       </c>
       <c r="V116" s="31" t="str">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S116/$V$8,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S116/$W$8,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-12}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-12}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-12}]</v>
       </c>
       <c r="W116" s="31" t="str">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P116/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P116/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-12}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-12}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-12}]</v>
       </c>
       <c r="Y116" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T116="IO",T116="I"),V116,""),IF(OR(T116="IO",T116="O"),W116,""))</f>
@@ -11703,20 +11526,17 @@
       <c r="U117" s="30" t="str">
         <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D117," [get_ports {",K117,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K117,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M3 [get_ports {HDMI_D0+}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D0+}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D0+}]</v>
       </c>
       <c r="V117" s="31" t="str">
         <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND",NOT(ISNA(P117)),NOT(ISNA(N117))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S117/$V$8,"0.000")," [get_ports {",K117,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S117/$W$8,"0.000")," [get_ports {",K117,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_D0+}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D0+}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D0+}]</v>
       </c>
       <c r="W117" s="31" t="str">
         <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND",NOT(ISNA(P117)),NOT(ISNA(N117))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P117/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K117,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P117/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K117,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_D0+}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D0+}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D0+}]</v>
       </c>
       <c r="Y117" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T117="IO",T117="I"),V117,""),IF(OR(T117="IO",T117="O"),W117,""))</f>
@@ -11795,20 +11615,17 @@
       <c r="U118" s="30" t="str">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D118," [get_ports {",K118,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K118,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R2 [get_ports {PMOD-9}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-9}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-9}]</v>
       </c>
       <c r="V118" s="31" t="str">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S118/$V$8,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S118/$W$8,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-9}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-9}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-9}]</v>
       </c>
       <c r="W118" s="31" t="str">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P118/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P118/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-9}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-9}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-9}]</v>
       </c>
       <c r="Y118" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T118="IO",T118="I"),V118,""),IF(OR(T118="IO",T118="O"),W118,""))</f>
@@ -11887,20 +11704,17 @@
       <c r="U119" s="30" t="str">
         <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D119," [get_ports {",K119,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K119,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M2 [get_ports {HDMI_D0-}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D0-}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D0-}]</v>
       </c>
       <c r="V119" s="31" t="str">
         <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND",NOT(ISNA(P119)),NOT(ISNA(N119))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S119/$V$8,"0.000")," [get_ports {",K119,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S119/$W$8,"0.000")," [get_ports {",K119,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_D0-}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D0-}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D0-}]</v>
       </c>
       <c r="W119" s="31" t="str">
         <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND",NOT(ISNA(P119)),NOT(ISNA(N119))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P119/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K119,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P119/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K119,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_D0-}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D0-}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D0-}]</v>
       </c>
       <c r="Y119" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T119="IO",T119="I"),V119,""),IF(OR(T119="IO",T119="O"),W119,""))</f>
@@ -11979,20 +11793,17 @@
       <c r="U120" s="30" t="str">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D120," [get_ports {",K120,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K120,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN P2 [get_ports {PMOD-10}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-10}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-10}]</v>
       </c>
       <c r="V120" s="31" t="str">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S120/$V$8,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S120/$W$8,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-10}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-10}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-10}]</v>
       </c>
       <c r="W120" s="31" t="str">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P120/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P120/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-10}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-10}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-10}]</v>
       </c>
       <c r="Y120" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T120="IO",T120="I"),V120,""),IF(OR(T120="IO",T120="O"),W120,""))</f>
@@ -12071,20 +11882,17 @@
       <c r="U121" s="30" t="str">
         <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D121," [get_ports {",K121,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K121,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K5 [get_ports {HDMI_D1+}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D1+}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D1+}]</v>
       </c>
       <c r="V121" s="31" t="str">
         <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND",NOT(ISNA(P121)),NOT(ISNA(N121))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S121/$V$8,"0.000")," [get_ports {",K121,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S121/$W$8,"0.000")," [get_ports {",K121,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_D1+}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D1+}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D1+}]</v>
       </c>
       <c r="W121" s="31" t="str">
         <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND",NOT(ISNA(P121)),NOT(ISNA(N121))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P121/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K121,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P121/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K121,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_D1+}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D1+}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D1+}]</v>
       </c>
       <c r="Y121" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T121="IO",T121="I"),V121,""),IF(OR(T121="IO",T121="O"),W121,""))</f>
@@ -12163,20 +11971,17 @@
       <c r="U122" s="30" t="str">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D122," [get_ports {",K122,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K122,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N2 [get_ports {PMOD-7}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-7}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-7}]</v>
       </c>
       <c r="V122" s="31" t="str">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S122/$V$8,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S122/$W$8,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-7}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-7}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-7}]</v>
       </c>
       <c r="W122" s="31" t="str">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P122/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P122/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-7}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-7}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-7}]</v>
       </c>
       <c r="Y122" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T122="IO",T122="I"),V122,""),IF(OR(T122="IO",T122="O"),W122,""))</f>
@@ -12255,20 +12060,17 @@
       <c r="U123" s="30" t="str">
         <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D123," [get_ports {",K123,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K123,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L4 [get_ports {HDMI_D1-}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D1-}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D1-}]</v>
       </c>
       <c r="V123" s="31" t="str">
         <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND",NOT(ISNA(P123)),NOT(ISNA(N123))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S123/$V$8,"0.000")," [get_ports {",K123,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S123/$W$8,"0.000")," [get_ports {",K123,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_D1-}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D1-}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D1-}]</v>
       </c>
       <c r="W123" s="31" t="str">
         <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND",NOT(ISNA(P123)),NOT(ISNA(N123))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P123/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K123,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P123/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K123,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_D1-}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D1-}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D1-}]</v>
       </c>
       <c r="Y123" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T123="IO",T123="I"),V123,""),IF(OR(T123="IO",T123="O"),W123,""))</f>
@@ -12347,20 +12149,17 @@
       <c r="U124" s="30" t="str">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D124," [get_ports {",K124,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K124,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N1 [get_ports {PMOD-8}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-8}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-8}]</v>
       </c>
       <c r="V124" s="31" t="str">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S124/$V$8,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S124/$W$8,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-8}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-8}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-8}]</v>
       </c>
       <c r="W124" s="31" t="str">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P124/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P124/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-8}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-8}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-8}]</v>
       </c>
       <c r="Y124" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T124="IO",T124="I"),V124,""),IF(OR(T124="IO",T124="O"),W124,""))</f>
@@ -12439,20 +12238,17 @@
       <c r="U125" s="30" t="str">
         <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D125," [get_ports {",K125,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K125,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L3 [get_ports {HDMI_D2-}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D2-}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D2-}]</v>
       </c>
       <c r="V125" s="31" t="str">
         <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND",NOT(ISNA(P125)),NOT(ISNA(N125))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S125/$V$8,"0.000")," [get_ports {",K125,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S125/$W$8,"0.000")," [get_ports {",K125,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_D2-}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D2-}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D2-}]</v>
       </c>
       <c r="W125" s="31" t="str">
         <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND",NOT(ISNA(P125)),NOT(ISNA(N125))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P125/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K125,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P125/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K125,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_D2-}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D2-}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D2-}]</v>
       </c>
       <c r="Y125" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T125="IO",T125="I"),V125,""),IF(OR(T125="IO",T125="O"),W125,""))</f>
@@ -12531,20 +12327,17 @@
       <c r="U126" s="30" t="str">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D126," [get_ports {",K126,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K126,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M1 [get_ports {PMOD-5}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-5}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-5}]</v>
       </c>
       <c r="V126" s="31" t="str">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S126/$V$8,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S126/$W$8,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-5}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-5}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-5}]</v>
       </c>
       <c r="W126" s="31" t="str">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P126/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P126/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-5}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-5}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-5}]</v>
       </c>
       <c r="Y126" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T126="IO",T126="I"),V126,""),IF(OR(T126="IO",T126="O"),W126,""))</f>
@@ -12623,20 +12416,17 @@
       <c r="U127" s="30" t="str">
         <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D127," [get_ports {",K127,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K127,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K3 [get_ports {HDMI_D2+}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D2+}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D2+}]</v>
       </c>
       <c r="V127" s="31" t="str">
         <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND",NOT(ISNA(P127)),NOT(ISNA(N127))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S127/$V$8,"0.000")," [get_ports {",K127,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S127/$W$8,"0.000")," [get_ports {",K127,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_D2+}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D2+}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D2+}]</v>
       </c>
       <c r="W127" s="31" t="str">
         <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND",NOT(ISNA(P127)),NOT(ISNA(N127))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P127/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K127,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P127/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K127,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_D2+}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D2+}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D2+}]</v>
       </c>
       <c r="Y127" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T127="IO",T127="I"),V127,""),IF(OR(T127="IO",T127="O"),W127,""))</f>
@@ -12715,20 +12505,17 @@
       <c r="U128" s="30" t="str">
         <f aca="false">IF(AND(K128&lt;&gt;"",K128&lt;&gt;"+3v3",K128&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D128," [get_ports {",K128,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K128,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L1 [get_ports {PMOD-6}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-6}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-6}]</v>
       </c>
       <c r="V128" s="31" t="str">
         <f aca="false">IF(AND(K128&lt;&gt;"",K128&lt;&gt;"+3v3",K128&lt;&gt;"GND",NOT(ISNA(P128)),NOT(ISNA(N128))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S128/$V$8,"0.000")," [get_ports {",K128,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S128/$W$8,"0.000")," [get_ports {",K128,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-6}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-6}]
-</v>
+set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-6}]</v>
       </c>
       <c r="W128" s="31" t="str">
         <f aca="false">IF(AND(K128&lt;&gt;"",K128&lt;&gt;"+3v3",K128&lt;&gt;"GND",NOT(ISNA(P128)),NOT(ISNA(N128))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P128/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K128,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P128/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K128,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-6}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-6}]
-</v>
+set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-6}]</v>
       </c>
       <c r="Y128" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T128="IO",T128="I"),V128,""),IF(OR(T128="IO",T128="O"),W128,""))</f>
@@ -15890,7 +15677,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B43" s="115" t="n">
         <v>28340036.0603</v>
@@ -15905,7 +15692,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B44" s="115" t="n">
         <v>28993590.7628</v>

--- a/nubus-to-ztex/signals.xlsx
+++ b/nubus-to-ztex/signals.xlsx
@@ -2095,7 +2095,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2145,6 +2145,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="5.6"/>
+      <color rgb="FF232627"/>
+      <name val="Noto Sans"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2437,7 +2443,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2710,6 +2716,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2810,31 +2820,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="23" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="23" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="24" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="24" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2842,11 +2852,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2910,19 +2920,33 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2980,7 +3004,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF232627"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2991,13 +3015,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG232"/>
+  <dimension ref="A1:AH232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J89" activeCellId="0" sqref="J89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH110" activeCellId="0" sqref="AH110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="40.01"/>
@@ -3333,7 +3357,8 @@
       <c r="U9" s="30" t="str">
         <f aca="false">IF(AND(K9&lt;&gt;"",K9&lt;&gt;"+3v3",K9&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D9," [get_ports {",K9,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K9,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K16 [get_ports {nmrq_n}]
-set_property IOSTANDARD LVTTL [get_ports {nmrq_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {nmrq_n}]
+</v>
       </c>
       <c r="V9" s="31" t="str">
         <f aca="false">IF(AND(K9&lt;&gt;"",K9&lt;&gt;"+3v3",K9&lt;&gt;"GND",NOT(ISNA(P9)),NOT(ISNA(N9))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S9/$V$8,"0.000")," [get_ports {",K9,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S9/$W$8,"0.000")," [get_ports {",K9,"}]",CHAR(10)),"")</f>
@@ -3407,22 +3432,26 @@
       <c r="U10" s="30" t="str">
         <f aca="false">IF(AND(K10&lt;&gt;"",K10&lt;&gt;"+3v3",K10&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D10," [get_ports {",K10,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K10,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J18 [get_ports {rqst_n}]
-set_property IOSTANDARD LVTTL [get_ports {rqst_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {rqst_n}]
+</v>
       </c>
       <c r="V10" s="31" t="str">
         <f aca="false">IF(AND(K10&lt;&gt;"",K10&lt;&gt;"+3v3",K10&lt;&gt;"GND",NOT(ISNA(P10)),NOT(ISNA(N10))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S10/$V$8,"0.000")," [get_ports {",K10,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S10/$W$8,"0.000")," [get_ports {",K10,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.404 [get_ports {rqst_n}]
-set_input_delay -clock clk_3v3_n -max 52.456 [get_ports {rqst_n}]</v>
+set_input_delay -clock clk_3v3_n -max 52.456 [get_ports {rqst_n}]
+</v>
       </c>
       <c r="W10" s="31" t="str">
         <f aca="false">IF(AND(K10&lt;&gt;"",K10&lt;&gt;"+3v3",K10&lt;&gt;"GND",NOT(ISNA(P10)),NOT(ISNA(N10))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P10/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K10,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P10/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K10,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.155 [get_ports {rqst_n}]
-set_output_delay -clock clk_3v3_n -max 53.627 [get_ports {rqst_n}]</v>
+set_output_delay -clock clk_3v3_n -max 53.627 [get_ports {rqst_n}]
+</v>
       </c>
       <c r="Y10" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T10="IO",T10="I"),V10,""),IF(OR(T10="IO",T10="O"),W10,""))</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.155 [get_ports {rqst_n}]
-set_output_delay -clock clk_3v3_n -max 53.627 [get_ports {rqst_n}]</v>
+set_output_delay -clock clk_3v3_n -max 53.627 [get_ports {rqst_n}]
+</v>
       </c>
       <c r="AG10" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K10,3)="LED",LEFT(K10,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D10,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K10),"")</f>
@@ -3484,24 +3513,28 @@
       <c r="U11" s="30" t="str">
         <f aca="false">IF(AND(K11&lt;&gt;"",K11&lt;&gt;"+3v3",K11&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D11," [get_ports {",K11,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K11,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K15 [get_ports {start_n}]
-set_property IOSTANDARD LVTTL [get_ports {start_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {start_n}]
+</v>
       </c>
       <c r="V11" s="31" t="str">
         <f aca="false">IF(AND(K11&lt;&gt;"",K11&lt;&gt;"+3v3",K11&lt;&gt;"GND",NOT(ISNA(P11)),NOT(ISNA(N11))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S11/$V$8,"0.000")," [get_ports {",K11,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S11/$W$8,"0.000")," [get_ports {",K11,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.457 [get_ports {start_n}]
-set_input_delay -clock clk_3v3_n -max 52.526 [get_ports {start_n}]</v>
+set_input_delay -clock clk_3v3_n -max 52.526 [get_ports {start_n}]
+</v>
       </c>
       <c r="W11" s="31" t="str">
         <f aca="false">IF(AND(K11&lt;&gt;"",K11&lt;&gt;"+3v3",K11&lt;&gt;"GND",NOT(ISNA(P11)),NOT(ISNA(N11))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P11/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K11,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P11/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K11,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.102 [get_ports {start_n}]
-set_output_delay -clock clk_3v3_n -max 53.697 [get_ports {start_n}]</v>
+set_output_delay -clock clk_3v3_n -max 53.697 [get_ports {start_n}]
+</v>
       </c>
       <c r="Y11" s="32" t="str">
         <f aca="false">CONCATENATE(IF(OR(T11="IO",T11="I"),V11,""),IF(OR(T11="IO",T11="O"),W11,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.457 [get_ports {start_n}]
 set_input_delay -clock clk_3v3_n -max 52.526 [get_ports {start_n}]
 set_output_delay -clock clk_3v3_n -min -6.102 [get_ports {start_n}]
-set_output_delay -clock clk_3v3_n -max 53.697 [get_ports {start_n}]</v>
+set_output_delay -clock clk_3v3_n -max 53.697 [get_ports {start_n}]
+</v>
       </c>
       <c r="AG11" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K11,3)="LED",LEFT(K11,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D11,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K11),"")</f>
@@ -3563,24 +3596,28 @@
       <c r="U12" s="30" t="str">
         <f aca="false">IF(AND(K12&lt;&gt;"",K12&lt;&gt;"+3v3",K12&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D12," [get_ports {",K12,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K12,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J17 [get_ports {ack_n}]
-set_property IOSTANDARD LVTTL [get_ports {ack_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ack_n}]
+</v>
       </c>
       <c r="V12" s="31" t="str">
         <f aca="false">IF(AND(K12&lt;&gt;"",K12&lt;&gt;"+3v3",K12&lt;&gt;"GND",NOT(ISNA(P12)),NOT(ISNA(N12))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S12/$V$8,"0.000")," [get_ports {",K12,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S12/$W$8,"0.000")," [get_ports {",K12,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.525 [get_ports {ack_n}]
-set_input_delay -clock clk_3v3_n -max 52.617 [get_ports {ack_n}]</v>
+set_input_delay -clock clk_3v3_n -max 52.617 [get_ports {ack_n}]
+</v>
       </c>
       <c r="W12" s="31" t="str">
         <f aca="false">IF(AND(K12&lt;&gt;"",K12&lt;&gt;"+3v3",K12&lt;&gt;"GND",NOT(ISNA(P12)),NOT(ISNA(N12))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P12/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K12,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P12/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K12,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.034 [get_ports {ack_n}]
-set_output_delay -clock clk_3v3_n -max 53.788 [get_ports {ack_n}]</v>
+set_output_delay -clock clk_3v3_n -max 53.788 [get_ports {ack_n}]
+</v>
       </c>
       <c r="Y12" s="32" t="str">
         <f aca="false">CONCATENATE(IF(OR(T12="IO",T12="I"),V12,""),IF(OR(T12="IO",T12="O"),W12,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.525 [get_ports {ack_n}]
 set_input_delay -clock clk_3v3_n -max 52.617 [get_ports {ack_n}]
 set_output_delay -clock clk_3v3_n -min -6.034 [get_ports {ack_n}]
-set_output_delay -clock clk_3v3_n -max 53.788 [get_ports {ack_n}]</v>
+set_output_delay -clock clk_3v3_n -max 53.788 [get_ports {ack_n}]
+</v>
       </c>
       <c r="AG12" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K12,3)="LED",LEFT(K12,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D12,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K12),"")</f>
@@ -3642,7 +3679,8 @@
       <c r="U13" s="30" t="str">
         <f aca="false">IF(AND(K13&lt;&gt;"",K13&lt;&gt;"+3v3",K13&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D13," [get_ports {",K13,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K13,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J15 [get_ports {start_oe_n}]
-set_property IOSTANDARD LVTTL [get_ports {start_oe_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {start_oe_n}]
+</v>
       </c>
       <c r="V13" s="31" t="str">
         <f aca="false">IF(AND(K13&lt;&gt;"",K13&lt;&gt;"+3v3",K13&lt;&gt;"GND",NOT(ISNA(P13)),NOT(ISNA(N13))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S13/$V$8,"0.000")," [get_ports {",K13,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S13/$W$8,"0.000")," [get_ports {",K13,"}]",CHAR(10)),"")</f>
@@ -3716,7 +3754,8 @@
       <c r="U14" s="30" t="str">
         <f aca="false">IF(AND(K14&lt;&gt;"",K14&lt;&gt;"+3v3",K14&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D14," [get_ports {",K14,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K14,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K13 [get_ports {rqst_o_n}]
-set_property IOSTANDARD LVTTL [get_ports {rqst_o_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {rqst_o_n}]
+</v>
       </c>
       <c r="V14" s="31" t="str">
         <f aca="false">IF(AND(K14&lt;&gt;"",K14&lt;&gt;"+3v3",K14&lt;&gt;"GND",NOT(ISNA(P14)),NOT(ISNA(N14))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S14/$V$8,"0.000")," [get_ports {",K14,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S14/$W$8,"0.000")," [get_ports {",K14,"}]",CHAR(10)),"")</f>
@@ -3792,7 +3831,8 @@
       <c r="U15" s="30" t="str">
         <f aca="false">IF(AND(K15&lt;&gt;"",K15&lt;&gt;"+3v3",K15&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D15," [get_ports {",K15,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K15,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN H15 [get_ports {start_o_n}]
-set_property IOSTANDARD LVTTL [get_ports {start_o_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {start_o_n}]
+</v>
       </c>
       <c r="V15" s="31" t="str">
         <f aca="false">IF(AND(K15&lt;&gt;"",K15&lt;&gt;"+3v3",K15&lt;&gt;"GND",NOT(ISNA(P15)),NOT(ISNA(N15))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S15/$V$8,"0.000")," [get_ports {",K15,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S15/$W$8,"0.000")," [get_ports {",K15,"}]",CHAR(10)),"")</f>
@@ -3866,7 +3906,8 @@
       <c r="U16" s="30" t="str">
         <f aca="false">IF(AND(K16&lt;&gt;"",K16&lt;&gt;"+3v3",K16&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D16," [get_ports {",K16,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K16,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J13 [get_ports {ack_oe_n}]
-set_property IOSTANDARD LVTTL [get_ports {ack_oe_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ack_oe_n}]
+</v>
       </c>
       <c r="V16" s="31" t="str">
         <f aca="false">IF(AND(K16&lt;&gt;"",K16&lt;&gt;"+3v3",K16&lt;&gt;"GND",NOT(ISNA(P16)),NOT(ISNA(N16))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S16/$V$8,"0.000")," [get_ports {",K16,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S16/$W$8,"0.000")," [get_ports {",K16,"}]",CHAR(10)),"")</f>
@@ -3940,7 +3981,8 @@
       <c r="U17" s="30" t="str">
         <f aca="false">IF(AND(K17&lt;&gt;"",K17&lt;&gt;"+3v3",K17&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D17," [get_ports {",K17,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K17,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J14 [get_ports {arb_o_n0}]
-set_property IOSTANDARD LVTTL [get_ports {arb_o_n0}]</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_o_n0}]
+</v>
       </c>
       <c r="V17" s="31" t="str">
         <f aca="false">IF(AND(K17&lt;&gt;"",K17&lt;&gt;"+3v3",K17&lt;&gt;"GND",NOT(ISNA(P17)),NOT(ISNA(N17))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S17/$V$8,"0.000")," [get_ports {",K17,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S17/$W$8,"0.000")," [get_ports {",K17,"}]",CHAR(10)),"")</f>
@@ -4014,7 +4056,8 @@
       <c r="U18" s="30" t="str">
         <f aca="false">IF(AND(K18&lt;&gt;"",K18&lt;&gt;"+3v3",K18&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D18," [get_ports {",K18,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K18,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN H14 [get_ports {ack_o_n}]
-set_property IOSTANDARD LVTTL [get_ports {ack_o_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ack_o_n}]
+</v>
       </c>
       <c r="V18" s="31" t="str">
         <f aca="false">IF(AND(K18&lt;&gt;"",K18&lt;&gt;"+3v3",K18&lt;&gt;"GND",NOT(ISNA(P18)),NOT(ISNA(N18))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S18/$V$8,"0.000")," [get_ports {",K18,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S18/$W$8,"0.000")," [get_ports {",K18,"}]",CHAR(10)),"")</f>
@@ -4088,7 +4131,8 @@
       <c r="U19" s="30" t="str">
         <f aca="false">IF(AND(K19&lt;&gt;"",K19&lt;&gt;"+3v3",K19&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D19," [get_ports {",K19,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K19,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN H17 [get_ports {arb_o_n3}]
-set_property IOSTANDARD LVTTL [get_ports {arb_o_n3}]</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_o_n3}]
+</v>
       </c>
       <c r="V19" s="31" t="str">
         <f aca="false">IF(AND(K19&lt;&gt;"",K19&lt;&gt;"+3v3",K19&lt;&gt;"GND",NOT(ISNA(P19)),NOT(ISNA(N19))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S19/$V$8,"0.000")," [get_ports {",K19,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S19/$W$8,"0.000")," [get_ports {",K19,"}]",CHAR(10)),"")</f>
@@ -4162,7 +4206,8 @@
       <c r="U20" s="30" t="str">
         <f aca="false">IF(AND(K20&lt;&gt;"",K20&lt;&gt;"+3v3",K20&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D20," [get_ports {",K20,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K20,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G14 [get_ports {arb_o_n2}]
-set_property IOSTANDARD LVTTL [get_ports {arb_o_n2}]</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_o_n2}]
+</v>
       </c>
       <c r="V20" s="31" t="str">
         <f aca="false">IF(AND(K20&lt;&gt;"",K20&lt;&gt;"+3v3",K20&lt;&gt;"GND",NOT(ISNA(P20)),NOT(ISNA(N20))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S20/$V$8,"0.000")," [get_ports {",K20,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S20/$W$8,"0.000")," [get_ports {",K20,"}]",CHAR(10)),"")</f>
@@ -4236,7 +4281,8 @@
       <c r="U21" s="30" t="str">
         <f aca="false">IF(AND(K21&lt;&gt;"",K21&lt;&gt;"+3v3",K21&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D21," [get_ports {",K21,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K21,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G17 [get_ports {NUBUS_AD_DIR}]
-set_property IOSTANDARD LVTTL [get_ports {NUBUS_AD_DIR}]</v>
+set_property IOSTANDARD LVTTL [get_ports {NUBUS_AD_DIR}]
+</v>
       </c>
       <c r="V21" s="31" t="str">
         <f aca="false">IF(AND(K21&lt;&gt;"",K21&lt;&gt;"+3v3",K21&lt;&gt;"GND",NOT(ISNA(P21)),NOT(ISNA(N21))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S21/$V$8,"0.000")," [get_ports {",K21,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S21/$W$8,"0.000")," [get_ports {",K21,"}]",CHAR(10)),"")</f>
@@ -4312,7 +4358,8 @@
       <c r="U22" s="30" t="str">
         <f aca="false">IF(AND(K22&lt;&gt;"",K22&lt;&gt;"+3v3",K22&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D22," [get_ports {",K22,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K22,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G16 [get_ports {arb_o_n1}]
-set_property IOSTANDARD LVTTL [get_ports {arb_o_n1}]</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_o_n1}]
+</v>
       </c>
       <c r="V22" s="31" t="str">
         <f aca="false">IF(AND(K22&lt;&gt;"",K22&lt;&gt;"+3v3",K22&lt;&gt;"GND",NOT(ISNA(P22)),NOT(ISNA(N22))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S22/$V$8,"0.000")," [get_ports {",K22,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S22/$W$8,"0.000")," [get_ports {",K22,"}]",CHAR(10)),"")</f>
@@ -4386,24 +4433,28 @@
       <c r="U23" s="30" t="str">
         <f aca="false">IF(AND(K23&lt;&gt;"",K23&lt;&gt;"+3v3",K23&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D23," [get_ports {",K23,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K23,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G18 [get_ports {ad_n31}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n31}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n31}]
+</v>
       </c>
       <c r="V23" s="31" t="str">
         <f aca="false">IF(AND(K23&lt;&gt;"",K23&lt;&gt;"+3v3",K23&lt;&gt;"GND",NOT(ISNA(P23)),NOT(ISNA(N23))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S23/$V$8,"0.000")," [get_ports {",K23,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S23/$W$8,"0.000")," [get_ports {",K23,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.237 [get_ports {ad_n31}]
-set_input_delay -clock clk_3v3_n -max 52.233 [get_ports {ad_n31}]</v>
+set_input_delay -clock clk_3v3_n -max 52.233 [get_ports {ad_n31}]
+</v>
       </c>
       <c r="W23" s="31" t="str">
         <f aca="false">IF(AND(K23&lt;&gt;"",K23&lt;&gt;"+3v3",K23&lt;&gt;"GND",NOT(ISNA(P23)),NOT(ISNA(N23))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P23/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K23,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P23/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K23,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.322 [get_ports {ad_n31}]
-set_output_delay -clock clk_3v3_n -max 53.404 [get_ports {ad_n31}]</v>
+set_output_delay -clock clk_3v3_n -max 53.404 [get_ports {ad_n31}]
+</v>
       </c>
       <c r="Y23" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T23="IO",T23="I"),V23,""),IF(OR(T23="IO",T23="O"),W23,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.237 [get_ports {ad_n31}]
 set_input_delay -clock clk_3v3_n -max 52.233 [get_ports {ad_n31}]
 set_output_delay -clock clk_3v3_n -min -6.322 [get_ports {ad_n31}]
-set_output_delay -clock clk_3v3_n -max 53.404 [get_ports {ad_n31}]</v>
+set_output_delay -clock clk_3v3_n -max 53.404 [get_ports {ad_n31}]
+</v>
       </c>
       <c r="AG23" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K23,3)="LED",LEFT(K23,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D23,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K23),"")</f>
@@ -4467,22 +4518,26 @@
       <c r="U24" s="30" t="str">
         <f aca="false">IF(AND(K24&lt;&gt;"",K24&lt;&gt;"+3v3",K24&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D24," [get_ports {",K24,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K24,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN H16 [get_ports {clk_n}]
-set_property IOSTANDARD LVTTL [get_ports {clk_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {clk_n}]
+</v>
       </c>
       <c r="V24" s="31" t="str">
         <f aca="false">IF(AND(K24&lt;&gt;"",K24&lt;&gt;"+3v3",K24&lt;&gt;"GND",NOT(ISNA(P24)),NOT(ISNA(N24))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S24/$V$8,"0.000")," [get_ports {",K24,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S24/$W$8,"0.000")," [get_ports {",K24,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.250 [get_ports {clk_n}]
-set_input_delay -clock clk_3v3_n -max 52.250 [get_ports {clk_n}]</v>
+set_input_delay -clock clk_3v3_n -max 52.250 [get_ports {clk_n}]
+</v>
       </c>
       <c r="W24" s="31" t="str">
         <f aca="false">IF(AND(K24&lt;&gt;"",K24&lt;&gt;"+3v3",K24&lt;&gt;"GND",NOT(ISNA(P24)),NOT(ISNA(N24))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P24/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K24,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P24/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K24,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.309 [get_ports {clk_n}]
-set_output_delay -clock clk_3v3_n -max 53.421 [get_ports {clk_n}]</v>
+set_output_delay -clock clk_3v3_n -max 53.421 [get_ports {clk_n}]
+</v>
       </c>
       <c r="Y24" s="32" t="str">
         <f aca="false">CONCATENATE(IF(OR(T24="IO",T24="I"),V24,""),IF(OR(T24="IO",T24="O"),W24,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.250 [get_ports {clk_n}]
-set_input_delay -clock clk_3v3_n -max 52.250 [get_ports {clk_n}]</v>
+set_input_delay -clock clk_3v3_n -max 52.250 [get_ports {clk_n}]
+</v>
       </c>
       <c r="AG24" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K24,3)="LED",LEFT(K24,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D24,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K24),"")</f>
@@ -4544,24 +4599,28 @@
       <c r="U25" s="30" t="str">
         <f aca="false">IF(AND(K25&lt;&gt;"",K25&lt;&gt;"+3v3",K25&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D25," [get_ports {",K25,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K25,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN F18 [get_ports {ad_n29}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n29}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n29}]
+</v>
       </c>
       <c r="V25" s="31" t="str">
         <f aca="false">IF(AND(K25&lt;&gt;"",K25&lt;&gt;"+3v3",K25&lt;&gt;"GND",NOT(ISNA(P25)),NOT(ISNA(N25))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S25/$V$8,"0.000")," [get_ports {",K25,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S25/$W$8,"0.000")," [get_ports {",K25,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.229 [get_ports {ad_n29}]
-set_input_delay -clock clk_3v3_n -max 52.221 [get_ports {ad_n29}]</v>
+set_input_delay -clock clk_3v3_n -max 52.221 [get_ports {ad_n29}]
+</v>
       </c>
       <c r="W25" s="31" t="str">
         <f aca="false">IF(AND(K25&lt;&gt;"",K25&lt;&gt;"+3v3",K25&lt;&gt;"GND",NOT(ISNA(P25)),NOT(ISNA(N25))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P25/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K25,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P25/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K25,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.330 [get_ports {ad_n29}]
-set_output_delay -clock clk_3v3_n -max 53.393 [get_ports {ad_n29}]</v>
+set_output_delay -clock clk_3v3_n -max 53.393 [get_ports {ad_n29}]
+</v>
       </c>
       <c r="Y25" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T25="IO",T25="I"),V25,""),IF(OR(T25="IO",T25="O"),W25,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.229 [get_ports {ad_n29}]
 set_input_delay -clock clk_3v3_n -max 52.221 [get_ports {ad_n29}]
 set_output_delay -clock clk_3v3_n -min -6.330 [get_ports {ad_n29}]
-set_output_delay -clock clk_3v3_n -max 53.393 [get_ports {ad_n29}]</v>
+set_output_delay -clock clk_3v3_n -max 53.393 [get_ports {ad_n29}]
+</v>
       </c>
       <c r="AG25" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K25,3)="LED",LEFT(K25,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D25,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K25),"")</f>
@@ -4625,24 +4684,28 @@
       <c r="U26" s="30" t="str">
         <f aca="false">IF(AND(K26&lt;&gt;"",K26&lt;&gt;"+3v3",K26&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D26," [get_ports {",K26,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K26,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN F16 [get_ports {ad_n30}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n30}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n30}]
+</v>
       </c>
       <c r="V26" s="31" t="str">
         <f aca="false">IF(AND(K26&lt;&gt;"",K26&lt;&gt;"+3v3",K26&lt;&gt;"GND",NOT(ISNA(P26)),NOT(ISNA(N26))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S26/$V$8,"0.000")," [get_ports {",K26,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S26/$W$8,"0.000")," [get_ports {",K26,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.282 [get_ports {ad_n30}]
-set_input_delay -clock clk_3v3_n -max 52.293 [get_ports {ad_n30}]</v>
+set_input_delay -clock clk_3v3_n -max 52.293 [get_ports {ad_n30}]
+</v>
       </c>
       <c r="W26" s="31" t="str">
         <f aca="false">IF(AND(K26&lt;&gt;"",K26&lt;&gt;"+3v3",K26&lt;&gt;"GND",NOT(ISNA(P26)),NOT(ISNA(N26))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P26/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K26,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P26/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K26,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.277 [get_ports {ad_n30}]
-set_output_delay -clock clk_3v3_n -max 53.464 [get_ports {ad_n30}]</v>
+set_output_delay -clock clk_3v3_n -max 53.464 [get_ports {ad_n30}]
+</v>
       </c>
       <c r="Y26" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T26="IO",T26="I"),V26,""),IF(OR(T26="IO",T26="O"),W26,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.282 [get_ports {ad_n30}]
 set_input_delay -clock clk_3v3_n -max 52.293 [get_ports {ad_n30}]
 set_output_delay -clock clk_3v3_n -min -6.277 [get_ports {ad_n30}]
-set_output_delay -clock clk_3v3_n -max 53.464 [get_ports {ad_n30}]</v>
+set_output_delay -clock clk_3v3_n -max 53.464 [get_ports {ad_n30}]
+</v>
       </c>
       <c r="AG26" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K26,3)="LED",LEFT(K26,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D26,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K26),"")</f>
@@ -4704,24 +4767,28 @@
       <c r="U27" s="30" t="str">
         <f aca="false">IF(AND(K27&lt;&gt;"",K27&lt;&gt;"+3v3",K27&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D27," [get_ports {",K27,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K27,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN E18 [get_ports {ad_n27}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n27}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n27}]
+</v>
       </c>
       <c r="V27" s="31" t="str">
         <f aca="false">IF(AND(K27&lt;&gt;"",K27&lt;&gt;"+3v3",K27&lt;&gt;"GND",NOT(ISNA(P27)),NOT(ISNA(N27))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S27/$V$8,"0.000")," [get_ports {",K27,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S27/$W$8,"0.000")," [get_ports {",K27,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.224 [get_ports {ad_n27}]
-set_input_delay -clock clk_3v3_n -max 52.215 [get_ports {ad_n27}]</v>
+set_input_delay -clock clk_3v3_n -max 52.215 [get_ports {ad_n27}]
+</v>
       </c>
       <c r="W27" s="31" t="str">
         <f aca="false">IF(AND(K27&lt;&gt;"",K27&lt;&gt;"+3v3",K27&lt;&gt;"GND",NOT(ISNA(P27)),NOT(ISNA(N27))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P27/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K27,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P27/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K27,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.335 [get_ports {ad_n27}]
-set_output_delay -clock clk_3v3_n -max 53.386 [get_ports {ad_n27}]</v>
+set_output_delay -clock clk_3v3_n -max 53.386 [get_ports {ad_n27}]
+</v>
       </c>
       <c r="Y27" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T27="IO",T27="I"),V27,""),IF(OR(T27="IO",T27="O"),W27,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.224 [get_ports {ad_n27}]
 set_input_delay -clock clk_3v3_n -max 52.215 [get_ports {ad_n27}]
 set_output_delay -clock clk_3v3_n -min -6.335 [get_ports {ad_n27}]
-set_output_delay -clock clk_3v3_n -max 53.386 [get_ports {ad_n27}]</v>
+set_output_delay -clock clk_3v3_n -max 53.386 [get_ports {ad_n27}]
+</v>
       </c>
       <c r="AG27" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K27,3)="LED",LEFT(K27,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D27,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K27),"")</f>
@@ -4785,24 +4852,28 @@
       <c r="U28" s="30" t="str">
         <f aca="false">IF(AND(K28&lt;&gt;"",K28&lt;&gt;"+3v3",K28&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D28," [get_ports {",K28,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K28,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN F15 [get_ports {ad_n28}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n28}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n28}]
+</v>
       </c>
       <c r="V28" s="31" t="str">
         <f aca="false">IF(AND(K28&lt;&gt;"",K28&lt;&gt;"+3v3",K28&lt;&gt;"GND",NOT(ISNA(P28)),NOT(ISNA(N28))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S28/$V$8,"0.000")," [get_ports {",K28,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S28/$W$8,"0.000")," [get_ports {",K28,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.202 [get_ports {ad_n28}]
-set_input_delay -clock clk_3v3_n -max 52.186 [get_ports {ad_n28}]</v>
+set_input_delay -clock clk_3v3_n -max 52.186 [get_ports {ad_n28}]
+</v>
       </c>
       <c r="W28" s="31" t="str">
         <f aca="false">IF(AND(K28&lt;&gt;"",K28&lt;&gt;"+3v3",K28&lt;&gt;"GND",NOT(ISNA(P28)),NOT(ISNA(N28))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P28/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K28,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P28/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K28,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.357 [get_ports {ad_n28}]
-set_output_delay -clock clk_3v3_n -max 53.357 [get_ports {ad_n28}]</v>
+set_output_delay -clock clk_3v3_n -max 53.357 [get_ports {ad_n28}]
+</v>
       </c>
       <c r="Y28" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T28="IO",T28="I"),V28,""),IF(OR(T28="IO",T28="O"),W28,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.202 [get_ports {ad_n28}]
 set_input_delay -clock clk_3v3_n -max 52.186 [get_ports {ad_n28}]
 set_output_delay -clock clk_3v3_n -min -6.357 [get_ports {ad_n28}]
-set_output_delay -clock clk_3v3_n -max 53.357 [get_ports {ad_n28}]</v>
+set_output_delay -clock clk_3v3_n -max 53.357 [get_ports {ad_n28}]
+</v>
       </c>
       <c r="AG28" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K28,3)="LED",LEFT(K28,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D28,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K28),"")</f>
@@ -4856,7 +4927,7 @@
       </c>
       <c r="S29" s="4" t="n">
         <f aca="false">IF(P29&gt;0,P$136-P29,"")</f>
-        <v>7.1699030125</v>
+        <v>7.16990301249999</v>
       </c>
       <c r="T29" s="0" t="s">
         <v>36</v>
@@ -4864,24 +4935,28 @@
       <c r="U29" s="30" t="str">
         <f aca="false">IF(AND(K29&lt;&gt;"",K29&lt;&gt;"+3v3",K29&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D29," [get_ports {",K29,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K29,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN D18 [get_ports {ad_n25}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n25}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n25}]
+</v>
       </c>
       <c r="V29" s="31" t="str">
         <f aca="false">IF(AND(K29&lt;&gt;"",K29&lt;&gt;"+3v3",K29&lt;&gt;"GND",NOT(ISNA(P29)),NOT(ISNA(N29))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S29/$V$8,"0.000")," [get_ports {",K29,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S29/$W$8,"0.000")," [get_ports {",K29,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.214 [get_ports {ad_n25}]
-set_input_delay -clock clk_3v3_n -max 52.202 [get_ports {ad_n25}]</v>
+set_input_delay -clock clk_3v3_n -max 52.202 [get_ports {ad_n25}]
+</v>
       </c>
       <c r="W29" s="31" t="str">
         <f aca="false">IF(AND(K29&lt;&gt;"",K29&lt;&gt;"+3v3",K29&lt;&gt;"GND",NOT(ISNA(P29)),NOT(ISNA(N29))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P29/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K29,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P29/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K29,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.345 [get_ports {ad_n25}]
-set_output_delay -clock clk_3v3_n -max 53.374 [get_ports {ad_n25}]</v>
+set_output_delay -clock clk_3v3_n -max 53.374 [get_ports {ad_n25}]
+</v>
       </c>
       <c r="Y29" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T29="IO",T29="I"),V29,""),IF(OR(T29="IO",T29="O"),W29,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.214 [get_ports {ad_n25}]
 set_input_delay -clock clk_3v3_n -max 52.202 [get_ports {ad_n25}]
 set_output_delay -clock clk_3v3_n -min -6.345 [get_ports {ad_n25}]
-set_output_delay -clock clk_3v3_n -max 53.374 [get_ports {ad_n25}]</v>
+set_output_delay -clock clk_3v3_n -max 53.374 [get_ports {ad_n25}]
+</v>
       </c>
       <c r="AG29" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K29,3)="LED",LEFT(K29,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D29,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K29),"")</f>
@@ -4943,24 +5018,28 @@
       <c r="U30" s="30" t="str">
         <f aca="false">IF(AND(K30&lt;&gt;"",K30&lt;&gt;"+3v3",K30&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D30," [get_ports {",K30,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K30,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN E17 [get_ports {ad_n26}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n26}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n26}]
+</v>
       </c>
       <c r="V30" s="31" t="str">
         <f aca="false">IF(AND(K30&lt;&gt;"",K30&lt;&gt;"+3v3",K30&lt;&gt;"GND",NOT(ISNA(P30)),NOT(ISNA(N30))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S30/$V$8,"0.000")," [get_ports {",K30,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S30/$W$8,"0.000")," [get_ports {",K30,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.189 [get_ports {ad_n26}]
-set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n26}]</v>
+set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n26}]
+</v>
       </c>
       <c r="W30" s="31" t="str">
         <f aca="false">IF(AND(K30&lt;&gt;"",K30&lt;&gt;"+3v3",K30&lt;&gt;"GND",NOT(ISNA(P30)),NOT(ISNA(N30))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P30/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K30,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P30/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K30,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.370 [get_ports {ad_n26}]
-set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n26}]</v>
+set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n26}]
+</v>
       </c>
       <c r="Y30" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T30="IO",T30="I"),V30,""),IF(OR(T30="IO",T30="O"),W30,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.189 [get_ports {ad_n26}]
 set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n26}]
 set_output_delay -clock clk_3v3_n -min -6.370 [get_ports {ad_n26}]
-set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n26}]</v>
+set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n26}]
+</v>
       </c>
       <c r="AG30" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K30,3)="LED",LEFT(K30,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D30,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K30),"")</f>
@@ -4994,7 +5073,7 @@
       </c>
       <c r="K31" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H31)),$H31,"")</f>
-        <v>nubus_oe</v>
+        <v>nubus_oe </v>
       </c>
       <c r="M31" s="0" t="n">
         <f aca="false">VLOOKUP(A31,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -5022,7 +5101,8 @@
       <c r="U31" s="30" t="str">
         <f aca="false">IF(AND(K31&lt;&gt;"",K31&lt;&gt;"+3v3",K31&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D31," [get_ports {",K31,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K31,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G13 [get_ports {nubus_oe }]
-set_property IOSTANDARD LVTTL [get_ports {nubus_oe }]</v>
+set_property IOSTANDARD LVTTL [get_ports {nubus_oe }]
+</v>
       </c>
       <c r="V31" s="31" t="str">
         <f aca="false">IF(AND(K31&lt;&gt;"",K31&lt;&gt;"+3v3",K31&lt;&gt;"GND",NOT(ISNA(P31)),NOT(ISNA(N31))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S31/$V$8,"0.000")," [get_ports {",K31,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S31/$W$8,"0.000")," [get_ports {",K31,"}]",CHAR(10)),"")</f>
@@ -5096,24 +5176,28 @@
       <c r="U32" s="30" t="str">
         <f aca="false">IF(AND(K32&lt;&gt;"",K32&lt;&gt;"+3v3",K32&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D32," [get_ports {",K32,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K32,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN D17 [get_ports {ad_n24}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n24}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n24}]
+</v>
       </c>
       <c r="V32" s="31" t="str">
         <f aca="false">IF(AND(K32&lt;&gt;"",K32&lt;&gt;"+3v3",K32&lt;&gt;"GND",NOT(ISNA(P32)),NOT(ISNA(N32))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S32/$V$8,"0.000")," [get_ports {",K32,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S32/$W$8,"0.000")," [get_ports {",K32,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.185 [get_ports {ad_n24}]
-set_input_delay -clock clk_3v3_n -max 52.163 [get_ports {ad_n24}]</v>
+set_input_delay -clock clk_3v3_n -max 52.163 [get_ports {ad_n24}]
+</v>
       </c>
       <c r="W32" s="31" t="str">
         <f aca="false">IF(AND(K32&lt;&gt;"",K32&lt;&gt;"+3v3",K32&lt;&gt;"GND",NOT(ISNA(P32)),NOT(ISNA(N32))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P32/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K32,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P32/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K32,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.374 [get_ports {ad_n24}]
-set_output_delay -clock clk_3v3_n -max 53.335 [get_ports {ad_n24}]</v>
+set_output_delay -clock clk_3v3_n -max 53.335 [get_ports {ad_n24}]
+</v>
       </c>
       <c r="Y32" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T32="IO",T32="I"),V32,""),IF(OR(T32="IO",T32="O"),W32,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.185 [get_ports {ad_n24}]
 set_input_delay -clock clk_3v3_n -max 52.163 [get_ports {ad_n24}]
 set_output_delay -clock clk_3v3_n -min -6.374 [get_ports {ad_n24}]
-set_output_delay -clock clk_3v3_n -max 53.335 [get_ports {ad_n24}]</v>
+set_output_delay -clock clk_3v3_n -max 53.335 [get_ports {ad_n24}]
+</v>
       </c>
       <c r="AG32" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K32,3)="LED",LEFT(K32,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D32,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K32),"")</f>
@@ -5157,8 +5241,7 @@
       </c>
       <c r="U33" s="30" t="str">
         <f aca="false">IF(AND(K33&lt;&gt;"",K33&lt;&gt;"+3v3",K33&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D33," [get_ports {",K33,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K33,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN  [get_ports {0}]
-set_property IOSTANDARD LVTTL [get_ports {0}]</v>
+        <v/>
       </c>
       <c r="V33" s="31" t="str">
         <f aca="false">IF(AND(K33&lt;&gt;"",K33&lt;&gt;"+3v3",K33&lt;&gt;"GND",NOT(ISNA(P33)),NOT(ISNA(N33))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S33/$V$8,"0.000")," [get_ports {",K33,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S33/$W$8,"0.000")," [get_ports {",K33,"}]",CHAR(10)),"")</f>
@@ -5531,24 +5614,28 @@
       <c r="U39" s="30" t="str">
         <f aca="false">IF(AND(K39&lt;&gt;"",K39&lt;&gt;"+3v3",K39&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D39," [get_ports {",K39,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K39,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN F13 [get_ports {ad_n23}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n23}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n23}]
+</v>
       </c>
       <c r="V39" s="31" t="str">
         <f aca="false">IF(AND(K39&lt;&gt;"",K39&lt;&gt;"+3v3",K39&lt;&gt;"GND",NOT(ISNA(P39)),NOT(ISNA(N39))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S39/$V$8,"0.000")," [get_ports {",K39,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S39/$W$8,"0.000")," [get_ports {",K39,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.192 [get_ports {ad_n23}]
-set_input_delay -clock clk_3v3_n -max 52.173 [get_ports {ad_n23}]</v>
+set_input_delay -clock clk_3v3_n -max 52.173 [get_ports {ad_n23}]
+</v>
       </c>
       <c r="W39" s="31" t="str">
         <f aca="false">IF(AND(K39&lt;&gt;"",K39&lt;&gt;"+3v3",K39&lt;&gt;"GND",NOT(ISNA(P39)),NOT(ISNA(N39))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P39/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K39,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P39/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K39,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.367 [get_ports {ad_n23}]
-set_output_delay -clock clk_3v3_n -max 53.344 [get_ports {ad_n23}]</v>
+set_output_delay -clock clk_3v3_n -max 53.344 [get_ports {ad_n23}]
+</v>
       </c>
       <c r="Y39" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T39="IO",T39="I"),V39,""),IF(OR(T39="IO",T39="O"),W39,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.192 [get_ports {ad_n23}]
 set_input_delay -clock clk_3v3_n -max 52.173 [get_ports {ad_n23}]
 set_output_delay -clock clk_3v3_n -min -6.367 [get_ports {ad_n23}]
-set_output_delay -clock clk_3v3_n -max 53.344 [get_ports {ad_n23}]</v>
+set_output_delay -clock clk_3v3_n -max 53.344 [get_ports {ad_n23}]
+</v>
       </c>
       <c r="AG39" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K39,3)="LED",LEFT(K39,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D39,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K39),"")</f>
@@ -5610,24 +5697,28 @@
       <c r="U40" s="30" t="str">
         <f aca="false">IF(AND(K40&lt;&gt;"",K40&lt;&gt;"+3v3",K40&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D40," [get_ports {",K40,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K40,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN F14 [get_ports {ad_n22}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n22}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n22}]
+</v>
       </c>
       <c r="V40" s="31" t="str">
         <f aca="false">IF(AND(K40&lt;&gt;"",K40&lt;&gt;"+3v3",K40&lt;&gt;"GND",NOT(ISNA(P40)),NOT(ISNA(N40))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S40/$V$8,"0.000")," [get_ports {",K40,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S40/$W$8,"0.000")," [get_ports {",K40,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.149 [get_ports {ad_n22}]
-set_input_delay -clock clk_3v3_n -max 52.115 [get_ports {ad_n22}]</v>
+set_input_delay -clock clk_3v3_n -max 52.115 [get_ports {ad_n22}]
+</v>
       </c>
       <c r="W40" s="31" t="str">
         <f aca="false">IF(AND(K40&lt;&gt;"",K40&lt;&gt;"+3v3",K40&lt;&gt;"GND",NOT(ISNA(P40)),NOT(ISNA(N40))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P40/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K40,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P40/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K40,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.410 [get_ports {ad_n22}]
-set_output_delay -clock clk_3v3_n -max 53.286 [get_ports {ad_n22}]</v>
+set_output_delay -clock clk_3v3_n -max 53.286 [get_ports {ad_n22}]
+</v>
       </c>
       <c r="Y40" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T40="IO",T40="I"),V40,""),IF(OR(T40="IO",T40="O"),W40,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.149 [get_ports {ad_n22}]
 set_input_delay -clock clk_3v3_n -max 52.115 [get_ports {ad_n22}]
 set_output_delay -clock clk_3v3_n -min -6.410 [get_ports {ad_n22}]
-set_output_delay -clock clk_3v3_n -max 53.286 [get_ports {ad_n22}]</v>
+set_output_delay -clock clk_3v3_n -max 53.286 [get_ports {ad_n22}]
+</v>
       </c>
       <c r="AG40" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K40,3)="LED",LEFT(K40,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D40,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K40),"")</f>
@@ -5691,24 +5782,28 @@
       <c r="U41" s="30" t="str">
         <f aca="false">IF(AND(K41&lt;&gt;"",K41&lt;&gt;"+3v3",K41&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D41," [get_ports {",K41,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K41,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN E16 [get_ports {ad_n21}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n21}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n21}]
+</v>
       </c>
       <c r="V41" s="31" t="str">
         <f aca="false">IF(AND(K41&lt;&gt;"",K41&lt;&gt;"+3v3",K41&lt;&gt;"GND",NOT(ISNA(P41)),NOT(ISNA(N41))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S41/$V$8,"0.000")," [get_ports {",K41,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S41/$W$8,"0.000")," [get_ports {",K41,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.177 [get_ports {ad_n21}]
-set_input_delay -clock clk_3v3_n -max 52.152 [get_ports {ad_n21}]</v>
+set_input_delay -clock clk_3v3_n -max 52.152 [get_ports {ad_n21}]
+</v>
       </c>
       <c r="W41" s="31" t="str">
         <f aca="false">IF(AND(K41&lt;&gt;"",K41&lt;&gt;"+3v3",K41&lt;&gt;"GND",NOT(ISNA(P41)),NOT(ISNA(N41))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P41/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K41,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P41/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K41,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.382 [get_ports {ad_n21}]
-set_output_delay -clock clk_3v3_n -max 53.324 [get_ports {ad_n21}]</v>
+set_output_delay -clock clk_3v3_n -max 53.324 [get_ports {ad_n21}]
+</v>
       </c>
       <c r="Y41" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T41="IO",T41="I"),V41,""),IF(OR(T41="IO",T41="O"),W41,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.177 [get_ports {ad_n21}]
 set_input_delay -clock clk_3v3_n -max 52.152 [get_ports {ad_n21}]
 set_output_delay -clock clk_3v3_n -min -6.382 [get_ports {ad_n21}]
-set_output_delay -clock clk_3v3_n -max 53.324 [get_ports {ad_n21}]</v>
+set_output_delay -clock clk_3v3_n -max 53.324 [get_ports {ad_n21}]
+</v>
       </c>
       <c r="AG41" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K41,3)="LED",LEFT(K41,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D41,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K41),"")</f>
@@ -5772,24 +5867,28 @@
       <c r="U42" s="30" t="str">
         <f aca="false">IF(AND(K42&lt;&gt;"",K42&lt;&gt;"+3v3",K42&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D42," [get_ports {",K42,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K42,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN E15 [get_ports {ad_n20}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n20}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n20}]
+</v>
       </c>
       <c r="V42" s="31" t="str">
         <f aca="false">IF(AND(K42&lt;&gt;"",K42&lt;&gt;"+3v3",K42&lt;&gt;"GND",NOT(ISNA(P42)),NOT(ISNA(N42))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S42/$V$8,"0.000")," [get_ports {",K42,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S42/$W$8,"0.000")," [get_ports {",K42,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.136 [get_ports {ad_n20}]
-set_input_delay -clock clk_3v3_n -max 52.098 [get_ports {ad_n20}]</v>
+set_input_delay -clock clk_3v3_n -max 52.098 [get_ports {ad_n20}]
+</v>
       </c>
       <c r="W42" s="31" t="str">
         <f aca="false">IF(AND(K42&lt;&gt;"",K42&lt;&gt;"+3v3",K42&lt;&gt;"GND",NOT(ISNA(P42)),NOT(ISNA(N42))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P42/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K42,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P42/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K42,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.423 [get_ports {ad_n20}]
-set_output_delay -clock clk_3v3_n -max 53.270 [get_ports {ad_n20}]</v>
+set_output_delay -clock clk_3v3_n -max 53.270 [get_ports {ad_n20}]
+</v>
       </c>
       <c r="Y42" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T42="IO",T42="I"),V42,""),IF(OR(T42="IO",T42="O"),W42,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.136 [get_ports {ad_n20}]
 set_input_delay -clock clk_3v3_n -max 52.098 [get_ports {ad_n20}]
 set_output_delay -clock clk_3v3_n -min -6.423 [get_ports {ad_n20}]
-set_output_delay -clock clk_3v3_n -max 53.270 [get_ports {ad_n20}]</v>
+set_output_delay -clock clk_3v3_n -max 53.270 [get_ports {ad_n20}]
+</v>
       </c>
       <c r="AG42" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K42,3)="LED",LEFT(K42,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D42,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K42),"")</f>
@@ -5851,24 +5950,28 @@
       <c r="U43" s="30" t="str">
         <f aca="false">IF(AND(K43&lt;&gt;"",K43&lt;&gt;"+3v3",K43&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D43," [get_ports {",K43,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K43,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN C17 [get_ports {ad_n19}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n19}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n19}]
+</v>
       </c>
       <c r="V43" s="31" t="str">
         <f aca="false">IF(AND(K43&lt;&gt;"",K43&lt;&gt;"+3v3",K43&lt;&gt;"GND",NOT(ISNA(P43)),NOT(ISNA(N43))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S43/$V$8,"0.000")," [get_ports {",K43,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S43/$W$8,"0.000")," [get_ports {",K43,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.159 [get_ports {ad_n19}]
-set_input_delay -clock clk_3v3_n -max 52.129 [get_ports {ad_n19}]</v>
+set_input_delay -clock clk_3v3_n -max 52.129 [get_ports {ad_n19}]
+</v>
       </c>
       <c r="W43" s="31" t="str">
         <f aca="false">IF(AND(K43&lt;&gt;"",K43&lt;&gt;"+3v3",K43&lt;&gt;"GND",NOT(ISNA(P43)),NOT(ISNA(N43))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P43/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K43,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P43/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K43,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.400 [get_ports {ad_n19}]
-set_output_delay -clock clk_3v3_n -max 53.300 [get_ports {ad_n19}]</v>
+set_output_delay -clock clk_3v3_n -max 53.300 [get_ports {ad_n19}]
+</v>
       </c>
       <c r="Y43" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T43="IO",T43="I"),V43,""),IF(OR(T43="IO",T43="O"),W43,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.159 [get_ports {ad_n19}]
 set_input_delay -clock clk_3v3_n -max 52.129 [get_ports {ad_n19}]
 set_output_delay -clock clk_3v3_n -min -6.400 [get_ports {ad_n19}]
-set_output_delay -clock clk_3v3_n -max 53.300 [get_ports {ad_n19}]</v>
+set_output_delay -clock clk_3v3_n -max 53.300 [get_ports {ad_n19}]
+</v>
       </c>
       <c r="AG43" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K43,3)="LED",LEFT(K43,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D43,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K43),"")</f>
@@ -5930,24 +6033,28 @@
       <c r="U44" s="30" t="str">
         <f aca="false">IF(AND(K44&lt;&gt;"",K44&lt;&gt;"+3v3",K44&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D44," [get_ports {",K44,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K44,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN C16 [get_ports {ad_n18}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n18}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n18}]
+</v>
       </c>
       <c r="V44" s="31" t="str">
         <f aca="false">IF(AND(K44&lt;&gt;"",K44&lt;&gt;"+3v3",K44&lt;&gt;"GND",NOT(ISNA(P44)),NOT(ISNA(N44))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S44/$V$8,"0.000")," [get_ports {",K44,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S44/$W$8,"0.000")," [get_ports {",K44,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.123 [get_ports {ad_n18}]
-set_input_delay -clock clk_3v3_n -max 52.080 [get_ports {ad_n18}]</v>
+set_input_delay -clock clk_3v3_n -max 52.080 [get_ports {ad_n18}]
+</v>
       </c>
       <c r="W44" s="31" t="str">
         <f aca="false">IF(AND(K44&lt;&gt;"",K44&lt;&gt;"+3v3",K44&lt;&gt;"GND",NOT(ISNA(P44)),NOT(ISNA(N44))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P44/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K44,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P44/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K44,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.436 [get_ports {ad_n18}]
-set_output_delay -clock clk_3v3_n -max 53.252 [get_ports {ad_n18}]</v>
+set_output_delay -clock clk_3v3_n -max 53.252 [get_ports {ad_n18}]
+</v>
       </c>
       <c r="Y44" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T44="IO",T44="I"),V44,""),IF(OR(T44="IO",T44="O"),W44,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.123 [get_ports {ad_n18}]
 set_input_delay -clock clk_3v3_n -max 52.080 [get_ports {ad_n18}]
 set_output_delay -clock clk_3v3_n -min -6.436 [get_ports {ad_n18}]
-set_output_delay -clock clk_3v3_n -max 53.252 [get_ports {ad_n18}]</v>
+set_output_delay -clock clk_3v3_n -max 53.252 [get_ports {ad_n18}]
+</v>
       </c>
       <c r="AG44" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K44,3)="LED",LEFT(K44,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D44,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K44),"")</f>
@@ -6011,24 +6118,28 @@
       <c r="U45" s="30" t="str">
         <f aca="false">IF(AND(K45&lt;&gt;"",K45&lt;&gt;"+3v3",K45&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D45," [get_ports {",K45,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K45,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN A18 [get_ports {ad_n17}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n17}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n17}]
+</v>
       </c>
       <c r="V45" s="31" t="str">
         <f aca="false">IF(AND(K45&lt;&gt;"",K45&lt;&gt;"+3v3",K45&lt;&gt;"GND",NOT(ISNA(P45)),NOT(ISNA(N45))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S45/$V$8,"0.000")," [get_ports {",K45,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S45/$W$8,"0.000")," [get_ports {",K45,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.155 [get_ports {ad_n17}]
-set_input_delay -clock clk_3v3_n -max 52.123 [get_ports {ad_n17}]</v>
+set_input_delay -clock clk_3v3_n -max 52.123 [get_ports {ad_n17}]
+</v>
       </c>
       <c r="W45" s="31" t="str">
         <f aca="false">IF(AND(K45&lt;&gt;"",K45&lt;&gt;"+3v3",K45&lt;&gt;"GND",NOT(ISNA(P45)),NOT(ISNA(N45))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P45/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K45,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P45/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K45,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.404 [get_ports {ad_n17}]
-set_output_delay -clock clk_3v3_n -max 53.294 [get_ports {ad_n17}]</v>
+set_output_delay -clock clk_3v3_n -max 53.294 [get_ports {ad_n17}]
+</v>
       </c>
       <c r="Y45" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T45="IO",T45="I"),V45,""),IF(OR(T45="IO",T45="O"),W45,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.155 [get_ports {ad_n17}]
 set_input_delay -clock clk_3v3_n -max 52.123 [get_ports {ad_n17}]
 set_output_delay -clock clk_3v3_n -min -6.404 [get_ports {ad_n17}]
-set_output_delay -clock clk_3v3_n -max 53.294 [get_ports {ad_n17}]</v>
+set_output_delay -clock clk_3v3_n -max 53.294 [get_ports {ad_n17}]
+</v>
       </c>
       <c r="AG45" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K45,3)="LED",LEFT(K45,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D45,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K45),"")</f>
@@ -6090,24 +6201,28 @@
       <c r="U46" s="30" t="str">
         <f aca="false">IF(AND(K46&lt;&gt;"",K46&lt;&gt;"+3v3",K46&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D46," [get_ports {",K46,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K46,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B18 [get_ports {ad_n16}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n16}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n16}]
+</v>
       </c>
       <c r="V46" s="31" t="str">
         <f aca="false">IF(AND(K46&lt;&gt;"",K46&lt;&gt;"+3v3",K46&lt;&gt;"GND",NOT(ISNA(P46)),NOT(ISNA(N46))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S46/$V$8,"0.000")," [get_ports {",K46,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S46/$W$8,"0.000")," [get_ports {",K46,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.109 [get_ports {ad_n16}]
-set_input_delay -clock clk_3v3_n -max 52.062 [get_ports {ad_n16}]</v>
+set_input_delay -clock clk_3v3_n -max 52.062 [get_ports {ad_n16}]
+</v>
       </c>
       <c r="W46" s="31" t="str">
         <f aca="false">IF(AND(K46&lt;&gt;"",K46&lt;&gt;"+3v3",K46&lt;&gt;"GND",NOT(ISNA(P46)),NOT(ISNA(N46))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P46/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K46,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P46/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K46,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.450 [get_ports {ad_n16}]
-set_output_delay -clock clk_3v3_n -max 53.233 [get_ports {ad_n16}]</v>
+set_output_delay -clock clk_3v3_n -max 53.233 [get_ports {ad_n16}]
+</v>
       </c>
       <c r="Y46" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T46="IO",T46="I"),V46,""),IF(OR(T46="IO",T46="O"),W46,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.109 [get_ports {ad_n16}]
 set_input_delay -clock clk_3v3_n -max 52.062 [get_ports {ad_n16}]
 set_output_delay -clock clk_3v3_n -min -6.450 [get_ports {ad_n16}]
-set_output_delay -clock clk_3v3_n -max 53.233 [get_ports {ad_n16}]</v>
+set_output_delay -clock clk_3v3_n -max 53.233 [get_ports {ad_n16}]
+</v>
       </c>
       <c r="AG46" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K46,3)="LED",LEFT(K46,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D46,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K46),"")</f>
@@ -6171,24 +6286,28 @@
       <c r="U47" s="30" t="str">
         <f aca="false">IF(AND(K47&lt;&gt;"",K47&lt;&gt;"+3v3",K47&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D47," [get_ports {",K47,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K47,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN C15 [get_ports {ad_n15}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n15}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n15}]
+</v>
       </c>
       <c r="V47" s="31" t="str">
         <f aca="false">IF(AND(K47&lt;&gt;"",K47&lt;&gt;"+3v3",K47&lt;&gt;"GND",NOT(ISNA(P47)),NOT(ISNA(N47))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S47/$V$8,"0.000")," [get_ports {",K47,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S47/$W$8,"0.000")," [get_ports {",K47,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.176 [get_ports {ad_n15}]
-set_input_delay -clock clk_3v3_n -max 52.151 [get_ports {ad_n15}]</v>
+set_input_delay -clock clk_3v3_n -max 52.151 [get_ports {ad_n15}]
+</v>
       </c>
       <c r="W47" s="31" t="str">
         <f aca="false">IF(AND(K47&lt;&gt;"",K47&lt;&gt;"+3v3",K47&lt;&gt;"GND",NOT(ISNA(P47)),NOT(ISNA(N47))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P47/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K47,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P47/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K47,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.383 [get_ports {ad_n15}]
-set_output_delay -clock clk_3v3_n -max 53.322 [get_ports {ad_n15}]</v>
+set_output_delay -clock clk_3v3_n -max 53.322 [get_ports {ad_n15}]
+</v>
       </c>
       <c r="Y47" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T47="IO",T47="I"),V47,""),IF(OR(T47="IO",T47="O"),W47,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.176 [get_ports {ad_n15}]
 set_input_delay -clock clk_3v3_n -max 52.151 [get_ports {ad_n15}]
 set_output_delay -clock clk_3v3_n -min -6.383 [get_ports {ad_n15}]
-set_output_delay -clock clk_3v3_n -max 53.322 [get_ports {ad_n15}]</v>
+set_output_delay -clock clk_3v3_n -max 53.322 [get_ports {ad_n15}]
+</v>
       </c>
       <c r="AG47" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K47,3)="LED",LEFT(K47,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D47,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K47),"")</f>
@@ -6252,24 +6371,28 @@
       <c r="U48" s="30" t="str">
         <f aca="false">IF(AND(K48&lt;&gt;"",K48&lt;&gt;"+3v3",K48&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D48," [get_ports {",K48,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K48,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN D15 [get_ports {ad_n14}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n14}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n14}]
+</v>
       </c>
       <c r="V48" s="31" t="str">
         <f aca="false">IF(AND(K48&lt;&gt;"",K48&lt;&gt;"+3v3",K48&lt;&gt;"GND",NOT(ISNA(P48)),NOT(ISNA(N48))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S48/$V$8,"0.000")," [get_ports {",K48,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S48/$W$8,"0.000")," [get_ports {",K48,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.121 [get_ports {ad_n14}]
-set_input_delay -clock clk_3v3_n -max 52.078 [get_ports {ad_n14}]</v>
+set_input_delay -clock clk_3v3_n -max 52.078 [get_ports {ad_n14}]
+</v>
       </c>
       <c r="W48" s="31" t="str">
         <f aca="false">IF(AND(K48&lt;&gt;"",K48&lt;&gt;"+3v3",K48&lt;&gt;"GND",NOT(ISNA(P48)),NOT(ISNA(N48))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P48/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K48,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P48/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K48,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.438 [get_ports {ad_n14}]
-set_output_delay -clock clk_3v3_n -max 53.249 [get_ports {ad_n14}]</v>
+set_output_delay -clock clk_3v3_n -max 53.249 [get_ports {ad_n14}]
+</v>
       </c>
       <c r="Y48" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T48="IO",T48="I"),V48,""),IF(OR(T48="IO",T48="O"),W48,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.121 [get_ports {ad_n14}]
 set_input_delay -clock clk_3v3_n -max 52.078 [get_ports {ad_n14}]
 set_output_delay -clock clk_3v3_n -min -6.438 [get_ports {ad_n14}]
-set_output_delay -clock clk_3v3_n -max 53.249 [get_ports {ad_n14}]</v>
+set_output_delay -clock clk_3v3_n -max 53.249 [get_ports {ad_n14}]
+</v>
       </c>
       <c r="AG48" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K48,3)="LED",LEFT(K48,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D48,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K48),"")</f>
@@ -6331,24 +6454,28 @@
       <c r="U49" s="30" t="str">
         <f aca="false">IF(AND(K49&lt;&gt;"",K49&lt;&gt;"+3v3",K49&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D49," [get_ports {",K49,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K49,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B17 [get_ports {ad_n13}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n13}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n13}]
+</v>
       </c>
       <c r="V49" s="31" t="str">
         <f aca="false">IF(AND(K49&lt;&gt;"",K49&lt;&gt;"+3v3",K49&lt;&gt;"GND",NOT(ISNA(P49)),NOT(ISNA(N49))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S49/$V$8,"0.000")," [get_ports {",K49,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S49/$W$8,"0.000")," [get_ports {",K49,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.158 [get_ports {ad_n13}]
-set_input_delay -clock clk_3v3_n -max 52.128 [get_ports {ad_n13}]</v>
+set_input_delay -clock clk_3v3_n -max 52.128 [get_ports {ad_n13}]
+</v>
       </c>
       <c r="W49" s="31" t="str">
         <f aca="false">IF(AND(K49&lt;&gt;"",K49&lt;&gt;"+3v3",K49&lt;&gt;"GND",NOT(ISNA(P49)),NOT(ISNA(N49))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P49/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K49,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P49/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K49,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.401 [get_ports {ad_n13}]
-set_output_delay -clock clk_3v3_n -max 53.299 [get_ports {ad_n13}]</v>
+set_output_delay -clock clk_3v3_n -max 53.299 [get_ports {ad_n13}]
+</v>
       </c>
       <c r="Y49" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T49="IO",T49="I"),V49,""),IF(OR(T49="IO",T49="O"),W49,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.158 [get_ports {ad_n13}]
 set_input_delay -clock clk_3v3_n -max 52.128 [get_ports {ad_n13}]
 set_output_delay -clock clk_3v3_n -min -6.401 [get_ports {ad_n13}]
-set_output_delay -clock clk_3v3_n -max 53.299 [get_ports {ad_n13}]</v>
+set_output_delay -clock clk_3v3_n -max 53.299 [get_ports {ad_n13}]
+</v>
       </c>
       <c r="AG49" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K49,3)="LED",LEFT(K49,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D49,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K49),"")</f>
@@ -6410,24 +6537,28 @@
       <c r="U50" s="30" t="str">
         <f aca="false">IF(AND(K50&lt;&gt;"",K50&lt;&gt;"+3v3",K50&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D50," [get_ports {",K50,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K50,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B16 [get_ports {ad_n12}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n12}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n12}]
+</v>
       </c>
       <c r="V50" s="31" t="str">
         <f aca="false">IF(AND(K50&lt;&gt;"",K50&lt;&gt;"+3v3",K50&lt;&gt;"GND",NOT(ISNA(P50)),NOT(ISNA(N50))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S50/$V$8,"0.000")," [get_ports {",K50,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S50/$W$8,"0.000")," [get_ports {",K50,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.115 [get_ports {ad_n12}]
-set_input_delay -clock clk_3v3_n -max 52.070 [get_ports {ad_n12}]</v>
+set_input_delay -clock clk_3v3_n -max 52.070 [get_ports {ad_n12}]
+</v>
       </c>
       <c r="W50" s="31" t="str">
         <f aca="false">IF(AND(K50&lt;&gt;"",K50&lt;&gt;"+3v3",K50&lt;&gt;"GND",NOT(ISNA(P50)),NOT(ISNA(N50))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P50/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K50,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P50/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K50,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.444 [get_ports {ad_n12}]
-set_output_delay -clock clk_3v3_n -max 53.241 [get_ports {ad_n12}]</v>
+set_output_delay -clock clk_3v3_n -max 53.241 [get_ports {ad_n12}]
+</v>
       </c>
       <c r="Y50" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T50="IO",T50="I"),V50,""),IF(OR(T50="IO",T50="O"),W50,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.115 [get_ports {ad_n12}]
 set_input_delay -clock clk_3v3_n -max 52.070 [get_ports {ad_n12}]
 set_output_delay -clock clk_3v3_n -min -6.444 [get_ports {ad_n12}]
-set_output_delay -clock clk_3v3_n -max 53.241 [get_ports {ad_n12}]</v>
+set_output_delay -clock clk_3v3_n -max 53.241 [get_ports {ad_n12}]
+</v>
       </c>
       <c r="AG50" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K50,3)="LED",LEFT(K50,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D50,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K50),"")</f>
@@ -6489,24 +6620,28 @@
       <c r="U51" s="30" t="str">
         <f aca="false">IF(AND(K51&lt;&gt;"",K51&lt;&gt;"+3v3",K51&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D51," [get_ports {",K51,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K51,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN C14 [get_ports {ad_n11}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n11}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n11}]
+</v>
       </c>
       <c r="V51" s="31" t="str">
         <f aca="false">IF(AND(K51&lt;&gt;"",K51&lt;&gt;"+3v3",K51&lt;&gt;"GND",NOT(ISNA(P51)),NOT(ISNA(N51))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S51/$V$8,"0.000")," [get_ports {",K51,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S51/$W$8,"0.000")," [get_ports {",K51,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.178 [get_ports {ad_n11}]
-set_input_delay -clock clk_3v3_n -max 52.155 [get_ports {ad_n11}]</v>
+set_input_delay -clock clk_3v3_n -max 52.155 [get_ports {ad_n11}]
+</v>
       </c>
       <c r="W51" s="31" t="str">
         <f aca="false">IF(AND(K51&lt;&gt;"",K51&lt;&gt;"+3v3",K51&lt;&gt;"GND",NOT(ISNA(P51)),NOT(ISNA(N51))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P51/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K51,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P51/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K51,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.381 [get_ports {ad_n11}]
-set_output_delay -clock clk_3v3_n -max 53.326 [get_ports {ad_n11}]</v>
+set_output_delay -clock clk_3v3_n -max 53.326 [get_ports {ad_n11}]
+</v>
       </c>
       <c r="Y51" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T51="IO",T51="I"),V51,""),IF(OR(T51="IO",T51="O"),W51,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.178 [get_ports {ad_n11}]
 set_input_delay -clock clk_3v3_n -max 52.155 [get_ports {ad_n11}]
 set_output_delay -clock clk_3v3_n -min -6.381 [get_ports {ad_n11}]
-set_output_delay -clock clk_3v3_n -max 53.326 [get_ports {ad_n11}]</v>
+set_output_delay -clock clk_3v3_n -max 53.326 [get_ports {ad_n11}]
+</v>
       </c>
       <c r="AG51" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K51,3)="LED",LEFT(K51,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D51,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K51),"")</f>
@@ -6568,24 +6703,28 @@
       <c r="U52" s="30" t="str">
         <f aca="false">IF(AND(K52&lt;&gt;"",K52&lt;&gt;"+3v3",K52&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D52," [get_ports {",K52,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K52,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN D14 [get_ports {ad_n10}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n10}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n10}]
+</v>
       </c>
       <c r="V52" s="31" t="str">
         <f aca="false">IF(AND(K52&lt;&gt;"",K52&lt;&gt;"+3v3",K52&lt;&gt;"GND",NOT(ISNA(P52)),NOT(ISNA(N52))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S52/$V$8,"0.000")," [get_ports {",K52,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S52/$W$8,"0.000")," [get_ports {",K52,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.129 [get_ports {ad_n10}]
-set_input_delay -clock clk_3v3_n -max 52.089 [get_ports {ad_n10}]</v>
+set_input_delay -clock clk_3v3_n -max 52.089 [get_ports {ad_n10}]
+</v>
       </c>
       <c r="W52" s="31" t="str">
         <f aca="false">IF(AND(K52&lt;&gt;"",K52&lt;&gt;"+3v3",K52&lt;&gt;"GND",NOT(ISNA(P52)),NOT(ISNA(N52))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P52/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K52,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P52/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K52,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.430 [get_ports {ad_n10}]
-set_output_delay -clock clk_3v3_n -max 53.260 [get_ports {ad_n10}]</v>
+set_output_delay -clock clk_3v3_n -max 53.260 [get_ports {ad_n10}]
+</v>
       </c>
       <c r="Y52" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T52="IO",T52="I"),V52,""),IF(OR(T52="IO",T52="O"),W52,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.129 [get_ports {ad_n10}]
 set_input_delay -clock clk_3v3_n -max 52.089 [get_ports {ad_n10}]
 set_output_delay -clock clk_3v3_n -min -6.430 [get_ports {ad_n10}]
-set_output_delay -clock clk_3v3_n -max 53.260 [get_ports {ad_n10}]</v>
+set_output_delay -clock clk_3v3_n -max 53.260 [get_ports {ad_n10}]
+</v>
       </c>
       <c r="AG52" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K52,3)="LED",LEFT(K52,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D52,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K52),"")</f>
@@ -6649,24 +6788,28 @@
       <c r="U53" s="30" t="str">
         <f aca="false">IF(AND(K53&lt;&gt;"",K53&lt;&gt;"+3v3",K53&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D53," [get_ports {",K53,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K53,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN D13 [get_ports {ad_n9}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n9}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n9}]
+</v>
       </c>
       <c r="V53" s="31" t="str">
         <f aca="false">IF(AND(K53&lt;&gt;"",K53&lt;&gt;"+3v3",K53&lt;&gt;"GND",NOT(ISNA(P53)),NOT(ISNA(N53))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S53/$V$8,"0.000")," [get_ports {",K53,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S53/$W$8,"0.000")," [get_ports {",K53,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.189 [get_ports {ad_n9}]
-set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n9}]</v>
+set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n9}]
+</v>
       </c>
       <c r="W53" s="31" t="str">
         <f aca="false">IF(AND(K53&lt;&gt;"",K53&lt;&gt;"+3v3",K53&lt;&gt;"GND",NOT(ISNA(P53)),NOT(ISNA(N53))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P53/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K53,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P53/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K53,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.370 [get_ports {ad_n9}]
-set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n9}]</v>
+set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n9}]
+</v>
       </c>
       <c r="Y53" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T53="IO",T53="I"),V53,""),IF(OR(T53="IO",T53="O"),W53,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.189 [get_ports {ad_n9}]
 set_input_delay -clock clk_3v3_n -max 52.169 [get_ports {ad_n9}]
 set_output_delay -clock clk_3v3_n -min -6.370 [get_ports {ad_n9}]
-set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n9}]</v>
+set_output_delay -clock clk_3v3_n -max 53.340 [get_ports {ad_n9}]
+</v>
       </c>
       <c r="AG53" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K53,3)="LED",LEFT(K53,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D53,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K53),"")</f>
@@ -6728,24 +6871,28 @@
       <c r="U54" s="30" t="str">
         <f aca="false">IF(AND(K54&lt;&gt;"",K54&lt;&gt;"+3v3",K54&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D54," [get_ports {",K54,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K54,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN D12 [get_ports {ad_n8}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n8}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n8}]
+</v>
       </c>
       <c r="V54" s="31" t="str">
         <f aca="false">IF(AND(K54&lt;&gt;"",K54&lt;&gt;"+3v3",K54&lt;&gt;"GND",NOT(ISNA(P54)),NOT(ISNA(N54))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S54/$V$8,"0.000")," [get_ports {",K54,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S54/$W$8,"0.000")," [get_ports {",K54,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.139 [get_ports {ad_n8}]
-set_input_delay -clock clk_3v3_n -max 52.102 [get_ports {ad_n8}]</v>
+set_input_delay -clock clk_3v3_n -max 52.102 [get_ports {ad_n8}]
+</v>
       </c>
       <c r="W54" s="31" t="str">
         <f aca="false">IF(AND(K54&lt;&gt;"",K54&lt;&gt;"+3v3",K54&lt;&gt;"GND",NOT(ISNA(P54)),NOT(ISNA(N54))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P54/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K54,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P54/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K54,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.420 [get_ports {ad_n8}]
-set_output_delay -clock clk_3v3_n -max 53.273 [get_ports {ad_n8}]</v>
+set_output_delay -clock clk_3v3_n -max 53.273 [get_ports {ad_n8}]
+</v>
       </c>
       <c r="Y54" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T54="IO",T54="I"),V54,""),IF(OR(T54="IO",T54="O"),W54,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.139 [get_ports {ad_n8}]
 set_input_delay -clock clk_3v3_n -max 52.102 [get_ports {ad_n8}]
 set_output_delay -clock clk_3v3_n -min -6.420 [get_ports {ad_n8}]
-set_output_delay -clock clk_3v3_n -max 53.273 [get_ports {ad_n8}]</v>
+set_output_delay -clock clk_3v3_n -max 53.273 [get_ports {ad_n8}]
+</v>
       </c>
       <c r="AG54" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K54,3)="LED",LEFT(K54,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D54,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K54),"")</f>
@@ -6807,24 +6954,28 @@
       <c r="U55" s="30" t="str">
         <f aca="false">IF(AND(K55&lt;&gt;"",K55&lt;&gt;"+3v3",K55&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D55," [get_ports {",K55,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K55,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN A16 [get_ports {ad_n7}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n7}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n7}]
+</v>
       </c>
       <c r="V55" s="31" t="str">
         <f aca="false">IF(AND(K55&lt;&gt;"",K55&lt;&gt;"+3v3",K55&lt;&gt;"GND",NOT(ISNA(P55)),NOT(ISNA(N55))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S55/$V$8,"0.000")," [get_ports {",K55,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S55/$W$8,"0.000")," [get_ports {",K55,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.168 [get_ports {ad_n7}]
-set_input_delay -clock clk_3v3_n -max 52.141 [get_ports {ad_n7}]</v>
+set_input_delay -clock clk_3v3_n -max 52.141 [get_ports {ad_n7}]
+</v>
       </c>
       <c r="W55" s="31" t="str">
         <f aca="false">IF(AND(K55&lt;&gt;"",K55&lt;&gt;"+3v3",K55&lt;&gt;"GND",NOT(ISNA(P55)),NOT(ISNA(N55))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P55/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K55,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P55/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K55,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.391 [get_ports {ad_n7}]
-set_output_delay -clock clk_3v3_n -max 53.312 [get_ports {ad_n7}]</v>
+set_output_delay -clock clk_3v3_n -max 53.312 [get_ports {ad_n7}]
+</v>
       </c>
       <c r="Y55" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T55="IO",T55="I"),V55,""),IF(OR(T55="IO",T55="O"),W55,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.168 [get_ports {ad_n7}]
 set_input_delay -clock clk_3v3_n -max 52.141 [get_ports {ad_n7}]
 set_output_delay -clock clk_3v3_n -min -6.391 [get_ports {ad_n7}]
-set_output_delay -clock clk_3v3_n -max 53.312 [get_ports {ad_n7}]</v>
+set_output_delay -clock clk_3v3_n -max 53.312 [get_ports {ad_n7}]
+</v>
       </c>
       <c r="AG55" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K55,3)="LED",LEFT(K55,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D55,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K55),"")</f>
@@ -6886,24 +7037,28 @@
       <c r="U56" s="30" t="str">
         <f aca="false">IF(AND(K56&lt;&gt;"",K56&lt;&gt;"+3v3",K56&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D56," [get_ports {",K56,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K56,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN A15 [get_ports {ad_n6}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n6}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n6}]
+</v>
       </c>
       <c r="V56" s="31" t="str">
         <f aca="false">IF(AND(K56&lt;&gt;"",K56&lt;&gt;"+3v3",K56&lt;&gt;"GND",NOT(ISNA(P56)),NOT(ISNA(N56))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S56/$V$8,"0.000")," [get_ports {",K56,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S56/$W$8,"0.000")," [get_ports {",K56,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.136 [get_ports {ad_n6}]
-set_input_delay -clock clk_3v3_n -max 52.097 [get_ports {ad_n6}]</v>
+set_input_delay -clock clk_3v3_n -max 52.097 [get_ports {ad_n6}]
+</v>
       </c>
       <c r="W56" s="31" t="str">
         <f aca="false">IF(AND(K56&lt;&gt;"",K56&lt;&gt;"+3v3",K56&lt;&gt;"GND",NOT(ISNA(P56)),NOT(ISNA(N56))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P56/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K56,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P56/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K56,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.423 [get_ports {ad_n6}]
-set_output_delay -clock clk_3v3_n -max 53.269 [get_ports {ad_n6}]</v>
+set_output_delay -clock clk_3v3_n -max 53.269 [get_ports {ad_n6}]
+</v>
       </c>
       <c r="Y56" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T56="IO",T56="I"),V56,""),IF(OR(T56="IO",T56="O"),W56,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.136 [get_ports {ad_n6}]
 set_input_delay -clock clk_3v3_n -max 52.097 [get_ports {ad_n6}]
 set_output_delay -clock clk_3v3_n -min -6.423 [get_ports {ad_n6}]
-set_output_delay -clock clk_3v3_n -max 53.269 [get_ports {ad_n6}]</v>
+set_output_delay -clock clk_3v3_n -max 53.269 [get_ports {ad_n6}]
+</v>
       </c>
       <c r="AG56" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K56,3)="LED",LEFT(K56,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D56,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K56),"")</f>
@@ -6965,24 +7120,28 @@
       <c r="U57" s="30" t="str">
         <f aca="false">IF(AND(K57&lt;&gt;"",K57&lt;&gt;"+3v3",K57&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D57," [get_ports {",K57,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K57,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B14 [get_ports {ad_n5}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n5}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n5}]
+</v>
       </c>
       <c r="V57" s="31" t="str">
         <f aca="false">IF(AND(K57&lt;&gt;"",K57&lt;&gt;"+3v3",K57&lt;&gt;"GND",NOT(ISNA(P57)),NOT(ISNA(N57))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S57/$V$8,"0.000")," [get_ports {",K57,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S57/$W$8,"0.000")," [get_ports {",K57,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.181 [get_ports {ad_n5}]
-set_input_delay -clock clk_3v3_n -max 52.158 [get_ports {ad_n5}]</v>
+set_input_delay -clock clk_3v3_n -max 52.158 [get_ports {ad_n5}]
+</v>
       </c>
       <c r="W57" s="31" t="str">
         <f aca="false">IF(AND(K57&lt;&gt;"",K57&lt;&gt;"+3v3",K57&lt;&gt;"GND",NOT(ISNA(P57)),NOT(ISNA(N57))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P57/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K57,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P57/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K57,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.378 [get_ports {ad_n5}]
-set_output_delay -clock clk_3v3_n -max 53.329 [get_ports {ad_n5}]</v>
+set_output_delay -clock clk_3v3_n -max 53.329 [get_ports {ad_n5}]
+</v>
       </c>
       <c r="Y57" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T57="IO",T57="I"),V57,""),IF(OR(T57="IO",T57="O"),W57,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.181 [get_ports {ad_n5}]
 set_input_delay -clock clk_3v3_n -max 52.158 [get_ports {ad_n5}]
 set_output_delay -clock clk_3v3_n -min -6.378 [get_ports {ad_n5}]
-set_output_delay -clock clk_3v3_n -max 53.329 [get_ports {ad_n5}]</v>
+set_output_delay -clock clk_3v3_n -max 53.329 [get_ports {ad_n5}]
+</v>
       </c>
       <c r="AG57" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K57,3)="LED",LEFT(K57,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D57,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K57),"")</f>
@@ -7044,24 +7203,28 @@
       <c r="U58" s="30" t="str">
         <f aca="false">IF(AND(K58&lt;&gt;"",K58&lt;&gt;"+3v3",K58&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D58," [get_ports {",K58,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K58,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B13 [get_ports {ad_n4}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n4}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n4}]
+</v>
       </c>
       <c r="V58" s="31" t="str">
         <f aca="false">IF(AND(K58&lt;&gt;"",K58&lt;&gt;"+3v3",K58&lt;&gt;"GND",NOT(ISNA(P58)),NOT(ISNA(N58))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S58/$V$8,"0.000")," [get_ports {",K58,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S58/$W$8,"0.000")," [get_ports {",K58,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.156 [get_ports {ad_n4}]
-set_input_delay -clock clk_3v3_n -max 52.124 [get_ports {ad_n4}]</v>
+set_input_delay -clock clk_3v3_n -max 52.124 [get_ports {ad_n4}]
+</v>
       </c>
       <c r="W58" s="31" t="str">
         <f aca="false">IF(AND(K58&lt;&gt;"",K58&lt;&gt;"+3v3",K58&lt;&gt;"GND",NOT(ISNA(P58)),NOT(ISNA(N58))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P58/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K58,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P58/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K58,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.403 [get_ports {ad_n4}]
-set_output_delay -clock clk_3v3_n -max 53.295 [get_ports {ad_n4}]</v>
+set_output_delay -clock clk_3v3_n -max 53.295 [get_ports {ad_n4}]
+</v>
       </c>
       <c r="Y58" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T58="IO",T58="I"),V58,""),IF(OR(T58="IO",T58="O"),W58,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.156 [get_ports {ad_n4}]
 set_input_delay -clock clk_3v3_n -max 52.124 [get_ports {ad_n4}]
 set_output_delay -clock clk_3v3_n -min -6.403 [get_ports {ad_n4}]
-set_output_delay -clock clk_3v3_n -max 53.295 [get_ports {ad_n4}]</v>
+set_output_delay -clock clk_3v3_n -max 53.295 [get_ports {ad_n4}]
+</v>
       </c>
       <c r="AG58" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K58,3)="LED",LEFT(K58,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D58,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K58),"")</f>
@@ -7115,7 +7278,7 @@
       </c>
       <c r="S59" s="4" t="n">
         <f aca="false">IF(P59&gt;0,P$136-P59,"")</f>
-        <v>8.2327835406</v>
+        <v>8.23278354059998</v>
       </c>
       <c r="T59" s="0" t="s">
         <v>36</v>
@@ -7123,24 +7286,28 @@
       <c r="U59" s="30" t="str">
         <f aca="false">IF(AND(K59&lt;&gt;"",K59&lt;&gt;"+3v3",K59&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D59," [get_ports {",K59,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K59,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B12 [get_ports {ad_n3}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n3}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n3}]
+</v>
       </c>
       <c r="V59" s="31" t="str">
         <f aca="false">IF(AND(K59&lt;&gt;"",K59&lt;&gt;"+3v3",K59&lt;&gt;"GND",NOT(ISNA(P59)),NOT(ISNA(N59))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S59/$V$8,"0.000")," [get_ports {",K59,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S59/$W$8,"0.000")," [get_ports {",K59,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.209 [get_ports {ad_n3}]
-set_input_delay -clock clk_3v3_n -max 52.195 [get_ports {ad_n3}]</v>
+set_input_delay -clock clk_3v3_n -max 52.195 [get_ports {ad_n3}]
+</v>
       </c>
       <c r="W59" s="31" t="str">
         <f aca="false">IF(AND(K59&lt;&gt;"",K59&lt;&gt;"+3v3",K59&lt;&gt;"GND",NOT(ISNA(P59)),NOT(ISNA(N59))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P59/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K59,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P59/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K59,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.350 [get_ports {ad_n3}]
-set_output_delay -clock clk_3v3_n -max 53.366 [get_ports {ad_n3}]</v>
+set_output_delay -clock clk_3v3_n -max 53.366 [get_ports {ad_n3}]
+</v>
       </c>
       <c r="Y59" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T59="IO",T59="I"),V59,""),IF(OR(T59="IO",T59="O"),W59,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.209 [get_ports {ad_n3}]
 set_input_delay -clock clk_3v3_n -max 52.195 [get_ports {ad_n3}]
 set_output_delay -clock clk_3v3_n -min -6.350 [get_ports {ad_n3}]
-set_output_delay -clock clk_3v3_n -max 53.366 [get_ports {ad_n3}]</v>
+set_output_delay -clock clk_3v3_n -max 53.366 [get_ports {ad_n3}]
+</v>
       </c>
       <c r="AG59" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K59,3)="LED",LEFT(K59,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D59,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K59),"")</f>
@@ -7202,7 +7369,8 @@
       <c r="U60" s="30" t="str">
         <f aca="false">IF(AND(K60&lt;&gt;"",K60&lt;&gt;"+3v3",K60&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D60," [get_ports {",K60,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K60,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN C12 [get_ports {ad_n2}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n2}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n2}]
+</v>
       </c>
       <c r="V60" s="31" t="str">
         <f aca="false">IF(AND(K60&lt;&gt;"",K60&lt;&gt;"+3v3",K60&lt;&gt;"GND",NOT(ISNA(P60)),NOT(ISNA(N60))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S60/$V$8,"0.000")," [get_ports {",K60,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S60/$W$8,"0.000")," [get_ports {",K60,"}]",CHAR(10)),"")</f>
@@ -7284,7 +7452,8 @@
       <c r="U61" s="30" t="str">
         <f aca="false">IF(AND(K61&lt;&gt;"",K61&lt;&gt;"+3v3",K61&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D61," [get_ports {",K61,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K61,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN A14 [get_ports {ad_n1}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n1}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n1}]
+</v>
       </c>
       <c r="V61" s="31" t="str">
         <f aca="false">IF(AND(K61&lt;&gt;"",K61&lt;&gt;"+3v3",K61&lt;&gt;"GND",NOT(ISNA(P61)),NOT(ISNA(N61))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S61/$V$8,"0.000")," [get_ports {",K61,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S61/$W$8,"0.000")," [get_ports {",K61,"}]",CHAR(10)),"")</f>
@@ -7366,24 +7535,28 @@
       <c r="U62" s="30" t="str">
         <f aca="false">IF(AND(K62&lt;&gt;"",K62&lt;&gt;"+3v3",K62&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D62," [get_ports {",K62,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K62,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN A13 [get_ports {ad_n0}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n0}]</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n0}]
+</v>
       </c>
       <c r="V62" s="31" t="str">
         <f aca="false">IF(AND(K62&lt;&gt;"",K62&lt;&gt;"+3v3",K62&lt;&gt;"GND",NOT(ISNA(P62)),NOT(ISNA(N62))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S62/$V$8,"0.000")," [get_ports {",K62,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S62/$W$8,"0.000")," [get_ports {",K62,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.257 [get_ports {ad_n0}]
-set_input_delay -clock clk_3v3_n -max 52.259 [get_ports {ad_n0}]</v>
+set_input_delay -clock clk_3v3_n -max 52.259 [get_ports {ad_n0}]
+</v>
       </c>
       <c r="W62" s="31" t="str">
         <f aca="false">IF(AND(K62&lt;&gt;"",K62&lt;&gt;"+3v3",K62&lt;&gt;"GND",NOT(ISNA(P62)),NOT(ISNA(N62))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P62/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K62,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P62/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K62,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.302 [get_ports {ad_n0}]
-set_output_delay -clock clk_3v3_n -max 53.430 [get_ports {ad_n0}]</v>
+set_output_delay -clock clk_3v3_n -max 53.430 [get_ports {ad_n0}]
+</v>
       </c>
       <c r="Y62" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T62="IO",T62="I"),V62,""),IF(OR(T62="IO",T62="O"),W62,""))</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.257 [get_ports {ad_n0}]
 set_input_delay -clock clk_3v3_n -max 52.259 [get_ports {ad_n0}]
 set_output_delay -clock clk_3v3_n -min -6.302 [get_ports {ad_n0}]
-set_output_delay -clock clk_3v3_n -max 53.430 [get_ports {ad_n0}]</v>
+set_output_delay -clock clk_3v3_n -max 53.430 [get_ports {ad_n0}]
+</v>
       </c>
       <c r="AG62" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K62,3)="LED",LEFT(K62,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D62,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K62),"")</f>
@@ -7417,7 +7590,7 @@
       </c>
       <c r="K63" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H63)),$H63,"")</f>
-        <v>usbh0_p</v>
+        <v>usbh0_p </v>
       </c>
       <c r="M63" s="0" t="n">
         <f aca="false">VLOOKUP(A63,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -7445,7 +7618,8 @@
       <c r="U63" s="30" t="str">
         <f aca="false">IF(AND(K63&lt;&gt;"",K63&lt;&gt;"+3v3",K63&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D63," [get_ports {",K63,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K63,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B11 [get_ports {usbh0_p }]
-set_property IOSTANDARD LVTTL [get_ports {usbh0_p }]</v>
+set_property IOSTANDARD LVTTL [get_ports {usbh0_p }]
+</v>
       </c>
       <c r="V63" s="31" t="str">
         <f aca="false">IF(AND(K63&lt;&gt;"",K63&lt;&gt;"+3v3",K63&lt;&gt;"GND",NOT(ISNA(P63)),NOT(ISNA(N63))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S63/$V$8,"0.000")," [get_ports {",K63,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S63/$W$8,"0.000")," [get_ports {",K63,"}]",CHAR(10)),"")</f>
@@ -7491,7 +7665,7 @@
       </c>
       <c r="K64" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H64)),$H64,"")</f>
-        <v>usbh0_n</v>
+        <v>usbh0_n </v>
       </c>
       <c r="M64" s="0" t="n">
         <f aca="false">VLOOKUP(A64,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -7519,7 +7693,8 @@
       <c r="U64" s="30" t="str">
         <f aca="false">IF(AND(K64&lt;&gt;"",K64&lt;&gt;"+3v3",K64&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D64," [get_ports {",K64,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K64,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN A11 [get_ports {usbh0_n }]
-set_property IOSTANDARD LVTTL [get_ports {usbh0_n }]</v>
+set_property IOSTANDARD LVTTL [get_ports {usbh0_n }]
+</v>
       </c>
       <c r="V64" s="31" t="str">
         <f aca="false">IF(AND(K64&lt;&gt;"",K64&lt;&gt;"+3v3",K64&lt;&gt;"GND",NOT(ISNA(P64)),NOT(ISNA(N64))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S64/$V$8,"0.000")," [get_ports {",K64,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S64/$W$8,"0.000")," [get_ports {",K64,"}]",CHAR(10)),"")</f>
@@ -7579,8 +7754,7 @@
       </c>
       <c r="U65" s="6" t="str">
         <f aca="false">IF(AND(K65&lt;&gt;"",K65&lt;&gt;"+3v3",K65&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D65," [get_ports {",K65,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K65,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN E11 [get_ports {0}]
-set_property IOSTANDARD LVTTL [get_ports {0}]</v>
+        <v/>
       </c>
       <c r="V65" s="31" t="str">
         <f aca="false">IF(AND(K65&lt;&gt;"",K65&lt;&gt;"+3v3",K65&lt;&gt;"GND",NOT(ISNA(P65)),NOT(ISNA(N65))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S65/$V$8,"0.000")," [get_ports {",K65,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S65/$W$8,"0.000")," [get_ports {",K65,"}]",CHAR(10)),"")</f>
@@ -8053,7 +8227,7 @@
       </c>
       <c r="K73" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H73)),$H73,"")</f>
-        <v>RX</v>
+        <v>RX </v>
       </c>
       <c r="M73" s="0" t="n">
         <f aca="false">VLOOKUP(A73,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -8078,7 +8252,8 @@
       <c r="U73" s="30" t="str">
         <f aca="false">IF(AND(K73&lt;&gt;"",K73&lt;&gt;"+3v3",K73&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D73," [get_ports {",K73,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K73,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U9 [get_ports {RX }]
-set_property IOSTANDARD LVTTL [get_ports {RX }]</v>
+set_property IOSTANDARD LVTTL [get_ports {RX }]
+</v>
       </c>
       <c r="V73" s="31" t="str">
         <f aca="false">IF(AND(K73&lt;&gt;"",K73&lt;&gt;"+3v3",K73&lt;&gt;"GND",NOT(ISNA(P73)),NOT(ISNA(N73))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S73/$V$8,"0.000")," [get_ports {",K73,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S73/$W$8,"0.000")," [get_ports {",K73,"}]",CHAR(10)),"")</f>
@@ -8124,7 +8299,7 @@
       </c>
       <c r="K74" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H74)),$H74,"")</f>
-        <v>TX</v>
+        <v>TX </v>
       </c>
       <c r="M74" s="0" t="n">
         <f aca="false">VLOOKUP(A74,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -8149,7 +8324,8 @@
       <c r="U74" s="30" t="str">
         <f aca="false">IF(AND(K74&lt;&gt;"",K74&lt;&gt;"+3v3",K74&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D74," [get_ports {",K74,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K74,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V9 [get_ports {TX }]
-set_property IOSTANDARD LVTTL [get_ports {TX }]</v>
+set_property IOSTANDARD LVTTL [get_ports {TX }]
+</v>
       </c>
       <c r="V74" s="31" t="str">
         <f aca="false">IF(AND(K74&lt;&gt;"",K74&lt;&gt;"+3v3",K74&lt;&gt;"GND",NOT(ISNA(P74)),NOT(ISNA(N74))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S74/$V$8,"0.000")," [get_ports {",K74,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S74/$W$8,"0.000")," [get_ports {",K74,"}]",CHAR(10)),"")</f>
@@ -8223,7 +8399,8 @@
       <c r="U75" s="30" t="str">
         <f aca="false">IF(AND(K75&lt;&gt;"",K75&lt;&gt;"+3v3",K75&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D75," [get_ports {",K75,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K75,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U8 [get_ports {id_n3}]
-set_property IOSTANDARD LVTTL [get_ports {id_n3}]</v>
+set_property IOSTANDARD LVTTL [get_ports {id_n3}]
+</v>
       </c>
       <c r="V75" s="31" t="str">
         <f aca="false">IF(AND(K75&lt;&gt;"",K75&lt;&gt;"+3v3",K75&lt;&gt;"GND",NOT(ISNA(P75)),NOT(ISNA(N75))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S75/$V$8,"0.000")," [get_ports {",K75,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S75/$W$8,"0.000")," [get_ports {",K75,"}]",CHAR(10)),"")</f>
@@ -8297,7 +8474,8 @@
       <c r="U76" s="30" t="str">
         <f aca="false">IF(AND(K76&lt;&gt;"",K76&lt;&gt;"+3v3",K76&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D76," [get_ports {",K76,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K76,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V7 [get_ports {id_n2}]
-set_property IOSTANDARD LVTTL [get_ports {id_n2}]</v>
+set_property IOSTANDARD LVTTL [get_ports {id_n2}]
+</v>
       </c>
       <c r="V76" s="31" t="str">
         <f aca="false">IF(AND(K76&lt;&gt;"",K76&lt;&gt;"+3v3",K76&lt;&gt;"GND",NOT(ISNA(P76)),NOT(ISNA(N76))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S76/$V$8,"0.000")," [get_ports {",K76,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S76/$W$8,"0.000")," [get_ports {",K76,"}]",CHAR(10)),"")</f>
@@ -8371,7 +8549,8 @@
       <c r="U77" s="30" t="str">
         <f aca="false">IF(AND(K77&lt;&gt;"",K77&lt;&gt;"+3v3",K77&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D77," [get_ports {",K77,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K77,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U7 [get_ports {id_n0}]
-set_property IOSTANDARD LVTTL [get_ports {id_n0}]</v>
+set_property IOSTANDARD LVTTL [get_ports {id_n0}]
+</v>
       </c>
       <c r="V77" s="31" t="str">
         <f aca="false">IF(AND(K77&lt;&gt;"",K77&lt;&gt;"+3v3",K77&lt;&gt;"GND",NOT(ISNA(P77)),NOT(ISNA(N77))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S77/$V$8,"0.000")," [get_ports {",K77,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S77/$W$8,"0.000")," [get_ports {",K77,"}]",CHAR(10)),"")</f>
@@ -8445,7 +8624,8 @@
       <c r="U78" s="30" t="str">
         <f aca="false">IF(AND(K78&lt;&gt;"",K78&lt;&gt;"+3v3",K78&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D78," [get_ports {",K78,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K78,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V6 [get_ports {id_n1}]
-set_property IOSTANDARD LVTTL [get_ports {id_n1}]</v>
+set_property IOSTANDARD LVTTL [get_ports {id_n1}]
+</v>
       </c>
       <c r="V78" s="31" t="str">
         <f aca="false">IF(AND(K78&lt;&gt;"",K78&lt;&gt;"+3v3",K78&lt;&gt;"GND",NOT(ISNA(P78)),NOT(ISNA(N78))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S78/$V$8,"0.000")," [get_ports {",K78,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S78/$W$8,"0.000")," [get_ports {",K78,"}]",CHAR(10)),"")</f>
@@ -8516,7 +8696,8 @@
       <c r="U79" s="30" t="str">
         <f aca="false">IF(AND(K79&lt;&gt;"",K79&lt;&gt;"+3v3",K79&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D79," [get_ports {",K79,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K79,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U6 [get_ports {arb_n3}]
-set_property IOSTANDARD LVTTL [get_ports {arb_n3}]</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_n3}]
+</v>
       </c>
       <c r="V79" s="31" t="str">
         <f aca="false">IF(AND(K79&lt;&gt;"",K79&lt;&gt;"+3v3",K79&lt;&gt;"GND",NOT(ISNA(P79)),NOT(ISNA(N79))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S79/$V$8,"0.000")," [get_ports {",K79,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S79/$W$8,"0.000")," [get_ports {",K79,"}]",CHAR(10)),"")</f>
@@ -8587,7 +8768,8 @@
       <c r="U80" s="30" t="str">
         <f aca="false">IF(AND(K80&lt;&gt;"",K80&lt;&gt;"+3v3",K80&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D80," [get_ports {",K80,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K80,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V5 [get_ports {arb_n2}]
-set_property IOSTANDARD LVTTL [get_ports {arb_n2}]</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_n2}]
+</v>
       </c>
       <c r="V80" s="31" t="str">
         <f aca="false">IF(AND(K80&lt;&gt;"",K80&lt;&gt;"+3v3",K80&lt;&gt;"GND",NOT(ISNA(P80)),NOT(ISNA(N80))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S80/$V$8,"0.000")," [get_ports {",K80,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S80/$W$8,"0.000")," [get_ports {",K80,"}]",CHAR(10)),"")</f>
@@ -8658,7 +8840,8 @@
       <c r="U81" s="30" t="str">
         <f aca="false">IF(AND(K81&lt;&gt;"",K81&lt;&gt;"+3v3",K81&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D81," [get_ports {",K81,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K81,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T8 [get_ports {arb_n0}]
-set_property IOSTANDARD LVTTL [get_ports {arb_n0}]</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_n0}]
+</v>
       </c>
       <c r="V81" s="31" t="str">
         <f aca="false">IF(AND(K81&lt;&gt;"",K81&lt;&gt;"+3v3",K81&lt;&gt;"GND",NOT(ISNA(P81)),NOT(ISNA(N81))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S81/$V$8,"0.000")," [get_ports {",K81,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S81/$W$8,"0.000")," [get_ports {",K81,"}]",CHAR(10)),"")</f>
@@ -8733,7 +8916,8 @@
       <c r="U82" s="30" t="str">
         <f aca="false">IF(AND(K82&lt;&gt;"",K82&lt;&gt;"+3v3",K82&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D82," [get_ports {",K82,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K82,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V4 [get_ports {arb_n1}]
-set_property IOSTANDARD LVTTL [get_ports {arb_n1}]</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_n1}]
+</v>
       </c>
       <c r="V82" s="31" t="str">
         <f aca="false">IF(AND(K82&lt;&gt;"",K82&lt;&gt;"+3v3",K82&lt;&gt;"GND",NOT(ISNA(P82)),NOT(ISNA(N82))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S82/$V$8,"0.000")," [get_ports {",K82,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S82/$W$8,"0.000")," [get_ports {",K82,"}]",CHAR(10)),"")</f>
@@ -8804,7 +8988,8 @@
       <c r="U83" s="30" t="str">
         <f aca="false">IF(AND(K83&lt;&gt;"",K83&lt;&gt;"+3v3",K83&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D83," [get_ports {",K83,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K83,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R8 [get_ports {tmx_oe_n}]
-set_property IOSTANDARD LVTTL [get_ports {tmx_oe_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {tmx_oe_n}]
+</v>
       </c>
       <c r="V83" s="31" t="str">
         <f aca="false">IF(AND(K83&lt;&gt;"",K83&lt;&gt;"+3v3",K83&lt;&gt;"GND",NOT(ISNA(P83)),NOT(ISNA(N83))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S83/$V$8,"0.000")," [get_ports {",K83,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S83/$W$8,"0.000")," [get_ports {",K83,"}]",CHAR(10)),"")</f>
@@ -8877,17 +9062,20 @@
       <c r="U84" s="30" t="str">
         <f aca="false">IF(AND(K84&lt;&gt;"",K84&lt;&gt;"+3v3",K84&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D84," [get_ports {",K84,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K84,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T5 [get_ports {clk2x_n}]
-set_property IOSTANDARD LVTTL [get_ports {clk2x_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {clk2x_n}]
+</v>
       </c>
       <c r="V84" s="31" t="str">
         <f aca="false">IF(AND(K84&lt;&gt;"",K84&lt;&gt;"+3v3",K84&lt;&gt;"GND",NOT(ISNA(P84)),NOT(ISNA(N84))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S84/$V$8,"0.000")," [get_ports {",K84,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S84/$W$8,"0.000")," [get_ports {",K84,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.495 [get_ports {clk2x_n}]
-set_input_delay -clock clk_3v3_n -max 52.576 [get_ports {clk2x_n}]</v>
+set_input_delay -clock clk_3v3_n -max 52.576 [get_ports {clk2x_n}]
+</v>
       </c>
       <c r="W84" s="31" t="str">
         <f aca="false">IF(AND(K84&lt;&gt;"",K84&lt;&gt;"+3v3",K84&lt;&gt;"GND",NOT(ISNA(P84)),NOT(ISNA(N84))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P84/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K84,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P84/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K84,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.064 [get_ports {clk2x_n}]
-set_output_delay -clock clk_3v3_n -max 53.747 [get_ports {clk2x_n}]</v>
+set_output_delay -clock clk_3v3_n -max 53.747 [get_ports {clk2x_n}]
+</v>
       </c>
       <c r="Y84" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T84="IO",T84="I"),V84,""),IF(OR(T84="IO",T84="O"),W84,""))</f>
@@ -8950,7 +9138,8 @@
       <c r="U85" s="30" t="str">
         <f aca="false">IF(AND(K85&lt;&gt;"",K85&lt;&gt;"+3v3",K85&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D85," [get_ports {",K85,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K85,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R7 [get_ports {tm_n_o1}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n_o1}]</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n_o1}]
+</v>
       </c>
       <c r="V85" s="31" t="str">
         <f aca="false">IF(AND(K85&lt;&gt;"",K85&lt;&gt;"+3v3",K85&lt;&gt;"GND",NOT(ISNA(P85)),NOT(ISNA(N85))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S85/$V$8,"0.000")," [get_ports {",K85,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S85/$W$8,"0.000")," [get_ports {",K85,"}]",CHAR(10)),"")</f>
@@ -9029,7 +9218,8 @@
       <c r="U86" s="30" t="str">
         <f aca="false">IF(AND(K86&lt;&gt;"",K86&lt;&gt;"+3v3",K86&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D86," [get_ports {",K86,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K86,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T4 [get_ports {SD_D2}]
-set_property IOSTANDARD LVTTL [get_ports {SD_D2}]</v>
+set_property IOSTANDARD LVTTL [get_ports {SD_D2}]
+</v>
       </c>
       <c r="V86" s="31" t="str">
         <f aca="false">IF(AND(K86&lt;&gt;"",K86&lt;&gt;"+3v3",K86&lt;&gt;"GND",NOT(ISNA(P86)),NOT(ISNA(N86))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S86/$V$8,"0.000")," [get_ports {",K86,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S86/$W$8,"0.000")," [get_ports {",K86,"}]",CHAR(10)),"")</f>
@@ -9100,7 +9290,8 @@
       <c r="U87" s="30" t="str">
         <f aca="false">IF(AND(K87&lt;&gt;"",K87&lt;&gt;"+3v3",K87&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D87," [get_ports {",K87,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K87,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T6 [get_ports {tm_n_o0}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n_o0}]</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n_o0}]
+</v>
       </c>
       <c r="V87" s="31" t="str">
         <f aca="false">IF(AND(K87&lt;&gt;"",K87&lt;&gt;"+3v3",K87&lt;&gt;"GND",NOT(ISNA(P87)),NOT(ISNA(N87))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S87/$V$8,"0.000")," [get_ports {",K87,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S87/$W$8,"0.000")," [get_ports {",K87,"}]",CHAR(10)),"")</f>
@@ -9171,7 +9362,8 @@
       <c r="U88" s="30" t="str">
         <f aca="false">IF(AND(K88&lt;&gt;"",K88&lt;&gt;"+3v3",K88&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D88," [get_ports {",K88,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K88,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U4 [get_ports {SD_D3}]
-set_property IOSTANDARD LVTTL [get_ports {SD_D3}]</v>
+set_property IOSTANDARD LVTTL [get_ports {SD_D3}]
+</v>
       </c>
       <c r="V88" s="31" t="str">
         <f aca="false">IF(AND(K88&lt;&gt;"",K88&lt;&gt;"+3v3",K88&lt;&gt;"GND",NOT(ISNA(P88)),NOT(ISNA(N88))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S88/$V$8,"0.000")," [get_ports {",K88,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S88/$W$8,"0.000")," [get_ports {",K88,"}]",CHAR(10)),"")</f>
@@ -9329,7 +9521,8 @@
       <c r="U90" s="30" t="str">
         <f aca="false">IF(AND(K90&lt;&gt;"",K90&lt;&gt;"+3v3",K90&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D90," [get_ports {",K90,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K90,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U3 [get_ports {SD_CMD}]
-set_property IOSTANDARD LVTTL [get_ports {SD_CMD}]</v>
+set_property IOSTANDARD LVTTL [get_ports {SD_CMD}]
+</v>
       </c>
       <c r="V90" s="31" t="str">
         <f aca="false">IF(AND(K90&lt;&gt;"",K90&lt;&gt;"+3v3",K90&lt;&gt;"GND",NOT(ISNA(P90)),NOT(ISNA(N90))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S90/$V$8,"0.000")," [get_ports {",K90,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S90/$W$8,"0.000")," [get_ports {",K90,"}]",CHAR(10)),"")</f>
@@ -9489,7 +9682,8 @@
       <c r="U92" s="30" t="str">
         <f aca="false">IF(AND(K92&lt;&gt;"",K92&lt;&gt;"+3v3",K92&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D92," [get_ports {",K92,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K92,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V1 [get_ports {SD_CLK}]
-set_property IOSTANDARD LVTTL [get_ports {SD_CLK}]</v>
+set_property IOSTANDARD LVTTL [get_ports {SD_CLK}]
+</v>
       </c>
       <c r="V92" s="31" t="str">
         <f aca="false">IF(AND(K92&lt;&gt;"",K92&lt;&gt;"+3v3",K92&lt;&gt;"GND",NOT(ISNA(P92)),NOT(ISNA(N92))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S92/$V$8,"0.000")," [get_ports {",K92,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S92/$W$8,"0.000")," [get_ports {",K92,"}]",CHAR(10)),"")</f>
@@ -9575,7 +9769,8 @@
       <c r="U93" s="30" t="str">
         <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D93," [get_ports {",K93,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K93,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V2 [get_ports {tm_n1}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n1}]</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n1}]
+</v>
       </c>
       <c r="V93" s="31" t="str">
         <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND",NOT(ISNA(P93)),NOT(ISNA(N93))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S93/$V$8,"0.000")," [get_ports {",K93,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S93/$W$8,"0.000")," [get_ports {",K93,"}]",CHAR(10)),"")</f>
@@ -9661,7 +9856,8 @@
       <c r="U94" s="30" t="str">
         <f aca="false">IF(AND(K94&lt;&gt;"",K94&lt;&gt;"+3v3",K94&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D94," [get_ports {",K94,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K94,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U1 [get_ports {SD_D0}]
-set_property IOSTANDARD LVTTL [get_ports {SD_D0}]</v>
+set_property IOSTANDARD LVTTL [get_ports {SD_D0}]
+</v>
       </c>
       <c r="V94" s="31" t="str">
         <f aca="false">IF(AND(K94&lt;&gt;"",K94&lt;&gt;"+3v3",K94&lt;&gt;"GND",NOT(ISNA(P94)),NOT(ISNA(N94))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S94/$V$8,"0.000")," [get_ports {",K94,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S94/$W$8,"0.000")," [get_ports {",K94,"}]",CHAR(10)),"")</f>
@@ -9747,7 +9943,8 @@
       <c r="U95" s="30" t="str">
         <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D95," [get_ports {",K95,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K95,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U2 [get_ports {tm_n0}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n0}]</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n0}]
+</v>
       </c>
       <c r="V95" s="31" t="str">
         <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND",NOT(ISNA(P95)),NOT(ISNA(N95))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S95/$V$8,"0.000")," [get_ports {",K95,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S95/$W$8,"0.000")," [get_ports {",K95,"}]",CHAR(10)),"")</f>
@@ -9835,7 +10032,8 @@
       <c r="U96" s="30" t="str">
         <f aca="false">IF(AND(K96&lt;&gt;"",K96&lt;&gt;"+3v3",K96&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D96," [get_ports {",K96,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K96,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T3 [get_ports {SD_D1}]
-set_property IOSTANDARD LVTTL [get_ports {SD_D1}]</v>
+set_property IOSTANDARD LVTTL [get_ports {SD_D1}]
+</v>
       </c>
       <c r="V96" s="31" t="str">
         <f aca="false">IF(AND(K96&lt;&gt;"",K96&lt;&gt;"+3v3",K96&lt;&gt;"GND",NOT(ISNA(P96)),NOT(ISNA(N96))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S96/$V$8,"0.000")," [get_ports {",K96,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S96/$W$8,"0.000")," [get_ports {",K96,"}]",CHAR(10)),"")</f>
@@ -9923,17 +10121,20 @@
       <c r="U97" s="30" t="str">
         <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D97," [get_ports {",K97,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K97,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K6 [get_ports {tm_n2}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n2}]</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n2}]
+</v>
       </c>
       <c r="V97" s="31" t="str">
         <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND",NOT(ISNA(P97)),NOT(ISNA(N97))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S97/$V$8,"0.000")," [get_ports {",K97,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S97/$W$8,"0.000")," [get_ports {",K97,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.704 [get_ports {tm_n2}]
-set_input_delay -clock clk_3v3_n -max 52.855 [get_ports {tm_n2}]</v>
+set_input_delay -clock clk_3v3_n -max 52.855 [get_ports {tm_n2}]
+</v>
       </c>
       <c r="W97" s="31" t="str">
         <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND",NOT(ISNA(P97)),NOT(ISNA(N97))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P97/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K97,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P97/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K97,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -5.855 [get_ports {tm_n2}]
-set_output_delay -clock clk_3v3_n -max 54.026 [get_ports {tm_n2}]</v>
+set_output_delay -clock clk_3v3_n -max 54.026 [get_ports {tm_n2}]
+</v>
       </c>
       <c r="Y97" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T97="IO",T97="I"),V97,""),IF(OR(T97="IO",T97="O"),W97,""))</f>
@@ -9996,7 +10197,8 @@
       <c r="U98" s="30" t="str">
         <f aca="false">IF(AND(K98&lt;&gt;"",K98&lt;&gt;"+3v3",K98&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D98," [get_ports {",K98,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K98,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R3 [get_ports {reset_n}]
-set_property IOSTANDARD LVTTL [get_ports {reset_n}]</v>
+set_property IOSTANDARD LVTTL [get_ports {reset_n}]
+</v>
       </c>
       <c r="V98" s="31" t="str">
         <f aca="false">IF(AND(K98&lt;&gt;"",K98&lt;&gt;"+3v3",K98&lt;&gt;"GND",NOT(ISNA(P98)),NOT(ISNA(N98))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S98/$V$8,"0.000")," [get_ports {",K98,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S98/$W$8,"0.000")," [get_ports {",K98,"}]",CHAR(10)),"")</f>
@@ -10330,7 +10532,7 @@
       </c>
       <c r="AB103" s="65" t="n">
         <f aca="false">MIN(P106,P108,P110,P112,P114,P116,P118,P120,P122,P124,P126,P128)</f>
-        <v>111.1589675723</v>
+        <v>86.91</v>
       </c>
       <c r="AG103" s="8" t="e">
         <f aca="false">IF(OR(LEFT(K103,3)="LED",LEFT(K103,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D103,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K103),"")</f>
@@ -10397,7 +10599,7 @@
       </c>
       <c r="AB104" s="65" t="n">
         <f aca="false">MAX(P106,P108,P110,P112,P114,P116,P118,P120,P122,P124,P126,P128)</f>
-        <v>111.1593917793</v>
+        <v>106.285</v>
       </c>
       <c r="AG104" s="8" t="e">
         <f aca="false">IF(OR(LEFT(K104,3)="LED",LEFT(K104,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D104,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K104),"")</f>
@@ -10456,7 +10658,8 @@
       <c r="U105" s="30" t="str">
         <f aca="false">IF(AND(K105&lt;&gt;"",K105&lt;&gt;"+3v3",K105&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D105," [get_ports {",K105,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K105,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N6 [get_ports {HDMI_HPD}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_HPD}]</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_HPD}]
+</v>
       </c>
       <c r="V105" s="31" t="str">
         <f aca="false">IF(AND(K105&lt;&gt;"",K105&lt;&gt;"+3v3",K105&lt;&gt;"GND",NOT(ISNA(P105)),NOT(ISNA(N105))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S105/$V$8,"0.000")," [get_ports {",K105,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S105/$W$8,"0.000")," [get_ports {",K105,"}]",CHAR(10)),"")</f>
@@ -10528,34 +10731,37 @@
       </c>
       <c r="N106" s="4" t="n">
         <f aca="false">VLOOKUP(K106,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>91.6489675723</v>
+        <v>86.739</v>
       </c>
       <c r="P106" s="4" t="n">
         <f aca="false">IF(AND(M106&gt;0,N106&gt;0),M106+N106, "N/A")</f>
-        <v>111.1589675723</v>
+        <v>106.249</v>
       </c>
       <c r="Q106" s="29" t="n">
         <f aca="false">IF(P106&gt;0,P106/25.4,)</f>
-        <v>4.37633730599606</v>
+        <v>4.18303149606299</v>
       </c>
       <c r="S106" s="4" t="n">
         <f aca="false">IF(P106&gt;0,P$136-P106,"")</f>
-        <v>-42.0609914152</v>
+        <v>-37.1510238429</v>
       </c>
       <c r="U106" s="30" t="str">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D106," [get_ports {",K106,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K106,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN P5 [get_ports {PMOD-15}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-15}]</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-15}]
+</v>
       </c>
       <c r="V106" s="31" t="str">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S106/$V$8,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S106/$W$8,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-15}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-15}]</v>
+        <v>set_input_delay -clock clk_3v3_n -min 2.436 [get_ports {PMOD-15}]
+set_input_delay -clock clk_3v3_n -max 52.498 [get_ports {PMOD-15}]
+</v>
       </c>
       <c r="W106" s="31" t="str">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P106/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P106/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-15}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-15}]</v>
+        <v>set_output_delay -clock clk_3v3_n -min -6.123 [get_ports {PMOD-15}]
+set_output_delay -clock clk_3v3_n -max 53.669 [get_ports {PMOD-15}]
+</v>
       </c>
       <c r="Y106" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T106="IO",T106="I"),V106,""),IF(OR(T106="IO",T106="O"),W106,""))</f>
@@ -10563,23 +10769,31 @@
       </c>
       <c r="AB106" s="65" t="n">
         <f aca="false">$AB$104-P106</f>
-        <v>0.000424206999994681</v>
+        <v>0.0359999999999872</v>
       </c>
       <c r="AC106" s="66" t="n">
         <f aca="false">N106</f>
-        <v>91.6489675723</v>
+        <v>86.739</v>
       </c>
       <c r="AD106" s="65" t="n">
         <f aca="false">AC106+AB106</f>
-        <v>91.6493917793</v>
+        <v>86.775</v>
       </c>
       <c r="AE106" s="65" t="str">
         <f aca="false">H106</f>
         <v>PMOD-15</v>
       </c>
+      <c r="AF106" s="0" t="n">
+        <f aca="false">MAX(P106,P108)-P106</f>
+        <v>0.0359999999999872</v>
+      </c>
       <c r="AG106" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K106,3)="LED",LEFT(K106,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D106,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K106),"")</f>
         <v/>
+      </c>
+      <c r="AH106" s="4" t="n">
+        <f aca="false">N106+AF106</f>
+        <v>86.775</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10634,7 +10848,8 @@
       <c r="U107" s="30" t="str">
         <f aca="false">IF(AND(K107&lt;&gt;"",K107&lt;&gt;"+3v3",K107&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D107," [get_ports {",K107,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K107,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M6 [get_ports {HDMI_SDA}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_SDA}]</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_SDA}]
+</v>
       </c>
       <c r="V107" s="31" t="str">
         <f aca="false">IF(AND(K107&lt;&gt;"",K107&lt;&gt;"+3v3",K107&lt;&gt;"GND",NOT(ISNA(P107)),NOT(ISNA(N107))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S107/$V$8,"0.000")," [get_ports {",K107,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S107/$W$8,"0.000")," [get_ports {",K107,"}]",CHAR(10)),"")</f>
@@ -10706,34 +10921,37 @@
       </c>
       <c r="N108" s="4" t="n">
         <f aca="false">VLOOKUP(K108,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>93.5691619565</v>
+        <v>88.695</v>
       </c>
       <c r="P108" s="4" t="n">
         <f aca="false">IF(AND(M108&gt;0,N108&gt;0),M108+N108, "N/A")</f>
-        <v>111.1591619565</v>
+        <v>106.285</v>
       </c>
       <c r="Q108" s="29" t="n">
         <f aca="false">IF(P108&gt;0,P108/25.4,)</f>
-        <v>4.37634495891732</v>
+        <v>4.18444881889764</v>
       </c>
       <c r="S108" s="4" t="n">
         <f aca="false">IF(P108&gt;0,P$136-P108,"")</f>
-        <v>-42.0611857994</v>
+        <v>-37.1870238429</v>
       </c>
       <c r="U108" s="30" t="str">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D108," [get_ports {",K108,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K108,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N5 [get_ports {PMOD-16}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-16}]</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-16}]
+</v>
       </c>
       <c r="V108" s="31" t="str">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S108/$V$8,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S108/$W$8,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-16}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-16}]</v>
+        <v>set_input_delay -clock clk_3v3_n -min 2.436 [get_ports {PMOD-16}]
+set_input_delay -clock clk_3v3_n -max 52.498 [get_ports {PMOD-16}]
+</v>
       </c>
       <c r="W108" s="31" t="str">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P108/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P108/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-16}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-16}]</v>
+        <v>set_output_delay -clock clk_3v3_n -min -6.123 [get_ports {PMOD-16}]
+set_output_delay -clock clk_3v3_n -max 53.669 [get_ports {PMOD-16}]
+</v>
       </c>
       <c r="Y108" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T108="IO",T108="I"),V108,""),IF(OR(T108="IO",T108="O"),W108,""))</f>
@@ -10741,23 +10959,31 @@
       </c>
       <c r="AB108" s="65" t="n">
         <f aca="false">$AB$104-P108</f>
-        <v>0.000229822800008606</v>
+        <v>0</v>
       </c>
       <c r="AC108" s="66" t="n">
         <f aca="false">N108</f>
-        <v>93.5691619565</v>
+        <v>88.695</v>
       </c>
       <c r="AD108" s="65" t="n">
         <f aca="false">AC108+AB108</f>
-        <v>93.5693917793</v>
+        <v>88.695</v>
       </c>
       <c r="AE108" s="65" t="str">
         <f aca="false">H108</f>
         <v>PMOD-16</v>
       </c>
+      <c r="AF108" s="0" t="n">
+        <f aca="false">MAX(P108,P106)-P108</f>
+        <v>0</v>
+      </c>
       <c r="AG108" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K108,3)="LED",LEFT(K108,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D108,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K108),"")</f>
         <v/>
+      </c>
+      <c r="AH108" s="4" t="n">
+        <f aca="false">N108+AF108</f>
+        <v>88.695</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10812,7 +11038,8 @@
       <c r="U109" s="30" t="str">
         <f aca="false">IF(AND(K109&lt;&gt;"",K109&lt;&gt;"+3v3",K109&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D109," [get_ports {",K109,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K109,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L6 [get_ports {HDMI_SCL}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_SCL}]</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_SCL}]
+</v>
       </c>
       <c r="V109" s="31" t="str">
         <f aca="false">IF(AND(K109&lt;&gt;"",K109&lt;&gt;"+3v3",K109&lt;&gt;"GND",NOT(ISNA(P109)),NOT(ISNA(N109))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S109/$V$8,"0.000")," [get_ports {",K109,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S109/$W$8,"0.000")," [get_ports {",K109,"}]",CHAR(10)),"")</f>
@@ -10884,34 +11111,37 @@
       </c>
       <c r="N110" s="4" t="n">
         <f aca="false">VLOOKUP(K110,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>96.4293917793</v>
+        <v>81.79</v>
       </c>
       <c r="P110" s="4" t="n">
         <f aca="false">IF(AND(M110&gt;0,N110&gt;0),M110+N110, "N/A")</f>
-        <v>111.1593917793</v>
+        <v>96.52</v>
       </c>
       <c r="Q110" s="29" t="n">
         <f aca="false">IF(P110&gt;0,P110/25.4,)</f>
-        <v>4.37635400705906</v>
+        <v>3.8</v>
       </c>
       <c r="S110" s="4" t="n">
         <f aca="false">IF(P110&gt;0,P$136-P110,"")</f>
-        <v>-42.0614156222</v>
+        <v>-27.4220238429</v>
       </c>
       <c r="U110" s="30" t="str">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D110," [get_ports {",K110,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K110,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN P4 [get_ports {PMOD-13}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-13}]</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-13}]
+</v>
       </c>
       <c r="V110" s="31" t="str">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S110/$V$8,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S110/$W$8,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-13}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-13}]</v>
+        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-13}]
+set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-13}]
+</v>
       </c>
       <c r="W110" s="31" t="str">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P110/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P110/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-13}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-13}]</v>
+        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-13}]
+set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-13}]
+</v>
       </c>
       <c r="Y110" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T110="IO",T110="I"),V110,""),IF(OR(T110="IO",T110="O"),W110,""))</f>
@@ -10919,23 +11149,31 @@
       </c>
       <c r="AB110" s="65" t="n">
         <f aca="false">$AB$104-P110</f>
-        <v>0</v>
+        <v>9.76499999999999</v>
       </c>
       <c r="AC110" s="66" t="n">
         <f aca="false">N110</f>
-        <v>96.4293917793</v>
+        <v>81.79</v>
       </c>
       <c r="AD110" s="65" t="n">
         <f aca="false">AC110+AB110</f>
-        <v>96.4293917793</v>
+        <v>91.555</v>
       </c>
       <c r="AE110" s="65" t="str">
         <f aca="false">H110</f>
         <v>PMOD-13</v>
       </c>
+      <c r="AF110" s="0" t="n">
+        <f aca="false">MAX(P110,P112)-P110</f>
+        <v>0.00399999999999068</v>
+      </c>
       <c r="AG110" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K110,3)="LED",LEFT(K110,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D110,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K110),"")</f>
         <v/>
+      </c>
+      <c r="AH110" s="4" t="n">
+        <f aca="false">N110+AF110</f>
+        <v>81.794</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10992,7 +11230,8 @@
       <c r="U111" s="30" t="str">
         <f aca="false">IF(AND(K111&lt;&gt;"",K111&lt;&gt;"+3v3",K111&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D111," [get_ports {",K111,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K111,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L5 [get_ports {HDMI_CEC}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_CEC}]</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_CEC}]
+</v>
       </c>
       <c r="V111" s="31" t="str">
         <f aca="false">IF(AND(K111&lt;&gt;"",K111&lt;&gt;"+3v3",K111&lt;&gt;"GND",NOT(ISNA(P111)),NOT(ISNA(N111))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S111/$V$8,"0.000")," [get_ports {",K111,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S111/$W$8,"0.000")," [get_ports {",K111,"}]",CHAR(10)),"")</f>
@@ -11064,34 +11303,37 @@
       </c>
       <c r="N112" s="4" t="n">
         <f aca="false">VLOOKUP(K112,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>97.5392495741</v>
+        <v>82.904</v>
       </c>
       <c r="P112" s="4" t="n">
         <f aca="false">IF(AND(M112&gt;0,N112&gt;0),M112+N112, "N/A")</f>
-        <v>111.1592495741</v>
+        <v>96.524</v>
       </c>
       <c r="Q112" s="29" t="n">
         <f aca="false">IF(P112&gt;0,P112/25.4,)</f>
-        <v>4.37634840842913</v>
+        <v>3.80015748031496</v>
       </c>
       <c r="S112" s="4" t="n">
         <f aca="false">IF(P112&gt;0,P$136-P112,"")</f>
-        <v>-42.061273417</v>
+        <v>-27.4260238429</v>
       </c>
       <c r="U112" s="30" t="str">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D112," [get_ports {",K112,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K112,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN P3 [get_ports {PMOD-14}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-14}]</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-14}]
+</v>
       </c>
       <c r="V112" s="31" t="str">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S112/$V$8,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S112/$W$8,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-14}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-14}]</v>
+        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-14}]
+set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-14}]
+</v>
       </c>
       <c r="W112" s="31" t="str">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P112/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P112/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-14}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-14}]</v>
+        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-14}]
+set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-14}]
+</v>
       </c>
       <c r="Y112" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T112="IO",T112="I"),V112,""),IF(OR(T112="IO",T112="O"),W112,""))</f>
@@ -11099,23 +11341,31 @@
       </c>
       <c r="AB112" s="65" t="n">
         <f aca="false">$AB$104-P112</f>
-        <v>0.000142205200006629</v>
+        <v>9.761</v>
       </c>
       <c r="AC112" s="66" t="n">
         <f aca="false">N112</f>
-        <v>97.5392495741</v>
+        <v>82.904</v>
       </c>
       <c r="AD112" s="65" t="n">
         <f aca="false">AC112+AB112</f>
-        <v>97.5393917793</v>
+        <v>92.665</v>
       </c>
       <c r="AE112" s="65" t="str">
         <f aca="false">H112</f>
         <v>PMOD-14</v>
       </c>
+      <c r="AF112" s="0" t="n">
+        <f aca="false">MAX(P112,P110)-P112</f>
+        <v>0</v>
+      </c>
       <c r="AG112" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K112,3)="LED",LEFT(K112,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D112,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K112),"")</f>
         <v/>
+      </c>
+      <c r="AH112" s="4" t="n">
+        <f aca="false">N112+AF112</f>
+        <v>82.904</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11170,17 +11420,20 @@
       <c r="U113" s="30" t="str">
         <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D113," [get_ports {",K113,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K113,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N4 [get_ports {HDMI_CLK-}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK-}]</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK-}]
+</v>
       </c>
       <c r="V113" s="31" t="str">
         <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND",NOT(ISNA(P113)),NOT(ISNA(N113))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S113/$V$8,"0.000")," [get_ports {",K113,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S113/$W$8,"0.000")," [get_ports {",K113,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_CLK-}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_CLK-}]</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_CLK-}]
+</v>
       </c>
       <c r="W113" s="31" t="str">
         <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND",NOT(ISNA(P113)),NOT(ISNA(N113))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P113/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K113,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P113/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K113,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_CLK-}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_CLK-}]</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_CLK-}]
+</v>
       </c>
       <c r="Y113" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T113="IO",T113="I"),V113,""),IF(OR(T113="IO",T113="O"),W113,""))</f>
@@ -11242,34 +11495,37 @@
       </c>
       <c r="N114" s="4" t="n">
         <f aca="false">VLOOKUP(K114,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>99.6392871783</v>
+        <v>79.76</v>
       </c>
       <c r="P114" s="4" t="n">
         <f aca="false">IF(AND(M114&gt;0,N114&gt;0),M114+N114, "N/A")</f>
-        <v>111.1592871783</v>
+        <v>91.28</v>
       </c>
       <c r="Q114" s="29" t="n">
         <f aca="false">IF(P114&gt;0,P114/25.4,)</f>
-        <v>4.37634988890945</v>
+        <v>3.59370078740158</v>
       </c>
       <c r="S114" s="4" t="n">
         <f aca="false">IF(P114&gt;0,P$136-P114,"")</f>
-        <v>-42.0613110212</v>
+        <v>-22.1820238429</v>
       </c>
       <c r="U114" s="30" t="str">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D114," [get_ports {",K114,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K114,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T1 [get_ports {PMOD-11}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-11}]</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-11}]
+</v>
       </c>
       <c r="V114" s="31" t="str">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S114/$V$8,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S114/$W$8,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-11}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-11}]</v>
+        <v>set_input_delay -clock clk_3v3_n -min 2.361 [get_ports {PMOD-11}]
+set_input_delay -clock clk_3v3_n -max 52.398 [get_ports {PMOD-11}]
+</v>
       </c>
       <c r="W114" s="31" t="str">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P114/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P114/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-11}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-11}]</v>
+        <v>set_output_delay -clock clk_3v3_n -min -6.198 [get_ports {PMOD-11}]
+set_output_delay -clock clk_3v3_n -max 53.569 [get_ports {PMOD-11}]
+</v>
       </c>
       <c r="Y114" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T114="IO",T114="I"),V114,""),IF(OR(T114="IO",T114="O"),W114,""))</f>
@@ -11277,23 +11533,31 @@
       </c>
       <c r="AB114" s="65" t="n">
         <f aca="false">$AB$104-P114</f>
-        <v>0.000104601000018079</v>
+        <v>15.005</v>
       </c>
       <c r="AC114" s="66" t="n">
         <f aca="false">N114</f>
-        <v>99.6392871783</v>
+        <v>79.76</v>
       </c>
       <c r="AD114" s="65" t="n">
         <f aca="false">AC114+AB114</f>
-        <v>99.6393917793</v>
+        <v>94.765</v>
       </c>
       <c r="AE114" s="65" t="str">
         <f aca="false">H114</f>
         <v>PMOD-11</v>
       </c>
+      <c r="AF114" s="0" t="n">
+        <f aca="false">MAX(P114,P116)-P114</f>
+        <v>0.000999999999990564</v>
+      </c>
       <c r="AG114" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K114,3)="LED",LEFT(K114,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D114,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K114),"")</f>
         <v/>
+      </c>
+      <c r="AH114" s="4" t="n">
+        <f aca="false">N114+AF114</f>
+        <v>79.761</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11348,17 +11612,20 @@
       <c r="U115" s="30" t="str">
         <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D115," [get_ports {",K115,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K115,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M4 [get_ports {HDMI_CLK+}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK+}]</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK+}]
+</v>
       </c>
       <c r="V115" s="31" t="str">
         <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND",NOT(ISNA(P115)),NOT(ISNA(N115))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S115/$V$8,"0.000")," [get_ports {",K115,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S115/$W$8,"0.000")," [get_ports {",K115,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_CLK+}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_CLK+}]</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_CLK+}]
+</v>
       </c>
       <c r="W115" s="31" t="str">
         <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND",NOT(ISNA(P115)),NOT(ISNA(N115))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P115/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K115,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P115/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K115,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_CLK+}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_CLK+}]</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_CLK+}]
+</v>
       </c>
       <c r="Y115" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T115="IO",T115="I"),V115,""),IF(OR(T115="IO",T115="O"),W115,""))</f>
@@ -11420,34 +11687,37 @@
       </c>
       <c r="N116" s="4" t="n">
         <f aca="false">VLOOKUP(K116,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>98.2492909797</v>
+        <v>78.371</v>
       </c>
       <c r="P116" s="4" t="n">
         <f aca="false">IF(AND(M116&gt;0,N116&gt;0),M116+N116, "N/A")</f>
-        <v>111.1592909797</v>
+        <v>91.281</v>
       </c>
       <c r="Q116" s="29" t="n">
         <f aca="false">IF(P116&gt;0,P116/25.4,)</f>
-        <v>4.37635003857087</v>
+        <v>3.59374015748031</v>
       </c>
       <c r="S116" s="4" t="n">
         <f aca="false">IF(P116&gt;0,P$136-P116,"")</f>
-        <v>-42.0613148226</v>
+        <v>-22.1830238429</v>
       </c>
       <c r="U116" s="30" t="str">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D116," [get_ports {",K116,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K116,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R1 [get_ports {PMOD-12}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-12}]</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-12}]
+</v>
       </c>
       <c r="V116" s="31" t="str">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S116/$V$8,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S116/$W$8,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-12}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-12}]</v>
+        <v>set_input_delay -clock clk_3v3_n -min 2.361 [get_ports {PMOD-12}]
+set_input_delay -clock clk_3v3_n -max 52.398 [get_ports {PMOD-12}]
+</v>
       </c>
       <c r="W116" s="31" t="str">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P116/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P116/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-12}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-12}]</v>
+        <v>set_output_delay -clock clk_3v3_n -min -6.198 [get_ports {PMOD-12}]
+set_output_delay -clock clk_3v3_n -max 53.569 [get_ports {PMOD-12}]
+</v>
       </c>
       <c r="Y116" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T116="IO",T116="I"),V116,""),IF(OR(T116="IO",T116="O"),W116,""))</f>
@@ -11455,23 +11725,31 @@
       </c>
       <c r="AB116" s="65" t="n">
         <f aca="false">$AB$104-P116</f>
-        <v>0.000100799600019741</v>
+        <v>15.004</v>
       </c>
       <c r="AC116" s="66" t="n">
         <f aca="false">N116</f>
-        <v>98.2492909797</v>
+        <v>78.371</v>
       </c>
       <c r="AD116" s="65" t="n">
         <f aca="false">AC116+AB116</f>
-        <v>98.2493917793</v>
+        <v>93.375</v>
       </c>
       <c r="AE116" s="65" t="str">
         <f aca="false">H116</f>
         <v>PMOD-12</v>
       </c>
+      <c r="AF116" s="0" t="n">
+        <f aca="false">MAX(P116,P114)-P116</f>
+        <v>0</v>
+      </c>
       <c r="AG116" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K116,3)="LED",LEFT(K116,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D116,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K116),"")</f>
         <v/>
+      </c>
+      <c r="AH116" s="4" t="n">
+        <f aca="false">N116+AF116</f>
+        <v>78.371</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11526,17 +11804,20 @@
       <c r="U117" s="30" t="str">
         <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D117," [get_ports {",K117,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K117,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M3 [get_ports {HDMI_D0+}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D0+}]</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D0+}]
+</v>
       </c>
       <c r="V117" s="31" t="str">
         <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND",NOT(ISNA(P117)),NOT(ISNA(N117))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S117/$V$8,"0.000")," [get_ports {",K117,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S117/$W$8,"0.000")," [get_ports {",K117,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_D0+}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D0+}]</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D0+}]
+</v>
       </c>
       <c r="W117" s="31" t="str">
         <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND",NOT(ISNA(P117)),NOT(ISNA(N117))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P117/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K117,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P117/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K117,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_D0+}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D0+}]</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D0+}]
+</v>
       </c>
       <c r="Y117" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T117="IO",T117="I"),V117,""),IF(OR(T117="IO",T117="O"),W117,""))</f>
@@ -11598,34 +11879,37 @@
       </c>
       <c r="N118" s="4" t="n">
         <f aca="false">VLOOKUP(K118,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>96.979290214</v>
+        <v>75.59</v>
       </c>
       <c r="P118" s="4" t="n">
         <f aca="false">IF(AND(M118&gt;0,N118&gt;0),M118+N118, "N/A")</f>
-        <v>111.159290214</v>
+        <v>89.77</v>
       </c>
       <c r="Q118" s="29" t="n">
         <f aca="false">IF(P118&gt;0,P118/25.4,)</f>
-        <v>4.3763500084252</v>
+        <v>3.53425196850394</v>
       </c>
       <c r="S118" s="4" t="n">
         <f aca="false">IF(P118&gt;0,P$136-P118,"")</f>
-        <v>-42.0613140569</v>
+        <v>-20.6720238429</v>
       </c>
       <c r="U118" s="30" t="str">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D118," [get_ports {",K118,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K118,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R2 [get_ports {PMOD-9}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-9}]</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-9}]
+</v>
       </c>
       <c r="V118" s="31" t="str">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S118/$V$8,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S118/$W$8,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-9}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-9}]</v>
+        <v>set_input_delay -clock clk_3v3_n -min 2.353 [get_ports {PMOD-9}]
+set_input_delay -clock clk_3v3_n -max 52.388 [get_ports {PMOD-9}]
+</v>
       </c>
       <c r="W118" s="31" t="str">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P118/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P118/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-9}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-9}]</v>
+        <v>set_output_delay -clock clk_3v3_n -min -6.206 [get_ports {PMOD-9}]
+set_output_delay -clock clk_3v3_n -max 53.559 [get_ports {PMOD-9}]
+</v>
       </c>
       <c r="Y118" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T118="IO",T118="I"),V118,""),IF(OR(T118="IO",T118="O"),W118,""))</f>
@@ -11633,23 +11917,31 @@
       </c>
       <c r="AB118" s="65" t="n">
         <f aca="false">$AB$104-P118</f>
-        <v>0.000101565299999606</v>
+        <v>16.515</v>
       </c>
       <c r="AC118" s="66" t="n">
         <f aca="false">N118</f>
-        <v>96.979290214</v>
+        <v>75.59</v>
       </c>
       <c r="AD118" s="65" t="n">
         <f aca="false">AC118+AB118</f>
-        <v>96.9793917793</v>
+        <v>92.105</v>
       </c>
       <c r="AE118" s="65" t="str">
         <f aca="false">H118</f>
         <v>PMOD-9</v>
       </c>
+      <c r="AF118" s="0" t="n">
+        <f aca="false">MAX(P118,P120)-P118</f>
+        <v>0</v>
+      </c>
       <c r="AG118" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K118,3)="LED",LEFT(K118,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D118,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K118),"")</f>
         <v/>
+      </c>
+      <c r="AH118" s="4" t="n">
+        <f aca="false">N118+AF118</f>
+        <v>75.59</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11704,17 +11996,20 @@
       <c r="U119" s="30" t="str">
         <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D119," [get_ports {",K119,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K119,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M2 [get_ports {HDMI_D0-}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D0-}]</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D0-}]
+</v>
       </c>
       <c r="V119" s="31" t="str">
         <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND",NOT(ISNA(P119)),NOT(ISNA(N119))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S119/$V$8,"0.000")," [get_ports {",K119,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S119/$W$8,"0.000")," [get_ports {",K119,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_D0-}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D0-}]</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D0-}]
+</v>
       </c>
       <c r="W119" s="31" t="str">
         <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND",NOT(ISNA(P119)),NOT(ISNA(N119))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P119/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K119,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P119/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K119,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_D0-}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D0-}]</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D0-}]
+</v>
       </c>
       <c r="Y119" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T119="IO",T119="I"),V119,""),IF(OR(T119="IO",T119="O"),W119,""))</f>
@@ -11776,34 +12071,37 @@
       </c>
       <c r="N120" s="4" t="n">
         <f aca="false">VLOOKUP(K120,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>95.2292858882</v>
+        <v>73.838</v>
       </c>
       <c r="P120" s="4" t="n">
         <f aca="false">IF(AND(M120&gt;0,N120&gt;0),M120+N120, "N/A")</f>
-        <v>111.1592858882</v>
+        <v>89.768</v>
       </c>
       <c r="Q120" s="29" t="n">
         <f aca="false">IF(P120&gt;0,P120/25.4,)</f>
-        <v>4.37634983811811</v>
+        <v>3.53417322834646</v>
       </c>
       <c r="S120" s="4" t="n">
         <f aca="false">IF(P120&gt;0,P$136-P120,"")</f>
-        <v>-42.0613097311</v>
+        <v>-20.6700238429</v>
       </c>
       <c r="U120" s="30" t="str">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D120," [get_ports {",K120,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K120,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN P2 [get_ports {PMOD-10}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-10}]</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-10}]
+</v>
       </c>
       <c r="V120" s="31" t="str">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S120/$V$8,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S120/$W$8,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-10}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-10}]</v>
+        <v>set_input_delay -clock clk_3v3_n -min 2.353 [get_ports {PMOD-10}]
+set_input_delay -clock clk_3v3_n -max 52.388 [get_ports {PMOD-10}]
+</v>
       </c>
       <c r="W120" s="31" t="str">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P120/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P120/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-10}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-10}]</v>
+        <v>set_output_delay -clock clk_3v3_n -min -6.206 [get_ports {PMOD-10}]
+set_output_delay -clock clk_3v3_n -max 53.559 [get_ports {PMOD-10}]
+</v>
       </c>
       <c r="Y120" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T120="IO",T120="I"),V120,""),IF(OR(T120="IO",T120="O"),W120,""))</f>
@@ -11811,23 +12109,31 @@
       </c>
       <c r="AB120" s="65" t="n">
         <f aca="false">$AB$104-P120</f>
-        <v>0.000105891100005806</v>
+        <v>16.517</v>
       </c>
       <c r="AC120" s="66" t="n">
         <f aca="false">N120</f>
-        <v>95.2292858882</v>
+        <v>73.838</v>
       </c>
       <c r="AD120" s="65" t="n">
         <f aca="false">AC120+AB120</f>
-        <v>95.2293917793</v>
+        <v>90.355</v>
       </c>
       <c r="AE120" s="65" t="str">
         <f aca="false">H120</f>
         <v>PMOD-10</v>
       </c>
+      <c r="AF120" s="0" t="n">
+        <f aca="false">MAX(P120,P118)-P120</f>
+        <v>0.00200000000000955</v>
+      </c>
       <c r="AG120" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K120,3)="LED",LEFT(K120,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D120,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K120),"")</f>
         <v/>
+      </c>
+      <c r="AH120" s="4" t="n">
+        <f aca="false">N120+AF120</f>
+        <v>73.84</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11882,17 +12188,20 @@
       <c r="U121" s="30" t="str">
         <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D121," [get_ports {",K121,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K121,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K5 [get_ports {HDMI_D1+}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D1+}]</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D1+}]
+</v>
       </c>
       <c r="V121" s="31" t="str">
         <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND",NOT(ISNA(P121)),NOT(ISNA(N121))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S121/$V$8,"0.000")," [get_ports {",K121,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S121/$W$8,"0.000")," [get_ports {",K121,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_D1+}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D1+}]</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D1+}]
+</v>
       </c>
       <c r="W121" s="31" t="str">
         <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND",NOT(ISNA(P121)),NOT(ISNA(N121))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P121/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K121,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P121/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K121,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_D1+}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D1+}]</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D1+}]
+</v>
       </c>
       <c r="Y121" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T121="IO",T121="I"),V121,""),IF(OR(T121="IO",T121="O"),W121,""))</f>
@@ -11954,34 +12263,37 @@
       </c>
       <c r="N122" s="4" t="n">
         <f aca="false">VLOOKUP(K122,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>93.8691340209</v>
+        <v>70.37</v>
       </c>
       <c r="P122" s="4" t="n">
         <f aca="false">IF(AND(M122&gt;0,N122&gt;0),M122+N122, "N/A")</f>
-        <v>111.1591340209</v>
+        <v>87.66</v>
       </c>
       <c r="Q122" s="29" t="n">
         <f aca="false">IF(P122&gt;0,P122/25.4,)</f>
-        <v>4.37634385909055</v>
+        <v>3.4511811023622</v>
       </c>
       <c r="S122" s="4" t="n">
         <f aca="false">IF(P122&gt;0,P$136-P122,"")</f>
-        <v>-42.0611578638</v>
+        <v>-18.5620238429</v>
       </c>
       <c r="U122" s="30" t="str">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D122," [get_ports {",K122,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K122,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N2 [get_ports {PMOD-7}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-7}]</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-7}]
+</v>
       </c>
       <c r="V122" s="31" t="str">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S122/$V$8,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S122/$W$8,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-7}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-7}]</v>
+        <v>set_input_delay -clock clk_3v3_n -min 2.343 [get_ports {PMOD-7}]
+set_input_delay -clock clk_3v3_n -max 52.374 [get_ports {PMOD-7}]
+</v>
       </c>
       <c r="W122" s="31" t="str">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P122/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P122/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-7}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-7}]</v>
+        <v>set_output_delay -clock clk_3v3_n -min -6.216 [get_ports {PMOD-7}]
+set_output_delay -clock clk_3v3_n -max 53.545 [get_ports {PMOD-7}]
+</v>
       </c>
       <c r="Y122" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T122="IO",T122="I"),V122,""),IF(OR(T122="IO",T122="O"),W122,""))</f>
@@ -11989,23 +12301,31 @@
       </c>
       <c r="AB122" s="65" t="n">
         <f aca="false">$AB$104-P122</f>
-        <v>0.000257758400024954</v>
+        <v>18.625</v>
       </c>
       <c r="AC122" s="66" t="n">
         <f aca="false">N122</f>
-        <v>93.8691340209</v>
+        <v>70.37</v>
       </c>
       <c r="AD122" s="65" t="n">
         <f aca="false">AC122+AB122</f>
-        <v>93.8693917793</v>
+        <v>88.995</v>
       </c>
       <c r="AE122" s="65" t="str">
         <f aca="false">H122</f>
         <v>PMOD-7</v>
       </c>
+      <c r="AF122" s="0" t="n">
+        <f aca="false">MAX(P122,P124)-P122</f>
+        <v>0</v>
+      </c>
       <c r="AG122" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K122,3)="LED",LEFT(K122,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D122,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K122),"")</f>
         <v/>
+      </c>
+      <c r="AH122" s="4" t="n">
+        <f aca="false">N122+AF122</f>
+        <v>70.37</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12060,17 +12380,20 @@
       <c r="U123" s="30" t="str">
         <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D123," [get_ports {",K123,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K123,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L4 [get_ports {HDMI_D1-}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D1-}]</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D1-}]
+</v>
       </c>
       <c r="V123" s="31" t="str">
         <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND",NOT(ISNA(P123)),NOT(ISNA(N123))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S123/$V$8,"0.000")," [get_ports {",K123,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S123/$W$8,"0.000")," [get_ports {",K123,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_D1-}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D1-}]</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D1-}]
+</v>
       </c>
       <c r="W123" s="31" t="str">
         <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND",NOT(ISNA(P123)),NOT(ISNA(N123))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P123/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K123,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P123/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K123,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_D1-}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D1-}]</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D1-}]
+</v>
       </c>
       <c r="Y123" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T123="IO",T123="I"),V123,""),IF(OR(T123="IO",T123="O"),W123,""))</f>
@@ -12132,34 +12455,37 @@
       </c>
       <c r="N124" s="4" t="n">
         <f aca="false">VLOOKUP(K124,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>92.8091409317</v>
+        <v>69.305</v>
       </c>
       <c r="P124" s="4" t="n">
         <f aca="false">IF(AND(M124&gt;0,N124&gt;0),M124+N124, "N/A")</f>
-        <v>111.1591409317</v>
+        <v>87.655</v>
       </c>
       <c r="Q124" s="29" t="n">
         <f aca="false">IF(P124&gt;0,P124/25.4,)</f>
-        <v>4.37634413116929</v>
+        <v>3.4509842519685</v>
       </c>
       <c r="S124" s="4" t="n">
         <f aca="false">IF(P124&gt;0,P$136-P124,"")</f>
-        <v>-42.0611647746</v>
+        <v>-18.5570238429</v>
       </c>
       <c r="U124" s="30" t="str">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D124," [get_ports {",K124,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K124,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N1 [get_ports {PMOD-8}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-8}]</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-8}]
+</v>
       </c>
       <c r="V124" s="31" t="str">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S124/$V$8,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S124/$W$8,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-8}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-8}]</v>
+        <v>set_input_delay -clock clk_3v3_n -min 2.343 [get_ports {PMOD-8}]
+set_input_delay -clock clk_3v3_n -max 52.374 [get_ports {PMOD-8}]
+</v>
       </c>
       <c r="W124" s="31" t="str">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P124/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P124/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-8}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-8}]</v>
+        <v>set_output_delay -clock clk_3v3_n -min -6.216 [get_ports {PMOD-8}]
+set_output_delay -clock clk_3v3_n -max 53.545 [get_ports {PMOD-8}]
+</v>
       </c>
       <c r="Y124" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T124="IO",T124="I"),V124,""),IF(OR(T124="IO",T124="O"),W124,""))</f>
@@ -12167,23 +12493,31 @@
       </c>
       <c r="AB124" s="65" t="n">
         <f aca="false">$AB$104-P124</f>
-        <v>0.000250847600014481</v>
+        <v>18.63</v>
       </c>
       <c r="AC124" s="66" t="n">
         <f aca="false">N124</f>
-        <v>92.8091409317</v>
+        <v>69.305</v>
       </c>
       <c r="AD124" s="65" t="n">
         <f aca="false">AC124+AB124</f>
-        <v>92.8093917793</v>
+        <v>87.935</v>
       </c>
       <c r="AE124" s="65" t="str">
         <f aca="false">H124</f>
         <v>PMOD-8</v>
       </c>
+      <c r="AF124" s="0" t="n">
+        <f aca="false">MAX(P124,P122)-P124</f>
+        <v>0.00499999999999545</v>
+      </c>
       <c r="AG124" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K124,3)="LED",LEFT(K124,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D124,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K124),"")</f>
         <v/>
+      </c>
+      <c r="AH124" s="4" t="n">
+        <f aca="false">N124+AF124</f>
+        <v>69.31</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12238,17 +12572,20 @@
       <c r="U125" s="30" t="str">
         <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D125," [get_ports {",K125,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K125,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L3 [get_ports {HDMI_D2-}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D2-}]</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D2-}]
+</v>
       </c>
       <c r="V125" s="31" t="str">
         <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND",NOT(ISNA(P125)),NOT(ISNA(N125))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S125/$V$8,"0.000")," [get_ports {",K125,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S125/$W$8,"0.000")," [get_ports {",K125,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_D2-}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D2-}]</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D2-}]
+</v>
       </c>
       <c r="W125" s="31" t="str">
         <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND",NOT(ISNA(P125)),NOT(ISNA(N125))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P125/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K125,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P125/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K125,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_D2-}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D2-}]</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D2-}]
+</v>
       </c>
       <c r="Y125" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T125="IO",T125="I"),V125,""),IF(OR(T125="IO",T125="O"),W125,""))</f>
@@ -12310,58 +12647,73 @@
       </c>
       <c r="N126" s="4" t="n">
         <f aca="false">VLOOKUP(K126,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>90.8791364136</v>
+        <v>66.63</v>
       </c>
       <c r="P126" s="4" t="n">
         <f aca="false">IF(AND(M126&gt;0,N126&gt;0),M126+N126, "N/A")</f>
-        <v>111.1591364136</v>
+        <v>86.91</v>
       </c>
       <c r="Q126" s="29" t="n">
         <f aca="false">IF(P126&gt;0,P126/25.4,)</f>
-        <v>4.37634395329134</v>
+        <v>3.42165354330709</v>
       </c>
       <c r="S126" s="4" t="n">
         <f aca="false">IF(P126&gt;0,P$136-P126,"")</f>
-        <v>-42.0611602565</v>
+        <v>-17.8120238429</v>
       </c>
       <c r="U126" s="30" t="str">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D126," [get_ports {",K126,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K126,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M1 [get_ports {PMOD-5}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-5}]</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-5}]
+</v>
       </c>
       <c r="V126" s="31" t="str">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S126/$V$8,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S126/$W$8,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-5}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-5}]</v>
+        <v>set_input_delay -clock clk_3v3_n -min 2.339 [get_ports {PMOD-5}]
+set_input_delay -clock clk_3v3_n -max 52.369 [get_ports {PMOD-5}]
+</v>
       </c>
       <c r="W126" s="31" t="str">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P126/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P126/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-5}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-5}]</v>
+        <v>set_output_delay -clock clk_3v3_n -min -6.220 [get_ports {PMOD-5}]
+set_output_delay -clock clk_3v3_n -max 53.540 [get_ports {PMOD-5}]
+</v>
       </c>
       <c r="Y126" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T126="IO",T126="I"),V126,""),IF(OR(T126="IO",T126="O"),W126,""))</f>
         <v/>
       </c>
+      <c r="AA126" s="68" t="n">
+        <f aca="false">MAX(AD108,AD106)-AD106</f>
+        <v>1.92</v>
+      </c>
       <c r="AB126" s="65" t="n">
         <f aca="false">$AB$104-P126</f>
-        <v>0.000255365700013499</v>
+        <v>19.375</v>
       </c>
       <c r="AC126" s="66" t="n">
         <f aca="false">N126</f>
-        <v>90.8791364136</v>
+        <v>66.63</v>
       </c>
       <c r="AD126" s="65" t="n">
         <f aca="false">AC126+AB126</f>
-        <v>90.8793917793</v>
+        <v>86.005</v>
       </c>
       <c r="AE126" s="65" t="str">
         <f aca="false">H126</f>
         <v>PMOD-5</v>
       </c>
+      <c r="AF126" s="0" t="n">
+        <f aca="false">MAX(P126,P128)-P126</f>
+        <v>0.00200000000000955</v>
+      </c>
       <c r="AG126" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K126,3)="LED",LEFT(K126,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D126,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K126),"")</f>
         <v/>
+      </c>
+      <c r="AH126" s="4" t="n">
+        <f aca="false">N126+AF126</f>
+        <v>66.632</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12416,17 +12768,20 @@
       <c r="U127" s="30" t="str">
         <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D127," [get_ports {",K127,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K127,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K3 [get_ports {HDMI_D2+}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D2+}]</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D2+}]
+</v>
       </c>
       <c r="V127" s="31" t="str">
         <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND",NOT(ISNA(P127)),NOT(ISNA(N127))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S127/$V$8,"0.000")," [get_ports {",K127,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S127/$W$8,"0.000")," [get_ports {",K127,"}]",CHAR(10)),"")</f>
         <v>set_input_delay -clock clk_3v3_n -min 2.429 [get_ports {HDMI_D2+}]
-set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D2+}]</v>
+set_input_delay -clock clk_3v3_n -max 52.488 [get_ports {HDMI_D2+}]
+</v>
       </c>
       <c r="W127" s="31" t="str">
         <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND",NOT(ISNA(P127)),NOT(ISNA(N127))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P127/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K127,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P127/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K127,"}]",CHAR(10)),"")</f>
         <v>set_output_delay -clock clk_3v3_n -min -6.130 [get_ports {HDMI_D2+}]
-set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D2+}]</v>
+set_output_delay -clock clk_3v3_n -max 53.660 [get_ports {HDMI_D2+}]
+</v>
       </c>
       <c r="Y127" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T127="IO",T127="I"),V127,""),IF(OR(T127="IO",T127="O"),W127,""))</f>
@@ -12488,34 +12843,37 @@
       </c>
       <c r="N128" s="4" t="n">
         <f aca="false">VLOOKUP(K128,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>89.0191367324</v>
+        <v>64.772</v>
       </c>
       <c r="P128" s="4" t="n">
         <f aca="false">IF(AND(M128&gt;0,N128&gt;0),M128+N128, "N/A")</f>
-        <v>111.1591367324</v>
+        <v>86.912</v>
       </c>
       <c r="Q128" s="29" t="n">
         <f aca="false">IF(P128&gt;0,P128/25.4,)</f>
-        <v>4.37634396584252</v>
+        <v>3.42173228346457</v>
       </c>
       <c r="S128" s="4" t="n">
         <f aca="false">IF(P128&gt;0,P$136-P128,"")</f>
-        <v>-42.0611605753</v>
+        <v>-17.8140238429</v>
       </c>
       <c r="U128" s="30" t="str">
         <f aca="false">IF(AND(K128&lt;&gt;"",K128&lt;&gt;"+3v3",K128&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D128," [get_ports {",K128,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K128,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L1 [get_ports {PMOD-6}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-6}]</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-6}]
+</v>
       </c>
       <c r="V128" s="31" t="str">
         <f aca="false">IF(AND(K128&lt;&gt;"",K128&lt;&gt;"+3v3",K128&lt;&gt;"GND",NOT(ISNA(P128)),NOT(ISNA(N128))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S128/$V$8,"0.000")," [get_ports {",K128,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S128/$W$8,"0.000")," [get_ports {",K128,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.460 [get_ports {PMOD-6}]
-set_input_delay -clock clk_3v3_n -max 52.530 [get_ports {PMOD-6}]</v>
+        <v>set_input_delay -clock clk_3v3_n -min 2.339 [get_ports {PMOD-6}]
+set_input_delay -clock clk_3v3_n -max 52.369 [get_ports {PMOD-6}]
+</v>
       </c>
       <c r="W128" s="31" t="str">
         <f aca="false">IF(AND(K128&lt;&gt;"",K128&lt;&gt;"+3v3",K128&lt;&gt;"GND",NOT(ISNA(P128)),NOT(ISNA(N128))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P128/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K128,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P128/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K128,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.099 [get_ports {PMOD-6}]
-set_output_delay -clock clk_3v3_n -max 53.702 [get_ports {PMOD-6}]</v>
+        <v>set_output_delay -clock clk_3v3_n -min -6.220 [get_ports {PMOD-6}]
+set_output_delay -clock clk_3v3_n -max 53.540 [get_ports {PMOD-6}]
+</v>
       </c>
       <c r="Y128" s="7" t="str">
         <f aca="false">CONCATENATE(IF(OR(T128="IO",T128="I"),V128,""),IF(OR(T128="IO",T128="O"),W128,""))</f>
@@ -12523,23 +12881,31 @@
       </c>
       <c r="AB128" s="65" t="n">
         <f aca="false">$AB$104-P128</f>
-        <v>0.000255046900008438</v>
+        <v>19.373</v>
       </c>
       <c r="AC128" s="66" t="n">
         <f aca="false">N128</f>
-        <v>89.0191367324</v>
+        <v>64.772</v>
       </c>
       <c r="AD128" s="65" t="n">
         <f aca="false">AC128+AB128</f>
-        <v>89.0193917793</v>
+        <v>84.145</v>
       </c>
       <c r="AE128" s="65" t="str">
         <f aca="false">H128</f>
         <v>PMOD-6</v>
       </c>
+      <c r="AF128" s="0" t="n">
+        <f aca="false">MAX(P128,P126)-P128</f>
+        <v>0</v>
+      </c>
       <c r="AG128" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K128,3)="LED",LEFT(K128,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D128,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K128),"")</f>
         <v/>
+      </c>
+      <c r="AH128" s="4" t="n">
+        <f aca="false">N128+AF128</f>
+        <v>64.772</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12573,7 +12939,7 @@
         <f aca="false">IF(AND(M129&gt;0,N129&gt;0),M129+N129, "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="Q129" s="68"/>
+      <c r="Q129" s="69"/>
     </row>
     <row r="130" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="48" t="s">
@@ -12614,7 +12980,7 @@
         <f aca="false">MIN(P9:P128)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q130" s="68"/>
+      <c r="Q130" s="69"/>
       <c r="S130" s="4" t="s">
         <v>456</v>
       </c>
@@ -12630,9 +12996,9 @@
       <c r="B131" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C131" s="69"/>
+      <c r="C131" s="70"/>
       <c r="D131" s="43"/>
-      <c r="E131" s="69"/>
+      <c r="E131" s="70"/>
       <c r="F131" s="43"/>
       <c r="G131" s="0" t="n">
         <v>63</v>
@@ -12656,10 +13022,10 @@
         <f aca="false">MAX(P9:P128)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q131" s="68"/>
+      <c r="Q131" s="69"/>
     </row>
     <row r="132" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="70" t="s">
+      <c r="A132" s="71" t="s">
         <v>459</v>
       </c>
       <c r="B132" s="52" t="s">
@@ -12687,25 +13053,25 @@
       <c r="O132" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="P132" s="71" t="e">
+      <c r="P132" s="72" t="e">
         <f aca="false">MAX(P9:P94,P97,P99:P128)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q132" s="68"/>
+      <c r="Q132" s="69"/>
     </row>
     <row r="133" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="72"/>
-      <c r="B133" s="73" t="s">
+      <c r="A133" s="73"/>
+      <c r="B133" s="74" t="s">
         <v>461</v>
       </c>
-      <c r="C133" s="74" t="s">
+      <c r="C133" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="D133" s="74" t="s">
+      <c r="D133" s="75" t="s">
         <v>462</v>
       </c>
-      <c r="E133" s="74"/>
-      <c r="F133" s="75"/>
+      <c r="E133" s="75"/>
+      <c r="F133" s="76"/>
       <c r="O133" s="0" t="s">
         <v>463</v>
       </c>
@@ -12713,7 +13079,7 @@
         <f aca="false">P131-P130</f>
         <v>#N/A</v>
       </c>
-      <c r="Q133" s="68" t="e">
+      <c r="Q133" s="69" t="e">
         <f aca="false">P133/$V$8</f>
         <v>#N/A</v>
       </c>
@@ -12726,26 +13092,26 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="72"/>
-      <c r="B134" s="73" t="s">
+      <c r="A134" s="73"/>
+      <c r="B134" s="74" t="s">
         <v>465</v>
       </c>
-      <c r="C134" s="74" t="s">
+      <c r="C134" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="D134" s="74" t="s">
+      <c r="D134" s="75" t="s">
         <v>466</v>
       </c>
-      <c r="E134" s="74"/>
-      <c r="F134" s="75"/>
+      <c r="E134" s="75"/>
+      <c r="F134" s="76"/>
       <c r="O134" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="P134" s="71" t="e">
+      <c r="P134" s="72" t="e">
         <f aca="false">P132-P130</f>
         <v>#N/A</v>
       </c>
-      <c r="Q134" s="68" t="e">
+      <c r="Q134" s="69" t="e">
         <f aca="false">P134/$V$8</f>
         <v>#N/A</v>
       </c>
@@ -12758,43 +13124,43 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="76"/>
-      <c r="B135" s="77" t="s">
+      <c r="A135" s="77"/>
+      <c r="B135" s="78" t="s">
         <v>468</v>
       </c>
-      <c r="C135" s="78" t="s">
+      <c r="C135" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D135" s="78" t="s">
+      <c r="D135" s="79" t="s">
         <v>469</v>
       </c>
-      <c r="E135" s="78" t="n">
+      <c r="E135" s="79" t="n">
         <v>9</v>
       </c>
-      <c r="F135" s="79" t="s">
+      <c r="F135" s="80" t="s">
         <v>470</v>
       </c>
-      <c r="Q135" s="68"/>
+      <c r="Q135" s="69"/>
       <c r="S135" s="4" t="n">
         <f aca="false">P135/$W$8</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="76"/>
-      <c r="B136" s="77" t="s">
+      <c r="A136" s="77"/>
+      <c r="B136" s="78" t="s">
         <v>471</v>
       </c>
-      <c r="C136" s="78" t="s">
+      <c r="C136" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D136" s="78" t="s">
+      <c r="D136" s="79" t="s">
         <v>472</v>
       </c>
-      <c r="E136" s="78" t="n">
+      <c r="E136" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="F136" s="79" t="s">
+      <c r="F136" s="80" t="s">
         <v>470</v>
       </c>
       <c r="O136" s="0" t="s">
@@ -12804,7 +13170,7 @@
         <f aca="false">P24</f>
         <v>69.0979761571</v>
       </c>
-      <c r="Q136" s="68" t="n">
+      <c r="Q136" s="69" t="n">
         <f aca="false">P136/$V$8</f>
         <v>0.3454898807855</v>
       </c>
@@ -12817,18 +13183,18 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="76"/>
-      <c r="B137" s="77" t="s">
+      <c r="A137" s="77"/>
+      <c r="B137" s="78" t="s">
         <v>474</v>
       </c>
-      <c r="C137" s="78" t="s">
+      <c r="C137" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D137" s="78" t="s">
+      <c r="D137" s="79" t="s">
         <v>475</v>
       </c>
-      <c r="E137" s="78"/>
-      <c r="F137" s="79" t="s">
+      <c r="E137" s="79"/>
+      <c r="F137" s="80" t="s">
         <v>476</v>
       </c>
       <c r="O137" s="0" t="s">
@@ -12838,7 +13204,7 @@
         <f aca="false">P130-P136</f>
         <v>#N/A</v>
       </c>
-      <c r="Q137" s="68" t="e">
+      <c r="Q137" s="69" t="e">
         <f aca="false">P137/$V$8</f>
         <v>#N/A</v>
       </c>
@@ -12851,18 +13217,18 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="76"/>
-      <c r="B138" s="77" t="s">
+      <c r="A138" s="77"/>
+      <c r="B138" s="78" t="s">
         <v>478</v>
       </c>
-      <c r="C138" s="78" t="s">
+      <c r="C138" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D138" s="78" t="s">
+      <c r="D138" s="79" t="s">
         <v>479</v>
       </c>
-      <c r="E138" s="78"/>
-      <c r="F138" s="79" t="s">
+      <c r="E138" s="79"/>
+      <c r="F138" s="80" t="s">
         <v>480</v>
       </c>
       <c r="O138" s="0" t="s">
@@ -12872,7 +13238,7 @@
         <f aca="false">P131-P136</f>
         <v>#N/A</v>
       </c>
-      <c r="Q138" s="68" t="e">
+      <c r="Q138" s="69" t="e">
         <f aca="false">P138/$V$8</f>
         <v>#N/A</v>
       </c>
@@ -12885,28 +13251,28 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="76"/>
-      <c r="B139" s="77" t="s">
+      <c r="A139" s="77"/>
+      <c r="B139" s="78" t="s">
         <v>482</v>
       </c>
-      <c r="C139" s="78" t="s">
+      <c r="C139" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D139" s="78" t="s">
+      <c r="D139" s="79" t="s">
         <v>483</v>
       </c>
-      <c r="E139" s="78"/>
-      <c r="F139" s="79" t="s">
+      <c r="E139" s="79"/>
+      <c r="F139" s="80" t="s">
         <v>484</v>
       </c>
       <c r="O139" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="P139" s="71" t="e">
+      <c r="P139" s="72" t="e">
         <f aca="false">P132-P136</f>
         <v>#N/A</v>
       </c>
-      <c r="Q139" s="68" t="e">
+      <c r="Q139" s="69" t="e">
         <f aca="false">P139/$V$8</f>
         <v>#N/A</v>
       </c>
@@ -12919,1167 +13285,1167 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="76"/>
-      <c r="B140" s="77" t="s">
+      <c r="A140" s="77"/>
+      <c r="B140" s="78" t="s">
         <v>486</v>
       </c>
-      <c r="C140" s="78" t="s">
+      <c r="C140" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D140" s="78" t="s">
+      <c r="D140" s="79" t="s">
         <v>487</v>
       </c>
-      <c r="E140" s="78"/>
-      <c r="F140" s="79" t="s">
+      <c r="E140" s="79"/>
+      <c r="F140" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="Q140" s="68"/>
+      <c r="Q140" s="69"/>
     </row>
     <row r="141" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="76"/>
-      <c r="B141" s="77" t="s">
+      <c r="A141" s="77"/>
+      <c r="B141" s="78" t="s">
         <v>489</v>
       </c>
-      <c r="C141" s="78" t="s">
+      <c r="C141" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D141" s="78" t="s">
+      <c r="D141" s="79" t="s">
         <v>490</v>
       </c>
-      <c r="E141" s="78"/>
-      <c r="F141" s="79" t="s">
+      <c r="E141" s="79"/>
+      <c r="F141" s="80" t="s">
         <v>491</v>
       </c>
-      <c r="Q141" s="68"/>
+      <c r="Q141" s="69"/>
     </row>
     <row r="142" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="76"/>
-      <c r="B142" s="77" t="s">
+      <c r="A142" s="77"/>
+      <c r="B142" s="78" t="s">
         <v>492</v>
       </c>
-      <c r="C142" s="78" t="s">
+      <c r="C142" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D142" s="78" t="s">
+      <c r="D142" s="79" t="s">
         <v>493</v>
       </c>
-      <c r="E142" s="78"/>
-      <c r="F142" s="79" t="s">
+      <c r="E142" s="79"/>
+      <c r="F142" s="80" t="s">
         <v>494</v>
       </c>
-      <c r="Q142" s="68"/>
+      <c r="Q142" s="69"/>
     </row>
     <row r="143" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="76"/>
-      <c r="B143" s="77" t="s">
+      <c r="A143" s="77"/>
+      <c r="B143" s="78" t="s">
         <v>495</v>
       </c>
-      <c r="C143" s="78" t="s">
+      <c r="C143" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D143" s="78" t="s">
+      <c r="D143" s="79" t="s">
         <v>496</v>
       </c>
-      <c r="E143" s="78"/>
-      <c r="F143" s="79"/>
+      <c r="E143" s="79"/>
+      <c r="F143" s="80"/>
     </row>
     <row r="144" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="76"/>
-      <c r="B144" s="77" t="s">
+      <c r="A144" s="77"/>
+      <c r="B144" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="C144" s="78" t="s">
+      <c r="C144" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D144" s="78" t="s">
+      <c r="D144" s="79" t="s">
         <v>498</v>
       </c>
-      <c r="E144" s="78"/>
-      <c r="F144" s="79"/>
+      <c r="E144" s="79"/>
+      <c r="F144" s="80"/>
     </row>
     <row r="145" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="76"/>
-      <c r="B145" s="77" t="s">
+      <c r="A145" s="77"/>
+      <c r="B145" s="78" t="s">
         <v>499</v>
       </c>
-      <c r="C145" s="78" t="s">
+      <c r="C145" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D145" s="78" t="s">
+      <c r="D145" s="79" t="s">
         <v>500</v>
       </c>
-      <c r="E145" s="78"/>
-      <c r="F145" s="79"/>
+      <c r="E145" s="79"/>
+      <c r="F145" s="80"/>
     </row>
     <row r="146" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="76"/>
-      <c r="B146" s="77" t="s">
+      <c r="A146" s="77"/>
+      <c r="B146" s="78" t="s">
         <v>501</v>
       </c>
-      <c r="C146" s="78" t="s">
+      <c r="C146" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D146" s="78" t="s">
+      <c r="D146" s="79" t="s">
         <v>502</v>
       </c>
-      <c r="E146" s="78"/>
-      <c r="F146" s="79"/>
+      <c r="E146" s="79"/>
+      <c r="F146" s="80"/>
     </row>
     <row r="147" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="80"/>
-      <c r="B147" s="77" t="s">
+      <c r="A147" s="81"/>
+      <c r="B147" s="78" t="s">
         <v>503</v>
       </c>
-      <c r="C147" s="78" t="s">
+      <c r="C147" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D147" s="78" t="s">
+      <c r="D147" s="79" t="s">
         <v>504</v>
       </c>
-      <c r="E147" s="78"/>
-      <c r="F147" s="79"/>
+      <c r="E147" s="79"/>
+      <c r="F147" s="80"/>
     </row>
     <row r="148" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="76"/>
-      <c r="B148" s="77" t="s">
+      <c r="A148" s="77"/>
+      <c r="B148" s="78" t="s">
         <v>505</v>
       </c>
-      <c r="C148" s="78" t="s">
+      <c r="C148" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D148" s="78" t="s">
+      <c r="D148" s="79" t="s">
         <v>506</v>
       </c>
-      <c r="E148" s="78"/>
-      <c r="F148" s="79"/>
+      <c r="E148" s="79"/>
+      <c r="F148" s="80"/>
     </row>
     <row r="149" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="76"/>
-      <c r="B149" s="77" t="s">
+      <c r="A149" s="77"/>
+      <c r="B149" s="78" t="s">
         <v>507</v>
       </c>
-      <c r="C149" s="78" t="s">
+      <c r="C149" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D149" s="78" t="s">
+      <c r="D149" s="79" t="s">
         <v>508</v>
       </c>
-      <c r="E149" s="78"/>
-      <c r="F149" s="79"/>
+      <c r="E149" s="79"/>
+      <c r="F149" s="80"/>
     </row>
     <row r="150" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="76"/>
-      <c r="B150" s="77" t="s">
+      <c r="A150" s="77"/>
+      <c r="B150" s="78" t="s">
         <v>509</v>
       </c>
-      <c r="C150" s="78" t="s">
+      <c r="C150" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="D150" s="78" t="s">
+      <c r="D150" s="79" t="s">
         <v>510</v>
       </c>
-      <c r="E150" s="78"/>
-      <c r="F150" s="79"/>
+      <c r="E150" s="79"/>
+      <c r="F150" s="80"/>
     </row>
     <row r="151" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="76"/>
-      <c r="B151" s="81" t="s">
+      <c r="A151" s="77"/>
+      <c r="B151" s="82" t="s">
         <v>511</v>
       </c>
-      <c r="C151" s="82" t="s">
+      <c r="C151" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D151" s="82" t="s">
+      <c r="D151" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="E151" s="82"/>
-      <c r="F151" s="83"/>
+      <c r="E151" s="83"/>
+      <c r="F151" s="84"/>
     </row>
     <row r="152" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="76"/>
-      <c r="B152" s="81" t="s">
+      <c r="A152" s="77"/>
+      <c r="B152" s="82" t="s">
         <v>513</v>
       </c>
-      <c r="C152" s="82" t="s">
+      <c r="C152" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D152" s="82" t="s">
+      <c r="D152" s="83" t="s">
         <v>514</v>
       </c>
-      <c r="E152" s="82"/>
-      <c r="F152" s="83"/>
+      <c r="E152" s="83"/>
+      <c r="F152" s="84"/>
     </row>
     <row r="153" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="76"/>
-      <c r="B153" s="81" t="s">
+      <c r="A153" s="77"/>
+      <c r="B153" s="82" t="s">
         <v>515</v>
       </c>
-      <c r="C153" s="82" t="s">
+      <c r="C153" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D153" s="82" t="s">
+      <c r="D153" s="83" t="s">
         <v>516</v>
       </c>
-      <c r="E153" s="82"/>
-      <c r="F153" s="83"/>
+      <c r="E153" s="83"/>
+      <c r="F153" s="84"/>
     </row>
     <row r="154" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="76"/>
-      <c r="B154" s="81" t="s">
+      <c r="A154" s="77"/>
+      <c r="B154" s="82" t="s">
         <v>517</v>
       </c>
-      <c r="C154" s="82" t="s">
+      <c r="C154" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D154" s="82" t="s">
+      <c r="D154" s="83" t="s">
         <v>518</v>
       </c>
-      <c r="E154" s="82"/>
-      <c r="F154" s="83"/>
+      <c r="E154" s="83"/>
+      <c r="F154" s="84"/>
     </row>
     <row r="155" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="76"/>
-      <c r="B155" s="81" t="s">
+      <c r="A155" s="77"/>
+      <c r="B155" s="82" t="s">
         <v>519</v>
       </c>
-      <c r="C155" s="82" t="s">
+      <c r="C155" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D155" s="82" t="s">
+      <c r="D155" s="83" t="s">
         <v>520</v>
       </c>
-      <c r="E155" s="82"/>
-      <c r="F155" s="83"/>
+      <c r="E155" s="83"/>
+      <c r="F155" s="84"/>
     </row>
     <row r="156" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="76"/>
-      <c r="B156" s="81" t="s">
+      <c r="A156" s="77"/>
+      <c r="B156" s="82" t="s">
         <v>521</v>
       </c>
-      <c r="C156" s="82" t="s">
+      <c r="C156" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D156" s="82" t="s">
+      <c r="D156" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E156" s="82"/>
-      <c r="F156" s="83"/>
+      <c r="E156" s="83"/>
+      <c r="F156" s="84"/>
     </row>
     <row r="157" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="76"/>
-      <c r="B157" s="81" t="s">
+      <c r="A157" s="77"/>
+      <c r="B157" s="82" t="s">
         <v>523</v>
       </c>
-      <c r="C157" s="82" t="s">
+      <c r="C157" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D157" s="82" t="s">
+      <c r="D157" s="83" t="s">
         <v>524</v>
       </c>
-      <c r="E157" s="82"/>
-      <c r="F157" s="83"/>
+      <c r="E157" s="83"/>
+      <c r="F157" s="84"/>
     </row>
     <row r="158" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="76"/>
-      <c r="B158" s="81" t="s">
+      <c r="A158" s="77"/>
+      <c r="B158" s="82" t="s">
         <v>525</v>
       </c>
-      <c r="C158" s="82" t="s">
+      <c r="C158" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D158" s="82" t="s">
+      <c r="D158" s="83" t="s">
         <v>526</v>
       </c>
-      <c r="E158" s="82"/>
-      <c r="F158" s="83"/>
+      <c r="E158" s="83"/>
+      <c r="F158" s="84"/>
     </row>
     <row r="159" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="76"/>
-      <c r="B159" s="81" t="s">
+      <c r="A159" s="77"/>
+      <c r="B159" s="82" t="s">
         <v>527</v>
       </c>
-      <c r="C159" s="82" t="s">
+      <c r="C159" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D159" s="82" t="s">
+      <c r="D159" s="83" t="s">
         <v>528</v>
       </c>
-      <c r="E159" s="82"/>
-      <c r="F159" s="83"/>
+      <c r="E159" s="83"/>
+      <c r="F159" s="84"/>
     </row>
     <row r="160" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="76"/>
-      <c r="B160" s="81" t="s">
+      <c r="A160" s="77"/>
+      <c r="B160" s="82" t="s">
         <v>529</v>
       </c>
-      <c r="C160" s="82" t="s">
+      <c r="C160" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D160" s="82" t="s">
+      <c r="D160" s="83" t="s">
         <v>530</v>
       </c>
-      <c r="E160" s="82"/>
-      <c r="F160" s="83"/>
+      <c r="E160" s="83"/>
+      <c r="F160" s="84"/>
     </row>
     <row r="161" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="76"/>
-      <c r="B161" s="81" t="s">
+      <c r="A161" s="77"/>
+      <c r="B161" s="82" t="s">
         <v>531</v>
       </c>
-      <c r="C161" s="82" t="s">
+      <c r="C161" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D161" s="82" t="s">
+      <c r="D161" s="83" t="s">
         <v>532</v>
       </c>
-      <c r="E161" s="82"/>
-      <c r="F161" s="83"/>
+      <c r="E161" s="83"/>
+      <c r="F161" s="84"/>
     </row>
     <row r="162" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="76"/>
-      <c r="B162" s="81" t="s">
+      <c r="A162" s="77"/>
+      <c r="B162" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="C162" s="82" t="s">
+      <c r="C162" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D162" s="82" t="s">
+      <c r="D162" s="83" t="s">
         <v>534</v>
       </c>
-      <c r="E162" s="82"/>
-      <c r="F162" s="83"/>
+      <c r="E162" s="83"/>
+      <c r="F162" s="84"/>
     </row>
     <row r="163" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="76"/>
-      <c r="B163" s="81" t="s">
+      <c r="A163" s="77"/>
+      <c r="B163" s="82" t="s">
         <v>535</v>
       </c>
-      <c r="C163" s="82" t="s">
+      <c r="C163" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D163" s="82" t="s">
+      <c r="D163" s="83" t="s">
         <v>536</v>
       </c>
-      <c r="E163" s="82" t="n">
+      <c r="E163" s="83" t="n">
         <v>7</v>
       </c>
-      <c r="F163" s="83" t="s">
+      <c r="F163" s="84" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="76"/>
-      <c r="B164" s="81" t="s">
+      <c r="A164" s="77"/>
+      <c r="B164" s="82" t="s">
         <v>538</v>
       </c>
-      <c r="C164" s="82" t="s">
+      <c r="C164" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D164" s="82" t="s">
+      <c r="D164" s="83" t="s">
         <v>539</v>
       </c>
-      <c r="E164" s="82" t="n">
+      <c r="E164" s="83" t="n">
         <v>13</v>
       </c>
-      <c r="F164" s="83" t="s">
+      <c r="F164" s="84" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="76"/>
-      <c r="B165" s="81" t="s">
+      <c r="A165" s="77"/>
+      <c r="B165" s="82" t="s">
         <v>541</v>
       </c>
-      <c r="C165" s="82" t="s">
+      <c r="C165" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D165" s="82" t="s">
+      <c r="D165" s="83" t="s">
         <v>542</v>
       </c>
-      <c r="E165" s="82" t="n">
+      <c r="E165" s="83" t="n">
         <v>6</v>
       </c>
-      <c r="F165" s="83" t="s">
+      <c r="F165" s="84" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="76"/>
-      <c r="B166" s="81" t="s">
+      <c r="A166" s="77"/>
+      <c r="B166" s="82" t="s">
         <v>544</v>
       </c>
-      <c r="C166" s="82" t="s">
+      <c r="C166" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D166" s="82" t="s">
+      <c r="D166" s="83" t="s">
         <v>545</v>
       </c>
-      <c r="E166" s="82" t="n">
+      <c r="E166" s="83" t="n">
         <v>5</v>
       </c>
-      <c r="F166" s="83" t="s">
+      <c r="F166" s="84" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="76"/>
-      <c r="B167" s="81" t="s">
+      <c r="A167" s="77"/>
+      <c r="B167" s="82" t="s">
         <v>547</v>
       </c>
-      <c r="C167" s="82" t="s">
+      <c r="C167" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D167" s="82" t="s">
+      <c r="D167" s="83" t="s">
         <v>548</v>
       </c>
-      <c r="E167" s="82"/>
-      <c r="F167" s="83" t="s">
+      <c r="E167" s="83"/>
+      <c r="F167" s="84" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="76"/>
-      <c r="B168" s="81" t="s">
+      <c r="A168" s="77"/>
+      <c r="B168" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="C168" s="82" t="s">
+      <c r="C168" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D168" s="82" t="s">
+      <c r="D168" s="83" t="s">
         <v>551</v>
       </c>
-      <c r="E168" s="82"/>
-      <c r="F168" s="83" t="s">
+      <c r="E168" s="83"/>
+      <c r="F168" s="84" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="76"/>
-      <c r="B169" s="81" t="s">
+      <c r="A169" s="77"/>
+      <c r="B169" s="82" t="s">
         <v>553</v>
       </c>
-      <c r="C169" s="82" t="s">
+      <c r="C169" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D169" s="82" t="s">
+      <c r="D169" s="83" t="s">
         <v>554</v>
       </c>
-      <c r="E169" s="82"/>
-      <c r="F169" s="83" t="s">
+      <c r="E169" s="83"/>
+      <c r="F169" s="84" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="76"/>
-      <c r="B170" s="81" t="s">
+      <c r="A170" s="77"/>
+      <c r="B170" s="82" t="s">
         <v>556</v>
       </c>
-      <c r="C170" s="82" t="s">
+      <c r="C170" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D170" s="82"/>
-      <c r="E170" s="82" t="n">
+      <c r="D170" s="83"/>
+      <c r="E170" s="83" t="n">
         <v>32</v>
       </c>
-      <c r="F170" s="83" t="s">
+      <c r="F170" s="84" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="76"/>
-      <c r="B171" s="81" t="s">
+      <c r="A171" s="77"/>
+      <c r="B171" s="82" t="s">
         <v>558</v>
       </c>
-      <c r="C171" s="82" t="s">
+      <c r="C171" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D171" s="82"/>
-      <c r="E171" s="82" t="n">
+      <c r="D171" s="83"/>
+      <c r="E171" s="83" t="n">
         <v>31</v>
       </c>
-      <c r="F171" s="83" t="s">
+      <c r="F171" s="84" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="76"/>
-      <c r="B172" s="81" t="s">
+      <c r="A172" s="77"/>
+      <c r="B172" s="82" t="s">
         <v>560</v>
       </c>
-      <c r="C172" s="82" t="s">
+      <c r="C172" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D172" s="82" t="s">
+      <c r="D172" s="83" t="s">
         <v>561</v>
       </c>
-      <c r="E172" s="82"/>
-      <c r="F172" s="83" t="s">
+      <c r="E172" s="83"/>
+      <c r="F172" s="84" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="76"/>
-      <c r="B173" s="81" t="s">
+      <c r="A173" s="77"/>
+      <c r="B173" s="82" t="s">
         <v>563</v>
       </c>
-      <c r="C173" s="82" t="s">
+      <c r="C173" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D173" s="82" t="s">
+      <c r="D173" s="83" t="s">
         <v>564</v>
       </c>
-      <c r="E173" s="82"/>
-      <c r="F173" s="83" t="s">
+      <c r="E173" s="83"/>
+      <c r="F173" s="84" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="76"/>
-      <c r="B174" s="81" t="s">
+      <c r="A174" s="77"/>
+      <c r="B174" s="82" t="s">
         <v>566</v>
       </c>
-      <c r="C174" s="82" t="s">
+      <c r="C174" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D174" s="82"/>
-      <c r="E174" s="82" t="n">
+      <c r="D174" s="83"/>
+      <c r="E174" s="83" t="n">
         <v>29</v>
       </c>
-      <c r="F174" s="83" t="s">
+      <c r="F174" s="84" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="76"/>
-      <c r="B175" s="84" t="s">
+      <c r="A175" s="77"/>
+      <c r="B175" s="85" t="s">
         <v>568</v>
       </c>
-      <c r="C175" s="85" t="s">
+      <c r="C175" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D175" s="85" t="s">
+      <c r="D175" s="86" t="s">
         <v>569</v>
       </c>
-      <c r="E175" s="85"/>
-      <c r="F175" s="86"/>
+      <c r="E175" s="86"/>
+      <c r="F175" s="87"/>
     </row>
     <row r="176" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="76"/>
-      <c r="B176" s="84" t="s">
+      <c r="A176" s="77"/>
+      <c r="B176" s="85" t="s">
         <v>570</v>
       </c>
-      <c r="C176" s="85" t="s">
+      <c r="C176" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D176" s="85" t="s">
+      <c r="D176" s="86" t="s">
         <v>571</v>
       </c>
-      <c r="E176" s="85"/>
-      <c r="F176" s="86"/>
+      <c r="E176" s="86"/>
+      <c r="F176" s="87"/>
     </row>
     <row r="177" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="76"/>
-      <c r="B177" s="84" t="s">
+      <c r="A177" s="77"/>
+      <c r="B177" s="85" t="s">
         <v>572</v>
       </c>
-      <c r="C177" s="85" t="s">
+      <c r="C177" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D177" s="85" t="s">
+      <c r="D177" s="86" t="s">
         <v>573</v>
       </c>
-      <c r="E177" s="85"/>
-      <c r="F177" s="86"/>
+      <c r="E177" s="86"/>
+      <c r="F177" s="87"/>
     </row>
     <row r="178" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="76"/>
-      <c r="B178" s="84" t="s">
+      <c r="A178" s="77"/>
+      <c r="B178" s="85" t="s">
         <v>574</v>
       </c>
-      <c r="C178" s="85" t="s">
+      <c r="C178" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D178" s="85" t="s">
+      <c r="D178" s="86" t="s">
         <v>575</v>
       </c>
-      <c r="E178" s="85"/>
-      <c r="F178" s="86"/>
+      <c r="E178" s="86"/>
+      <c r="F178" s="87"/>
     </row>
     <row r="179" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="76"/>
-      <c r="B179" s="84" t="s">
+      <c r="A179" s="77"/>
+      <c r="B179" s="85" t="s">
         <v>576</v>
       </c>
-      <c r="C179" s="85" t="s">
+      <c r="C179" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D179" s="85" t="s">
+      <c r="D179" s="86" t="s">
         <v>577</v>
       </c>
-      <c r="E179" s="85"/>
-      <c r="F179" s="86"/>
+      <c r="E179" s="86"/>
+      <c r="F179" s="87"/>
     </row>
     <row r="180" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="76"/>
-      <c r="B180" s="84" t="s">
+      <c r="A180" s="77"/>
+      <c r="B180" s="85" t="s">
         <v>578</v>
       </c>
-      <c r="C180" s="85" t="s">
+      <c r="C180" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D180" s="85" t="s">
+      <c r="D180" s="86" t="s">
         <v>579</v>
       </c>
-      <c r="E180" s="85"/>
-      <c r="F180" s="86"/>
+      <c r="E180" s="86"/>
+      <c r="F180" s="87"/>
     </row>
     <row r="181" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="76"/>
-      <c r="B181" s="84" t="s">
+      <c r="A181" s="77"/>
+      <c r="B181" s="85" t="s">
         <v>580</v>
       </c>
-      <c r="C181" s="85" t="s">
+      <c r="C181" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D181" s="85" t="s">
+      <c r="D181" s="86" t="s">
         <v>581</v>
       </c>
-      <c r="E181" s="85"/>
-      <c r="F181" s="86"/>
+      <c r="E181" s="86"/>
+      <c r="F181" s="87"/>
     </row>
     <row r="182" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="80"/>
-      <c r="B182" s="84" t="s">
+      <c r="A182" s="81"/>
+      <c r="B182" s="85" t="s">
         <v>582</v>
       </c>
-      <c r="C182" s="85" t="s">
+      <c r="C182" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D182" s="85" t="s">
+      <c r="D182" s="86" t="s">
         <v>583</v>
       </c>
-      <c r="E182" s="85"/>
-      <c r="F182" s="86"/>
+      <c r="E182" s="86"/>
+      <c r="F182" s="87"/>
     </row>
     <row r="183" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="80"/>
-      <c r="B183" s="84" t="s">
+      <c r="A183" s="81"/>
+      <c r="B183" s="85" t="s">
         <v>584</v>
       </c>
-      <c r="C183" s="85" t="s">
+      <c r="C183" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D183" s="85" t="s">
+      <c r="D183" s="86" t="s">
         <v>585</v>
       </c>
-      <c r="E183" s="85"/>
-      <c r="F183" s="86"/>
+      <c r="E183" s="86"/>
+      <c r="F183" s="87"/>
     </row>
     <row r="184" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="80"/>
-      <c r="B184" s="84" t="s">
+      <c r="A184" s="81"/>
+      <c r="B184" s="85" t="s">
         <v>586</v>
       </c>
-      <c r="C184" s="85" t="s">
+      <c r="C184" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D184" s="85" t="s">
+      <c r="D184" s="86" t="s">
         <v>587</v>
       </c>
-      <c r="E184" s="85"/>
-      <c r="F184" s="86"/>
+      <c r="E184" s="86"/>
+      <c r="F184" s="87"/>
     </row>
     <row r="185" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="80"/>
-      <c r="B185" s="84" t="s">
+      <c r="A185" s="81"/>
+      <c r="B185" s="85" t="s">
         <v>588</v>
       </c>
-      <c r="C185" s="85" t="s">
+      <c r="C185" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D185" s="85" t="s">
+      <c r="D185" s="86" t="s">
         <v>589</v>
       </c>
-      <c r="E185" s="85"/>
-      <c r="F185" s="86"/>
+      <c r="E185" s="86"/>
+      <c r="F185" s="87"/>
     </row>
     <row r="186" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="80"/>
-      <c r="B186" s="84" t="s">
+      <c r="A186" s="81"/>
+      <c r="B186" s="85" t="s">
         <v>590</v>
       </c>
-      <c r="C186" s="85" t="s">
+      <c r="C186" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="D186" s="85"/>
-      <c r="E186" s="85" t="n">
+      <c r="D186" s="86"/>
+      <c r="E186" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="F186" s="86"/>
+      <c r="F186" s="87"/>
     </row>
     <row r="187" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="80"/>
-      <c r="B187" s="87"/>
-      <c r="C187" s="88"/>
-      <c r="D187" s="88"/>
-      <c r="E187" s="88"/>
-      <c r="F187" s="89"/>
+      <c r="A187" s="81"/>
+      <c r="B187" s="88"/>
+      <c r="C187" s="89"/>
+      <c r="D187" s="89"/>
+      <c r="E187" s="89"/>
+      <c r="F187" s="90"/>
     </row>
     <row r="188" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="80"/>
-      <c r="B188" s="90" t="s">
+      <c r="A188" s="81"/>
+      <c r="B188" s="91" t="s">
         <v>591</v>
       </c>
-      <c r="C188" s="91" t="s">
+      <c r="C188" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="D188" s="91" t="s">
+      <c r="D188" s="92" t="s">
         <v>313</v>
       </c>
-      <c r="E188" s="91"/>
-      <c r="F188" s="92"/>
+      <c r="E188" s="92"/>
+      <c r="F188" s="93"/>
     </row>
     <row r="189" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="80"/>
-      <c r="B189" s="90" t="s">
+      <c r="A189" s="81"/>
+      <c r="B189" s="91" t="s">
         <v>592</v>
       </c>
-      <c r="C189" s="91" t="s">
+      <c r="C189" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="D189" s="91" t="s">
+      <c r="D189" s="92" t="s">
         <v>593</v>
       </c>
-      <c r="E189" s="91"/>
-      <c r="F189" s="92"/>
+      <c r="E189" s="92"/>
+      <c r="F189" s="93"/>
     </row>
     <row r="190" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="80"/>
-      <c r="B190" s="90" t="s">
+      <c r="A190" s="81"/>
+      <c r="B190" s="91" t="s">
         <v>594</v>
       </c>
-      <c r="C190" s="91" t="s">
+      <c r="C190" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="D190" s="91" t="s">
+      <c r="D190" s="92" t="s">
         <v>595</v>
       </c>
-      <c r="E190" s="91"/>
-      <c r="F190" s="92"/>
+      <c r="E190" s="92"/>
+      <c r="F190" s="93"/>
     </row>
     <row r="191" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="93"/>
-      <c r="B191" s="94" t="s">
+      <c r="A191" s="94"/>
+      <c r="B191" s="95" t="s">
         <v>596</v>
       </c>
-      <c r="C191" s="95" t="s">
+      <c r="C191" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="D191" s="95" t="s">
+      <c r="D191" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="E191" s="95"/>
-      <c r="F191" s="96"/>
+      <c r="E191" s="96"/>
+      <c r="F191" s="97"/>
     </row>
     <row r="192" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="93"/>
-      <c r="B192" s="94" t="s">
+      <c r="A192" s="94"/>
+      <c r="B192" s="95" t="s">
         <v>597</v>
       </c>
-      <c r="C192" s="95" t="s">
+      <c r="C192" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="D192" s="95" t="s">
+      <c r="D192" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="E192" s="95"/>
-      <c r="F192" s="96"/>
+      <c r="E192" s="96"/>
+      <c r="F192" s="97"/>
     </row>
     <row r="193" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="93"/>
-      <c r="B193" s="97" t="s">
+      <c r="A193" s="94"/>
+      <c r="B193" s="98" t="s">
         <v>598</v>
       </c>
-      <c r="C193" s="98" t="s">
+      <c r="C193" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="D193" s="98" t="s">
+      <c r="D193" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="E193" s="98"/>
-      <c r="F193" s="99"/>
+      <c r="E193" s="99"/>
+      <c r="F193" s="100"/>
     </row>
     <row r="194" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="93"/>
-      <c r="B194" s="97" t="s">
+      <c r="A194" s="94"/>
+      <c r="B194" s="98" t="s">
         <v>599</v>
       </c>
-      <c r="C194" s="98" t="s">
+      <c r="C194" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="D194" s="98" t="s">
+      <c r="D194" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="E194" s="98"/>
-      <c r="F194" s="99"/>
+      <c r="E194" s="99"/>
+      <c r="F194" s="100"/>
     </row>
     <row r="195" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="93"/>
-      <c r="B195" s="100"/>
-      <c r="C195" s="101"/>
-      <c r="D195" s="102"/>
-      <c r="E195" s="101"/>
-      <c r="F195" s="102"/>
+      <c r="A195" s="94"/>
+      <c r="B195" s="101"/>
+      <c r="C195" s="102"/>
+      <c r="D195" s="103"/>
+      <c r="E195" s="102"/>
+      <c r="F195" s="103"/>
     </row>
     <row r="196" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="93"/>
-      <c r="B196" s="100"/>
-      <c r="C196" s="101"/>
-      <c r="D196" s="102"/>
-      <c r="E196" s="101"/>
-      <c r="F196" s="102"/>
+      <c r="A196" s="94"/>
+      <c r="B196" s="101"/>
+      <c r="C196" s="102"/>
+      <c r="D196" s="103"/>
+      <c r="E196" s="102"/>
+      <c r="F196" s="103"/>
     </row>
     <row r="197" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="93"/>
-      <c r="B197" s="100"/>
-      <c r="C197" s="101"/>
-      <c r="D197" s="102"/>
-      <c r="E197" s="101"/>
-      <c r="F197" s="102"/>
+      <c r="A197" s="94"/>
+      <c r="B197" s="101"/>
+      <c r="C197" s="102"/>
+      <c r="D197" s="103"/>
+      <c r="E197" s="102"/>
+      <c r="F197" s="103"/>
     </row>
     <row r="198" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="93"/>
-      <c r="B198" s="100"/>
-      <c r="C198" s="101"/>
-      <c r="D198" s="102"/>
-      <c r="E198" s="101"/>
-      <c r="F198" s="102"/>
+      <c r="A198" s="94"/>
+      <c r="B198" s="101"/>
+      <c r="C198" s="102"/>
+      <c r="D198" s="103"/>
+      <c r="E198" s="102"/>
+      <c r="F198" s="103"/>
     </row>
     <row r="199" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="80"/>
-      <c r="B199" s="87"/>
-      <c r="C199" s="88"/>
-      <c r="D199" s="89"/>
-      <c r="E199" s="88"/>
-      <c r="F199" s="89"/>
+      <c r="A199" s="81"/>
+      <c r="B199" s="88"/>
+      <c r="C199" s="89"/>
+      <c r="D199" s="90"/>
+      <c r="E199" s="89"/>
+      <c r="F199" s="90"/>
     </row>
     <row r="200" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="80"/>
-      <c r="B200" s="87"/>
-      <c r="C200" s="88"/>
-      <c r="D200" s="89"/>
-      <c r="E200" s="88"/>
-      <c r="F200" s="89"/>
+      <c r="A200" s="81"/>
+      <c r="B200" s="88"/>
+      <c r="C200" s="89"/>
+      <c r="D200" s="90"/>
+      <c r="E200" s="89"/>
+      <c r="F200" s="90"/>
     </row>
     <row r="201" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="80"/>
-      <c r="B201" s="87"/>
-      <c r="C201" s="88"/>
-      <c r="D201" s="89"/>
-      <c r="E201" s="88"/>
-      <c r="F201" s="89"/>
+      <c r="A201" s="81"/>
+      <c r="B201" s="88"/>
+      <c r="C201" s="89"/>
+      <c r="D201" s="90"/>
+      <c r="E201" s="89"/>
+      <c r="F201" s="90"/>
     </row>
     <row r="202" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="80"/>
-      <c r="B202" s="87"/>
-      <c r="C202" s="88"/>
-      <c r="D202" s="89"/>
-      <c r="E202" s="88"/>
-      <c r="F202" s="89"/>
+      <c r="A202" s="81"/>
+      <c r="B202" s="88"/>
+      <c r="C202" s="89"/>
+      <c r="D202" s="90"/>
+      <c r="E202" s="89"/>
+      <c r="F202" s="90"/>
     </row>
     <row r="203" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="80"/>
-      <c r="B203" s="87"/>
-      <c r="C203" s="88"/>
-      <c r="D203" s="89"/>
-      <c r="E203" s="88"/>
-      <c r="F203" s="89"/>
+      <c r="A203" s="81"/>
+      <c r="B203" s="88"/>
+      <c r="C203" s="89"/>
+      <c r="D203" s="90"/>
+      <c r="E203" s="89"/>
+      <c r="F203" s="90"/>
     </row>
     <row r="204" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="80"/>
-      <c r="B204" s="87"/>
-      <c r="C204" s="88"/>
-      <c r="D204" s="89"/>
-      <c r="E204" s="88"/>
-      <c r="F204" s="89"/>
+      <c r="A204" s="81"/>
+      <c r="B204" s="88"/>
+      <c r="C204" s="89"/>
+      <c r="D204" s="90"/>
+      <c r="E204" s="89"/>
+      <c r="F204" s="90"/>
     </row>
     <row r="205" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="80"/>
-      <c r="B205" s="87"/>
-      <c r="C205" s="88"/>
-      <c r="D205" s="89"/>
-      <c r="E205" s="88"/>
-      <c r="F205" s="89"/>
+      <c r="A205" s="81"/>
+      <c r="B205" s="88"/>
+      <c r="C205" s="89"/>
+      <c r="D205" s="90"/>
+      <c r="E205" s="89"/>
+      <c r="F205" s="90"/>
     </row>
     <row r="206" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="80"/>
-      <c r="B206" s="87"/>
-      <c r="C206" s="88"/>
-      <c r="D206" s="89"/>
-      <c r="E206" s="88"/>
-      <c r="F206" s="89"/>
+      <c r="A206" s="81"/>
+      <c r="B206" s="88"/>
+      <c r="C206" s="89"/>
+      <c r="D206" s="90"/>
+      <c r="E206" s="89"/>
+      <c r="F206" s="90"/>
     </row>
     <row r="207" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="80"/>
-      <c r="B207" s="87"/>
-      <c r="C207" s="88"/>
-      <c r="D207" s="89"/>
-      <c r="E207" s="88"/>
-      <c r="F207" s="89"/>
+      <c r="A207" s="81"/>
+      <c r="B207" s="88"/>
+      <c r="C207" s="89"/>
+      <c r="D207" s="90"/>
+      <c r="E207" s="89"/>
+      <c r="F207" s="90"/>
     </row>
     <row r="208" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="80"/>
-      <c r="B208" s="87"/>
-      <c r="C208" s="88"/>
-      <c r="D208" s="89"/>
-      <c r="E208" s="88"/>
-      <c r="F208" s="89"/>
+      <c r="A208" s="81"/>
+      <c r="B208" s="88"/>
+      <c r="C208" s="89"/>
+      <c r="D208" s="90"/>
+      <c r="E208" s="89"/>
+      <c r="F208" s="90"/>
     </row>
     <row r="209" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="80"/>
-      <c r="B209" s="87"/>
-      <c r="C209" s="88"/>
-      <c r="D209" s="89"/>
-      <c r="E209" s="88"/>
-      <c r="F209" s="89"/>
+      <c r="A209" s="81"/>
+      <c r="B209" s="88"/>
+      <c r="C209" s="89"/>
+      <c r="D209" s="90"/>
+      <c r="E209" s="89"/>
+      <c r="F209" s="90"/>
     </row>
     <row r="210" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="80"/>
-      <c r="B210" s="87"/>
-      <c r="C210" s="88"/>
-      <c r="D210" s="89"/>
-      <c r="E210" s="88"/>
-      <c r="F210" s="89"/>
+      <c r="A210" s="81"/>
+      <c r="B210" s="88"/>
+      <c r="C210" s="89"/>
+      <c r="D210" s="90"/>
+      <c r="E210" s="89"/>
+      <c r="F210" s="90"/>
     </row>
     <row r="211" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="80"/>
-      <c r="B211" s="87"/>
-      <c r="C211" s="88"/>
-      <c r="D211" s="89"/>
-      <c r="E211" s="88"/>
-      <c r="F211" s="89"/>
+      <c r="A211" s="81"/>
+      <c r="B211" s="88"/>
+      <c r="C211" s="89"/>
+      <c r="D211" s="90"/>
+      <c r="E211" s="89"/>
+      <c r="F211" s="90"/>
     </row>
     <row r="212" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="80"/>
-      <c r="B212" s="87"/>
-      <c r="C212" s="88"/>
-      <c r="D212" s="89"/>
-      <c r="E212" s="88"/>
-      <c r="F212" s="89"/>
+      <c r="A212" s="81"/>
+      <c r="B212" s="88"/>
+      <c r="C212" s="89"/>
+      <c r="D212" s="90"/>
+      <c r="E212" s="89"/>
+      <c r="F212" s="90"/>
     </row>
     <row r="213" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="80"/>
-      <c r="B213" s="87"/>
-      <c r="C213" s="88"/>
-      <c r="D213" s="89"/>
-      <c r="E213" s="88"/>
-      <c r="F213" s="89"/>
+      <c r="A213" s="81"/>
+      <c r="B213" s="88"/>
+      <c r="C213" s="89"/>
+      <c r="D213" s="90"/>
+      <c r="E213" s="89"/>
+      <c r="F213" s="90"/>
     </row>
     <row r="214" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="80"/>
-      <c r="B214" s="87"/>
-      <c r="C214" s="88"/>
-      <c r="D214" s="89"/>
-      <c r="E214" s="88"/>
-      <c r="F214" s="89"/>
+      <c r="A214" s="81"/>
+      <c r="B214" s="88"/>
+      <c r="C214" s="89"/>
+      <c r="D214" s="90"/>
+      <c r="E214" s="89"/>
+      <c r="F214" s="90"/>
     </row>
     <row r="215" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="80"/>
-      <c r="B215" s="87"/>
-      <c r="C215" s="88"/>
-      <c r="D215" s="89"/>
-      <c r="E215" s="88"/>
-      <c r="F215" s="89"/>
+      <c r="A215" s="81"/>
+      <c r="B215" s="88"/>
+      <c r="C215" s="89"/>
+      <c r="D215" s="90"/>
+      <c r="E215" s="89"/>
+      <c r="F215" s="90"/>
     </row>
     <row r="216" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="80"/>
-      <c r="B216" s="87"/>
-      <c r="C216" s="88"/>
-      <c r="D216" s="89"/>
-      <c r="E216" s="88"/>
-      <c r="F216" s="89"/>
+      <c r="A216" s="81"/>
+      <c r="B216" s="88"/>
+      <c r="C216" s="89"/>
+      <c r="D216" s="90"/>
+      <c r="E216" s="89"/>
+      <c r="F216" s="90"/>
     </row>
     <row r="217" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="80"/>
-      <c r="B217" s="87"/>
-      <c r="C217" s="88"/>
-      <c r="D217" s="89"/>
-      <c r="E217" s="88"/>
-      <c r="F217" s="89"/>
+      <c r="A217" s="81"/>
+      <c r="B217" s="88"/>
+      <c r="C217" s="89"/>
+      <c r="D217" s="90"/>
+      <c r="E217" s="89"/>
+      <c r="F217" s="90"/>
     </row>
     <row r="218" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="80"/>
-      <c r="B218" s="87"/>
-      <c r="C218" s="88"/>
-      <c r="D218" s="89"/>
-      <c r="E218" s="88"/>
-      <c r="F218" s="89"/>
+      <c r="A218" s="81"/>
+      <c r="B218" s="88"/>
+      <c r="C218" s="89"/>
+      <c r="D218" s="90"/>
+      <c r="E218" s="89"/>
+      <c r="F218" s="90"/>
     </row>
     <row r="219" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="80"/>
-      <c r="B219" s="87"/>
-      <c r="C219" s="88"/>
-      <c r="D219" s="89"/>
-      <c r="E219" s="88"/>
-      <c r="F219" s="89"/>
+      <c r="A219" s="81"/>
+      <c r="B219" s="88"/>
+      <c r="C219" s="89"/>
+      <c r="D219" s="90"/>
+      <c r="E219" s="89"/>
+      <c r="F219" s="90"/>
     </row>
     <row r="220" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="80"/>
-      <c r="B220" s="87"/>
-      <c r="C220" s="88"/>
-      <c r="D220" s="89"/>
-      <c r="E220" s="88"/>
-      <c r="F220" s="89"/>
+      <c r="A220" s="81"/>
+      <c r="B220" s="88"/>
+      <c r="C220" s="89"/>
+      <c r="D220" s="90"/>
+      <c r="E220" s="89"/>
+      <c r="F220" s="90"/>
     </row>
     <row r="221" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="80"/>
-      <c r="B221" s="87"/>
-      <c r="C221" s="88"/>
-      <c r="D221" s="89"/>
-      <c r="E221" s="88"/>
-      <c r="F221" s="89"/>
+      <c r="A221" s="81"/>
+      <c r="B221" s="88"/>
+      <c r="C221" s="89"/>
+      <c r="D221" s="90"/>
+      <c r="E221" s="89"/>
+      <c r="F221" s="90"/>
     </row>
     <row r="222" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="80"/>
-      <c r="B222" s="87"/>
-      <c r="C222" s="88"/>
-      <c r="D222" s="89"/>
-      <c r="E222" s="88"/>
-      <c r="F222" s="89"/>
+      <c r="A222" s="81"/>
+      <c r="B222" s="88"/>
+      <c r="C222" s="89"/>
+      <c r="D222" s="90"/>
+      <c r="E222" s="89"/>
+      <c r="F222" s="90"/>
     </row>
     <row r="223" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="80"/>
-      <c r="B223" s="87"/>
-      <c r="C223" s="88"/>
-      <c r="D223" s="89"/>
-      <c r="E223" s="88"/>
-      <c r="F223" s="89"/>
+      <c r="A223" s="81"/>
+      <c r="B223" s="88"/>
+      <c r="C223" s="89"/>
+      <c r="D223" s="90"/>
+      <c r="E223" s="89"/>
+      <c r="F223" s="90"/>
     </row>
     <row r="224" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="80"/>
-      <c r="B224" s="87"/>
-      <c r="C224" s="88"/>
-      <c r="D224" s="89"/>
-      <c r="E224" s="88"/>
-      <c r="F224" s="89"/>
+      <c r="A224" s="81"/>
+      <c r="B224" s="88"/>
+      <c r="C224" s="89"/>
+      <c r="D224" s="90"/>
+      <c r="E224" s="89"/>
+      <c r="F224" s="90"/>
     </row>
     <row r="225" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="80"/>
-      <c r="B225" s="87"/>
-      <c r="C225" s="88"/>
-      <c r="D225" s="89"/>
-      <c r="E225" s="88"/>
-      <c r="F225" s="89"/>
+      <c r="A225" s="81"/>
+      <c r="B225" s="88"/>
+      <c r="C225" s="89"/>
+      <c r="D225" s="90"/>
+      <c r="E225" s="89"/>
+      <c r="F225" s="90"/>
     </row>
     <row r="226" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="80"/>
-      <c r="B226" s="103" t="s">
+      <c r="A226" s="81"/>
+      <c r="B226" s="104" t="s">
         <v>600</v>
       </c>
-      <c r="C226" s="104" t="s">
+      <c r="C226" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="D226" s="104" t="s">
+      <c r="D226" s="105" t="s">
         <v>601</v>
       </c>
-      <c r="E226" s="104" t="n">
+      <c r="E226" s="105" t="n">
         <v>14</v>
       </c>
-      <c r="F226" s="105"/>
+      <c r="F226" s="106"/>
     </row>
     <row r="227" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
-      <c r="B227" s="106" t="s">
+      <c r="B227" s="107" t="s">
         <v>602</v>
       </c>
-      <c r="C227" s="107"/>
-      <c r="D227" s="107" t="s">
+      <c r="C227" s="108"/>
+      <c r="D227" s="108" t="s">
         <v>603</v>
       </c>
-      <c r="E227" s="107" t="n">
+      <c r="E227" s="108" t="n">
         <v>18</v>
       </c>
-      <c r="F227" s="108" t="s">
+      <c r="F227" s="109" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
-      <c r="B228" s="106" t="s">
+      <c r="B228" s="107" t="s">
         <v>605</v>
       </c>
-      <c r="C228" s="107" t="s">
+      <c r="C228" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="D228" s="107" t="s">
+      <c r="D228" s="108" t="s">
         <v>606</v>
       </c>
-      <c r="E228" s="107" t="n">
+      <c r="E228" s="108" t="n">
         <v>19</v>
       </c>
-      <c r="F228" s="108"/>
+      <c r="F228" s="109"/>
     </row>
     <row r="229" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
-      <c r="B229" s="106" t="s">
+      <c r="B229" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="C229" s="107" t="s">
+      <c r="C229" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="D229" s="107" t="s">
+      <c r="D229" s="108" t="s">
         <v>607</v>
       </c>
-      <c r="E229" s="107" t="n">
+      <c r="E229" s="108" t="n">
         <v>23</v>
       </c>
-      <c r="F229" s="108"/>
+      <c r="F229" s="109"/>
     </row>
     <row r="230" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="2"/>
-      <c r="B230" s="106" t="s">
+      <c r="B230" s="107" t="s">
         <v>412</v>
       </c>
-      <c r="C230" s="107" t="s">
+      <c r="C230" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="D230" s="107" t="s">
+      <c r="D230" s="108" t="s">
         <v>608</v>
       </c>
-      <c r="E230" s="107" t="n">
+      <c r="E230" s="108" t="n">
         <v>24</v>
       </c>
-      <c r="F230" s="108"/>
+      <c r="F230" s="109"/>
     </row>
     <row r="231" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
-      <c r="B231" s="109" t="s">
+      <c r="B231" s="110" t="s">
         <v>609</v>
       </c>
-      <c r="C231" s="110" t="s">
+      <c r="C231" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="D231" s="111"/>
-      <c r="E231" s="110" t="n">
+      <c r="D231" s="112"/>
+      <c r="E231" s="111" t="n">
         <v>10</v>
       </c>
-      <c r="F231" s="111" t="s">
+      <c r="F231" s="112" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
-      <c r="B232" s="112" t="s">
+      <c r="B232" s="113" t="s">
         <v>611</v>
       </c>
-      <c r="C232" s="113" t="s">
+      <c r="C232" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="D232" s="114"/>
-      <c r="E232" s="113" t="n">
+      <c r="D232" s="115"/>
+      <c r="E232" s="114" t="n">
         <v>17</v>
       </c>
-      <c r="F232" s="114" t="s">
+      <c r="F232" s="115" t="s">
         <v>612</v>
       </c>
     </row>
@@ -14150,11 +14516,11 @@
   </sheetPr>
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
@@ -14977,30 +15343,30 @@
   </sheetPr>
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F112" activeCellId="0" sqref="F112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="115" width="25.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="115" width="12.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="115" width="13.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="115" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="116" width="25.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="116" width="12.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="116" width="13.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="116" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="115" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="116" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="116"/>
-      <c r="B1" s="115" t="s">
+      <c r="A1" s="117"/>
+      <c r="B1" s="116" t="s">
         <v>613</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="116" t="s">
         <v>614</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="116" t="s">
         <v>615</v>
       </c>
     </row>
@@ -15008,21 +15374,21 @@
       <c r="A2" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="115" t="n">
+      <c r="B2" s="116" t="n">
         <v>35726097.0261</v>
       </c>
-      <c r="C2" s="115" t="n">
+      <c r="C2" s="116" t="n">
         <v>16239900.782</v>
       </c>
-      <c r="D2" s="115" t="n">
+      <c r="D2" s="116" t="n">
         <f aca="false">B2+C2</f>
         <v>51965997.8081</v>
       </c>
-      <c r="H2" s="115"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="J2" s="115" t="n">
+      <c r="J2" s="116" t="n">
         <v>95999860.2049</v>
       </c>
     </row>
@@ -15030,21 +15396,21 @@
       <c r="A3" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="115" t="n">
+      <c r="B3" s="116" t="n">
         <v>35727195.1425</v>
       </c>
-      <c r="C3" s="115" t="n">
+      <c r="C3" s="116" t="n">
         <v>21589139.5976</v>
       </c>
-      <c r="D3" s="115" t="n">
+      <c r="D3" s="116" t="n">
         <f aca="false">B3+C3</f>
         <v>57316334.7401</v>
       </c>
-      <c r="H3" s="115"/>
+      <c r="H3" s="116"/>
       <c r="I3" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="J3" s="115" t="n">
+      <c r="J3" s="116" t="n">
         <v>94569000.4613</v>
       </c>
     </row>
@@ -15052,21 +15418,21 @@
       <c r="A4" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="115" t="n">
+      <c r="B4" s="116" t="n">
         <v>20816460.659</v>
       </c>
-      <c r="C4" s="115" t="n">
+      <c r="C4" s="116" t="n">
         <v>14748731.9575</v>
       </c>
-      <c r="D4" s="115" t="n">
+      <c r="D4" s="116" t="n">
         <f aca="false">B4+C4</f>
         <v>35565192.6165</v>
       </c>
-      <c r="H4" s="115"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="J4" s="115" t="n">
+      <c r="J4" s="116" t="n">
         <v>93940166.3117</v>
       </c>
     </row>
@@ -15074,21 +15440,21 @@
       <c r="A5" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="115" t="n">
+      <c r="B5" s="116" t="n">
         <v>18007221.8434</v>
       </c>
-      <c r="C5" s="115" t="n">
+      <c r="C5" s="116" t="n">
         <v>20097970.773</v>
       </c>
-      <c r="D5" s="115" t="n">
+      <c r="D5" s="116" t="n">
         <f aca="false">B5+C5</f>
         <v>38105192.6164</v>
       </c>
-      <c r="H5" s="115"/>
+      <c r="H5" s="116"/>
       <c r="I5" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="J5" s="115" t="n">
+      <c r="J5" s="116" t="n">
         <v>94510133.1769</v>
       </c>
     </row>
@@ -15096,21 +15462,21 @@
       <c r="A6" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="115" t="n">
+      <c r="B6" s="116" t="n">
         <v>20302835.8416</v>
       </c>
-      <c r="C6" s="115" t="n">
+      <c r="C6" s="116" t="n">
         <v>15262356.7748</v>
       </c>
-      <c r="D6" s="115" t="n">
+      <c r="D6" s="116" t="n">
         <f aca="false">B6+C6</f>
         <v>35565192.6164</v>
       </c>
-      <c r="H6" s="115"/>
+      <c r="H6" s="116"/>
       <c r="I6" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="J6" s="115" t="n">
+      <c r="J6" s="116" t="n">
         <v>88099538.181</v>
       </c>
     </row>
@@ -15118,21 +15484,21 @@
       <c r="A7" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="115" t="n">
+      <c r="B7" s="116" t="n">
         <v>17493597.0261</v>
       </c>
-      <c r="C7" s="115" t="n">
+      <c r="C7" s="116" t="n">
         <v>20611595.5904</v>
       </c>
-      <c r="D7" s="115" t="n">
+      <c r="D7" s="116" t="n">
         <f aca="false">B7+C7</f>
         <v>38105192.6165</v>
       </c>
-      <c r="H7" s="115"/>
+      <c r="H7" s="116"/>
       <c r="I7" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="J7" s="115" t="n">
+      <c r="J7" s="116" t="n">
         <v>89039527.594</v>
       </c>
     </row>
@@ -15140,21 +15506,21 @@
       <c r="A8" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="115" t="n">
+      <c r="B8" s="116" t="n">
         <v>19789211.0243</v>
       </c>
-      <c r="C8" s="115" t="n">
+      <c r="C8" s="116" t="n">
         <v>15775981.5922</v>
       </c>
-      <c r="D8" s="115" t="n">
+      <c r="D8" s="116" t="n">
         <f aca="false">B8+C8</f>
         <v>35565192.6165</v>
       </c>
-      <c r="H8" s="115"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="J8" s="115" t="n">
+      <c r="J8" s="116" t="n">
         <v>86329726.3452</v>
       </c>
     </row>
@@ -15162,21 +15528,21 @@
       <c r="A9" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="115" t="n">
+      <c r="B9" s="116" t="n">
         <v>16979972.2088</v>
       </c>
-      <c r="C9" s="115" t="n">
+      <c r="C9" s="116" t="n">
         <v>21125220.4077</v>
       </c>
-      <c r="D9" s="115" t="n">
+      <c r="D9" s="116" t="n">
         <f aca="false">B9+C9</f>
         <v>38105192.6165</v>
       </c>
-      <c r="H9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="J9" s="115" t="n">
+      <c r="J9" s="116" t="n">
         <v>84659758.3242</v>
       </c>
     </row>
@@ -15184,13 +15550,13 @@
       <c r="A10" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="115" t="n">
+      <c r="B10" s="116" t="n">
         <v>22052577.8619</v>
       </c>
-      <c r="C10" s="115" t="n">
+      <c r="C10" s="116" t="n">
         <v>13810227.958</v>
       </c>
-      <c r="D10" s="115" t="n">
+      <c r="D10" s="116" t="n">
         <f aca="false">B10+C10</f>
         <v>35862805.8199</v>
       </c>
@@ -15199,13 +15565,13 @@
       <c r="A11" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="115" t="n">
+      <c r="B11" s="116" t="n">
         <v>19249552.2498</v>
       </c>
-      <c r="C11" s="115" t="n">
+      <c r="C11" s="116" t="n">
         <v>19369556.7208</v>
       </c>
-      <c r="D11" s="115" t="n">
+      <c r="D11" s="116" t="n">
         <f aca="false">B11+C11</f>
         <v>38619108.9706</v>
       </c>
@@ -15214,13 +15580,13 @@
       <c r="A12" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="115" t="n">
+      <c r="B12" s="116" t="n">
         <v>21526526.6377</v>
       </c>
-      <c r="C12" s="115" t="n">
+      <c r="C12" s="116" t="n">
         <v>14336279.1822</v>
       </c>
-      <c r="D12" s="115" t="n">
+      <c r="D12" s="116" t="n">
         <f aca="false">B12+C12</f>
         <v>35862805.8199</v>
       </c>
@@ -15229,13 +15595,13 @@
       <c r="A13" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="115" t="n">
+      <c r="B13" s="116" t="n">
         <v>18723501.0256</v>
       </c>
-      <c r="C13" s="115" t="n">
+      <c r="C13" s="116" t="n">
         <v>19679304.7943</v>
       </c>
-      <c r="D13" s="115" t="n">
+      <c r="D13" s="116" t="n">
         <f aca="false">B13+C13</f>
         <v>38402805.8199</v>
       </c>
@@ -15244,13 +15610,13 @@
       <c r="A14" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="115" t="n">
+      <c r="B14" s="116" t="n">
         <v>18811667.0171</v>
       </c>
-      <c r="C14" s="115" t="n">
+      <c r="C14" s="116" t="n">
         <v>16753525.5994</v>
       </c>
-      <c r="D14" s="115" t="n">
+      <c r="D14" s="116" t="n">
         <f aca="false">B14+C14</f>
         <v>35565192.6165</v>
       </c>
@@ -15259,13 +15625,13 @@
       <c r="A15" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="115" t="n">
+      <c r="B15" s="116" t="n">
         <v>21000475.4135</v>
       </c>
-      <c r="C15" s="115" t="n">
+      <c r="C15" s="116" t="n">
         <v>14862330.4064</v>
       </c>
-      <c r="D15" s="115" t="n">
+      <c r="D15" s="116" t="n">
         <f aca="false">B15+C15</f>
         <v>35862805.8199</v>
       </c>
@@ -15274,13 +15640,13 @@
       <c r="A16" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="115" t="n">
+      <c r="B16" s="116" t="n">
         <v>18157449.8014</v>
       </c>
-      <c r="C16" s="115" t="n">
+      <c r="C16" s="116" t="n">
         <v>20205356.0185</v>
       </c>
-      <c r="D16" s="115" t="n">
+      <c r="D16" s="116" t="n">
         <f aca="false">B16+C16</f>
         <v>38362805.8199</v>
       </c>
@@ -15289,13 +15655,13 @@
       <c r="A17" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="115" t="n">
+      <c r="B17" s="116" t="n">
         <v>20474424.1893</v>
       </c>
-      <c r="C17" s="115" t="n">
+      <c r="C17" s="116" t="n">
         <v>15388381.6306</v>
       </c>
-      <c r="D17" s="115" t="n">
+      <c r="D17" s="116" t="n">
         <f aca="false">B17+C17</f>
         <v>35862805.8199</v>
       </c>
@@ -15304,13 +15670,13 @@
       <c r="A18" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="115" t="n">
+      <c r="B18" s="116" t="n">
         <v>17717360.518</v>
       </c>
-      <c r="C18" s="115" t="n">
+      <c r="C18" s="116" t="n">
         <v>20731407.2427</v>
       </c>
-      <c r="D18" s="115" t="n">
+      <c r="D18" s="116" t="n">
         <f aca="false">B18+C18</f>
         <v>38448767.7607</v>
       </c>
@@ -15319,13 +15685,13 @@
       <c r="A19" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="115" t="n">
+      <c r="B19" s="116" t="n">
         <v>19809611.4217</v>
       </c>
-      <c r="C19" s="115" t="n">
+      <c r="C19" s="116" t="n">
         <v>14634512.9471</v>
       </c>
-      <c r="D19" s="115" t="n">
+      <c r="D19" s="116" t="n">
         <f aca="false">B19+C19</f>
         <v>34444124.3688</v>
       </c>
@@ -15334,13 +15700,13 @@
       <c r="A20" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="115" t="n">
+      <c r="B20" s="116" t="n">
         <v>16480534.5854</v>
       </c>
-      <c r="C20" s="115" t="n">
+      <c r="C20" s="116" t="n">
         <v>19977538.5592</v>
       </c>
-      <c r="D20" s="115" t="n">
+      <c r="D20" s="116" t="n">
         <f aca="false">B20+C20</f>
         <v>36458073.1446</v>
       </c>
@@ -15349,13 +15715,13 @@
       <c r="A21" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="115" t="n">
+      <c r="B21" s="116" t="n">
         <v>19283560.1975</v>
       </c>
-      <c r="C21" s="115" t="n">
+      <c r="C21" s="116" t="n">
         <v>14108461.7229</v>
       </c>
-      <c r="D21" s="115" t="n">
+      <c r="D21" s="116" t="n">
         <f aca="false">B21+C21</f>
         <v>33392021.9204</v>
       </c>
@@ -15364,13 +15730,13 @@
       <c r="A22" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="115" t="n">
+      <c r="B22" s="116" t="n">
         <v>15954483.3611</v>
       </c>
-      <c r="C22" s="115" t="n">
+      <c r="C22" s="116" t="n">
         <v>19451487.335</v>
       </c>
-      <c r="D22" s="115" t="n">
+      <c r="D22" s="116" t="n">
         <f aca="false">B22+C22</f>
         <v>35405970.6961</v>
       </c>
@@ -15379,13 +15745,13 @@
       <c r="A23" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="115" t="n">
+      <c r="B23" s="116" t="n">
         <v>18757508.9733</v>
       </c>
-      <c r="C23" s="115" t="n">
+      <c r="C23" s="116" t="n">
         <v>13948989.5014</v>
       </c>
-      <c r="D23" s="115" t="n">
+      <c r="D23" s="116" t="n">
         <f aca="false">B23+C23</f>
         <v>32706498.4747</v>
       </c>
@@ -15394,13 +15760,13 @@
       <c r="A24" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="115" t="n">
+      <c r="B24" s="116" t="n">
         <v>15428432.1369</v>
       </c>
-      <c r="C24" s="115" t="n">
+      <c r="C24" s="116" t="n">
         <v>19597374.1801</v>
       </c>
-      <c r="D24" s="115" t="n">
+      <c r="D24" s="116" t="n">
         <f aca="false">B24+C24</f>
         <v>35025806.317</v>
       </c>
@@ -15409,13 +15775,13 @@
       <c r="A25" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B25" s="115" t="n">
+      <c r="B25" s="116" t="n">
         <v>16002428.2016</v>
       </c>
-      <c r="C25" s="115" t="n">
+      <c r="C25" s="116" t="n">
         <v>22102764.4149</v>
       </c>
-      <c r="D25" s="115" t="n">
+      <c r="D25" s="116" t="n">
         <f aca="false">B25+C25</f>
         <v>38105192.6165</v>
       </c>
@@ -15424,13 +15790,13 @@
       <c r="A26" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="115" t="n">
+      <c r="B26" s="116" t="n">
         <v>18231457.749</v>
       </c>
-      <c r="C26" s="115" t="n">
+      <c r="C26" s="116" t="n">
         <v>14475040.7256</v>
       </c>
-      <c r="D26" s="115" t="n">
+      <c r="D26" s="116" t="n">
         <f aca="false">B26+C26</f>
         <v>32706498.4746</v>
       </c>
@@ -15439,13 +15805,13 @@
       <c r="A27" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="115" t="n">
+      <c r="B27" s="116" t="n">
         <v>14902380.9127</v>
       </c>
-      <c r="C27" s="115" t="n">
+      <c r="C27" s="116" t="n">
         <v>20123425.4043</v>
       </c>
-      <c r="D27" s="115" t="n">
+      <c r="D27" s="116" t="n">
         <f aca="false">B27+C27</f>
         <v>35025806.317</v>
       </c>
@@ -15454,13 +15820,13 @@
       <c r="A28" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="115" t="n">
+      <c r="B28" s="116" t="n">
         <v>18298042.1998</v>
       </c>
-      <c r="C28" s="115" t="n">
+      <c r="C28" s="116" t="n">
         <v>17267150.4167</v>
       </c>
-      <c r="D28" s="115" t="n">
+      <c r="D28" s="116" t="n">
         <f aca="false">B28+C28</f>
         <v>35565192.6165</v>
       </c>
@@ -15469,13 +15835,13 @@
       <c r="A29" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="115" t="n">
+      <c r="B29" s="116" t="n">
         <v>15488803.3842</v>
       </c>
-      <c r="C29" s="115" t="n">
+      <c r="C29" s="116" t="n">
         <v>22616389.2322</v>
       </c>
-      <c r="D29" s="115" t="n">
+      <c r="D29" s="116" t="n">
         <f aca="false">B29+C29</f>
         <v>38105192.6164</v>
       </c>
@@ -15484,13 +15850,13 @@
       <c r="A30" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B30" s="115" t="n">
+      <c r="B30" s="116" t="n">
         <v>17784417.3824</v>
       </c>
-      <c r="C30" s="115" t="n">
+      <c r="C30" s="116" t="n">
         <v>17780775.234</v>
       </c>
-      <c r="D30" s="115" t="n">
+      <c r="D30" s="116" t="n">
         <f aca="false">B30+C30</f>
         <v>35565192.6164</v>
       </c>
@@ -15499,13 +15865,13 @@
       <c r="A31" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B31" s="115" t="n">
+      <c r="B31" s="116" t="n">
         <v>14975178.5669</v>
       </c>
-      <c r="C31" s="115" t="n">
+      <c r="C31" s="116" t="n">
         <v>23130014.0496</v>
       </c>
-      <c r="D31" s="115" t="n">
+      <c r="D31" s="116" t="n">
         <f aca="false">B31+C31</f>
         <v>38105192.6165</v>
       </c>
@@ -15514,13 +15880,13 @@
       <c r="A32" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="115" t="n">
+      <c r="B32" s="116" t="n">
         <v>21330085.4763</v>
       </c>
-      <c r="C32" s="115" t="n">
+      <c r="C32" s="116" t="n">
         <v>14235107.1401</v>
       </c>
-      <c r="D32" s="115" t="n">
+      <c r="D32" s="116" t="n">
         <f aca="false">B32+C32</f>
         <v>35565192.6164</v>
       </c>
@@ -15529,13 +15895,13 @@
       <c r="A33" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="115" t="n">
+      <c r="B33" s="116" t="n">
         <v>18520846.6608</v>
       </c>
-      <c r="C33" s="115" t="n">
+      <c r="C33" s="116" t="n">
         <v>19584345.9557</v>
       </c>
-      <c r="D33" s="115" t="n">
+      <c r="D33" s="116" t="n">
         <f aca="false">B33+C33</f>
         <v>38105192.6165</v>
       </c>
@@ -15544,13 +15910,13 @@
       <c r="A34" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="B34" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="115" t="n">
+      <c r="B34" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="116" t="n">
         <f aca="false">B34+C34</f>
         <v>0</v>
       </c>
@@ -15559,13 +15925,13 @@
       <c r="A35" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="B35" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="115" t="n">
+      <c r="B35" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="116" t="n">
         <f aca="false">B35+C35</f>
         <v>0</v>
       </c>
@@ -15574,13 +15940,13 @@
       <c r="A36" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="B36" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="115" t="n">
+      <c r="B36" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="116" t="n">
         <f aca="false">B36+C36</f>
         <v>0</v>
       </c>
@@ -15589,13 +15955,13 @@
       <c r="A37" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="B37" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="115" t="n">
+      <c r="B37" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="116" t="n">
         <f aca="false">B37+C37</f>
         <v>0</v>
       </c>
@@ -15604,13 +15970,13 @@
       <c r="A38" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="115" t="n">
+      <c r="B38" s="116" t="n">
         <v>38870750.398</v>
       </c>
-      <c r="C38" s="115" t="n">
+      <c r="C38" s="116" t="n">
         <v>41646818.007</v>
       </c>
-      <c r="D38" s="115" t="n">
+      <c r="D38" s="116" t="n">
         <f aca="false">B38+C38</f>
         <v>80517568.405</v>
       </c>
@@ -15619,13 +15985,13 @@
       <c r="A39" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="115" t="n">
+      <c r="B39" s="116" t="n">
         <v>18806988.4375</v>
       </c>
-      <c r="C39" s="115" t="n">
+      <c r="C39" s="116" t="n">
         <v>19470987.7196</v>
       </c>
-      <c r="D39" s="115" t="n">
+      <c r="D39" s="116" t="n">
         <f aca="false">B39+C39</f>
         <v>38277976.1571</v>
       </c>
@@ -15634,13 +16000,13 @@
       <c r="A40" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B40" s="115" t="n">
+      <c r="B40" s="116" t="n">
         <v>51479046.8449</v>
       </c>
-      <c r="C40" s="115" t="n">
+      <c r="C40" s="116" t="n">
         <v>23292165.2097</v>
       </c>
-      <c r="D40" s="115" t="n">
+      <c r="D40" s="116" t="n">
         <f aca="false">B40+C40</f>
         <v>74771212.0546</v>
       </c>
@@ -15649,13 +16015,13 @@
       <c r="A41" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="115" t="n">
+      <c r="B41" s="116" t="n">
         <v>9839381.66904</v>
       </c>
-      <c r="C41" s="115" t="n">
+      <c r="C41" s="116" t="n">
         <v>42634515.0486</v>
       </c>
-      <c r="D41" s="115" t="n">
+      <c r="D41" s="116" t="n">
         <f aca="false">B41+C41</f>
         <v>52473896.71764</v>
       </c>
@@ -15664,13 +16030,13 @@
       <c r="A42" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="115" t="n">
+      <c r="B42" s="116" t="n">
         <v>22853142.8407</v>
       </c>
-      <c r="C42" s="115" t="n">
+      <c r="C42" s="116" t="n">
         <v>36825915.587</v>
       </c>
-      <c r="D42" s="115" t="n">
+      <c r="D42" s="116" t="n">
         <f aca="false">B42+C42</f>
         <v>59679058.4277</v>
       </c>
@@ -15679,13 +16045,13 @@
       <c r="A43" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="B43" s="115" t="n">
+      <c r="B43" s="116" t="n">
         <v>28340036.0603</v>
       </c>
-      <c r="C43" s="115" t="n">
+      <c r="C43" s="116" t="n">
         <v>67319872.1623</v>
       </c>
-      <c r="D43" s="115" t="n">
+      <c r="D43" s="116" t="n">
         <f aca="false">B43+C43</f>
         <v>95659908.2226</v>
       </c>
@@ -15694,13 +16060,13 @@
       <c r="A44" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B44" s="115" t="n">
+      <c r="B44" s="116" t="n">
         <v>28993590.7628</v>
       </c>
-      <c r="C44" s="115" t="n">
+      <c r="C44" s="116" t="n">
         <v>68937740.9564</v>
       </c>
-      <c r="D44" s="115" t="n">
+      <c r="D44" s="116" t="n">
         <f aca="false">B44+C44</f>
         <v>97931331.7192</v>
       </c>
@@ -15709,13 +16075,13 @@
       <c r="A45" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B45" s="115" t="n">
+      <c r="B45" s="116" t="n">
         <v>53174764.056</v>
       </c>
-      <c r="C45" s="115" t="n">
+      <c r="C45" s="116" t="n">
         <v>77486147.1607</v>
       </c>
-      <c r="D45" s="115" t="n">
+      <c r="D45" s="116" t="n">
         <f aca="false">B45+C45</f>
         <v>130660911.2167</v>
       </c>
@@ -15724,14 +16090,14 @@
       <c r="A46" s="0" t="s">
         <v>620</v>
       </c>
-      <c r="B46" s="115" t="n">
+      <c r="B46" s="116" t="n">
         <v>16239900.782</v>
       </c>
-      <c r="C46" s="115" t="n">
+      <c r="C46" s="116" t="n">
         <f aca="false">B128</f>
         <v>0</v>
       </c>
-      <c r="D46" s="115" t="n">
+      <c r="D46" s="116" t="n">
         <f aca="false">B46+C46</f>
         <v>16239900.782</v>
       </c>
@@ -15740,14 +16106,14 @@
       <c r="A47" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="B47" s="115" t="n">
+      <c r="B47" s="116" t="n">
         <v>21589139.5976</v>
       </c>
-      <c r="C47" s="115" t="n">
+      <c r="C47" s="116" t="n">
         <f aca="false">B129</f>
         <v>0</v>
       </c>
-      <c r="D47" s="115" t="n">
+      <c r="D47" s="116" t="n">
         <f aca="false">B47+C47</f>
         <v>21589139.5976</v>
       </c>
@@ -15756,14 +16122,14 @@
       <c r="A48" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="B48" s="115" t="n">
+      <c r="B48" s="116" t="n">
         <v>14748731.9575</v>
       </c>
-      <c r="C48" s="115" t="n">
+      <c r="C48" s="116" t="n">
         <f aca="false">B130</f>
         <v>0</v>
       </c>
-      <c r="D48" s="115" t="n">
+      <c r="D48" s="116" t="n">
         <f aca="false">B48+C48</f>
         <v>14748731.9575</v>
       </c>
@@ -15772,14 +16138,14 @@
       <c r="A49" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="B49" s="115" t="n">
+      <c r="B49" s="116" t="n">
         <v>20097970.773</v>
       </c>
-      <c r="C49" s="115" t="n">
+      <c r="C49" s="116" t="n">
         <f aca="false">B131</f>
         <v>0</v>
       </c>
-      <c r="D49" s="115" t="n">
+      <c r="D49" s="116" t="n">
         <f aca="false">B49+C49</f>
         <v>20097970.773</v>
       </c>
@@ -15788,14 +16154,14 @@
       <c r="A50" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="B50" s="115" t="n">
+      <c r="B50" s="116" t="n">
         <v>15262356.7748</v>
       </c>
-      <c r="C50" s="115" t="n">
+      <c r="C50" s="116" t="n">
         <f aca="false">B132</f>
         <v>0</v>
       </c>
-      <c r="D50" s="115" t="n">
+      <c r="D50" s="116" t="n">
         <f aca="false">B50+C50</f>
         <v>15262356.7748</v>
       </c>
@@ -15804,14 +16170,14 @@
       <c r="A51" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="B51" s="115" t="n">
+      <c r="B51" s="116" t="n">
         <v>20611595.5904</v>
       </c>
-      <c r="C51" s="115" t="n">
+      <c r="C51" s="116" t="n">
         <f aca="false">B133</f>
         <v>0</v>
       </c>
-      <c r="D51" s="115" t="n">
+      <c r="D51" s="116" t="n">
         <f aca="false">B51+C51</f>
         <v>20611595.5904</v>
       </c>
@@ -15820,14 +16186,14 @@
       <c r="A52" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="B52" s="115" t="n">
+      <c r="B52" s="116" t="n">
         <v>15775981.5922</v>
       </c>
-      <c r="C52" s="115" t="n">
+      <c r="C52" s="116" t="n">
         <f aca="false">B134</f>
         <v>0</v>
       </c>
-      <c r="D52" s="115" t="n">
+      <c r="D52" s="116" t="n">
         <f aca="false">B52+C52</f>
         <v>15775981.5922</v>
       </c>
@@ -15836,14 +16202,14 @@
       <c r="A53" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="B53" s="115" t="n">
+      <c r="B53" s="116" t="n">
         <v>21125220.4077</v>
       </c>
-      <c r="C53" s="115" t="n">
+      <c r="C53" s="116" t="n">
         <f aca="false">B135</f>
         <v>0</v>
       </c>
-      <c r="D53" s="115" t="n">
+      <c r="D53" s="116" t="n">
         <f aca="false">B53+C53</f>
         <v>21125220.4077</v>
       </c>
@@ -15852,14 +16218,14 @@
       <c r="A54" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="B54" s="115" t="n">
+      <c r="B54" s="116" t="n">
         <v>13810227.958</v>
       </c>
-      <c r="C54" s="115" t="n">
+      <c r="C54" s="116" t="n">
         <f aca="false">B136</f>
         <v>0</v>
       </c>
-      <c r="D54" s="115" t="n">
+      <c r="D54" s="116" t="n">
         <f aca="false">B54+C54</f>
         <v>13810227.958</v>
       </c>
@@ -15868,14 +16234,14 @@
       <c r="A55" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="B55" s="115" t="n">
+      <c r="B55" s="116" t="n">
         <v>19369556.7208</v>
       </c>
-      <c r="C55" s="115" t="n">
+      <c r="C55" s="116" t="n">
         <f aca="false">B137</f>
         <v>0</v>
       </c>
-      <c r="D55" s="115" t="n">
+      <c r="D55" s="116" t="n">
         <f aca="false">B55+C55</f>
         <v>19369556.7208</v>
       </c>
@@ -15884,14 +16250,14 @@
       <c r="A56" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="B56" s="115" t="n">
+      <c r="B56" s="116" t="n">
         <v>14336279.1822</v>
       </c>
-      <c r="C56" s="115" t="n">
+      <c r="C56" s="116" t="n">
         <f aca="false">B138</f>
         <v>0</v>
       </c>
-      <c r="D56" s="115" t="n">
+      <c r="D56" s="116" t="n">
         <f aca="false">B56+C56</f>
         <v>14336279.1822</v>
       </c>
@@ -15900,14 +16266,14 @@
       <c r="A57" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="B57" s="115" t="n">
+      <c r="B57" s="116" t="n">
         <v>19679304.7943</v>
       </c>
-      <c r="C57" s="115" t="n">
+      <c r="C57" s="116" t="n">
         <f aca="false">B139</f>
         <v>0</v>
       </c>
-      <c r="D57" s="115" t="n">
+      <c r="D57" s="116" t="n">
         <f aca="false">B57+C57</f>
         <v>19679304.7943</v>
       </c>
@@ -15916,14 +16282,14 @@
       <c r="A58" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="B58" s="115" t="n">
+      <c r="B58" s="116" t="n">
         <v>16753525.5994</v>
       </c>
-      <c r="C58" s="115" t="n">
+      <c r="C58" s="116" t="n">
         <f aca="false">B140</f>
         <v>0</v>
       </c>
-      <c r="D58" s="115" t="n">
+      <c r="D58" s="116" t="n">
         <f aca="false">B58+C58</f>
         <v>16753525.5994</v>
       </c>
@@ -15932,14 +16298,14 @@
       <c r="A59" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="B59" s="115" t="n">
+      <c r="B59" s="116" t="n">
         <v>14862330.4064</v>
       </c>
-      <c r="C59" s="115" t="n">
+      <c r="C59" s="116" t="n">
         <f aca="false">B141</f>
         <v>0</v>
       </c>
-      <c r="D59" s="115" t="n">
+      <c r="D59" s="116" t="n">
         <f aca="false">B59+C59</f>
         <v>14862330.4064</v>
       </c>
@@ -15948,14 +16314,14 @@
       <c r="A60" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="B60" s="115" t="n">
+      <c r="B60" s="116" t="n">
         <v>20205356.0185</v>
       </c>
-      <c r="C60" s="115" t="n">
+      <c r="C60" s="116" t="n">
         <f aca="false">B142</f>
         <v>0</v>
       </c>
-      <c r="D60" s="115" t="n">
+      <c r="D60" s="116" t="n">
         <f aca="false">B60+C60</f>
         <v>20205356.0185</v>
       </c>
@@ -15964,14 +16330,14 @@
       <c r="A61" s="0" t="s">
         <v>635</v>
       </c>
-      <c r="B61" s="115" t="n">
+      <c r="B61" s="116" t="n">
         <v>15388381.6306</v>
       </c>
-      <c r="C61" s="115" t="n">
+      <c r="C61" s="116" t="n">
         <f aca="false">B143</f>
         <v>0</v>
       </c>
-      <c r="D61" s="115" t="n">
+      <c r="D61" s="116" t="n">
         <f aca="false">B61+C61</f>
         <v>15388381.6306</v>
       </c>
@@ -15980,14 +16346,14 @@
       <c r="A62" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="B62" s="115" t="n">
+      <c r="B62" s="116" t="n">
         <v>20731407.2427</v>
       </c>
-      <c r="C62" s="115" t="n">
+      <c r="C62" s="116" t="n">
         <f aca="false">B144</f>
         <v>0</v>
       </c>
-      <c r="D62" s="115" t="n">
+      <c r="D62" s="116" t="n">
         <f aca="false">B62+C62</f>
         <v>20731407.2427</v>
       </c>
@@ -15996,14 +16362,14 @@
       <c r="A63" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="B63" s="115" t="n">
+      <c r="B63" s="116" t="n">
         <v>14634512.9471</v>
       </c>
-      <c r="C63" s="115" t="n">
+      <c r="C63" s="116" t="n">
         <f aca="false">B145</f>
         <v>0</v>
       </c>
-      <c r="D63" s="115" t="n">
+      <c r="D63" s="116" t="n">
         <f aca="false">B63+C63</f>
         <v>14634512.9471</v>
       </c>
@@ -16012,14 +16378,14 @@
       <c r="A64" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="B64" s="115" t="n">
+      <c r="B64" s="116" t="n">
         <v>19977538.5592</v>
       </c>
-      <c r="C64" s="115" t="n">
+      <c r="C64" s="116" t="n">
         <f aca="false">B146</f>
         <v>0</v>
       </c>
-      <c r="D64" s="115" t="n">
+      <c r="D64" s="116" t="n">
         <f aca="false">B64+C64</f>
         <v>19977538.5592</v>
       </c>
@@ -16028,14 +16394,14 @@
       <c r="A65" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="B65" s="115" t="n">
+      <c r="B65" s="116" t="n">
         <v>14108461.7229</v>
       </c>
-      <c r="C65" s="115" t="n">
+      <c r="C65" s="116" t="n">
         <f aca="false">B147</f>
         <v>0</v>
       </c>
-      <c r="D65" s="115" t="n">
+      <c r="D65" s="116" t="n">
         <f aca="false">B65+C65</f>
         <v>14108461.7229</v>
       </c>
@@ -16044,14 +16410,14 @@
       <c r="A66" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="B66" s="115" t="n">
+      <c r="B66" s="116" t="n">
         <v>19451487.335</v>
       </c>
-      <c r="C66" s="115" t="n">
+      <c r="C66" s="116" t="n">
         <f aca="false">B148</f>
         <v>0</v>
       </c>
-      <c r="D66" s="115" t="n">
+      <c r="D66" s="116" t="n">
         <f aca="false">B66+C66</f>
         <v>19451487.335</v>
       </c>
@@ -16060,14 +16426,14 @@
       <c r="A67" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="B67" s="115" t="n">
+      <c r="B67" s="116" t="n">
         <v>13948989.5014</v>
       </c>
-      <c r="C67" s="115" t="n">
+      <c r="C67" s="116" t="n">
         <f aca="false">B149</f>
         <v>0</v>
       </c>
-      <c r="D67" s="115" t="n">
+      <c r="D67" s="116" t="n">
         <f aca="false">B67+C67</f>
         <v>13948989.5014</v>
       </c>
@@ -16076,14 +16442,14 @@
       <c r="A68" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="B68" s="115" t="n">
+      <c r="B68" s="116" t="n">
         <v>19597374.1801</v>
       </c>
-      <c r="C68" s="115" t="n">
+      <c r="C68" s="116" t="n">
         <f aca="false">B150</f>
         <v>0</v>
       </c>
-      <c r="D68" s="115" t="n">
+      <c r="D68" s="116" t="n">
         <f aca="false">B68+C68</f>
         <v>19597374.1801</v>
       </c>
@@ -16092,14 +16458,14 @@
       <c r="A69" s="0" t="s">
         <v>643</v>
       </c>
-      <c r="B69" s="115" t="n">
+      <c r="B69" s="116" t="n">
         <v>22102764.4149</v>
       </c>
-      <c r="C69" s="115" t="n">
+      <c r="C69" s="116" t="n">
         <f aca="false">B151</f>
         <v>0</v>
       </c>
-      <c r="D69" s="115" t="n">
+      <c r="D69" s="116" t="n">
         <f aca="false">B69+C69</f>
         <v>22102764.4149</v>
       </c>
@@ -16108,14 +16474,14 @@
       <c r="A70" s="0" t="s">
         <v>644</v>
       </c>
-      <c r="B70" s="115" t="n">
+      <c r="B70" s="116" t="n">
         <v>14475040.7256</v>
       </c>
-      <c r="C70" s="115" t="n">
+      <c r="C70" s="116" t="n">
         <f aca="false">B152</f>
         <v>0</v>
       </c>
-      <c r="D70" s="115" t="n">
+      <c r="D70" s="116" t="n">
         <f aca="false">B70+C70</f>
         <v>14475040.7256</v>
       </c>
@@ -16124,14 +16490,14 @@
       <c r="A71" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="B71" s="115" t="n">
+      <c r="B71" s="116" t="n">
         <v>20123425.4043</v>
       </c>
-      <c r="C71" s="115" t="n">
+      <c r="C71" s="116" t="n">
         <f aca="false">B153</f>
         <v>0</v>
       </c>
-      <c r="D71" s="115" t="n">
+      <c r="D71" s="116" t="n">
         <f aca="false">B71+C71</f>
         <v>20123425.4043</v>
       </c>
@@ -16140,14 +16506,14 @@
       <c r="A72" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="B72" s="115" t="n">
+      <c r="B72" s="116" t="n">
         <v>17267150.4167</v>
       </c>
-      <c r="C72" s="115" t="n">
+      <c r="C72" s="116" t="n">
         <f aca="false">B154</f>
         <v>0</v>
       </c>
-      <c r="D72" s="115" t="n">
+      <c r="D72" s="116" t="n">
         <f aca="false">B72+C72</f>
         <v>17267150.4167</v>
       </c>
@@ -16156,14 +16522,14 @@
       <c r="A73" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="B73" s="115" t="n">
+      <c r="B73" s="116" t="n">
         <v>22616389.2322</v>
       </c>
-      <c r="C73" s="115" t="n">
+      <c r="C73" s="116" t="n">
         <f aca="false">B155</f>
         <v>0</v>
       </c>
-      <c r="D73" s="115" t="n">
+      <c r="D73" s="116" t="n">
         <f aca="false">B73+C73</f>
         <v>22616389.2322</v>
       </c>
@@ -16172,14 +16538,14 @@
       <c r="A74" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="B74" s="115" t="n">
+      <c r="B74" s="116" t="n">
         <v>17780775.234</v>
       </c>
-      <c r="C74" s="115" t="n">
+      <c r="C74" s="116" t="n">
         <f aca="false">B156</f>
         <v>0</v>
       </c>
-      <c r="D74" s="115" t="n">
+      <c r="D74" s="116" t="n">
         <f aca="false">B74+C74</f>
         <v>17780775.234</v>
       </c>
@@ -16188,14 +16554,14 @@
       <c r="A75" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="B75" s="115" t="n">
+      <c r="B75" s="116" t="n">
         <v>23130014.0496</v>
       </c>
-      <c r="C75" s="115" t="n">
+      <c r="C75" s="116" t="n">
         <f aca="false">B157</f>
         <v>0</v>
       </c>
-      <c r="D75" s="115" t="n">
+      <c r="D75" s="116" t="n">
         <f aca="false">B75+C75</f>
         <v>23130014.0496</v>
       </c>
@@ -16204,14 +16570,14 @@
       <c r="A76" s="0" t="s">
         <v>650</v>
       </c>
-      <c r="B76" s="115" t="n">
+      <c r="B76" s="116" t="n">
         <v>14235107.1401</v>
       </c>
-      <c r="C76" s="115" t="n">
+      <c r="C76" s="116" t="n">
         <f aca="false">B158</f>
         <v>0</v>
       </c>
-      <c r="D76" s="115" t="n">
+      <c r="D76" s="116" t="n">
         <f aca="false">B76+C76</f>
         <v>14235107.1401</v>
       </c>
@@ -16220,14 +16586,14 @@
       <c r="A77" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="B77" s="115" t="n">
+      <c r="B77" s="116" t="n">
         <v>19584345.9557</v>
       </c>
-      <c r="C77" s="115" t="n">
+      <c r="C77" s="116" t="n">
         <f aca="false">B159</f>
         <v>0</v>
       </c>
-      <c r="D77" s="115" t="n">
+      <c r="D77" s="116" t="n">
         <f aca="false">B77+C77</f>
         <v>19584345.9557</v>
       </c>
@@ -16236,14 +16602,14 @@
       <c r="A78" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="B78" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" s="115" t="n">
+      <c r="B78" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" s="116" t="n">
         <f aca="false">B160</f>
         <v>0</v>
       </c>
-      <c r="D78" s="115" t="n">
+      <c r="D78" s="116" t="n">
         <f aca="false">B78+C78</f>
         <v>0</v>
       </c>
@@ -16252,14 +16618,14 @@
       <c r="A79" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="B79" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" s="115" t="n">
+      <c r="B79" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" s="116" t="n">
         <f aca="false">B161</f>
         <v>0</v>
       </c>
-      <c r="D79" s="115" t="n">
+      <c r="D79" s="116" t="n">
         <f aca="false">B79+C79</f>
         <v>0</v>
       </c>
@@ -16268,14 +16634,14 @@
       <c r="A80" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="B80" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" s="115" t="n">
+      <c r="B80" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" s="116" t="n">
         <f aca="false">B162</f>
         <v>0</v>
       </c>
-      <c r="D80" s="115" t="n">
+      <c r="D80" s="116" t="n">
         <f aca="false">B80+C80</f>
         <v>0</v>
       </c>
@@ -16284,14 +16650,14 @@
       <c r="A81" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="B81" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" s="115" t="n">
+      <c r="B81" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" s="116" t="n">
         <f aca="false">B163</f>
         <v>0</v>
       </c>
-      <c r="D81" s="115" t="n">
+      <c r="D81" s="116" t="n">
         <f aca="false">B81+C81</f>
         <v>0</v>
       </c>
@@ -16300,14 +16666,14 @@
       <c r="A82" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="B82" s="115" t="n">
+      <c r="B82" s="116" t="n">
         <v>41646818.007</v>
       </c>
-      <c r="C82" s="115" t="n">
+      <c r="C82" s="116" t="n">
         <f aca="false">B164</f>
         <v>0</v>
       </c>
-      <c r="D82" s="115" t="n">
+      <c r="D82" s="116" t="n">
         <f aca="false">B82+C82</f>
         <v>41646818.007</v>
       </c>
@@ -16316,30 +16682,30 @@
       <c r="A83" s="0" t="s">
         <v>657</v>
       </c>
-      <c r="B83" s="115" t="n">
+      <c r="B83" s="116" t="n">
         <v>19470987.7196</v>
       </c>
-      <c r="C83" s="115" t="n">
+      <c r="C83" s="116" t="n">
         <f aca="false">B165</f>
         <v>0</v>
       </c>
-      <c r="D83" s="115" t="n">
+      <c r="D83" s="116" t="n">
         <f aca="false">B83+C83</f>
         <v>19470987.7196</v>
       </c>
     </row>
-    <row r="84" s="117" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="118" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>658</v>
       </c>
-      <c r="B84" s="115" t="n">
+      <c r="B84" s="116" t="n">
         <v>23292165.2097</v>
       </c>
-      <c r="C84" s="115" t="n">
+      <c r="C84" s="116" t="n">
         <f aca="false">B166</f>
         <v>0</v>
       </c>
-      <c r="D84" s="115" t="n">
+      <c r="D84" s="116" t="n">
         <f aca="false">B84+C84</f>
         <v>23292165.2097</v>
       </c>
@@ -16350,14 +16716,14 @@
       <c r="A85" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="B85" s="115" t="n">
+      <c r="B85" s="116" t="n">
         <v>42634515.0486</v>
       </c>
-      <c r="C85" s="115" t="n">
+      <c r="C85" s="116" t="n">
         <f aca="false">B167</f>
         <v>0</v>
       </c>
-      <c r="D85" s="115" t="n">
+      <c r="D85" s="116" t="n">
         <f aca="false">B85+C85</f>
         <v>42634515.0486</v>
       </c>
@@ -16366,14 +16732,14 @@
       <c r="A86" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="B86" s="115" t="n">
+      <c r="B86" s="116" t="n">
         <v>36825915.587</v>
       </c>
-      <c r="C86" s="115" t="n">
+      <c r="C86" s="116" t="n">
         <f aca="false">B168</f>
         <v>0</v>
       </c>
-      <c r="D86" s="115" t="n">
+      <c r="D86" s="116" t="n">
         <f aca="false">B86+C86</f>
         <v>36825915.587</v>
       </c>
@@ -16382,14 +16748,14 @@
       <c r="A87" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="B87" s="115" t="n">
+      <c r="B87" s="116" t="n">
         <v>67319872.1623</v>
       </c>
-      <c r="C87" s="115" t="n">
+      <c r="C87" s="116" t="n">
         <f aca="false">B169</f>
         <v>0</v>
       </c>
-      <c r="D87" s="115" t="n">
+      <c r="D87" s="116" t="n">
         <f aca="false">B87+C87</f>
         <v>67319872.1623</v>
       </c>
@@ -16398,14 +16764,14 @@
       <c r="A88" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="B88" s="115" t="n">
+      <c r="B88" s="116" t="n">
         <v>68937740.9564</v>
       </c>
-      <c r="C88" s="115" t="n">
+      <c r="C88" s="116" t="n">
         <f aca="false">B170</f>
         <v>0</v>
       </c>
-      <c r="D88" s="115" t="n">
+      <c r="D88" s="116" t="n">
         <f aca="false">B88+C88</f>
         <v>68937740.9564</v>
       </c>
@@ -16414,27 +16780,27 @@
       <c r="A89" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="B89" s="115" t="n">
+      <c r="B89" s="116" t="n">
         <v>77486147.1607</v>
       </c>
-      <c r="C89" s="115" t="n">
+      <c r="C89" s="116" t="n">
         <f aca="false">B171</f>
         <v>0</v>
       </c>
-      <c r="D89" s="115" t="n">
+      <c r="D89" s="116" t="n">
         <f aca="false">B89+C89</f>
         <v>77486147.1607</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" s="115" t="n">
+      <c r="B90" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="116" t="n">
         <f aca="false">B172</f>
         <v>0</v>
       </c>
-      <c r="D90" s="115" t="n">
+      <c r="D90" s="116" t="n">
         <f aca="false">B90+C90</f>
         <v>0</v>
       </c>
@@ -16443,14 +16809,14 @@
       <c r="A91" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="B91" s="115" t="n">
+      <c r="B91" s="116" t="n">
         <v>95999860.2049</v>
       </c>
-      <c r="C91" s="115" t="n">
+      <c r="C91" s="116" t="n">
         <f aca="false">B173</f>
         <v>0</v>
       </c>
-      <c r="D91" s="115" t="n">
+      <c r="D91" s="116" t="n">
         <f aca="false">B91+C91</f>
         <v>95999860.2049</v>
       </c>
@@ -16459,14 +16825,14 @@
       <c r="A92" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="B92" s="115" t="n">
+      <c r="B92" s="116" t="n">
         <v>94569000.4613</v>
       </c>
-      <c r="C92" s="115" t="n">
+      <c r="C92" s="116" t="n">
         <f aca="false">B174</f>
         <v>0</v>
       </c>
-      <c r="D92" s="115" t="n">
+      <c r="D92" s="116" t="n">
         <f aca="false">B92+C92</f>
         <v>94569000.4613</v>
       </c>
@@ -16475,14 +16841,14 @@
       <c r="A93" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="B93" s="115" t="n">
+      <c r="B93" s="116" t="n">
         <v>93940166.3117</v>
       </c>
-      <c r="C93" s="115" t="n">
+      <c r="C93" s="116" t="n">
         <f aca="false">B175</f>
         <v>0</v>
       </c>
-      <c r="D93" s="115" t="n">
+      <c r="D93" s="116" t="n">
         <f aca="false">B93+C93</f>
         <v>93940166.3117</v>
       </c>
@@ -16491,14 +16857,14 @@
       <c r="A94" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="B94" s="115" t="n">
+      <c r="B94" s="116" t="n">
         <v>94510133.1769</v>
       </c>
-      <c r="C94" s="115" t="n">
+      <c r="C94" s="116" t="n">
         <f aca="false">B176</f>
         <v>0</v>
       </c>
-      <c r="D94" s="115" t="n">
+      <c r="D94" s="116" t="n">
         <f aca="false">B94+C94</f>
         <v>94510133.1769</v>
       </c>
@@ -16507,14 +16873,14 @@
       <c r="A95" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="B95" s="115" t="n">
+      <c r="B95" s="116" t="n">
         <v>88099538.181</v>
       </c>
-      <c r="C95" s="115" t="n">
+      <c r="C95" s="116" t="n">
         <f aca="false">B177</f>
         <v>0</v>
       </c>
-      <c r="D95" s="115" t="n">
+      <c r="D95" s="116" t="n">
         <f aca="false">B95+C95</f>
         <v>88099538.181</v>
       </c>
@@ -16523,14 +16889,14 @@
       <c r="A96" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="B96" s="115" t="n">
+      <c r="B96" s="116" t="n">
         <v>89039527.594</v>
       </c>
-      <c r="C96" s="115" t="n">
+      <c r="C96" s="116" t="n">
         <f aca="false">B178</f>
         <v>0</v>
       </c>
-      <c r="D96" s="115" t="n">
+      <c r="D96" s="116" t="n">
         <f aca="false">B96+C96</f>
         <v>89039527.594</v>
       </c>
@@ -16539,14 +16905,14 @@
       <c r="A97" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="B97" s="115" t="n">
+      <c r="B97" s="116" t="n">
         <v>86329726.3452</v>
       </c>
-      <c r="C97" s="115" t="n">
+      <c r="C97" s="116" t="n">
         <f aca="false">B179</f>
         <v>0</v>
       </c>
-      <c r="D97" s="115" t="n">
+      <c r="D97" s="116" t="n">
         <f aca="false">B97+C97</f>
         <v>86329726.3452</v>
       </c>
@@ -16555,953 +16921,1001 @@
       <c r="A98" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="B98" s="115" t="n">
+      <c r="B98" s="116" t="n">
         <v>84659758.3242</v>
       </c>
-      <c r="C98" s="115" t="n">
+      <c r="C98" s="116" t="n">
         <f aca="false">B180</f>
         <v>0</v>
       </c>
-      <c r="D98" s="115" t="n">
+      <c r="D98" s="116" t="n">
         <f aca="false">B98+C98</f>
         <v>84659758.3242</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" s="115" t="n">
+      <c r="B99" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" s="116" t="n">
         <f aca="false">B181</f>
         <v>0</v>
       </c>
-      <c r="D99" s="115" t="n">
+      <c r="D99" s="116" t="n">
         <f aca="false">B99+C99</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="115" t="s">
+      <c r="A100" s="116" t="s">
         <v>441</v>
       </c>
-      <c r="B100" s="115" t="n">
-        <v>90879136.4136</v>
-      </c>
-      <c r="C100" s="115" t="n">
+      <c r="B100" s="116" t="n">
+        <f aca="false">1000000*F100</f>
+        <v>66630000</v>
+      </c>
+      <c r="C100" s="116" t="n">
         <f aca="false">B182</f>
         <v>0</v>
       </c>
-      <c r="D100" s="115" t="n">
+      <c r="D100" s="116" t="n">
         <f aca="false">B100+C100</f>
-        <v>90879136.4136</v>
+        <v>66630000</v>
+      </c>
+      <c r="F100" s="119" t="n">
+        <v>66.63</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="115" t="s">
+      <c r="A101" s="116" t="s">
         <v>449</v>
       </c>
-      <c r="B101" s="115" t="n">
-        <v>89019136.7324</v>
-      </c>
-      <c r="C101" s="115" t="n">
+      <c r="B101" s="116" t="n">
+        <f aca="false">1000000*F101</f>
+        <v>64772000</v>
+      </c>
+      <c r="C101" s="116" t="n">
         <f aca="false">B183</f>
         <v>0</v>
       </c>
-      <c r="D101" s="115" t="n">
+      <c r="D101" s="116" t="n">
         <f aca="false">B101+C101</f>
-        <v>89019136.7324</v>
+        <v>64772000</v>
+      </c>
+      <c r="F101" s="119" t="n">
+        <v>64.772</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="115" t="s">
+      <c r="A102" s="116" t="s">
         <v>425</v>
       </c>
-      <c r="B102" s="115" t="n">
-        <v>93869134.0209</v>
-      </c>
-      <c r="C102" s="115" t="n">
+      <c r="B102" s="116" t="n">
+        <f aca="false">1000000*F102</f>
+        <v>70370000</v>
+      </c>
+      <c r="C102" s="116" t="n">
         <f aca="false">B184</f>
         <v>0</v>
       </c>
-      <c r="D102" s="115" t="n">
+      <c r="D102" s="116" t="n">
         <f aca="false">B102+C102</f>
-        <v>93869134.0209</v>
+        <v>70370000</v>
+      </c>
+      <c r="F102" s="119" t="n">
+        <v>70.37</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="115" t="s">
+      <c r="A103" s="116" t="s">
         <v>433</v>
       </c>
-      <c r="B103" s="115" t="n">
-        <v>92809140.9317</v>
-      </c>
-      <c r="C103" s="115" t="n">
+      <c r="B103" s="116" t="n">
+        <f aca="false">1000000*F103</f>
+        <v>69305000</v>
+      </c>
+      <c r="C103" s="116" t="n">
         <f aca="false">B185</f>
         <v>0</v>
       </c>
-      <c r="D103" s="115" t="n">
+      <c r="D103" s="116" t="n">
         <f aca="false">B103+C103</f>
-        <v>92809140.9317</v>
+        <v>69305000</v>
+      </c>
+      <c r="F103" s="119" t="n">
+        <v>69.305</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="115" t="s">
+      <c r="A104" s="116" t="s">
         <v>409</v>
       </c>
-      <c r="B104" s="115" t="n">
-        <v>96979290.214</v>
-      </c>
-      <c r="C104" s="115" t="n">
+      <c r="B104" s="116" t="n">
+        <f aca="false">1000000*F104</f>
+        <v>75590000</v>
+      </c>
+      <c r="C104" s="116" t="n">
         <f aca="false">B186</f>
         <v>0</v>
       </c>
-      <c r="D104" s="115" t="n">
+      <c r="D104" s="116" t="n">
         <f aca="false">B104+C104</f>
-        <v>96979290.214</v>
+        <v>75590000</v>
+      </c>
+      <c r="F104" s="119" t="n">
+        <v>75.59</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="115" t="s">
+      <c r="A105" s="116" t="s">
         <v>417</v>
       </c>
-      <c r="B105" s="115" t="n">
-        <v>95229285.8882</v>
-      </c>
-      <c r="C105" s="115" t="n">
+      <c r="B105" s="116" t="n">
+        <f aca="false">1000000*F105</f>
+        <v>73838000</v>
+      </c>
+      <c r="C105" s="116" t="n">
         <f aca="false">B187</f>
         <v>0</v>
       </c>
-      <c r="D105" s="115" t="n">
+      <c r="D105" s="116" t="n">
         <f aca="false">B105+C105</f>
-        <v>95229285.8882</v>
+        <v>73838000</v>
+      </c>
+      <c r="F105" s="119" t="n">
+        <v>73.838</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="115" t="s">
+      <c r="A106" s="116" t="s">
         <v>393</v>
       </c>
-      <c r="B106" s="115" t="n">
-        <v>99639287.1783</v>
-      </c>
-      <c r="C106" s="115" t="n">
+      <c r="B106" s="116" t="n">
+        <f aca="false">1000000*F106</f>
+        <v>79760000</v>
+      </c>
+      <c r="C106" s="116" t="n">
         <f aca="false">B188</f>
         <v>0</v>
       </c>
-      <c r="D106" s="115" t="n">
+      <c r="D106" s="116" t="n">
         <f aca="false">B106+C106</f>
-        <v>99639287.1783</v>
+        <v>79760000</v>
+      </c>
+      <c r="F106" s="119" t="n">
+        <v>79.76</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="115" t="s">
+      <c r="A107" s="116" t="s">
         <v>401</v>
       </c>
-      <c r="B107" s="115" t="n">
-        <v>98249290.9797</v>
-      </c>
-      <c r="C107" s="115" t="n">
+      <c r="B107" s="116" t="n">
+        <f aca="false">1000000*F107</f>
+        <v>78371000</v>
+      </c>
+      <c r="C107" s="116" t="n">
         <f aca="false">B189</f>
         <v>0</v>
       </c>
-      <c r="D107" s="115" t="n">
+      <c r="D107" s="116" t="n">
         <f aca="false">B107+C107</f>
-        <v>98249290.9797</v>
+        <v>78371000</v>
+      </c>
+      <c r="F107" s="119" t="n">
+        <v>78.371</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="115" t="s">
+      <c r="A108" s="116" t="s">
         <v>377</v>
       </c>
-      <c r="B108" s="115" t="n">
-        <v>96429391.7793</v>
-      </c>
-      <c r="C108" s="115" t="n">
+      <c r="B108" s="116" t="n">
+        <f aca="false">1000000*F108</f>
+        <v>81790000</v>
+      </c>
+      <c r="C108" s="116" t="n">
         <f aca="false">B190</f>
         <v>0</v>
       </c>
-      <c r="D108" s="115" t="n">
+      <c r="D108" s="116" t="n">
         <f aca="false">B108+C108</f>
-        <v>96429391.7793</v>
+        <v>81790000</v>
+      </c>
+      <c r="F108" s="119" t="n">
+        <v>81.79</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="115" t="s">
+      <c r="A109" s="116" t="s">
         <v>385</v>
       </c>
-      <c r="B109" s="115" t="n">
-        <v>97539249.5741</v>
-      </c>
-      <c r="C109" s="115" t="n">
+      <c r="B109" s="116" t="n">
+        <f aca="false">1000000*F109</f>
+        <v>82904000</v>
+      </c>
+      <c r="C109" s="116" t="n">
         <f aca="false">B191</f>
         <v>0</v>
       </c>
-      <c r="D109" s="115" t="n">
+      <c r="D109" s="116" t="n">
         <f aca="false">B109+C109</f>
-        <v>97539249.5741</v>
+        <v>82904000</v>
+      </c>
+      <c r="F109" s="119" t="n">
+        <v>82.904</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="115" t="s">
+      <c r="A110" s="116" t="s">
         <v>361</v>
       </c>
-      <c r="B110" s="115" t="n">
-        <v>91648967.5723</v>
-      </c>
-      <c r="C110" s="115" t="n">
+      <c r="B110" s="116" t="n">
+        <f aca="false">1000000*F110</f>
+        <v>86739000</v>
+      </c>
+      <c r="C110" s="116" t="n">
         <f aca="false">B192</f>
         <v>0</v>
       </c>
-      <c r="D110" s="115" t="n">
+      <c r="D110" s="116" t="n">
         <f aca="false">B110+C110</f>
-        <v>91648967.5723</v>
+        <v>86739000</v>
+      </c>
+      <c r="F110" s="119" t="n">
+        <v>86.739</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="115" t="s">
+      <c r="A111" s="116" t="s">
         <v>369</v>
       </c>
-      <c r="B111" s="115" t="n">
-        <v>93569161.9565</v>
-      </c>
-      <c r="C111" s="115" t="n">
+      <c r="B111" s="116" t="n">
+        <f aca="false">1000000*F111</f>
+        <v>88695000</v>
+      </c>
+      <c r="C111" s="116" t="n">
         <f aca="false">B193</f>
         <v>0</v>
       </c>
-      <c r="D111" s="115" t="n">
+      <c r="D111" s="116" t="n">
         <f aca="false">B111+C111</f>
-        <v>93569161.9565</v>
+        <v>88695000</v>
+      </c>
+      <c r="F111" s="119" t="n">
+        <v>88.695</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" s="115" t="n">
+      <c r="B112" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" s="116" t="n">
         <f aca="false">B194</f>
         <v>0</v>
       </c>
-      <c r="D112" s="115" t="n">
+      <c r="D112" s="116" t="n">
         <f aca="false">B112+C112</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C113" s="115" t="n">
+      <c r="B113" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" s="116" t="n">
         <f aca="false">B195</f>
         <v>0</v>
       </c>
-      <c r="D113" s="115" t="n">
+      <c r="D113" s="116" t="n">
         <f aca="false">B113+C113</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" s="115" t="n">
+      <c r="B114" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" s="116" t="n">
         <f aca="false">B196</f>
         <v>0</v>
       </c>
-      <c r="D114" s="115" t="n">
+      <c r="D114" s="116" t="n">
         <f aca="false">B114+C114</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C115" s="115" t="n">
+      <c r="B115" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" s="116" t="n">
         <f aca="false">B197</f>
         <v>0</v>
       </c>
-      <c r="D115" s="115" t="n">
+      <c r="D115" s="116" t="n">
         <f aca="false">B115+C115</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" s="115" t="n">
+      <c r="B116" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" s="116" t="n">
         <f aca="false">B198</f>
         <v>0</v>
       </c>
-      <c r="D116" s="115" t="n">
+      <c r="D116" s="116" t="n">
         <f aca="false">B116+C116</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C117" s="115" t="n">
+      <c r="B117" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" s="116" t="n">
         <f aca="false">B199</f>
         <v>0</v>
       </c>
-      <c r="D117" s="115" t="n">
+      <c r="D117" s="116" t="n">
         <f aca="false">B117+C117</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C118" s="115" t="n">
+      <c r="B118" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" s="116" t="n">
         <f aca="false">B200</f>
         <v>0</v>
       </c>
-      <c r="D118" s="115" t="n">
+      <c r="D118" s="116" t="n">
         <f aca="false">B118+C118</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C119" s="115" t="n">
+      <c r="B119" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" s="116" t="n">
         <f aca="false">B201</f>
         <v>0</v>
       </c>
-      <c r="D119" s="115" t="n">
+      <c r="D119" s="116" t="n">
         <f aca="false">B119+C119</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C120" s="115" t="n">
+      <c r="B120" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" s="116" t="n">
         <f aca="false">B202</f>
         <v>0</v>
       </c>
-      <c r="D120" s="115" t="n">
+      <c r="D120" s="116" t="n">
         <f aca="false">B120+C120</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" s="115" t="n">
+      <c r="B121" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" s="116" t="n">
         <f aca="false">B203</f>
         <v>0</v>
       </c>
-      <c r="D121" s="115" t="n">
+      <c r="D121" s="116" t="n">
         <f aca="false">B121+C121</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C122" s="115" t="n">
+      <c r="B122" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" s="116" t="n">
         <f aca="false">B204</f>
         <v>0</v>
       </c>
-      <c r="D122" s="115" t="n">
+      <c r="D122" s="116" t="n">
         <f aca="false">B122+C122</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C123" s="115" t="n">
+      <c r="B123" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" s="116" t="n">
         <f aca="false">B205</f>
         <v>0</v>
       </c>
-      <c r="D123" s="115" t="n">
+      <c r="D123" s="116" t="n">
         <f aca="false">B123+C123</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C124" s="115" t="n">
+      <c r="B124" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" s="116" t="n">
         <f aca="false">B206</f>
         <v>0</v>
       </c>
-      <c r="D124" s="115" t="n">
+      <c r="D124" s="116" t="n">
         <f aca="false">B124+C124</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C125" s="115" t="n">
+      <c r="B125" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" s="116" t="n">
         <f aca="false">B207</f>
         <v>0</v>
       </c>
-      <c r="D125" s="115" t="n">
+      <c r="D125" s="116" t="n">
         <f aca="false">B125+C125</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C126" s="115" t="n">
+      <c r="B126" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" s="116" t="n">
         <f aca="false">B208</f>
         <v>0</v>
       </c>
-      <c r="D126" s="115" t="n">
+      <c r="D126" s="116" t="n">
         <f aca="false">B126+C126</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C127" s="115" t="n">
+      <c r="B127" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" s="116" t="n">
         <f aca="false">B209</f>
         <v>0</v>
       </c>
-      <c r="D127" s="115" t="n">
+      <c r="D127" s="116" t="n">
         <f aca="false">B127+C127</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C128" s="115" t="n">
+      <c r="B128" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" s="116" t="n">
         <f aca="false">B210</f>
         <v>0</v>
       </c>
-      <c r="D128" s="115" t="n">
+      <c r="D128" s="116" t="n">
         <f aca="false">B128+C128</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C129" s="115" t="n">
+      <c r="B129" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" s="116" t="n">
         <f aca="false">B211</f>
         <v>0</v>
       </c>
-      <c r="D129" s="115" t="n">
+      <c r="D129" s="116" t="n">
         <f aca="false">B129+C129</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C130" s="115" t="n">
+      <c r="B130" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" s="116" t="n">
         <f aca="false">B212</f>
         <v>0</v>
       </c>
-      <c r="D130" s="115" t="n">
+      <c r="D130" s="116" t="n">
         <f aca="false">B130+C130</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C131" s="115" t="n">
+      <c r="B131" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" s="116" t="n">
         <f aca="false">B213</f>
         <v>0</v>
       </c>
-      <c r="D131" s="115" t="n">
+      <c r="D131" s="116" t="n">
         <f aca="false">B131+C131</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C132" s="115" t="n">
+      <c r="B132" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" s="116" t="n">
         <f aca="false">B214</f>
         <v>0</v>
       </c>
-      <c r="D132" s="115" t="n">
+      <c r="D132" s="116" t="n">
         <f aca="false">B132+C132</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C133" s="115" t="n">
+      <c r="B133" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" s="116" t="n">
         <f aca="false">B215</f>
         <v>0</v>
       </c>
-      <c r="D133" s="115" t="n">
+      <c r="D133" s="116" t="n">
         <f aca="false">B133+C133</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C134" s="115" t="n">
+      <c r="B134" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" s="116" t="n">
         <f aca="false">B216</f>
         <v>0</v>
       </c>
-      <c r="D134" s="115" t="n">
+      <c r="D134" s="116" t="n">
         <f aca="false">B134+C134</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C135" s="115" t="n">
+      <c r="B135" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" s="116" t="n">
         <f aca="false">B217</f>
         <v>0</v>
       </c>
-      <c r="D135" s="115" t="n">
+      <c r="D135" s="116" t="n">
         <f aca="false">B135+C135</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C136" s="115" t="n">
+      <c r="B136" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" s="116" t="n">
         <f aca="false">B218</f>
         <v>0</v>
       </c>
-      <c r="D136" s="115" t="n">
+      <c r="D136" s="116" t="n">
         <f aca="false">B136+C136</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C137" s="115" t="n">
+      <c r="B137" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" s="116" t="n">
         <f aca="false">B219</f>
         <v>0</v>
       </c>
-      <c r="D137" s="115" t="n">
+      <c r="D137" s="116" t="n">
         <f aca="false">B137+C137</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C138" s="115" t="n">
+      <c r="B138" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" s="116" t="n">
         <f aca="false">B220</f>
         <v>0</v>
       </c>
-      <c r="D138" s="115" t="n">
+      <c r="D138" s="116" t="n">
         <f aca="false">B138+C138</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C139" s="115" t="n">
+      <c r="B139" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" s="116" t="n">
         <f aca="false">B221</f>
         <v>0</v>
       </c>
-      <c r="D139" s="115" t="n">
+      <c r="D139" s="116" t="n">
         <f aca="false">B139+C139</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C140" s="115" t="n">
+      <c r="B140" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" s="116" t="n">
         <f aca="false">B222</f>
         <v>0</v>
       </c>
-      <c r="D140" s="115" t="n">
+      <c r="D140" s="116" t="n">
         <f aca="false">B140+C140</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C141" s="115" t="n">
+      <c r="B141" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" s="116" t="n">
         <f aca="false">B223</f>
         <v>0</v>
       </c>
-      <c r="D141" s="115" t="n">
+      <c r="D141" s="116" t="n">
         <f aca="false">B141+C141</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C142" s="115" t="n">
+      <c r="B142" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" s="116" t="n">
         <f aca="false">B224</f>
         <v>0</v>
       </c>
-      <c r="D142" s="115" t="n">
+      <c r="D142" s="116" t="n">
         <f aca="false">B142+C142</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C143" s="115" t="n">
+      <c r="B143" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" s="116" t="n">
         <f aca="false">B225</f>
         <v>0</v>
       </c>
-      <c r="D143" s="115" t="n">
+      <c r="D143" s="116" t="n">
         <f aca="false">B143+C143</f>
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C144" s="115" t="n">
+      <c r="B144" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" s="116" t="n">
         <f aca="false">B226</f>
         <v>0</v>
       </c>
-      <c r="D144" s="115" t="n">
+      <c r="D144" s="116" t="n">
         <f aca="false">B144+C144</f>
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C145" s="115" t="n">
+      <c r="B145" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" s="116" t="n">
         <f aca="false">B227</f>
         <v>0</v>
       </c>
-      <c r="D145" s="115" t="n">
+      <c r="D145" s="116" t="n">
         <f aca="false">B145+C145</f>
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C146" s="115" t="n">
+      <c r="B146" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" s="116" t="n">
         <f aca="false">B228</f>
         <v>0</v>
       </c>
-      <c r="D146" s="115" t="n">
+      <c r="D146" s="116" t="n">
         <f aca="false">B146+C146</f>
         <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C147" s="115" t="n">
+      <c r="B147" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" s="116" t="n">
         <f aca="false">B229</f>
         <v>0</v>
       </c>
-      <c r="D147" s="115" t="n">
+      <c r="D147" s="116" t="n">
         <f aca="false">B147+C147</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C148" s="115" t="n">
+      <c r="B148" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" s="116" t="n">
         <f aca="false">B230</f>
         <v>0</v>
       </c>
-      <c r="D148" s="115" t="n">
+      <c r="D148" s="116" t="n">
         <f aca="false">B148+C148</f>
         <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C149" s="115" t="n">
+      <c r="B149" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" s="116" t="n">
         <f aca="false">B231</f>
         <v>0</v>
       </c>
-      <c r="D149" s="115" t="n">
+      <c r="D149" s="116" t="n">
         <f aca="false">B149+C149</f>
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C150" s="115" t="n">
+      <c r="B150" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" s="116" t="n">
         <f aca="false">B232</f>
         <v>0</v>
       </c>
-      <c r="D150" s="115" t="n">
+      <c r="D150" s="116" t="n">
         <f aca="false">B150+C150</f>
         <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C151" s="115" t="n">
+      <c r="B151" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" s="116" t="n">
         <f aca="false">B233</f>
         <v>0</v>
       </c>
-      <c r="D151" s="115" t="n">
+      <c r="D151" s="116" t="n">
         <f aca="false">B151+C151</f>
         <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C152" s="115" t="n">
+      <c r="B152" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" s="116" t="n">
         <f aca="false">B234</f>
         <v>0</v>
       </c>
-      <c r="D152" s="115" t="n">
+      <c r="D152" s="116" t="n">
         <f aca="false">B152+C152</f>
         <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C153" s="115" t="n">
+      <c r="B153" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" s="116" t="n">
         <f aca="false">B235</f>
         <v>0</v>
       </c>
-      <c r="D153" s="115" t="n">
+      <c r="D153" s="116" t="n">
         <f aca="false">B153+C153</f>
         <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C154" s="115" t="n">
+      <c r="B154" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" s="116" t="n">
         <f aca="false">B236</f>
         <v>0</v>
       </c>
-      <c r="D154" s="115" t="n">
+      <c r="D154" s="116" t="n">
         <f aca="false">B154+C154</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C155" s="115" t="n">
+      <c r="B155" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" s="116" t="n">
         <f aca="false">B237</f>
         <v>0</v>
       </c>
-      <c r="D155" s="115" t="n">
+      <c r="D155" s="116" t="n">
         <f aca="false">B155+C155</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C156" s="115" t="n">
+      <c r="B156" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" s="116" t="n">
         <f aca="false">B238</f>
         <v>0</v>
       </c>
-      <c r="D156" s="115" t="n">
+      <c r="D156" s="116" t="n">
         <f aca="false">B156+C156</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C157" s="115" t="n">
+      <c r="B157" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" s="116" t="n">
         <f aca="false">B239</f>
         <v>0</v>
       </c>
-      <c r="D157" s="115" t="n">
+      <c r="D157" s="116" t="n">
         <f aca="false">B157+C157</f>
         <v>0</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C158" s="115" t="n">
+      <c r="B158" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" s="116" t="n">
         <f aca="false">B240</f>
         <v>0</v>
       </c>
-      <c r="D158" s="115" t="n">
+      <c r="D158" s="116" t="n">
         <f aca="false">B158+C158</f>
         <v>0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C159" s="115" t="n">
+      <c r="B159" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" s="116" t="n">
         <f aca="false">B241</f>
         <v>0</v>
       </c>
-      <c r="D159" s="115" t="n">
+      <c r="D159" s="116" t="n">
         <f aca="false">B159+C159</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C160" s="115" t="n">
+      <c r="B160" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" s="116" t="n">
         <f aca="false">B242</f>
         <v>0</v>
       </c>
-      <c r="D160" s="115" t="n">
+      <c r="D160" s="116" t="n">
         <f aca="false">B160+C160</f>
         <v>0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C161" s="115" t="n">
+      <c r="B161" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" s="116" t="n">
         <f aca="false">B243</f>
         <v>0</v>
       </c>
-      <c r="D161" s="115" t="n">
+      <c r="D161" s="116" t="n">
         <f aca="false">B161+C161</f>
         <v>0</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C162" s="115" t="n">
+      <c r="B162" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" s="116" t="n">
         <f aca="false">B244</f>
         <v>0</v>
       </c>
-      <c r="D162" s="115" t="n">
+      <c r="D162" s="116" t="n">
         <f aca="false">B162+C162</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C163" s="115" t="n">
+      <c r="B163" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" s="116" t="n">
         <f aca="false">B245</f>
         <v>0</v>
       </c>
-      <c r="D163" s="115" t="n">
+      <c r="D163" s="116" t="n">
         <f aca="false">B163+C163</f>
         <v>0</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C164" s="115" t="n">
+      <c r="B164" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" s="116" t="n">
         <f aca="false">B246</f>
         <v>0</v>
       </c>
-      <c r="D164" s="115" t="n">
+      <c r="D164" s="116" t="n">
         <f aca="false">B164+C164</f>
         <v>0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C165" s="115" t="n">
+      <c r="B165" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" s="116" t="n">
         <f aca="false">B247</f>
         <v>0</v>
       </c>
-      <c r="D165" s="115" t="n">
+      <c r="D165" s="116" t="n">
         <f aca="false">B165+C165</f>
         <v>0</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C166" s="115" t="n">
+      <c r="B166" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" s="116" t="n">
         <f aca="false">B248</f>
         <v>0</v>
       </c>
-      <c r="D166" s="115" t="n">
+      <c r="D166" s="116" t="n">
         <f aca="false">B166+C166</f>
         <v>0</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C167" s="115" t="n">
+      <c r="B167" s="116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" s="116" t="n">
         <f aca="false">B249</f>
         <v>0</v>
       </c>
-      <c r="D167" s="115" t="n">
+      <c r="D167" s="116" t="n">
         <f aca="false">B167+C167</f>
         <v>0</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J171" s="115" t="n">
+      <c r="J171" s="116" t="n">
         <f aca="false">SUM(H132:H165,H92:H125,H50:H90,H2:H43)</f>
         <v>0</v>
       </c>
@@ -17528,7 +17942,7 @@
       <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.14"/>
@@ -17545,62 +17959,62 @@
         <v>665</v>
       </c>
     </row>
-    <row r="2" s="118" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="118" t="n">
+    <row r="2" s="120" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="120" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="120" t="s">
         <v>666</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="120" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="118" t="n">
+      <c r="A3" s="120" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="120" t="s">
         <v>667</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="120" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="118" t="n">
+      <c r="A4" s="120" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="120" t="s">
         <v>669</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="120" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="118" t="n">
+      <c r="A5" s="120" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="120" t="s">
         <v>670</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="120" t="s">
         <v>63</v>
       </c>
     </row>

--- a/nubus-to-ztex/signals.xlsx
+++ b/nubus-to-ztex/signals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="688">
   <si>
     <t xml:space="preserve">Connector PIN</t>
   </si>
@@ -2015,6 +2015,12 @@
   </si>
   <si>
     <t xml:space="preserve">~TM2_5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should be</t>
   </si>
   <si>
     <t xml:space="preserve">Slave</t>
@@ -2151,6 +2157,7 @@
       <color rgb="FF232627"/>
       <name val="Noto Sans"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2443,7 +2450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2912,6 +2919,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2920,7 +2931,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2944,7 +2955,6 @@
         <charset val="1"/>
         <family val="2"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -3017,8 +3027,8 @@
   </sheetPr>
   <dimension ref="A1:AH232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH110" activeCellId="0" sqref="AH110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB105" activeCellId="0" sqref="AB105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3357,8 +3367,7 @@
       <c r="U9" s="30" t="str">
         <f aca="false">IF(AND(K9&lt;&gt;"",K9&lt;&gt;"+3v3",K9&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D9," [get_ports {",K9,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K9,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K16 [get_ports {nmrq_n}]
-set_property IOSTANDARD LVTTL [get_ports {nmrq_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {nmrq_n}]</v>
       </c>
       <c r="V9" s="31" t="str">
         <f aca="false">IF(AND(K9&lt;&gt;"",K9&lt;&gt;"+3v3",K9&lt;&gt;"GND",NOT(ISNA(P9)),NOT(ISNA(N9))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S9/$V$8,"0.000")," [get_ports {",K9,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S9/$W$8,"0.000")," [get_ports {",K9,"}]",CHAR(10)),"")</f>
@@ -3432,8 +3441,7 @@
       <c r="U10" s="30" t="str">
         <f aca="false">IF(AND(K10&lt;&gt;"",K10&lt;&gt;"+3v3",K10&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D10," [get_ports {",K10,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K10,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J18 [get_ports {rqst_n}]
-set_property IOSTANDARD LVTTL [get_ports {rqst_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {rqst_n}]</v>
       </c>
       <c r="V10" s="31" t="str">
         <f aca="false">IF(AND(K10&lt;&gt;"",K10&lt;&gt;"+3v3",K10&lt;&gt;"GND",NOT(ISNA(P10)),NOT(ISNA(N10))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S10/$V$8,"0.000")," [get_ports {",K10,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S10/$W$8,"0.000")," [get_ports {",K10,"}]",CHAR(10)),"")</f>
@@ -3513,8 +3521,7 @@
       <c r="U11" s="30" t="str">
         <f aca="false">IF(AND(K11&lt;&gt;"",K11&lt;&gt;"+3v3",K11&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D11," [get_ports {",K11,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K11,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K15 [get_ports {start_n}]
-set_property IOSTANDARD LVTTL [get_ports {start_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {start_n}]</v>
       </c>
       <c r="V11" s="31" t="str">
         <f aca="false">IF(AND(K11&lt;&gt;"",K11&lt;&gt;"+3v3",K11&lt;&gt;"GND",NOT(ISNA(P11)),NOT(ISNA(N11))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S11/$V$8,"0.000")," [get_ports {",K11,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S11/$W$8,"0.000")," [get_ports {",K11,"}]",CHAR(10)),"")</f>
@@ -3596,8 +3603,7 @@
       <c r="U12" s="30" t="str">
         <f aca="false">IF(AND(K12&lt;&gt;"",K12&lt;&gt;"+3v3",K12&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D12," [get_ports {",K12,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K12,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J17 [get_ports {ack_n}]
-set_property IOSTANDARD LVTTL [get_ports {ack_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ack_n}]</v>
       </c>
       <c r="V12" s="31" t="str">
         <f aca="false">IF(AND(K12&lt;&gt;"",K12&lt;&gt;"+3v3",K12&lt;&gt;"GND",NOT(ISNA(P12)),NOT(ISNA(N12))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S12/$V$8,"0.000")," [get_ports {",K12,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S12/$W$8,"0.000")," [get_ports {",K12,"}]",CHAR(10)),"")</f>
@@ -3679,8 +3685,7 @@
       <c r="U13" s="30" t="str">
         <f aca="false">IF(AND(K13&lt;&gt;"",K13&lt;&gt;"+3v3",K13&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D13," [get_ports {",K13,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K13,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J15 [get_ports {start_oe_n}]
-set_property IOSTANDARD LVTTL [get_ports {start_oe_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {start_oe_n}]</v>
       </c>
       <c r="V13" s="31" t="str">
         <f aca="false">IF(AND(K13&lt;&gt;"",K13&lt;&gt;"+3v3",K13&lt;&gt;"GND",NOT(ISNA(P13)),NOT(ISNA(N13))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S13/$V$8,"0.000")," [get_ports {",K13,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S13/$W$8,"0.000")," [get_ports {",K13,"}]",CHAR(10)),"")</f>
@@ -3754,8 +3759,7 @@
       <c r="U14" s="30" t="str">
         <f aca="false">IF(AND(K14&lt;&gt;"",K14&lt;&gt;"+3v3",K14&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D14," [get_ports {",K14,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K14,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K13 [get_ports {rqst_o_n}]
-set_property IOSTANDARD LVTTL [get_ports {rqst_o_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {rqst_o_n}]</v>
       </c>
       <c r="V14" s="31" t="str">
         <f aca="false">IF(AND(K14&lt;&gt;"",K14&lt;&gt;"+3v3",K14&lt;&gt;"GND",NOT(ISNA(P14)),NOT(ISNA(N14))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S14/$V$8,"0.000")," [get_ports {",K14,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S14/$W$8,"0.000")," [get_ports {",K14,"}]",CHAR(10)),"")</f>
@@ -3831,8 +3835,7 @@
       <c r="U15" s="30" t="str">
         <f aca="false">IF(AND(K15&lt;&gt;"",K15&lt;&gt;"+3v3",K15&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D15," [get_ports {",K15,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K15,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN H15 [get_ports {start_o_n}]
-set_property IOSTANDARD LVTTL [get_ports {start_o_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {start_o_n}]</v>
       </c>
       <c r="V15" s="31" t="str">
         <f aca="false">IF(AND(K15&lt;&gt;"",K15&lt;&gt;"+3v3",K15&lt;&gt;"GND",NOT(ISNA(P15)),NOT(ISNA(N15))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S15/$V$8,"0.000")," [get_ports {",K15,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S15/$W$8,"0.000")," [get_ports {",K15,"}]",CHAR(10)),"")</f>
@@ -3906,8 +3909,7 @@
       <c r="U16" s="30" t="str">
         <f aca="false">IF(AND(K16&lt;&gt;"",K16&lt;&gt;"+3v3",K16&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D16," [get_ports {",K16,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K16,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J13 [get_ports {ack_oe_n}]
-set_property IOSTANDARD LVTTL [get_ports {ack_oe_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ack_oe_n}]</v>
       </c>
       <c r="V16" s="31" t="str">
         <f aca="false">IF(AND(K16&lt;&gt;"",K16&lt;&gt;"+3v3",K16&lt;&gt;"GND",NOT(ISNA(P16)),NOT(ISNA(N16))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S16/$V$8,"0.000")," [get_ports {",K16,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S16/$W$8,"0.000")," [get_ports {",K16,"}]",CHAR(10)),"")</f>
@@ -3981,8 +3983,7 @@
       <c r="U17" s="30" t="str">
         <f aca="false">IF(AND(K17&lt;&gt;"",K17&lt;&gt;"+3v3",K17&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D17," [get_ports {",K17,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K17,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN J14 [get_ports {arb_o_n0}]
-set_property IOSTANDARD LVTTL [get_ports {arb_o_n0}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_o_n0}]</v>
       </c>
       <c r="V17" s="31" t="str">
         <f aca="false">IF(AND(K17&lt;&gt;"",K17&lt;&gt;"+3v3",K17&lt;&gt;"GND",NOT(ISNA(P17)),NOT(ISNA(N17))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S17/$V$8,"0.000")," [get_ports {",K17,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S17/$W$8,"0.000")," [get_ports {",K17,"}]",CHAR(10)),"")</f>
@@ -4056,8 +4057,7 @@
       <c r="U18" s="30" t="str">
         <f aca="false">IF(AND(K18&lt;&gt;"",K18&lt;&gt;"+3v3",K18&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D18," [get_ports {",K18,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K18,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN H14 [get_ports {ack_o_n}]
-set_property IOSTANDARD LVTTL [get_ports {ack_o_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ack_o_n}]</v>
       </c>
       <c r="V18" s="31" t="str">
         <f aca="false">IF(AND(K18&lt;&gt;"",K18&lt;&gt;"+3v3",K18&lt;&gt;"GND",NOT(ISNA(P18)),NOT(ISNA(N18))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S18/$V$8,"0.000")," [get_ports {",K18,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S18/$W$8,"0.000")," [get_ports {",K18,"}]",CHAR(10)),"")</f>
@@ -4131,8 +4131,7 @@
       <c r="U19" s="30" t="str">
         <f aca="false">IF(AND(K19&lt;&gt;"",K19&lt;&gt;"+3v3",K19&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D19," [get_ports {",K19,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K19,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN H17 [get_ports {arb_o_n3}]
-set_property IOSTANDARD LVTTL [get_ports {arb_o_n3}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_o_n3}]</v>
       </c>
       <c r="V19" s="31" t="str">
         <f aca="false">IF(AND(K19&lt;&gt;"",K19&lt;&gt;"+3v3",K19&lt;&gt;"GND",NOT(ISNA(P19)),NOT(ISNA(N19))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S19/$V$8,"0.000")," [get_ports {",K19,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S19/$W$8,"0.000")," [get_ports {",K19,"}]",CHAR(10)),"")</f>
@@ -4206,8 +4205,7 @@
       <c r="U20" s="30" t="str">
         <f aca="false">IF(AND(K20&lt;&gt;"",K20&lt;&gt;"+3v3",K20&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D20," [get_ports {",K20,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K20,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G14 [get_ports {arb_o_n2}]
-set_property IOSTANDARD LVTTL [get_ports {arb_o_n2}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_o_n2}]</v>
       </c>
       <c r="V20" s="31" t="str">
         <f aca="false">IF(AND(K20&lt;&gt;"",K20&lt;&gt;"+3v3",K20&lt;&gt;"GND",NOT(ISNA(P20)),NOT(ISNA(N20))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S20/$V$8,"0.000")," [get_ports {",K20,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S20/$W$8,"0.000")," [get_ports {",K20,"}]",CHAR(10)),"")</f>
@@ -4281,8 +4279,7 @@
       <c r="U21" s="30" t="str">
         <f aca="false">IF(AND(K21&lt;&gt;"",K21&lt;&gt;"+3v3",K21&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D21," [get_ports {",K21,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K21,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G17 [get_ports {NUBUS_AD_DIR}]
-set_property IOSTANDARD LVTTL [get_ports {NUBUS_AD_DIR}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {NUBUS_AD_DIR}]</v>
       </c>
       <c r="V21" s="31" t="str">
         <f aca="false">IF(AND(K21&lt;&gt;"",K21&lt;&gt;"+3v3",K21&lt;&gt;"GND",NOT(ISNA(P21)),NOT(ISNA(N21))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S21/$V$8,"0.000")," [get_ports {",K21,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S21/$W$8,"0.000")," [get_ports {",K21,"}]",CHAR(10)),"")</f>
@@ -4358,8 +4355,7 @@
       <c r="U22" s="30" t="str">
         <f aca="false">IF(AND(K22&lt;&gt;"",K22&lt;&gt;"+3v3",K22&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D22," [get_ports {",K22,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K22,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G16 [get_ports {arb_o_n1}]
-set_property IOSTANDARD LVTTL [get_ports {arb_o_n1}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_o_n1}]</v>
       </c>
       <c r="V22" s="31" t="str">
         <f aca="false">IF(AND(K22&lt;&gt;"",K22&lt;&gt;"+3v3",K22&lt;&gt;"GND",NOT(ISNA(P22)),NOT(ISNA(N22))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S22/$V$8,"0.000")," [get_ports {",K22,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S22/$W$8,"0.000")," [get_ports {",K22,"}]",CHAR(10)),"")</f>
@@ -4433,8 +4429,7 @@
       <c r="U23" s="30" t="str">
         <f aca="false">IF(AND(K23&lt;&gt;"",K23&lt;&gt;"+3v3",K23&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D23," [get_ports {",K23,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K23,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G18 [get_ports {ad_n31}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n31}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n31}]</v>
       </c>
       <c r="V23" s="31" t="str">
         <f aca="false">IF(AND(K23&lt;&gt;"",K23&lt;&gt;"+3v3",K23&lt;&gt;"GND",NOT(ISNA(P23)),NOT(ISNA(N23))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S23/$V$8,"0.000")," [get_ports {",K23,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S23/$W$8,"0.000")," [get_ports {",K23,"}]",CHAR(10)),"")</f>
@@ -4518,8 +4513,7 @@
       <c r="U24" s="30" t="str">
         <f aca="false">IF(AND(K24&lt;&gt;"",K24&lt;&gt;"+3v3",K24&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D24," [get_ports {",K24,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K24,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN H16 [get_ports {clk_n}]
-set_property IOSTANDARD LVTTL [get_ports {clk_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {clk_n}]</v>
       </c>
       <c r="V24" s="31" t="str">
         <f aca="false">IF(AND(K24&lt;&gt;"",K24&lt;&gt;"+3v3",K24&lt;&gt;"GND",NOT(ISNA(P24)),NOT(ISNA(N24))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S24/$V$8,"0.000")," [get_ports {",K24,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S24/$W$8,"0.000")," [get_ports {",K24,"}]",CHAR(10)),"")</f>
@@ -4599,8 +4593,7 @@
       <c r="U25" s="30" t="str">
         <f aca="false">IF(AND(K25&lt;&gt;"",K25&lt;&gt;"+3v3",K25&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D25," [get_ports {",K25,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K25,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN F18 [get_ports {ad_n29}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n29}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n29}]</v>
       </c>
       <c r="V25" s="31" t="str">
         <f aca="false">IF(AND(K25&lt;&gt;"",K25&lt;&gt;"+3v3",K25&lt;&gt;"GND",NOT(ISNA(P25)),NOT(ISNA(N25))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S25/$V$8,"0.000")," [get_ports {",K25,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S25/$W$8,"0.000")," [get_ports {",K25,"}]",CHAR(10)),"")</f>
@@ -4684,8 +4677,7 @@
       <c r="U26" s="30" t="str">
         <f aca="false">IF(AND(K26&lt;&gt;"",K26&lt;&gt;"+3v3",K26&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D26," [get_ports {",K26,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K26,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN F16 [get_ports {ad_n30}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n30}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n30}]</v>
       </c>
       <c r="V26" s="31" t="str">
         <f aca="false">IF(AND(K26&lt;&gt;"",K26&lt;&gt;"+3v3",K26&lt;&gt;"GND",NOT(ISNA(P26)),NOT(ISNA(N26))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S26/$V$8,"0.000")," [get_ports {",K26,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S26/$W$8,"0.000")," [get_ports {",K26,"}]",CHAR(10)),"")</f>
@@ -4767,8 +4759,7 @@
       <c r="U27" s="30" t="str">
         <f aca="false">IF(AND(K27&lt;&gt;"",K27&lt;&gt;"+3v3",K27&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D27," [get_ports {",K27,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K27,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN E18 [get_ports {ad_n27}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n27}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n27}]</v>
       </c>
       <c r="V27" s="31" t="str">
         <f aca="false">IF(AND(K27&lt;&gt;"",K27&lt;&gt;"+3v3",K27&lt;&gt;"GND",NOT(ISNA(P27)),NOT(ISNA(N27))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S27/$V$8,"0.000")," [get_ports {",K27,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S27/$W$8,"0.000")," [get_ports {",K27,"}]",CHAR(10)),"")</f>
@@ -4852,8 +4843,7 @@
       <c r="U28" s="30" t="str">
         <f aca="false">IF(AND(K28&lt;&gt;"",K28&lt;&gt;"+3v3",K28&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D28," [get_ports {",K28,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K28,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN F15 [get_ports {ad_n28}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n28}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n28}]</v>
       </c>
       <c r="V28" s="31" t="str">
         <f aca="false">IF(AND(K28&lt;&gt;"",K28&lt;&gt;"+3v3",K28&lt;&gt;"GND",NOT(ISNA(P28)),NOT(ISNA(N28))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S28/$V$8,"0.000")," [get_ports {",K28,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S28/$W$8,"0.000")," [get_ports {",K28,"}]",CHAR(10)),"")</f>
@@ -4935,8 +4925,7 @@
       <c r="U29" s="30" t="str">
         <f aca="false">IF(AND(K29&lt;&gt;"",K29&lt;&gt;"+3v3",K29&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D29," [get_ports {",K29,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K29,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN D18 [get_ports {ad_n25}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n25}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n25}]</v>
       </c>
       <c r="V29" s="31" t="str">
         <f aca="false">IF(AND(K29&lt;&gt;"",K29&lt;&gt;"+3v3",K29&lt;&gt;"GND",NOT(ISNA(P29)),NOT(ISNA(N29))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S29/$V$8,"0.000")," [get_ports {",K29,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S29/$W$8,"0.000")," [get_ports {",K29,"}]",CHAR(10)),"")</f>
@@ -5018,8 +5007,7 @@
       <c r="U30" s="30" t="str">
         <f aca="false">IF(AND(K30&lt;&gt;"",K30&lt;&gt;"+3v3",K30&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D30," [get_ports {",K30,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K30,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN E17 [get_ports {ad_n26}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n26}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n26}]</v>
       </c>
       <c r="V30" s="31" t="str">
         <f aca="false">IF(AND(K30&lt;&gt;"",K30&lt;&gt;"+3v3",K30&lt;&gt;"GND",NOT(ISNA(P30)),NOT(ISNA(N30))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S30/$V$8,"0.000")," [get_ports {",K30,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S30/$W$8,"0.000")," [get_ports {",K30,"}]",CHAR(10)),"")</f>
@@ -5073,7 +5061,7 @@
       </c>
       <c r="K31" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H31)),$H31,"")</f>
-        <v>nubus_oe </v>
+        <v>nubus_oe</v>
       </c>
       <c r="M31" s="0" t="n">
         <f aca="false">VLOOKUP(A31,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -5101,8 +5089,7 @@
       <c r="U31" s="30" t="str">
         <f aca="false">IF(AND(K31&lt;&gt;"",K31&lt;&gt;"+3v3",K31&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D31," [get_ports {",K31,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K31,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN G13 [get_ports {nubus_oe }]
-set_property IOSTANDARD LVTTL [get_ports {nubus_oe }]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {nubus_oe }]</v>
       </c>
       <c r="V31" s="31" t="str">
         <f aca="false">IF(AND(K31&lt;&gt;"",K31&lt;&gt;"+3v3",K31&lt;&gt;"GND",NOT(ISNA(P31)),NOT(ISNA(N31))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S31/$V$8,"0.000")," [get_ports {",K31,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S31/$W$8,"0.000")," [get_ports {",K31,"}]",CHAR(10)),"")</f>
@@ -5176,8 +5163,7 @@
       <c r="U32" s="30" t="str">
         <f aca="false">IF(AND(K32&lt;&gt;"",K32&lt;&gt;"+3v3",K32&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D32," [get_ports {",K32,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K32,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN D17 [get_ports {ad_n24}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n24}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n24}]</v>
       </c>
       <c r="V32" s="31" t="str">
         <f aca="false">IF(AND(K32&lt;&gt;"",K32&lt;&gt;"+3v3",K32&lt;&gt;"GND",NOT(ISNA(P32)),NOT(ISNA(N32))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S32/$V$8,"0.000")," [get_ports {",K32,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S32/$W$8,"0.000")," [get_ports {",K32,"}]",CHAR(10)),"")</f>
@@ -5241,7 +5227,9 @@
       </c>
       <c r="U33" s="30" t="str">
         <f aca="false">IF(AND(K33&lt;&gt;"",K33&lt;&gt;"+3v3",K33&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D33," [get_ports {",K33,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K33,"}]",CHAR(10)),"")</f>
-        <v/>
+        <v>set_property PACKAGE_PIN  [get_ports {0}]
+set_property IOSTANDARD LVTTL [get_ports {0}]
+</v>
       </c>
       <c r="V33" s="31" t="str">
         <f aca="false">IF(AND(K33&lt;&gt;"",K33&lt;&gt;"+3v3",K33&lt;&gt;"GND",NOT(ISNA(P33)),NOT(ISNA(N33))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S33/$V$8,"0.000")," [get_ports {",K33,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S33/$W$8,"0.000")," [get_ports {",K33,"}]",CHAR(10)),"")</f>
@@ -5614,8 +5602,7 @@
       <c r="U39" s="30" t="str">
         <f aca="false">IF(AND(K39&lt;&gt;"",K39&lt;&gt;"+3v3",K39&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D39," [get_ports {",K39,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K39,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN F13 [get_ports {ad_n23}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n23}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n23}]</v>
       </c>
       <c r="V39" s="31" t="str">
         <f aca="false">IF(AND(K39&lt;&gt;"",K39&lt;&gt;"+3v3",K39&lt;&gt;"GND",NOT(ISNA(P39)),NOT(ISNA(N39))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S39/$V$8,"0.000")," [get_ports {",K39,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S39/$W$8,"0.000")," [get_ports {",K39,"}]",CHAR(10)),"")</f>
@@ -5697,8 +5684,7 @@
       <c r="U40" s="30" t="str">
         <f aca="false">IF(AND(K40&lt;&gt;"",K40&lt;&gt;"+3v3",K40&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D40," [get_ports {",K40,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K40,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN F14 [get_ports {ad_n22}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n22}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n22}]</v>
       </c>
       <c r="V40" s="31" t="str">
         <f aca="false">IF(AND(K40&lt;&gt;"",K40&lt;&gt;"+3v3",K40&lt;&gt;"GND",NOT(ISNA(P40)),NOT(ISNA(N40))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S40/$V$8,"0.000")," [get_ports {",K40,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S40/$W$8,"0.000")," [get_ports {",K40,"}]",CHAR(10)),"")</f>
@@ -5782,8 +5768,7 @@
       <c r="U41" s="30" t="str">
         <f aca="false">IF(AND(K41&lt;&gt;"",K41&lt;&gt;"+3v3",K41&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D41," [get_ports {",K41,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K41,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN E16 [get_ports {ad_n21}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n21}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n21}]</v>
       </c>
       <c r="V41" s="31" t="str">
         <f aca="false">IF(AND(K41&lt;&gt;"",K41&lt;&gt;"+3v3",K41&lt;&gt;"GND",NOT(ISNA(P41)),NOT(ISNA(N41))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S41/$V$8,"0.000")," [get_ports {",K41,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S41/$W$8,"0.000")," [get_ports {",K41,"}]",CHAR(10)),"")</f>
@@ -5867,8 +5852,7 @@
       <c r="U42" s="30" t="str">
         <f aca="false">IF(AND(K42&lt;&gt;"",K42&lt;&gt;"+3v3",K42&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D42," [get_ports {",K42,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K42,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN E15 [get_ports {ad_n20}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n20}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n20}]</v>
       </c>
       <c r="V42" s="31" t="str">
         <f aca="false">IF(AND(K42&lt;&gt;"",K42&lt;&gt;"+3v3",K42&lt;&gt;"GND",NOT(ISNA(P42)),NOT(ISNA(N42))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S42/$V$8,"0.000")," [get_ports {",K42,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S42/$W$8,"0.000")," [get_ports {",K42,"}]",CHAR(10)),"")</f>
@@ -5950,8 +5934,7 @@
       <c r="U43" s="30" t="str">
         <f aca="false">IF(AND(K43&lt;&gt;"",K43&lt;&gt;"+3v3",K43&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D43," [get_ports {",K43,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K43,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN C17 [get_ports {ad_n19}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n19}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n19}]</v>
       </c>
       <c r="V43" s="31" t="str">
         <f aca="false">IF(AND(K43&lt;&gt;"",K43&lt;&gt;"+3v3",K43&lt;&gt;"GND",NOT(ISNA(P43)),NOT(ISNA(N43))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S43/$V$8,"0.000")," [get_ports {",K43,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S43/$W$8,"0.000")," [get_ports {",K43,"}]",CHAR(10)),"")</f>
@@ -6033,8 +6016,7 @@
       <c r="U44" s="30" t="str">
         <f aca="false">IF(AND(K44&lt;&gt;"",K44&lt;&gt;"+3v3",K44&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D44," [get_ports {",K44,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K44,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN C16 [get_ports {ad_n18}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n18}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n18}]</v>
       </c>
       <c r="V44" s="31" t="str">
         <f aca="false">IF(AND(K44&lt;&gt;"",K44&lt;&gt;"+3v3",K44&lt;&gt;"GND",NOT(ISNA(P44)),NOT(ISNA(N44))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S44/$V$8,"0.000")," [get_ports {",K44,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S44/$W$8,"0.000")," [get_ports {",K44,"}]",CHAR(10)),"")</f>
@@ -6118,8 +6100,7 @@
       <c r="U45" s="30" t="str">
         <f aca="false">IF(AND(K45&lt;&gt;"",K45&lt;&gt;"+3v3",K45&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D45," [get_ports {",K45,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K45,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN A18 [get_ports {ad_n17}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n17}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n17}]</v>
       </c>
       <c r="V45" s="31" t="str">
         <f aca="false">IF(AND(K45&lt;&gt;"",K45&lt;&gt;"+3v3",K45&lt;&gt;"GND",NOT(ISNA(P45)),NOT(ISNA(N45))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S45/$V$8,"0.000")," [get_ports {",K45,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S45/$W$8,"0.000")," [get_ports {",K45,"}]",CHAR(10)),"")</f>
@@ -6201,8 +6182,7 @@
       <c r="U46" s="30" t="str">
         <f aca="false">IF(AND(K46&lt;&gt;"",K46&lt;&gt;"+3v3",K46&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D46," [get_ports {",K46,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K46,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B18 [get_ports {ad_n16}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n16}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n16}]</v>
       </c>
       <c r="V46" s="31" t="str">
         <f aca="false">IF(AND(K46&lt;&gt;"",K46&lt;&gt;"+3v3",K46&lt;&gt;"GND",NOT(ISNA(P46)),NOT(ISNA(N46))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S46/$V$8,"0.000")," [get_ports {",K46,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S46/$W$8,"0.000")," [get_ports {",K46,"}]",CHAR(10)),"")</f>
@@ -6286,8 +6266,7 @@
       <c r="U47" s="30" t="str">
         <f aca="false">IF(AND(K47&lt;&gt;"",K47&lt;&gt;"+3v3",K47&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D47," [get_ports {",K47,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K47,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN C15 [get_ports {ad_n15}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n15}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n15}]</v>
       </c>
       <c r="V47" s="31" t="str">
         <f aca="false">IF(AND(K47&lt;&gt;"",K47&lt;&gt;"+3v3",K47&lt;&gt;"GND",NOT(ISNA(P47)),NOT(ISNA(N47))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S47/$V$8,"0.000")," [get_ports {",K47,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S47/$W$8,"0.000")," [get_ports {",K47,"}]",CHAR(10)),"")</f>
@@ -6371,8 +6350,7 @@
       <c r="U48" s="30" t="str">
         <f aca="false">IF(AND(K48&lt;&gt;"",K48&lt;&gt;"+3v3",K48&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D48," [get_ports {",K48,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K48,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN D15 [get_ports {ad_n14}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n14}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n14}]</v>
       </c>
       <c r="V48" s="31" t="str">
         <f aca="false">IF(AND(K48&lt;&gt;"",K48&lt;&gt;"+3v3",K48&lt;&gt;"GND",NOT(ISNA(P48)),NOT(ISNA(N48))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S48/$V$8,"0.000")," [get_ports {",K48,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S48/$W$8,"0.000")," [get_ports {",K48,"}]",CHAR(10)),"")</f>
@@ -6454,8 +6432,7 @@
       <c r="U49" s="30" t="str">
         <f aca="false">IF(AND(K49&lt;&gt;"",K49&lt;&gt;"+3v3",K49&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D49," [get_ports {",K49,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K49,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B17 [get_ports {ad_n13}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n13}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n13}]</v>
       </c>
       <c r="V49" s="31" t="str">
         <f aca="false">IF(AND(K49&lt;&gt;"",K49&lt;&gt;"+3v3",K49&lt;&gt;"GND",NOT(ISNA(P49)),NOT(ISNA(N49))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S49/$V$8,"0.000")," [get_ports {",K49,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S49/$W$8,"0.000")," [get_ports {",K49,"}]",CHAR(10)),"")</f>
@@ -6537,8 +6514,7 @@
       <c r="U50" s="30" t="str">
         <f aca="false">IF(AND(K50&lt;&gt;"",K50&lt;&gt;"+3v3",K50&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D50," [get_ports {",K50,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K50,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B16 [get_ports {ad_n12}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n12}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n12}]</v>
       </c>
       <c r="V50" s="31" t="str">
         <f aca="false">IF(AND(K50&lt;&gt;"",K50&lt;&gt;"+3v3",K50&lt;&gt;"GND",NOT(ISNA(P50)),NOT(ISNA(N50))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S50/$V$8,"0.000")," [get_ports {",K50,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S50/$W$8,"0.000")," [get_ports {",K50,"}]",CHAR(10)),"")</f>
@@ -6620,8 +6596,7 @@
       <c r="U51" s="30" t="str">
         <f aca="false">IF(AND(K51&lt;&gt;"",K51&lt;&gt;"+3v3",K51&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D51," [get_ports {",K51,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K51,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN C14 [get_ports {ad_n11}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n11}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n11}]</v>
       </c>
       <c r="V51" s="31" t="str">
         <f aca="false">IF(AND(K51&lt;&gt;"",K51&lt;&gt;"+3v3",K51&lt;&gt;"GND",NOT(ISNA(P51)),NOT(ISNA(N51))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S51/$V$8,"0.000")," [get_ports {",K51,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S51/$W$8,"0.000")," [get_ports {",K51,"}]",CHAR(10)),"")</f>
@@ -6703,8 +6678,7 @@
       <c r="U52" s="30" t="str">
         <f aca="false">IF(AND(K52&lt;&gt;"",K52&lt;&gt;"+3v3",K52&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D52," [get_ports {",K52,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K52,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN D14 [get_ports {ad_n10}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n10}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n10}]</v>
       </c>
       <c r="V52" s="31" t="str">
         <f aca="false">IF(AND(K52&lt;&gt;"",K52&lt;&gt;"+3v3",K52&lt;&gt;"GND",NOT(ISNA(P52)),NOT(ISNA(N52))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S52/$V$8,"0.000")," [get_ports {",K52,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S52/$W$8,"0.000")," [get_ports {",K52,"}]",CHAR(10)),"")</f>
@@ -6788,8 +6762,7 @@
       <c r="U53" s="30" t="str">
         <f aca="false">IF(AND(K53&lt;&gt;"",K53&lt;&gt;"+3v3",K53&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D53," [get_ports {",K53,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K53,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN D13 [get_ports {ad_n9}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n9}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n9}]</v>
       </c>
       <c r="V53" s="31" t="str">
         <f aca="false">IF(AND(K53&lt;&gt;"",K53&lt;&gt;"+3v3",K53&lt;&gt;"GND",NOT(ISNA(P53)),NOT(ISNA(N53))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S53/$V$8,"0.000")," [get_ports {",K53,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S53/$W$8,"0.000")," [get_ports {",K53,"}]",CHAR(10)),"")</f>
@@ -6871,8 +6844,7 @@
       <c r="U54" s="30" t="str">
         <f aca="false">IF(AND(K54&lt;&gt;"",K54&lt;&gt;"+3v3",K54&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D54," [get_ports {",K54,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K54,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN D12 [get_ports {ad_n8}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n8}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n8}]</v>
       </c>
       <c r="V54" s="31" t="str">
         <f aca="false">IF(AND(K54&lt;&gt;"",K54&lt;&gt;"+3v3",K54&lt;&gt;"GND",NOT(ISNA(P54)),NOT(ISNA(N54))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S54/$V$8,"0.000")," [get_ports {",K54,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S54/$W$8,"0.000")," [get_ports {",K54,"}]",CHAR(10)),"")</f>
@@ -6954,8 +6926,7 @@
       <c r="U55" s="30" t="str">
         <f aca="false">IF(AND(K55&lt;&gt;"",K55&lt;&gt;"+3v3",K55&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D55," [get_ports {",K55,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K55,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN A16 [get_ports {ad_n7}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n7}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n7}]</v>
       </c>
       <c r="V55" s="31" t="str">
         <f aca="false">IF(AND(K55&lt;&gt;"",K55&lt;&gt;"+3v3",K55&lt;&gt;"GND",NOT(ISNA(P55)),NOT(ISNA(N55))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S55/$V$8,"0.000")," [get_ports {",K55,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S55/$W$8,"0.000")," [get_ports {",K55,"}]",CHAR(10)),"")</f>
@@ -7037,8 +7008,7 @@
       <c r="U56" s="30" t="str">
         <f aca="false">IF(AND(K56&lt;&gt;"",K56&lt;&gt;"+3v3",K56&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D56," [get_ports {",K56,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K56,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN A15 [get_ports {ad_n6}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n6}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n6}]</v>
       </c>
       <c r="V56" s="31" t="str">
         <f aca="false">IF(AND(K56&lt;&gt;"",K56&lt;&gt;"+3v3",K56&lt;&gt;"GND",NOT(ISNA(P56)),NOT(ISNA(N56))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S56/$V$8,"0.000")," [get_ports {",K56,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S56/$W$8,"0.000")," [get_ports {",K56,"}]",CHAR(10)),"")</f>
@@ -7120,8 +7090,7 @@
       <c r="U57" s="30" t="str">
         <f aca="false">IF(AND(K57&lt;&gt;"",K57&lt;&gt;"+3v3",K57&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D57," [get_ports {",K57,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K57,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B14 [get_ports {ad_n5}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n5}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n5}]</v>
       </c>
       <c r="V57" s="31" t="str">
         <f aca="false">IF(AND(K57&lt;&gt;"",K57&lt;&gt;"+3v3",K57&lt;&gt;"GND",NOT(ISNA(P57)),NOT(ISNA(N57))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S57/$V$8,"0.000")," [get_ports {",K57,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S57/$W$8,"0.000")," [get_ports {",K57,"}]",CHAR(10)),"")</f>
@@ -7203,8 +7172,7 @@
       <c r="U58" s="30" t="str">
         <f aca="false">IF(AND(K58&lt;&gt;"",K58&lt;&gt;"+3v3",K58&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D58," [get_ports {",K58,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K58,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B13 [get_ports {ad_n4}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n4}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n4}]</v>
       </c>
       <c r="V58" s="31" t="str">
         <f aca="false">IF(AND(K58&lt;&gt;"",K58&lt;&gt;"+3v3",K58&lt;&gt;"GND",NOT(ISNA(P58)),NOT(ISNA(N58))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S58/$V$8,"0.000")," [get_ports {",K58,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S58/$W$8,"0.000")," [get_ports {",K58,"}]",CHAR(10)),"")</f>
@@ -7286,8 +7254,7 @@
       <c r="U59" s="30" t="str">
         <f aca="false">IF(AND(K59&lt;&gt;"",K59&lt;&gt;"+3v3",K59&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D59," [get_ports {",K59,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K59,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B12 [get_ports {ad_n3}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n3}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n3}]</v>
       </c>
       <c r="V59" s="31" t="str">
         <f aca="false">IF(AND(K59&lt;&gt;"",K59&lt;&gt;"+3v3",K59&lt;&gt;"GND",NOT(ISNA(P59)),NOT(ISNA(N59))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S59/$V$8,"0.000")," [get_ports {",K59,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S59/$W$8,"0.000")," [get_ports {",K59,"}]",CHAR(10)),"")</f>
@@ -7369,8 +7336,7 @@
       <c r="U60" s="30" t="str">
         <f aca="false">IF(AND(K60&lt;&gt;"",K60&lt;&gt;"+3v3",K60&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D60," [get_ports {",K60,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K60,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN C12 [get_ports {ad_n2}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n2}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n2}]</v>
       </c>
       <c r="V60" s="31" t="str">
         <f aca="false">IF(AND(K60&lt;&gt;"",K60&lt;&gt;"+3v3",K60&lt;&gt;"GND",NOT(ISNA(P60)),NOT(ISNA(N60))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S60/$V$8,"0.000")," [get_ports {",K60,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S60/$W$8,"0.000")," [get_ports {",K60,"}]",CHAR(10)),"")</f>
@@ -7452,8 +7418,7 @@
       <c r="U61" s="30" t="str">
         <f aca="false">IF(AND(K61&lt;&gt;"",K61&lt;&gt;"+3v3",K61&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D61," [get_ports {",K61,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K61,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN A14 [get_ports {ad_n1}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n1}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n1}]</v>
       </c>
       <c r="V61" s="31" t="str">
         <f aca="false">IF(AND(K61&lt;&gt;"",K61&lt;&gt;"+3v3",K61&lt;&gt;"GND",NOT(ISNA(P61)),NOT(ISNA(N61))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S61/$V$8,"0.000")," [get_ports {",K61,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S61/$W$8,"0.000")," [get_ports {",K61,"}]",CHAR(10)),"")</f>
@@ -7535,8 +7500,7 @@
       <c r="U62" s="30" t="str">
         <f aca="false">IF(AND(K62&lt;&gt;"",K62&lt;&gt;"+3v3",K62&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D62," [get_ports {",K62,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K62,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN A13 [get_ports {ad_n0}]
-set_property IOSTANDARD LVTTL [get_ports {ad_n0}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {ad_n0}]</v>
       </c>
       <c r="V62" s="31" t="str">
         <f aca="false">IF(AND(K62&lt;&gt;"",K62&lt;&gt;"+3v3",K62&lt;&gt;"GND",NOT(ISNA(P62)),NOT(ISNA(N62))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S62/$V$8,"0.000")," [get_ports {",K62,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S62/$W$8,"0.000")," [get_ports {",K62,"}]",CHAR(10)),"")</f>
@@ -7590,7 +7554,7 @@
       </c>
       <c r="K63" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H63)),$H63,"")</f>
-        <v>usbh0_p </v>
+        <v>usbh0_p</v>
       </c>
       <c r="M63" s="0" t="n">
         <f aca="false">VLOOKUP(A63,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -7618,8 +7582,7 @@
       <c r="U63" s="30" t="str">
         <f aca="false">IF(AND(K63&lt;&gt;"",K63&lt;&gt;"+3v3",K63&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D63," [get_ports {",K63,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K63,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN B11 [get_ports {usbh0_p }]
-set_property IOSTANDARD LVTTL [get_ports {usbh0_p }]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {usbh0_p }]</v>
       </c>
       <c r="V63" s="31" t="str">
         <f aca="false">IF(AND(K63&lt;&gt;"",K63&lt;&gt;"+3v3",K63&lt;&gt;"GND",NOT(ISNA(P63)),NOT(ISNA(N63))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S63/$V$8,"0.000")," [get_ports {",K63,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S63/$W$8,"0.000")," [get_ports {",K63,"}]",CHAR(10)),"")</f>
@@ -7665,7 +7628,7 @@
       </c>
       <c r="K64" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H64)),$H64,"")</f>
-        <v>usbh0_n </v>
+        <v>usbh0_n</v>
       </c>
       <c r="M64" s="0" t="n">
         <f aca="false">VLOOKUP(A64,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -7693,8 +7656,7 @@
       <c r="U64" s="30" t="str">
         <f aca="false">IF(AND(K64&lt;&gt;"",K64&lt;&gt;"+3v3",K64&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D64," [get_ports {",K64,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K64,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN A11 [get_ports {usbh0_n }]
-set_property IOSTANDARD LVTTL [get_ports {usbh0_n }]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {usbh0_n }]</v>
       </c>
       <c r="V64" s="31" t="str">
         <f aca="false">IF(AND(K64&lt;&gt;"",K64&lt;&gt;"+3v3",K64&lt;&gt;"GND",NOT(ISNA(P64)),NOT(ISNA(N64))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S64/$V$8,"0.000")," [get_ports {",K64,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S64/$W$8,"0.000")," [get_ports {",K64,"}]",CHAR(10)),"")</f>
@@ -7754,7 +7716,9 @@
       </c>
       <c r="U65" s="6" t="str">
         <f aca="false">IF(AND(K65&lt;&gt;"",K65&lt;&gt;"+3v3",K65&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D65," [get_ports {",K65,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K65,"}]",CHAR(10)),"")</f>
-        <v/>
+        <v>set_property PACKAGE_PIN E11 [get_ports {0}]
+set_property IOSTANDARD LVTTL [get_ports {0}]
+</v>
       </c>
       <c r="V65" s="31" t="str">
         <f aca="false">IF(AND(K65&lt;&gt;"",K65&lt;&gt;"+3v3",K65&lt;&gt;"GND",NOT(ISNA(P65)),NOT(ISNA(N65))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S65/$V$8,"0.000")," [get_ports {",K65,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S65/$W$8,"0.000")," [get_ports {",K65,"}]",CHAR(10)),"")</f>
@@ -8227,7 +8191,7 @@
       </c>
       <c r="K73" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H73)),$H73,"")</f>
-        <v>RX </v>
+        <v>RX</v>
       </c>
       <c r="M73" s="0" t="n">
         <f aca="false">VLOOKUP(A73,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -8252,8 +8216,7 @@
       <c r="U73" s="30" t="str">
         <f aca="false">IF(AND(K73&lt;&gt;"",K73&lt;&gt;"+3v3",K73&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D73," [get_ports {",K73,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K73,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U9 [get_ports {RX }]
-set_property IOSTANDARD LVTTL [get_ports {RX }]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {RX }]</v>
       </c>
       <c r="V73" s="31" t="str">
         <f aca="false">IF(AND(K73&lt;&gt;"",K73&lt;&gt;"+3v3",K73&lt;&gt;"GND",NOT(ISNA(P73)),NOT(ISNA(N73))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S73/$V$8,"0.000")," [get_ports {",K73,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S73/$W$8,"0.000")," [get_ports {",K73,"}]",CHAR(10)),"")</f>
@@ -8299,7 +8262,7 @@
       </c>
       <c r="K74" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H74)),$H74,"")</f>
-        <v>TX </v>
+        <v>TX</v>
       </c>
       <c r="M74" s="0" t="n">
         <f aca="false">VLOOKUP(A74,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -8324,8 +8287,7 @@
       <c r="U74" s="30" t="str">
         <f aca="false">IF(AND(K74&lt;&gt;"",K74&lt;&gt;"+3v3",K74&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D74," [get_ports {",K74,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K74,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V9 [get_ports {TX }]
-set_property IOSTANDARD LVTTL [get_ports {TX }]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {TX }]</v>
       </c>
       <c r="V74" s="31" t="str">
         <f aca="false">IF(AND(K74&lt;&gt;"",K74&lt;&gt;"+3v3",K74&lt;&gt;"GND",NOT(ISNA(P74)),NOT(ISNA(N74))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S74/$V$8,"0.000")," [get_ports {",K74,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S74/$W$8,"0.000")," [get_ports {",K74,"}]",CHAR(10)),"")</f>
@@ -8399,8 +8361,7 @@
       <c r="U75" s="30" t="str">
         <f aca="false">IF(AND(K75&lt;&gt;"",K75&lt;&gt;"+3v3",K75&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D75," [get_ports {",K75,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K75,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U8 [get_ports {id_n3}]
-set_property IOSTANDARD LVTTL [get_ports {id_n3}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {id_n3}]</v>
       </c>
       <c r="V75" s="31" t="str">
         <f aca="false">IF(AND(K75&lt;&gt;"",K75&lt;&gt;"+3v3",K75&lt;&gt;"GND",NOT(ISNA(P75)),NOT(ISNA(N75))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S75/$V$8,"0.000")," [get_ports {",K75,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S75/$W$8,"0.000")," [get_ports {",K75,"}]",CHAR(10)),"")</f>
@@ -8474,8 +8435,7 @@
       <c r="U76" s="30" t="str">
         <f aca="false">IF(AND(K76&lt;&gt;"",K76&lt;&gt;"+3v3",K76&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D76," [get_ports {",K76,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K76,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V7 [get_ports {id_n2}]
-set_property IOSTANDARD LVTTL [get_ports {id_n2}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {id_n2}]</v>
       </c>
       <c r="V76" s="31" t="str">
         <f aca="false">IF(AND(K76&lt;&gt;"",K76&lt;&gt;"+3v3",K76&lt;&gt;"GND",NOT(ISNA(P76)),NOT(ISNA(N76))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S76/$V$8,"0.000")," [get_ports {",K76,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S76/$W$8,"0.000")," [get_ports {",K76,"}]",CHAR(10)),"")</f>
@@ -8549,8 +8509,7 @@
       <c r="U77" s="30" t="str">
         <f aca="false">IF(AND(K77&lt;&gt;"",K77&lt;&gt;"+3v3",K77&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D77," [get_ports {",K77,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K77,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U7 [get_ports {id_n0}]
-set_property IOSTANDARD LVTTL [get_ports {id_n0}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {id_n0}]</v>
       </c>
       <c r="V77" s="31" t="str">
         <f aca="false">IF(AND(K77&lt;&gt;"",K77&lt;&gt;"+3v3",K77&lt;&gt;"GND",NOT(ISNA(P77)),NOT(ISNA(N77))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S77/$V$8,"0.000")," [get_ports {",K77,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S77/$W$8,"0.000")," [get_ports {",K77,"}]",CHAR(10)),"")</f>
@@ -8624,8 +8583,7 @@
       <c r="U78" s="30" t="str">
         <f aca="false">IF(AND(K78&lt;&gt;"",K78&lt;&gt;"+3v3",K78&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D78," [get_ports {",K78,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K78,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V6 [get_ports {id_n1}]
-set_property IOSTANDARD LVTTL [get_ports {id_n1}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {id_n1}]</v>
       </c>
       <c r="V78" s="31" t="str">
         <f aca="false">IF(AND(K78&lt;&gt;"",K78&lt;&gt;"+3v3",K78&lt;&gt;"GND",NOT(ISNA(P78)),NOT(ISNA(N78))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S78/$V$8,"0.000")," [get_ports {",K78,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S78/$W$8,"0.000")," [get_ports {",K78,"}]",CHAR(10)),"")</f>
@@ -8696,8 +8654,7 @@
       <c r="U79" s="30" t="str">
         <f aca="false">IF(AND(K79&lt;&gt;"",K79&lt;&gt;"+3v3",K79&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D79," [get_ports {",K79,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K79,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U6 [get_ports {arb_n3}]
-set_property IOSTANDARD LVTTL [get_ports {arb_n3}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_n3}]</v>
       </c>
       <c r="V79" s="31" t="str">
         <f aca="false">IF(AND(K79&lt;&gt;"",K79&lt;&gt;"+3v3",K79&lt;&gt;"GND",NOT(ISNA(P79)),NOT(ISNA(N79))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S79/$V$8,"0.000")," [get_ports {",K79,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S79/$W$8,"0.000")," [get_ports {",K79,"}]",CHAR(10)),"")</f>
@@ -8768,8 +8725,7 @@
       <c r="U80" s="30" t="str">
         <f aca="false">IF(AND(K80&lt;&gt;"",K80&lt;&gt;"+3v3",K80&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D80," [get_ports {",K80,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K80,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V5 [get_ports {arb_n2}]
-set_property IOSTANDARD LVTTL [get_ports {arb_n2}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_n2}]</v>
       </c>
       <c r="V80" s="31" t="str">
         <f aca="false">IF(AND(K80&lt;&gt;"",K80&lt;&gt;"+3v3",K80&lt;&gt;"GND",NOT(ISNA(P80)),NOT(ISNA(N80))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S80/$V$8,"0.000")," [get_ports {",K80,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S80/$W$8,"0.000")," [get_ports {",K80,"}]",CHAR(10)),"")</f>
@@ -8840,8 +8796,7 @@
       <c r="U81" s="30" t="str">
         <f aca="false">IF(AND(K81&lt;&gt;"",K81&lt;&gt;"+3v3",K81&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D81," [get_ports {",K81,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K81,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T8 [get_ports {arb_n0}]
-set_property IOSTANDARD LVTTL [get_ports {arb_n0}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_n0}]</v>
       </c>
       <c r="V81" s="31" t="str">
         <f aca="false">IF(AND(K81&lt;&gt;"",K81&lt;&gt;"+3v3",K81&lt;&gt;"GND",NOT(ISNA(P81)),NOT(ISNA(N81))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S81/$V$8,"0.000")," [get_ports {",K81,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S81/$W$8,"0.000")," [get_ports {",K81,"}]",CHAR(10)),"")</f>
@@ -8916,8 +8871,7 @@
       <c r="U82" s="30" t="str">
         <f aca="false">IF(AND(K82&lt;&gt;"",K82&lt;&gt;"+3v3",K82&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D82," [get_ports {",K82,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K82,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V4 [get_ports {arb_n1}]
-set_property IOSTANDARD LVTTL [get_ports {arb_n1}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {arb_n1}]</v>
       </c>
       <c r="V82" s="31" t="str">
         <f aca="false">IF(AND(K82&lt;&gt;"",K82&lt;&gt;"+3v3",K82&lt;&gt;"GND",NOT(ISNA(P82)),NOT(ISNA(N82))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S82/$V$8,"0.000")," [get_ports {",K82,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S82/$W$8,"0.000")," [get_ports {",K82,"}]",CHAR(10)),"")</f>
@@ -8988,8 +8942,7 @@
       <c r="U83" s="30" t="str">
         <f aca="false">IF(AND(K83&lt;&gt;"",K83&lt;&gt;"+3v3",K83&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D83," [get_ports {",K83,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K83,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R8 [get_ports {tmx_oe_n}]
-set_property IOSTANDARD LVTTL [get_ports {tmx_oe_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {tmx_oe_n}]</v>
       </c>
       <c r="V83" s="31" t="str">
         <f aca="false">IF(AND(K83&lt;&gt;"",K83&lt;&gt;"+3v3",K83&lt;&gt;"GND",NOT(ISNA(P83)),NOT(ISNA(N83))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S83/$V$8,"0.000")," [get_ports {",K83,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S83/$W$8,"0.000")," [get_ports {",K83,"}]",CHAR(10)),"")</f>
@@ -9062,8 +9015,7 @@
       <c r="U84" s="30" t="str">
         <f aca="false">IF(AND(K84&lt;&gt;"",K84&lt;&gt;"+3v3",K84&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D84," [get_ports {",K84,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K84,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T5 [get_ports {clk2x_n}]
-set_property IOSTANDARD LVTTL [get_ports {clk2x_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {clk2x_n}]</v>
       </c>
       <c r="V84" s="31" t="str">
         <f aca="false">IF(AND(K84&lt;&gt;"",K84&lt;&gt;"+3v3",K84&lt;&gt;"GND",NOT(ISNA(P84)),NOT(ISNA(N84))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S84/$V$8,"0.000")," [get_ports {",K84,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S84/$W$8,"0.000")," [get_ports {",K84,"}]",CHAR(10)),"")</f>
@@ -9138,8 +9090,7 @@
       <c r="U85" s="30" t="str">
         <f aca="false">IF(AND(K85&lt;&gt;"",K85&lt;&gt;"+3v3",K85&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D85," [get_ports {",K85,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K85,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R7 [get_ports {tm_n_o1}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n_o1}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n_o1}]</v>
       </c>
       <c r="V85" s="31" t="str">
         <f aca="false">IF(AND(K85&lt;&gt;"",K85&lt;&gt;"+3v3",K85&lt;&gt;"GND",NOT(ISNA(P85)),NOT(ISNA(N85))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S85/$V$8,"0.000")," [get_ports {",K85,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S85/$W$8,"0.000")," [get_ports {",K85,"}]",CHAR(10)),"")</f>
@@ -9218,8 +9169,7 @@
       <c r="U86" s="30" t="str">
         <f aca="false">IF(AND(K86&lt;&gt;"",K86&lt;&gt;"+3v3",K86&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D86," [get_ports {",K86,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K86,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T4 [get_ports {SD_D2}]
-set_property IOSTANDARD LVTTL [get_ports {SD_D2}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {SD_D2}]</v>
       </c>
       <c r="V86" s="31" t="str">
         <f aca="false">IF(AND(K86&lt;&gt;"",K86&lt;&gt;"+3v3",K86&lt;&gt;"GND",NOT(ISNA(P86)),NOT(ISNA(N86))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S86/$V$8,"0.000")," [get_ports {",K86,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S86/$W$8,"0.000")," [get_ports {",K86,"}]",CHAR(10)),"")</f>
@@ -9290,8 +9240,7 @@
       <c r="U87" s="30" t="str">
         <f aca="false">IF(AND(K87&lt;&gt;"",K87&lt;&gt;"+3v3",K87&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D87," [get_ports {",K87,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K87,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T6 [get_ports {tm_n_o0}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n_o0}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n_o0}]</v>
       </c>
       <c r="V87" s="31" t="str">
         <f aca="false">IF(AND(K87&lt;&gt;"",K87&lt;&gt;"+3v3",K87&lt;&gt;"GND",NOT(ISNA(P87)),NOT(ISNA(N87))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S87/$V$8,"0.000")," [get_ports {",K87,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S87/$W$8,"0.000")," [get_ports {",K87,"}]",CHAR(10)),"")</f>
@@ -9362,8 +9311,7 @@
       <c r="U88" s="30" t="str">
         <f aca="false">IF(AND(K88&lt;&gt;"",K88&lt;&gt;"+3v3",K88&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D88," [get_ports {",K88,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K88,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U4 [get_ports {SD_D3}]
-set_property IOSTANDARD LVTTL [get_ports {SD_D3}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {SD_D3}]</v>
       </c>
       <c r="V88" s="31" t="str">
         <f aca="false">IF(AND(K88&lt;&gt;"",K88&lt;&gt;"+3v3",K88&lt;&gt;"GND",NOT(ISNA(P88)),NOT(ISNA(N88))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S88/$V$8,"0.000")," [get_ports {",K88,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S88/$W$8,"0.000")," [get_ports {",K88,"}]",CHAR(10)),"")</f>
@@ -9434,8 +9382,7 @@
       <c r="U89" s="30" t="str">
         <f aca="false">IF(AND(K89&lt;&gt;"",K89&lt;&gt;"+3v3",K89&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D89," [get_ports {",K89,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K89,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R6 [get_ports {tm_oe_n2}]
-set_property IOSTANDARD LVTTL [get_ports {tm_oe_n2}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_oe_n2}]</v>
       </c>
       <c r="V89" s="31" t="str">
         <f aca="false">IF(AND(K89&lt;&gt;"",K89&lt;&gt;"+3v3",K89&lt;&gt;"GND",NOT(ISNA(P89)),NOT(ISNA(N89))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S89/$V$8,"0.000")," [get_ports {",K89,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S89/$W$8,"0.000")," [get_ports {",K89,"}]",CHAR(10)),"")</f>
@@ -9521,8 +9468,7 @@
       <c r="U90" s="30" t="str">
         <f aca="false">IF(AND(K90&lt;&gt;"",K90&lt;&gt;"+3v3",K90&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D90," [get_ports {",K90,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K90,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U3 [get_ports {SD_CMD}]
-set_property IOSTANDARD LVTTL [get_ports {SD_CMD}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {SD_CMD}]</v>
       </c>
       <c r="V90" s="31" t="str">
         <f aca="false">IF(AND(K90&lt;&gt;"",K90&lt;&gt;"+3v3",K90&lt;&gt;"GND",NOT(ISNA(P90)),NOT(ISNA(N90))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S90/$V$8,"0.000")," [get_ports {",K90,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S90/$W$8,"0.000")," [get_ports {",K90,"}]",CHAR(10)),"")</f>
@@ -9595,8 +9541,7 @@
       <c r="U91" s="30" t="str">
         <f aca="false">IF(AND(K91&lt;&gt;"",K91&lt;&gt;"+3v3",K91&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D91," [get_ports {",K91,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K91,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R5 [get_ports {tm_o_n2}]
-set_property IOSTANDARD LVTTL [get_ports {tm_o_n2}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_o_n2}]</v>
       </c>
       <c r="V91" s="31" t="str">
         <f aca="false">IF(AND(K91&lt;&gt;"",K91&lt;&gt;"+3v3",K91&lt;&gt;"GND",NOT(ISNA(P91)),NOT(ISNA(N91))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S91/$V$8,"0.000")," [get_ports {",K91,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S91/$W$8,"0.000")," [get_ports {",K91,"}]",CHAR(10)),"")</f>
@@ -9682,8 +9627,7 @@
       <c r="U92" s="30" t="str">
         <f aca="false">IF(AND(K92&lt;&gt;"",K92&lt;&gt;"+3v3",K92&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D92," [get_ports {",K92,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K92,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V1 [get_ports {SD_CLK}]
-set_property IOSTANDARD LVTTL [get_ports {SD_CLK}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {SD_CLK}]</v>
       </c>
       <c r="V92" s="31" t="str">
         <f aca="false">IF(AND(K92&lt;&gt;"",K92&lt;&gt;"+3v3",K92&lt;&gt;"GND",NOT(ISNA(P92)),NOT(ISNA(N92))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S92/$V$8,"0.000")," [get_ports {",K92,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S92/$W$8,"0.000")," [get_ports {",K92,"}]",CHAR(10)),"")</f>
@@ -9769,8 +9713,7 @@
       <c r="U93" s="30" t="str">
         <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D93," [get_ports {",K93,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K93,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN V2 [get_ports {tm_n1}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n1}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n1}]</v>
       </c>
       <c r="V93" s="31" t="str">
         <f aca="false">IF(AND(K93&lt;&gt;"",K93&lt;&gt;"+3v3",K93&lt;&gt;"GND",NOT(ISNA(P93)),NOT(ISNA(N93))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S93/$V$8,"0.000")," [get_ports {",K93,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S93/$W$8,"0.000")," [get_ports {",K93,"}]",CHAR(10)),"")</f>
@@ -9856,8 +9799,7 @@
       <c r="U94" s="30" t="str">
         <f aca="false">IF(AND(K94&lt;&gt;"",K94&lt;&gt;"+3v3",K94&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D94," [get_ports {",K94,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K94,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U1 [get_ports {SD_D0}]
-set_property IOSTANDARD LVTTL [get_ports {SD_D0}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {SD_D0}]</v>
       </c>
       <c r="V94" s="31" t="str">
         <f aca="false">IF(AND(K94&lt;&gt;"",K94&lt;&gt;"+3v3",K94&lt;&gt;"GND",NOT(ISNA(P94)),NOT(ISNA(N94))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S94/$V$8,"0.000")," [get_ports {",K94,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S94/$W$8,"0.000")," [get_ports {",K94,"}]",CHAR(10)),"")</f>
@@ -9943,8 +9885,7 @@
       <c r="U95" s="30" t="str">
         <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D95," [get_ports {",K95,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K95,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN U2 [get_ports {tm_n0}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n0}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n0}]</v>
       </c>
       <c r="V95" s="31" t="str">
         <f aca="false">IF(AND(K95&lt;&gt;"",K95&lt;&gt;"+3v3",K95&lt;&gt;"GND",NOT(ISNA(P95)),NOT(ISNA(N95))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S95/$V$8,"0.000")," [get_ports {",K95,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S95/$W$8,"0.000")," [get_ports {",K95,"}]",CHAR(10)),"")</f>
@@ -10032,8 +9973,7 @@
       <c r="U96" s="30" t="str">
         <f aca="false">IF(AND(K96&lt;&gt;"",K96&lt;&gt;"+3v3",K96&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D96," [get_ports {",K96,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K96,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T3 [get_ports {SD_D1}]
-set_property IOSTANDARD LVTTL [get_ports {SD_D1}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {SD_D1}]</v>
       </c>
       <c r="V96" s="31" t="str">
         <f aca="false">IF(AND(K96&lt;&gt;"",K96&lt;&gt;"+3v3",K96&lt;&gt;"GND",NOT(ISNA(P96)),NOT(ISNA(N96))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S96/$V$8,"0.000")," [get_ports {",K96,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S96/$W$8,"0.000")," [get_ports {",K96,"}]",CHAR(10)),"")</f>
@@ -10121,8 +10061,7 @@
       <c r="U97" s="30" t="str">
         <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D97," [get_ports {",K97,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K97,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K6 [get_ports {tm_n2}]
-set_property IOSTANDARD LVTTL [get_ports {tm_n2}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {tm_n2}]</v>
       </c>
       <c r="V97" s="31" t="str">
         <f aca="false">IF(AND(K97&lt;&gt;"",K97&lt;&gt;"+3v3",K97&lt;&gt;"GND",NOT(ISNA(P97)),NOT(ISNA(N97))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S97/$V$8,"0.000")," [get_ports {",K97,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S97/$W$8,"0.000")," [get_ports {",K97,"}]",CHAR(10)),"")</f>
@@ -10197,8 +10136,7 @@
       <c r="U98" s="30" t="str">
         <f aca="false">IF(AND(K98&lt;&gt;"",K98&lt;&gt;"+3v3",K98&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D98," [get_ports {",K98,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K98,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R3 [get_ports {reset_n}]
-set_property IOSTANDARD LVTTL [get_ports {reset_n}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {reset_n}]</v>
       </c>
       <c r="V98" s="31" t="str">
         <f aca="false">IF(AND(K98&lt;&gt;"",K98&lt;&gt;"+3v3",K98&lt;&gt;"GND",NOT(ISNA(P98)),NOT(ISNA(N98))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S98/$V$8,"0.000")," [get_ports {",K98,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S98/$W$8,"0.000")," [get_ports {",K98,"}]",CHAR(10)),"")</f>
@@ -10532,7 +10470,7 @@
       </c>
       <c r="AB103" s="65" t="n">
         <f aca="false">MIN(P106,P108,P110,P112,P114,P116,P118,P120,P122,P124,P126,P128)</f>
-        <v>86.91</v>
+        <v>96.52</v>
       </c>
       <c r="AG103" s="8" t="e">
         <f aca="false">IF(OR(LEFT(K103,3)="LED",LEFT(K103,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D103,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K103),"")</f>
@@ -10599,7 +10537,7 @@
       </c>
       <c r="AB104" s="65" t="n">
         <f aca="false">MAX(P106,P108,P110,P112,P114,P116,P118,P120,P122,P124,P126,P128)</f>
-        <v>106.285</v>
+        <v>106.249</v>
       </c>
       <c r="AG104" s="8" t="e">
         <f aca="false">IF(OR(LEFT(K104,3)="LED",LEFT(K104,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D104,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K104),"")</f>
@@ -10658,8 +10596,7 @@
       <c r="U105" s="30" t="str">
         <f aca="false">IF(AND(K105&lt;&gt;"",K105&lt;&gt;"+3v3",K105&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D105," [get_ports {",K105,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K105,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N6 [get_ports {HDMI_HPD}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_HPD}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_HPD}]</v>
       </c>
       <c r="V105" s="31" t="str">
         <f aca="false">IF(AND(K105&lt;&gt;"",K105&lt;&gt;"+3v3",K105&lt;&gt;"GND",NOT(ISNA(P105)),NOT(ISNA(N105))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S105/$V$8,"0.000")," [get_ports {",K105,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S105/$W$8,"0.000")," [get_ports {",K105,"}]",CHAR(10)),"")</f>
@@ -10748,8 +10685,7 @@
       <c r="U106" s="30" t="str">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D106," [get_ports {",K106,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K106,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN P5 [get_ports {PMOD-15}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-15}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-15}]</v>
       </c>
       <c r="V106" s="31" t="str">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S106/$V$8,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S106/$W$8,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
@@ -10769,7 +10705,7 @@
       </c>
       <c r="AB106" s="65" t="n">
         <f aca="false">$AB$104-P106</f>
-        <v>0.0359999999999872</v>
+        <v>0</v>
       </c>
       <c r="AC106" s="66" t="n">
         <f aca="false">N106</f>
@@ -10777,7 +10713,7 @@
       </c>
       <c r="AD106" s="65" t="n">
         <f aca="false">AC106+AB106</f>
-        <v>86.775</v>
+        <v>86.739</v>
       </c>
       <c r="AE106" s="65" t="str">
         <f aca="false">H106</f>
@@ -10785,7 +10721,7 @@
       </c>
       <c r="AF106" s="0" t="n">
         <f aca="false">MAX(P106,P108)-P106</f>
-        <v>0.0359999999999872</v>
+        <v>0</v>
       </c>
       <c r="AG106" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K106,3)="LED",LEFT(K106,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D106,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K106),"")</f>
@@ -10793,7 +10729,7 @@
       </c>
       <c r="AH106" s="4" t="n">
         <f aca="false">N106+AF106</f>
-        <v>86.775</v>
+        <v>86.739</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10848,8 +10784,7 @@
       <c r="U107" s="30" t="str">
         <f aca="false">IF(AND(K107&lt;&gt;"",K107&lt;&gt;"+3v3",K107&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D107," [get_ports {",K107,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K107,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M6 [get_ports {HDMI_SDA}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_SDA}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_SDA}]</v>
       </c>
       <c r="V107" s="31" t="str">
         <f aca="false">IF(AND(K107&lt;&gt;"",K107&lt;&gt;"+3v3",K107&lt;&gt;"GND",NOT(ISNA(P107)),NOT(ISNA(N107))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S107/$V$8,"0.000")," [get_ports {",K107,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S107/$W$8,"0.000")," [get_ports {",K107,"}]",CHAR(10)),"")</f>
@@ -10921,36 +10856,35 @@
       </c>
       <c r="N108" s="4" t="n">
         <f aca="false">VLOOKUP(K108,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>88.695</v>
+        <v>88.06</v>
       </c>
       <c r="P108" s="4" t="n">
         <f aca="false">IF(AND(M108&gt;0,N108&gt;0),M108+N108, "N/A")</f>
-        <v>106.285</v>
+        <v>105.65</v>
       </c>
       <c r="Q108" s="29" t="n">
         <f aca="false">IF(P108&gt;0,P108/25.4,)</f>
-        <v>4.18444881889764</v>
+        <v>4.15944881889764</v>
       </c>
       <c r="S108" s="4" t="n">
         <f aca="false">IF(P108&gt;0,P$136-P108,"")</f>
-        <v>-37.1870238429</v>
+        <v>-36.5520238429</v>
       </c>
       <c r="U108" s="30" t="str">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D108," [get_ports {",K108,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K108,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N5 [get_ports {PMOD-16}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-16}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-16}]</v>
       </c>
       <c r="V108" s="31" t="str">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S108/$V$8,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S108/$W$8,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.436 [get_ports {PMOD-16}]
-set_input_delay -clock clk_3v3_n -max 52.498 [get_ports {PMOD-16}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.433 [get_ports {PMOD-16}]
+set_input_delay -clock clk_3v3_n -max 52.494 [get_ports {PMOD-16}]
 </v>
       </c>
       <c r="W108" s="31" t="str">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P108/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P108/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.123 [get_ports {PMOD-16}]
-set_output_delay -clock clk_3v3_n -max 53.669 [get_ports {PMOD-16}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.126 [get_ports {PMOD-16}]
+set_output_delay -clock clk_3v3_n -max 53.665 [get_ports {PMOD-16}]
 </v>
       </c>
       <c r="Y108" s="7" t="str">
@@ -10959,15 +10893,15 @@
       </c>
       <c r="AB108" s="65" t="n">
         <f aca="false">$AB$104-P108</f>
-        <v>0</v>
+        <v>0.599000000000004</v>
       </c>
       <c r="AC108" s="66" t="n">
         <f aca="false">N108</f>
-        <v>88.695</v>
+        <v>88.06</v>
       </c>
       <c r="AD108" s="65" t="n">
         <f aca="false">AC108+AB108</f>
-        <v>88.695</v>
+        <v>88.659</v>
       </c>
       <c r="AE108" s="65" t="str">
         <f aca="false">H108</f>
@@ -10975,7 +10909,7 @@
       </c>
       <c r="AF108" s="0" t="n">
         <f aca="false">MAX(P108,P106)-P108</f>
-        <v>0</v>
+        <v>0.599000000000004</v>
       </c>
       <c r="AG108" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K108,3)="LED",LEFT(K108,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D108,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K108),"")</f>
@@ -10983,7 +10917,7 @@
       </c>
       <c r="AH108" s="4" t="n">
         <f aca="false">N108+AF108</f>
-        <v>88.695</v>
+        <v>88.659</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11038,8 +10972,7 @@
       <c r="U109" s="30" t="str">
         <f aca="false">IF(AND(K109&lt;&gt;"",K109&lt;&gt;"+3v3",K109&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D109," [get_ports {",K109,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K109,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L6 [get_ports {HDMI_SCL}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_SCL}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_SCL}]</v>
       </c>
       <c r="V109" s="31" t="str">
         <f aca="false">IF(AND(K109&lt;&gt;"",K109&lt;&gt;"+3v3",K109&lt;&gt;"GND",NOT(ISNA(P109)),NOT(ISNA(N109))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S109/$V$8,"0.000")," [get_ports {",K109,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S109/$W$8,"0.000")," [get_ports {",K109,"}]",CHAR(10)),"")</f>
@@ -11128,8 +11061,7 @@
       <c r="U110" s="30" t="str">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D110," [get_ports {",K110,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K110,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN P4 [get_ports {PMOD-13}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-13}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-13}]</v>
       </c>
       <c r="V110" s="31" t="str">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S110/$V$8,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S110/$W$8,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
@@ -11149,7 +11081,7 @@
       </c>
       <c r="AB110" s="65" t="n">
         <f aca="false">$AB$104-P110</f>
-        <v>9.76499999999999</v>
+        <v>9.729</v>
       </c>
       <c r="AC110" s="66" t="n">
         <f aca="false">N110</f>
@@ -11157,7 +11089,7 @@
       </c>
       <c r="AD110" s="65" t="n">
         <f aca="false">AC110+AB110</f>
-        <v>91.555</v>
+        <v>91.519</v>
       </c>
       <c r="AE110" s="65" t="str">
         <f aca="false">H110</f>
@@ -11230,8 +11162,7 @@
       <c r="U111" s="30" t="str">
         <f aca="false">IF(AND(K111&lt;&gt;"",K111&lt;&gt;"+3v3",K111&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D111," [get_ports {",K111,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K111,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L5 [get_ports {HDMI_CEC}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_CEC}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_CEC}]</v>
       </c>
       <c r="V111" s="31" t="str">
         <f aca="false">IF(AND(K111&lt;&gt;"",K111&lt;&gt;"+3v3",K111&lt;&gt;"GND",NOT(ISNA(P111)),NOT(ISNA(N111))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S111/$V$8,"0.000")," [get_ports {",K111,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S111/$W$8,"0.000")," [get_ports {",K111,"}]",CHAR(10)),"")</f>
@@ -11320,8 +11251,7 @@
       <c r="U112" s="30" t="str">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D112," [get_ports {",K112,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K112,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN P3 [get_ports {PMOD-14}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-14}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-14}]</v>
       </c>
       <c r="V112" s="31" t="str">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S112/$V$8,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S112/$W$8,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
@@ -11341,7 +11271,7 @@
       </c>
       <c r="AB112" s="65" t="n">
         <f aca="false">$AB$104-P112</f>
-        <v>9.761</v>
+        <v>9.72500000000001</v>
       </c>
       <c r="AC112" s="66" t="n">
         <f aca="false">N112</f>
@@ -11349,7 +11279,7 @@
       </c>
       <c r="AD112" s="65" t="n">
         <f aca="false">AC112+AB112</f>
-        <v>92.665</v>
+        <v>92.629</v>
       </c>
       <c r="AE112" s="65" t="str">
         <f aca="false">H112</f>
@@ -11420,8 +11350,7 @@
       <c r="U113" s="30" t="str">
         <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D113," [get_ports {",K113,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K113,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N4 [get_ports {HDMI_CLK-}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK-}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK-}]</v>
       </c>
       <c r="V113" s="31" t="str">
         <f aca="false">IF(AND(K113&lt;&gt;"",K113&lt;&gt;"+3v3",K113&lt;&gt;"GND",NOT(ISNA(P113)),NOT(ISNA(N113))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S113/$V$8,"0.000")," [get_ports {",K113,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S113/$W$8,"0.000")," [get_ports {",K113,"}]",CHAR(10)),"")</f>
@@ -11495,36 +11424,35 @@
       </c>
       <c r="N114" s="4" t="n">
         <f aca="false">VLOOKUP(K114,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>79.76</v>
+        <v>85</v>
       </c>
       <c r="P114" s="4" t="n">
         <f aca="false">IF(AND(M114&gt;0,N114&gt;0),M114+N114, "N/A")</f>
-        <v>91.28</v>
+        <v>96.52</v>
       </c>
       <c r="Q114" s="29" t="n">
         <f aca="false">IF(P114&gt;0,P114/25.4,)</f>
-        <v>3.59370078740158</v>
+        <v>3.8</v>
       </c>
       <c r="S114" s="4" t="n">
         <f aca="false">IF(P114&gt;0,P$136-P114,"")</f>
-        <v>-22.1820238429</v>
+        <v>-27.4220238429</v>
       </c>
       <c r="U114" s="30" t="str">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D114," [get_ports {",K114,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K114,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN T1 [get_ports {PMOD-11}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-11}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-11}]</v>
       </c>
       <c r="V114" s="31" t="str">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S114/$V$8,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S114/$W$8,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.361 [get_ports {PMOD-11}]
-set_input_delay -clock clk_3v3_n -max 52.398 [get_ports {PMOD-11}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-11}]
+set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-11}]
 </v>
       </c>
       <c r="W114" s="31" t="str">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P114/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P114/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.198 [get_ports {PMOD-11}]
-set_output_delay -clock clk_3v3_n -max 53.569 [get_ports {PMOD-11}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-11}]
+set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-11}]
 </v>
       </c>
       <c r="Y114" s="7" t="str">
@@ -11533,15 +11461,15 @@
       </c>
       <c r="AB114" s="65" t="n">
         <f aca="false">$AB$104-P114</f>
-        <v>15.005</v>
+        <v>9.72900000000001</v>
       </c>
       <c r="AC114" s="66" t="n">
         <f aca="false">N114</f>
-        <v>79.76</v>
+        <v>85</v>
       </c>
       <c r="AD114" s="65" t="n">
         <f aca="false">AC114+AB114</f>
-        <v>94.765</v>
+        <v>94.729</v>
       </c>
       <c r="AE114" s="65" t="str">
         <f aca="false">H114</f>
@@ -11549,7 +11477,7 @@
       </c>
       <c r="AF114" s="0" t="n">
         <f aca="false">MAX(P114,P116)-P114</f>
-        <v>0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="AG114" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K114,3)="LED",LEFT(K114,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D114,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K114),"")</f>
@@ -11557,7 +11485,7 @@
       </c>
       <c r="AH114" s="4" t="n">
         <f aca="false">N114+AF114</f>
-        <v>79.761</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11612,8 +11540,7 @@
       <c r="U115" s="30" t="str">
         <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D115," [get_ports {",K115,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K115,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M4 [get_ports {HDMI_CLK+}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK+}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_CLK+}]</v>
       </c>
       <c r="V115" s="31" t="str">
         <f aca="false">IF(AND(K115&lt;&gt;"",K115&lt;&gt;"+3v3",K115&lt;&gt;"GND",NOT(ISNA(P115)),NOT(ISNA(N115))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S115/$V$8,"0.000")," [get_ports {",K115,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S115/$W$8,"0.000")," [get_ports {",K115,"}]",CHAR(10)),"")</f>
@@ -11687,36 +11614,35 @@
       </c>
       <c r="N116" s="4" t="n">
         <f aca="false">VLOOKUP(K116,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>78.371</v>
+        <v>83.61</v>
       </c>
       <c r="P116" s="4" t="n">
         <f aca="false">IF(AND(M116&gt;0,N116&gt;0),M116+N116, "N/A")</f>
-        <v>91.281</v>
+        <v>96.52</v>
       </c>
       <c r="Q116" s="29" t="n">
         <f aca="false">IF(P116&gt;0,P116/25.4,)</f>
-        <v>3.59374015748031</v>
+        <v>3.8</v>
       </c>
       <c r="S116" s="4" t="n">
         <f aca="false">IF(P116&gt;0,P$136-P116,"")</f>
-        <v>-22.1830238429</v>
+        <v>-27.4220238429</v>
       </c>
       <c r="U116" s="30" t="str">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D116," [get_ports {",K116,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K116,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R1 [get_ports {PMOD-12}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-12}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-12}]</v>
       </c>
       <c r="V116" s="31" t="str">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S116/$V$8,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S116/$W$8,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.361 [get_ports {PMOD-12}]
-set_input_delay -clock clk_3v3_n -max 52.398 [get_ports {PMOD-12}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-12}]
+set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-12}]
 </v>
       </c>
       <c r="W116" s="31" t="str">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P116/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P116/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.198 [get_ports {PMOD-12}]
-set_output_delay -clock clk_3v3_n -max 53.569 [get_ports {PMOD-12}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-12}]
+set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-12}]
 </v>
       </c>
       <c r="Y116" s="7" t="str">
@@ -11725,15 +11651,15 @@
       </c>
       <c r="AB116" s="65" t="n">
         <f aca="false">$AB$104-P116</f>
-        <v>15.004</v>
+        <v>9.72900000000001</v>
       </c>
       <c r="AC116" s="66" t="n">
         <f aca="false">N116</f>
-        <v>78.371</v>
+        <v>83.61</v>
       </c>
       <c r="AD116" s="65" t="n">
         <f aca="false">AC116+AB116</f>
-        <v>93.375</v>
+        <v>93.339</v>
       </c>
       <c r="AE116" s="65" t="str">
         <f aca="false">H116</f>
@@ -11749,7 +11675,7 @@
       </c>
       <c r="AH116" s="4" t="n">
         <f aca="false">N116+AF116</f>
-        <v>78.371</v>
+        <v>83.61</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11804,8 +11730,7 @@
       <c r="U117" s="30" t="str">
         <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D117," [get_ports {",K117,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K117,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M3 [get_ports {HDMI_D0+}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D0+}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D0+}]</v>
       </c>
       <c r="V117" s="31" t="str">
         <f aca="false">IF(AND(K117&lt;&gt;"",K117&lt;&gt;"+3v3",K117&lt;&gt;"GND",NOT(ISNA(P117)),NOT(ISNA(N117))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S117/$V$8,"0.000")," [get_ports {",K117,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S117/$W$8,"0.000")," [get_ports {",K117,"}]",CHAR(10)),"")</f>
@@ -11879,36 +11804,35 @@
       </c>
       <c r="N118" s="4" t="n">
         <f aca="false">VLOOKUP(K118,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>75.59</v>
+        <v>82.34</v>
       </c>
       <c r="P118" s="4" t="n">
         <f aca="false">IF(AND(M118&gt;0,N118&gt;0),M118+N118, "N/A")</f>
-        <v>89.77</v>
+        <v>96.52</v>
       </c>
       <c r="Q118" s="29" t="n">
         <f aca="false">IF(P118&gt;0,P118/25.4,)</f>
-        <v>3.53425196850394</v>
+        <v>3.8</v>
       </c>
       <c r="S118" s="4" t="n">
         <f aca="false">IF(P118&gt;0,P$136-P118,"")</f>
-        <v>-20.6720238429</v>
+        <v>-27.4220238429</v>
       </c>
       <c r="U118" s="30" t="str">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D118," [get_ports {",K118,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K118,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN R2 [get_ports {PMOD-9}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-9}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-9}]</v>
       </c>
       <c r="V118" s="31" t="str">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S118/$V$8,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S118/$W$8,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.353 [get_ports {PMOD-9}]
-set_input_delay -clock clk_3v3_n -max 52.388 [get_ports {PMOD-9}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-9}]
+set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-9}]
 </v>
       </c>
       <c r="W118" s="31" t="str">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P118/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P118/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.206 [get_ports {PMOD-9}]
-set_output_delay -clock clk_3v3_n -max 53.559 [get_ports {PMOD-9}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-9}]
+set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-9}]
 </v>
       </c>
       <c r="Y118" s="7" t="str">
@@ -11917,15 +11841,15 @@
       </c>
       <c r="AB118" s="65" t="n">
         <f aca="false">$AB$104-P118</f>
-        <v>16.515</v>
+        <v>9.729</v>
       </c>
       <c r="AC118" s="66" t="n">
         <f aca="false">N118</f>
-        <v>75.59</v>
+        <v>82.34</v>
       </c>
       <c r="AD118" s="65" t="n">
         <f aca="false">AC118+AB118</f>
-        <v>92.105</v>
+        <v>92.069</v>
       </c>
       <c r="AE118" s="65" t="str">
         <f aca="false">H118</f>
@@ -11941,7 +11865,7 @@
       </c>
       <c r="AH118" s="4" t="n">
         <f aca="false">N118+AF118</f>
-        <v>75.59</v>
+        <v>82.34</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11996,8 +11920,7 @@
       <c r="U119" s="30" t="str">
         <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D119," [get_ports {",K119,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K119,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M2 [get_ports {HDMI_D0-}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D0-}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D0-}]</v>
       </c>
       <c r="V119" s="31" t="str">
         <f aca="false">IF(AND(K119&lt;&gt;"",K119&lt;&gt;"+3v3",K119&lt;&gt;"GND",NOT(ISNA(P119)),NOT(ISNA(N119))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S119/$V$8,"0.000")," [get_ports {",K119,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S119/$W$8,"0.000")," [get_ports {",K119,"}]",CHAR(10)),"")</f>
@@ -12071,36 +11994,35 @@
       </c>
       <c r="N120" s="4" t="n">
         <f aca="false">VLOOKUP(K120,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>73.838</v>
+        <v>80.59</v>
       </c>
       <c r="P120" s="4" t="n">
         <f aca="false">IF(AND(M120&gt;0,N120&gt;0),M120+N120, "N/A")</f>
-        <v>89.768</v>
+        <v>96.52</v>
       </c>
       <c r="Q120" s="29" t="n">
         <f aca="false">IF(P120&gt;0,P120/25.4,)</f>
-        <v>3.53417322834646</v>
+        <v>3.8</v>
       </c>
       <c r="S120" s="4" t="n">
         <f aca="false">IF(P120&gt;0,P$136-P120,"")</f>
-        <v>-20.6700238429</v>
+        <v>-27.4220238429</v>
       </c>
       <c r="U120" s="30" t="str">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D120," [get_ports {",K120,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K120,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN P2 [get_ports {PMOD-10}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-10}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-10}]</v>
       </c>
       <c r="V120" s="31" t="str">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S120/$V$8,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S120/$W$8,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.353 [get_ports {PMOD-10}]
-set_input_delay -clock clk_3v3_n -max 52.388 [get_ports {PMOD-10}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-10}]
+set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-10}]
 </v>
       </c>
       <c r="W120" s="31" t="str">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P120/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P120/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.206 [get_ports {PMOD-10}]
-set_output_delay -clock clk_3v3_n -max 53.559 [get_ports {PMOD-10}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-10}]
+set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-10}]
 </v>
       </c>
       <c r="Y120" s="7" t="str">
@@ -12109,15 +12031,15 @@
       </c>
       <c r="AB120" s="65" t="n">
         <f aca="false">$AB$104-P120</f>
-        <v>16.517</v>
+        <v>9.729</v>
       </c>
       <c r="AC120" s="66" t="n">
         <f aca="false">N120</f>
-        <v>73.838</v>
+        <v>80.59</v>
       </c>
       <c r="AD120" s="65" t="n">
         <f aca="false">AC120+AB120</f>
-        <v>90.355</v>
+        <v>90.319</v>
       </c>
       <c r="AE120" s="65" t="str">
         <f aca="false">H120</f>
@@ -12125,7 +12047,7 @@
       </c>
       <c r="AF120" s="0" t="n">
         <f aca="false">MAX(P120,P118)-P120</f>
-        <v>0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="AG120" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K120,3)="LED",LEFT(K120,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D120,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K120),"")</f>
@@ -12133,7 +12055,7 @@
       </c>
       <c r="AH120" s="4" t="n">
         <f aca="false">N120+AF120</f>
-        <v>73.84</v>
+        <v>80.59</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12188,8 +12110,7 @@
       <c r="U121" s="30" t="str">
         <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D121," [get_ports {",K121,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K121,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K5 [get_ports {HDMI_D1+}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D1+}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D1+}]</v>
       </c>
       <c r="V121" s="31" t="str">
         <f aca="false">IF(AND(K121&lt;&gt;"",K121&lt;&gt;"+3v3",K121&lt;&gt;"GND",NOT(ISNA(P121)),NOT(ISNA(N121))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S121/$V$8,"0.000")," [get_ports {",K121,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S121/$W$8,"0.000")," [get_ports {",K121,"}]",CHAR(10)),"")</f>
@@ -12263,36 +12184,35 @@
       </c>
       <c r="N122" s="4" t="n">
         <f aca="false">VLOOKUP(K122,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>70.37</v>
+        <v>79.23</v>
       </c>
       <c r="P122" s="4" t="n">
         <f aca="false">IF(AND(M122&gt;0,N122&gt;0),M122+N122, "N/A")</f>
-        <v>87.66</v>
+        <v>96.52</v>
       </c>
       <c r="Q122" s="29" t="n">
         <f aca="false">IF(P122&gt;0,P122/25.4,)</f>
-        <v>3.4511811023622</v>
+        <v>3.8</v>
       </c>
       <c r="S122" s="4" t="n">
         <f aca="false">IF(P122&gt;0,P$136-P122,"")</f>
-        <v>-18.5620238429</v>
+        <v>-27.4220238429</v>
       </c>
       <c r="U122" s="30" t="str">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D122," [get_ports {",K122,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K122,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N2 [get_ports {PMOD-7}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-7}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-7}]</v>
       </c>
       <c r="V122" s="31" t="str">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S122/$V$8,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S122/$W$8,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.343 [get_ports {PMOD-7}]
-set_input_delay -clock clk_3v3_n -max 52.374 [get_ports {PMOD-7}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-7}]
+set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-7}]
 </v>
       </c>
       <c r="W122" s="31" t="str">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P122/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P122/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.216 [get_ports {PMOD-7}]
-set_output_delay -clock clk_3v3_n -max 53.545 [get_ports {PMOD-7}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-7}]
+set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-7}]
 </v>
       </c>
       <c r="Y122" s="7" t="str">
@@ -12301,15 +12221,15 @@
       </c>
       <c r="AB122" s="65" t="n">
         <f aca="false">$AB$104-P122</f>
-        <v>18.625</v>
+        <v>9.729</v>
       </c>
       <c r="AC122" s="66" t="n">
         <f aca="false">N122</f>
-        <v>70.37</v>
+        <v>79.23</v>
       </c>
       <c r="AD122" s="65" t="n">
         <f aca="false">AC122+AB122</f>
-        <v>88.995</v>
+        <v>88.959</v>
       </c>
       <c r="AE122" s="65" t="str">
         <f aca="false">H122</f>
@@ -12325,7 +12245,7 @@
       </c>
       <c r="AH122" s="4" t="n">
         <f aca="false">N122+AF122</f>
-        <v>70.37</v>
+        <v>79.23</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12380,8 +12300,7 @@
       <c r="U123" s="30" t="str">
         <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D123," [get_ports {",K123,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K123,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L4 [get_ports {HDMI_D1-}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D1-}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D1-}]</v>
       </c>
       <c r="V123" s="31" t="str">
         <f aca="false">IF(AND(K123&lt;&gt;"",K123&lt;&gt;"+3v3",K123&lt;&gt;"GND",NOT(ISNA(P123)),NOT(ISNA(N123))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S123/$V$8,"0.000")," [get_ports {",K123,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S123/$W$8,"0.000")," [get_ports {",K123,"}]",CHAR(10)),"")</f>
@@ -12455,36 +12374,35 @@
       </c>
       <c r="N124" s="4" t="n">
         <f aca="false">VLOOKUP(K124,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>69.305</v>
+        <v>78.17</v>
       </c>
       <c r="P124" s="4" t="n">
         <f aca="false">IF(AND(M124&gt;0,N124&gt;0),M124+N124, "N/A")</f>
-        <v>87.655</v>
+        <v>96.52</v>
       </c>
       <c r="Q124" s="29" t="n">
         <f aca="false">IF(P124&gt;0,P124/25.4,)</f>
-        <v>3.4509842519685</v>
+        <v>3.8</v>
       </c>
       <c r="S124" s="4" t="n">
         <f aca="false">IF(P124&gt;0,P$136-P124,"")</f>
-        <v>-18.5570238429</v>
+        <v>-27.4220238429</v>
       </c>
       <c r="U124" s="30" t="str">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D124," [get_ports {",K124,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K124,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN N1 [get_ports {PMOD-8}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-8}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-8}]</v>
       </c>
       <c r="V124" s="31" t="str">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S124/$V$8,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S124/$W$8,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.343 [get_ports {PMOD-8}]
-set_input_delay -clock clk_3v3_n -max 52.374 [get_ports {PMOD-8}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-8}]
+set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-8}]
 </v>
       </c>
       <c r="W124" s="31" t="str">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P124/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P124/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.216 [get_ports {PMOD-8}]
-set_output_delay -clock clk_3v3_n -max 53.545 [get_ports {PMOD-8}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-8}]
+set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-8}]
 </v>
       </c>
       <c r="Y124" s="7" t="str">
@@ -12493,15 +12411,15 @@
       </c>
       <c r="AB124" s="65" t="n">
         <f aca="false">$AB$104-P124</f>
-        <v>18.63</v>
+        <v>9.729</v>
       </c>
       <c r="AC124" s="66" t="n">
         <f aca="false">N124</f>
-        <v>69.305</v>
+        <v>78.17</v>
       </c>
       <c r="AD124" s="65" t="n">
         <f aca="false">AC124+AB124</f>
-        <v>87.935</v>
+        <v>87.899</v>
       </c>
       <c r="AE124" s="65" t="str">
         <f aca="false">H124</f>
@@ -12509,7 +12427,7 @@
       </c>
       <c r="AF124" s="0" t="n">
         <f aca="false">MAX(P124,P122)-P124</f>
-        <v>0.00499999999999545</v>
+        <v>0</v>
       </c>
       <c r="AG124" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K124,3)="LED",LEFT(K124,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D124,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K124),"")</f>
@@ -12517,7 +12435,7 @@
       </c>
       <c r="AH124" s="4" t="n">
         <f aca="false">N124+AF124</f>
-        <v>69.31</v>
+        <v>78.17</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12572,8 +12490,7 @@
       <c r="U125" s="30" t="str">
         <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D125," [get_ports {",K125,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K125,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L3 [get_ports {HDMI_D2-}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D2-}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D2-}]</v>
       </c>
       <c r="V125" s="31" t="str">
         <f aca="false">IF(AND(K125&lt;&gt;"",K125&lt;&gt;"+3v3",K125&lt;&gt;"GND",NOT(ISNA(P125)),NOT(ISNA(N125))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S125/$V$8,"0.000")," [get_ports {",K125,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S125/$W$8,"0.000")," [get_ports {",K125,"}]",CHAR(10)),"")</f>
@@ -12647,36 +12564,35 @@
       </c>
       <c r="N126" s="4" t="n">
         <f aca="false">VLOOKUP(K126,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>66.63</v>
+        <v>76.24</v>
       </c>
       <c r="P126" s="4" t="n">
         <f aca="false">IF(AND(M126&gt;0,N126&gt;0),M126+N126, "N/A")</f>
-        <v>86.91</v>
+        <v>96.52</v>
       </c>
       <c r="Q126" s="29" t="n">
         <f aca="false">IF(P126&gt;0,P126/25.4,)</f>
-        <v>3.42165354330709</v>
+        <v>3.8</v>
       </c>
       <c r="S126" s="4" t="n">
         <f aca="false">IF(P126&gt;0,P$136-P126,"")</f>
-        <v>-17.8120238429</v>
+        <v>-27.4220238429</v>
       </c>
       <c r="U126" s="30" t="str">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D126," [get_ports {",K126,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K126,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN M1 [get_ports {PMOD-5}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-5}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-5}]</v>
       </c>
       <c r="V126" s="31" t="str">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S126/$V$8,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S126/$W$8,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.339 [get_ports {PMOD-5}]
-set_input_delay -clock clk_3v3_n -max 52.369 [get_ports {PMOD-5}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-5}]
+set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-5}]
 </v>
       </c>
       <c r="W126" s="31" t="str">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P126/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P126/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.220 [get_ports {PMOD-5}]
-set_output_delay -clock clk_3v3_n -max 53.540 [get_ports {PMOD-5}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-5}]
+set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-5}]
 </v>
       </c>
       <c r="Y126" s="7" t="str">
@@ -12689,15 +12605,15 @@
       </c>
       <c r="AB126" s="65" t="n">
         <f aca="false">$AB$104-P126</f>
-        <v>19.375</v>
+        <v>9.72900000000001</v>
       </c>
       <c r="AC126" s="66" t="n">
         <f aca="false">N126</f>
-        <v>66.63</v>
+        <v>76.24</v>
       </c>
       <c r="AD126" s="65" t="n">
         <f aca="false">AC126+AB126</f>
-        <v>86.005</v>
+        <v>85.969</v>
       </c>
       <c r="AE126" s="65" t="str">
         <f aca="false">H126</f>
@@ -12705,7 +12621,7 @@
       </c>
       <c r="AF126" s="0" t="n">
         <f aca="false">MAX(P126,P128)-P126</f>
-        <v>0.00200000000000955</v>
+        <v>0</v>
       </c>
       <c r="AG126" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K126,3)="LED",LEFT(K126,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D126,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K126),"")</f>
@@ -12713,7 +12629,7 @@
       </c>
       <c r="AH126" s="4" t="n">
         <f aca="false">N126+AF126</f>
-        <v>66.632</v>
+        <v>76.24</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12768,8 +12684,7 @@
       <c r="U127" s="30" t="str">
         <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D127," [get_ports {",K127,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K127,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN K3 [get_ports {HDMI_D2+}]
-set_property IOSTANDARD LVTTL [get_ports {HDMI_D2+}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {HDMI_D2+}]</v>
       </c>
       <c r="V127" s="31" t="str">
         <f aca="false">IF(AND(K127&lt;&gt;"",K127&lt;&gt;"+3v3",K127&lt;&gt;"GND",NOT(ISNA(P127)),NOT(ISNA(N127))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S127/$V$8,"0.000")," [get_ports {",K127,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S127/$W$8,"0.000")," [get_ports {",K127,"}]",CHAR(10)),"")</f>
@@ -12843,36 +12758,35 @@
       </c>
       <c r="N128" s="4" t="n">
         <f aca="false">VLOOKUP(K128,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>64.772</v>
+        <v>74.38</v>
       </c>
       <c r="P128" s="4" t="n">
         <f aca="false">IF(AND(M128&gt;0,N128&gt;0),M128+N128, "N/A")</f>
-        <v>86.912</v>
+        <v>96.52</v>
       </c>
       <c r="Q128" s="29" t="n">
         <f aca="false">IF(P128&gt;0,P128/25.4,)</f>
-        <v>3.42173228346457</v>
+        <v>3.8</v>
       </c>
       <c r="S128" s="4" t="n">
         <f aca="false">IF(P128&gt;0,P$136-P128,"")</f>
-        <v>-17.8140238429</v>
+        <v>-27.4220238429</v>
       </c>
       <c r="U128" s="30" t="str">
         <f aca="false">IF(AND(K128&lt;&gt;"",K128&lt;&gt;"+3v3",K128&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D128," [get_ports {",K128,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K128,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN L1 [get_ports {PMOD-6}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-6}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {PMOD-6}]</v>
       </c>
       <c r="V128" s="31" t="str">
         <f aca="false">IF(AND(K128&lt;&gt;"",K128&lt;&gt;"+3v3",K128&lt;&gt;"GND",NOT(ISNA(P128)),NOT(ISNA(N128))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S128/$V$8,"0.000")," [get_ports {",K128,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S128/$W$8,"0.000")," [get_ports {",K128,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.339 [get_ports {PMOD-6}]
-set_input_delay -clock clk_3v3_n -max 52.369 [get_ports {PMOD-6}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-6}]
+set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-6}]
 </v>
       </c>
       <c r="W128" s="31" t="str">
         <f aca="false">IF(AND(K128&lt;&gt;"",K128&lt;&gt;"+3v3",K128&lt;&gt;"GND",NOT(ISNA(P128)),NOT(ISNA(N128))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P128/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K128,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P128/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K128,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.220 [get_ports {PMOD-6}]
-set_output_delay -clock clk_3v3_n -max 53.540 [get_ports {PMOD-6}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-6}]
+set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-6}]
 </v>
       </c>
       <c r="Y128" s="7" t="str">
@@ -12881,15 +12795,15 @@
       </c>
       <c r="AB128" s="65" t="n">
         <f aca="false">$AB$104-P128</f>
-        <v>19.373</v>
+        <v>9.72900000000001</v>
       </c>
       <c r="AC128" s="66" t="n">
         <f aca="false">N128</f>
-        <v>64.772</v>
+        <v>74.38</v>
       </c>
       <c r="AD128" s="65" t="n">
         <f aca="false">AC128+AB128</f>
-        <v>84.145</v>
+        <v>84.109</v>
       </c>
       <c r="AE128" s="65" t="str">
         <f aca="false">H128</f>
@@ -12905,7 +12819,7 @@
       </c>
       <c r="AH128" s="4" t="n">
         <f aca="false">N128+AF128</f>
-        <v>64.772</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15343,8 +15257,8 @@
   </sheetPr>
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F112" activeCellId="0" sqref="F112"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F109" activeCellId="0" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15355,11 +15269,13 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="116" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="116" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="116" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="117" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="116" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="117"/>
+      <c r="A1" s="118"/>
       <c r="B1" s="116" t="s">
         <v>613</v>
       </c>
@@ -15370,7 +15286,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>227</v>
       </c>
@@ -15388,11 +15304,11 @@
       <c r="I2" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="J2" s="116" t="n">
+      <c r="J2" s="117" t="n">
         <v>95999860.2049</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>224</v>
       </c>
@@ -15410,11 +15326,11 @@
       <c r="I3" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="J3" s="116" t="n">
+      <c r="J3" s="117" t="n">
         <v>94569000.4613</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>194</v>
       </c>
@@ -15432,11 +15348,11 @@
       <c r="I4" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="J4" s="116" t="n">
+      <c r="J4" s="117" t="n">
         <v>93940166.3117</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>190</v>
       </c>
@@ -15454,11 +15370,11 @@
       <c r="I5" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="J5" s="116" t="n">
+      <c r="J5" s="117" t="n">
         <v>94510133.1769</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>186</v>
       </c>
@@ -15476,11 +15392,11 @@
       <c r="I6" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="J6" s="116" t="n">
+      <c r="J6" s="117" t="n">
         <v>88099538.181</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>183</v>
       </c>
@@ -15498,11 +15414,11 @@
       <c r="I7" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="J7" s="116" t="n">
+      <c r="J7" s="117" t="n">
         <v>89039527.594</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>180</v>
       </c>
@@ -15520,11 +15436,11 @@
       <c r="I8" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="J8" s="116" t="n">
+      <c r="J8" s="117" t="n">
         <v>86329726.3452</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>176</v>
       </c>
@@ -15542,7 +15458,7 @@
       <c r="I9" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="J9" s="116" t="n">
+      <c r="J9" s="117" t="n">
         <v>84659758.3242</v>
       </c>
     </row>
@@ -16694,7 +16610,7 @@
         <v>19470987.7196</v>
       </c>
     </row>
-    <row r="84" s="118" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="119" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>658</v>
       </c>
@@ -16711,6 +16627,7 @@
       </c>
       <c r="G84" s="0"/>
       <c r="H84" s="0"/>
+      <c r="J84" s="120"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -16805,7 +16722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="28" t="s">
         <v>389</v>
       </c>
@@ -16821,7 +16738,7 @@
         <v>95999860.2049</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="28" t="s">
         <v>397</v>
       </c>
@@ -16837,7 +16754,7 @@
         <v>94569000.4613</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="28" t="s">
         <v>413</v>
       </c>
@@ -16853,7 +16770,7 @@
         <v>93940166.3117</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="28" t="s">
         <v>405</v>
       </c>
@@ -16869,7 +16786,7 @@
         <v>94510133.1769</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="28" t="s">
         <v>429</v>
       </c>
@@ -16885,7 +16802,7 @@
         <v>88099538.181</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="28" t="s">
         <v>421</v>
       </c>
@@ -16901,7 +16818,7 @@
         <v>89039527.594</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="28" t="s">
         <v>437</v>
       </c>
@@ -16917,7 +16834,7 @@
         <v>86329726.3452</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="28" t="s">
         <v>445</v>
       </c>
@@ -16945,6 +16862,12 @@
         <f aca="false">B99+C99</f>
         <v>0</v>
       </c>
+      <c r="F99" s="116" t="s">
+        <v>664</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="116" t="s">
@@ -16952,7 +16875,7 @@
       </c>
       <c r="B100" s="116" t="n">
         <f aca="false">1000000*F100</f>
-        <v>66630000</v>
+        <v>76240000</v>
       </c>
       <c r="C100" s="116" t="n">
         <f aca="false">B182</f>
@@ -16960,10 +16883,22 @@
       </c>
       <c r="D100" s="116" t="n">
         <f aca="false">B100+C100</f>
-        <v>66630000</v>
-      </c>
-      <c r="F100" s="119" t="n">
-        <v>66.63</v>
+        <v>76240000</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>76.24</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <f aca="false">Summary!AD126</f>
+        <v>85.969</v>
+      </c>
+      <c r="I100" s="116" t="str">
+        <f aca="false">A100</f>
+        <v>PMOD-5</v>
+      </c>
+      <c r="J100" s="117" t="n">
+        <f aca="false">H100-F100</f>
+        <v>9.72900000000001</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16972,7 +16907,7 @@
       </c>
       <c r="B101" s="116" t="n">
         <f aca="false">1000000*F101</f>
-        <v>64772000</v>
+        <v>74380000</v>
       </c>
       <c r="C101" s="116" t="n">
         <f aca="false">B183</f>
@@ -16980,10 +16915,22 @@
       </c>
       <c r="D101" s="116" t="n">
         <f aca="false">B101+C101</f>
-        <v>64772000</v>
-      </c>
-      <c r="F101" s="119" t="n">
-        <v>64.772</v>
+        <v>74380000</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>74.38</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <f aca="false">Summary!AD128</f>
+        <v>84.109</v>
+      </c>
+      <c r="I101" s="116" t="str">
+        <f aca="false">A101</f>
+        <v>PMOD-6</v>
+      </c>
+      <c r="J101" s="117" t="n">
+        <f aca="false">H101-F101</f>
+        <v>9.72900000000001</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16992,7 +16939,7 @@
       </c>
       <c r="B102" s="116" t="n">
         <f aca="false">1000000*F102</f>
-        <v>70370000</v>
+        <v>79230000</v>
       </c>
       <c r="C102" s="116" t="n">
         <f aca="false">B184</f>
@@ -17000,10 +16947,22 @@
       </c>
       <c r="D102" s="116" t="n">
         <f aca="false">B102+C102</f>
-        <v>70370000</v>
-      </c>
-      <c r="F102" s="119" t="n">
-        <v>70.37</v>
+        <v>79230000</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>79.23</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <f aca="false">Summary!AD122</f>
+        <v>88.959</v>
+      </c>
+      <c r="I102" s="116" t="str">
+        <f aca="false">A102</f>
+        <v>PMOD-7</v>
+      </c>
+      <c r="J102" s="117" t="n">
+        <f aca="false">H102-F102</f>
+        <v>9.729</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17012,7 +16971,7 @@
       </c>
       <c r="B103" s="116" t="n">
         <f aca="false">1000000*F103</f>
-        <v>69305000</v>
+        <v>78170000</v>
       </c>
       <c r="C103" s="116" t="n">
         <f aca="false">B185</f>
@@ -17020,10 +16979,22 @@
       </c>
       <c r="D103" s="116" t="n">
         <f aca="false">B103+C103</f>
-        <v>69305000</v>
-      </c>
-      <c r="F103" s="119" t="n">
-        <v>69.305</v>
+        <v>78170000</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>78.17</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <f aca="false">Summary!AD124</f>
+        <v>87.899</v>
+      </c>
+      <c r="I103" s="116" t="str">
+        <f aca="false">A103</f>
+        <v>PMOD-8</v>
+      </c>
+      <c r="J103" s="117" t="n">
+        <f aca="false">H103-F103</f>
+        <v>9.729</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17032,7 +17003,7 @@
       </c>
       <c r="B104" s="116" t="n">
         <f aca="false">1000000*F104</f>
-        <v>75590000</v>
+        <v>82340000</v>
       </c>
       <c r="C104" s="116" t="n">
         <f aca="false">B186</f>
@@ -17040,10 +17011,22 @@
       </c>
       <c r="D104" s="116" t="n">
         <f aca="false">B104+C104</f>
-        <v>75590000</v>
-      </c>
-      <c r="F104" s="119" t="n">
-        <v>75.59</v>
+        <v>82340000</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>82.34</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <f aca="false">Summary!AD118</f>
+        <v>92.069</v>
+      </c>
+      <c r="I104" s="116" t="str">
+        <f aca="false">A104</f>
+        <v>PMOD-9</v>
+      </c>
+      <c r="J104" s="117" t="n">
+        <f aca="false">H104-F104</f>
+        <v>9.729</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17052,7 +17035,7 @@
       </c>
       <c r="B105" s="116" t="n">
         <f aca="false">1000000*F105</f>
-        <v>73838000</v>
+        <v>80590000</v>
       </c>
       <c r="C105" s="116" t="n">
         <f aca="false">B187</f>
@@ -17060,10 +17043,22 @@
       </c>
       <c r="D105" s="116" t="n">
         <f aca="false">B105+C105</f>
-        <v>73838000</v>
-      </c>
-      <c r="F105" s="119" t="n">
-        <v>73.838</v>
+        <v>80590000</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <f aca="false">Summary!AD120</f>
+        <v>90.319</v>
+      </c>
+      <c r="I105" s="116" t="str">
+        <f aca="false">A105</f>
+        <v>PMOD-10</v>
+      </c>
+      <c r="J105" s="117" t="n">
+        <f aca="false">H105-F105</f>
+        <v>9.729</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17072,7 +17067,7 @@
       </c>
       <c r="B106" s="116" t="n">
         <f aca="false">1000000*F106</f>
-        <v>79760000</v>
+        <v>85000000</v>
       </c>
       <c r="C106" s="116" t="n">
         <f aca="false">B188</f>
@@ -17080,10 +17075,22 @@
       </c>
       <c r="D106" s="116" t="n">
         <f aca="false">B106+C106</f>
-        <v>79760000</v>
-      </c>
-      <c r="F106" s="119" t="n">
-        <v>79.76</v>
+        <v>85000000</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <f aca="false">Summary!AD114</f>
+        <v>94.729</v>
+      </c>
+      <c r="I106" s="116" t="str">
+        <f aca="false">A106</f>
+        <v>PMOD-11</v>
+      </c>
+      <c r="J106" s="117" t="n">
+        <f aca="false">H106-F106</f>
+        <v>9.72900000000001</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17092,7 +17099,7 @@
       </c>
       <c r="B107" s="116" t="n">
         <f aca="false">1000000*F107</f>
-        <v>78371000</v>
+        <v>83610000</v>
       </c>
       <c r="C107" s="116" t="n">
         <f aca="false">B189</f>
@@ -17100,10 +17107,22 @@
       </c>
       <c r="D107" s="116" t="n">
         <f aca="false">B107+C107</f>
-        <v>78371000</v>
-      </c>
-      <c r="F107" s="119" t="n">
-        <v>78.371</v>
+        <v>83610000</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>83.61</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <f aca="false">Summary!AD116</f>
+        <v>93.339</v>
+      </c>
+      <c r="I107" s="116" t="str">
+        <f aca="false">A107</f>
+        <v>PMOD-12</v>
+      </c>
+      <c r="J107" s="117" t="n">
+        <f aca="false">H107-F107</f>
+        <v>9.72900000000001</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17122,8 +17141,20 @@
         <f aca="false">B108+C108</f>
         <v>81790000</v>
       </c>
-      <c r="F108" s="119" t="n">
+      <c r="F108" s="0" t="n">
         <v>81.79</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <f aca="false">Summary!AD110</f>
+        <v>91.519</v>
+      </c>
+      <c r="I108" s="116" t="str">
+        <f aca="false">A108</f>
+        <v>PMOD-13</v>
+      </c>
+      <c r="J108" s="117" t="n">
+        <f aca="false">H108-F108</f>
+        <v>9.729</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17142,8 +17173,20 @@
         <f aca="false">B109+C109</f>
         <v>82904000</v>
       </c>
-      <c r="F109" s="119" t="n">
+      <c r="F109" s="0" t="n">
         <v>82.904</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <f aca="false">Summary!AD112</f>
+        <v>92.629</v>
+      </c>
+      <c r="I109" s="116" t="str">
+        <f aca="false">A109</f>
+        <v>PMOD-14</v>
+      </c>
+      <c r="J109" s="117" t="n">
+        <f aca="false">H109-F109</f>
+        <v>9.72500000000001</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17162,8 +17205,20 @@
         <f aca="false">B110+C110</f>
         <v>86739000</v>
       </c>
-      <c r="F110" s="119" t="n">
+      <c r="F110" s="0" t="n">
         <v>86.739</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <f aca="false">Summary!AD106</f>
+        <v>86.739</v>
+      </c>
+      <c r="I110" s="116" t="str">
+        <f aca="false">A110</f>
+        <v>PMOD-15</v>
+      </c>
+      <c r="J110" s="117" t="n">
+        <f aca="false">H110-F110</f>
+        <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17172,7 +17227,7 @@
       </c>
       <c r="B111" s="116" t="n">
         <f aca="false">1000000*F111</f>
-        <v>88695000</v>
+        <v>88060000</v>
       </c>
       <c r="C111" s="116" t="n">
         <f aca="false">B193</f>
@@ -17180,10 +17235,22 @@
       </c>
       <c r="D111" s="116" t="n">
         <f aca="false">B111+C111</f>
-        <v>88695000</v>
-      </c>
-      <c r="F111" s="119" t="n">
-        <v>88.695</v>
+        <v>88060000</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>88.06</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <f aca="false">Summary!AD108</f>
+        <v>88.659</v>
+      </c>
+      <c r="I111" s="116" t="str">
+        <f aca="false">A111</f>
+        <v>PMOD-16</v>
+      </c>
+      <c r="J111" s="117" t="n">
+        <f aca="false">H111-F111</f>
+        <v>0.599000000000004</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17915,9 +17982,9 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J171" s="116" t="n">
+      <c r="J171" s="117" t="n">
         <f aca="false">SUM(H132:H165,H92:H125,H50:H90,H2:H43)</f>
-        <v>0</v>
+        <v>1076.938</v>
       </c>
     </row>
   </sheetData>
@@ -17953,68 +18020,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="2" s="120" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="120" t="n">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" s="121" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="120" t="s">
-        <v>666</v>
-      </c>
-      <c r="C2" s="120" t="s">
+      <c r="B2" s="121" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="121" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="120" t="n">
+      <c r="A3" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="120" t="s">
-        <v>667</v>
-      </c>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="121" t="s">
+        <v>669</v>
+      </c>
+      <c r="C3" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="120" t="s">
-        <v>668</v>
+      <c r="E3" s="121" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="120" t="n">
+      <c r="A4" s="121" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="120" t="s">
-        <v>669</v>
-      </c>
-      <c r="C4" s="120" t="s">
+      <c r="B4" s="121" t="s">
+        <v>671</v>
+      </c>
+      <c r="C4" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="121" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="120" t="n">
+      <c r="A5" s="121" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="120" t="s">
-        <v>670</v>
-      </c>
-      <c r="C5" s="120" t="s">
+      <c r="B5" s="121" t="s">
+        <v>672</v>
+      </c>
+      <c r="C5" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="121" t="s">
         <v>63</v>
       </c>
     </row>
@@ -18023,13 +18090,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18037,13 +18104,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18051,7 +18118,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>63</v>
@@ -18065,16 +18132,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18082,7 +18149,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>63</v>
@@ -18096,10 +18163,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>41</v>
@@ -18110,7 +18177,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>41</v>
@@ -18124,13 +18191,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>682</v>
-      </c>
       <c r="D13" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18138,13 +18205,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/nubus-to-ztex/signals.xlsx
+++ b/nubus-to-ztex/signals.xlsx
@@ -1108,7 +1108,7 @@
     <t xml:space="preserve">P5</t>
   </si>
   <si>
-    <t xml:space="preserve">PMOD-15</t>
+    <t xml:space="preserve">PMOD-1516-</t>
   </si>
   <si>
     <t xml:space="preserve">C20</t>
@@ -1132,7 +1132,7 @@
     <t xml:space="preserve">N5</t>
   </si>
   <si>
-    <t xml:space="preserve">PMOD-16</t>
+    <t xml:space="preserve">PMOD-1516+</t>
   </si>
   <si>
     <t xml:space="preserve">C21</t>
@@ -1156,7 +1156,7 @@
     <t xml:space="preserve">P4</t>
   </si>
   <si>
-    <t xml:space="preserve">PMOD-13</t>
+    <t xml:space="preserve">PMOD-1314-</t>
   </si>
   <si>
     <t xml:space="preserve">C22</t>
@@ -1180,7 +1180,7 @@
     <t xml:space="preserve">P3</t>
   </si>
   <si>
-    <t xml:space="preserve">PMOD-14</t>
+    <t xml:space="preserve">PMOD-1314+</t>
   </si>
   <si>
     <t xml:space="preserve">C23</t>
@@ -1204,7 +1204,7 @@
     <t xml:space="preserve">T1</t>
   </si>
   <si>
-    <t xml:space="preserve">PMOD-11</t>
+    <t xml:space="preserve">PMOD-1112-</t>
   </si>
   <si>
     <t xml:space="preserve">C24</t>
@@ -1228,7 +1228,7 @@
     <t xml:space="preserve">R1</t>
   </si>
   <si>
-    <t xml:space="preserve">PMOD-12</t>
+    <t xml:space="preserve">PMOD-1112+</t>
   </si>
   <si>
     <t xml:space="preserve">C25</t>
@@ -1252,7 +1252,7 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">PMOD-9</t>
+    <t xml:space="preserve">PMOD-910-</t>
   </si>
   <si>
     <t xml:space="preserve">C26</t>
@@ -1276,7 +1276,7 @@
     <t xml:space="preserve">P2</t>
   </si>
   <si>
-    <t xml:space="preserve">PMOD-10</t>
+    <t xml:space="preserve">PMOD-910+</t>
   </si>
   <si>
     <t xml:space="preserve">C27</t>
@@ -1300,7 +1300,7 @@
     <t xml:space="preserve">N2</t>
   </si>
   <si>
-    <t xml:space="preserve">PMOD-7</t>
+    <t xml:space="preserve">PMOD-78-</t>
   </si>
   <si>
     <t xml:space="preserve">C28</t>
@@ -1324,7 +1324,7 @@
     <t xml:space="preserve">N1</t>
   </si>
   <si>
-    <t xml:space="preserve">PMOD-8</t>
+    <t xml:space="preserve">PMOD-78+</t>
   </si>
   <si>
     <t xml:space="preserve">C29</t>
@@ -1348,7 +1348,7 @@
     <t xml:space="preserve">M1</t>
   </si>
   <si>
-    <t xml:space="preserve">PMOD-5</t>
+    <t xml:space="preserve">PMOD-56-</t>
   </si>
   <si>
     <t xml:space="preserve">C30</t>
@@ -1372,7 +1372,7 @@
     <t xml:space="preserve">L1</t>
   </si>
   <si>
-    <t xml:space="preserve">PMOD-6</t>
+    <t xml:space="preserve">PMOD-56+</t>
   </si>
   <si>
     <t xml:space="preserve">C31</t>
@@ -2450,7 +2450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2919,10 +2919,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3027,8 +3023,8 @@
   </sheetPr>
   <dimension ref="A1:AH232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB105" activeCellId="0" sqref="AB105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H129" activeCellId="0" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5228,8 +5224,7 @@
       <c r="U33" s="30" t="str">
         <f aca="false">IF(AND(K33&lt;&gt;"",K33&lt;&gt;"+3v3",K33&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D33," [get_ports {",K33,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K33,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN  [get_ports {0}]
-set_property IOSTANDARD LVTTL [get_ports {0}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {0}]</v>
       </c>
       <c r="V33" s="31" t="str">
         <f aca="false">IF(AND(K33&lt;&gt;"",K33&lt;&gt;"+3v3",K33&lt;&gt;"GND",NOT(ISNA(P33)),NOT(ISNA(N33))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S33/$V$8,"0.000")," [get_ports {",K33,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S33/$W$8,"0.000")," [get_ports {",K33,"}]",CHAR(10)),"")</f>
@@ -7717,8 +7712,7 @@
       <c r="U65" s="6" t="str">
         <f aca="false">IF(AND(K65&lt;&gt;"",K65&lt;&gt;"+3v3",K65&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D65," [get_ports {",K65,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K65,"}]",CHAR(10)),"")</f>
         <v>set_property PACKAGE_PIN E11 [get_ports {0}]
-set_property IOSTANDARD LVTTL [get_ports {0}]
-</v>
+set_property IOSTANDARD LVTTL [get_ports {0}]</v>
       </c>
       <c r="V65" s="31" t="str">
         <f aca="false">IF(AND(K65&lt;&gt;"",K65&lt;&gt;"+3v3",K65&lt;&gt;"GND",NOT(ISNA(P65)),NOT(ISNA(N65))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S65/$V$8,"0.000")," [get_ports {",K65,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S65/$W$8,"0.000")," [get_ports {",K65,"}]",CHAR(10)),"")</f>
@@ -10470,7 +10464,7 @@
       </c>
       <c r="AB103" s="65" t="n">
         <f aca="false">MIN(P106,P108,P110,P112,P114,P116,P118,P120,P122,P124,P126,P128)</f>
-        <v>96.52</v>
+        <v>111.761</v>
       </c>
       <c r="AG103" s="8" t="e">
         <f aca="false">IF(OR(LEFT(K103,3)="LED",LEFT(K103,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D103,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K103),"")</f>
@@ -10537,7 +10531,7 @@
       </c>
       <c r="AB104" s="65" t="n">
         <f aca="false">MAX(P106,P108,P110,P112,P114,P116,P118,P120,P122,P124,P126,P128)</f>
-        <v>106.249</v>
+        <v>111.761</v>
       </c>
       <c r="AG104" s="8" t="e">
         <f aca="false">IF(OR(LEFT(K104,3)="LED",LEFT(K104,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D104,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K104),"")</f>
@@ -10660,7 +10654,7 @@
       </c>
       <c r="K106" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H106)),$H106,"")</f>
-        <v>PMOD-15</v>
+        <v>PMOD-1516-</v>
       </c>
       <c r="M106" s="0" t="n">
         <f aca="false">VLOOKUP(A106,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -10668,35 +10662,36 @@
       </c>
       <c r="N106" s="4" t="n">
         <f aca="false">VLOOKUP(K106,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>86.739</v>
+        <v>92.251</v>
       </c>
       <c r="P106" s="4" t="n">
         <f aca="false">IF(AND(M106&gt;0,N106&gt;0),M106+N106, "N/A")</f>
-        <v>106.249</v>
+        <v>111.761</v>
       </c>
       <c r="Q106" s="29" t="n">
         <f aca="false">IF(P106&gt;0,P106/25.4,)</f>
-        <v>4.18303149606299</v>
+        <v>4.40003937007874</v>
       </c>
       <c r="S106" s="4" t="n">
         <f aca="false">IF(P106&gt;0,P$136-P106,"")</f>
-        <v>-37.1510238429</v>
+        <v>-42.6630238429</v>
       </c>
       <c r="U106" s="30" t="str">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D106," [get_ports {",K106,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K106,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN P5 [get_ports {PMOD-15}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-15}]</v>
+        <v>set_property PACKAGE_PIN P5 [get_ports {PMOD-1516-}]
+set_property IOSTANDARD LVTTL [get_ports {PMOD-1516-}]
+</v>
       </c>
       <c r="V106" s="31" t="str">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S106/$V$8,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S106/$W$8,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.436 [get_ports {PMOD-15}]
-set_input_delay -clock clk_3v3_n -max 52.498 [get_ports {PMOD-15}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.463 [get_ports {PMOD-1516-}]
+set_input_delay -clock clk_3v3_n -max 52.534 [get_ports {PMOD-1516-}]
 </v>
       </c>
       <c r="W106" s="31" t="str">
         <f aca="false">IF(AND(K106&lt;&gt;"",K106&lt;&gt;"+3v3",K106&lt;&gt;"GND",NOT(ISNA(P106)),NOT(ISNA(N106))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P106/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K106,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P106/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K106,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.123 [get_ports {PMOD-15}]
-set_output_delay -clock clk_3v3_n -max 53.669 [get_ports {PMOD-15}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.096 [get_ports {PMOD-1516-}]
+set_output_delay -clock clk_3v3_n -max 53.706 [get_ports {PMOD-1516-}]
 </v>
       </c>
       <c r="Y106" s="7" t="str">
@@ -10709,15 +10704,15 @@
       </c>
       <c r="AC106" s="66" t="n">
         <f aca="false">N106</f>
-        <v>86.739</v>
+        <v>92.251</v>
       </c>
       <c r="AD106" s="65" t="n">
         <f aca="false">AC106+AB106</f>
-        <v>86.739</v>
+        <v>92.251</v>
       </c>
       <c r="AE106" s="65" t="str">
         <f aca="false">H106</f>
-        <v>PMOD-15</v>
+        <v>PMOD-1516-</v>
       </c>
       <c r="AF106" s="0" t="n">
         <f aca="false">MAX(P106,P108)-P106</f>
@@ -10729,7 +10724,7 @@
       </c>
       <c r="AH106" s="4" t="n">
         <f aca="false">N106+AF106</f>
-        <v>86.739</v>
+        <v>92.251</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10848,7 +10843,7 @@
       </c>
       <c r="K108" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H108)),$H108,"")</f>
-        <v>PMOD-16</v>
+        <v>PMOD-1516+</v>
       </c>
       <c r="M108" s="0" t="n">
         <f aca="false">VLOOKUP(A108,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -10856,35 +10851,36 @@
       </c>
       <c r="N108" s="4" t="n">
         <f aca="false">VLOOKUP(K108,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>88.06</v>
+        <v>94.171</v>
       </c>
       <c r="P108" s="4" t="n">
         <f aca="false">IF(AND(M108&gt;0,N108&gt;0),M108+N108, "N/A")</f>
-        <v>105.65</v>
+        <v>111.761</v>
       </c>
       <c r="Q108" s="29" t="n">
         <f aca="false">IF(P108&gt;0,P108/25.4,)</f>
-        <v>4.15944881889764</v>
+        <v>4.40003937007874</v>
       </c>
       <c r="S108" s="4" t="n">
         <f aca="false">IF(P108&gt;0,P$136-P108,"")</f>
-        <v>-36.5520238429</v>
+        <v>-42.6630238429</v>
       </c>
       <c r="U108" s="30" t="str">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D108," [get_ports {",K108,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K108,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN N5 [get_ports {PMOD-16}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-16}]</v>
+        <v>set_property PACKAGE_PIN N5 [get_ports {PMOD-1516+}]
+set_property IOSTANDARD LVTTL [get_ports {PMOD-1516+}]
+</v>
       </c>
       <c r="V108" s="31" t="str">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S108/$V$8,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S108/$W$8,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.433 [get_ports {PMOD-16}]
-set_input_delay -clock clk_3v3_n -max 52.494 [get_ports {PMOD-16}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.463 [get_ports {PMOD-1516+}]
+set_input_delay -clock clk_3v3_n -max 52.534 [get_ports {PMOD-1516+}]
 </v>
       </c>
       <c r="W108" s="31" t="str">
         <f aca="false">IF(AND(K108&lt;&gt;"",K108&lt;&gt;"+3v3",K108&lt;&gt;"GND",NOT(ISNA(P108)),NOT(ISNA(N108))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P108/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K108,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P108/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K108,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.126 [get_ports {PMOD-16}]
-set_output_delay -clock clk_3v3_n -max 53.665 [get_ports {PMOD-16}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.096 [get_ports {PMOD-1516+}]
+set_output_delay -clock clk_3v3_n -max 53.706 [get_ports {PMOD-1516+}]
 </v>
       </c>
       <c r="Y108" s="7" t="str">
@@ -10893,23 +10889,23 @@
       </c>
       <c r="AB108" s="65" t="n">
         <f aca="false">$AB$104-P108</f>
-        <v>0.599000000000004</v>
+        <v>0</v>
       </c>
       <c r="AC108" s="66" t="n">
         <f aca="false">N108</f>
-        <v>88.06</v>
+        <v>94.171</v>
       </c>
       <c r="AD108" s="65" t="n">
         <f aca="false">AC108+AB108</f>
-        <v>88.659</v>
+        <v>94.171</v>
       </c>
       <c r="AE108" s="65" t="str">
         <f aca="false">H108</f>
-        <v>PMOD-16</v>
+        <v>PMOD-1516+</v>
       </c>
       <c r="AF108" s="0" t="n">
         <f aca="false">MAX(P108,P106)-P108</f>
-        <v>0.599000000000004</v>
+        <v>0</v>
       </c>
       <c r="AG108" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K108,3)="LED",LEFT(K108,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D108,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K108),"")</f>
@@ -10917,7 +10913,7 @@
       </c>
       <c r="AH108" s="4" t="n">
         <f aca="false">N108+AF108</f>
-        <v>88.659</v>
+        <v>94.171</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11036,7 +11032,7 @@
       </c>
       <c r="K110" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H110)),$H110,"")</f>
-        <v>PMOD-13</v>
+        <v>PMOD-1314-</v>
       </c>
       <c r="M110" s="0" t="n">
         <f aca="false">VLOOKUP(A110,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -11044,35 +11040,36 @@
       </c>
       <c r="N110" s="4" t="n">
         <f aca="false">VLOOKUP(K110,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>81.79</v>
+        <v>97.031</v>
       </c>
       <c r="P110" s="4" t="n">
         <f aca="false">IF(AND(M110&gt;0,N110&gt;0),M110+N110, "N/A")</f>
-        <v>96.52</v>
+        <v>111.761</v>
       </c>
       <c r="Q110" s="29" t="n">
         <f aca="false">IF(P110&gt;0,P110/25.4,)</f>
-        <v>3.8</v>
+        <v>4.40003937007874</v>
       </c>
       <c r="S110" s="4" t="n">
         <f aca="false">IF(P110&gt;0,P$136-P110,"")</f>
-        <v>-27.4220238429</v>
+        <v>-42.6630238429</v>
       </c>
       <c r="U110" s="30" t="str">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D110," [get_ports {",K110,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K110,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN P4 [get_ports {PMOD-13}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-13}]</v>
+        <v>set_property PACKAGE_PIN P4 [get_ports {PMOD-1314-}]
+set_property IOSTANDARD LVTTL [get_ports {PMOD-1314-}]
+</v>
       </c>
       <c r="V110" s="31" t="str">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S110/$V$8,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S110/$W$8,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-13}]
-set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-13}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.463 [get_ports {PMOD-1314-}]
+set_input_delay -clock clk_3v3_n -max 52.534 [get_ports {PMOD-1314-}]
 </v>
       </c>
       <c r="W110" s="31" t="str">
         <f aca="false">IF(AND(K110&lt;&gt;"",K110&lt;&gt;"+3v3",K110&lt;&gt;"GND",NOT(ISNA(P110)),NOT(ISNA(N110))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P110/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K110,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P110/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K110,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-13}]
-set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-13}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.096 [get_ports {PMOD-1314-}]
+set_output_delay -clock clk_3v3_n -max 53.706 [get_ports {PMOD-1314-}]
 </v>
       </c>
       <c r="Y110" s="7" t="str">
@@ -11081,23 +11078,23 @@
       </c>
       <c r="AB110" s="65" t="n">
         <f aca="false">$AB$104-P110</f>
-        <v>9.729</v>
+        <v>0</v>
       </c>
       <c r="AC110" s="66" t="n">
         <f aca="false">N110</f>
-        <v>81.79</v>
+        <v>97.031</v>
       </c>
       <c r="AD110" s="65" t="n">
         <f aca="false">AC110+AB110</f>
-        <v>91.519</v>
+        <v>97.031</v>
       </c>
       <c r="AE110" s="65" t="str">
         <f aca="false">H110</f>
-        <v>PMOD-13</v>
+        <v>PMOD-1314-</v>
       </c>
       <c r="AF110" s="0" t="n">
         <f aca="false">MAX(P110,P112)-P110</f>
-        <v>0.00399999999999068</v>
+        <v>0</v>
       </c>
       <c r="AG110" s="8" t="str">
         <f aca="false">IF(OR(LEFT(K110,3)="LED",LEFT(K110,16)="SBUS_DATA_OE_LED"),CONCATENATE("(",CHAR(34),"user_led",CHAR(34),", 0, Pins(",CHAR(34),D110,CHAR(34),"),  IOStandard(",CHAR(34),"lvcmos33",CHAR(34),")), ",CHAR(35),K110),"")</f>
@@ -11105,7 +11102,7 @@
       </c>
       <c r="AH110" s="4" t="n">
         <f aca="false">N110+AF110</f>
-        <v>81.794</v>
+        <v>97.031</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11226,7 +11223,7 @@
       </c>
       <c r="K112" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H112)),$H112,"")</f>
-        <v>PMOD-14</v>
+        <v>PMOD-1314+</v>
       </c>
       <c r="M112" s="0" t="n">
         <f aca="false">VLOOKUP(A112,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -11234,35 +11231,36 @@
       </c>
       <c r="N112" s="4" t="n">
         <f aca="false">VLOOKUP(K112,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>82.904</v>
+        <v>98.141</v>
       </c>
       <c r="P112" s="4" t="n">
         <f aca="false">IF(AND(M112&gt;0,N112&gt;0),M112+N112, "N/A")</f>
-        <v>96.524</v>
+        <v>111.761</v>
       </c>
       <c r="Q112" s="29" t="n">
         <f aca="false">IF(P112&gt;0,P112/25.4,)</f>
-        <v>3.80015748031496</v>
+        <v>4.40003937007874</v>
       </c>
       <c r="S112" s="4" t="n">
         <f aca="false">IF(P112&gt;0,P$136-P112,"")</f>
-        <v>-27.4260238429</v>
+        <v>-42.6630238429</v>
       </c>
       <c r="U112" s="30" t="str">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D112," [get_ports {",K112,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K112,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN P3 [get_ports {PMOD-14}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-14}]</v>
+        <v>set_property PACKAGE_PIN P3 [get_ports {PMOD-1314+}]
+set_property IOSTANDARD LVTTL [get_ports {PMOD-1314+}]
+</v>
       </c>
       <c r="V112" s="31" t="str">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S112/$V$8,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S112/$W$8,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-14}]
-set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-14}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.463 [get_ports {PMOD-1314+}]
+set_input_delay -clock clk_3v3_n -max 52.534 [get_ports {PMOD-1314+}]
 </v>
       </c>
       <c r="W112" s="31" t="str">
         <f aca="false">IF(AND(K112&lt;&gt;"",K112&lt;&gt;"+3v3",K112&lt;&gt;"GND",NOT(ISNA(P112)),NOT(ISNA(N112))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P112/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K112,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P112/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K112,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-14}]
-set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-14}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.096 [get_ports {PMOD-1314+}]
+set_output_delay -clock clk_3v3_n -max 53.706 [get_ports {PMOD-1314+}]
 </v>
       </c>
       <c r="Y112" s="7" t="str">
@@ -11271,19 +11269,19 @@
       </c>
       <c r="AB112" s="65" t="n">
         <f aca="false">$AB$104-P112</f>
-        <v>9.72500000000001</v>
+        <v>0</v>
       </c>
       <c r="AC112" s="66" t="n">
         <f aca="false">N112</f>
-        <v>82.904</v>
+        <v>98.141</v>
       </c>
       <c r="AD112" s="65" t="n">
         <f aca="false">AC112+AB112</f>
-        <v>92.629</v>
+        <v>98.141</v>
       </c>
       <c r="AE112" s="65" t="str">
         <f aca="false">H112</f>
-        <v>PMOD-14</v>
+        <v>PMOD-1314+</v>
       </c>
       <c r="AF112" s="0" t="n">
         <f aca="false">MAX(P112,P110)-P112</f>
@@ -11295,7 +11293,7 @@
       </c>
       <c r="AH112" s="4" t="n">
         <f aca="false">N112+AF112</f>
-        <v>82.904</v>
+        <v>98.141</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11416,7 +11414,7 @@
       </c>
       <c r="K114" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H114)),$H114,"")</f>
-        <v>PMOD-11</v>
+        <v>PMOD-1112-</v>
       </c>
       <c r="M114" s="0" t="n">
         <f aca="false">VLOOKUP(A114,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -11424,35 +11422,36 @@
       </c>
       <c r="N114" s="4" t="n">
         <f aca="false">VLOOKUP(K114,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>85</v>
+        <v>100.241</v>
       </c>
       <c r="P114" s="4" t="n">
         <f aca="false">IF(AND(M114&gt;0,N114&gt;0),M114+N114, "N/A")</f>
-        <v>96.52</v>
+        <v>111.761</v>
       </c>
       <c r="Q114" s="29" t="n">
         <f aca="false">IF(P114&gt;0,P114/25.4,)</f>
-        <v>3.8</v>
+        <v>4.40003937007874</v>
       </c>
       <c r="S114" s="4" t="n">
         <f aca="false">IF(P114&gt;0,P$136-P114,"")</f>
-        <v>-27.4220238429</v>
+        <v>-42.6630238429</v>
       </c>
       <c r="U114" s="30" t="str">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D114," [get_ports {",K114,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K114,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN T1 [get_ports {PMOD-11}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-11}]</v>
+        <v>set_property PACKAGE_PIN T1 [get_ports {PMOD-1112-}]
+set_property IOSTANDARD LVTTL [get_ports {PMOD-1112-}]
+</v>
       </c>
       <c r="V114" s="31" t="str">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S114/$V$8,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S114/$W$8,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-11}]
-set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-11}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.463 [get_ports {PMOD-1112-}]
+set_input_delay -clock clk_3v3_n -max 52.534 [get_ports {PMOD-1112-}]
 </v>
       </c>
       <c r="W114" s="31" t="str">
         <f aca="false">IF(AND(K114&lt;&gt;"",K114&lt;&gt;"+3v3",K114&lt;&gt;"GND",NOT(ISNA(P114)),NOT(ISNA(N114))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P114/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K114,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P114/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K114,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-11}]
-set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-11}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.096 [get_ports {PMOD-1112-}]
+set_output_delay -clock clk_3v3_n -max 53.706 [get_ports {PMOD-1112-}]
 </v>
       </c>
       <c r="Y114" s="7" t="str">
@@ -11461,19 +11460,19 @@
       </c>
       <c r="AB114" s="65" t="n">
         <f aca="false">$AB$104-P114</f>
-        <v>9.72900000000001</v>
+        <v>0</v>
       </c>
       <c r="AC114" s="66" t="n">
         <f aca="false">N114</f>
-        <v>85</v>
+        <v>100.241</v>
       </c>
       <c r="AD114" s="65" t="n">
         <f aca="false">AC114+AB114</f>
-        <v>94.729</v>
+        <v>100.241</v>
       </c>
       <c r="AE114" s="65" t="str">
         <f aca="false">H114</f>
-        <v>PMOD-11</v>
+        <v>PMOD-1112-</v>
       </c>
       <c r="AF114" s="0" t="n">
         <f aca="false">MAX(P114,P116)-P114</f>
@@ -11485,7 +11484,7 @@
       </c>
       <c r="AH114" s="4" t="n">
         <f aca="false">N114+AF114</f>
-        <v>85</v>
+        <v>100.241</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11606,7 +11605,7 @@
       </c>
       <c r="K116" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H116)),$H116,"")</f>
-        <v>PMOD-12</v>
+        <v>PMOD-1112+</v>
       </c>
       <c r="M116" s="0" t="n">
         <f aca="false">VLOOKUP(A116,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -11614,35 +11613,36 @@
       </c>
       <c r="N116" s="4" t="n">
         <f aca="false">VLOOKUP(K116,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>83.61</v>
+        <v>98.851</v>
       </c>
       <c r="P116" s="4" t="n">
         <f aca="false">IF(AND(M116&gt;0,N116&gt;0),M116+N116, "N/A")</f>
-        <v>96.52</v>
+        <v>111.761</v>
       </c>
       <c r="Q116" s="29" t="n">
         <f aca="false">IF(P116&gt;0,P116/25.4,)</f>
-        <v>3.8</v>
+        <v>4.40003937007874</v>
       </c>
       <c r="S116" s="4" t="n">
         <f aca="false">IF(P116&gt;0,P$136-P116,"")</f>
-        <v>-27.4220238429</v>
+        <v>-42.6630238429</v>
       </c>
       <c r="U116" s="30" t="str">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D116," [get_ports {",K116,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K116,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN R1 [get_ports {PMOD-12}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-12}]</v>
+        <v>set_property PACKAGE_PIN R1 [get_ports {PMOD-1112+}]
+set_property IOSTANDARD LVTTL [get_ports {PMOD-1112+}]
+</v>
       </c>
       <c r="V116" s="31" t="str">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S116/$V$8,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S116/$W$8,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-12}]
-set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-12}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.463 [get_ports {PMOD-1112+}]
+set_input_delay -clock clk_3v3_n -max 52.534 [get_ports {PMOD-1112+}]
 </v>
       </c>
       <c r="W116" s="31" t="str">
         <f aca="false">IF(AND(K116&lt;&gt;"",K116&lt;&gt;"+3v3",K116&lt;&gt;"GND",NOT(ISNA(P116)),NOT(ISNA(N116))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P116/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K116,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P116/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K116,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-12}]
-set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-12}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.096 [get_ports {PMOD-1112+}]
+set_output_delay -clock clk_3v3_n -max 53.706 [get_ports {PMOD-1112+}]
 </v>
       </c>
       <c r="Y116" s="7" t="str">
@@ -11651,19 +11651,19 @@
       </c>
       <c r="AB116" s="65" t="n">
         <f aca="false">$AB$104-P116</f>
-        <v>9.72900000000001</v>
+        <v>0</v>
       </c>
       <c r="AC116" s="66" t="n">
         <f aca="false">N116</f>
-        <v>83.61</v>
+        <v>98.851</v>
       </c>
       <c r="AD116" s="65" t="n">
         <f aca="false">AC116+AB116</f>
-        <v>93.339</v>
+        <v>98.851</v>
       </c>
       <c r="AE116" s="65" t="str">
         <f aca="false">H116</f>
-        <v>PMOD-12</v>
+        <v>PMOD-1112+</v>
       </c>
       <c r="AF116" s="0" t="n">
         <f aca="false">MAX(P116,P114)-P116</f>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="AH116" s="4" t="n">
         <f aca="false">N116+AF116</f>
-        <v>83.61</v>
+        <v>98.851</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="K118" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H118)),$H118,"")</f>
-        <v>PMOD-9</v>
+        <v>PMOD-910-</v>
       </c>
       <c r="M118" s="0" t="n">
         <f aca="false">VLOOKUP(A118,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -11804,35 +11804,36 @@
       </c>
       <c r="N118" s="4" t="n">
         <f aca="false">VLOOKUP(K118,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>82.34</v>
+        <v>97.581</v>
       </c>
       <c r="P118" s="4" t="n">
         <f aca="false">IF(AND(M118&gt;0,N118&gt;0),M118+N118, "N/A")</f>
-        <v>96.52</v>
+        <v>111.761</v>
       </c>
       <c r="Q118" s="29" t="n">
         <f aca="false">IF(P118&gt;0,P118/25.4,)</f>
-        <v>3.8</v>
+        <v>4.40003937007874</v>
       </c>
       <c r="S118" s="4" t="n">
         <f aca="false">IF(P118&gt;0,P$136-P118,"")</f>
-        <v>-27.4220238429</v>
+        <v>-42.6630238429</v>
       </c>
       <c r="U118" s="30" t="str">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D118," [get_ports {",K118,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K118,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN R2 [get_ports {PMOD-9}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-9}]</v>
+        <v>set_property PACKAGE_PIN R2 [get_ports {PMOD-910-}]
+set_property IOSTANDARD LVTTL [get_ports {PMOD-910-}]
+</v>
       </c>
       <c r="V118" s="31" t="str">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S118/$V$8,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S118/$W$8,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-9}]
-set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-9}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.463 [get_ports {PMOD-910-}]
+set_input_delay -clock clk_3v3_n -max 52.534 [get_ports {PMOD-910-}]
 </v>
       </c>
       <c r="W118" s="31" t="str">
         <f aca="false">IF(AND(K118&lt;&gt;"",K118&lt;&gt;"+3v3",K118&lt;&gt;"GND",NOT(ISNA(P118)),NOT(ISNA(N118))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P118/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K118,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P118/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K118,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-9}]
-set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-9}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.096 [get_ports {PMOD-910-}]
+set_output_delay -clock clk_3v3_n -max 53.706 [get_ports {PMOD-910-}]
 </v>
       </c>
       <c r="Y118" s="7" t="str">
@@ -11841,19 +11842,19 @@
       </c>
       <c r="AB118" s="65" t="n">
         <f aca="false">$AB$104-P118</f>
-        <v>9.729</v>
+        <v>0</v>
       </c>
       <c r="AC118" s="66" t="n">
         <f aca="false">N118</f>
-        <v>82.34</v>
+        <v>97.581</v>
       </c>
       <c r="AD118" s="65" t="n">
         <f aca="false">AC118+AB118</f>
-        <v>92.069</v>
+        <v>97.581</v>
       </c>
       <c r="AE118" s="65" t="str">
         <f aca="false">H118</f>
-        <v>PMOD-9</v>
+        <v>PMOD-910-</v>
       </c>
       <c r="AF118" s="0" t="n">
         <f aca="false">MAX(P118,P120)-P118</f>
@@ -11865,7 +11866,7 @@
       </c>
       <c r="AH118" s="4" t="n">
         <f aca="false">N118+AF118</f>
-        <v>82.34</v>
+        <v>97.581</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11986,7 +11987,7 @@
       </c>
       <c r="K120" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H120)),$H120,"")</f>
-        <v>PMOD-10</v>
+        <v>PMOD-910+</v>
       </c>
       <c r="M120" s="0" t="n">
         <f aca="false">VLOOKUP(A120,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -11994,35 +11995,36 @@
       </c>
       <c r="N120" s="4" t="n">
         <f aca="false">VLOOKUP(K120,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>80.59</v>
+        <v>95.831</v>
       </c>
       <c r="P120" s="4" t="n">
         <f aca="false">IF(AND(M120&gt;0,N120&gt;0),M120+N120, "N/A")</f>
-        <v>96.52</v>
+        <v>111.761</v>
       </c>
       <c r="Q120" s="29" t="n">
         <f aca="false">IF(P120&gt;0,P120/25.4,)</f>
-        <v>3.8</v>
+        <v>4.40003937007874</v>
       </c>
       <c r="S120" s="4" t="n">
         <f aca="false">IF(P120&gt;0,P$136-P120,"")</f>
-        <v>-27.4220238429</v>
+        <v>-42.6630238429</v>
       </c>
       <c r="U120" s="30" t="str">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D120," [get_ports {",K120,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K120,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN P2 [get_ports {PMOD-10}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-10}]</v>
+        <v>set_property PACKAGE_PIN P2 [get_ports {PMOD-910+}]
+set_property IOSTANDARD LVTTL [get_ports {PMOD-910+}]
+</v>
       </c>
       <c r="V120" s="31" t="str">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S120/$V$8,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S120/$W$8,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-10}]
-set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-10}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.463 [get_ports {PMOD-910+}]
+set_input_delay -clock clk_3v3_n -max 52.534 [get_ports {PMOD-910+}]
 </v>
       </c>
       <c r="W120" s="31" t="str">
         <f aca="false">IF(AND(K120&lt;&gt;"",K120&lt;&gt;"+3v3",K120&lt;&gt;"GND",NOT(ISNA(P120)),NOT(ISNA(N120))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P120/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K120,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P120/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K120,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-10}]
-set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-10}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.096 [get_ports {PMOD-910+}]
+set_output_delay -clock clk_3v3_n -max 53.706 [get_ports {PMOD-910+}]
 </v>
       </c>
       <c r="Y120" s="7" t="str">
@@ -12031,19 +12033,19 @@
       </c>
       <c r="AB120" s="65" t="n">
         <f aca="false">$AB$104-P120</f>
-        <v>9.729</v>
+        <v>0</v>
       </c>
       <c r="AC120" s="66" t="n">
         <f aca="false">N120</f>
-        <v>80.59</v>
+        <v>95.831</v>
       </c>
       <c r="AD120" s="65" t="n">
         <f aca="false">AC120+AB120</f>
-        <v>90.319</v>
+        <v>95.831</v>
       </c>
       <c r="AE120" s="65" t="str">
         <f aca="false">H120</f>
-        <v>PMOD-10</v>
+        <v>PMOD-910+</v>
       </c>
       <c r="AF120" s="0" t="n">
         <f aca="false">MAX(P120,P118)-P120</f>
@@ -12055,7 +12057,7 @@
       </c>
       <c r="AH120" s="4" t="n">
         <f aca="false">N120+AF120</f>
-        <v>80.59</v>
+        <v>95.831</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12176,7 +12178,7 @@
       </c>
       <c r="K122" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H122)),$H122,"")</f>
-        <v>PMOD-7</v>
+        <v>PMOD-78-</v>
       </c>
       <c r="M122" s="0" t="n">
         <f aca="false">VLOOKUP(A122,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -12184,35 +12186,36 @@
       </c>
       <c r="N122" s="4" t="n">
         <f aca="false">VLOOKUP(K122,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>79.23</v>
+        <v>94.471</v>
       </c>
       <c r="P122" s="4" t="n">
         <f aca="false">IF(AND(M122&gt;0,N122&gt;0),M122+N122, "N/A")</f>
-        <v>96.52</v>
+        <v>111.761</v>
       </c>
       <c r="Q122" s="29" t="n">
         <f aca="false">IF(P122&gt;0,P122/25.4,)</f>
-        <v>3.8</v>
+        <v>4.40003937007874</v>
       </c>
       <c r="S122" s="4" t="n">
         <f aca="false">IF(P122&gt;0,P$136-P122,"")</f>
-        <v>-27.4220238429</v>
+        <v>-42.6630238429</v>
       </c>
       <c r="U122" s="30" t="str">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D122," [get_ports {",K122,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K122,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN N2 [get_ports {PMOD-7}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-7}]</v>
+        <v>set_property PACKAGE_PIN N2 [get_ports {PMOD-78-}]
+set_property IOSTANDARD LVTTL [get_ports {PMOD-78-}]
+</v>
       </c>
       <c r="V122" s="31" t="str">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S122/$V$8,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S122/$W$8,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-7}]
-set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-7}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.463 [get_ports {PMOD-78-}]
+set_input_delay -clock clk_3v3_n -max 52.534 [get_ports {PMOD-78-}]
 </v>
       </c>
       <c r="W122" s="31" t="str">
         <f aca="false">IF(AND(K122&lt;&gt;"",K122&lt;&gt;"+3v3",K122&lt;&gt;"GND",NOT(ISNA(P122)),NOT(ISNA(N122))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P122/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K122,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P122/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K122,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-7}]
-set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-7}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.096 [get_ports {PMOD-78-}]
+set_output_delay -clock clk_3v3_n -max 53.706 [get_ports {PMOD-78-}]
 </v>
       </c>
       <c r="Y122" s="7" t="str">
@@ -12221,19 +12224,19 @@
       </c>
       <c r="AB122" s="65" t="n">
         <f aca="false">$AB$104-P122</f>
-        <v>9.729</v>
+        <v>0</v>
       </c>
       <c r="AC122" s="66" t="n">
         <f aca="false">N122</f>
-        <v>79.23</v>
+        <v>94.471</v>
       </c>
       <c r="AD122" s="65" t="n">
         <f aca="false">AC122+AB122</f>
-        <v>88.959</v>
+        <v>94.471</v>
       </c>
       <c r="AE122" s="65" t="str">
         <f aca="false">H122</f>
-        <v>PMOD-7</v>
+        <v>PMOD-78-</v>
       </c>
       <c r="AF122" s="0" t="n">
         <f aca="false">MAX(P122,P124)-P122</f>
@@ -12245,7 +12248,7 @@
       </c>
       <c r="AH122" s="4" t="n">
         <f aca="false">N122+AF122</f>
-        <v>79.23</v>
+        <v>94.471</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12366,7 +12369,7 @@
       </c>
       <c r="K124" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H124)),$H124,"")</f>
-        <v>PMOD-8</v>
+        <v>PMOD-78+</v>
       </c>
       <c r="M124" s="0" t="n">
         <f aca="false">VLOOKUP(A124,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -12374,35 +12377,36 @@
       </c>
       <c r="N124" s="4" t="n">
         <f aca="false">VLOOKUP(K124,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>78.17</v>
+        <v>93.411</v>
       </c>
       <c r="P124" s="4" t="n">
         <f aca="false">IF(AND(M124&gt;0,N124&gt;0),M124+N124, "N/A")</f>
-        <v>96.52</v>
+        <v>111.761</v>
       </c>
       <c r="Q124" s="29" t="n">
         <f aca="false">IF(P124&gt;0,P124/25.4,)</f>
-        <v>3.8</v>
+        <v>4.40003937007874</v>
       </c>
       <c r="S124" s="4" t="n">
         <f aca="false">IF(P124&gt;0,P$136-P124,"")</f>
-        <v>-27.4220238429</v>
+        <v>-42.6630238429</v>
       </c>
       <c r="U124" s="30" t="str">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D124," [get_ports {",K124,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K124,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN N1 [get_ports {PMOD-8}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-8}]</v>
+        <v>set_property PACKAGE_PIN N1 [get_ports {PMOD-78+}]
+set_property IOSTANDARD LVTTL [get_ports {PMOD-78+}]
+</v>
       </c>
       <c r="V124" s="31" t="str">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S124/$V$8,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S124/$W$8,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-8}]
-set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-8}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.463 [get_ports {PMOD-78+}]
+set_input_delay -clock clk_3v3_n -max 52.534 [get_ports {PMOD-78+}]
 </v>
       </c>
       <c r="W124" s="31" t="str">
         <f aca="false">IF(AND(K124&lt;&gt;"",K124&lt;&gt;"+3v3",K124&lt;&gt;"GND",NOT(ISNA(P124)),NOT(ISNA(N124))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P124/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K124,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P124/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K124,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-8}]
-set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-8}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.096 [get_ports {PMOD-78+}]
+set_output_delay -clock clk_3v3_n -max 53.706 [get_ports {PMOD-78+}]
 </v>
       </c>
       <c r="Y124" s="7" t="str">
@@ -12411,19 +12415,19 @@
       </c>
       <c r="AB124" s="65" t="n">
         <f aca="false">$AB$104-P124</f>
-        <v>9.729</v>
+        <v>0</v>
       </c>
       <c r="AC124" s="66" t="n">
         <f aca="false">N124</f>
-        <v>78.17</v>
+        <v>93.411</v>
       </c>
       <c r="AD124" s="65" t="n">
         <f aca="false">AC124+AB124</f>
-        <v>87.899</v>
+        <v>93.411</v>
       </c>
       <c r="AE124" s="65" t="str">
         <f aca="false">H124</f>
-        <v>PMOD-8</v>
+        <v>PMOD-78+</v>
       </c>
       <c r="AF124" s="0" t="n">
         <f aca="false">MAX(P124,P122)-P124</f>
@@ -12435,7 +12439,7 @@
       </c>
       <c r="AH124" s="4" t="n">
         <f aca="false">N124+AF124</f>
-        <v>78.17</v>
+        <v>93.411</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12556,7 +12560,7 @@
       </c>
       <c r="K126" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H126)),$H126,"")</f>
-        <v>PMOD-5</v>
+        <v>PMOD-56-</v>
       </c>
       <c r="M126" s="0" t="n">
         <f aca="false">VLOOKUP(A126,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -12564,35 +12568,36 @@
       </c>
       <c r="N126" s="4" t="n">
         <f aca="false">VLOOKUP(K126,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>76.24</v>
+        <v>91.481</v>
       </c>
       <c r="P126" s="4" t="n">
         <f aca="false">IF(AND(M126&gt;0,N126&gt;0),M126+N126, "N/A")</f>
-        <v>96.52</v>
+        <v>111.761</v>
       </c>
       <c r="Q126" s="29" t="n">
         <f aca="false">IF(P126&gt;0,P126/25.4,)</f>
-        <v>3.8</v>
+        <v>4.40003937007874</v>
       </c>
       <c r="S126" s="4" t="n">
         <f aca="false">IF(P126&gt;0,P$136-P126,"")</f>
-        <v>-27.4220238429</v>
+        <v>-42.6630238429</v>
       </c>
       <c r="U126" s="30" t="str">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D126," [get_ports {",K126,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K126,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN M1 [get_ports {PMOD-5}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-5}]</v>
+        <v>set_property PACKAGE_PIN M1 [get_ports {PMOD-56-}]
+set_property IOSTANDARD LVTTL [get_ports {PMOD-56-}]
+</v>
       </c>
       <c r="V126" s="31" t="str">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S126/$V$8,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S126/$W$8,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-5}]
-set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-5}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.463 [get_ports {PMOD-56-}]
+set_input_delay -clock clk_3v3_n -max 52.534 [get_ports {PMOD-56-}]
 </v>
       </c>
       <c r="W126" s="31" t="str">
         <f aca="false">IF(AND(K126&lt;&gt;"",K126&lt;&gt;"+3v3",K126&lt;&gt;"GND",NOT(ISNA(P126)),NOT(ISNA(N126))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P126/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K126,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P126/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K126,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-5}]
-set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-5}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.096 [get_ports {PMOD-56-}]
+set_output_delay -clock clk_3v3_n -max 53.706 [get_ports {PMOD-56-}]
 </v>
       </c>
       <c r="Y126" s="7" t="str">
@@ -12605,19 +12610,19 @@
       </c>
       <c r="AB126" s="65" t="n">
         <f aca="false">$AB$104-P126</f>
-        <v>9.72900000000001</v>
+        <v>0</v>
       </c>
       <c r="AC126" s="66" t="n">
         <f aca="false">N126</f>
-        <v>76.24</v>
+        <v>91.481</v>
       </c>
       <c r="AD126" s="65" t="n">
         <f aca="false">AC126+AB126</f>
-        <v>85.969</v>
+        <v>91.481</v>
       </c>
       <c r="AE126" s="65" t="str">
         <f aca="false">H126</f>
-        <v>PMOD-5</v>
+        <v>PMOD-56-</v>
       </c>
       <c r="AF126" s="0" t="n">
         <f aca="false">MAX(P126,P128)-P126</f>
@@ -12629,7 +12634,7 @@
       </c>
       <c r="AH126" s="4" t="n">
         <f aca="false">N126+AF126</f>
-        <v>76.24</v>
+        <v>91.481</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12750,7 +12755,7 @@
       </c>
       <c r="K128" s="3" t="str">
         <f aca="false">IF(NOT(ISNA($H128)),$H128,"")</f>
-        <v>PMOD-6</v>
+        <v>PMOD-56+</v>
       </c>
       <c r="M128" s="0" t="n">
         <f aca="false">VLOOKUP(A128,'2.13 ping -&gt; trace length'!$A$1:$B$103,2,0)</f>
@@ -12758,35 +12763,36 @@
       </c>
       <c r="N128" s="4" t="n">
         <f aca="false">VLOOKUP(K128,'signal -&gt; trace length'!$A$2:$D$167,4,0)/1000000</f>
-        <v>74.38</v>
+        <v>89.621</v>
       </c>
       <c r="P128" s="4" t="n">
         <f aca="false">IF(AND(M128&gt;0,N128&gt;0),M128+N128, "N/A")</f>
-        <v>96.52</v>
+        <v>111.761</v>
       </c>
       <c r="Q128" s="29" t="n">
         <f aca="false">IF(P128&gt;0,P128/25.4,)</f>
-        <v>3.8</v>
+        <v>4.40003937007874</v>
       </c>
       <c r="S128" s="4" t="n">
         <f aca="false">IF(P128&gt;0,P$136-P128,"")</f>
-        <v>-27.4220238429</v>
+        <v>-42.6630238429</v>
       </c>
       <c r="U128" s="30" t="str">
         <f aca="false">IF(AND(K128&lt;&gt;"",K128&lt;&gt;"+3v3",K128&lt;&gt;"GND"),CONCATENATE("set_property PACKAGE_PIN ",D128," [get_ports {",K128,"}]",CHAR(10),"set_property IOSTANDARD LVTTL [get_ports {",K128,"}]",CHAR(10)),"")</f>
-        <v>set_property PACKAGE_PIN L1 [get_ports {PMOD-6}]
-set_property IOSTANDARD LVTTL [get_ports {PMOD-6}]</v>
+        <v>set_property PACKAGE_PIN L1 [get_ports {PMOD-56+}]
+set_property IOSTANDARD LVTTL [get_ports {PMOD-56+}]
+</v>
       </c>
       <c r="V128" s="31" t="str">
         <f aca="false">IF(AND(K128&lt;&gt;"",K128&lt;&gt;"+3v3",K128&lt;&gt;"GND",NOT(ISNA(P128)),NOT(ISNA(N128))),CONCATENATE("set_input_delay -clock clk_3v3_n -min ",TEXT(-0.25+$V$6-S128/$V$8,"0.000")," [get_ports {",K128,"}]",CHAR(10),"set_input_delay -clock clk_3v3_n -max ",TEXT(0.25+(100-$V$5)-S128/$W$8,"0.000")," [get_ports {",K128,"}]",CHAR(10)),"")</f>
-        <v>set_input_delay -clock clk_3v3_n -min 2.387 [get_ports {PMOD-6}]
-set_input_delay -clock clk_3v3_n -max 52.433 [get_ports {PMOD-6}]
+        <v>set_input_delay -clock clk_3v3_n -min 2.463 [get_ports {PMOD-56+}]
+set_input_delay -clock clk_3v3_n -max 52.534 [get_ports {PMOD-56+}]
 </v>
       </c>
       <c r="W128" s="31" t="str">
         <f aca="false">IF(AND(K128&lt;&gt;"",K128&lt;&gt;"+3v3",K128&lt;&gt;"GND",NOT(ISNA(P128)),NOT(ISNA(N128))),CONCATENATE("set_output_delay -clock clk_3v3_n -min ",TEXT(-$W$6+P128/$V$8+$P$136/$V$8,"0.000")," [get_ports {",K128,"}]",CHAR(10),"set_output_delay -clock clk_3v3_n -max ",TEXT(0.25+0.25+$W$5+P128/$W$8+$P$136/$W$8,"0.000")," [get_ports {",K128,"}]",CHAR(10)),"")</f>
-        <v>set_output_delay -clock clk_3v3_n -min -6.172 [get_ports {PMOD-6}]
-set_output_delay -clock clk_3v3_n -max 53.604 [get_ports {PMOD-6}]
+        <v>set_output_delay -clock clk_3v3_n -min -6.096 [get_ports {PMOD-56+}]
+set_output_delay -clock clk_3v3_n -max 53.706 [get_ports {PMOD-56+}]
 </v>
       </c>
       <c r="Y128" s="7" t="str">
@@ -12795,19 +12801,19 @@
       </c>
       <c r="AB128" s="65" t="n">
         <f aca="false">$AB$104-P128</f>
-        <v>9.72900000000001</v>
+        <v>0</v>
       </c>
       <c r="AC128" s="66" t="n">
         <f aca="false">N128</f>
-        <v>74.38</v>
+        <v>89.621</v>
       </c>
       <c r="AD128" s="65" t="n">
         <f aca="false">AC128+AB128</f>
-        <v>84.109</v>
+        <v>89.621</v>
       </c>
       <c r="AE128" s="65" t="str">
         <f aca="false">H128</f>
-        <v>PMOD-6</v>
+        <v>PMOD-56+</v>
       </c>
       <c r="AF128" s="0" t="n">
         <f aca="false">MAX(P128,P126)-P128</f>
@@ -12819,7 +12825,7 @@
       </c>
       <c r="AH128" s="4" t="n">
         <f aca="false">N128+AF128</f>
-        <v>74.38</v>
+        <v>89.621</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14430,8 +14436,8 @@
   </sheetPr>
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B103" activeCellId="0" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15257,8 +15263,8 @@
   </sheetPr>
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F109" activeCellId="0" sqref="F109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F111" activeCellId="0" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15270,12 +15276,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="116" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="117" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="116" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="118"/>
+      <c r="A1" s="117"/>
       <c r="B1" s="116" t="s">
         <v>613</v>
       </c>
@@ -15304,7 +15310,7 @@
       <c r="I2" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="J2" s="117" t="n">
+      <c r="J2" s="0" t="n">
         <v>95999860.2049</v>
       </c>
     </row>
@@ -15326,7 +15332,7 @@
       <c r="I3" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="J3" s="117" t="n">
+      <c r="J3" s="0" t="n">
         <v>94569000.4613</v>
       </c>
     </row>
@@ -15348,7 +15354,7 @@
       <c r="I4" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="J4" s="117" t="n">
+      <c r="J4" s="0" t="n">
         <v>93940166.3117</v>
       </c>
     </row>
@@ -15370,7 +15376,7 @@
       <c r="I5" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="J5" s="117" t="n">
+      <c r="J5" s="0" t="n">
         <v>94510133.1769</v>
       </c>
     </row>
@@ -15392,7 +15398,7 @@
       <c r="I6" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="J6" s="117" t="n">
+      <c r="J6" s="0" t="n">
         <v>88099538.181</v>
       </c>
     </row>
@@ -15414,7 +15420,7 @@
       <c r="I7" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="J7" s="117" t="n">
+      <c r="J7" s="0" t="n">
         <v>89039527.594</v>
       </c>
     </row>
@@ -15436,7 +15442,7 @@
       <c r="I8" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="J8" s="117" t="n">
+      <c r="J8" s="0" t="n">
         <v>86329726.3452</v>
       </c>
     </row>
@@ -15458,7 +15464,7 @@
       <c r="I9" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="J9" s="117" t="n">
+      <c r="J9" s="0" t="n">
         <v>84659758.3242</v>
       </c>
     </row>
@@ -16610,7 +16616,7 @@
         <v>19470987.7196</v>
       </c>
     </row>
-    <row r="84" s="119" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="118" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>658</v>
       </c>
@@ -16627,7 +16633,7 @@
       </c>
       <c r="G84" s="0"/>
       <c r="H84" s="0"/>
-      <c r="J84" s="120"/>
+      <c r="J84" s="119"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -16875,7 +16881,7 @@
       </c>
       <c r="B100" s="116" t="n">
         <f aca="false">1000000*F100</f>
-        <v>76240000</v>
+        <v>91481000</v>
       </c>
       <c r="C100" s="116" t="n">
         <f aca="false">B182</f>
@@ -16883,22 +16889,22 @@
       </c>
       <c r="D100" s="116" t="n">
         <f aca="false">B100+C100</f>
-        <v>76240000</v>
+        <v>91481000</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>76.24</v>
+        <v>91.481</v>
       </c>
       <c r="H100" s="0" t="n">
         <f aca="false">Summary!AD126</f>
-        <v>85.969</v>
+        <v>91.481</v>
       </c>
       <c r="I100" s="116" t="str">
         <f aca="false">A100</f>
-        <v>PMOD-5</v>
-      </c>
-      <c r="J100" s="117" t="n">
+        <v>PMOD-56-</v>
+      </c>
+      <c r="J100" s="0" t="n">
         <f aca="false">H100-F100</f>
-        <v>9.72900000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16907,7 +16913,7 @@
       </c>
       <c r="B101" s="116" t="n">
         <f aca="false">1000000*F101</f>
-        <v>74380000</v>
+        <v>89621000</v>
       </c>
       <c r="C101" s="116" t="n">
         <f aca="false">B183</f>
@@ -16915,22 +16921,22 @@
       </c>
       <c r="D101" s="116" t="n">
         <f aca="false">B101+C101</f>
-        <v>74380000</v>
+        <v>89621000</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>74.38</v>
+        <v>89.621</v>
       </c>
       <c r="H101" s="0" t="n">
         <f aca="false">Summary!AD128</f>
-        <v>84.109</v>
+        <v>89.621</v>
       </c>
       <c r="I101" s="116" t="str">
         <f aca="false">A101</f>
-        <v>PMOD-6</v>
-      </c>
-      <c r="J101" s="117" t="n">
+        <v>PMOD-56+</v>
+      </c>
+      <c r="J101" s="0" t="n">
         <f aca="false">H101-F101</f>
-        <v>9.72900000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16939,7 +16945,7 @@
       </c>
       <c r="B102" s="116" t="n">
         <f aca="false">1000000*F102</f>
-        <v>79230000</v>
+        <v>94471000</v>
       </c>
       <c r="C102" s="116" t="n">
         <f aca="false">B184</f>
@@ -16947,22 +16953,22 @@
       </c>
       <c r="D102" s="116" t="n">
         <f aca="false">B102+C102</f>
-        <v>79230000</v>
+        <v>94471000</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>79.23</v>
+        <v>94.471</v>
       </c>
       <c r="H102" s="0" t="n">
         <f aca="false">Summary!AD122</f>
-        <v>88.959</v>
+        <v>94.471</v>
       </c>
       <c r="I102" s="116" t="str">
         <f aca="false">A102</f>
-        <v>PMOD-7</v>
-      </c>
-      <c r="J102" s="117" t="n">
+        <v>PMOD-78-</v>
+      </c>
+      <c r="J102" s="0" t="n">
         <f aca="false">H102-F102</f>
-        <v>9.729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16971,7 +16977,7 @@
       </c>
       <c r="B103" s="116" t="n">
         <f aca="false">1000000*F103</f>
-        <v>78170000</v>
+        <v>93411000</v>
       </c>
       <c r="C103" s="116" t="n">
         <f aca="false">B185</f>
@@ -16979,22 +16985,22 @@
       </c>
       <c r="D103" s="116" t="n">
         <f aca="false">B103+C103</f>
-        <v>78170000</v>
+        <v>93411000</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>78.17</v>
+        <v>93.411</v>
       </c>
       <c r="H103" s="0" t="n">
         <f aca="false">Summary!AD124</f>
-        <v>87.899</v>
+        <v>93.411</v>
       </c>
       <c r="I103" s="116" t="str">
         <f aca="false">A103</f>
-        <v>PMOD-8</v>
-      </c>
-      <c r="J103" s="117" t="n">
+        <v>PMOD-78+</v>
+      </c>
+      <c r="J103" s="0" t="n">
         <f aca="false">H103-F103</f>
-        <v>9.729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17003,7 +17009,7 @@
       </c>
       <c r="B104" s="116" t="n">
         <f aca="false">1000000*F104</f>
-        <v>82340000</v>
+        <v>97581000</v>
       </c>
       <c r="C104" s="116" t="n">
         <f aca="false">B186</f>
@@ -17011,22 +17017,22 @@
       </c>
       <c r="D104" s="116" t="n">
         <f aca="false">B104+C104</f>
-        <v>82340000</v>
+        <v>97581000</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>82.34</v>
+        <v>97.581</v>
       </c>
       <c r="H104" s="0" t="n">
         <f aca="false">Summary!AD118</f>
-        <v>92.069</v>
+        <v>97.581</v>
       </c>
       <c r="I104" s="116" t="str">
         <f aca="false">A104</f>
-        <v>PMOD-9</v>
-      </c>
-      <c r="J104" s="117" t="n">
+        <v>PMOD-910-</v>
+      </c>
+      <c r="J104" s="0" t="n">
         <f aca="false">H104-F104</f>
-        <v>9.729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17035,7 +17041,7 @@
       </c>
       <c r="B105" s="116" t="n">
         <f aca="false">1000000*F105</f>
-        <v>80590000</v>
+        <v>95831000</v>
       </c>
       <c r="C105" s="116" t="n">
         <f aca="false">B187</f>
@@ -17043,22 +17049,22 @@
       </c>
       <c r="D105" s="116" t="n">
         <f aca="false">B105+C105</f>
-        <v>80590000</v>
+        <v>95831000</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>80.59</v>
+        <v>95.831</v>
       </c>
       <c r="H105" s="0" t="n">
         <f aca="false">Summary!AD120</f>
-        <v>90.319</v>
+        <v>95.831</v>
       </c>
       <c r="I105" s="116" t="str">
         <f aca="false">A105</f>
-        <v>PMOD-10</v>
-      </c>
-      <c r="J105" s="117" t="n">
+        <v>PMOD-910+</v>
+      </c>
+      <c r="J105" s="0" t="n">
         <f aca="false">H105-F105</f>
-        <v>9.729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17067,7 +17073,7 @@
       </c>
       <c r="B106" s="116" t="n">
         <f aca="false">1000000*F106</f>
-        <v>85000000</v>
+        <v>100241000</v>
       </c>
       <c r="C106" s="116" t="n">
         <f aca="false">B188</f>
@@ -17075,22 +17081,22 @@
       </c>
       <c r="D106" s="116" t="n">
         <f aca="false">B106+C106</f>
-        <v>85000000</v>
+        <v>100241000</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>85</v>
+        <v>100.241</v>
       </c>
       <c r="H106" s="0" t="n">
         <f aca="false">Summary!AD114</f>
-        <v>94.729</v>
+        <v>100.241</v>
       </c>
       <c r="I106" s="116" t="str">
         <f aca="false">A106</f>
-        <v>PMOD-11</v>
-      </c>
-      <c r="J106" s="117" t="n">
+        <v>PMOD-1112-</v>
+      </c>
+      <c r="J106" s="0" t="n">
         <f aca="false">H106-F106</f>
-        <v>9.72900000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17099,7 +17105,7 @@
       </c>
       <c r="B107" s="116" t="n">
         <f aca="false">1000000*F107</f>
-        <v>83610000</v>
+        <v>98851000</v>
       </c>
       <c r="C107" s="116" t="n">
         <f aca="false">B189</f>
@@ -17107,22 +17113,22 @@
       </c>
       <c r="D107" s="116" t="n">
         <f aca="false">B107+C107</f>
-        <v>83610000</v>
+        <v>98851000</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>83.61</v>
+        <v>98.851</v>
       </c>
       <c r="H107" s="0" t="n">
         <f aca="false">Summary!AD116</f>
-        <v>93.339</v>
+        <v>98.851</v>
       </c>
       <c r="I107" s="116" t="str">
         <f aca="false">A107</f>
-        <v>PMOD-12</v>
-      </c>
-      <c r="J107" s="117" t="n">
+        <v>PMOD-1112+</v>
+      </c>
+      <c r="J107" s="0" t="n">
         <f aca="false">H107-F107</f>
-        <v>9.72900000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17131,7 +17137,7 @@
       </c>
       <c r="B108" s="116" t="n">
         <f aca="false">1000000*F108</f>
-        <v>81790000</v>
+        <v>97031000</v>
       </c>
       <c r="C108" s="116" t="n">
         <f aca="false">B190</f>
@@ -17139,22 +17145,22 @@
       </c>
       <c r="D108" s="116" t="n">
         <f aca="false">B108+C108</f>
-        <v>81790000</v>
+        <v>97031000</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>81.79</v>
+        <v>97.031</v>
       </c>
       <c r="H108" s="0" t="n">
         <f aca="false">Summary!AD110</f>
-        <v>91.519</v>
+        <v>97.031</v>
       </c>
       <c r="I108" s="116" t="str">
         <f aca="false">A108</f>
-        <v>PMOD-13</v>
-      </c>
-      <c r="J108" s="117" t="n">
+        <v>PMOD-1314-</v>
+      </c>
+      <c r="J108" s="0" t="n">
         <f aca="false">H108-F108</f>
-        <v>9.729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17163,7 +17169,7 @@
       </c>
       <c r="B109" s="116" t="n">
         <f aca="false">1000000*F109</f>
-        <v>82904000</v>
+        <v>98141000</v>
       </c>
       <c r="C109" s="116" t="n">
         <f aca="false">B191</f>
@@ -17171,22 +17177,22 @@
       </c>
       <c r="D109" s="116" t="n">
         <f aca="false">B109+C109</f>
-        <v>82904000</v>
+        <v>98141000</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>82.904</v>
+        <v>98.141</v>
       </c>
       <c r="H109" s="0" t="n">
         <f aca="false">Summary!AD112</f>
-        <v>92.629</v>
+        <v>98.141</v>
       </c>
       <c r="I109" s="116" t="str">
         <f aca="false">A109</f>
-        <v>PMOD-14</v>
-      </c>
-      <c r="J109" s="117" t="n">
+        <v>PMOD-1314+</v>
+      </c>
+      <c r="J109" s="0" t="n">
         <f aca="false">H109-F109</f>
-        <v>9.72500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17195,7 +17201,7 @@
       </c>
       <c r="B110" s="116" t="n">
         <f aca="false">1000000*F110</f>
-        <v>86739000</v>
+        <v>92251000</v>
       </c>
       <c r="C110" s="116" t="n">
         <f aca="false">B192</f>
@@ -17203,20 +17209,20 @@
       </c>
       <c r="D110" s="116" t="n">
         <f aca="false">B110+C110</f>
-        <v>86739000</v>
+        <v>92251000</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>86.739</v>
+        <v>92.251</v>
       </c>
       <c r="H110" s="0" t="n">
         <f aca="false">Summary!AD106</f>
-        <v>86.739</v>
+        <v>92.251</v>
       </c>
       <c r="I110" s="116" t="str">
         <f aca="false">A110</f>
-        <v>PMOD-15</v>
-      </c>
-      <c r="J110" s="117" t="n">
+        <v>PMOD-1516-</v>
+      </c>
+      <c r="J110" s="0" t="n">
         <f aca="false">H110-F110</f>
         <v>0</v>
       </c>
@@ -17227,7 +17233,7 @@
       </c>
       <c r="B111" s="116" t="n">
         <f aca="false">1000000*F111</f>
-        <v>88060000</v>
+        <v>94171000</v>
       </c>
       <c r="C111" s="116" t="n">
         <f aca="false">B193</f>
@@ -17235,22 +17241,22 @@
       </c>
       <c r="D111" s="116" t="n">
         <f aca="false">B111+C111</f>
-        <v>88060000</v>
+        <v>94171000</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>88.06</v>
+        <v>94.171</v>
       </c>
       <c r="H111" s="0" t="n">
         <f aca="false">Summary!AD108</f>
-        <v>88.659</v>
+        <v>94.171</v>
       </c>
       <c r="I111" s="116" t="str">
         <f aca="false">A111</f>
-        <v>PMOD-16</v>
-      </c>
-      <c r="J111" s="117" t="n">
+        <v>PMOD-1516+</v>
+      </c>
+      <c r="J111" s="0" t="n">
         <f aca="false">H111-F111</f>
-        <v>0.599000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17982,9 +17988,9 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J171" s="117" t="n">
+      <c r="J171" s="0" t="n">
         <f aca="false">SUM(H132:H165,H92:H125,H50:H90,H2:H43)</f>
-        <v>1076.938</v>
+        <v>1143.082</v>
       </c>
     </row>
   </sheetData>
@@ -18026,62 +18032,62 @@
         <v>667</v>
       </c>
     </row>
-    <row r="2" s="121" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="121" t="n">
+    <row r="2" s="120" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="120" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="120" t="s">
         <v>668</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="120" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="121" t="n">
+      <c r="A3" s="120" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="120" t="s">
         <v>669</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="120" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="121" t="n">
+      <c r="A4" s="120" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="120" t="s">
         <v>671</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="120" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="121" t="n">
+      <c r="A5" s="120" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="120" t="s">
         <v>672</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="120" t="s">
         <v>63</v>
       </c>
     </row>
